--- a/ĐƠN HÀNG.xlsx
+++ b/ĐƠN HÀNG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CB83E9-A5E1-4304-AC7E-631BE8940898}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C41DC5-4481-441F-88F7-C6A635A8577F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>STT</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>TIỀN CÔNG</t>
-  </si>
-  <si>
-    <t>1 tệ = 3850, KHÔNG THAY ĐỔI. Lãi 30k/1sp. Phí ship hàng nặng 20k - 25k/1 sp (Quần jean, áo phao, …), hàng nhẹ 15k/1sp. CÔNG đồng giá 20k cho đơn hàng dưới 10 tệ, 30k cho đơn hàng dưới 50 tệ, 35k cho đơn hàng trên 50 tệ, 45k cho đơn hàng trên 100 tệ. Hạn chế phí ship nội địa</t>
   </si>
   <si>
     <t>HÀNG ĐỢT THỨ</t>
@@ -119,6 +116,51 @@
   </si>
   <si>
     <t>LINK FB ( NẾU CÓ)</t>
+  </si>
+  <si>
+    <t>1 tệ = 3850, KHÔNG THAY ĐỔI. Phí ship hàng nặng 20k - 25k/1 sp (Quần jean, áo phao, …), hàng nhẹ 15k/1sp. CÔNG đồng giá 20k cho đơn hàng dưới 10 tệ, 30k cho đơn hàng dưới 50 tệ, 35k cho đơn hàng trên 50 tệ, 45k cho đơn hàng trên 100 tệ. Hạn chế phí ship nội địa</t>
+  </si>
+  <si>
+    <t>Thân Nữ Nguyệt Nhi</t>
+  </si>
+  <si>
+    <t>HÀ NỘI</t>
+  </si>
+  <si>
+    <t>0988121356</t>
+  </si>
+  <si>
+    <t>giày cao gót xanh 3p</t>
+  </si>
+  <si>
+    <t>Size 39, màu xanh</t>
+  </si>
+  <si>
+    <t>Túi đeo chéo xanh</t>
+  </si>
+  <si>
+    <t>màu xanh</t>
+  </si>
+  <si>
+    <t>size 36, kem</t>
+  </si>
+  <si>
+    <t>Bộ đồ chuối cho chó màu vàng</t>
+  </si>
+  <si>
+    <t>bộ đồ xanh cho chó1</t>
+  </si>
+  <si>
+    <t>vàng, size</t>
+  </si>
+  <si>
+    <t>xanh, size</t>
+  </si>
+  <si>
+    <t>áo blazer 4 khuy xanh</t>
+  </si>
+  <si>
+    <t>size</t>
   </si>
 </sst>
 </file>
@@ -197,9 +239,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -210,6 +249,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -508,17 +556,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U556"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.36328125" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="6.90625" customWidth="1"/>
     <col min="7" max="8" width="10.81640625" customWidth="1"/>
     <col min="9" max="9" width="10.36328125" customWidth="1"/>
@@ -535,50 +583,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
+      <c r="B1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -597,51 +645,51 @@
         <v>12</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T5" t="s">
         <v>9</v>
       </c>
       <c r="U5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="6">
-        <v>988121356</v>
+      <c r="C6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -669,23 +717,33 @@
         <v>44806</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="Q6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="B7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -697,17 +755,27 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="O7" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="B8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -719,17 +787,27 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="O8" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="B9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -741,17 +819,27 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="O9" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="B10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -763,17 +851,23 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="O10" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -785,15 +879,17 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="O11" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -813,9 +909,9 @@
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -835,9 +931,9 @@
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -857,9 +953,9 @@
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -879,9 +975,9 @@
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -901,9 +997,9 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -923,9 +1019,9 @@
       <c r="A18" s="1">
         <v>13</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -945,9 +1041,9 @@
       <c r="A19" s="1">
         <v>14</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -967,9 +1063,9 @@
       <c r="A20" s="1">
         <v>15</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -989,9 +1085,9 @@
       <c r="A21" s="1">
         <v>16</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1011,9 +1107,9 @@
       <c r="A22" s="1">
         <v>17</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1033,9 +1129,9 @@
       <c r="A23" s="1">
         <v>18</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1055,9 +1151,9 @@
       <c r="A24" s="1">
         <v>19</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1077,9 +1173,9 @@
       <c r="A25" s="1">
         <v>20</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1099,9 +1195,9 @@
       <c r="A26" s="1">
         <v>21</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1121,9 +1217,9 @@
       <c r="A27" s="1">
         <v>22</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1143,9 +1239,9 @@
       <c r="A28" s="1">
         <v>23</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -1165,9 +1261,9 @@
       <c r="A29" s="1">
         <v>24</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -1187,9 +1283,9 @@
       <c r="A30" s="1">
         <v>25</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -1209,9 +1305,9 @@
       <c r="A31" s="1">
         <v>26</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1231,9 +1327,9 @@
       <c r="A32" s="1">
         <v>27</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1253,9 +1349,9 @@
       <c r="A33" s="1">
         <v>28</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1275,9 +1371,9 @@
       <c r="A34" s="1">
         <v>29</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -1297,9 +1393,9 @@
       <c r="A35" s="1">
         <v>30</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1319,9 +1415,9 @@
       <c r="A36" s="1">
         <v>31</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="12"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1341,9 +1437,9 @@
       <c r="A37" s="1">
         <v>32</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="12"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -1363,9 +1459,9 @@
       <c r="A38" s="1">
         <v>33</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="12"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -1385,9 +1481,9 @@
       <c r="A39" s="1">
         <v>34</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="12"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -1407,9 +1503,9 @@
       <c r="A40" s="1">
         <v>35</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="12"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -1429,9 +1525,9 @@
       <c r="A41" s="1">
         <v>36</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="12"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -1451,9 +1547,9 @@
       <c r="A42" s="1">
         <v>37</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="12"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -1473,9 +1569,9 @@
       <c r="A43" s="1">
         <v>38</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="12"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -1495,9 +1591,9 @@
       <c r="A44" s="1">
         <v>39</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="12"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -1517,9 +1613,9 @@
       <c r="A45" s="1">
         <v>40</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="12"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -1539,9 +1635,9 @@
       <c r="A46" s="1">
         <v>41</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="12"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -1561,9 +1657,9 @@
       <c r="A47" s="1">
         <v>42</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="12"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -1583,9 +1679,9 @@
       <c r="A48" s="1">
         <v>43</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="12"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -1605,9 +1701,9 @@
       <c r="A49" s="1">
         <v>44</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="12"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -1627,9 +1723,9 @@
       <c r="A50" s="1">
         <v>45</v>
       </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="12"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -1649,9 +1745,9 @@
       <c r="A51" s="1">
         <v>46</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="12"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -1671,9 +1767,9 @@
       <c r="A52" s="1">
         <v>47</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="12"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -1693,9 +1789,9 @@
       <c r="A53" s="1">
         <v>48</v>
       </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="12"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -1715,9 +1811,9 @@
       <c r="A54" s="1">
         <v>49</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="12"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -1737,9 +1833,9 @@
       <c r="A55" s="1">
         <v>50</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="12"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -1759,9 +1855,9 @@
       <c r="A56" s="1">
         <v>51</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="12"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -1781,9 +1877,9 @@
       <c r="A57" s="1">
         <v>52</v>
       </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="12"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -1803,9 +1899,9 @@
       <c r="A58" s="1">
         <v>53</v>
       </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="12"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -1825,9 +1921,9 @@
       <c r="A59" s="1">
         <v>54</v>
       </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="12"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -1847,9 +1943,9 @@
       <c r="A60" s="1">
         <v>55</v>
       </c>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="12"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -1869,9 +1965,9 @@
       <c r="A61" s="1">
         <v>56</v>
       </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="12"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -1891,9 +1987,9 @@
       <c r="A62" s="1">
         <v>57</v>
       </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="12"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -1913,9 +2009,9 @@
       <c r="A63" s="1">
         <v>58</v>
       </c>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="12"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -1935,9 +2031,9 @@
       <c r="A64" s="1">
         <v>59</v>
       </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="12"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -1957,9 +2053,9 @@
       <c r="A65" s="1">
         <v>60</v>
       </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="12"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -1979,9 +2075,9 @@
       <c r="A66" s="1">
         <v>61</v>
       </c>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="12"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -2001,9 +2097,9 @@
       <c r="A67" s="1">
         <v>62</v>
       </c>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="12"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -2023,9 +2119,9 @@
       <c r="A68" s="1">
         <v>63</v>
       </c>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="12"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -2045,9 +2141,9 @@
       <c r="A69" s="1">
         <v>64</v>
       </c>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="12"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -2067,9 +2163,9 @@
       <c r="A70" s="1">
         <v>65</v>
       </c>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="12"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -2089,9 +2185,9 @@
       <c r="A71" s="1">
         <v>66</v>
       </c>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="12"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -2111,9 +2207,9 @@
       <c r="A72" s="1">
         <v>67</v>
       </c>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="12"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -2133,9 +2229,9 @@
       <c r="A73" s="1">
         <v>68</v>
       </c>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="12"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -2155,9 +2251,9 @@
       <c r="A74" s="1">
         <v>69</v>
       </c>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="12"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -2177,9 +2273,9 @@
       <c r="A75" s="1">
         <v>70</v>
       </c>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="12"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -2199,9 +2295,9 @@
       <c r="A76" s="1">
         <v>71</v>
       </c>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="12"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -2221,9 +2317,9 @@
       <c r="A77" s="1">
         <v>72</v>
       </c>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="12"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -2243,9 +2339,9 @@
       <c r="A78" s="1">
         <v>73</v>
       </c>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="12"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -2265,9 +2361,9 @@
       <c r="A79" s="1">
         <v>74</v>
       </c>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="12"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -2287,9 +2383,9 @@
       <c r="A80" s="1">
         <v>75</v>
       </c>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="12"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -2309,9 +2405,9 @@
       <c r="A81" s="1">
         <v>76</v>
       </c>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="12"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -2331,9 +2427,9 @@
       <c r="A82" s="1">
         <v>77</v>
       </c>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="12"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -2353,9 +2449,9 @@
       <c r="A83" s="1">
         <v>78</v>
       </c>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="12"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -2375,9 +2471,9 @@
       <c r="A84" s="1">
         <v>79</v>
       </c>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="12"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -2397,9 +2493,9 @@
       <c r="A85" s="1">
         <v>80</v>
       </c>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="12"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -2419,9 +2515,9 @@
       <c r="A86" s="1">
         <v>81</v>
       </c>
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="12"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -2441,9 +2537,9 @@
       <c r="A87" s="1">
         <v>82</v>
       </c>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="12"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -2463,9 +2559,9 @@
       <c r="A88" s="1">
         <v>83</v>
       </c>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="6"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="12"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -2485,9 +2581,9 @@
       <c r="A89" s="1">
         <v>84</v>
       </c>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="6"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="12"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -2507,9 +2603,9 @@
       <c r="A90" s="1">
         <v>85</v>
       </c>
-      <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="12"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -2529,9 +2625,9 @@
       <c r="A91" s="1">
         <v>86</v>
       </c>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="12"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -2551,9 +2647,9 @@
       <c r="A92" s="1">
         <v>87</v>
       </c>
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="12"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -2573,9 +2669,9 @@
       <c r="A93" s="1">
         <v>88</v>
       </c>
-      <c r="B93" s="9"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="12"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -2595,9 +2691,9 @@
       <c r="A94" s="1">
         <v>89</v>
       </c>
-      <c r="B94" s="9"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="12"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -2617,9 +2713,9 @@
       <c r="A95" s="1">
         <v>90</v>
       </c>
-      <c r="B95" s="9"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="12"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -2639,9 +2735,9 @@
       <c r="A96" s="1">
         <v>91</v>
       </c>
-      <c r="B96" s="9"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="12"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -2661,9 +2757,9 @@
       <c r="A97" s="1">
         <v>92</v>
       </c>
-      <c r="B97" s="9"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="12"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
@@ -2683,9 +2779,9 @@
       <c r="A98" s="1">
         <v>93</v>
       </c>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="12"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
@@ -2705,9 +2801,9 @@
       <c r="A99" s="1">
         <v>94</v>
       </c>
-      <c r="B99" s="9"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="6"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="12"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -2727,9 +2823,9 @@
       <c r="A100" s="1">
         <v>95</v>
       </c>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="12"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
@@ -2749,9 +2845,9 @@
       <c r="A101" s="1">
         <v>96</v>
       </c>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="12"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
@@ -2771,9 +2867,9 @@
       <c r="A102" s="1">
         <v>97</v>
       </c>
-      <c r="B102" s="9"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="6"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="12"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -2793,9 +2889,9 @@
       <c r="A103" s="1">
         <v>98</v>
       </c>
-      <c r="B103" s="9"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="6"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="12"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
@@ -2815,9 +2911,9 @@
       <c r="A104" s="1">
         <v>99</v>
       </c>
-      <c r="B104" s="9"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="6"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="12"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
@@ -2837,9 +2933,9 @@
       <c r="A105" s="1">
         <v>100</v>
       </c>
-      <c r="B105" s="9"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="6"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="12"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
@@ -2859,9 +2955,9 @@
       <c r="A106" s="1">
         <v>101</v>
       </c>
-      <c r="B106" s="9"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="12"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
@@ -2881,9 +2977,9 @@
       <c r="A107" s="1">
         <v>102</v>
       </c>
-      <c r="B107" s="9"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="6"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="12"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
@@ -2903,9 +2999,9 @@
       <c r="A108" s="1">
         <v>103</v>
       </c>
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="6"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="12"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
@@ -2925,9 +3021,9 @@
       <c r="A109" s="1">
         <v>104</v>
       </c>
-      <c r="B109" s="9"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="6"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="12"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
@@ -2947,9 +3043,9 @@
       <c r="A110" s="1">
         <v>105</v>
       </c>
-      <c r="B110" s="9"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="6"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="12"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
@@ -2969,9 +3065,9 @@
       <c r="A111" s="1">
         <v>106</v>
       </c>
-      <c r="B111" s="9"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="6"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="12"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
@@ -2991,9 +3087,9 @@
       <c r="A112" s="1">
         <v>107</v>
       </c>
-      <c r="B112" s="9"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="6"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="12"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
@@ -3013,9 +3109,9 @@
       <c r="A113" s="1">
         <v>108</v>
       </c>
-      <c r="B113" s="9"/>
-      <c r="C113" s="9"/>
-      <c r="D113" s="6"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="12"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
@@ -3035,9 +3131,9 @@
       <c r="A114" s="1">
         <v>109</v>
       </c>
-      <c r="B114" s="9"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="6"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="12"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
@@ -3057,9 +3153,9 @@
       <c r="A115" s="1">
         <v>110</v>
       </c>
-      <c r="B115" s="9"/>
-      <c r="C115" s="9"/>
-      <c r="D115" s="6"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="12"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
@@ -3079,9 +3175,9 @@
       <c r="A116" s="1">
         <v>111</v>
       </c>
-      <c r="B116" s="9"/>
-      <c r="C116" s="9"/>
-      <c r="D116" s="6"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="12"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
@@ -3101,9 +3197,9 @@
       <c r="A117" s="1">
         <v>112</v>
       </c>
-      <c r="B117" s="9"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="6"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="12"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
@@ -3123,9 +3219,9 @@
       <c r="A118" s="1">
         <v>113</v>
       </c>
-      <c r="B118" s="9"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="6"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="12"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
@@ -3145,9 +3241,9 @@
       <c r="A119" s="1">
         <v>114</v>
       </c>
-      <c r="B119" s="9"/>
-      <c r="C119" s="9"/>
-      <c r="D119" s="6"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="12"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
@@ -3167,9 +3263,9 @@
       <c r="A120" s="1">
         <v>115</v>
       </c>
-      <c r="B120" s="9"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="6"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="12"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
@@ -3189,9 +3285,9 @@
       <c r="A121" s="1">
         <v>116</v>
       </c>
-      <c r="B121" s="9"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="6"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="12"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -3211,9 +3307,9 @@
       <c r="A122" s="1">
         <v>117</v>
       </c>
-      <c r="B122" s="9"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="6"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="12"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
@@ -3233,9 +3329,9 @@
       <c r="A123" s="1">
         <v>118</v>
       </c>
-      <c r="B123" s="9"/>
-      <c r="C123" s="9"/>
-      <c r="D123" s="6"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="12"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
@@ -3255,9 +3351,9 @@
       <c r="A124" s="1">
         <v>119</v>
       </c>
-      <c r="B124" s="9"/>
-      <c r="C124" s="9"/>
-      <c r="D124" s="6"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="12"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
@@ -3277,9 +3373,9 @@
       <c r="A125" s="1">
         <v>120</v>
       </c>
-      <c r="B125" s="9"/>
-      <c r="C125" s="9"/>
-      <c r="D125" s="6"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="12"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
@@ -3299,9 +3395,9 @@
       <c r="A126" s="1">
         <v>121</v>
       </c>
-      <c r="B126" s="9"/>
-      <c r="C126" s="9"/>
-      <c r="D126" s="6"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="12"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
@@ -3321,9 +3417,9 @@
       <c r="A127" s="1">
         <v>122</v>
       </c>
-      <c r="B127" s="9"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="6"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="12"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
@@ -3343,9 +3439,9 @@
       <c r="A128" s="1">
         <v>123</v>
       </c>
-      <c r="B128" s="9"/>
-      <c r="C128" s="9"/>
-      <c r="D128" s="6"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="12"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
@@ -3365,9 +3461,9 @@
       <c r="A129" s="1">
         <v>124</v>
       </c>
-      <c r="B129" s="9"/>
-      <c r="C129" s="9"/>
-      <c r="D129" s="6"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="12"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
@@ -3387,9 +3483,9 @@
       <c r="A130" s="1">
         <v>125</v>
       </c>
-      <c r="B130" s="9"/>
-      <c r="C130" s="9"/>
-      <c r="D130" s="6"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="12"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
@@ -3409,9 +3505,9 @@
       <c r="A131" s="1">
         <v>126</v>
       </c>
-      <c r="B131" s="9"/>
-      <c r="C131" s="9"/>
-      <c r="D131" s="6"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="12"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -3431,9 +3527,9 @@
       <c r="A132" s="1">
         <v>127</v>
       </c>
-      <c r="B132" s="9"/>
-      <c r="C132" s="9"/>
-      <c r="D132" s="6"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="12"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
@@ -3453,9 +3549,9 @@
       <c r="A133" s="1">
         <v>128</v>
       </c>
-      <c r="B133" s="9"/>
-      <c r="C133" s="9"/>
-      <c r="D133" s="6"/>
+      <c r="B133" s="6"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="12"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
@@ -3475,9 +3571,9 @@
       <c r="A134" s="1">
         <v>129</v>
       </c>
-      <c r="B134" s="9"/>
-      <c r="C134" s="9"/>
-      <c r="D134" s="6"/>
+      <c r="B134" s="6"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="12"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
@@ -3497,9 +3593,9 @@
       <c r="A135" s="1">
         <v>130</v>
       </c>
-      <c r="B135" s="9"/>
-      <c r="C135" s="9"/>
-      <c r="D135" s="6"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="12"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -3519,9 +3615,9 @@
       <c r="A136" s="1">
         <v>131</v>
       </c>
-      <c r="B136" s="9"/>
-      <c r="C136" s="9"/>
-      <c r="D136" s="6"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="12"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
@@ -3541,9 +3637,9 @@
       <c r="A137" s="1">
         <v>132</v>
       </c>
-      <c r="B137" s="9"/>
-      <c r="C137" s="9"/>
-      <c r="D137" s="6"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="12"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
@@ -3563,9 +3659,9 @@
       <c r="A138" s="1">
         <v>133</v>
       </c>
-      <c r="B138" s="9"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="6"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="12"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
@@ -3585,9 +3681,9 @@
       <c r="A139" s="1">
         <v>134</v>
       </c>
-      <c r="B139" s="9"/>
-      <c r="C139" s="9"/>
-      <c r="D139" s="6"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="12"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
@@ -3607,9 +3703,9 @@
       <c r="A140" s="1">
         <v>135</v>
       </c>
-      <c r="B140" s="9"/>
-      <c r="C140" s="9"/>
-      <c r="D140" s="6"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="12"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
@@ -3629,9 +3725,9 @@
       <c r="A141" s="1">
         <v>136</v>
       </c>
-      <c r="B141" s="9"/>
-      <c r="C141" s="9"/>
-      <c r="D141" s="6"/>
+      <c r="B141" s="6"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="12"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
@@ -3651,9 +3747,9 @@
       <c r="A142" s="1">
         <v>137</v>
       </c>
-      <c r="B142" s="9"/>
-      <c r="C142" s="9"/>
-      <c r="D142" s="6"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="12"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
@@ -3673,9 +3769,9 @@
       <c r="A143" s="1">
         <v>138</v>
       </c>
-      <c r="B143" s="9"/>
-      <c r="C143" s="9"/>
-      <c r="D143" s="6"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="12"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
@@ -3695,9 +3791,9 @@
       <c r="A144" s="1">
         <v>139</v>
       </c>
-      <c r="B144" s="9"/>
-      <c r="C144" s="9"/>
-      <c r="D144" s="6"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="12"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
@@ -3717,9 +3813,9 @@
       <c r="A145" s="1">
         <v>140</v>
       </c>
-      <c r="B145" s="9"/>
-      <c r="C145" s="9"/>
-      <c r="D145" s="6"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="12"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
@@ -3739,9 +3835,9 @@
       <c r="A146" s="1">
         <v>141</v>
       </c>
-      <c r="B146" s="9"/>
-      <c r="C146" s="9"/>
-      <c r="D146" s="6"/>
+      <c r="B146" s="6"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="12"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
@@ -3761,9 +3857,9 @@
       <c r="A147" s="1">
         <v>142</v>
       </c>
-      <c r="B147" s="9"/>
-      <c r="C147" s="9"/>
-      <c r="D147" s="6"/>
+      <c r="B147" s="6"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="12"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
@@ -3783,9 +3879,9 @@
       <c r="A148" s="1">
         <v>143</v>
       </c>
-      <c r="B148" s="9"/>
-      <c r="C148" s="9"/>
-      <c r="D148" s="6"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="12"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
@@ -3805,9 +3901,9 @@
       <c r="A149" s="1">
         <v>144</v>
       </c>
-      <c r="B149" s="9"/>
-      <c r="C149" s="9"/>
-      <c r="D149" s="6"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="12"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
@@ -3827,9 +3923,9 @@
       <c r="A150" s="1">
         <v>145</v>
       </c>
-      <c r="B150" s="9"/>
-      <c r="C150" s="9"/>
-      <c r="D150" s="6"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="12"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
@@ -3849,9 +3945,9 @@
       <c r="A151" s="1">
         <v>146</v>
       </c>
-      <c r="B151" s="9"/>
-      <c r="C151" s="9"/>
-      <c r="D151" s="6"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="12"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
@@ -3871,9 +3967,9 @@
       <c r="A152" s="1">
         <v>147</v>
       </c>
-      <c r="B152" s="9"/>
-      <c r="C152" s="9"/>
-      <c r="D152" s="6"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="12"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
@@ -3893,9 +3989,9 @@
       <c r="A153" s="1">
         <v>148</v>
       </c>
-      <c r="B153" s="9"/>
-      <c r="C153" s="9"/>
-      <c r="D153" s="6"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="12"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
@@ -3915,9 +4011,9 @@
       <c r="A154" s="1">
         <v>149</v>
       </c>
-      <c r="B154" s="9"/>
-      <c r="C154" s="9"/>
-      <c r="D154" s="6"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="12"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
@@ -3937,9 +4033,9 @@
       <c r="A155" s="1">
         <v>150</v>
       </c>
-      <c r="B155" s="9"/>
-      <c r="C155" s="9"/>
-      <c r="D155" s="6"/>
+      <c r="B155" s="6"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="12"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
@@ -3959,9 +4055,9 @@
       <c r="A156" s="1">
         <v>151</v>
       </c>
-      <c r="B156" s="9"/>
-      <c r="C156" s="9"/>
-      <c r="D156" s="6"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="12"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
@@ -3981,9 +4077,9 @@
       <c r="A157" s="1">
         <v>152</v>
       </c>
-      <c r="B157" s="9"/>
-      <c r="C157" s="9"/>
-      <c r="D157" s="6"/>
+      <c r="B157" s="6"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="12"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
@@ -4003,9 +4099,9 @@
       <c r="A158" s="1">
         <v>153</v>
       </c>
-      <c r="B158" s="9"/>
-      <c r="C158" s="9"/>
-      <c r="D158" s="6"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="12"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
@@ -4025,9 +4121,9 @@
       <c r="A159" s="1">
         <v>154</v>
       </c>
-      <c r="B159" s="9"/>
-      <c r="C159" s="9"/>
-      <c r="D159" s="6"/>
+      <c r="B159" s="6"/>
+      <c r="C159" s="6"/>
+      <c r="D159" s="12"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
@@ -4047,9 +4143,9 @@
       <c r="A160" s="1">
         <v>155</v>
       </c>
-      <c r="B160" s="9"/>
-      <c r="C160" s="9"/>
-      <c r="D160" s="6"/>
+      <c r="B160" s="6"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="12"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
@@ -4069,9 +4165,9 @@
       <c r="A161" s="1">
         <v>156</v>
       </c>
-      <c r="B161" s="9"/>
-      <c r="C161" s="9"/>
-      <c r="D161" s="6"/>
+      <c r="B161" s="6"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="12"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
@@ -4091,9 +4187,9 @@
       <c r="A162" s="1">
         <v>157</v>
       </c>
-      <c r="B162" s="9"/>
-      <c r="C162" s="9"/>
-      <c r="D162" s="6"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="12"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
@@ -4113,9 +4209,9 @@
       <c r="A163" s="1">
         <v>158</v>
       </c>
-      <c r="B163" s="9"/>
-      <c r="C163" s="9"/>
-      <c r="D163" s="6"/>
+      <c r="B163" s="6"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="12"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
@@ -4135,9 +4231,9 @@
       <c r="A164" s="1">
         <v>159</v>
       </c>
-      <c r="B164" s="9"/>
-      <c r="C164" s="9"/>
-      <c r="D164" s="6"/>
+      <c r="B164" s="6"/>
+      <c r="C164" s="6"/>
+      <c r="D164" s="12"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
@@ -4157,9 +4253,9 @@
       <c r="A165" s="1">
         <v>160</v>
       </c>
-      <c r="B165" s="9"/>
-      <c r="C165" s="9"/>
-      <c r="D165" s="6"/>
+      <c r="B165" s="6"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="12"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
@@ -4179,9 +4275,9 @@
       <c r="A166" s="1">
         <v>161</v>
       </c>
-      <c r="B166" s="9"/>
-      <c r="C166" s="9"/>
-      <c r="D166" s="6"/>
+      <c r="B166" s="6"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="12"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
@@ -4201,9 +4297,9 @@
       <c r="A167" s="1">
         <v>162</v>
       </c>
-      <c r="B167" s="9"/>
-      <c r="C167" s="9"/>
-      <c r="D167" s="6"/>
+      <c r="B167" s="6"/>
+      <c r="C167" s="6"/>
+      <c r="D167" s="12"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
@@ -4223,9 +4319,9 @@
       <c r="A168" s="1">
         <v>163</v>
       </c>
-      <c r="B168" s="9"/>
-      <c r="C168" s="9"/>
-      <c r="D168" s="6"/>
+      <c r="B168" s="6"/>
+      <c r="C168" s="6"/>
+      <c r="D168" s="12"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
@@ -4245,9 +4341,9 @@
       <c r="A169" s="1">
         <v>164</v>
       </c>
-      <c r="B169" s="9"/>
-      <c r="C169" s="9"/>
-      <c r="D169" s="6"/>
+      <c r="B169" s="6"/>
+      <c r="C169" s="6"/>
+      <c r="D169" s="12"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
@@ -4267,9 +4363,9 @@
       <c r="A170" s="1">
         <v>165</v>
       </c>
-      <c r="B170" s="9"/>
-      <c r="C170" s="9"/>
-      <c r="D170" s="6"/>
+      <c r="B170" s="6"/>
+      <c r="C170" s="6"/>
+      <c r="D170" s="12"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
@@ -4289,9 +4385,9 @@
       <c r="A171" s="1">
         <v>166</v>
       </c>
-      <c r="B171" s="9"/>
-      <c r="C171" s="9"/>
-      <c r="D171" s="6"/>
+      <c r="B171" s="6"/>
+      <c r="C171" s="6"/>
+      <c r="D171" s="12"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
@@ -4311,9 +4407,9 @@
       <c r="A172" s="1">
         <v>167</v>
       </c>
-      <c r="B172" s="9"/>
-      <c r="C172" s="9"/>
-      <c r="D172" s="6"/>
+      <c r="B172" s="6"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="12"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
@@ -4333,9 +4429,9 @@
       <c r="A173" s="1">
         <v>168</v>
       </c>
-      <c r="B173" s="9"/>
-      <c r="C173" s="9"/>
-      <c r="D173" s="6"/>
+      <c r="B173" s="6"/>
+      <c r="C173" s="6"/>
+      <c r="D173" s="12"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
@@ -4355,9 +4451,9 @@
       <c r="A174" s="1">
         <v>169</v>
       </c>
-      <c r="B174" s="9"/>
-      <c r="C174" s="9"/>
-      <c r="D174" s="6"/>
+      <c r="B174" s="6"/>
+      <c r="C174" s="6"/>
+      <c r="D174" s="12"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
@@ -4377,9 +4473,9 @@
       <c r="A175" s="1">
         <v>170</v>
       </c>
-      <c r="B175" s="9"/>
-      <c r="C175" s="9"/>
-      <c r="D175" s="6"/>
+      <c r="B175" s="6"/>
+      <c r="C175" s="6"/>
+      <c r="D175" s="12"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
@@ -4399,9 +4495,9 @@
       <c r="A176" s="1">
         <v>171</v>
       </c>
-      <c r="B176" s="9"/>
-      <c r="C176" s="9"/>
-      <c r="D176" s="6"/>
+      <c r="B176" s="6"/>
+      <c r="C176" s="6"/>
+      <c r="D176" s="12"/>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
@@ -4421,9 +4517,9 @@
       <c r="A177" s="1">
         <v>172</v>
       </c>
-      <c r="B177" s="9"/>
-      <c r="C177" s="9"/>
-      <c r="D177" s="6"/>
+      <c r="B177" s="6"/>
+      <c r="C177" s="6"/>
+      <c r="D177" s="12"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
@@ -4443,9 +4539,9 @@
       <c r="A178" s="1">
         <v>173</v>
       </c>
-      <c r="B178" s="9"/>
-      <c r="C178" s="9"/>
-      <c r="D178" s="6"/>
+      <c r="B178" s="6"/>
+      <c r="C178" s="6"/>
+      <c r="D178" s="12"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
@@ -4465,9 +4561,9 @@
       <c r="A179" s="1">
         <v>174</v>
       </c>
-      <c r="B179" s="9"/>
-      <c r="C179" s="9"/>
-      <c r="D179" s="6"/>
+      <c r="B179" s="6"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="12"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
@@ -4487,9 +4583,9 @@
       <c r="A180" s="1">
         <v>175</v>
       </c>
-      <c r="B180" s="9"/>
-      <c r="C180" s="9"/>
-      <c r="D180" s="6"/>
+      <c r="B180" s="6"/>
+      <c r="C180" s="6"/>
+      <c r="D180" s="12"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
@@ -4509,9 +4605,9 @@
       <c r="A181" s="1">
         <v>176</v>
       </c>
-      <c r="B181" s="9"/>
-      <c r="C181" s="9"/>
-      <c r="D181" s="6"/>
+      <c r="B181" s="6"/>
+      <c r="C181" s="6"/>
+      <c r="D181" s="12"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
@@ -4531,9 +4627,9 @@
       <c r="A182" s="1">
         <v>177</v>
       </c>
-      <c r="B182" s="9"/>
-      <c r="C182" s="9"/>
-      <c r="D182" s="6"/>
+      <c r="B182" s="6"/>
+      <c r="C182" s="6"/>
+      <c r="D182" s="12"/>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
@@ -4553,9 +4649,9 @@
       <c r="A183" s="1">
         <v>178</v>
       </c>
-      <c r="B183" s="9"/>
-      <c r="C183" s="9"/>
-      <c r="D183" s="6"/>
+      <c r="B183" s="6"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="12"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
@@ -4575,9 +4671,9 @@
       <c r="A184" s="1">
         <v>179</v>
       </c>
-      <c r="B184" s="9"/>
-      <c r="C184" s="9"/>
-      <c r="D184" s="6"/>
+      <c r="B184" s="6"/>
+      <c r="C184" s="6"/>
+      <c r="D184" s="12"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
@@ -4597,9 +4693,9 @@
       <c r="A185" s="1">
         <v>180</v>
       </c>
-      <c r="B185" s="9"/>
-      <c r="C185" s="9"/>
-      <c r="D185" s="6"/>
+      <c r="B185" s="6"/>
+      <c r="C185" s="6"/>
+      <c r="D185" s="12"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
@@ -4619,9 +4715,9 @@
       <c r="A186" s="1">
         <v>181</v>
       </c>
-      <c r="B186" s="9"/>
-      <c r="C186" s="9"/>
-      <c r="D186" s="6"/>
+      <c r="B186" s="6"/>
+      <c r="C186" s="6"/>
+      <c r="D186" s="12"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
@@ -4641,9 +4737,9 @@
       <c r="A187" s="1">
         <v>182</v>
       </c>
-      <c r="B187" s="9"/>
-      <c r="C187" s="9"/>
-      <c r="D187" s="6"/>
+      <c r="B187" s="6"/>
+      <c r="C187" s="6"/>
+      <c r="D187" s="12"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
@@ -4663,9 +4759,9 @@
       <c r="A188" s="1">
         <v>183</v>
       </c>
-      <c r="B188" s="9"/>
-      <c r="C188" s="9"/>
-      <c r="D188" s="6"/>
+      <c r="B188" s="6"/>
+      <c r="C188" s="6"/>
+      <c r="D188" s="12"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
@@ -4685,9 +4781,9 @@
       <c r="A189" s="1">
         <v>184</v>
       </c>
-      <c r="B189" s="9"/>
-      <c r="C189" s="9"/>
-      <c r="D189" s="6"/>
+      <c r="B189" s="6"/>
+      <c r="C189" s="6"/>
+      <c r="D189" s="12"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
@@ -4707,9 +4803,9 @@
       <c r="A190" s="1">
         <v>185</v>
       </c>
-      <c r="B190" s="9"/>
-      <c r="C190" s="9"/>
-      <c r="D190" s="6"/>
+      <c r="B190" s="6"/>
+      <c r="C190" s="6"/>
+      <c r="D190" s="12"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
@@ -4729,9 +4825,9 @@
       <c r="A191" s="1">
         <v>186</v>
       </c>
-      <c r="B191" s="9"/>
-      <c r="C191" s="9"/>
-      <c r="D191" s="6"/>
+      <c r="B191" s="6"/>
+      <c r="C191" s="6"/>
+      <c r="D191" s="12"/>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
@@ -4751,9 +4847,9 @@
       <c r="A192" s="1">
         <v>187</v>
       </c>
-      <c r="B192" s="9"/>
-      <c r="C192" s="9"/>
-      <c r="D192" s="6"/>
+      <c r="B192" s="6"/>
+      <c r="C192" s="6"/>
+      <c r="D192" s="12"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
@@ -4773,9 +4869,9 @@
       <c r="A193" s="1">
         <v>188</v>
       </c>
-      <c r="B193" s="9"/>
-      <c r="C193" s="9"/>
-      <c r="D193" s="6"/>
+      <c r="B193" s="6"/>
+      <c r="C193" s="6"/>
+      <c r="D193" s="12"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
@@ -4795,9 +4891,9 @@
       <c r="A194" s="1">
         <v>189</v>
       </c>
-      <c r="B194" s="9"/>
-      <c r="C194" s="9"/>
-      <c r="D194" s="6"/>
+      <c r="B194" s="6"/>
+      <c r="C194" s="6"/>
+      <c r="D194" s="12"/>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
@@ -4817,9 +4913,9 @@
       <c r="A195" s="1">
         <v>190</v>
       </c>
-      <c r="B195" s="9"/>
-      <c r="C195" s="9"/>
-      <c r="D195" s="6"/>
+      <c r="B195" s="6"/>
+      <c r="C195" s="6"/>
+      <c r="D195" s="12"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
@@ -4839,9 +4935,9 @@
       <c r="A196" s="1">
         <v>191</v>
       </c>
-      <c r="B196" s="9"/>
-      <c r="C196" s="9"/>
-      <c r="D196" s="6"/>
+      <c r="B196" s="6"/>
+      <c r="C196" s="6"/>
+      <c r="D196" s="12"/>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
@@ -4861,9 +4957,9 @@
       <c r="A197" s="1">
         <v>192</v>
       </c>
-      <c r="B197" s="9"/>
-      <c r="C197" s="9"/>
-      <c r="D197" s="6"/>
+      <c r="B197" s="6"/>
+      <c r="C197" s="6"/>
+      <c r="D197" s="12"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
@@ -4883,9 +4979,9 @@
       <c r="A198" s="1">
         <v>193</v>
       </c>
-      <c r="B198" s="9"/>
-      <c r="C198" s="9"/>
-      <c r="D198" s="6"/>
+      <c r="B198" s="6"/>
+      <c r="C198" s="6"/>
+      <c r="D198" s="12"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
@@ -4905,9 +5001,9 @@
       <c r="A199" s="1">
         <v>194</v>
       </c>
-      <c r="B199" s="9"/>
-      <c r="C199" s="9"/>
-      <c r="D199" s="6"/>
+      <c r="B199" s="6"/>
+      <c r="C199" s="6"/>
+      <c r="D199" s="12"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
@@ -4927,9 +5023,9 @@
       <c r="A200" s="1">
         <v>195</v>
       </c>
-      <c r="B200" s="9"/>
-      <c r="C200" s="9"/>
-      <c r="D200" s="6"/>
+      <c r="B200" s="6"/>
+      <c r="C200" s="6"/>
+      <c r="D200" s="12"/>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
@@ -4949,9 +5045,9 @@
       <c r="A201" s="1">
         <v>196</v>
       </c>
-      <c r="B201" s="9"/>
-      <c r="C201" s="9"/>
-      <c r="D201" s="6"/>
+      <c r="B201" s="6"/>
+      <c r="C201" s="6"/>
+      <c r="D201" s="12"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
@@ -4971,9 +5067,9 @@
       <c r="A202" s="1">
         <v>197</v>
       </c>
-      <c r="B202" s="9"/>
-      <c r="C202" s="9"/>
-      <c r="D202" s="6"/>
+      <c r="B202" s="6"/>
+      <c r="C202" s="6"/>
+      <c r="D202" s="12"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
@@ -4993,9 +5089,9 @@
       <c r="A203" s="1">
         <v>198</v>
       </c>
-      <c r="B203" s="9"/>
-      <c r="C203" s="9"/>
-      <c r="D203" s="6"/>
+      <c r="B203" s="6"/>
+      <c r="C203" s="6"/>
+      <c r="D203" s="12"/>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
@@ -5015,9 +5111,9 @@
       <c r="A204" s="1">
         <v>199</v>
       </c>
-      <c r="B204" s="9"/>
-      <c r="C204" s="9"/>
-      <c r="D204" s="6"/>
+      <c r="B204" s="6"/>
+      <c r="C204" s="6"/>
+      <c r="D204" s="12"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
@@ -5037,9 +5133,9 @@
       <c r="A205" s="1">
         <v>200</v>
       </c>
-      <c r="B205" s="9"/>
-      <c r="C205" s="9"/>
-      <c r="D205" s="6"/>
+      <c r="B205" s="6"/>
+      <c r="C205" s="6"/>
+      <c r="D205" s="12"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
@@ -5059,9 +5155,9 @@
       <c r="A206" s="1">
         <v>201</v>
       </c>
-      <c r="B206" s="9"/>
-      <c r="C206" s="9"/>
-      <c r="D206" s="6"/>
+      <c r="B206" s="6"/>
+      <c r="C206" s="6"/>
+      <c r="D206" s="12"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
@@ -5081,9 +5177,9 @@
       <c r="A207" s="1">
         <v>202</v>
       </c>
-      <c r="B207" s="9"/>
-      <c r="C207" s="9"/>
-      <c r="D207" s="6"/>
+      <c r="B207" s="6"/>
+      <c r="C207" s="6"/>
+      <c r="D207" s="12"/>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
@@ -5103,9 +5199,9 @@
       <c r="A208" s="1">
         <v>203</v>
       </c>
-      <c r="B208" s="9"/>
-      <c r="C208" s="9"/>
-      <c r="D208" s="6"/>
+      <c r="B208" s="6"/>
+      <c r="C208" s="6"/>
+      <c r="D208" s="12"/>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
@@ -5125,9 +5221,9 @@
       <c r="A209" s="1">
         <v>204</v>
       </c>
-      <c r="B209" s="9"/>
-      <c r="C209" s="9"/>
-      <c r="D209" s="6"/>
+      <c r="B209" s="6"/>
+      <c r="C209" s="6"/>
+      <c r="D209" s="12"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
@@ -5147,9 +5243,9 @@
       <c r="A210" s="1">
         <v>205</v>
       </c>
-      <c r="B210" s="9"/>
-      <c r="C210" s="9"/>
-      <c r="D210" s="6"/>
+      <c r="B210" s="6"/>
+      <c r="C210" s="6"/>
+      <c r="D210" s="12"/>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
@@ -5169,9 +5265,9 @@
       <c r="A211" s="1">
         <v>206</v>
       </c>
-      <c r="B211" s="9"/>
-      <c r="C211" s="9"/>
-      <c r="D211" s="6"/>
+      <c r="B211" s="6"/>
+      <c r="C211" s="6"/>
+      <c r="D211" s="12"/>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
@@ -5191,9 +5287,9 @@
       <c r="A212" s="1">
         <v>207</v>
       </c>
-      <c r="B212" s="9"/>
-      <c r="C212" s="9"/>
-      <c r="D212" s="6"/>
+      <c r="B212" s="6"/>
+      <c r="C212" s="6"/>
+      <c r="D212" s="12"/>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
@@ -5213,9 +5309,9 @@
       <c r="A213" s="1">
         <v>208</v>
       </c>
-      <c r="B213" s="9"/>
-      <c r="C213" s="9"/>
-      <c r="D213" s="6"/>
+      <c r="B213" s="6"/>
+      <c r="C213" s="6"/>
+      <c r="D213" s="12"/>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
@@ -5235,9 +5331,9 @@
       <c r="A214" s="1">
         <v>209</v>
       </c>
-      <c r="B214" s="9"/>
-      <c r="C214" s="9"/>
-      <c r="D214" s="6"/>
+      <c r="B214" s="6"/>
+      <c r="C214" s="6"/>
+      <c r="D214" s="12"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
@@ -5257,9 +5353,9 @@
       <c r="A215" s="1">
         <v>210</v>
       </c>
-      <c r="B215" s="9"/>
-      <c r="C215" s="9"/>
-      <c r="D215" s="6"/>
+      <c r="B215" s="6"/>
+      <c r="C215" s="6"/>
+      <c r="D215" s="12"/>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
@@ -5279,9 +5375,9 @@
       <c r="A216" s="1">
         <v>211</v>
       </c>
-      <c r="B216" s="9"/>
-      <c r="C216" s="9"/>
-      <c r="D216" s="6"/>
+      <c r="B216" s="6"/>
+      <c r="C216" s="6"/>
+      <c r="D216" s="12"/>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
@@ -5301,9 +5397,9 @@
       <c r="A217" s="1">
         <v>212</v>
       </c>
-      <c r="B217" s="9"/>
-      <c r="C217" s="9"/>
-      <c r="D217" s="6"/>
+      <c r="B217" s="6"/>
+      <c r="C217" s="6"/>
+      <c r="D217" s="12"/>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
@@ -5323,9 +5419,9 @@
       <c r="A218" s="1">
         <v>213</v>
       </c>
-      <c r="B218" s="9"/>
-      <c r="C218" s="9"/>
-      <c r="D218" s="6"/>
+      <c r="B218" s="6"/>
+      <c r="C218" s="6"/>
+      <c r="D218" s="12"/>
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
@@ -5345,9 +5441,9 @@
       <c r="A219" s="1">
         <v>214</v>
       </c>
-      <c r="B219" s="9"/>
-      <c r="C219" s="9"/>
-      <c r="D219" s="6"/>
+      <c r="B219" s="6"/>
+      <c r="C219" s="6"/>
+      <c r="D219" s="12"/>
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
@@ -5367,9 +5463,9 @@
       <c r="A220" s="1">
         <v>215</v>
       </c>
-      <c r="B220" s="9"/>
-      <c r="C220" s="9"/>
-      <c r="D220" s="6"/>
+      <c r="B220" s="6"/>
+      <c r="C220" s="6"/>
+      <c r="D220" s="12"/>
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
@@ -5389,9 +5485,9 @@
       <c r="A221" s="1">
         <v>216</v>
       </c>
-      <c r="B221" s="9"/>
-      <c r="C221" s="9"/>
-      <c r="D221" s="6"/>
+      <c r="B221" s="6"/>
+      <c r="C221" s="6"/>
+      <c r="D221" s="12"/>
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
@@ -5411,9 +5507,9 @@
       <c r="A222" s="1">
         <v>217</v>
       </c>
-      <c r="B222" s="9"/>
-      <c r="C222" s="9"/>
-      <c r="D222" s="6"/>
+      <c r="B222" s="6"/>
+      <c r="C222" s="6"/>
+      <c r="D222" s="12"/>
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
@@ -5433,9 +5529,9 @@
       <c r="A223" s="1">
         <v>218</v>
       </c>
-      <c r="B223" s="9"/>
-      <c r="C223" s="9"/>
-      <c r="D223" s="6"/>
+      <c r="B223" s="6"/>
+      <c r="C223" s="6"/>
+      <c r="D223" s="12"/>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
@@ -5455,9 +5551,9 @@
       <c r="A224" s="1">
         <v>219</v>
       </c>
-      <c r="B224" s="9"/>
-      <c r="C224" s="9"/>
-      <c r="D224" s="6"/>
+      <c r="B224" s="6"/>
+      <c r="C224" s="6"/>
+      <c r="D224" s="12"/>
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
@@ -5477,9 +5573,9 @@
       <c r="A225" s="1">
         <v>220</v>
       </c>
-      <c r="B225" s="9"/>
-      <c r="C225" s="9"/>
-      <c r="D225" s="6"/>
+      <c r="B225" s="6"/>
+      <c r="C225" s="6"/>
+      <c r="D225" s="12"/>
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
@@ -5499,9 +5595,9 @@
       <c r="A226" s="1">
         <v>221</v>
       </c>
-      <c r="B226" s="9"/>
-      <c r="C226" s="9"/>
-      <c r="D226" s="6"/>
+      <c r="B226" s="6"/>
+      <c r="C226" s="6"/>
+      <c r="D226" s="12"/>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
@@ -5521,9 +5617,9 @@
       <c r="A227" s="1">
         <v>222</v>
       </c>
-      <c r="B227" s="9"/>
-      <c r="C227" s="9"/>
-      <c r="D227" s="6"/>
+      <c r="B227" s="6"/>
+      <c r="C227" s="6"/>
+      <c r="D227" s="12"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
@@ -5543,9 +5639,9 @@
       <c r="A228" s="1">
         <v>223</v>
       </c>
-      <c r="B228" s="9"/>
-      <c r="C228" s="9"/>
-      <c r="D228" s="6"/>
+      <c r="B228" s="6"/>
+      <c r="C228" s="6"/>
+      <c r="D228" s="12"/>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
@@ -5565,9 +5661,9 @@
       <c r="A229" s="1">
         <v>224</v>
       </c>
-      <c r="B229" s="9"/>
-      <c r="C229" s="9"/>
-      <c r="D229" s="6"/>
+      <c r="B229" s="6"/>
+      <c r="C229" s="6"/>
+      <c r="D229" s="12"/>
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
@@ -5587,9 +5683,9 @@
       <c r="A230" s="1">
         <v>225</v>
       </c>
-      <c r="B230" s="9"/>
-      <c r="C230" s="9"/>
-      <c r="D230" s="6"/>
+      <c r="B230" s="6"/>
+      <c r="C230" s="6"/>
+      <c r="D230" s="12"/>
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
@@ -5609,9 +5705,9 @@
       <c r="A231" s="1">
         <v>226</v>
       </c>
-      <c r="B231" s="9"/>
-      <c r="C231" s="9"/>
-      <c r="D231" s="6"/>
+      <c r="B231" s="6"/>
+      <c r="C231" s="6"/>
+      <c r="D231" s="12"/>
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
@@ -5631,9 +5727,9 @@
       <c r="A232" s="1">
         <v>227</v>
       </c>
-      <c r="B232" s="9"/>
-      <c r="C232" s="9"/>
-      <c r="D232" s="6"/>
+      <c r="B232" s="6"/>
+      <c r="C232" s="6"/>
+      <c r="D232" s="12"/>
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
@@ -5653,9 +5749,9 @@
       <c r="A233" s="1">
         <v>228</v>
       </c>
-      <c r="B233" s="9"/>
-      <c r="C233" s="9"/>
-      <c r="D233" s="6"/>
+      <c r="B233" s="6"/>
+      <c r="C233" s="6"/>
+      <c r="D233" s="12"/>
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
@@ -5675,9 +5771,9 @@
       <c r="A234" s="1">
         <v>229</v>
       </c>
-      <c r="B234" s="9"/>
-      <c r="C234" s="9"/>
-      <c r="D234" s="6"/>
+      <c r="B234" s="6"/>
+      <c r="C234" s="6"/>
+      <c r="D234" s="12"/>
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
@@ -5697,9 +5793,9 @@
       <c r="A235" s="1">
         <v>230</v>
       </c>
-      <c r="B235" s="9"/>
-      <c r="C235" s="9"/>
-      <c r="D235" s="6"/>
+      <c r="B235" s="6"/>
+      <c r="C235" s="6"/>
+      <c r="D235" s="12"/>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
@@ -5719,9 +5815,9 @@
       <c r="A236" s="1">
         <v>231</v>
       </c>
-      <c r="B236" s="9"/>
-      <c r="C236" s="9"/>
-      <c r="D236" s="6"/>
+      <c r="B236" s="6"/>
+      <c r="C236" s="6"/>
+      <c r="D236" s="12"/>
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
@@ -5741,9 +5837,9 @@
       <c r="A237" s="1">
         <v>232</v>
       </c>
-      <c r="B237" s="9"/>
-      <c r="C237" s="9"/>
-      <c r="D237" s="6"/>
+      <c r="B237" s="6"/>
+      <c r="C237" s="6"/>
+      <c r="D237" s="12"/>
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
@@ -5763,9 +5859,9 @@
       <c r="A238" s="1">
         <v>233</v>
       </c>
-      <c r="B238" s="9"/>
-      <c r="C238" s="9"/>
-      <c r="D238" s="6"/>
+      <c r="B238" s="6"/>
+      <c r="C238" s="6"/>
+      <c r="D238" s="12"/>
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
@@ -5785,9 +5881,9 @@
       <c r="A239" s="1">
         <v>234</v>
       </c>
-      <c r="B239" s="9"/>
-      <c r="C239" s="9"/>
-      <c r="D239" s="6"/>
+      <c r="B239" s="6"/>
+      <c r="C239" s="6"/>
+      <c r="D239" s="12"/>
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
@@ -5807,9 +5903,9 @@
       <c r="A240" s="1">
         <v>235</v>
       </c>
-      <c r="B240" s="9"/>
-      <c r="C240" s="9"/>
-      <c r="D240" s="6"/>
+      <c r="B240" s="6"/>
+      <c r="C240" s="6"/>
+      <c r="D240" s="12"/>
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
@@ -5829,9 +5925,9 @@
       <c r="A241" s="1">
         <v>236</v>
       </c>
-      <c r="B241" s="9"/>
-      <c r="C241" s="9"/>
-      <c r="D241" s="6"/>
+      <c r="B241" s="6"/>
+      <c r="C241" s="6"/>
+      <c r="D241" s="12"/>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
@@ -5851,9 +5947,9 @@
       <c r="A242" s="1">
         <v>237</v>
       </c>
-      <c r="B242" s="9"/>
-      <c r="C242" s="9"/>
-      <c r="D242" s="6"/>
+      <c r="B242" s="6"/>
+      <c r="C242" s="6"/>
+      <c r="D242" s="12"/>
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
@@ -5873,9 +5969,9 @@
       <c r="A243" s="1">
         <v>238</v>
       </c>
-      <c r="B243" s="9"/>
-      <c r="C243" s="9"/>
-      <c r="D243" s="6"/>
+      <c r="B243" s="6"/>
+      <c r="C243" s="6"/>
+      <c r="D243" s="12"/>
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
@@ -5895,9 +5991,9 @@
       <c r="A244" s="1">
         <v>239</v>
       </c>
-      <c r="B244" s="9"/>
-      <c r="C244" s="9"/>
-      <c r="D244" s="6"/>
+      <c r="B244" s="6"/>
+      <c r="C244" s="6"/>
+      <c r="D244" s="12"/>
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
@@ -5917,9 +6013,9 @@
       <c r="A245" s="1">
         <v>240</v>
       </c>
-      <c r="B245" s="9"/>
-      <c r="C245" s="9"/>
-      <c r="D245" s="6"/>
+      <c r="B245" s="6"/>
+      <c r="C245" s="6"/>
+      <c r="D245" s="12"/>
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
@@ -5939,9 +6035,9 @@
       <c r="A246" s="1">
         <v>241</v>
       </c>
-      <c r="B246" s="9"/>
-      <c r="C246" s="9"/>
-      <c r="D246" s="6"/>
+      <c r="B246" s="6"/>
+      <c r="C246" s="6"/>
+      <c r="D246" s="12"/>
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
@@ -5961,9 +6057,9 @@
       <c r="A247" s="1">
         <v>242</v>
       </c>
-      <c r="B247" s="9"/>
-      <c r="C247" s="9"/>
-      <c r="D247" s="6"/>
+      <c r="B247" s="6"/>
+      <c r="C247" s="6"/>
+      <c r="D247" s="12"/>
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
@@ -5983,9 +6079,9 @@
       <c r="A248" s="1">
         <v>243</v>
       </c>
-      <c r="B248" s="9"/>
-      <c r="C248" s="9"/>
-      <c r="D248" s="6"/>
+      <c r="B248" s="6"/>
+      <c r="C248" s="6"/>
+      <c r="D248" s="12"/>
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
@@ -6005,9 +6101,9 @@
       <c r="A249" s="1">
         <v>244</v>
       </c>
-      <c r="B249" s="9"/>
-      <c r="C249" s="9"/>
-      <c r="D249" s="6"/>
+      <c r="B249" s="6"/>
+      <c r="C249" s="6"/>
+      <c r="D249" s="12"/>
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
@@ -6027,9 +6123,9 @@
       <c r="A250" s="1">
         <v>245</v>
       </c>
-      <c r="B250" s="9"/>
-      <c r="C250" s="9"/>
-      <c r="D250" s="6"/>
+      <c r="B250" s="6"/>
+      <c r="C250" s="6"/>
+      <c r="D250" s="12"/>
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
@@ -6049,9 +6145,9 @@
       <c r="A251" s="1">
         <v>246</v>
       </c>
-      <c r="B251" s="9"/>
-      <c r="C251" s="9"/>
-      <c r="D251" s="6"/>
+      <c r="B251" s="6"/>
+      <c r="C251" s="6"/>
+      <c r="D251" s="12"/>
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
@@ -6071,9 +6167,9 @@
       <c r="A252" s="1">
         <v>247</v>
       </c>
-      <c r="B252" s="9"/>
-      <c r="C252" s="9"/>
-      <c r="D252" s="6"/>
+      <c r="B252" s="6"/>
+      <c r="C252" s="6"/>
+      <c r="D252" s="12"/>
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
@@ -6093,9 +6189,9 @@
       <c r="A253" s="1">
         <v>248</v>
       </c>
-      <c r="B253" s="9"/>
-      <c r="C253" s="9"/>
-      <c r="D253" s="6"/>
+      <c r="B253" s="6"/>
+      <c r="C253" s="6"/>
+      <c r="D253" s="12"/>
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
@@ -6115,9 +6211,9 @@
       <c r="A254" s="1">
         <v>249</v>
       </c>
-      <c r="B254" s="9"/>
-      <c r="C254" s="9"/>
-      <c r="D254" s="6"/>
+      <c r="B254" s="6"/>
+      <c r="C254" s="6"/>
+      <c r="D254" s="12"/>
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
@@ -6137,9 +6233,9 @@
       <c r="A255" s="1">
         <v>250</v>
       </c>
-      <c r="B255" s="9"/>
-      <c r="C255" s="9"/>
-      <c r="D255" s="6"/>
+      <c r="B255" s="6"/>
+      <c r="C255" s="6"/>
+      <c r="D255" s="12"/>
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
@@ -6159,9 +6255,9 @@
       <c r="A256" s="1">
         <v>251</v>
       </c>
-      <c r="B256" s="9"/>
-      <c r="C256" s="9"/>
-      <c r="D256" s="6"/>
+      <c r="B256" s="6"/>
+      <c r="C256" s="6"/>
+      <c r="D256" s="12"/>
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
@@ -6181,9 +6277,9 @@
       <c r="A257" s="1">
         <v>252</v>
       </c>
-      <c r="B257" s="9"/>
-      <c r="C257" s="9"/>
-      <c r="D257" s="6"/>
+      <c r="B257" s="6"/>
+      <c r="C257" s="6"/>
+      <c r="D257" s="12"/>
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
@@ -6203,9 +6299,9 @@
       <c r="A258" s="1">
         <v>253</v>
       </c>
-      <c r="B258" s="9"/>
-      <c r="C258" s="9"/>
-      <c r="D258" s="6"/>
+      <c r="B258" s="6"/>
+      <c r="C258" s="6"/>
+      <c r="D258" s="12"/>
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
@@ -6225,9 +6321,9 @@
       <c r="A259" s="1">
         <v>254</v>
       </c>
-      <c r="B259" s="9"/>
-      <c r="C259" s="9"/>
-      <c r="D259" s="6"/>
+      <c r="B259" s="6"/>
+      <c r="C259" s="6"/>
+      <c r="D259" s="12"/>
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
@@ -6247,9 +6343,9 @@
       <c r="A260" s="1">
         <v>255</v>
       </c>
-      <c r="B260" s="9"/>
-      <c r="C260" s="9"/>
-      <c r="D260" s="6"/>
+      <c r="B260" s="6"/>
+      <c r="C260" s="6"/>
+      <c r="D260" s="12"/>
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
@@ -6269,9 +6365,9 @@
       <c r="A261" s="1">
         <v>256</v>
       </c>
-      <c r="B261" s="9"/>
-      <c r="C261" s="9"/>
-      <c r="D261" s="6"/>
+      <c r="B261" s="6"/>
+      <c r="C261" s="6"/>
+      <c r="D261" s="12"/>
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
@@ -6291,9 +6387,9 @@
       <c r="A262" s="1">
         <v>257</v>
       </c>
-      <c r="B262" s="9"/>
-      <c r="C262" s="9"/>
-      <c r="D262" s="6"/>
+      <c r="B262" s="6"/>
+      <c r="C262" s="6"/>
+      <c r="D262" s="12"/>
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
@@ -6313,9 +6409,9 @@
       <c r="A263" s="1">
         <v>258</v>
       </c>
-      <c r="B263" s="9"/>
-      <c r="C263" s="9"/>
-      <c r="D263" s="6"/>
+      <c r="B263" s="6"/>
+      <c r="C263" s="6"/>
+      <c r="D263" s="12"/>
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
@@ -6335,9 +6431,9 @@
       <c r="A264" s="1">
         <v>259</v>
       </c>
-      <c r="B264" s="9"/>
-      <c r="C264" s="9"/>
-      <c r="D264" s="6"/>
+      <c r="B264" s="6"/>
+      <c r="C264" s="6"/>
+      <c r="D264" s="12"/>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
@@ -6357,9 +6453,9 @@
       <c r="A265" s="1">
         <v>260</v>
       </c>
-      <c r="B265" s="9"/>
-      <c r="C265" s="9"/>
-      <c r="D265" s="6"/>
+      <c r="B265" s="6"/>
+      <c r="C265" s="6"/>
+      <c r="D265" s="12"/>
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
@@ -6379,9 +6475,9 @@
       <c r="A266" s="1">
         <v>261</v>
       </c>
-      <c r="B266" s="9"/>
-      <c r="C266" s="9"/>
-      <c r="D266" s="6"/>
+      <c r="B266" s="6"/>
+      <c r="C266" s="6"/>
+      <c r="D266" s="12"/>
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
@@ -6401,9 +6497,9 @@
       <c r="A267" s="1">
         <v>262</v>
       </c>
-      <c r="B267" s="9"/>
-      <c r="C267" s="9"/>
-      <c r="D267" s="6"/>
+      <c r="B267" s="6"/>
+      <c r="C267" s="6"/>
+      <c r="D267" s="12"/>
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
@@ -6423,9 +6519,9 @@
       <c r="A268" s="1">
         <v>263</v>
       </c>
-      <c r="B268" s="9"/>
-      <c r="C268" s="9"/>
-      <c r="D268" s="6"/>
+      <c r="B268" s="6"/>
+      <c r="C268" s="6"/>
+      <c r="D268" s="12"/>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
@@ -6445,9 +6541,9 @@
       <c r="A269" s="1">
         <v>264</v>
       </c>
-      <c r="B269" s="9"/>
-      <c r="C269" s="9"/>
-      <c r="D269" s="6"/>
+      <c r="B269" s="6"/>
+      <c r="C269" s="6"/>
+      <c r="D269" s="12"/>
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
@@ -6467,9 +6563,9 @@
       <c r="A270" s="1">
         <v>265</v>
       </c>
-      <c r="B270" s="9"/>
-      <c r="C270" s="9"/>
-      <c r="D270" s="6"/>
+      <c r="B270" s="6"/>
+      <c r="C270" s="6"/>
+      <c r="D270" s="12"/>
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
@@ -6489,9 +6585,9 @@
       <c r="A271" s="1">
         <v>266</v>
       </c>
-      <c r="B271" s="9"/>
-      <c r="C271" s="9"/>
-      <c r="D271" s="6"/>
+      <c r="B271" s="6"/>
+      <c r="C271" s="6"/>
+      <c r="D271" s="12"/>
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
@@ -6511,9 +6607,9 @@
       <c r="A272" s="1">
         <v>267</v>
       </c>
-      <c r="B272" s="9"/>
-      <c r="C272" s="9"/>
-      <c r="D272" s="6"/>
+      <c r="B272" s="6"/>
+      <c r="C272" s="6"/>
+      <c r="D272" s="12"/>
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
@@ -6533,9 +6629,9 @@
       <c r="A273" s="1">
         <v>268</v>
       </c>
-      <c r="B273" s="9"/>
-      <c r="C273" s="9"/>
-      <c r="D273" s="6"/>
+      <c r="B273" s="6"/>
+      <c r="C273" s="6"/>
+      <c r="D273" s="12"/>
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
@@ -6555,9 +6651,9 @@
       <c r="A274" s="1">
         <v>269</v>
       </c>
-      <c r="B274" s="9"/>
-      <c r="C274" s="9"/>
-      <c r="D274" s="6"/>
+      <c r="B274" s="6"/>
+      <c r="C274" s="6"/>
+      <c r="D274" s="12"/>
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
@@ -6577,9 +6673,9 @@
       <c r="A275" s="1">
         <v>270</v>
       </c>
-      <c r="B275" s="9"/>
-      <c r="C275" s="9"/>
-      <c r="D275" s="6"/>
+      <c r="B275" s="6"/>
+      <c r="C275" s="6"/>
+      <c r="D275" s="12"/>
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
@@ -6599,9 +6695,9 @@
       <c r="A276" s="1">
         <v>271</v>
       </c>
-      <c r="B276" s="9"/>
-      <c r="C276" s="9"/>
-      <c r="D276" s="6"/>
+      <c r="B276" s="6"/>
+      <c r="C276" s="6"/>
+      <c r="D276" s="12"/>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
@@ -6621,9 +6717,9 @@
       <c r="A277" s="1">
         <v>272</v>
       </c>
-      <c r="B277" s="9"/>
-      <c r="C277" s="9"/>
-      <c r="D277" s="6"/>
+      <c r="B277" s="6"/>
+      <c r="C277" s="6"/>
+      <c r="D277" s="12"/>
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
@@ -6643,9 +6739,9 @@
       <c r="A278" s="1">
         <v>273</v>
       </c>
-      <c r="B278" s="9"/>
-      <c r="C278" s="9"/>
-      <c r="D278" s="6"/>
+      <c r="B278" s="6"/>
+      <c r="C278" s="6"/>
+      <c r="D278" s="12"/>
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
@@ -6665,9 +6761,9 @@
       <c r="A279" s="1">
         <v>274</v>
       </c>
-      <c r="B279" s="9"/>
-      <c r="C279" s="9"/>
-      <c r="D279" s="6"/>
+      <c r="B279" s="6"/>
+      <c r="C279" s="6"/>
+      <c r="D279" s="12"/>
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
@@ -6687,9 +6783,9 @@
       <c r="A280" s="1">
         <v>275</v>
       </c>
-      <c r="B280" s="9"/>
-      <c r="C280" s="9"/>
-      <c r="D280" s="6"/>
+      <c r="B280" s="6"/>
+      <c r="C280" s="6"/>
+      <c r="D280" s="12"/>
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
@@ -6709,9 +6805,9 @@
       <c r="A281" s="1">
         <v>276</v>
       </c>
-      <c r="B281" s="9"/>
-      <c r="C281" s="9"/>
-      <c r="D281" s="6"/>
+      <c r="B281" s="6"/>
+      <c r="C281" s="6"/>
+      <c r="D281" s="12"/>
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
@@ -6731,9 +6827,9 @@
       <c r="A282" s="1">
         <v>277</v>
       </c>
-      <c r="B282" s="9"/>
-      <c r="C282" s="9"/>
-      <c r="D282" s="6"/>
+      <c r="B282" s="6"/>
+      <c r="C282" s="6"/>
+      <c r="D282" s="12"/>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
@@ -6753,9 +6849,9 @@
       <c r="A283" s="1">
         <v>278</v>
       </c>
-      <c r="B283" s="9"/>
-      <c r="C283" s="9"/>
-      <c r="D283" s="6"/>
+      <c r="B283" s="6"/>
+      <c r="C283" s="6"/>
+      <c r="D283" s="12"/>
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
@@ -6775,9 +6871,9 @@
       <c r="A284" s="1">
         <v>279</v>
       </c>
-      <c r="B284" s="9"/>
-      <c r="C284" s="9"/>
-      <c r="D284" s="6"/>
+      <c r="B284" s="6"/>
+      <c r="C284" s="6"/>
+      <c r="D284" s="12"/>
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
@@ -6797,9 +6893,9 @@
       <c r="A285" s="1">
         <v>280</v>
       </c>
-      <c r="B285" s="9"/>
-      <c r="C285" s="9"/>
-      <c r="D285" s="6"/>
+      <c r="B285" s="6"/>
+      <c r="C285" s="6"/>
+      <c r="D285" s="12"/>
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
@@ -6819,9 +6915,9 @@
       <c r="A286" s="1">
         <v>281</v>
       </c>
-      <c r="B286" s="9"/>
-      <c r="C286" s="9"/>
-      <c r="D286" s="6"/>
+      <c r="B286" s="6"/>
+      <c r="C286" s="6"/>
+      <c r="D286" s="12"/>
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
@@ -6841,9 +6937,9 @@
       <c r="A287" s="1">
         <v>282</v>
       </c>
-      <c r="B287" s="9"/>
-      <c r="C287" s="9"/>
-      <c r="D287" s="6"/>
+      <c r="B287" s="6"/>
+      <c r="C287" s="6"/>
+      <c r="D287" s="12"/>
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
@@ -6863,9 +6959,9 @@
       <c r="A288" s="1">
         <v>283</v>
       </c>
-      <c r="B288" s="9"/>
-      <c r="C288" s="9"/>
-      <c r="D288" s="6"/>
+      <c r="B288" s="6"/>
+      <c r="C288" s="6"/>
+      <c r="D288" s="12"/>
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
@@ -6885,9 +6981,9 @@
       <c r="A289" s="1">
         <v>284</v>
       </c>
-      <c r="B289" s="9"/>
-      <c r="C289" s="9"/>
-      <c r="D289" s="6"/>
+      <c r="B289" s="6"/>
+      <c r="C289" s="6"/>
+      <c r="D289" s="12"/>
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
@@ -6907,9 +7003,9 @@
       <c r="A290" s="1">
         <v>285</v>
       </c>
-      <c r="B290" s="9"/>
-      <c r="C290" s="9"/>
-      <c r="D290" s="6"/>
+      <c r="B290" s="6"/>
+      <c r="C290" s="6"/>
+      <c r="D290" s="12"/>
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
@@ -6929,9 +7025,9 @@
       <c r="A291" s="1">
         <v>286</v>
       </c>
-      <c r="B291" s="9"/>
-      <c r="C291" s="9"/>
-      <c r="D291" s="6"/>
+      <c r="B291" s="6"/>
+      <c r="C291" s="6"/>
+      <c r="D291" s="12"/>
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
@@ -6951,9 +7047,9 @@
       <c r="A292" s="1">
         <v>287</v>
       </c>
-      <c r="B292" s="9"/>
-      <c r="C292" s="9"/>
-      <c r="D292" s="6"/>
+      <c r="B292" s="6"/>
+      <c r="C292" s="6"/>
+      <c r="D292" s="12"/>
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
@@ -6973,9 +7069,9 @@
       <c r="A293" s="1">
         <v>288</v>
       </c>
-      <c r="B293" s="9"/>
-      <c r="C293" s="9"/>
-      <c r="D293" s="6"/>
+      <c r="B293" s="6"/>
+      <c r="C293" s="6"/>
+      <c r="D293" s="12"/>
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
@@ -6995,9 +7091,9 @@
       <c r="A294" s="1">
         <v>289</v>
       </c>
-      <c r="B294" s="9"/>
-      <c r="C294" s="9"/>
-      <c r="D294" s="6"/>
+      <c r="B294" s="6"/>
+      <c r="C294" s="6"/>
+      <c r="D294" s="12"/>
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
@@ -7017,9 +7113,9 @@
       <c r="A295" s="1">
         <v>290</v>
       </c>
-      <c r="B295" s="9"/>
-      <c r="C295" s="9"/>
-      <c r="D295" s="6"/>
+      <c r="B295" s="6"/>
+      <c r="C295" s="6"/>
+      <c r="D295" s="12"/>
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
@@ -7039,9 +7135,9 @@
       <c r="A296" s="1">
         <v>291</v>
       </c>
-      <c r="B296" s="9"/>
-      <c r="C296" s="9"/>
-      <c r="D296" s="6"/>
+      <c r="B296" s="6"/>
+      <c r="C296" s="6"/>
+      <c r="D296" s="12"/>
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
@@ -7061,9 +7157,9 @@
       <c r="A297" s="1">
         <v>292</v>
       </c>
-      <c r="B297" s="9"/>
-      <c r="C297" s="9"/>
-      <c r="D297" s="6"/>
+      <c r="B297" s="6"/>
+      <c r="C297" s="6"/>
+      <c r="D297" s="12"/>
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
@@ -7083,9 +7179,9 @@
       <c r="A298" s="1">
         <v>293</v>
       </c>
-      <c r="B298" s="9"/>
-      <c r="C298" s="9"/>
-      <c r="D298" s="6"/>
+      <c r="B298" s="6"/>
+      <c r="C298" s="6"/>
+      <c r="D298" s="12"/>
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
@@ -7105,9 +7201,9 @@
       <c r="A299" s="1">
         <v>294</v>
       </c>
-      <c r="B299" s="9"/>
-      <c r="C299" s="9"/>
-      <c r="D299" s="6"/>
+      <c r="B299" s="6"/>
+      <c r="C299" s="6"/>
+      <c r="D299" s="12"/>
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
@@ -7127,9 +7223,9 @@
       <c r="A300" s="1">
         <v>295</v>
       </c>
-      <c r="B300" s="9"/>
-      <c r="C300" s="9"/>
-      <c r="D300" s="6"/>
+      <c r="B300" s="6"/>
+      <c r="C300" s="6"/>
+      <c r="D300" s="12"/>
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
@@ -7149,9 +7245,9 @@
       <c r="A301" s="1">
         <v>296</v>
       </c>
-      <c r="B301" s="9"/>
-      <c r="C301" s="9"/>
-      <c r="D301" s="6"/>
+      <c r="B301" s="6"/>
+      <c r="C301" s="6"/>
+      <c r="D301" s="12"/>
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
@@ -7171,9 +7267,9 @@
       <c r="A302" s="1">
         <v>297</v>
       </c>
-      <c r="B302" s="9"/>
-      <c r="C302" s="9"/>
-      <c r="D302" s="6"/>
+      <c r="B302" s="6"/>
+      <c r="C302" s="6"/>
+      <c r="D302" s="12"/>
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
@@ -7193,9 +7289,9 @@
       <c r="A303" s="1">
         <v>298</v>
       </c>
-      <c r="B303" s="9"/>
-      <c r="C303" s="9"/>
-      <c r="D303" s="6"/>
+      <c r="B303" s="6"/>
+      <c r="C303" s="6"/>
+      <c r="D303" s="12"/>
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
@@ -7215,9 +7311,9 @@
       <c r="A304" s="1">
         <v>299</v>
       </c>
-      <c r="B304" s="9"/>
-      <c r="C304" s="9"/>
-      <c r="D304" s="6"/>
+      <c r="B304" s="6"/>
+      <c r="C304" s="6"/>
+      <c r="D304" s="12"/>
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
@@ -7237,9 +7333,9 @@
       <c r="A305" s="1">
         <v>300</v>
       </c>
-      <c r="B305" s="9"/>
-      <c r="C305" s="9"/>
-      <c r="D305" s="6"/>
+      <c r="B305" s="6"/>
+      <c r="C305" s="6"/>
+      <c r="D305" s="12"/>
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
@@ -7259,9 +7355,9 @@
       <c r="A306" s="1">
         <v>301</v>
       </c>
-      <c r="B306" s="9"/>
-      <c r="C306" s="9"/>
-      <c r="D306" s="6"/>
+      <c r="B306" s="6"/>
+      <c r="C306" s="6"/>
+      <c r="D306" s="12"/>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
@@ -7281,9 +7377,9 @@
       <c r="A307" s="1">
         <v>302</v>
       </c>
-      <c r="B307" s="9"/>
-      <c r="C307" s="9"/>
-      <c r="D307" s="6"/>
+      <c r="B307" s="6"/>
+      <c r="C307" s="6"/>
+      <c r="D307" s="12"/>
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
@@ -7303,9 +7399,9 @@
       <c r="A308" s="1">
         <v>303</v>
       </c>
-      <c r="B308" s="9"/>
-      <c r="C308" s="9"/>
-      <c r="D308" s="6"/>
+      <c r="B308" s="6"/>
+      <c r="C308" s="6"/>
+      <c r="D308" s="12"/>
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
@@ -7325,9 +7421,9 @@
       <c r="A309" s="1">
         <v>304</v>
       </c>
-      <c r="B309" s="9"/>
-      <c r="C309" s="9"/>
-      <c r="D309" s="6"/>
+      <c r="B309" s="6"/>
+      <c r="C309" s="6"/>
+      <c r="D309" s="12"/>
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
@@ -7347,9 +7443,9 @@
       <c r="A310" s="1">
         <v>305</v>
       </c>
-      <c r="B310" s="9"/>
-      <c r="C310" s="9"/>
-      <c r="D310" s="6"/>
+      <c r="B310" s="6"/>
+      <c r="C310" s="6"/>
+      <c r="D310" s="12"/>
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
@@ -7369,9 +7465,9 @@
       <c r="A311" s="1">
         <v>306</v>
       </c>
-      <c r="B311" s="9"/>
-      <c r="C311" s="9"/>
-      <c r="D311" s="6"/>
+      <c r="B311" s="6"/>
+      <c r="C311" s="6"/>
+      <c r="D311" s="12"/>
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
       <c r="G311" s="1"/>
@@ -7391,9 +7487,9 @@
       <c r="A312" s="1">
         <v>307</v>
       </c>
-      <c r="B312" s="9"/>
-      <c r="C312" s="9"/>
-      <c r="D312" s="6"/>
+      <c r="B312" s="6"/>
+      <c r="C312" s="6"/>
+      <c r="D312" s="12"/>
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
       <c r="G312" s="1"/>
@@ -7413,9 +7509,9 @@
       <c r="A313" s="1">
         <v>308</v>
       </c>
-      <c r="B313" s="9"/>
-      <c r="C313" s="9"/>
-      <c r="D313" s="6"/>
+      <c r="B313" s="6"/>
+      <c r="C313" s="6"/>
+      <c r="D313" s="12"/>
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
       <c r="G313" s="1"/>
@@ -7435,9 +7531,9 @@
       <c r="A314" s="1">
         <v>309</v>
       </c>
-      <c r="B314" s="9"/>
-      <c r="C314" s="9"/>
-      <c r="D314" s="6"/>
+      <c r="B314" s="6"/>
+      <c r="C314" s="6"/>
+      <c r="D314" s="12"/>
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
       <c r="G314" s="1"/>
@@ -7457,9 +7553,9 @@
       <c r="A315" s="1">
         <v>310</v>
       </c>
-      <c r="B315" s="9"/>
-      <c r="C315" s="9"/>
-      <c r="D315" s="6"/>
+      <c r="B315" s="6"/>
+      <c r="C315" s="6"/>
+      <c r="D315" s="12"/>
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
@@ -7479,9 +7575,9 @@
       <c r="A316" s="1">
         <v>311</v>
       </c>
-      <c r="B316" s="9"/>
-      <c r="C316" s="9"/>
-      <c r="D316" s="6"/>
+      <c r="B316" s="6"/>
+      <c r="C316" s="6"/>
+      <c r="D316" s="12"/>
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
@@ -7501,9 +7597,9 @@
       <c r="A317" s="1">
         <v>312</v>
       </c>
-      <c r="B317" s="9"/>
-      <c r="C317" s="9"/>
-      <c r="D317" s="6"/>
+      <c r="B317" s="6"/>
+      <c r="C317" s="6"/>
+      <c r="D317" s="12"/>
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
@@ -7523,9 +7619,9 @@
       <c r="A318" s="1">
         <v>313</v>
       </c>
-      <c r="B318" s="9"/>
-      <c r="C318" s="9"/>
-      <c r="D318" s="6"/>
+      <c r="B318" s="6"/>
+      <c r="C318" s="6"/>
+      <c r="D318" s="12"/>
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
       <c r="G318" s="1"/>
@@ -7545,9 +7641,9 @@
       <c r="A319" s="1">
         <v>314</v>
       </c>
-      <c r="B319" s="9"/>
-      <c r="C319" s="9"/>
-      <c r="D319" s="6"/>
+      <c r="B319" s="6"/>
+      <c r="C319" s="6"/>
+      <c r="D319" s="12"/>
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
@@ -7567,9 +7663,9 @@
       <c r="A320" s="1">
         <v>315</v>
       </c>
-      <c r="B320" s="9"/>
-      <c r="C320" s="9"/>
-      <c r="D320" s="6"/>
+      <c r="B320" s="6"/>
+      <c r="C320" s="6"/>
+      <c r="D320" s="12"/>
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
       <c r="G320" s="1"/>
@@ -7589,9 +7685,9 @@
       <c r="A321" s="1">
         <v>316</v>
       </c>
-      <c r="B321" s="9"/>
-      <c r="C321" s="9"/>
-      <c r="D321" s="6"/>
+      <c r="B321" s="6"/>
+      <c r="C321" s="6"/>
+      <c r="D321" s="12"/>
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
@@ -7611,9 +7707,9 @@
       <c r="A322" s="1">
         <v>317</v>
       </c>
-      <c r="B322" s="9"/>
-      <c r="C322" s="9"/>
-      <c r="D322" s="6"/>
+      <c r="B322" s="6"/>
+      <c r="C322" s="6"/>
+      <c r="D322" s="12"/>
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
@@ -7633,9 +7729,9 @@
       <c r="A323" s="1">
         <v>318</v>
       </c>
-      <c r="B323" s="9"/>
-      <c r="C323" s="9"/>
-      <c r="D323" s="6"/>
+      <c r="B323" s="6"/>
+      <c r="C323" s="6"/>
+      <c r="D323" s="12"/>
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
@@ -7655,9 +7751,9 @@
       <c r="A324" s="1">
         <v>319</v>
       </c>
-      <c r="B324" s="9"/>
-      <c r="C324" s="9"/>
-      <c r="D324" s="6"/>
+      <c r="B324" s="6"/>
+      <c r="C324" s="6"/>
+      <c r="D324" s="12"/>
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
@@ -7677,9 +7773,9 @@
       <c r="A325" s="1">
         <v>320</v>
       </c>
-      <c r="B325" s="9"/>
-      <c r="C325" s="9"/>
-      <c r="D325" s="6"/>
+      <c r="B325" s="6"/>
+      <c r="C325" s="6"/>
+      <c r="D325" s="12"/>
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
@@ -7699,9 +7795,9 @@
       <c r="A326" s="1">
         <v>321</v>
       </c>
-      <c r="B326" s="9"/>
-      <c r="C326" s="9"/>
-      <c r="D326" s="6"/>
+      <c r="B326" s="6"/>
+      <c r="C326" s="6"/>
+      <c r="D326" s="12"/>
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
@@ -7721,9 +7817,9 @@
       <c r="A327" s="1">
         <v>322</v>
       </c>
-      <c r="B327" s="9"/>
-      <c r="C327" s="9"/>
-      <c r="D327" s="6"/>
+      <c r="B327" s="6"/>
+      <c r="C327" s="6"/>
+      <c r="D327" s="12"/>
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
@@ -7743,9 +7839,9 @@
       <c r="A328" s="1">
         <v>323</v>
       </c>
-      <c r="B328" s="9"/>
-      <c r="C328" s="9"/>
-      <c r="D328" s="6"/>
+      <c r="B328" s="6"/>
+      <c r="C328" s="6"/>
+      <c r="D328" s="12"/>
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
@@ -7765,9 +7861,9 @@
       <c r="A329" s="1">
         <v>324</v>
       </c>
-      <c r="B329" s="9"/>
-      <c r="C329" s="9"/>
-      <c r="D329" s="6"/>
+      <c r="B329" s="6"/>
+      <c r="C329" s="6"/>
+      <c r="D329" s="12"/>
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
@@ -7787,9 +7883,9 @@
       <c r="A330" s="1">
         <v>325</v>
       </c>
-      <c r="B330" s="9"/>
-      <c r="C330" s="9"/>
-      <c r="D330" s="6"/>
+      <c r="B330" s="6"/>
+      <c r="C330" s="6"/>
+      <c r="D330" s="12"/>
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
@@ -7809,9 +7905,9 @@
       <c r="A331" s="1">
         <v>326</v>
       </c>
-      <c r="B331" s="9"/>
-      <c r="C331" s="9"/>
-      <c r="D331" s="6"/>
+      <c r="B331" s="6"/>
+      <c r="C331" s="6"/>
+      <c r="D331" s="12"/>
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
@@ -7831,9 +7927,9 @@
       <c r="A332" s="1">
         <v>327</v>
       </c>
-      <c r="B332" s="9"/>
-      <c r="C332" s="9"/>
-      <c r="D332" s="6"/>
+      <c r="B332" s="6"/>
+      <c r="C332" s="6"/>
+      <c r="D332" s="12"/>
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
@@ -7853,9 +7949,9 @@
       <c r="A333" s="1">
         <v>328</v>
       </c>
-      <c r="B333" s="9"/>
-      <c r="C333" s="9"/>
-      <c r="D333" s="6"/>
+      <c r="B333" s="6"/>
+      <c r="C333" s="6"/>
+      <c r="D333" s="12"/>
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
       <c r="G333" s="1"/>
@@ -7875,9 +7971,9 @@
       <c r="A334" s="1">
         <v>329</v>
       </c>
-      <c r="B334" s="9"/>
-      <c r="C334" s="9"/>
-      <c r="D334" s="6"/>
+      <c r="B334" s="6"/>
+      <c r="C334" s="6"/>
+      <c r="D334" s="12"/>
       <c r="E334" s="1"/>
       <c r="F334" s="1"/>
       <c r="G334" s="1"/>
@@ -7897,9 +7993,9 @@
       <c r="A335" s="1">
         <v>330</v>
       </c>
-      <c r="B335" s="9"/>
-      <c r="C335" s="9"/>
-      <c r="D335" s="6"/>
+      <c r="B335" s="6"/>
+      <c r="C335" s="6"/>
+      <c r="D335" s="12"/>
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
       <c r="G335" s="1"/>
@@ -7919,9 +8015,9 @@
       <c r="A336" s="1">
         <v>331</v>
       </c>
-      <c r="B336" s="9"/>
-      <c r="C336" s="9"/>
-      <c r="D336" s="6"/>
+      <c r="B336" s="6"/>
+      <c r="C336" s="6"/>
+      <c r="D336" s="12"/>
       <c r="E336" s="1"/>
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
@@ -7941,9 +8037,9 @@
       <c r="A337" s="1">
         <v>332</v>
       </c>
-      <c r="B337" s="9"/>
-      <c r="C337" s="9"/>
-      <c r="D337" s="6"/>
+      <c r="B337" s="6"/>
+      <c r="C337" s="6"/>
+      <c r="D337" s="12"/>
       <c r="E337" s="1"/>
       <c r="F337" s="1"/>
       <c r="G337" s="1"/>
@@ -7963,9 +8059,9 @@
       <c r="A338" s="1">
         <v>333</v>
       </c>
-      <c r="B338" s="9"/>
-      <c r="C338" s="9"/>
-      <c r="D338" s="6"/>
+      <c r="B338" s="6"/>
+      <c r="C338" s="6"/>
+      <c r="D338" s="12"/>
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
       <c r="G338" s="1"/>
@@ -7985,9 +8081,9 @@
       <c r="A339" s="1">
         <v>334</v>
       </c>
-      <c r="B339" s="9"/>
-      <c r="C339" s="9"/>
-      <c r="D339" s="6"/>
+      <c r="B339" s="6"/>
+      <c r="C339" s="6"/>
+      <c r="D339" s="12"/>
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
       <c r="G339" s="1"/>
@@ -8007,9 +8103,9 @@
       <c r="A340" s="1">
         <v>335</v>
       </c>
-      <c r="B340" s="9"/>
-      <c r="C340" s="9"/>
-      <c r="D340" s="6"/>
+      <c r="B340" s="6"/>
+      <c r="C340" s="6"/>
+      <c r="D340" s="12"/>
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
       <c r="G340" s="1"/>
@@ -8029,9 +8125,9 @@
       <c r="A341" s="1">
         <v>336</v>
       </c>
-      <c r="B341" s="9"/>
-      <c r="C341" s="9"/>
-      <c r="D341" s="6"/>
+      <c r="B341" s="6"/>
+      <c r="C341" s="6"/>
+      <c r="D341" s="12"/>
       <c r="E341" s="1"/>
       <c r="F341" s="1"/>
       <c r="G341" s="1"/>
@@ -8051,9 +8147,9 @@
       <c r="A342" s="1">
         <v>337</v>
       </c>
-      <c r="B342" s="9"/>
-      <c r="C342" s="9"/>
-      <c r="D342" s="6"/>
+      <c r="B342" s="6"/>
+      <c r="C342" s="6"/>
+      <c r="D342" s="12"/>
       <c r="E342" s="1"/>
       <c r="F342" s="1"/>
       <c r="G342" s="1"/>
@@ -8073,9 +8169,9 @@
       <c r="A343" s="1">
         <v>338</v>
       </c>
-      <c r="B343" s="9"/>
-      <c r="C343" s="9"/>
-      <c r="D343" s="6"/>
+      <c r="B343" s="6"/>
+      <c r="C343" s="6"/>
+      <c r="D343" s="12"/>
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
       <c r="G343" s="1"/>
@@ -8095,9 +8191,9 @@
       <c r="A344" s="1">
         <v>339</v>
       </c>
-      <c r="B344" s="9"/>
-      <c r="C344" s="9"/>
-      <c r="D344" s="6"/>
+      <c r="B344" s="6"/>
+      <c r="C344" s="6"/>
+      <c r="D344" s="12"/>
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
       <c r="G344" s="1"/>
@@ -8117,9 +8213,9 @@
       <c r="A345" s="1">
         <v>340</v>
       </c>
-      <c r="B345" s="9"/>
-      <c r="C345" s="9"/>
-      <c r="D345" s="6"/>
+      <c r="B345" s="6"/>
+      <c r="C345" s="6"/>
+      <c r="D345" s="12"/>
       <c r="E345" s="1"/>
       <c r="F345" s="1"/>
       <c r="G345" s="1"/>
@@ -8139,9 +8235,9 @@
       <c r="A346" s="1">
         <v>341</v>
       </c>
-      <c r="B346" s="9"/>
-      <c r="C346" s="9"/>
-      <c r="D346" s="6"/>
+      <c r="B346" s="6"/>
+      <c r="C346" s="6"/>
+      <c r="D346" s="12"/>
       <c r="E346" s="1"/>
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
@@ -8161,9 +8257,9 @@
       <c r="A347" s="1">
         <v>342</v>
       </c>
-      <c r="B347" s="9"/>
-      <c r="C347" s="9"/>
-      <c r="D347" s="6"/>
+      <c r="B347" s="6"/>
+      <c r="C347" s="6"/>
+      <c r="D347" s="12"/>
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
       <c r="G347" s="1"/>
@@ -8183,9 +8279,9 @@
       <c r="A348" s="1">
         <v>343</v>
       </c>
-      <c r="B348" s="9"/>
-      <c r="C348" s="9"/>
-      <c r="D348" s="6"/>
+      <c r="B348" s="6"/>
+      <c r="C348" s="6"/>
+      <c r="D348" s="12"/>
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
       <c r="G348" s="1"/>
@@ -8205,9 +8301,9 @@
       <c r="A349" s="1">
         <v>344</v>
       </c>
-      <c r="B349" s="9"/>
-      <c r="C349" s="9"/>
-      <c r="D349" s="6"/>
+      <c r="B349" s="6"/>
+      <c r="C349" s="6"/>
+      <c r="D349" s="12"/>
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
       <c r="G349" s="1"/>
@@ -8227,9 +8323,9 @@
       <c r="A350" s="1">
         <v>345</v>
       </c>
-      <c r="B350" s="9"/>
-      <c r="C350" s="9"/>
-      <c r="D350" s="6"/>
+      <c r="B350" s="6"/>
+      <c r="C350" s="6"/>
+      <c r="D350" s="12"/>
       <c r="E350" s="1"/>
       <c r="F350" s="1"/>
       <c r="G350" s="1"/>
@@ -8249,9 +8345,9 @@
       <c r="A351" s="1">
         <v>346</v>
       </c>
-      <c r="B351" s="9"/>
-      <c r="C351" s="9"/>
-      <c r="D351" s="6"/>
+      <c r="B351" s="6"/>
+      <c r="C351" s="6"/>
+      <c r="D351" s="12"/>
       <c r="E351" s="1"/>
       <c r="F351" s="1"/>
       <c r="G351" s="1"/>
@@ -8271,9 +8367,9 @@
       <c r="A352" s="1">
         <v>347</v>
       </c>
-      <c r="B352" s="9"/>
-      <c r="C352" s="9"/>
-      <c r="D352" s="6"/>
+      <c r="B352" s="6"/>
+      <c r="C352" s="6"/>
+      <c r="D352" s="12"/>
       <c r="E352" s="1"/>
       <c r="F352" s="1"/>
       <c r="G352" s="1"/>
@@ -8293,9 +8389,9 @@
       <c r="A353" s="1">
         <v>348</v>
       </c>
-      <c r="B353" s="9"/>
-      <c r="C353" s="9"/>
-      <c r="D353" s="6"/>
+      <c r="B353" s="6"/>
+      <c r="C353" s="6"/>
+      <c r="D353" s="12"/>
       <c r="E353" s="1"/>
       <c r="F353" s="1"/>
       <c r="G353" s="1"/>
@@ -8315,9 +8411,9 @@
       <c r="A354" s="1">
         <v>349</v>
       </c>
-      <c r="B354" s="9"/>
-      <c r="C354" s="9"/>
-      <c r="D354" s="6"/>
+      <c r="B354" s="6"/>
+      <c r="C354" s="6"/>
+      <c r="D354" s="12"/>
       <c r="E354" s="1"/>
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
@@ -8337,9 +8433,9 @@
       <c r="A355" s="1">
         <v>350</v>
       </c>
-      <c r="B355" s="9"/>
-      <c r="C355" s="9"/>
-      <c r="D355" s="6"/>
+      <c r="B355" s="6"/>
+      <c r="C355" s="6"/>
+      <c r="D355" s="12"/>
       <c r="E355" s="1"/>
       <c r="F355" s="1"/>
       <c r="G355" s="1"/>
@@ -8359,9 +8455,9 @@
       <c r="A356" s="1">
         <v>351</v>
       </c>
-      <c r="B356" s="9"/>
-      <c r="C356" s="9"/>
-      <c r="D356" s="6"/>
+      <c r="B356" s="6"/>
+      <c r="C356" s="6"/>
+      <c r="D356" s="12"/>
       <c r="E356" s="1"/>
       <c r="F356" s="1"/>
       <c r="G356" s="1"/>
@@ -8381,9 +8477,9 @@
       <c r="A357" s="1">
         <v>352</v>
       </c>
-      <c r="B357" s="9"/>
-      <c r="C357" s="9"/>
-      <c r="D357" s="6"/>
+      <c r="B357" s="6"/>
+      <c r="C357" s="6"/>
+      <c r="D357" s="12"/>
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
       <c r="G357" s="1"/>
@@ -8403,9 +8499,9 @@
       <c r="A358" s="1">
         <v>353</v>
       </c>
-      <c r="B358" s="9"/>
-      <c r="C358" s="9"/>
-      <c r="D358" s="6"/>
+      <c r="B358" s="6"/>
+      <c r="C358" s="6"/>
+      <c r="D358" s="12"/>
       <c r="E358" s="1"/>
       <c r="F358" s="1"/>
       <c r="G358" s="1"/>
@@ -8425,9 +8521,9 @@
       <c r="A359" s="1">
         <v>354</v>
       </c>
-      <c r="B359" s="9"/>
-      <c r="C359" s="9"/>
-      <c r="D359" s="6"/>
+      <c r="B359" s="6"/>
+      <c r="C359" s="6"/>
+      <c r="D359" s="12"/>
       <c r="E359" s="1"/>
       <c r="F359" s="1"/>
       <c r="G359" s="1"/>
@@ -8447,9 +8543,9 @@
       <c r="A360" s="1">
         <v>355</v>
       </c>
-      <c r="B360" s="9"/>
-      <c r="C360" s="9"/>
-      <c r="D360" s="6"/>
+      <c r="B360" s="6"/>
+      <c r="C360" s="6"/>
+      <c r="D360" s="12"/>
       <c r="E360" s="1"/>
       <c r="F360" s="1"/>
       <c r="G360" s="1"/>
@@ -8469,9 +8565,9 @@
       <c r="A361" s="1">
         <v>356</v>
       </c>
-      <c r="B361" s="9"/>
-      <c r="C361" s="9"/>
-      <c r="D361" s="6"/>
+      <c r="B361" s="6"/>
+      <c r="C361" s="6"/>
+      <c r="D361" s="12"/>
       <c r="E361" s="1"/>
       <c r="F361" s="1"/>
       <c r="G361" s="1"/>
@@ -8491,9 +8587,9 @@
       <c r="A362" s="1">
         <v>357</v>
       </c>
-      <c r="B362" s="9"/>
-      <c r="C362" s="9"/>
-      <c r="D362" s="6"/>
+      <c r="B362" s="6"/>
+      <c r="C362" s="6"/>
+      <c r="D362" s="12"/>
       <c r="E362" s="1"/>
       <c r="F362" s="1"/>
       <c r="G362" s="1"/>
@@ -8513,9 +8609,9 @@
       <c r="A363" s="1">
         <v>358</v>
       </c>
-      <c r="B363" s="9"/>
-      <c r="C363" s="9"/>
-      <c r="D363" s="6"/>
+      <c r="B363" s="6"/>
+      <c r="C363" s="6"/>
+      <c r="D363" s="12"/>
       <c r="E363" s="1"/>
       <c r="F363" s="1"/>
       <c r="G363" s="1"/>
@@ -8535,9 +8631,9 @@
       <c r="A364" s="1">
         <v>359</v>
       </c>
-      <c r="B364" s="9"/>
-      <c r="C364" s="9"/>
-      <c r="D364" s="6"/>
+      <c r="B364" s="6"/>
+      <c r="C364" s="6"/>
+      <c r="D364" s="12"/>
       <c r="E364" s="1"/>
       <c r="F364" s="1"/>
       <c r="G364" s="1"/>
@@ -8557,9 +8653,9 @@
       <c r="A365" s="1">
         <v>360</v>
       </c>
-      <c r="B365" s="9"/>
-      <c r="C365" s="9"/>
-      <c r="D365" s="6"/>
+      <c r="B365" s="6"/>
+      <c r="C365" s="6"/>
+      <c r="D365" s="12"/>
       <c r="E365" s="1"/>
       <c r="F365" s="1"/>
       <c r="G365" s="1"/>
@@ -8579,9 +8675,9 @@
       <c r="A366" s="1">
         <v>361</v>
       </c>
-      <c r="B366" s="9"/>
-      <c r="C366" s="9"/>
-      <c r="D366" s="6"/>
+      <c r="B366" s="6"/>
+      <c r="C366" s="6"/>
+      <c r="D366" s="12"/>
       <c r="E366" s="1"/>
       <c r="F366" s="1"/>
       <c r="G366" s="1"/>
@@ -8601,9 +8697,9 @@
       <c r="A367" s="1">
         <v>362</v>
       </c>
-      <c r="B367" s="9"/>
-      <c r="C367" s="9"/>
-      <c r="D367" s="6"/>
+      <c r="B367" s="6"/>
+      <c r="C367" s="6"/>
+      <c r="D367" s="12"/>
       <c r="E367" s="1"/>
       <c r="F367" s="1"/>
       <c r="G367" s="1"/>
@@ -8623,9 +8719,9 @@
       <c r="A368" s="1">
         <v>363</v>
       </c>
-      <c r="B368" s="9"/>
-      <c r="C368" s="9"/>
-      <c r="D368" s="6"/>
+      <c r="B368" s="6"/>
+      <c r="C368" s="6"/>
+      <c r="D368" s="12"/>
       <c r="E368" s="1"/>
       <c r="F368" s="1"/>
       <c r="G368" s="1"/>
@@ -8645,9 +8741,9 @@
       <c r="A369" s="1">
         <v>364</v>
       </c>
-      <c r="B369" s="9"/>
-      <c r="C369" s="9"/>
-      <c r="D369" s="6"/>
+      <c r="B369" s="6"/>
+      <c r="C369" s="6"/>
+      <c r="D369" s="12"/>
       <c r="E369" s="1"/>
       <c r="F369" s="1"/>
       <c r="G369" s="1"/>
@@ -8667,9 +8763,9 @@
       <c r="A370" s="1">
         <v>365</v>
       </c>
-      <c r="B370" s="9"/>
-      <c r="C370" s="9"/>
-      <c r="D370" s="6"/>
+      <c r="B370" s="6"/>
+      <c r="C370" s="6"/>
+      <c r="D370" s="12"/>
       <c r="E370" s="1"/>
       <c r="F370" s="1"/>
       <c r="G370" s="1"/>
@@ -8689,9 +8785,9 @@
       <c r="A371" s="1">
         <v>366</v>
       </c>
-      <c r="B371" s="9"/>
-      <c r="C371" s="9"/>
-      <c r="D371" s="6"/>
+      <c r="B371" s="6"/>
+      <c r="C371" s="6"/>
+      <c r="D371" s="12"/>
       <c r="E371" s="1"/>
       <c r="F371" s="1"/>
       <c r="G371" s="1"/>
@@ -8711,9 +8807,9 @@
       <c r="A372" s="1">
         <v>367</v>
       </c>
-      <c r="B372" s="9"/>
-      <c r="C372" s="9"/>
-      <c r="D372" s="6"/>
+      <c r="B372" s="6"/>
+      <c r="C372" s="6"/>
+      <c r="D372" s="12"/>
       <c r="E372" s="1"/>
       <c r="F372" s="1"/>
       <c r="G372" s="1"/>
@@ -8733,9 +8829,9 @@
       <c r="A373" s="1">
         <v>368</v>
       </c>
-      <c r="B373" s="9"/>
-      <c r="C373" s="9"/>
-      <c r="D373" s="6"/>
+      <c r="B373" s="6"/>
+      <c r="C373" s="6"/>
+      <c r="D373" s="12"/>
       <c r="E373" s="1"/>
       <c r="F373" s="1"/>
       <c r="G373" s="1"/>
@@ -8755,9 +8851,9 @@
       <c r="A374" s="1">
         <v>369</v>
       </c>
-      <c r="B374" s="9"/>
-      <c r="C374" s="9"/>
-      <c r="D374" s="6"/>
+      <c r="B374" s="6"/>
+      <c r="C374" s="6"/>
+      <c r="D374" s="12"/>
       <c r="E374" s="1"/>
       <c r="F374" s="1"/>
       <c r="G374" s="1"/>
@@ -8777,9 +8873,9 @@
       <c r="A375" s="1">
         <v>370</v>
       </c>
-      <c r="B375" s="9"/>
-      <c r="C375" s="9"/>
-      <c r="D375" s="6"/>
+      <c r="B375" s="6"/>
+      <c r="C375" s="6"/>
+      <c r="D375" s="12"/>
       <c r="E375" s="1"/>
       <c r="F375" s="1"/>
       <c r="G375" s="1"/>
@@ -8799,9 +8895,9 @@
       <c r="A376" s="1">
         <v>371</v>
       </c>
-      <c r="B376" s="9"/>
-      <c r="C376" s="9"/>
-      <c r="D376" s="6"/>
+      <c r="B376" s="6"/>
+      <c r="C376" s="6"/>
+      <c r="D376" s="12"/>
       <c r="E376" s="1"/>
       <c r="F376" s="1"/>
       <c r="G376" s="1"/>
@@ -8821,9 +8917,9 @@
       <c r="A377" s="1">
         <v>372</v>
       </c>
-      <c r="B377" s="9"/>
-      <c r="C377" s="9"/>
-      <c r="D377" s="6"/>
+      <c r="B377" s="6"/>
+      <c r="C377" s="6"/>
+      <c r="D377" s="12"/>
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
       <c r="G377" s="1"/>
@@ -8843,9 +8939,9 @@
       <c r="A378" s="1">
         <v>373</v>
       </c>
-      <c r="B378" s="9"/>
-      <c r="C378" s="9"/>
-      <c r="D378" s="6"/>
+      <c r="B378" s="6"/>
+      <c r="C378" s="6"/>
+      <c r="D378" s="12"/>
       <c r="E378" s="1"/>
       <c r="F378" s="1"/>
       <c r="G378" s="1"/>
@@ -8865,9 +8961,9 @@
       <c r="A379" s="1">
         <v>374</v>
       </c>
-      <c r="B379" s="9"/>
-      <c r="C379" s="9"/>
-      <c r="D379" s="6"/>
+      <c r="B379" s="6"/>
+      <c r="C379" s="6"/>
+      <c r="D379" s="12"/>
       <c r="E379" s="1"/>
       <c r="F379" s="1"/>
       <c r="G379" s="1"/>
@@ -8887,9 +8983,9 @@
       <c r="A380" s="1">
         <v>375</v>
       </c>
-      <c r="B380" s="9"/>
-      <c r="C380" s="9"/>
-      <c r="D380" s="6"/>
+      <c r="B380" s="6"/>
+      <c r="C380" s="6"/>
+      <c r="D380" s="12"/>
       <c r="E380" s="1"/>
       <c r="F380" s="1"/>
       <c r="G380" s="1"/>
@@ -8909,9 +9005,9 @@
       <c r="A381" s="1">
         <v>376</v>
       </c>
-      <c r="B381" s="9"/>
-      <c r="C381" s="9"/>
-      <c r="D381" s="6"/>
+      <c r="B381" s="6"/>
+      <c r="C381" s="6"/>
+      <c r="D381" s="12"/>
       <c r="E381" s="1"/>
       <c r="F381" s="1"/>
       <c r="G381" s="1"/>
@@ -8931,9 +9027,9 @@
       <c r="A382" s="1">
         <v>377</v>
       </c>
-      <c r="B382" s="9"/>
-      <c r="C382" s="9"/>
-      <c r="D382" s="6"/>
+      <c r="B382" s="6"/>
+      <c r="C382" s="6"/>
+      <c r="D382" s="12"/>
       <c r="E382" s="1"/>
       <c r="F382" s="1"/>
       <c r="G382" s="1"/>
@@ -8953,9 +9049,9 @@
       <c r="A383" s="1">
         <v>378</v>
       </c>
-      <c r="B383" s="9"/>
-      <c r="C383" s="9"/>
-      <c r="D383" s="6"/>
+      <c r="B383" s="6"/>
+      <c r="C383" s="6"/>
+      <c r="D383" s="12"/>
       <c r="E383" s="1"/>
       <c r="F383" s="1"/>
       <c r="G383" s="1"/>
@@ -8975,9 +9071,9 @@
       <c r="A384" s="1">
         <v>379</v>
       </c>
-      <c r="B384" s="9"/>
-      <c r="C384" s="9"/>
-      <c r="D384" s="6"/>
+      <c r="B384" s="6"/>
+      <c r="C384" s="6"/>
+      <c r="D384" s="12"/>
       <c r="E384" s="1"/>
       <c r="F384" s="1"/>
       <c r="G384" s="1"/>
@@ -8997,9 +9093,9 @@
       <c r="A385" s="1">
         <v>380</v>
       </c>
-      <c r="B385" s="9"/>
-      <c r="C385" s="9"/>
-      <c r="D385" s="6"/>
+      <c r="B385" s="6"/>
+      <c r="C385" s="6"/>
+      <c r="D385" s="12"/>
       <c r="E385" s="1"/>
       <c r="F385" s="1"/>
       <c r="G385" s="1"/>
@@ -9019,9 +9115,9 @@
       <c r="A386" s="1">
         <v>381</v>
       </c>
-      <c r="B386" s="9"/>
-      <c r="C386" s="9"/>
-      <c r="D386" s="6"/>
+      <c r="B386" s="6"/>
+      <c r="C386" s="6"/>
+      <c r="D386" s="12"/>
       <c r="E386" s="1"/>
       <c r="F386" s="1"/>
       <c r="G386" s="1"/>
@@ -9041,9 +9137,9 @@
       <c r="A387" s="1">
         <v>382</v>
       </c>
-      <c r="B387" s="9"/>
-      <c r="C387" s="9"/>
-      <c r="D387" s="6"/>
+      <c r="B387" s="6"/>
+      <c r="C387" s="6"/>
+      <c r="D387" s="12"/>
       <c r="E387" s="1"/>
       <c r="F387" s="1"/>
       <c r="G387" s="1"/>
@@ -9063,9 +9159,9 @@
       <c r="A388" s="1">
         <v>383</v>
       </c>
-      <c r="B388" s="9"/>
-      <c r="C388" s="9"/>
-      <c r="D388" s="6"/>
+      <c r="B388" s="6"/>
+      <c r="C388" s="6"/>
+      <c r="D388" s="12"/>
       <c r="E388" s="1"/>
       <c r="F388" s="1"/>
       <c r="G388" s="1"/>
@@ -9085,9 +9181,9 @@
       <c r="A389" s="1">
         <v>384</v>
       </c>
-      <c r="B389" s="9"/>
-      <c r="C389" s="9"/>
-      <c r="D389" s="6"/>
+      <c r="B389" s="6"/>
+      <c r="C389" s="6"/>
+      <c r="D389" s="12"/>
       <c r="E389" s="1"/>
       <c r="F389" s="1"/>
       <c r="G389" s="1"/>
@@ -9107,9 +9203,9 @@
       <c r="A390" s="1">
         <v>385</v>
       </c>
-      <c r="B390" s="9"/>
-      <c r="C390" s="9"/>
-      <c r="D390" s="6"/>
+      <c r="B390" s="6"/>
+      <c r="C390" s="6"/>
+      <c r="D390" s="12"/>
       <c r="E390" s="1"/>
       <c r="F390" s="1"/>
       <c r="G390" s="1"/>
@@ -9129,9 +9225,9 @@
       <c r="A391" s="1">
         <v>386</v>
       </c>
-      <c r="B391" s="9"/>
-      <c r="C391" s="9"/>
-      <c r="D391" s="6"/>
+      <c r="B391" s="6"/>
+      <c r="C391" s="6"/>
+      <c r="D391" s="12"/>
       <c r="E391" s="1"/>
       <c r="F391" s="1"/>
       <c r="G391" s="1"/>
@@ -9151,9 +9247,9 @@
       <c r="A392" s="1">
         <v>387</v>
       </c>
-      <c r="B392" s="9"/>
-      <c r="C392" s="9"/>
-      <c r="D392" s="6"/>
+      <c r="B392" s="6"/>
+      <c r="C392" s="6"/>
+      <c r="D392" s="12"/>
       <c r="E392" s="1"/>
       <c r="F392" s="1"/>
       <c r="G392" s="1"/>
@@ -9173,9 +9269,9 @@
       <c r="A393" s="1">
         <v>388</v>
       </c>
-      <c r="B393" s="9"/>
-      <c r="C393" s="9"/>
-      <c r="D393" s="6"/>
+      <c r="B393" s="6"/>
+      <c r="C393" s="6"/>
+      <c r="D393" s="12"/>
       <c r="E393" s="1"/>
       <c r="F393" s="1"/>
       <c r="G393" s="1"/>
@@ -9195,9 +9291,9 @@
       <c r="A394" s="1">
         <v>389</v>
       </c>
-      <c r="B394" s="9"/>
-      <c r="C394" s="9"/>
-      <c r="D394" s="6"/>
+      <c r="B394" s="6"/>
+      <c r="C394" s="6"/>
+      <c r="D394" s="12"/>
       <c r="E394" s="1"/>
       <c r="F394" s="1"/>
       <c r="G394" s="1"/>
@@ -9217,9 +9313,9 @@
       <c r="A395" s="1">
         <v>390</v>
       </c>
-      <c r="B395" s="9"/>
-      <c r="C395" s="9"/>
-      <c r="D395" s="6"/>
+      <c r="B395" s="6"/>
+      <c r="C395" s="6"/>
+      <c r="D395" s="12"/>
       <c r="E395" s="1"/>
       <c r="F395" s="1"/>
       <c r="G395" s="1"/>
@@ -9239,9 +9335,9 @@
       <c r="A396" s="1">
         <v>391</v>
       </c>
-      <c r="B396" s="9"/>
-      <c r="C396" s="9"/>
-      <c r="D396" s="6"/>
+      <c r="B396" s="6"/>
+      <c r="C396" s="6"/>
+      <c r="D396" s="12"/>
       <c r="E396" s="1"/>
       <c r="F396" s="1"/>
       <c r="G396" s="1"/>
@@ -9261,9 +9357,9 @@
       <c r="A397" s="1">
         <v>392</v>
       </c>
-      <c r="B397" s="9"/>
-      <c r="C397" s="9"/>
-      <c r="D397" s="6"/>
+      <c r="B397" s="6"/>
+      <c r="C397" s="6"/>
+      <c r="D397" s="12"/>
       <c r="E397" s="1"/>
       <c r="F397" s="1"/>
       <c r="G397" s="1"/>
@@ -9283,9 +9379,9 @@
       <c r="A398" s="1">
         <v>393</v>
       </c>
-      <c r="B398" s="9"/>
-      <c r="C398" s="9"/>
-      <c r="D398" s="6"/>
+      <c r="B398" s="6"/>
+      <c r="C398" s="6"/>
+      <c r="D398" s="12"/>
       <c r="E398" s="1"/>
       <c r="F398" s="1"/>
       <c r="G398" s="1"/>
@@ -9305,9 +9401,9 @@
       <c r="A399" s="1">
         <v>394</v>
       </c>
-      <c r="B399" s="9"/>
-      <c r="C399" s="9"/>
-      <c r="D399" s="6"/>
+      <c r="B399" s="6"/>
+      <c r="C399" s="6"/>
+      <c r="D399" s="12"/>
       <c r="E399" s="1"/>
       <c r="F399" s="1"/>
       <c r="G399" s="1"/>
@@ -9327,9 +9423,9 @@
       <c r="A400" s="1">
         <v>395</v>
       </c>
-      <c r="B400" s="9"/>
-      <c r="C400" s="9"/>
-      <c r="D400" s="6"/>
+      <c r="B400" s="6"/>
+      <c r="C400" s="6"/>
+      <c r="D400" s="12"/>
       <c r="E400" s="1"/>
       <c r="F400" s="1"/>
       <c r="G400" s="1"/>
@@ -9349,9 +9445,9 @@
       <c r="A401" s="1">
         <v>396</v>
       </c>
-      <c r="B401" s="9"/>
-      <c r="C401" s="9"/>
-      <c r="D401" s="6"/>
+      <c r="B401" s="6"/>
+      <c r="C401" s="6"/>
+      <c r="D401" s="12"/>
       <c r="E401" s="1"/>
       <c r="F401" s="1"/>
       <c r="G401" s="1"/>
@@ -9371,9 +9467,9 @@
       <c r="A402" s="1">
         <v>397</v>
       </c>
-      <c r="B402" s="9"/>
-      <c r="C402" s="9"/>
-      <c r="D402" s="6"/>
+      <c r="B402" s="6"/>
+      <c r="C402" s="6"/>
+      <c r="D402" s="12"/>
       <c r="E402" s="1"/>
       <c r="F402" s="1"/>
       <c r="G402" s="1"/>
@@ -9393,9 +9489,9 @@
       <c r="A403" s="1">
         <v>398</v>
       </c>
-      <c r="B403" s="9"/>
-      <c r="C403" s="9"/>
-      <c r="D403" s="6"/>
+      <c r="B403" s="6"/>
+      <c r="C403" s="6"/>
+      <c r="D403" s="12"/>
       <c r="E403" s="1"/>
       <c r="F403" s="1"/>
       <c r="G403" s="1"/>
@@ -9415,9 +9511,9 @@
       <c r="A404" s="1">
         <v>399</v>
       </c>
-      <c r="B404" s="9"/>
-      <c r="C404" s="9"/>
-      <c r="D404" s="6"/>
+      <c r="B404" s="6"/>
+      <c r="C404" s="6"/>
+      <c r="D404" s="12"/>
       <c r="E404" s="1"/>
       <c r="F404" s="1"/>
       <c r="G404" s="1"/>
@@ -9437,9 +9533,9 @@
       <c r="A405" s="1">
         <v>400</v>
       </c>
-      <c r="B405" s="9"/>
-      <c r="C405" s="9"/>
-      <c r="D405" s="6"/>
+      <c r="B405" s="6"/>
+      <c r="C405" s="6"/>
+      <c r="D405" s="12"/>
       <c r="E405" s="1"/>
       <c r="F405" s="1"/>
       <c r="G405" s="1"/>
@@ -9459,9 +9555,9 @@
       <c r="A406" s="1">
         <v>401</v>
       </c>
-      <c r="B406" s="9"/>
-      <c r="C406" s="9"/>
-      <c r="D406" s="6"/>
+      <c r="B406" s="6"/>
+      <c r="C406" s="6"/>
+      <c r="D406" s="12"/>
       <c r="E406" s="1"/>
       <c r="F406" s="1"/>
       <c r="G406" s="1"/>
@@ -9481,9 +9577,9 @@
       <c r="A407" s="1">
         <v>402</v>
       </c>
-      <c r="B407" s="9"/>
-      <c r="C407" s="9"/>
-      <c r="D407" s="6"/>
+      <c r="B407" s="6"/>
+      <c r="C407" s="6"/>
+      <c r="D407" s="12"/>
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
       <c r="G407" s="1"/>
@@ -9503,9 +9599,9 @@
       <c r="A408" s="1">
         <v>403</v>
       </c>
-      <c r="B408" s="9"/>
-      <c r="C408" s="9"/>
-      <c r="D408" s="6"/>
+      <c r="B408" s="6"/>
+      <c r="C408" s="6"/>
+      <c r="D408" s="12"/>
       <c r="E408" s="1"/>
       <c r="F408" s="1"/>
       <c r="G408" s="1"/>
@@ -9525,9 +9621,9 @@
       <c r="A409" s="1">
         <v>404</v>
       </c>
-      <c r="B409" s="9"/>
-      <c r="C409" s="9"/>
-      <c r="D409" s="6"/>
+      <c r="B409" s="6"/>
+      <c r="C409" s="6"/>
+      <c r="D409" s="12"/>
       <c r="E409" s="1"/>
       <c r="F409" s="1"/>
       <c r="G409" s="1"/>
@@ -9547,9 +9643,9 @@
       <c r="A410" s="1">
         <v>405</v>
       </c>
-      <c r="B410" s="9"/>
-      <c r="C410" s="9"/>
-      <c r="D410" s="6"/>
+      <c r="B410" s="6"/>
+      <c r="C410" s="6"/>
+      <c r="D410" s="12"/>
       <c r="E410" s="1"/>
       <c r="F410" s="1"/>
       <c r="G410" s="1"/>
@@ -9569,9 +9665,9 @@
       <c r="A411" s="1">
         <v>406</v>
       </c>
-      <c r="B411" s="9"/>
-      <c r="C411" s="9"/>
-      <c r="D411" s="6"/>
+      <c r="B411" s="6"/>
+      <c r="C411" s="6"/>
+      <c r="D411" s="12"/>
       <c r="E411" s="1"/>
       <c r="F411" s="1"/>
       <c r="G411" s="1"/>
@@ -9591,9 +9687,9 @@
       <c r="A412" s="1">
         <v>407</v>
       </c>
-      <c r="B412" s="9"/>
-      <c r="C412" s="9"/>
-      <c r="D412" s="6"/>
+      <c r="B412" s="6"/>
+      <c r="C412" s="6"/>
+      <c r="D412" s="12"/>
       <c r="E412" s="1"/>
       <c r="F412" s="1"/>
       <c r="G412" s="1"/>
@@ -9613,9 +9709,9 @@
       <c r="A413" s="1">
         <v>408</v>
       </c>
-      <c r="B413" s="9"/>
-      <c r="C413" s="9"/>
-      <c r="D413" s="6"/>
+      <c r="B413" s="6"/>
+      <c r="C413" s="6"/>
+      <c r="D413" s="12"/>
       <c r="E413" s="1"/>
       <c r="F413" s="1"/>
       <c r="G413" s="1"/>
@@ -9635,9 +9731,9 @@
       <c r="A414" s="1">
         <v>409</v>
       </c>
-      <c r="B414" s="9"/>
-      <c r="C414" s="9"/>
-      <c r="D414" s="6"/>
+      <c r="B414" s="6"/>
+      <c r="C414" s="6"/>
+      <c r="D414" s="12"/>
       <c r="E414" s="1"/>
       <c r="F414" s="1"/>
       <c r="G414" s="1"/>
@@ -9657,9 +9753,9 @@
       <c r="A415" s="1">
         <v>410</v>
       </c>
-      <c r="B415" s="9"/>
-      <c r="C415" s="9"/>
-      <c r="D415" s="6"/>
+      <c r="B415" s="6"/>
+      <c r="C415" s="6"/>
+      <c r="D415" s="12"/>
       <c r="E415" s="1"/>
       <c r="F415" s="1"/>
       <c r="G415" s="1"/>
@@ -9679,9 +9775,9 @@
       <c r="A416" s="1">
         <v>411</v>
       </c>
-      <c r="B416" s="9"/>
-      <c r="C416" s="9"/>
-      <c r="D416" s="6"/>
+      <c r="B416" s="6"/>
+      <c r="C416" s="6"/>
+      <c r="D416" s="12"/>
       <c r="E416" s="1"/>
       <c r="F416" s="1"/>
       <c r="G416" s="1"/>
@@ -9701,9 +9797,9 @@
       <c r="A417" s="1">
         <v>412</v>
       </c>
-      <c r="B417" s="9"/>
-      <c r="C417" s="9"/>
-      <c r="D417" s="6"/>
+      <c r="B417" s="6"/>
+      <c r="C417" s="6"/>
+      <c r="D417" s="12"/>
       <c r="E417" s="1"/>
       <c r="F417" s="1"/>
       <c r="G417" s="1"/>
@@ -9723,9 +9819,9 @@
       <c r="A418" s="1">
         <v>413</v>
       </c>
-      <c r="B418" s="9"/>
-      <c r="C418" s="9"/>
-      <c r="D418" s="6"/>
+      <c r="B418" s="6"/>
+      <c r="C418" s="6"/>
+      <c r="D418" s="12"/>
       <c r="E418" s="1"/>
       <c r="F418" s="1"/>
       <c r="G418" s="1"/>
@@ -9745,9 +9841,9 @@
       <c r="A419" s="1">
         <v>414</v>
       </c>
-      <c r="B419" s="9"/>
-      <c r="C419" s="9"/>
-      <c r="D419" s="6"/>
+      <c r="B419" s="6"/>
+      <c r="C419" s="6"/>
+      <c r="D419" s="12"/>
       <c r="E419" s="1"/>
       <c r="F419" s="1"/>
       <c r="G419" s="1"/>
@@ -9767,9 +9863,9 @@
       <c r="A420" s="1">
         <v>415</v>
       </c>
-      <c r="B420" s="9"/>
-      <c r="C420" s="9"/>
-      <c r="D420" s="6"/>
+      <c r="B420" s="6"/>
+      <c r="C420" s="6"/>
+      <c r="D420" s="12"/>
       <c r="E420" s="1"/>
       <c r="F420" s="1"/>
       <c r="G420" s="1"/>
@@ -9789,9 +9885,9 @@
       <c r="A421" s="1">
         <v>416</v>
       </c>
-      <c r="B421" s="9"/>
-      <c r="C421" s="9"/>
-      <c r="D421" s="6"/>
+      <c r="B421" s="6"/>
+      <c r="C421" s="6"/>
+      <c r="D421" s="12"/>
       <c r="E421" s="1"/>
       <c r="F421" s="1"/>
       <c r="G421" s="1"/>
@@ -9811,9 +9907,9 @@
       <c r="A422" s="1">
         <v>417</v>
       </c>
-      <c r="B422" s="9"/>
-      <c r="C422" s="9"/>
-      <c r="D422" s="6"/>
+      <c r="B422" s="6"/>
+      <c r="C422" s="6"/>
+      <c r="D422" s="12"/>
       <c r="E422" s="1"/>
       <c r="F422" s="1"/>
       <c r="G422" s="1"/>
@@ -9833,9 +9929,9 @@
       <c r="A423" s="1">
         <v>418</v>
       </c>
-      <c r="B423" s="9"/>
-      <c r="C423" s="9"/>
-      <c r="D423" s="6"/>
+      <c r="B423" s="6"/>
+      <c r="C423" s="6"/>
+      <c r="D423" s="12"/>
       <c r="E423" s="1"/>
       <c r="F423" s="1"/>
       <c r="G423" s="1"/>
@@ -9855,9 +9951,9 @@
       <c r="A424" s="1">
         <v>419</v>
       </c>
-      <c r="B424" s="9"/>
-      <c r="C424" s="9"/>
-      <c r="D424" s="6"/>
+      <c r="B424" s="6"/>
+      <c r="C424" s="6"/>
+      <c r="D424" s="12"/>
       <c r="E424" s="1"/>
       <c r="F424" s="1"/>
       <c r="G424" s="1"/>
@@ -9877,9 +9973,9 @@
       <c r="A425" s="1">
         <v>420</v>
       </c>
-      <c r="B425" s="9"/>
-      <c r="C425" s="9"/>
-      <c r="D425" s="6"/>
+      <c r="B425" s="6"/>
+      <c r="C425" s="6"/>
+      <c r="D425" s="12"/>
       <c r="E425" s="1"/>
       <c r="F425" s="1"/>
       <c r="G425" s="1"/>
@@ -9899,9 +9995,9 @@
       <c r="A426" s="1">
         <v>421</v>
       </c>
-      <c r="B426" s="9"/>
-      <c r="C426" s="9"/>
-      <c r="D426" s="6"/>
+      <c r="B426" s="6"/>
+      <c r="C426" s="6"/>
+      <c r="D426" s="12"/>
       <c r="E426" s="1"/>
       <c r="F426" s="1"/>
       <c r="G426" s="1"/>
@@ -9921,9 +10017,9 @@
       <c r="A427" s="1">
         <v>422</v>
       </c>
-      <c r="B427" s="9"/>
-      <c r="C427" s="9"/>
-      <c r="D427" s="6"/>
+      <c r="B427" s="6"/>
+      <c r="C427" s="6"/>
+      <c r="D427" s="12"/>
       <c r="E427" s="1"/>
       <c r="F427" s="1"/>
       <c r="G427" s="1"/>
@@ -9943,9 +10039,9 @@
       <c r="A428" s="1">
         <v>423</v>
       </c>
-      <c r="B428" s="9"/>
-      <c r="C428" s="9"/>
-      <c r="D428" s="6"/>
+      <c r="B428" s="6"/>
+      <c r="C428" s="6"/>
+      <c r="D428" s="12"/>
       <c r="E428" s="1"/>
       <c r="F428" s="1"/>
       <c r="G428" s="1"/>
@@ -9965,9 +10061,9 @@
       <c r="A429" s="1">
         <v>424</v>
       </c>
-      <c r="B429" s="9"/>
-      <c r="C429" s="9"/>
-      <c r="D429" s="6"/>
+      <c r="B429" s="6"/>
+      <c r="C429" s="6"/>
+      <c r="D429" s="12"/>
       <c r="E429" s="1"/>
       <c r="F429" s="1"/>
       <c r="G429" s="1"/>
@@ -9987,9 +10083,9 @@
       <c r="A430" s="1">
         <v>425</v>
       </c>
-      <c r="B430" s="9"/>
-      <c r="C430" s="9"/>
-      <c r="D430" s="6"/>
+      <c r="B430" s="6"/>
+      <c r="C430" s="6"/>
+      <c r="D430" s="12"/>
       <c r="E430" s="1"/>
       <c r="F430" s="1"/>
       <c r="G430" s="1"/>
@@ -10009,9 +10105,9 @@
       <c r="A431" s="1">
         <v>426</v>
       </c>
-      <c r="B431" s="9"/>
-      <c r="C431" s="9"/>
-      <c r="D431" s="6"/>
+      <c r="B431" s="6"/>
+      <c r="C431" s="6"/>
+      <c r="D431" s="12"/>
       <c r="E431" s="1"/>
       <c r="F431" s="1"/>
       <c r="G431" s="1"/>
@@ -10031,9 +10127,9 @@
       <c r="A432" s="1">
         <v>427</v>
       </c>
-      <c r="B432" s="9"/>
-      <c r="C432" s="9"/>
-      <c r="D432" s="6"/>
+      <c r="B432" s="6"/>
+      <c r="C432" s="6"/>
+      <c r="D432" s="12"/>
       <c r="E432" s="1"/>
       <c r="F432" s="1"/>
       <c r="G432" s="1"/>
@@ -10053,9 +10149,9 @@
       <c r="A433" s="1">
         <v>428</v>
       </c>
-      <c r="B433" s="9"/>
-      <c r="C433" s="9"/>
-      <c r="D433" s="6"/>
+      <c r="B433" s="6"/>
+      <c r="C433" s="6"/>
+      <c r="D433" s="12"/>
       <c r="E433" s="1"/>
       <c r="F433" s="1"/>
       <c r="G433" s="1"/>
@@ -10075,9 +10171,9 @@
       <c r="A434" s="1">
         <v>429</v>
       </c>
-      <c r="B434" s="9"/>
-      <c r="C434" s="9"/>
-      <c r="D434" s="6"/>
+      <c r="B434" s="6"/>
+      <c r="C434" s="6"/>
+      <c r="D434" s="12"/>
       <c r="E434" s="1"/>
       <c r="F434" s="1"/>
       <c r="G434" s="1"/>
@@ -10097,9 +10193,9 @@
       <c r="A435" s="1">
         <v>430</v>
       </c>
-      <c r="B435" s="9"/>
-      <c r="C435" s="9"/>
-      <c r="D435" s="6"/>
+      <c r="B435" s="6"/>
+      <c r="C435" s="6"/>
+      <c r="D435" s="12"/>
       <c r="E435" s="1"/>
       <c r="F435" s="1"/>
       <c r="G435" s="1"/>
@@ -10119,9 +10215,9 @@
       <c r="A436" s="1">
         <v>431</v>
       </c>
-      <c r="B436" s="9"/>
-      <c r="C436" s="9"/>
-      <c r="D436" s="6"/>
+      <c r="B436" s="6"/>
+      <c r="C436" s="6"/>
+      <c r="D436" s="12"/>
       <c r="E436" s="1"/>
       <c r="F436" s="1"/>
       <c r="G436" s="1"/>
@@ -10141,9 +10237,9 @@
       <c r="A437" s="1">
         <v>432</v>
       </c>
-      <c r="B437" s="9"/>
-      <c r="C437" s="9"/>
-      <c r="D437" s="6"/>
+      <c r="B437" s="6"/>
+      <c r="C437" s="6"/>
+      <c r="D437" s="12"/>
       <c r="E437" s="1"/>
       <c r="F437" s="1"/>
       <c r="G437" s="1"/>
@@ -10163,9 +10259,9 @@
       <c r="A438" s="1">
         <v>433</v>
       </c>
-      <c r="B438" s="9"/>
-      <c r="C438" s="9"/>
-      <c r="D438" s="6"/>
+      <c r="B438" s="6"/>
+      <c r="C438" s="6"/>
+      <c r="D438" s="12"/>
       <c r="E438" s="1"/>
       <c r="F438" s="1"/>
       <c r="G438" s="1"/>
@@ -10185,9 +10281,9 @@
       <c r="A439" s="1">
         <v>434</v>
       </c>
-      <c r="B439" s="9"/>
-      <c r="C439" s="9"/>
-      <c r="D439" s="6"/>
+      <c r="B439" s="6"/>
+      <c r="C439" s="6"/>
+      <c r="D439" s="12"/>
       <c r="E439" s="1"/>
       <c r="F439" s="1"/>
       <c r="G439" s="1"/>
@@ -10207,9 +10303,9 @@
       <c r="A440" s="1">
         <v>435</v>
       </c>
-      <c r="B440" s="9"/>
-      <c r="C440" s="9"/>
-      <c r="D440" s="6"/>
+      <c r="B440" s="6"/>
+      <c r="C440" s="6"/>
+      <c r="D440" s="12"/>
       <c r="E440" s="1"/>
       <c r="F440" s="1"/>
       <c r="G440" s="1"/>
@@ -10229,9 +10325,9 @@
       <c r="A441" s="1">
         <v>436</v>
       </c>
-      <c r="B441" s="9"/>
-      <c r="C441" s="9"/>
-      <c r="D441" s="6"/>
+      <c r="B441" s="6"/>
+      <c r="C441" s="6"/>
+      <c r="D441" s="12"/>
       <c r="E441" s="1"/>
       <c r="F441" s="1"/>
       <c r="G441" s="1"/>
@@ -10251,9 +10347,9 @@
       <c r="A442" s="1">
         <v>437</v>
       </c>
-      <c r="B442" s="9"/>
-      <c r="C442" s="9"/>
-      <c r="D442" s="6"/>
+      <c r="B442" s="6"/>
+      <c r="C442" s="6"/>
+      <c r="D442" s="12"/>
       <c r="E442" s="1"/>
       <c r="F442" s="1"/>
       <c r="G442" s="1"/>
@@ -10273,9 +10369,9 @@
       <c r="A443" s="1">
         <v>438</v>
       </c>
-      <c r="B443" s="9"/>
-      <c r="C443" s="9"/>
-      <c r="D443" s="6"/>
+      <c r="B443" s="6"/>
+      <c r="C443" s="6"/>
+      <c r="D443" s="12"/>
       <c r="E443" s="1"/>
       <c r="F443" s="1"/>
       <c r="G443" s="1"/>
@@ -10295,9 +10391,9 @@
       <c r="A444" s="1">
         <v>439</v>
       </c>
-      <c r="B444" s="9"/>
-      <c r="C444" s="9"/>
-      <c r="D444" s="6"/>
+      <c r="B444" s="6"/>
+      <c r="C444" s="6"/>
+      <c r="D444" s="12"/>
       <c r="E444" s="1"/>
       <c r="F444" s="1"/>
       <c r="G444" s="1"/>
@@ -10317,9 +10413,9 @@
       <c r="A445" s="1">
         <v>440</v>
       </c>
-      <c r="B445" s="9"/>
-      <c r="C445" s="9"/>
-      <c r="D445" s="6"/>
+      <c r="B445" s="6"/>
+      <c r="C445" s="6"/>
+      <c r="D445" s="12"/>
       <c r="E445" s="1"/>
       <c r="F445" s="1"/>
       <c r="G445" s="1"/>
@@ -10339,9 +10435,9 @@
       <c r="A446" s="1">
         <v>441</v>
       </c>
-      <c r="B446" s="9"/>
-      <c r="C446" s="9"/>
-      <c r="D446" s="6"/>
+      <c r="B446" s="6"/>
+      <c r="C446" s="6"/>
+      <c r="D446" s="12"/>
       <c r="E446" s="1"/>
       <c r="F446" s="1"/>
       <c r="G446" s="1"/>
@@ -10361,9 +10457,9 @@
       <c r="A447" s="1">
         <v>442</v>
       </c>
-      <c r="B447" s="9"/>
-      <c r="C447" s="9"/>
-      <c r="D447" s="6"/>
+      <c r="B447" s="6"/>
+      <c r="C447" s="6"/>
+      <c r="D447" s="12"/>
       <c r="E447" s="1"/>
       <c r="F447" s="1"/>
       <c r="G447" s="1"/>
@@ -10383,9 +10479,9 @@
       <c r="A448" s="1">
         <v>443</v>
       </c>
-      <c r="B448" s="9"/>
-      <c r="C448" s="9"/>
-      <c r="D448" s="6"/>
+      <c r="B448" s="6"/>
+      <c r="C448" s="6"/>
+      <c r="D448" s="12"/>
       <c r="E448" s="1"/>
       <c r="F448" s="1"/>
       <c r="G448" s="1"/>
@@ -10405,9 +10501,9 @@
       <c r="A449" s="1">
         <v>444</v>
       </c>
-      <c r="B449" s="9"/>
-      <c r="C449" s="9"/>
-      <c r="D449" s="6"/>
+      <c r="B449" s="6"/>
+      <c r="C449" s="6"/>
+      <c r="D449" s="12"/>
       <c r="E449" s="1"/>
       <c r="F449" s="1"/>
       <c r="G449" s="1"/>
@@ -10427,9 +10523,9 @@
       <c r="A450" s="1">
         <v>445</v>
       </c>
-      <c r="B450" s="9"/>
-      <c r="C450" s="9"/>
-      <c r="D450" s="6"/>
+      <c r="B450" s="6"/>
+      <c r="C450" s="6"/>
+      <c r="D450" s="12"/>
       <c r="E450" s="1"/>
       <c r="F450" s="1"/>
       <c r="G450" s="1"/>
@@ -10449,9 +10545,9 @@
       <c r="A451" s="1">
         <v>446</v>
       </c>
-      <c r="B451" s="9"/>
-      <c r="C451" s="9"/>
-      <c r="D451" s="6"/>
+      <c r="B451" s="6"/>
+      <c r="C451" s="6"/>
+      <c r="D451" s="12"/>
       <c r="E451" s="1"/>
       <c r="F451" s="1"/>
       <c r="G451" s="1"/>
@@ -10471,9 +10567,9 @@
       <c r="A452" s="1">
         <v>447</v>
       </c>
-      <c r="B452" s="9"/>
-      <c r="C452" s="9"/>
-      <c r="D452" s="6"/>
+      <c r="B452" s="6"/>
+      <c r="C452" s="6"/>
+      <c r="D452" s="12"/>
       <c r="E452" s="1"/>
       <c r="F452" s="1"/>
       <c r="G452" s="1"/>
@@ -10493,9 +10589,9 @@
       <c r="A453" s="1">
         <v>448</v>
       </c>
-      <c r="B453" s="9"/>
-      <c r="C453" s="9"/>
-      <c r="D453" s="6"/>
+      <c r="B453" s="6"/>
+      <c r="C453" s="6"/>
+      <c r="D453" s="12"/>
       <c r="E453" s="1"/>
       <c r="F453" s="1"/>
       <c r="G453" s="1"/>
@@ -10515,9 +10611,9 @@
       <c r="A454" s="1">
         <v>449</v>
       </c>
-      <c r="B454" s="9"/>
-      <c r="C454" s="9"/>
-      <c r="D454" s="6"/>
+      <c r="B454" s="6"/>
+      <c r="C454" s="6"/>
+      <c r="D454" s="12"/>
       <c r="E454" s="1"/>
       <c r="F454" s="1"/>
       <c r="G454" s="1"/>
@@ -10537,9 +10633,9 @@
       <c r="A455" s="1">
         <v>450</v>
       </c>
-      <c r="B455" s="9"/>
-      <c r="C455" s="9"/>
-      <c r="D455" s="6"/>
+      <c r="B455" s="6"/>
+      <c r="C455" s="6"/>
+      <c r="D455" s="12"/>
       <c r="E455" s="1"/>
       <c r="F455" s="1"/>
       <c r="G455" s="1"/>
@@ -10559,9 +10655,9 @@
       <c r="A456" s="1">
         <v>451</v>
       </c>
-      <c r="B456" s="9"/>
-      <c r="C456" s="9"/>
-      <c r="D456" s="6"/>
+      <c r="B456" s="6"/>
+      <c r="C456" s="6"/>
+      <c r="D456" s="12"/>
       <c r="E456" s="1"/>
       <c r="F456" s="1"/>
       <c r="G456" s="1"/>
@@ -10581,9 +10677,9 @@
       <c r="A457" s="1">
         <v>452</v>
       </c>
-      <c r="B457" s="9"/>
-      <c r="C457" s="9"/>
-      <c r="D457" s="6"/>
+      <c r="B457" s="6"/>
+      <c r="C457" s="6"/>
+      <c r="D457" s="12"/>
       <c r="E457" s="1"/>
       <c r="F457" s="1"/>
       <c r="G457" s="1"/>
@@ -10603,9 +10699,9 @@
       <c r="A458" s="1">
         <v>453</v>
       </c>
-      <c r="B458" s="9"/>
-      <c r="C458" s="9"/>
-      <c r="D458" s="6"/>
+      <c r="B458" s="6"/>
+      <c r="C458" s="6"/>
+      <c r="D458" s="12"/>
       <c r="E458" s="1"/>
       <c r="F458" s="1"/>
       <c r="G458" s="1"/>
@@ -10625,9 +10721,9 @@
       <c r="A459" s="1">
         <v>454</v>
       </c>
-      <c r="B459" s="9"/>
-      <c r="C459" s="9"/>
-      <c r="D459" s="6"/>
+      <c r="B459" s="6"/>
+      <c r="C459" s="6"/>
+      <c r="D459" s="12"/>
       <c r="E459" s="1"/>
       <c r="F459" s="1"/>
       <c r="G459" s="1"/>
@@ -10647,9 +10743,9 @@
       <c r="A460" s="1">
         <v>455</v>
       </c>
-      <c r="B460" s="9"/>
-      <c r="C460" s="9"/>
-      <c r="D460" s="6"/>
+      <c r="B460" s="6"/>
+      <c r="C460" s="6"/>
+      <c r="D460" s="12"/>
       <c r="E460" s="1"/>
       <c r="F460" s="1"/>
       <c r="G460" s="1"/>
@@ -10669,9 +10765,9 @@
       <c r="A461" s="1">
         <v>456</v>
       </c>
-      <c r="B461" s="9"/>
-      <c r="C461" s="9"/>
-      <c r="D461" s="6"/>
+      <c r="B461" s="6"/>
+      <c r="C461" s="6"/>
+      <c r="D461" s="12"/>
       <c r="E461" s="1"/>
       <c r="F461" s="1"/>
       <c r="G461" s="1"/>
@@ -10691,9 +10787,9 @@
       <c r="A462" s="1">
         <v>457</v>
       </c>
-      <c r="B462" s="9"/>
-      <c r="C462" s="9"/>
-      <c r="D462" s="6"/>
+      <c r="B462" s="6"/>
+      <c r="C462" s="6"/>
+      <c r="D462" s="12"/>
       <c r="E462" s="1"/>
       <c r="F462" s="1"/>
       <c r="G462" s="1"/>
@@ -10713,9 +10809,9 @@
       <c r="A463" s="1">
         <v>458</v>
       </c>
-      <c r="B463" s="9"/>
-      <c r="C463" s="9"/>
-      <c r="D463" s="6"/>
+      <c r="B463" s="6"/>
+      <c r="C463" s="6"/>
+      <c r="D463" s="12"/>
       <c r="E463" s="1"/>
       <c r="F463" s="1"/>
       <c r="G463" s="1"/>
@@ -10735,9 +10831,9 @@
       <c r="A464" s="1">
         <v>459</v>
       </c>
-      <c r="B464" s="9"/>
-      <c r="C464" s="9"/>
-      <c r="D464" s="6"/>
+      <c r="B464" s="6"/>
+      <c r="C464" s="6"/>
+      <c r="D464" s="12"/>
       <c r="E464" s="1"/>
       <c r="F464" s="1"/>
       <c r="G464" s="1"/>
@@ -10757,9 +10853,9 @@
       <c r="A465" s="1">
         <v>460</v>
       </c>
-      <c r="B465" s="9"/>
-      <c r="C465" s="9"/>
-      <c r="D465" s="6"/>
+      <c r="B465" s="6"/>
+      <c r="C465" s="6"/>
+      <c r="D465" s="12"/>
       <c r="E465" s="1"/>
       <c r="F465" s="1"/>
       <c r="G465" s="1"/>
@@ -10779,9 +10875,9 @@
       <c r="A466" s="1">
         <v>461</v>
       </c>
-      <c r="B466" s="9"/>
-      <c r="C466" s="9"/>
-      <c r="D466" s="6"/>
+      <c r="B466" s="6"/>
+      <c r="C466" s="6"/>
+      <c r="D466" s="12"/>
       <c r="E466" s="1"/>
       <c r="F466" s="1"/>
       <c r="G466" s="1"/>
@@ -10801,9 +10897,9 @@
       <c r="A467" s="1">
         <v>462</v>
       </c>
-      <c r="B467" s="9"/>
-      <c r="C467" s="9"/>
-      <c r="D467" s="6"/>
+      <c r="B467" s="6"/>
+      <c r="C467" s="6"/>
+      <c r="D467" s="12"/>
       <c r="E467" s="1"/>
       <c r="F467" s="1"/>
       <c r="G467" s="1"/>
@@ -10823,9 +10919,9 @@
       <c r="A468" s="1">
         <v>463</v>
       </c>
-      <c r="B468" s="9"/>
-      <c r="C468" s="9"/>
-      <c r="D468" s="6"/>
+      <c r="B468" s="6"/>
+      <c r="C468" s="6"/>
+      <c r="D468" s="12"/>
       <c r="E468" s="1"/>
       <c r="F468" s="1"/>
       <c r="G468" s="1"/>
@@ -10845,9 +10941,9 @@
       <c r="A469" s="1">
         <v>464</v>
       </c>
-      <c r="B469" s="9"/>
-      <c r="C469" s="9"/>
-      <c r="D469" s="6"/>
+      <c r="B469" s="6"/>
+      <c r="C469" s="6"/>
+      <c r="D469" s="12"/>
       <c r="E469" s="1"/>
       <c r="F469" s="1"/>
       <c r="G469" s="1"/>
@@ -10867,9 +10963,9 @@
       <c r="A470" s="1">
         <v>465</v>
       </c>
-      <c r="B470" s="9"/>
-      <c r="C470" s="9"/>
-      <c r="D470" s="6"/>
+      <c r="B470" s="6"/>
+      <c r="C470" s="6"/>
+      <c r="D470" s="12"/>
       <c r="E470" s="1"/>
       <c r="F470" s="1"/>
       <c r="G470" s="1"/>
@@ -10889,9 +10985,9 @@
       <c r="A471" s="1">
         <v>466</v>
       </c>
-      <c r="B471" s="9"/>
-      <c r="C471" s="9"/>
-      <c r="D471" s="6"/>
+      <c r="B471" s="6"/>
+      <c r="C471" s="6"/>
+      <c r="D471" s="12"/>
       <c r="E471" s="1"/>
       <c r="F471" s="1"/>
       <c r="G471" s="1"/>
@@ -10911,9 +11007,9 @@
       <c r="A472" s="1">
         <v>467</v>
       </c>
-      <c r="B472" s="9"/>
-      <c r="C472" s="9"/>
-      <c r="D472" s="6"/>
+      <c r="B472" s="6"/>
+      <c r="C472" s="6"/>
+      <c r="D472" s="12"/>
       <c r="E472" s="1"/>
       <c r="F472" s="1"/>
       <c r="G472" s="1"/>
@@ -10933,9 +11029,9 @@
       <c r="A473" s="1">
         <v>468</v>
       </c>
-      <c r="B473" s="9"/>
-      <c r="C473" s="9"/>
-      <c r="D473" s="6"/>
+      <c r="B473" s="6"/>
+      <c r="C473" s="6"/>
+      <c r="D473" s="12"/>
       <c r="E473" s="1"/>
       <c r="F473" s="1"/>
       <c r="G473" s="1"/>
@@ -10955,9 +11051,9 @@
       <c r="A474" s="1">
         <v>469</v>
       </c>
-      <c r="B474" s="9"/>
-      <c r="C474" s="9"/>
-      <c r="D474" s="6"/>
+      <c r="B474" s="6"/>
+      <c r="C474" s="6"/>
+      <c r="D474" s="12"/>
       <c r="E474" s="1"/>
       <c r="F474" s="1"/>
       <c r="G474" s="1"/>
@@ -10977,9 +11073,9 @@
       <c r="A475" s="1">
         <v>470</v>
       </c>
-      <c r="B475" s="9"/>
-      <c r="C475" s="9"/>
-      <c r="D475" s="6"/>
+      <c r="B475" s="6"/>
+      <c r="C475" s="6"/>
+      <c r="D475" s="12"/>
       <c r="E475" s="1"/>
       <c r="F475" s="1"/>
       <c r="G475" s="1"/>
@@ -10999,9 +11095,9 @@
       <c r="A476" s="1">
         <v>471</v>
       </c>
-      <c r="B476" s="9"/>
-      <c r="C476" s="9"/>
-      <c r="D476" s="6"/>
+      <c r="B476" s="6"/>
+      <c r="C476" s="6"/>
+      <c r="D476" s="12"/>
       <c r="E476" s="1"/>
       <c r="F476" s="1"/>
       <c r="G476" s="1"/>
@@ -11021,9 +11117,9 @@
       <c r="A477" s="1">
         <v>472</v>
       </c>
-      <c r="B477" s="9"/>
-      <c r="C477" s="9"/>
-      <c r="D477" s="6"/>
+      <c r="B477" s="6"/>
+      <c r="C477" s="6"/>
+      <c r="D477" s="12"/>
       <c r="E477" s="1"/>
       <c r="F477" s="1"/>
       <c r="G477" s="1"/>
@@ -11043,9 +11139,9 @@
       <c r="A478" s="1">
         <v>473</v>
       </c>
-      <c r="B478" s="9"/>
-      <c r="C478" s="9"/>
-      <c r="D478" s="6"/>
+      <c r="B478" s="6"/>
+      <c r="C478" s="6"/>
+      <c r="D478" s="12"/>
       <c r="E478" s="1"/>
       <c r="F478" s="1"/>
       <c r="G478" s="1"/>
@@ -11065,9 +11161,9 @@
       <c r="A479" s="1">
         <v>474</v>
       </c>
-      <c r="B479" s="9"/>
-      <c r="C479" s="9"/>
-      <c r="D479" s="6"/>
+      <c r="B479" s="6"/>
+      <c r="C479" s="6"/>
+      <c r="D479" s="12"/>
       <c r="E479" s="1"/>
       <c r="F479" s="1"/>
       <c r="G479" s="1"/>
@@ -11087,9 +11183,9 @@
       <c r="A480" s="1">
         <v>475</v>
       </c>
-      <c r="B480" s="9"/>
-      <c r="C480" s="9"/>
-      <c r="D480" s="6"/>
+      <c r="B480" s="6"/>
+      <c r="C480" s="6"/>
+      <c r="D480" s="12"/>
       <c r="E480" s="1"/>
       <c r="F480" s="1"/>
       <c r="G480" s="1"/>
@@ -11109,9 +11205,9 @@
       <c r="A481" s="1">
         <v>476</v>
       </c>
-      <c r="B481" s="9"/>
-      <c r="C481" s="9"/>
-      <c r="D481" s="6"/>
+      <c r="B481" s="6"/>
+      <c r="C481" s="6"/>
+      <c r="D481" s="12"/>
       <c r="E481" s="1"/>
       <c r="F481" s="1"/>
       <c r="G481" s="1"/>
@@ -11131,9 +11227,9 @@
       <c r="A482" s="1">
         <v>477</v>
       </c>
-      <c r="B482" s="9"/>
-      <c r="C482" s="9"/>
-      <c r="D482" s="6"/>
+      <c r="B482" s="6"/>
+      <c r="C482" s="6"/>
+      <c r="D482" s="12"/>
       <c r="E482" s="1"/>
       <c r="F482" s="1"/>
       <c r="G482" s="1"/>
@@ -11153,9 +11249,9 @@
       <c r="A483" s="1">
         <v>478</v>
       </c>
-      <c r="B483" s="9"/>
-      <c r="C483" s="9"/>
-      <c r="D483" s="6"/>
+      <c r="B483" s="6"/>
+      <c r="C483" s="6"/>
+      <c r="D483" s="12"/>
       <c r="E483" s="1"/>
       <c r="F483" s="1"/>
       <c r="G483" s="1"/>
@@ -11175,9 +11271,9 @@
       <c r="A484" s="1">
         <v>479</v>
       </c>
-      <c r="B484" s="9"/>
-      <c r="C484" s="9"/>
-      <c r="D484" s="6"/>
+      <c r="B484" s="6"/>
+      <c r="C484" s="6"/>
+      <c r="D484" s="12"/>
       <c r="E484" s="1"/>
       <c r="F484" s="1"/>
       <c r="G484" s="1"/>
@@ -11197,9 +11293,9 @@
       <c r="A485" s="1">
         <v>480</v>
       </c>
-      <c r="B485" s="9"/>
-      <c r="C485" s="9"/>
-      <c r="D485" s="6"/>
+      <c r="B485" s="6"/>
+      <c r="C485" s="6"/>
+      <c r="D485" s="12"/>
       <c r="E485" s="1"/>
       <c r="F485" s="1"/>
       <c r="G485" s="1"/>
@@ -11219,9 +11315,9 @@
       <c r="A486" s="1">
         <v>481</v>
       </c>
-      <c r="B486" s="9"/>
-      <c r="C486" s="9"/>
-      <c r="D486" s="6"/>
+      <c r="B486" s="6"/>
+      <c r="C486" s="6"/>
+      <c r="D486" s="12"/>
       <c r="E486" s="1"/>
       <c r="F486" s="1"/>
       <c r="G486" s="1"/>
@@ -11241,9 +11337,9 @@
       <c r="A487" s="1">
         <v>482</v>
       </c>
-      <c r="B487" s="9"/>
-      <c r="C487" s="9"/>
-      <c r="D487" s="6"/>
+      <c r="B487" s="6"/>
+      <c r="C487" s="6"/>
+      <c r="D487" s="12"/>
       <c r="E487" s="1"/>
       <c r="F487" s="1"/>
       <c r="G487" s="1"/>
@@ -11263,9 +11359,9 @@
       <c r="A488" s="1">
         <v>483</v>
       </c>
-      <c r="B488" s="9"/>
-      <c r="C488" s="9"/>
-      <c r="D488" s="6"/>
+      <c r="B488" s="6"/>
+      <c r="C488" s="6"/>
+      <c r="D488" s="12"/>
       <c r="E488" s="1"/>
       <c r="F488" s="1"/>
       <c r="G488" s="1"/>
@@ -11285,9 +11381,9 @@
       <c r="A489" s="1">
         <v>484</v>
       </c>
-      <c r="B489" s="9"/>
-      <c r="C489" s="9"/>
-      <c r="D489" s="6"/>
+      <c r="B489" s="6"/>
+      <c r="C489" s="6"/>
+      <c r="D489" s="12"/>
       <c r="E489" s="1"/>
       <c r="F489" s="1"/>
       <c r="G489" s="1"/>
@@ -11307,9 +11403,9 @@
       <c r="A490" s="1">
         <v>485</v>
       </c>
-      <c r="B490" s="9"/>
-      <c r="C490" s="9"/>
-      <c r="D490" s="6"/>
+      <c r="B490" s="6"/>
+      <c r="C490" s="6"/>
+      <c r="D490" s="12"/>
       <c r="E490" s="1"/>
       <c r="F490" s="1"/>
       <c r="G490" s="1"/>
@@ -11329,9 +11425,9 @@
       <c r="A491" s="1">
         <v>486</v>
       </c>
-      <c r="B491" s="9"/>
-      <c r="C491" s="9"/>
-      <c r="D491" s="6"/>
+      <c r="B491" s="6"/>
+      <c r="C491" s="6"/>
+      <c r="D491" s="12"/>
       <c r="E491" s="1"/>
       <c r="F491" s="1"/>
       <c r="G491" s="1"/>
@@ -11351,9 +11447,9 @@
       <c r="A492" s="1">
         <v>487</v>
       </c>
-      <c r="B492" s="9"/>
-      <c r="C492" s="9"/>
-      <c r="D492" s="6"/>
+      <c r="B492" s="6"/>
+      <c r="C492" s="6"/>
+      <c r="D492" s="12"/>
       <c r="E492" s="1"/>
       <c r="F492" s="1"/>
       <c r="G492" s="1"/>
@@ -11373,9 +11469,9 @@
       <c r="A493" s="1">
         <v>488</v>
       </c>
-      <c r="B493" s="9"/>
-      <c r="C493" s="9"/>
-      <c r="D493" s="6"/>
+      <c r="B493" s="6"/>
+      <c r="C493" s="6"/>
+      <c r="D493" s="12"/>
       <c r="E493" s="1"/>
       <c r="F493" s="1"/>
       <c r="G493" s="1"/>
@@ -11395,9 +11491,9 @@
       <c r="A494" s="1">
         <v>489</v>
       </c>
-      <c r="B494" s="9"/>
-      <c r="C494" s="9"/>
-      <c r="D494" s="6"/>
+      <c r="B494" s="6"/>
+      <c r="C494" s="6"/>
+      <c r="D494" s="12"/>
       <c r="E494" s="1"/>
       <c r="F494" s="1"/>
       <c r="G494" s="1"/>
@@ -11417,9 +11513,9 @@
       <c r="A495" s="1">
         <v>490</v>
       </c>
-      <c r="B495" s="9"/>
-      <c r="C495" s="9"/>
-      <c r="D495" s="6"/>
+      <c r="B495" s="6"/>
+      <c r="C495" s="6"/>
+      <c r="D495" s="12"/>
       <c r="E495" s="1"/>
       <c r="F495" s="1"/>
       <c r="G495" s="1"/>
@@ -11439,9 +11535,9 @@
       <c r="A496" s="1">
         <v>491</v>
       </c>
-      <c r="B496" s="9"/>
-      <c r="C496" s="9"/>
-      <c r="D496" s="6"/>
+      <c r="B496" s="6"/>
+      <c r="C496" s="6"/>
+      <c r="D496" s="12"/>
       <c r="E496" s="1"/>
       <c r="F496" s="1"/>
       <c r="G496" s="1"/>
@@ -11461,9 +11557,9 @@
       <c r="A497" s="1">
         <v>492</v>
       </c>
-      <c r="B497" s="9"/>
-      <c r="C497" s="9"/>
-      <c r="D497" s="6"/>
+      <c r="B497" s="6"/>
+      <c r="C497" s="6"/>
+      <c r="D497" s="12"/>
       <c r="E497" s="1"/>
       <c r="F497" s="1"/>
       <c r="G497" s="1"/>
@@ -11483,9 +11579,9 @@
       <c r="A498" s="1">
         <v>493</v>
       </c>
-      <c r="B498" s="9"/>
-      <c r="C498" s="9"/>
-      <c r="D498" s="6"/>
+      <c r="B498" s="6"/>
+      <c r="C498" s="6"/>
+      <c r="D498" s="12"/>
       <c r="E498" s="1"/>
       <c r="F498" s="1"/>
       <c r="G498" s="1"/>
@@ -11505,9 +11601,9 @@
       <c r="A499" s="1">
         <v>494</v>
       </c>
-      <c r="B499" s="9"/>
-      <c r="C499" s="9"/>
-      <c r="D499" s="6"/>
+      <c r="B499" s="6"/>
+      <c r="C499" s="6"/>
+      <c r="D499" s="12"/>
       <c r="E499" s="1"/>
       <c r="F499" s="1"/>
       <c r="G499" s="1"/>
@@ -11527,9 +11623,9 @@
       <c r="A500" s="1">
         <v>495</v>
       </c>
-      <c r="B500" s="9"/>
-      <c r="C500" s="9"/>
-      <c r="D500" s="6"/>
+      <c r="B500" s="6"/>
+      <c r="C500" s="6"/>
+      <c r="D500" s="12"/>
       <c r="E500" s="1"/>
       <c r="F500" s="1"/>
       <c r="G500" s="1"/>
@@ -11549,9 +11645,9 @@
       <c r="A501" s="1">
         <v>496</v>
       </c>
-      <c r="B501" s="9"/>
-      <c r="C501" s="9"/>
-      <c r="D501" s="6"/>
+      <c r="B501" s="6"/>
+      <c r="C501" s="6"/>
+      <c r="D501" s="12"/>
       <c r="E501" s="1"/>
       <c r="F501" s="1"/>
       <c r="G501" s="1"/>
@@ -11571,9 +11667,9 @@
       <c r="A502" s="1">
         <v>497</v>
       </c>
-      <c r="B502" s="9"/>
-      <c r="C502" s="9"/>
-      <c r="D502" s="6"/>
+      <c r="B502" s="6"/>
+      <c r="C502" s="6"/>
+      <c r="D502" s="12"/>
       <c r="E502" s="1"/>
       <c r="F502" s="1"/>
       <c r="G502" s="1"/>
@@ -11593,9 +11689,9 @@
       <c r="A503" s="1">
         <v>498</v>
       </c>
-      <c r="B503" s="9"/>
-      <c r="C503" s="9"/>
-      <c r="D503" s="6"/>
+      <c r="B503" s="6"/>
+      <c r="C503" s="6"/>
+      <c r="D503" s="12"/>
       <c r="E503" s="1"/>
       <c r="F503" s="1"/>
       <c r="G503" s="1"/>
@@ -11615,9 +11711,9 @@
       <c r="A504" s="1">
         <v>499</v>
       </c>
-      <c r="B504" s="9"/>
-      <c r="C504" s="9"/>
-      <c r="D504" s="6"/>
+      <c r="B504" s="6"/>
+      <c r="C504" s="6"/>
+      <c r="D504" s="12"/>
       <c r="E504" s="1"/>
       <c r="F504" s="1"/>
       <c r="G504" s="1"/>
@@ -11637,9 +11733,9 @@
       <c r="A505" s="1">
         <v>500</v>
       </c>
-      <c r="B505" s="9"/>
-      <c r="C505" s="9"/>
-      <c r="D505" s="6"/>
+      <c r="B505" s="6"/>
+      <c r="C505" s="6"/>
+      <c r="D505" s="12"/>
       <c r="E505" s="1"/>
       <c r="F505" s="1"/>
       <c r="G505" s="1"/>
@@ -11659,9 +11755,9 @@
       <c r="A506" s="1">
         <v>501</v>
       </c>
-      <c r="B506" s="9"/>
-      <c r="C506" s="9"/>
-      <c r="D506" s="6"/>
+      <c r="B506" s="6"/>
+      <c r="C506" s="6"/>
+      <c r="D506" s="12"/>
       <c r="E506" s="1"/>
       <c r="F506" s="1"/>
       <c r="G506" s="1"/>
@@ -11681,9 +11777,9 @@
       <c r="A507" s="1">
         <v>502</v>
       </c>
-      <c r="B507" s="9"/>
-      <c r="C507" s="9"/>
-      <c r="D507" s="6"/>
+      <c r="B507" s="6"/>
+      <c r="C507" s="6"/>
+      <c r="D507" s="12"/>
       <c r="E507" s="1"/>
       <c r="F507" s="1"/>
       <c r="G507" s="1"/>
@@ -11703,9 +11799,9 @@
       <c r="A508" s="1">
         <v>503</v>
       </c>
-      <c r="B508" s="9"/>
-      <c r="C508" s="9"/>
-      <c r="D508" s="6"/>
+      <c r="B508" s="6"/>
+      <c r="C508" s="6"/>
+      <c r="D508" s="12"/>
       <c r="E508" s="1"/>
       <c r="F508" s="1"/>
       <c r="G508" s="1"/>
@@ -11725,9 +11821,9 @@
       <c r="A509" s="1">
         <v>504</v>
       </c>
-      <c r="B509" s="9"/>
-      <c r="C509" s="9"/>
-      <c r="D509" s="6"/>
+      <c r="B509" s="6"/>
+      <c r="C509" s="6"/>
+      <c r="D509" s="12"/>
       <c r="E509" s="1"/>
       <c r="F509" s="1"/>
       <c r="G509" s="1"/>
@@ -11747,9 +11843,9 @@
       <c r="A510" s="1">
         <v>505</v>
       </c>
-      <c r="B510" s="9"/>
-      <c r="C510" s="9"/>
-      <c r="D510" s="6"/>
+      <c r="B510" s="6"/>
+      <c r="C510" s="6"/>
+      <c r="D510" s="12"/>
       <c r="E510" s="1"/>
       <c r="F510" s="1"/>
       <c r="G510" s="1"/>
@@ -11769,9 +11865,9 @@
       <c r="A511" s="1">
         <v>506</v>
       </c>
-      <c r="B511" s="9"/>
-      <c r="C511" s="9"/>
-      <c r="D511" s="6"/>
+      <c r="B511" s="6"/>
+      <c r="C511" s="6"/>
+      <c r="D511" s="12"/>
       <c r="E511" s="1"/>
       <c r="F511" s="1"/>
       <c r="G511" s="1"/>
@@ -11791,9 +11887,9 @@
       <c r="A512" s="1">
         <v>507</v>
       </c>
-      <c r="B512" s="9"/>
-      <c r="C512" s="9"/>
-      <c r="D512" s="6"/>
+      <c r="B512" s="6"/>
+      <c r="C512" s="6"/>
+      <c r="D512" s="12"/>
       <c r="E512" s="1"/>
       <c r="F512" s="1"/>
       <c r="G512" s="1"/>
@@ -11813,9 +11909,9 @@
       <c r="A513" s="1">
         <v>508</v>
       </c>
-      <c r="B513" s="9"/>
-      <c r="C513" s="9"/>
-      <c r="D513" s="6"/>
+      <c r="B513" s="6"/>
+      <c r="C513" s="6"/>
+      <c r="D513" s="12"/>
       <c r="E513" s="1"/>
       <c r="F513" s="1"/>
       <c r="G513" s="1"/>
@@ -11835,9 +11931,9 @@
       <c r="A514" s="1">
         <v>509</v>
       </c>
-      <c r="B514" s="9"/>
-      <c r="C514" s="9"/>
-      <c r="D514" s="6"/>
+      <c r="B514" s="6"/>
+      <c r="C514" s="6"/>
+      <c r="D514" s="12"/>
       <c r="E514" s="1"/>
       <c r="F514" s="1"/>
       <c r="G514" s="1"/>
@@ -11857,9 +11953,9 @@
       <c r="A515" s="1">
         <v>510</v>
       </c>
-      <c r="B515" s="9"/>
-      <c r="C515" s="9"/>
-      <c r="D515" s="6"/>
+      <c r="B515" s="6"/>
+      <c r="C515" s="6"/>
+      <c r="D515" s="12"/>
       <c r="E515" s="1"/>
       <c r="F515" s="1"/>
       <c r="G515" s="1"/>
@@ -11879,9 +11975,9 @@
       <c r="A516" s="1">
         <v>511</v>
       </c>
-      <c r="B516" s="9"/>
-      <c r="C516" s="9"/>
-      <c r="D516" s="6"/>
+      <c r="B516" s="6"/>
+      <c r="C516" s="6"/>
+      <c r="D516" s="12"/>
       <c r="E516" s="1"/>
       <c r="F516" s="1"/>
       <c r="G516" s="1"/>
@@ -11901,9 +11997,9 @@
       <c r="A517" s="1">
         <v>512</v>
       </c>
-      <c r="B517" s="9"/>
-      <c r="C517" s="9"/>
-      <c r="D517" s="6"/>
+      <c r="B517" s="6"/>
+      <c r="C517" s="6"/>
+      <c r="D517" s="12"/>
       <c r="E517" s="1"/>
       <c r="F517" s="1"/>
       <c r="G517" s="1"/>
@@ -11923,9 +12019,9 @@
       <c r="A518" s="1">
         <v>513</v>
       </c>
-      <c r="B518" s="9"/>
-      <c r="C518" s="9"/>
-      <c r="D518" s="6"/>
+      <c r="B518" s="6"/>
+      <c r="C518" s="6"/>
+      <c r="D518" s="12"/>
       <c r="E518" s="1"/>
       <c r="F518" s="1"/>
       <c r="G518" s="1"/>
@@ -11945,9 +12041,9 @@
       <c r="A519" s="1">
         <v>514</v>
       </c>
-      <c r="B519" s="9"/>
-      <c r="C519" s="9"/>
-      <c r="D519" s="6"/>
+      <c r="B519" s="6"/>
+      <c r="C519" s="6"/>
+      <c r="D519" s="12"/>
       <c r="E519" s="1"/>
       <c r="F519" s="1"/>
       <c r="G519" s="1"/>
@@ -11967,9 +12063,9 @@
       <c r="A520" s="1">
         <v>515</v>
       </c>
-      <c r="B520" s="9"/>
-      <c r="C520" s="9"/>
-      <c r="D520" s="6"/>
+      <c r="B520" s="6"/>
+      <c r="C520" s="6"/>
+      <c r="D520" s="12"/>
       <c r="E520" s="1"/>
       <c r="F520" s="1"/>
       <c r="G520" s="1"/>
@@ -11989,9 +12085,9 @@
       <c r="A521" s="1">
         <v>516</v>
       </c>
-      <c r="B521" s="9"/>
-      <c r="C521" s="9"/>
-      <c r="D521" s="6"/>
+      <c r="B521" s="6"/>
+      <c r="C521" s="6"/>
+      <c r="D521" s="12"/>
       <c r="E521" s="1"/>
       <c r="F521" s="1"/>
       <c r="G521" s="1"/>
@@ -12011,9 +12107,9 @@
       <c r="A522" s="1">
         <v>517</v>
       </c>
-      <c r="B522" s="9"/>
-      <c r="C522" s="9"/>
-      <c r="D522" s="6"/>
+      <c r="B522" s="6"/>
+      <c r="C522" s="6"/>
+      <c r="D522" s="12"/>
       <c r="E522" s="1"/>
       <c r="F522" s="1"/>
       <c r="G522" s="1"/>
@@ -12033,9 +12129,9 @@
       <c r="A523" s="1">
         <v>518</v>
       </c>
-      <c r="B523" s="9"/>
-      <c r="C523" s="9"/>
-      <c r="D523" s="6"/>
+      <c r="B523" s="6"/>
+      <c r="C523" s="6"/>
+      <c r="D523" s="12"/>
       <c r="E523" s="1"/>
       <c r="F523" s="1"/>
       <c r="G523" s="1"/>
@@ -12055,9 +12151,9 @@
       <c r="A524" s="1">
         <v>519</v>
       </c>
-      <c r="B524" s="9"/>
-      <c r="C524" s="9"/>
-      <c r="D524" s="6"/>
+      <c r="B524" s="6"/>
+      <c r="C524" s="6"/>
+      <c r="D524" s="12"/>
       <c r="E524" s="1"/>
       <c r="F524" s="1"/>
       <c r="G524" s="1"/>
@@ -12077,9 +12173,9 @@
       <c r="A525" s="1">
         <v>520</v>
       </c>
-      <c r="B525" s="9"/>
-      <c r="C525" s="9"/>
-      <c r="D525" s="6"/>
+      <c r="B525" s="6"/>
+      <c r="C525" s="6"/>
+      <c r="D525" s="12"/>
       <c r="E525" s="1"/>
       <c r="F525" s="1"/>
       <c r="G525" s="1"/>
@@ -12099,9 +12195,9 @@
       <c r="A526" s="1">
         <v>521</v>
       </c>
-      <c r="B526" s="9"/>
-      <c r="C526" s="9"/>
-      <c r="D526" s="6"/>
+      <c r="B526" s="6"/>
+      <c r="C526" s="6"/>
+      <c r="D526" s="12"/>
       <c r="E526" s="1"/>
       <c r="F526" s="1"/>
       <c r="G526" s="1"/>
@@ -12121,9 +12217,9 @@
       <c r="A527" s="1">
         <v>522</v>
       </c>
-      <c r="B527" s="9"/>
-      <c r="C527" s="9"/>
-      <c r="D527" s="6"/>
+      <c r="B527" s="6"/>
+      <c r="C527" s="6"/>
+      <c r="D527" s="12"/>
       <c r="E527" s="1"/>
       <c r="F527" s="1"/>
       <c r="G527" s="1"/>
@@ -12143,9 +12239,9 @@
       <c r="A528" s="1">
         <v>523</v>
       </c>
-      <c r="B528" s="9"/>
-      <c r="C528" s="9"/>
-      <c r="D528" s="6"/>
+      <c r="B528" s="6"/>
+      <c r="C528" s="6"/>
+      <c r="D528" s="12"/>
       <c r="E528" s="1"/>
       <c r="F528" s="1"/>
       <c r="G528" s="1"/>
@@ -12165,9 +12261,9 @@
       <c r="A529" s="1">
         <v>524</v>
       </c>
-      <c r="B529" s="9"/>
-      <c r="C529" s="9"/>
-      <c r="D529" s="6"/>
+      <c r="B529" s="6"/>
+      <c r="C529" s="6"/>
+      <c r="D529" s="12"/>
       <c r="E529" s="1"/>
       <c r="F529" s="1"/>
       <c r="G529" s="1"/>
@@ -12187,9 +12283,9 @@
       <c r="A530" s="1">
         <v>525</v>
       </c>
-      <c r="B530" s="9"/>
-      <c r="C530" s="9"/>
-      <c r="D530" s="6"/>
+      <c r="B530" s="6"/>
+      <c r="C530" s="6"/>
+      <c r="D530" s="12"/>
       <c r="E530" s="1"/>
       <c r="F530" s="1"/>
       <c r="G530" s="1"/>
@@ -12209,9 +12305,9 @@
       <c r="A531" s="1">
         <v>526</v>
       </c>
-      <c r="B531" s="9"/>
-      <c r="C531" s="9"/>
-      <c r="D531" s="6"/>
+      <c r="B531" s="6"/>
+      <c r="C531" s="6"/>
+      <c r="D531" s="12"/>
       <c r="E531" s="1"/>
       <c r="F531" s="1"/>
       <c r="G531" s="1"/>
@@ -12231,9 +12327,9 @@
       <c r="A532" s="1">
         <v>527</v>
       </c>
-      <c r="B532" s="9"/>
-      <c r="C532" s="9"/>
-      <c r="D532" s="6"/>
+      <c r="B532" s="6"/>
+      <c r="C532" s="6"/>
+      <c r="D532" s="12"/>
       <c r="E532" s="1"/>
       <c r="F532" s="1"/>
       <c r="G532" s="1"/>
@@ -12253,9 +12349,9 @@
       <c r="A533" s="1">
         <v>528</v>
       </c>
-      <c r="B533" s="9"/>
-      <c r="C533" s="9"/>
-      <c r="D533" s="6"/>
+      <c r="B533" s="6"/>
+      <c r="C533" s="6"/>
+      <c r="D533" s="12"/>
       <c r="E533" s="1"/>
       <c r="F533" s="1"/>
       <c r="G533" s="1"/>
@@ -12275,9 +12371,9 @@
       <c r="A534" s="1">
         <v>529</v>
       </c>
-      <c r="B534" s="9"/>
-      <c r="C534" s="9"/>
-      <c r="D534" s="6"/>
+      <c r="B534" s="6"/>
+      <c r="C534" s="6"/>
+      <c r="D534" s="12"/>
       <c r="E534" s="1"/>
       <c r="F534" s="1"/>
       <c r="G534" s="1"/>
@@ -12297,9 +12393,9 @@
       <c r="A535" s="1">
         <v>530</v>
       </c>
-      <c r="B535" s="9"/>
-      <c r="C535" s="9"/>
-      <c r="D535" s="6"/>
+      <c r="B535" s="6"/>
+      <c r="C535" s="6"/>
+      <c r="D535" s="12"/>
       <c r="E535" s="1"/>
       <c r="F535" s="1"/>
       <c r="G535" s="1"/>
@@ -12319,9 +12415,9 @@
       <c r="A536" s="1">
         <v>531</v>
       </c>
-      <c r="B536" s="9"/>
-      <c r="C536" s="9"/>
-      <c r="D536" s="6"/>
+      <c r="B536" s="6"/>
+      <c r="C536" s="6"/>
+      <c r="D536" s="12"/>
       <c r="E536" s="1"/>
       <c r="F536" s="1"/>
       <c r="G536" s="1"/>
@@ -12341,9 +12437,9 @@
       <c r="A537" s="1">
         <v>532</v>
       </c>
-      <c r="B537" s="9"/>
-      <c r="C537" s="9"/>
-      <c r="D537" s="6"/>
+      <c r="B537" s="6"/>
+      <c r="C537" s="6"/>
+      <c r="D537" s="12"/>
       <c r="E537" s="1"/>
       <c r="F537" s="1"/>
       <c r="G537" s="1"/>
@@ -12363,9 +12459,9 @@
       <c r="A538" s="1">
         <v>533</v>
       </c>
-      <c r="B538" s="9"/>
-      <c r="C538" s="9"/>
-      <c r="D538" s="6"/>
+      <c r="B538" s="6"/>
+      <c r="C538" s="6"/>
+      <c r="D538" s="12"/>
       <c r="E538" s="1"/>
       <c r="F538" s="1"/>
       <c r="G538" s="1"/>
@@ -12385,9 +12481,9 @@
       <c r="A539" s="1">
         <v>534</v>
       </c>
-      <c r="B539" s="9"/>
-      <c r="C539" s="9"/>
-      <c r="D539" s="6"/>
+      <c r="B539" s="6"/>
+      <c r="C539" s="6"/>
+      <c r="D539" s="12"/>
       <c r="E539" s="1"/>
       <c r="F539" s="1"/>
       <c r="G539" s="1"/>
@@ -12407,9 +12503,9 @@
       <c r="A540" s="1">
         <v>535</v>
       </c>
-      <c r="B540" s="9"/>
-      <c r="C540" s="9"/>
-      <c r="D540" s="6"/>
+      <c r="B540" s="6"/>
+      <c r="C540" s="6"/>
+      <c r="D540" s="12"/>
       <c r="E540" s="1"/>
       <c r="F540" s="1"/>
       <c r="G540" s="1"/>
@@ -12429,9 +12525,9 @@
       <c r="A541" s="1">
         <v>536</v>
       </c>
-      <c r="B541" s="9"/>
-      <c r="C541" s="9"/>
-      <c r="D541" s="6"/>
+      <c r="B541" s="6"/>
+      <c r="C541" s="6"/>
+      <c r="D541" s="12"/>
       <c r="E541" s="1"/>
       <c r="F541" s="1"/>
       <c r="G541" s="1"/>
@@ -12451,9 +12547,9 @@
       <c r="A542" s="1">
         <v>537</v>
       </c>
-      <c r="B542" s="9"/>
-      <c r="C542" s="9"/>
-      <c r="D542" s="6"/>
+      <c r="B542" s="6"/>
+      <c r="C542" s="6"/>
+      <c r="D542" s="12"/>
       <c r="E542" s="1"/>
       <c r="F542" s="1"/>
       <c r="G542" s="1"/>
@@ -12473,9 +12569,9 @@
       <c r="A543" s="1">
         <v>538</v>
       </c>
-      <c r="B543" s="9"/>
-      <c r="C543" s="9"/>
-      <c r="D543" s="6"/>
+      <c r="B543" s="6"/>
+      <c r="C543" s="6"/>
+      <c r="D543" s="12"/>
       <c r="E543" s="1"/>
       <c r="F543" s="1"/>
       <c r="G543" s="1"/>
@@ -12495,9 +12591,9 @@
       <c r="A544" s="1">
         <v>539</v>
       </c>
-      <c r="B544" s="9"/>
-      <c r="C544" s="9"/>
-      <c r="D544" s="6"/>
+      <c r="B544" s="6"/>
+      <c r="C544" s="6"/>
+      <c r="D544" s="12"/>
       <c r="E544" s="1"/>
       <c r="F544" s="1"/>
       <c r="G544" s="1"/>
@@ -12517,9 +12613,9 @@
       <c r="A545" s="1">
         <v>540</v>
       </c>
-      <c r="B545" s="9"/>
-      <c r="C545" s="9"/>
-      <c r="D545" s="6"/>
+      <c r="B545" s="6"/>
+      <c r="C545" s="6"/>
+      <c r="D545" s="12"/>
       <c r="E545" s="1"/>
       <c r="F545" s="1"/>
       <c r="G545" s="1"/>
@@ -12539,9 +12635,9 @@
       <c r="A546" s="1">
         <v>541</v>
       </c>
-      <c r="B546" s="9"/>
-      <c r="C546" s="9"/>
-      <c r="D546" s="6"/>
+      <c r="B546" s="6"/>
+      <c r="C546" s="6"/>
+      <c r="D546" s="12"/>
       <c r="E546" s="1"/>
       <c r="F546" s="1"/>
       <c r="G546" s="1"/>
@@ -12561,9 +12657,9 @@
       <c r="A547" s="1">
         <v>542</v>
       </c>
-      <c r="B547" s="9"/>
-      <c r="C547" s="9"/>
-      <c r="D547" s="6"/>
+      <c r="B547" s="6"/>
+      <c r="C547" s="6"/>
+      <c r="D547" s="12"/>
       <c r="E547" s="1"/>
       <c r="F547" s="1"/>
       <c r="G547" s="1"/>
@@ -12583,9 +12679,9 @@
       <c r="A548" s="1">
         <v>543</v>
       </c>
-      <c r="B548" s="9"/>
-      <c r="C548" s="9"/>
-      <c r="D548" s="6"/>
+      <c r="B548" s="6"/>
+      <c r="C548" s="6"/>
+      <c r="D548" s="12"/>
       <c r="E548" s="1"/>
       <c r="F548" s="1"/>
       <c r="G548" s="1"/>
@@ -12605,9 +12701,9 @@
       <c r="A549" s="1">
         <v>544</v>
       </c>
-      <c r="B549" s="9"/>
-      <c r="C549" s="9"/>
-      <c r="D549" s="6"/>
+      <c r="B549" s="6"/>
+      <c r="C549" s="6"/>
+      <c r="D549" s="12"/>
       <c r="E549" s="1"/>
       <c r="F549" s="1"/>
       <c r="G549" s="1"/>
@@ -12627,9 +12723,9 @@
       <c r="A550" s="1">
         <v>545</v>
       </c>
-      <c r="B550" s="9"/>
-      <c r="C550" s="9"/>
-      <c r="D550" s="6"/>
+      <c r="B550" s="6"/>
+      <c r="C550" s="6"/>
+      <c r="D550" s="12"/>
       <c r="E550" s="1"/>
       <c r="F550" s="1"/>
       <c r="G550" s="1"/>
@@ -12649,9 +12745,9 @@
       <c r="A551" s="1">
         <v>546</v>
       </c>
-      <c r="B551" s="9"/>
-      <c r="C551" s="9"/>
-      <c r="D551" s="6"/>
+      <c r="B551" s="6"/>
+      <c r="C551" s="6"/>
+      <c r="D551" s="12"/>
       <c r="E551" s="1"/>
       <c r="F551" s="1"/>
       <c r="G551" s="1"/>
@@ -12671,9 +12767,9 @@
       <c r="A552" s="1">
         <v>547</v>
       </c>
-      <c r="B552" s="9"/>
-      <c r="C552" s="9"/>
-      <c r="D552" s="6"/>
+      <c r="B552" s="6"/>
+      <c r="C552" s="6"/>
+      <c r="D552" s="12"/>
       <c r="E552" s="1"/>
       <c r="F552" s="1"/>
       <c r="G552" s="1"/>
@@ -12693,9 +12789,9 @@
       <c r="A553" s="1">
         <v>548</v>
       </c>
-      <c r="B553" s="9"/>
-      <c r="C553" s="9"/>
-      <c r="D553" s="6"/>
+      <c r="B553" s="6"/>
+      <c r="C553" s="6"/>
+      <c r="D553" s="12"/>
       <c r="E553" s="1"/>
       <c r="F553" s="1"/>
       <c r="G553" s="1"/>
@@ -12715,9 +12811,9 @@
       <c r="A554" s="1">
         <v>549</v>
       </c>
-      <c r="B554" s="9"/>
-      <c r="C554" s="9"/>
-      <c r="D554" s="6"/>
+      <c r="B554" s="6"/>
+      <c r="C554" s="6"/>
+      <c r="D554" s="12"/>
       <c r="E554" s="1"/>
       <c r="F554" s="1"/>
       <c r="G554" s="1"/>
@@ -12737,9 +12833,9 @@
       <c r="A555" s="1">
         <v>550</v>
       </c>
-      <c r="B555" s="9"/>
-      <c r="C555" s="9"/>
-      <c r="D555" s="6"/>
+      <c r="B555" s="6"/>
+      <c r="C555" s="6"/>
+      <c r="D555" s="12"/>
       <c r="E555" s="1"/>
       <c r="F555" s="1"/>
       <c r="G555" s="1"/>
@@ -12759,9 +12855,9 @@
       <c r="A556" s="1">
         <v>551</v>
       </c>
-      <c r="B556" s="9"/>
-      <c r="C556" s="9"/>
-      <c r="D556" s="6"/>
+      <c r="B556" s="6"/>
+      <c r="C556" s="6"/>
+      <c r="D556" s="12"/>
       <c r="E556" s="1"/>
       <c r="F556" s="1"/>
       <c r="G556" s="1"/>
@@ -12811,21 +12907,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="A1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>2</v>
@@ -12834,10 +12930,10 @@
         <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">

--- a/ĐƠN HÀNG.xlsx
+++ b/ĐƠN HÀNG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C41DC5-4481-441F-88F7-C6A635A8577F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7D48EA-9E0E-41B8-B995-7462A536C1EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>STT</t>
   </si>
@@ -148,9 +148,6 @@
     <t>Bộ đồ chuối cho chó màu vàng</t>
   </si>
   <si>
-    <t>bộ đồ xanh cho chó1</t>
-  </si>
-  <si>
     <t>vàng, size</t>
   </si>
   <si>
@@ -162,12 +159,15 @@
   <si>
     <t>size</t>
   </si>
+  <si>
+    <t>bộ đồ xanh cho chó</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +187,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -242,6 +248,15 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -249,15 +264,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -557,7 +563,7 @@
   <dimension ref="A1:U556"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -565,8 +571,8 @@
     <col min="1" max="1" width="5.36328125" customWidth="1"/>
     <col min="2" max="2" width="19.81640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="18.453125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="22.54296875" customWidth="1"/>
     <col min="6" max="6" width="6.90625" customWidth="1"/>
     <col min="7" max="8" width="10.81640625" customWidth="1"/>
     <col min="9" max="9" width="10.36328125" customWidth="1"/>
@@ -583,38 +589,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -626,7 +632,7 @@
       <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -688,7 +694,7 @@
       <c r="C6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -737,23 +743,35 @@
       <c r="C7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="G7" s="1">
+        <v>98.8</v>
+      </c>
+      <c r="H7" s="1">
+        <v>20000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>35000</v>
+      </c>
       <c r="J7" s="1">
         <f t="shared" ref="J7:J70" si="0">(F7:F557*G7:G557*3850)+(H7:H557)+(I7:I557)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+        <v>435380</v>
+      </c>
+      <c r="K7" s="1">
+        <v>450000</v>
+      </c>
+      <c r="L7" s="2">
+        <v>44836</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
         <v>34</v>
@@ -769,23 +787,35 @@
       <c r="C8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="G8" s="1">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="H8" s="1">
+        <v>15000</v>
+      </c>
+      <c r="I8" s="1">
+        <v>30000</v>
+      </c>
       <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+        <v>175130</v>
+      </c>
+      <c r="K8" s="1">
+        <v>175000</v>
+      </c>
+      <c r="L8" s="2">
+        <v>44836</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
         <v>36</v>
@@ -801,26 +831,38 @@
       <c r="C9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="G9" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="H9" s="1">
+        <v>15000</v>
+      </c>
+      <c r="I9" s="1">
+        <v>20000</v>
+      </c>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+        <v>76965</v>
+      </c>
+      <c r="K9" s="1">
+        <v>85000</v>
+      </c>
+      <c r="L9" s="2">
+        <v>44836</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
@@ -833,54 +875,82 @@
       <c r="C10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="G10" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="H10" s="1">
+        <v>15000</v>
+      </c>
+      <c r="I10" s="1">
+        <v>20000</v>
+      </c>
       <c r="J10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+        <v>73115</v>
+      </c>
+      <c r="K10" s="1">
+        <v>80000</v>
+      </c>
+      <c r="L10" s="2">
+        <v>44836</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="12"/>
+      <c r="B11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="9"/>
       <c r="E11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="G11" s="1">
+        <v>83</v>
+      </c>
+      <c r="H11" s="1">
+        <v>20000</v>
+      </c>
+      <c r="I11" s="1">
+        <v>35000</v>
+      </c>
       <c r="J11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+        <v>374550</v>
+      </c>
+      <c r="K11" s="1">
+        <v>385000</v>
+      </c>
+      <c r="L11" s="2">
+        <v>44836</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
@@ -889,7 +959,7 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="12"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -900,8 +970,12 @@
         <v>0</v>
       </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="L12" s="2">
+        <v>44836</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
@@ -911,7 +985,7 @@
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="12"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -922,8 +996,12 @@
         <v>0</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="L13" s="2">
+        <v>44836</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
@@ -933,7 +1011,7 @@
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="12"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -944,8 +1022,12 @@
         <v>0</v>
       </c>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="L14" s="2">
+        <v>44836</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
@@ -955,7 +1037,7 @@
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="12"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -977,7 +1059,7 @@
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="12"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -999,7 +1081,7 @@
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="12"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1021,7 +1103,7 @@
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="12"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1043,7 +1125,7 @@
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="12"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1065,7 +1147,7 @@
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="12"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1087,7 +1169,7 @@
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="12"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1109,7 +1191,7 @@
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="12"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1131,7 +1213,7 @@
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="12"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1153,7 +1235,7 @@
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="12"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1175,7 +1257,7 @@
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="12"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1197,7 +1279,7 @@
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="12"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1219,7 +1301,7 @@
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="12"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1241,7 +1323,7 @@
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="12"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -1263,7 +1345,7 @@
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="12"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -1285,7 +1367,7 @@
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="12"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -1307,7 +1389,7 @@
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="12"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1329,7 +1411,7 @@
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="12"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1351,7 +1433,7 @@
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="12"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1373,7 +1455,7 @@
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="12"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -1395,7 +1477,7 @@
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="12"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1417,7 +1499,7 @@
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="12"/>
+      <c r="D36" s="9"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1439,7 +1521,7 @@
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="12"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -1461,7 +1543,7 @@
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="12"/>
+      <c r="D38" s="9"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -1483,7 +1565,7 @@
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="12"/>
+      <c r="D39" s="9"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -1505,7 +1587,7 @@
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="12"/>
+      <c r="D40" s="9"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -1527,7 +1609,7 @@
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="12"/>
+      <c r="D41" s="9"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -1549,7 +1631,7 @@
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="12"/>
+      <c r="D42" s="9"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -1571,7 +1653,7 @@
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="12"/>
+      <c r="D43" s="9"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -1593,7 +1675,7 @@
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
-      <c r="D44" s="12"/>
+      <c r="D44" s="9"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -1615,7 +1697,7 @@
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
-      <c r="D45" s="12"/>
+      <c r="D45" s="9"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -1637,7 +1719,7 @@
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
-      <c r="D46" s="12"/>
+      <c r="D46" s="9"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -1659,7 +1741,7 @@
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
-      <c r="D47" s="12"/>
+      <c r="D47" s="9"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -1681,7 +1763,7 @@
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
-      <c r="D48" s="12"/>
+      <c r="D48" s="9"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -1703,7 +1785,7 @@
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
-      <c r="D49" s="12"/>
+      <c r="D49" s="9"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -1725,7 +1807,7 @@
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
-      <c r="D50" s="12"/>
+      <c r="D50" s="9"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -1747,7 +1829,7 @@
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
-      <c r="D51" s="12"/>
+      <c r="D51" s="9"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -1769,7 +1851,7 @@
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="12"/>
+      <c r="D52" s="9"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -1791,7 +1873,7 @@
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="12"/>
+      <c r="D53" s="9"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -1813,7 +1895,7 @@
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="12"/>
+      <c r="D54" s="9"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -1835,7 +1917,7 @@
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="12"/>
+      <c r="D55" s="9"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -1857,7 +1939,7 @@
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
-      <c r="D56" s="12"/>
+      <c r="D56" s="9"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -1879,7 +1961,7 @@
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="12"/>
+      <c r="D57" s="9"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -1901,7 +1983,7 @@
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="12"/>
+      <c r="D58" s="9"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -1923,7 +2005,7 @@
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
-      <c r="D59" s="12"/>
+      <c r="D59" s="9"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -1945,7 +2027,7 @@
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
-      <c r="D60" s="12"/>
+      <c r="D60" s="9"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -1967,7 +2049,7 @@
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="12"/>
+      <c r="D61" s="9"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -1989,7 +2071,7 @@
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
-      <c r="D62" s="12"/>
+      <c r="D62" s="9"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -2011,7 +2093,7 @@
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
-      <c r="D63" s="12"/>
+      <c r="D63" s="9"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -2033,7 +2115,7 @@
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
-      <c r="D64" s="12"/>
+      <c r="D64" s="9"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -2055,7 +2137,7 @@
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
-      <c r="D65" s="12"/>
+      <c r="D65" s="9"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -2077,7 +2159,7 @@
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
-      <c r="D66" s="12"/>
+      <c r="D66" s="9"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -2099,7 +2181,7 @@
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
-      <c r="D67" s="12"/>
+      <c r="D67" s="9"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -2121,7 +2203,7 @@
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
-      <c r="D68" s="12"/>
+      <c r="D68" s="9"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -2143,7 +2225,7 @@
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
-      <c r="D69" s="12"/>
+      <c r="D69" s="9"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -2165,7 +2247,7 @@
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
-      <c r="D70" s="12"/>
+      <c r="D70" s="9"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -2187,7 +2269,7 @@
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
-      <c r="D71" s="12"/>
+      <c r="D71" s="9"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -2209,7 +2291,7 @@
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
-      <c r="D72" s="12"/>
+      <c r="D72" s="9"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -2231,7 +2313,7 @@
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
-      <c r="D73" s="12"/>
+      <c r="D73" s="9"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -2253,7 +2335,7 @@
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
-      <c r="D74" s="12"/>
+      <c r="D74" s="9"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -2275,7 +2357,7 @@
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
-      <c r="D75" s="12"/>
+      <c r="D75" s="9"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -2297,7 +2379,7 @@
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
-      <c r="D76" s="12"/>
+      <c r="D76" s="9"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -2319,7 +2401,7 @@
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
-      <c r="D77" s="12"/>
+      <c r="D77" s="9"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -2341,7 +2423,7 @@
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
-      <c r="D78" s="12"/>
+      <c r="D78" s="9"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -2363,7 +2445,7 @@
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
-      <c r="D79" s="12"/>
+      <c r="D79" s="9"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -2385,7 +2467,7 @@
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
-      <c r="D80" s="12"/>
+      <c r="D80" s="9"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -2407,7 +2489,7 @@
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
-      <c r="D81" s="12"/>
+      <c r="D81" s="9"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -2429,7 +2511,7 @@
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
-      <c r="D82" s="12"/>
+      <c r="D82" s="9"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -2451,7 +2533,7 @@
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
-      <c r="D83" s="12"/>
+      <c r="D83" s="9"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -2473,7 +2555,7 @@
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
-      <c r="D84" s="12"/>
+      <c r="D84" s="9"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -2495,7 +2577,7 @@
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
-      <c r="D85" s="12"/>
+      <c r="D85" s="9"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -2517,7 +2599,7 @@
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
-      <c r="D86" s="12"/>
+      <c r="D86" s="9"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -2539,7 +2621,7 @@
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
-      <c r="D87" s="12"/>
+      <c r="D87" s="9"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -2561,7 +2643,7 @@
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
-      <c r="D88" s="12"/>
+      <c r="D88" s="9"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -2583,7 +2665,7 @@
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
-      <c r="D89" s="12"/>
+      <c r="D89" s="9"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -2605,7 +2687,7 @@
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
-      <c r="D90" s="12"/>
+      <c r="D90" s="9"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -2627,7 +2709,7 @@
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
-      <c r="D91" s="12"/>
+      <c r="D91" s="9"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -2649,7 +2731,7 @@
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
-      <c r="D92" s="12"/>
+      <c r="D92" s="9"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -2671,7 +2753,7 @@
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
-      <c r="D93" s="12"/>
+      <c r="D93" s="9"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -2693,7 +2775,7 @@
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
-      <c r="D94" s="12"/>
+      <c r="D94" s="9"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -2715,7 +2797,7 @@
       </c>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
-      <c r="D95" s="12"/>
+      <c r="D95" s="9"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -2737,7 +2819,7 @@
       </c>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
-      <c r="D96" s="12"/>
+      <c r="D96" s="9"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -2759,7 +2841,7 @@
       </c>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
-      <c r="D97" s="12"/>
+      <c r="D97" s="9"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
@@ -2781,7 +2863,7 @@
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
-      <c r="D98" s="12"/>
+      <c r="D98" s="9"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
@@ -2803,7 +2885,7 @@
       </c>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
-      <c r="D99" s="12"/>
+      <c r="D99" s="9"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -2825,7 +2907,7 @@
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
-      <c r="D100" s="12"/>
+      <c r="D100" s="9"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
@@ -2847,7 +2929,7 @@
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
-      <c r="D101" s="12"/>
+      <c r="D101" s="9"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
@@ -2869,7 +2951,7 @@
       </c>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
-      <c r="D102" s="12"/>
+      <c r="D102" s="9"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -2891,7 +2973,7 @@
       </c>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
-      <c r="D103" s="12"/>
+      <c r="D103" s="9"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
@@ -2913,7 +2995,7 @@
       </c>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
-      <c r="D104" s="12"/>
+      <c r="D104" s="9"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
@@ -2935,7 +3017,7 @@
       </c>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
-      <c r="D105" s="12"/>
+      <c r="D105" s="9"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
@@ -2957,7 +3039,7 @@
       </c>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
-      <c r="D106" s="12"/>
+      <c r="D106" s="9"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
@@ -2979,7 +3061,7 @@
       </c>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
-      <c r="D107" s="12"/>
+      <c r="D107" s="9"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
@@ -3001,7 +3083,7 @@
       </c>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
-      <c r="D108" s="12"/>
+      <c r="D108" s="9"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
@@ -3023,7 +3105,7 @@
       </c>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
-      <c r="D109" s="12"/>
+      <c r="D109" s="9"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
@@ -3045,7 +3127,7 @@
       </c>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
-      <c r="D110" s="12"/>
+      <c r="D110" s="9"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
@@ -3067,7 +3149,7 @@
       </c>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
-      <c r="D111" s="12"/>
+      <c r="D111" s="9"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
@@ -3089,7 +3171,7 @@
       </c>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
-      <c r="D112" s="12"/>
+      <c r="D112" s="9"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
@@ -3111,7 +3193,7 @@
       </c>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
-      <c r="D113" s="12"/>
+      <c r="D113" s="9"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
@@ -3133,7 +3215,7 @@
       </c>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
-      <c r="D114" s="12"/>
+      <c r="D114" s="9"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
@@ -3155,7 +3237,7 @@
       </c>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
-      <c r="D115" s="12"/>
+      <c r="D115" s="9"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
@@ -3177,7 +3259,7 @@
       </c>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
-      <c r="D116" s="12"/>
+      <c r="D116" s="9"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
@@ -3199,7 +3281,7 @@
       </c>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
-      <c r="D117" s="12"/>
+      <c r="D117" s="9"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
@@ -3221,7 +3303,7 @@
       </c>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
-      <c r="D118" s="12"/>
+      <c r="D118" s="9"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
@@ -3243,7 +3325,7 @@
       </c>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
-      <c r="D119" s="12"/>
+      <c r="D119" s="9"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
@@ -3265,7 +3347,7 @@
       </c>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
-      <c r="D120" s="12"/>
+      <c r="D120" s="9"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
@@ -3287,7 +3369,7 @@
       </c>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
-      <c r="D121" s="12"/>
+      <c r="D121" s="9"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -3309,7 +3391,7 @@
       </c>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
-      <c r="D122" s="12"/>
+      <c r="D122" s="9"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
@@ -3331,7 +3413,7 @@
       </c>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
-      <c r="D123" s="12"/>
+      <c r="D123" s="9"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
@@ -3353,7 +3435,7 @@
       </c>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
-      <c r="D124" s="12"/>
+      <c r="D124" s="9"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
@@ -3375,7 +3457,7 @@
       </c>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
-      <c r="D125" s="12"/>
+      <c r="D125" s="9"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
@@ -3397,7 +3479,7 @@
       </c>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
-      <c r="D126" s="12"/>
+      <c r="D126" s="9"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
@@ -3419,7 +3501,7 @@
       </c>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
-      <c r="D127" s="12"/>
+      <c r="D127" s="9"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
@@ -3441,7 +3523,7 @@
       </c>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
-      <c r="D128" s="12"/>
+      <c r="D128" s="9"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
@@ -3463,7 +3545,7 @@
       </c>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
-      <c r="D129" s="12"/>
+      <c r="D129" s="9"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
@@ -3485,7 +3567,7 @@
       </c>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
-      <c r="D130" s="12"/>
+      <c r="D130" s="9"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
@@ -3507,7 +3589,7 @@
       </c>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
-      <c r="D131" s="12"/>
+      <c r="D131" s="9"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -3529,7 +3611,7 @@
       </c>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
-      <c r="D132" s="12"/>
+      <c r="D132" s="9"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
@@ -3551,7 +3633,7 @@
       </c>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
-      <c r="D133" s="12"/>
+      <c r="D133" s="9"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
@@ -3573,7 +3655,7 @@
       </c>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
-      <c r="D134" s="12"/>
+      <c r="D134" s="9"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
@@ -3595,7 +3677,7 @@
       </c>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
-      <c r="D135" s="12"/>
+      <c r="D135" s="9"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -3617,7 +3699,7 @@
       </c>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
-      <c r="D136" s="12"/>
+      <c r="D136" s="9"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
@@ -3639,7 +3721,7 @@
       </c>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
-      <c r="D137" s="12"/>
+      <c r="D137" s="9"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
@@ -3661,7 +3743,7 @@
       </c>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
-      <c r="D138" s="12"/>
+      <c r="D138" s="9"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
@@ -3683,7 +3765,7 @@
       </c>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
-      <c r="D139" s="12"/>
+      <c r="D139" s="9"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
@@ -3705,7 +3787,7 @@
       </c>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
-      <c r="D140" s="12"/>
+      <c r="D140" s="9"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
@@ -3727,7 +3809,7 @@
       </c>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
-      <c r="D141" s="12"/>
+      <c r="D141" s="9"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
@@ -3749,7 +3831,7 @@
       </c>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
-      <c r="D142" s="12"/>
+      <c r="D142" s="9"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
@@ -3771,7 +3853,7 @@
       </c>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
-      <c r="D143" s="12"/>
+      <c r="D143" s="9"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
@@ -3793,7 +3875,7 @@
       </c>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
-      <c r="D144" s="12"/>
+      <c r="D144" s="9"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
@@ -3815,7 +3897,7 @@
       </c>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
-      <c r="D145" s="12"/>
+      <c r="D145" s="9"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
@@ -3837,7 +3919,7 @@
       </c>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
-      <c r="D146" s="12"/>
+      <c r="D146" s="9"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
@@ -3859,7 +3941,7 @@
       </c>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
-      <c r="D147" s="12"/>
+      <c r="D147" s="9"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
@@ -3881,7 +3963,7 @@
       </c>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
-      <c r="D148" s="12"/>
+      <c r="D148" s="9"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
@@ -3903,7 +3985,7 @@
       </c>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
-      <c r="D149" s="12"/>
+      <c r="D149" s="9"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
@@ -3925,7 +4007,7 @@
       </c>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
-      <c r="D150" s="12"/>
+      <c r="D150" s="9"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
@@ -3947,7 +4029,7 @@
       </c>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
-      <c r="D151" s="12"/>
+      <c r="D151" s="9"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
@@ -3969,7 +4051,7 @@
       </c>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
-      <c r="D152" s="12"/>
+      <c r="D152" s="9"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
@@ -3991,7 +4073,7 @@
       </c>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
-      <c r="D153" s="12"/>
+      <c r="D153" s="9"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
@@ -4013,7 +4095,7 @@
       </c>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
-      <c r="D154" s="12"/>
+      <c r="D154" s="9"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
@@ -4035,7 +4117,7 @@
       </c>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
-      <c r="D155" s="12"/>
+      <c r="D155" s="9"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
@@ -4057,7 +4139,7 @@
       </c>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
-      <c r="D156" s="12"/>
+      <c r="D156" s="9"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
@@ -4079,7 +4161,7 @@
       </c>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
-      <c r="D157" s="12"/>
+      <c r="D157" s="9"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
@@ -4101,7 +4183,7 @@
       </c>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
-      <c r="D158" s="12"/>
+      <c r="D158" s="9"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
@@ -4123,7 +4205,7 @@
       </c>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
-      <c r="D159" s="12"/>
+      <c r="D159" s="9"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
@@ -4145,7 +4227,7 @@
       </c>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
-      <c r="D160" s="12"/>
+      <c r="D160" s="9"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
@@ -4167,7 +4249,7 @@
       </c>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
-      <c r="D161" s="12"/>
+      <c r="D161" s="9"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
@@ -4189,7 +4271,7 @@
       </c>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
-      <c r="D162" s="12"/>
+      <c r="D162" s="9"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
@@ -4211,7 +4293,7 @@
       </c>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
-      <c r="D163" s="12"/>
+      <c r="D163" s="9"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
@@ -4233,7 +4315,7 @@
       </c>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
-      <c r="D164" s="12"/>
+      <c r="D164" s="9"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
@@ -4255,7 +4337,7 @@
       </c>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
-      <c r="D165" s="12"/>
+      <c r="D165" s="9"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
@@ -4277,7 +4359,7 @@
       </c>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
-      <c r="D166" s="12"/>
+      <c r="D166" s="9"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
@@ -4299,7 +4381,7 @@
       </c>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
-      <c r="D167" s="12"/>
+      <c r="D167" s="9"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
@@ -4321,7 +4403,7 @@
       </c>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
-      <c r="D168" s="12"/>
+      <c r="D168" s="9"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
@@ -4343,7 +4425,7 @@
       </c>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
-      <c r="D169" s="12"/>
+      <c r="D169" s="9"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
@@ -4365,7 +4447,7 @@
       </c>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
-      <c r="D170" s="12"/>
+      <c r="D170" s="9"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
@@ -4387,7 +4469,7 @@
       </c>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
-      <c r="D171" s="12"/>
+      <c r="D171" s="9"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
@@ -4409,7 +4491,7 @@
       </c>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
-      <c r="D172" s="12"/>
+      <c r="D172" s="9"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
@@ -4431,7 +4513,7 @@
       </c>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
-      <c r="D173" s="12"/>
+      <c r="D173" s="9"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
@@ -4453,7 +4535,7 @@
       </c>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
-      <c r="D174" s="12"/>
+      <c r="D174" s="9"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
@@ -4475,7 +4557,7 @@
       </c>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
-      <c r="D175" s="12"/>
+      <c r="D175" s="9"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
@@ -4497,7 +4579,7 @@
       </c>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
-      <c r="D176" s="12"/>
+      <c r="D176" s="9"/>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
@@ -4519,7 +4601,7 @@
       </c>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
-      <c r="D177" s="12"/>
+      <c r="D177" s="9"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
@@ -4541,7 +4623,7 @@
       </c>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
-      <c r="D178" s="12"/>
+      <c r="D178" s="9"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
@@ -4563,7 +4645,7 @@
       </c>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
-      <c r="D179" s="12"/>
+      <c r="D179" s="9"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
@@ -4585,7 +4667,7 @@
       </c>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
-      <c r="D180" s="12"/>
+      <c r="D180" s="9"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
@@ -4607,7 +4689,7 @@
       </c>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
-      <c r="D181" s="12"/>
+      <c r="D181" s="9"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
@@ -4629,7 +4711,7 @@
       </c>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
-      <c r="D182" s="12"/>
+      <c r="D182" s="9"/>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
@@ -4651,7 +4733,7 @@
       </c>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
-      <c r="D183" s="12"/>
+      <c r="D183" s="9"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
@@ -4673,7 +4755,7 @@
       </c>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
-      <c r="D184" s="12"/>
+      <c r="D184" s="9"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
@@ -4695,7 +4777,7 @@
       </c>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
-      <c r="D185" s="12"/>
+      <c r="D185" s="9"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
@@ -4717,7 +4799,7 @@
       </c>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
-      <c r="D186" s="12"/>
+      <c r="D186" s="9"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
@@ -4739,7 +4821,7 @@
       </c>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
-      <c r="D187" s="12"/>
+      <c r="D187" s="9"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
@@ -4761,7 +4843,7 @@
       </c>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
-      <c r="D188" s="12"/>
+      <c r="D188" s="9"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
@@ -4783,7 +4865,7 @@
       </c>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
-      <c r="D189" s="12"/>
+      <c r="D189" s="9"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
@@ -4805,7 +4887,7 @@
       </c>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
-      <c r="D190" s="12"/>
+      <c r="D190" s="9"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
@@ -4827,7 +4909,7 @@
       </c>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
-      <c r="D191" s="12"/>
+      <c r="D191" s="9"/>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
@@ -4849,7 +4931,7 @@
       </c>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
-      <c r="D192" s="12"/>
+      <c r="D192" s="9"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
@@ -4871,7 +4953,7 @@
       </c>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
-      <c r="D193" s="12"/>
+      <c r="D193" s="9"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
@@ -4893,7 +4975,7 @@
       </c>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
-      <c r="D194" s="12"/>
+      <c r="D194" s="9"/>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
@@ -4915,7 +4997,7 @@
       </c>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
-      <c r="D195" s="12"/>
+      <c r="D195" s="9"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
@@ -4937,7 +5019,7 @@
       </c>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
-      <c r="D196" s="12"/>
+      <c r="D196" s="9"/>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
@@ -4959,7 +5041,7 @@
       </c>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
-      <c r="D197" s="12"/>
+      <c r="D197" s="9"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
@@ -4981,7 +5063,7 @@
       </c>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
-      <c r="D198" s="12"/>
+      <c r="D198" s="9"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
@@ -5003,7 +5085,7 @@
       </c>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
-      <c r="D199" s="12"/>
+      <c r="D199" s="9"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
@@ -5025,7 +5107,7 @@
       </c>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
-      <c r="D200" s="12"/>
+      <c r="D200" s="9"/>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
@@ -5047,7 +5129,7 @@
       </c>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
-      <c r="D201" s="12"/>
+      <c r="D201" s="9"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
@@ -5069,7 +5151,7 @@
       </c>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
-      <c r="D202" s="12"/>
+      <c r="D202" s="9"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
@@ -5091,7 +5173,7 @@
       </c>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
-      <c r="D203" s="12"/>
+      <c r="D203" s="9"/>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
@@ -5113,7 +5195,7 @@
       </c>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
-      <c r="D204" s="12"/>
+      <c r="D204" s="9"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
@@ -5135,7 +5217,7 @@
       </c>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
-      <c r="D205" s="12"/>
+      <c r="D205" s="9"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
@@ -5157,7 +5239,7 @@
       </c>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
-      <c r="D206" s="12"/>
+      <c r="D206" s="9"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
@@ -5179,7 +5261,7 @@
       </c>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
-      <c r="D207" s="12"/>
+      <c r="D207" s="9"/>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
@@ -5201,7 +5283,7 @@
       </c>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
-      <c r="D208" s="12"/>
+      <c r="D208" s="9"/>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
@@ -5223,7 +5305,7 @@
       </c>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
-      <c r="D209" s="12"/>
+      <c r="D209" s="9"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
@@ -5245,7 +5327,7 @@
       </c>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
-      <c r="D210" s="12"/>
+      <c r="D210" s="9"/>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
@@ -5267,7 +5349,7 @@
       </c>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
-      <c r="D211" s="12"/>
+      <c r="D211" s="9"/>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
@@ -5289,7 +5371,7 @@
       </c>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
-      <c r="D212" s="12"/>
+      <c r="D212" s="9"/>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
@@ -5311,7 +5393,7 @@
       </c>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
-      <c r="D213" s="12"/>
+      <c r="D213" s="9"/>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
@@ -5333,7 +5415,7 @@
       </c>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
-      <c r="D214" s="12"/>
+      <c r="D214" s="9"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
@@ -5355,7 +5437,7 @@
       </c>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
-      <c r="D215" s="12"/>
+      <c r="D215" s="9"/>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
@@ -5377,7 +5459,7 @@
       </c>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
-      <c r="D216" s="12"/>
+      <c r="D216" s="9"/>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
@@ -5399,7 +5481,7 @@
       </c>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
-      <c r="D217" s="12"/>
+      <c r="D217" s="9"/>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
@@ -5421,7 +5503,7 @@
       </c>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
-      <c r="D218" s="12"/>
+      <c r="D218" s="9"/>
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
@@ -5443,7 +5525,7 @@
       </c>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
-      <c r="D219" s="12"/>
+      <c r="D219" s="9"/>
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
@@ -5465,7 +5547,7 @@
       </c>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
-      <c r="D220" s="12"/>
+      <c r="D220" s="9"/>
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
@@ -5487,7 +5569,7 @@
       </c>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
-      <c r="D221" s="12"/>
+      <c r="D221" s="9"/>
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
@@ -5509,7 +5591,7 @@
       </c>
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
-      <c r="D222" s="12"/>
+      <c r="D222" s="9"/>
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
@@ -5531,7 +5613,7 @@
       </c>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
-      <c r="D223" s="12"/>
+      <c r="D223" s="9"/>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
@@ -5553,7 +5635,7 @@
       </c>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
-      <c r="D224" s="12"/>
+      <c r="D224" s="9"/>
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
@@ -5575,7 +5657,7 @@
       </c>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
-      <c r="D225" s="12"/>
+      <c r="D225" s="9"/>
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
@@ -5597,7 +5679,7 @@
       </c>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
-      <c r="D226" s="12"/>
+      <c r="D226" s="9"/>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
@@ -5619,7 +5701,7 @@
       </c>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
-      <c r="D227" s="12"/>
+      <c r="D227" s="9"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
@@ -5641,7 +5723,7 @@
       </c>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
-      <c r="D228" s="12"/>
+      <c r="D228" s="9"/>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
@@ -5663,7 +5745,7 @@
       </c>
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
-      <c r="D229" s="12"/>
+      <c r="D229" s="9"/>
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
@@ -5685,7 +5767,7 @@
       </c>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
-      <c r="D230" s="12"/>
+      <c r="D230" s="9"/>
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
@@ -5707,7 +5789,7 @@
       </c>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
-      <c r="D231" s="12"/>
+      <c r="D231" s="9"/>
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
@@ -5729,7 +5811,7 @@
       </c>
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
-      <c r="D232" s="12"/>
+      <c r="D232" s="9"/>
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
@@ -5751,7 +5833,7 @@
       </c>
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
-      <c r="D233" s="12"/>
+      <c r="D233" s="9"/>
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
@@ -5773,7 +5855,7 @@
       </c>
       <c r="B234" s="6"/>
       <c r="C234" s="6"/>
-      <c r="D234" s="12"/>
+      <c r="D234" s="9"/>
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
@@ -5795,7 +5877,7 @@
       </c>
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
-      <c r="D235" s="12"/>
+      <c r="D235" s="9"/>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
@@ -5817,7 +5899,7 @@
       </c>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
-      <c r="D236" s="12"/>
+      <c r="D236" s="9"/>
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
@@ -5839,7 +5921,7 @@
       </c>
       <c r="B237" s="6"/>
       <c r="C237" s="6"/>
-      <c r="D237" s="12"/>
+      <c r="D237" s="9"/>
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
@@ -5861,7 +5943,7 @@
       </c>
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
-      <c r="D238" s="12"/>
+      <c r="D238" s="9"/>
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
@@ -5883,7 +5965,7 @@
       </c>
       <c r="B239" s="6"/>
       <c r="C239" s="6"/>
-      <c r="D239" s="12"/>
+      <c r="D239" s="9"/>
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
@@ -5905,7 +5987,7 @@
       </c>
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
-      <c r="D240" s="12"/>
+      <c r="D240" s="9"/>
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
@@ -5927,7 +6009,7 @@
       </c>
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
-      <c r="D241" s="12"/>
+      <c r="D241" s="9"/>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
@@ -5949,7 +6031,7 @@
       </c>
       <c r="B242" s="6"/>
       <c r="C242" s="6"/>
-      <c r="D242" s="12"/>
+      <c r="D242" s="9"/>
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
@@ -5971,7 +6053,7 @@
       </c>
       <c r="B243" s="6"/>
       <c r="C243" s="6"/>
-      <c r="D243" s="12"/>
+      <c r="D243" s="9"/>
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
@@ -5993,7 +6075,7 @@
       </c>
       <c r="B244" s="6"/>
       <c r="C244" s="6"/>
-      <c r="D244" s="12"/>
+      <c r="D244" s="9"/>
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
@@ -6015,7 +6097,7 @@
       </c>
       <c r="B245" s="6"/>
       <c r="C245" s="6"/>
-      <c r="D245" s="12"/>
+      <c r="D245" s="9"/>
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
@@ -6037,7 +6119,7 @@
       </c>
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
-      <c r="D246" s="12"/>
+      <c r="D246" s="9"/>
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
@@ -6059,7 +6141,7 @@
       </c>
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
-      <c r="D247" s="12"/>
+      <c r="D247" s="9"/>
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
@@ -6081,7 +6163,7 @@
       </c>
       <c r="B248" s="6"/>
       <c r="C248" s="6"/>
-      <c r="D248" s="12"/>
+      <c r="D248" s="9"/>
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
@@ -6103,7 +6185,7 @@
       </c>
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
-      <c r="D249" s="12"/>
+      <c r="D249" s="9"/>
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
@@ -6125,7 +6207,7 @@
       </c>
       <c r="B250" s="6"/>
       <c r="C250" s="6"/>
-      <c r="D250" s="12"/>
+      <c r="D250" s="9"/>
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
@@ -6147,7 +6229,7 @@
       </c>
       <c r="B251" s="6"/>
       <c r="C251" s="6"/>
-      <c r="D251" s="12"/>
+      <c r="D251" s="9"/>
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
@@ -6169,7 +6251,7 @@
       </c>
       <c r="B252" s="6"/>
       <c r="C252" s="6"/>
-      <c r="D252" s="12"/>
+      <c r="D252" s="9"/>
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
@@ -6191,7 +6273,7 @@
       </c>
       <c r="B253" s="6"/>
       <c r="C253" s="6"/>
-      <c r="D253" s="12"/>
+      <c r="D253" s="9"/>
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
@@ -6213,7 +6295,7 @@
       </c>
       <c r="B254" s="6"/>
       <c r="C254" s="6"/>
-      <c r="D254" s="12"/>
+      <c r="D254" s="9"/>
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
@@ -6235,7 +6317,7 @@
       </c>
       <c r="B255" s="6"/>
       <c r="C255" s="6"/>
-      <c r="D255" s="12"/>
+      <c r="D255" s="9"/>
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
@@ -6257,7 +6339,7 @@
       </c>
       <c r="B256" s="6"/>
       <c r="C256" s="6"/>
-      <c r="D256" s="12"/>
+      <c r="D256" s="9"/>
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
@@ -6279,7 +6361,7 @@
       </c>
       <c r="B257" s="6"/>
       <c r="C257" s="6"/>
-      <c r="D257" s="12"/>
+      <c r="D257" s="9"/>
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
@@ -6301,7 +6383,7 @@
       </c>
       <c r="B258" s="6"/>
       <c r="C258" s="6"/>
-      <c r="D258" s="12"/>
+      <c r="D258" s="9"/>
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
@@ -6323,7 +6405,7 @@
       </c>
       <c r="B259" s="6"/>
       <c r="C259" s="6"/>
-      <c r="D259" s="12"/>
+      <c r="D259" s="9"/>
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
@@ -6345,7 +6427,7 @@
       </c>
       <c r="B260" s="6"/>
       <c r="C260" s="6"/>
-      <c r="D260" s="12"/>
+      <c r="D260" s="9"/>
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
@@ -6367,7 +6449,7 @@
       </c>
       <c r="B261" s="6"/>
       <c r="C261" s="6"/>
-      <c r="D261" s="12"/>
+      <c r="D261" s="9"/>
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
@@ -6389,7 +6471,7 @@
       </c>
       <c r="B262" s="6"/>
       <c r="C262" s="6"/>
-      <c r="D262" s="12"/>
+      <c r="D262" s="9"/>
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
@@ -6411,7 +6493,7 @@
       </c>
       <c r="B263" s="6"/>
       <c r="C263" s="6"/>
-      <c r="D263" s="12"/>
+      <c r="D263" s="9"/>
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
@@ -6433,7 +6515,7 @@
       </c>
       <c r="B264" s="6"/>
       <c r="C264" s="6"/>
-      <c r="D264" s="12"/>
+      <c r="D264" s="9"/>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
@@ -6455,7 +6537,7 @@
       </c>
       <c r="B265" s="6"/>
       <c r="C265" s="6"/>
-      <c r="D265" s="12"/>
+      <c r="D265" s="9"/>
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
@@ -6477,7 +6559,7 @@
       </c>
       <c r="B266" s="6"/>
       <c r="C266" s="6"/>
-      <c r="D266" s="12"/>
+      <c r="D266" s="9"/>
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
@@ -6499,7 +6581,7 @@
       </c>
       <c r="B267" s="6"/>
       <c r="C267" s="6"/>
-      <c r="D267" s="12"/>
+      <c r="D267" s="9"/>
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
@@ -6521,7 +6603,7 @@
       </c>
       <c r="B268" s="6"/>
       <c r="C268" s="6"/>
-      <c r="D268" s="12"/>
+      <c r="D268" s="9"/>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
@@ -6543,7 +6625,7 @@
       </c>
       <c r="B269" s="6"/>
       <c r="C269" s="6"/>
-      <c r="D269" s="12"/>
+      <c r="D269" s="9"/>
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
@@ -6565,7 +6647,7 @@
       </c>
       <c r="B270" s="6"/>
       <c r="C270" s="6"/>
-      <c r="D270" s="12"/>
+      <c r="D270" s="9"/>
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
@@ -6587,7 +6669,7 @@
       </c>
       <c r="B271" s="6"/>
       <c r="C271" s="6"/>
-      <c r="D271" s="12"/>
+      <c r="D271" s="9"/>
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
@@ -6609,7 +6691,7 @@
       </c>
       <c r="B272" s="6"/>
       <c r="C272" s="6"/>
-      <c r="D272" s="12"/>
+      <c r="D272" s="9"/>
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
@@ -6631,7 +6713,7 @@
       </c>
       <c r="B273" s="6"/>
       <c r="C273" s="6"/>
-      <c r="D273" s="12"/>
+      <c r="D273" s="9"/>
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
@@ -6653,7 +6735,7 @@
       </c>
       <c r="B274" s="6"/>
       <c r="C274" s="6"/>
-      <c r="D274" s="12"/>
+      <c r="D274" s="9"/>
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
@@ -6675,7 +6757,7 @@
       </c>
       <c r="B275" s="6"/>
       <c r="C275" s="6"/>
-      <c r="D275" s="12"/>
+      <c r="D275" s="9"/>
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
@@ -6697,7 +6779,7 @@
       </c>
       <c r="B276" s="6"/>
       <c r="C276" s="6"/>
-      <c r="D276" s="12"/>
+      <c r="D276" s="9"/>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
@@ -6719,7 +6801,7 @@
       </c>
       <c r="B277" s="6"/>
       <c r="C277" s="6"/>
-      <c r="D277" s="12"/>
+      <c r="D277" s="9"/>
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
@@ -6741,7 +6823,7 @@
       </c>
       <c r="B278" s="6"/>
       <c r="C278" s="6"/>
-      <c r="D278" s="12"/>
+      <c r="D278" s="9"/>
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
@@ -6763,7 +6845,7 @@
       </c>
       <c r="B279" s="6"/>
       <c r="C279" s="6"/>
-      <c r="D279" s="12"/>
+      <c r="D279" s="9"/>
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
@@ -6785,7 +6867,7 @@
       </c>
       <c r="B280" s="6"/>
       <c r="C280" s="6"/>
-      <c r="D280" s="12"/>
+      <c r="D280" s="9"/>
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
@@ -6807,7 +6889,7 @@
       </c>
       <c r="B281" s="6"/>
       <c r="C281" s="6"/>
-      <c r="D281" s="12"/>
+      <c r="D281" s="9"/>
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
@@ -6829,7 +6911,7 @@
       </c>
       <c r="B282" s="6"/>
       <c r="C282" s="6"/>
-      <c r="D282" s="12"/>
+      <c r="D282" s="9"/>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
@@ -6851,7 +6933,7 @@
       </c>
       <c r="B283" s="6"/>
       <c r="C283" s="6"/>
-      <c r="D283" s="12"/>
+      <c r="D283" s="9"/>
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
@@ -6873,7 +6955,7 @@
       </c>
       <c r="B284" s="6"/>
       <c r="C284" s="6"/>
-      <c r="D284" s="12"/>
+      <c r="D284" s="9"/>
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
@@ -6895,7 +6977,7 @@
       </c>
       <c r="B285" s="6"/>
       <c r="C285" s="6"/>
-      <c r="D285" s="12"/>
+      <c r="D285" s="9"/>
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
@@ -6917,7 +6999,7 @@
       </c>
       <c r="B286" s="6"/>
       <c r="C286" s="6"/>
-      <c r="D286" s="12"/>
+      <c r="D286" s="9"/>
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
@@ -6939,7 +7021,7 @@
       </c>
       <c r="B287" s="6"/>
       <c r="C287" s="6"/>
-      <c r="D287" s="12"/>
+      <c r="D287" s="9"/>
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
@@ -6961,7 +7043,7 @@
       </c>
       <c r="B288" s="6"/>
       <c r="C288" s="6"/>
-      <c r="D288" s="12"/>
+      <c r="D288" s="9"/>
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
@@ -6983,7 +7065,7 @@
       </c>
       <c r="B289" s="6"/>
       <c r="C289" s="6"/>
-      <c r="D289" s="12"/>
+      <c r="D289" s="9"/>
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
@@ -7005,7 +7087,7 @@
       </c>
       <c r="B290" s="6"/>
       <c r="C290" s="6"/>
-      <c r="D290" s="12"/>
+      <c r="D290" s="9"/>
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
@@ -7027,7 +7109,7 @@
       </c>
       <c r="B291" s="6"/>
       <c r="C291" s="6"/>
-      <c r="D291" s="12"/>
+      <c r="D291" s="9"/>
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
@@ -7049,7 +7131,7 @@
       </c>
       <c r="B292" s="6"/>
       <c r="C292" s="6"/>
-      <c r="D292" s="12"/>
+      <c r="D292" s="9"/>
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
@@ -7071,7 +7153,7 @@
       </c>
       <c r="B293" s="6"/>
       <c r="C293" s="6"/>
-      <c r="D293" s="12"/>
+      <c r="D293" s="9"/>
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
@@ -7093,7 +7175,7 @@
       </c>
       <c r="B294" s="6"/>
       <c r="C294" s="6"/>
-      <c r="D294" s="12"/>
+      <c r="D294" s="9"/>
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
@@ -7115,7 +7197,7 @@
       </c>
       <c r="B295" s="6"/>
       <c r="C295" s="6"/>
-      <c r="D295" s="12"/>
+      <c r="D295" s="9"/>
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
@@ -7137,7 +7219,7 @@
       </c>
       <c r="B296" s="6"/>
       <c r="C296" s="6"/>
-      <c r="D296" s="12"/>
+      <c r="D296" s="9"/>
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
@@ -7159,7 +7241,7 @@
       </c>
       <c r="B297" s="6"/>
       <c r="C297" s="6"/>
-      <c r="D297" s="12"/>
+      <c r="D297" s="9"/>
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
@@ -7181,7 +7263,7 @@
       </c>
       <c r="B298" s="6"/>
       <c r="C298" s="6"/>
-      <c r="D298" s="12"/>
+      <c r="D298" s="9"/>
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
@@ -7203,7 +7285,7 @@
       </c>
       <c r="B299" s="6"/>
       <c r="C299" s="6"/>
-      <c r="D299" s="12"/>
+      <c r="D299" s="9"/>
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
@@ -7225,7 +7307,7 @@
       </c>
       <c r="B300" s="6"/>
       <c r="C300" s="6"/>
-      <c r="D300" s="12"/>
+      <c r="D300" s="9"/>
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
@@ -7247,7 +7329,7 @@
       </c>
       <c r="B301" s="6"/>
       <c r="C301" s="6"/>
-      <c r="D301" s="12"/>
+      <c r="D301" s="9"/>
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
@@ -7269,7 +7351,7 @@
       </c>
       <c r="B302" s="6"/>
       <c r="C302" s="6"/>
-      <c r="D302" s="12"/>
+      <c r="D302" s="9"/>
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
@@ -7291,7 +7373,7 @@
       </c>
       <c r="B303" s="6"/>
       <c r="C303" s="6"/>
-      <c r="D303" s="12"/>
+      <c r="D303" s="9"/>
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
@@ -7313,7 +7395,7 @@
       </c>
       <c r="B304" s="6"/>
       <c r="C304" s="6"/>
-      <c r="D304" s="12"/>
+      <c r="D304" s="9"/>
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
@@ -7335,7 +7417,7 @@
       </c>
       <c r="B305" s="6"/>
       <c r="C305" s="6"/>
-      <c r="D305" s="12"/>
+      <c r="D305" s="9"/>
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
@@ -7357,7 +7439,7 @@
       </c>
       <c r="B306" s="6"/>
       <c r="C306" s="6"/>
-      <c r="D306" s="12"/>
+      <c r="D306" s="9"/>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
@@ -7379,7 +7461,7 @@
       </c>
       <c r="B307" s="6"/>
       <c r="C307" s="6"/>
-      <c r="D307" s="12"/>
+      <c r="D307" s="9"/>
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
@@ -7401,7 +7483,7 @@
       </c>
       <c r="B308" s="6"/>
       <c r="C308" s="6"/>
-      <c r="D308" s="12"/>
+      <c r="D308" s="9"/>
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
@@ -7423,7 +7505,7 @@
       </c>
       <c r="B309" s="6"/>
       <c r="C309" s="6"/>
-      <c r="D309" s="12"/>
+      <c r="D309" s="9"/>
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
@@ -7445,7 +7527,7 @@
       </c>
       <c r="B310" s="6"/>
       <c r="C310" s="6"/>
-      <c r="D310" s="12"/>
+      <c r="D310" s="9"/>
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
@@ -7467,7 +7549,7 @@
       </c>
       <c r="B311" s="6"/>
       <c r="C311" s="6"/>
-      <c r="D311" s="12"/>
+      <c r="D311" s="9"/>
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
       <c r="G311" s="1"/>
@@ -7489,7 +7571,7 @@
       </c>
       <c r="B312" s="6"/>
       <c r="C312" s="6"/>
-      <c r="D312" s="12"/>
+      <c r="D312" s="9"/>
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
       <c r="G312" s="1"/>
@@ -7511,7 +7593,7 @@
       </c>
       <c r="B313" s="6"/>
       <c r="C313" s="6"/>
-      <c r="D313" s="12"/>
+      <c r="D313" s="9"/>
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
       <c r="G313" s="1"/>
@@ -7533,7 +7615,7 @@
       </c>
       <c r="B314" s="6"/>
       <c r="C314" s="6"/>
-      <c r="D314" s="12"/>
+      <c r="D314" s="9"/>
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
       <c r="G314" s="1"/>
@@ -7555,7 +7637,7 @@
       </c>
       <c r="B315" s="6"/>
       <c r="C315" s="6"/>
-      <c r="D315" s="12"/>
+      <c r="D315" s="9"/>
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
@@ -7577,7 +7659,7 @@
       </c>
       <c r="B316" s="6"/>
       <c r="C316" s="6"/>
-      <c r="D316" s="12"/>
+      <c r="D316" s="9"/>
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
@@ -7599,7 +7681,7 @@
       </c>
       <c r="B317" s="6"/>
       <c r="C317" s="6"/>
-      <c r="D317" s="12"/>
+      <c r="D317" s="9"/>
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
@@ -7621,7 +7703,7 @@
       </c>
       <c r="B318" s="6"/>
       <c r="C318" s="6"/>
-      <c r="D318" s="12"/>
+      <c r="D318" s="9"/>
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
       <c r="G318" s="1"/>
@@ -7643,7 +7725,7 @@
       </c>
       <c r="B319" s="6"/>
       <c r="C319" s="6"/>
-      <c r="D319" s="12"/>
+      <c r="D319" s="9"/>
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
@@ -7665,7 +7747,7 @@
       </c>
       <c r="B320" s="6"/>
       <c r="C320" s="6"/>
-      <c r="D320" s="12"/>
+      <c r="D320" s="9"/>
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
       <c r="G320" s="1"/>
@@ -7687,7 +7769,7 @@
       </c>
       <c r="B321" s="6"/>
       <c r="C321" s="6"/>
-      <c r="D321" s="12"/>
+      <c r="D321" s="9"/>
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
@@ -7709,7 +7791,7 @@
       </c>
       <c r="B322" s="6"/>
       <c r="C322" s="6"/>
-      <c r="D322" s="12"/>
+      <c r="D322" s="9"/>
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
@@ -7731,7 +7813,7 @@
       </c>
       <c r="B323" s="6"/>
       <c r="C323" s="6"/>
-      <c r="D323" s="12"/>
+      <c r="D323" s="9"/>
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
@@ -7753,7 +7835,7 @@
       </c>
       <c r="B324" s="6"/>
       <c r="C324" s="6"/>
-      <c r="D324" s="12"/>
+      <c r="D324" s="9"/>
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
@@ -7775,7 +7857,7 @@
       </c>
       <c r="B325" s="6"/>
       <c r="C325" s="6"/>
-      <c r="D325" s="12"/>
+      <c r="D325" s="9"/>
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
@@ -7797,7 +7879,7 @@
       </c>
       <c r="B326" s="6"/>
       <c r="C326" s="6"/>
-      <c r="D326" s="12"/>
+      <c r="D326" s="9"/>
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
@@ -7819,7 +7901,7 @@
       </c>
       <c r="B327" s="6"/>
       <c r="C327" s="6"/>
-      <c r="D327" s="12"/>
+      <c r="D327" s="9"/>
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
@@ -7841,7 +7923,7 @@
       </c>
       <c r="B328" s="6"/>
       <c r="C328" s="6"/>
-      <c r="D328" s="12"/>
+      <c r="D328" s="9"/>
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
@@ -7863,7 +7945,7 @@
       </c>
       <c r="B329" s="6"/>
       <c r="C329" s="6"/>
-      <c r="D329" s="12"/>
+      <c r="D329" s="9"/>
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
@@ -7885,7 +7967,7 @@
       </c>
       <c r="B330" s="6"/>
       <c r="C330" s="6"/>
-      <c r="D330" s="12"/>
+      <c r="D330" s="9"/>
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
@@ -7907,7 +7989,7 @@
       </c>
       <c r="B331" s="6"/>
       <c r="C331" s="6"/>
-      <c r="D331" s="12"/>
+      <c r="D331" s="9"/>
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
@@ -7929,7 +8011,7 @@
       </c>
       <c r="B332" s="6"/>
       <c r="C332" s="6"/>
-      <c r="D332" s="12"/>
+      <c r="D332" s="9"/>
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
@@ -7951,7 +8033,7 @@
       </c>
       <c r="B333" s="6"/>
       <c r="C333" s="6"/>
-      <c r="D333" s="12"/>
+      <c r="D333" s="9"/>
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
       <c r="G333" s="1"/>
@@ -7973,7 +8055,7 @@
       </c>
       <c r="B334" s="6"/>
       <c r="C334" s="6"/>
-      <c r="D334" s="12"/>
+      <c r="D334" s="9"/>
       <c r="E334" s="1"/>
       <c r="F334" s="1"/>
       <c r="G334" s="1"/>
@@ -7995,7 +8077,7 @@
       </c>
       <c r="B335" s="6"/>
       <c r="C335" s="6"/>
-      <c r="D335" s="12"/>
+      <c r="D335" s="9"/>
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
       <c r="G335" s="1"/>
@@ -8017,7 +8099,7 @@
       </c>
       <c r="B336" s="6"/>
       <c r="C336" s="6"/>
-      <c r="D336" s="12"/>
+      <c r="D336" s="9"/>
       <c r="E336" s="1"/>
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
@@ -8039,7 +8121,7 @@
       </c>
       <c r="B337" s="6"/>
       <c r="C337" s="6"/>
-      <c r="D337" s="12"/>
+      <c r="D337" s="9"/>
       <c r="E337" s="1"/>
       <c r="F337" s="1"/>
       <c r="G337" s="1"/>
@@ -8061,7 +8143,7 @@
       </c>
       <c r="B338" s="6"/>
       <c r="C338" s="6"/>
-      <c r="D338" s="12"/>
+      <c r="D338" s="9"/>
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
       <c r="G338" s="1"/>
@@ -8083,7 +8165,7 @@
       </c>
       <c r="B339" s="6"/>
       <c r="C339" s="6"/>
-      <c r="D339" s="12"/>
+      <c r="D339" s="9"/>
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
       <c r="G339" s="1"/>
@@ -8105,7 +8187,7 @@
       </c>
       <c r="B340" s="6"/>
       <c r="C340" s="6"/>
-      <c r="D340" s="12"/>
+      <c r="D340" s="9"/>
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
       <c r="G340" s="1"/>
@@ -8127,7 +8209,7 @@
       </c>
       <c r="B341" s="6"/>
       <c r="C341" s="6"/>
-      <c r="D341" s="12"/>
+      <c r="D341" s="9"/>
       <c r="E341" s="1"/>
       <c r="F341" s="1"/>
       <c r="G341" s="1"/>
@@ -8149,7 +8231,7 @@
       </c>
       <c r="B342" s="6"/>
       <c r="C342" s="6"/>
-      <c r="D342" s="12"/>
+      <c r="D342" s="9"/>
       <c r="E342" s="1"/>
       <c r="F342" s="1"/>
       <c r="G342" s="1"/>
@@ -8171,7 +8253,7 @@
       </c>
       <c r="B343" s="6"/>
       <c r="C343" s="6"/>
-      <c r="D343" s="12"/>
+      <c r="D343" s="9"/>
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
       <c r="G343" s="1"/>
@@ -8193,7 +8275,7 @@
       </c>
       <c r="B344" s="6"/>
       <c r="C344" s="6"/>
-      <c r="D344" s="12"/>
+      <c r="D344" s="9"/>
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
       <c r="G344" s="1"/>
@@ -8215,7 +8297,7 @@
       </c>
       <c r="B345" s="6"/>
       <c r="C345" s="6"/>
-      <c r="D345" s="12"/>
+      <c r="D345" s="9"/>
       <c r="E345" s="1"/>
       <c r="F345" s="1"/>
       <c r="G345" s="1"/>
@@ -8237,7 +8319,7 @@
       </c>
       <c r="B346" s="6"/>
       <c r="C346" s="6"/>
-      <c r="D346" s="12"/>
+      <c r="D346" s="9"/>
       <c r="E346" s="1"/>
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
@@ -8259,7 +8341,7 @@
       </c>
       <c r="B347" s="6"/>
       <c r="C347" s="6"/>
-      <c r="D347" s="12"/>
+      <c r="D347" s="9"/>
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
       <c r="G347" s="1"/>
@@ -8281,7 +8363,7 @@
       </c>
       <c r="B348" s="6"/>
       <c r="C348" s="6"/>
-      <c r="D348" s="12"/>
+      <c r="D348" s="9"/>
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
       <c r="G348" s="1"/>
@@ -8303,7 +8385,7 @@
       </c>
       <c r="B349" s="6"/>
       <c r="C349" s="6"/>
-      <c r="D349" s="12"/>
+      <c r="D349" s="9"/>
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
       <c r="G349" s="1"/>
@@ -8325,7 +8407,7 @@
       </c>
       <c r="B350" s="6"/>
       <c r="C350" s="6"/>
-      <c r="D350" s="12"/>
+      <c r="D350" s="9"/>
       <c r="E350" s="1"/>
       <c r="F350" s="1"/>
       <c r="G350" s="1"/>
@@ -8347,7 +8429,7 @@
       </c>
       <c r="B351" s="6"/>
       <c r="C351" s="6"/>
-      <c r="D351" s="12"/>
+      <c r="D351" s="9"/>
       <c r="E351" s="1"/>
       <c r="F351" s="1"/>
       <c r="G351" s="1"/>
@@ -8369,7 +8451,7 @@
       </c>
       <c r="B352" s="6"/>
       <c r="C352" s="6"/>
-      <c r="D352" s="12"/>
+      <c r="D352" s="9"/>
       <c r="E352" s="1"/>
       <c r="F352" s="1"/>
       <c r="G352" s="1"/>
@@ -8391,7 +8473,7 @@
       </c>
       <c r="B353" s="6"/>
       <c r="C353" s="6"/>
-      <c r="D353" s="12"/>
+      <c r="D353" s="9"/>
       <c r="E353" s="1"/>
       <c r="F353" s="1"/>
       <c r="G353" s="1"/>
@@ -8413,7 +8495,7 @@
       </c>
       <c r="B354" s="6"/>
       <c r="C354" s="6"/>
-      <c r="D354" s="12"/>
+      <c r="D354" s="9"/>
       <c r="E354" s="1"/>
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
@@ -8435,7 +8517,7 @@
       </c>
       <c r="B355" s="6"/>
       <c r="C355" s="6"/>
-      <c r="D355" s="12"/>
+      <c r="D355" s="9"/>
       <c r="E355" s="1"/>
       <c r="F355" s="1"/>
       <c r="G355" s="1"/>
@@ -8457,7 +8539,7 @@
       </c>
       <c r="B356" s="6"/>
       <c r="C356" s="6"/>
-      <c r="D356" s="12"/>
+      <c r="D356" s="9"/>
       <c r="E356" s="1"/>
       <c r="F356" s="1"/>
       <c r="G356" s="1"/>
@@ -8479,7 +8561,7 @@
       </c>
       <c r="B357" s="6"/>
       <c r="C357" s="6"/>
-      <c r="D357" s="12"/>
+      <c r="D357" s="9"/>
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
       <c r="G357" s="1"/>
@@ -8501,7 +8583,7 @@
       </c>
       <c r="B358" s="6"/>
       <c r="C358" s="6"/>
-      <c r="D358" s="12"/>
+      <c r="D358" s="9"/>
       <c r="E358" s="1"/>
       <c r="F358" s="1"/>
       <c r="G358" s="1"/>
@@ -8523,7 +8605,7 @@
       </c>
       <c r="B359" s="6"/>
       <c r="C359" s="6"/>
-      <c r="D359" s="12"/>
+      <c r="D359" s="9"/>
       <c r="E359" s="1"/>
       <c r="F359" s="1"/>
       <c r="G359" s="1"/>
@@ -8545,7 +8627,7 @@
       </c>
       <c r="B360" s="6"/>
       <c r="C360" s="6"/>
-      <c r="D360" s="12"/>
+      <c r="D360" s="9"/>
       <c r="E360" s="1"/>
       <c r="F360" s="1"/>
       <c r="G360" s="1"/>
@@ -8567,7 +8649,7 @@
       </c>
       <c r="B361" s="6"/>
       <c r="C361" s="6"/>
-      <c r="D361" s="12"/>
+      <c r="D361" s="9"/>
       <c r="E361" s="1"/>
       <c r="F361" s="1"/>
       <c r="G361" s="1"/>
@@ -8589,7 +8671,7 @@
       </c>
       <c r="B362" s="6"/>
       <c r="C362" s="6"/>
-      <c r="D362" s="12"/>
+      <c r="D362" s="9"/>
       <c r="E362" s="1"/>
       <c r="F362" s="1"/>
       <c r="G362" s="1"/>
@@ -8611,7 +8693,7 @@
       </c>
       <c r="B363" s="6"/>
       <c r="C363" s="6"/>
-      <c r="D363" s="12"/>
+      <c r="D363" s="9"/>
       <c r="E363" s="1"/>
       <c r="F363" s="1"/>
       <c r="G363" s="1"/>
@@ -8633,7 +8715,7 @@
       </c>
       <c r="B364" s="6"/>
       <c r="C364" s="6"/>
-      <c r="D364" s="12"/>
+      <c r="D364" s="9"/>
       <c r="E364" s="1"/>
       <c r="F364" s="1"/>
       <c r="G364" s="1"/>
@@ -8655,7 +8737,7 @@
       </c>
       <c r="B365" s="6"/>
       <c r="C365" s="6"/>
-      <c r="D365" s="12"/>
+      <c r="D365" s="9"/>
       <c r="E365" s="1"/>
       <c r="F365" s="1"/>
       <c r="G365" s="1"/>
@@ -8677,7 +8759,7 @@
       </c>
       <c r="B366" s="6"/>
       <c r="C366" s="6"/>
-      <c r="D366" s="12"/>
+      <c r="D366" s="9"/>
       <c r="E366" s="1"/>
       <c r="F366" s="1"/>
       <c r="G366" s="1"/>
@@ -8699,7 +8781,7 @@
       </c>
       <c r="B367" s="6"/>
       <c r="C367" s="6"/>
-      <c r="D367" s="12"/>
+      <c r="D367" s="9"/>
       <c r="E367" s="1"/>
       <c r="F367" s="1"/>
       <c r="G367" s="1"/>
@@ -8721,7 +8803,7 @@
       </c>
       <c r="B368" s="6"/>
       <c r="C368" s="6"/>
-      <c r="D368" s="12"/>
+      <c r="D368" s="9"/>
       <c r="E368" s="1"/>
       <c r="F368" s="1"/>
       <c r="G368" s="1"/>
@@ -8743,7 +8825,7 @@
       </c>
       <c r="B369" s="6"/>
       <c r="C369" s="6"/>
-      <c r="D369" s="12"/>
+      <c r="D369" s="9"/>
       <c r="E369" s="1"/>
       <c r="F369" s="1"/>
       <c r="G369" s="1"/>
@@ -8765,7 +8847,7 @@
       </c>
       <c r="B370" s="6"/>
       <c r="C370" s="6"/>
-      <c r="D370" s="12"/>
+      <c r="D370" s="9"/>
       <c r="E370" s="1"/>
       <c r="F370" s="1"/>
       <c r="G370" s="1"/>
@@ -8787,7 +8869,7 @@
       </c>
       <c r="B371" s="6"/>
       <c r="C371" s="6"/>
-      <c r="D371" s="12"/>
+      <c r="D371" s="9"/>
       <c r="E371" s="1"/>
       <c r="F371" s="1"/>
       <c r="G371" s="1"/>
@@ -8809,7 +8891,7 @@
       </c>
       <c r="B372" s="6"/>
       <c r="C372" s="6"/>
-      <c r="D372" s="12"/>
+      <c r="D372" s="9"/>
       <c r="E372" s="1"/>
       <c r="F372" s="1"/>
       <c r="G372" s="1"/>
@@ -8831,7 +8913,7 @@
       </c>
       <c r="B373" s="6"/>
       <c r="C373" s="6"/>
-      <c r="D373" s="12"/>
+      <c r="D373" s="9"/>
       <c r="E373" s="1"/>
       <c r="F373" s="1"/>
       <c r="G373" s="1"/>
@@ -8853,7 +8935,7 @@
       </c>
       <c r="B374" s="6"/>
       <c r="C374" s="6"/>
-      <c r="D374" s="12"/>
+      <c r="D374" s="9"/>
       <c r="E374" s="1"/>
       <c r="F374" s="1"/>
       <c r="G374" s="1"/>
@@ -8875,7 +8957,7 @@
       </c>
       <c r="B375" s="6"/>
       <c r="C375" s="6"/>
-      <c r="D375" s="12"/>
+      <c r="D375" s="9"/>
       <c r="E375" s="1"/>
       <c r="F375" s="1"/>
       <c r="G375" s="1"/>
@@ -8897,7 +8979,7 @@
       </c>
       <c r="B376" s="6"/>
       <c r="C376" s="6"/>
-      <c r="D376" s="12"/>
+      <c r="D376" s="9"/>
       <c r="E376" s="1"/>
       <c r="F376" s="1"/>
       <c r="G376" s="1"/>
@@ -8919,7 +9001,7 @@
       </c>
       <c r="B377" s="6"/>
       <c r="C377" s="6"/>
-      <c r="D377" s="12"/>
+      <c r="D377" s="9"/>
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
       <c r="G377" s="1"/>
@@ -8941,7 +9023,7 @@
       </c>
       <c r="B378" s="6"/>
       <c r="C378" s="6"/>
-      <c r="D378" s="12"/>
+      <c r="D378" s="9"/>
       <c r="E378" s="1"/>
       <c r="F378" s="1"/>
       <c r="G378" s="1"/>
@@ -8963,7 +9045,7 @@
       </c>
       <c r="B379" s="6"/>
       <c r="C379" s="6"/>
-      <c r="D379" s="12"/>
+      <c r="D379" s="9"/>
       <c r="E379" s="1"/>
       <c r="F379" s="1"/>
       <c r="G379" s="1"/>
@@ -8985,7 +9067,7 @@
       </c>
       <c r="B380" s="6"/>
       <c r="C380" s="6"/>
-      <c r="D380" s="12"/>
+      <c r="D380" s="9"/>
       <c r="E380" s="1"/>
       <c r="F380" s="1"/>
       <c r="G380" s="1"/>
@@ -9007,7 +9089,7 @@
       </c>
       <c r="B381" s="6"/>
       <c r="C381" s="6"/>
-      <c r="D381" s="12"/>
+      <c r="D381" s="9"/>
       <c r="E381" s="1"/>
       <c r="F381" s="1"/>
       <c r="G381" s="1"/>
@@ -9029,7 +9111,7 @@
       </c>
       <c r="B382" s="6"/>
       <c r="C382" s="6"/>
-      <c r="D382" s="12"/>
+      <c r="D382" s="9"/>
       <c r="E382" s="1"/>
       <c r="F382" s="1"/>
       <c r="G382" s="1"/>
@@ -9051,7 +9133,7 @@
       </c>
       <c r="B383" s="6"/>
       <c r="C383" s="6"/>
-      <c r="D383" s="12"/>
+      <c r="D383" s="9"/>
       <c r="E383" s="1"/>
       <c r="F383" s="1"/>
       <c r="G383" s="1"/>
@@ -9073,7 +9155,7 @@
       </c>
       <c r="B384" s="6"/>
       <c r="C384" s="6"/>
-      <c r="D384" s="12"/>
+      <c r="D384" s="9"/>
       <c r="E384" s="1"/>
       <c r="F384" s="1"/>
       <c r="G384" s="1"/>
@@ -9095,7 +9177,7 @@
       </c>
       <c r="B385" s="6"/>
       <c r="C385" s="6"/>
-      <c r="D385" s="12"/>
+      <c r="D385" s="9"/>
       <c r="E385" s="1"/>
       <c r="F385" s="1"/>
       <c r="G385" s="1"/>
@@ -9117,7 +9199,7 @@
       </c>
       <c r="B386" s="6"/>
       <c r="C386" s="6"/>
-      <c r="D386" s="12"/>
+      <c r="D386" s="9"/>
       <c r="E386" s="1"/>
       <c r="F386" s="1"/>
       <c r="G386" s="1"/>
@@ -9139,7 +9221,7 @@
       </c>
       <c r="B387" s="6"/>
       <c r="C387" s="6"/>
-      <c r="D387" s="12"/>
+      <c r="D387" s="9"/>
       <c r="E387" s="1"/>
       <c r="F387" s="1"/>
       <c r="G387" s="1"/>
@@ -9161,7 +9243,7 @@
       </c>
       <c r="B388" s="6"/>
       <c r="C388" s="6"/>
-      <c r="D388" s="12"/>
+      <c r="D388" s="9"/>
       <c r="E388" s="1"/>
       <c r="F388" s="1"/>
       <c r="G388" s="1"/>
@@ -9183,7 +9265,7 @@
       </c>
       <c r="B389" s="6"/>
       <c r="C389" s="6"/>
-      <c r="D389" s="12"/>
+      <c r="D389" s="9"/>
       <c r="E389" s="1"/>
       <c r="F389" s="1"/>
       <c r="G389" s="1"/>
@@ -9205,7 +9287,7 @@
       </c>
       <c r="B390" s="6"/>
       <c r="C390" s="6"/>
-      <c r="D390" s="12"/>
+      <c r="D390" s="9"/>
       <c r="E390" s="1"/>
       <c r="F390" s="1"/>
       <c r="G390" s="1"/>
@@ -9227,7 +9309,7 @@
       </c>
       <c r="B391" s="6"/>
       <c r="C391" s="6"/>
-      <c r="D391" s="12"/>
+      <c r="D391" s="9"/>
       <c r="E391" s="1"/>
       <c r="F391" s="1"/>
       <c r="G391" s="1"/>
@@ -9249,7 +9331,7 @@
       </c>
       <c r="B392" s="6"/>
       <c r="C392" s="6"/>
-      <c r="D392" s="12"/>
+      <c r="D392" s="9"/>
       <c r="E392" s="1"/>
       <c r="F392" s="1"/>
       <c r="G392" s="1"/>
@@ -9271,7 +9353,7 @@
       </c>
       <c r="B393" s="6"/>
       <c r="C393" s="6"/>
-      <c r="D393" s="12"/>
+      <c r="D393" s="9"/>
       <c r="E393" s="1"/>
       <c r="F393" s="1"/>
       <c r="G393" s="1"/>
@@ -9293,7 +9375,7 @@
       </c>
       <c r="B394" s="6"/>
       <c r="C394" s="6"/>
-      <c r="D394" s="12"/>
+      <c r="D394" s="9"/>
       <c r="E394" s="1"/>
       <c r="F394" s="1"/>
       <c r="G394" s="1"/>
@@ -9315,7 +9397,7 @@
       </c>
       <c r="B395" s="6"/>
       <c r="C395" s="6"/>
-      <c r="D395" s="12"/>
+      <c r="D395" s="9"/>
       <c r="E395" s="1"/>
       <c r="F395" s="1"/>
       <c r="G395" s="1"/>
@@ -9337,7 +9419,7 @@
       </c>
       <c r="B396" s="6"/>
       <c r="C396" s="6"/>
-      <c r="D396" s="12"/>
+      <c r="D396" s="9"/>
       <c r="E396" s="1"/>
       <c r="F396" s="1"/>
       <c r="G396" s="1"/>
@@ -9359,7 +9441,7 @@
       </c>
       <c r="B397" s="6"/>
       <c r="C397" s="6"/>
-      <c r="D397" s="12"/>
+      <c r="D397" s="9"/>
       <c r="E397" s="1"/>
       <c r="F397" s="1"/>
       <c r="G397" s="1"/>
@@ -9381,7 +9463,7 @@
       </c>
       <c r="B398" s="6"/>
       <c r="C398" s="6"/>
-      <c r="D398" s="12"/>
+      <c r="D398" s="9"/>
       <c r="E398" s="1"/>
       <c r="F398" s="1"/>
       <c r="G398" s="1"/>
@@ -9403,7 +9485,7 @@
       </c>
       <c r="B399" s="6"/>
       <c r="C399" s="6"/>
-      <c r="D399" s="12"/>
+      <c r="D399" s="9"/>
       <c r="E399" s="1"/>
       <c r="F399" s="1"/>
       <c r="G399" s="1"/>
@@ -9425,7 +9507,7 @@
       </c>
       <c r="B400" s="6"/>
       <c r="C400" s="6"/>
-      <c r="D400" s="12"/>
+      <c r="D400" s="9"/>
       <c r="E400" s="1"/>
       <c r="F400" s="1"/>
       <c r="G400" s="1"/>
@@ -9447,7 +9529,7 @@
       </c>
       <c r="B401" s="6"/>
       <c r="C401" s="6"/>
-      <c r="D401" s="12"/>
+      <c r="D401" s="9"/>
       <c r="E401" s="1"/>
       <c r="F401" s="1"/>
       <c r="G401" s="1"/>
@@ -9469,7 +9551,7 @@
       </c>
       <c r="B402" s="6"/>
       <c r="C402" s="6"/>
-      <c r="D402" s="12"/>
+      <c r="D402" s="9"/>
       <c r="E402" s="1"/>
       <c r="F402" s="1"/>
       <c r="G402" s="1"/>
@@ -9491,7 +9573,7 @@
       </c>
       <c r="B403" s="6"/>
       <c r="C403" s="6"/>
-      <c r="D403" s="12"/>
+      <c r="D403" s="9"/>
       <c r="E403" s="1"/>
       <c r="F403" s="1"/>
       <c r="G403" s="1"/>
@@ -9513,7 +9595,7 @@
       </c>
       <c r="B404" s="6"/>
       <c r="C404" s="6"/>
-      <c r="D404" s="12"/>
+      <c r="D404" s="9"/>
       <c r="E404" s="1"/>
       <c r="F404" s="1"/>
       <c r="G404" s="1"/>
@@ -9535,7 +9617,7 @@
       </c>
       <c r="B405" s="6"/>
       <c r="C405" s="6"/>
-      <c r="D405" s="12"/>
+      <c r="D405" s="9"/>
       <c r="E405" s="1"/>
       <c r="F405" s="1"/>
       <c r="G405" s="1"/>
@@ -9557,7 +9639,7 @@
       </c>
       <c r="B406" s="6"/>
       <c r="C406" s="6"/>
-      <c r="D406" s="12"/>
+      <c r="D406" s="9"/>
       <c r="E406" s="1"/>
       <c r="F406" s="1"/>
       <c r="G406" s="1"/>
@@ -9579,7 +9661,7 @@
       </c>
       <c r="B407" s="6"/>
       <c r="C407" s="6"/>
-      <c r="D407" s="12"/>
+      <c r="D407" s="9"/>
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
       <c r="G407" s="1"/>
@@ -9601,7 +9683,7 @@
       </c>
       <c r="B408" s="6"/>
       <c r="C408" s="6"/>
-      <c r="D408" s="12"/>
+      <c r="D408" s="9"/>
       <c r="E408" s="1"/>
       <c r="F408" s="1"/>
       <c r="G408" s="1"/>
@@ -9623,7 +9705,7 @@
       </c>
       <c r="B409" s="6"/>
       <c r="C409" s="6"/>
-      <c r="D409" s="12"/>
+      <c r="D409" s="9"/>
       <c r="E409" s="1"/>
       <c r="F409" s="1"/>
       <c r="G409" s="1"/>
@@ -9645,7 +9727,7 @@
       </c>
       <c r="B410" s="6"/>
       <c r="C410" s="6"/>
-      <c r="D410" s="12"/>
+      <c r="D410" s="9"/>
       <c r="E410" s="1"/>
       <c r="F410" s="1"/>
       <c r="G410" s="1"/>
@@ -9667,7 +9749,7 @@
       </c>
       <c r="B411" s="6"/>
       <c r="C411" s="6"/>
-      <c r="D411" s="12"/>
+      <c r="D411" s="9"/>
       <c r="E411" s="1"/>
       <c r="F411" s="1"/>
       <c r="G411" s="1"/>
@@ -9689,7 +9771,7 @@
       </c>
       <c r="B412" s="6"/>
       <c r="C412" s="6"/>
-      <c r="D412" s="12"/>
+      <c r="D412" s="9"/>
       <c r="E412" s="1"/>
       <c r="F412" s="1"/>
       <c r="G412" s="1"/>
@@ -9711,7 +9793,7 @@
       </c>
       <c r="B413" s="6"/>
       <c r="C413" s="6"/>
-      <c r="D413" s="12"/>
+      <c r="D413" s="9"/>
       <c r="E413" s="1"/>
       <c r="F413" s="1"/>
       <c r="G413" s="1"/>
@@ -9733,7 +9815,7 @@
       </c>
       <c r="B414" s="6"/>
       <c r="C414" s="6"/>
-      <c r="D414" s="12"/>
+      <c r="D414" s="9"/>
       <c r="E414" s="1"/>
       <c r="F414" s="1"/>
       <c r="G414" s="1"/>
@@ -9755,7 +9837,7 @@
       </c>
       <c r="B415" s="6"/>
       <c r="C415" s="6"/>
-      <c r="D415" s="12"/>
+      <c r="D415" s="9"/>
       <c r="E415" s="1"/>
       <c r="F415" s="1"/>
       <c r="G415" s="1"/>
@@ -9777,7 +9859,7 @@
       </c>
       <c r="B416" s="6"/>
       <c r="C416" s="6"/>
-      <c r="D416" s="12"/>
+      <c r="D416" s="9"/>
       <c r="E416" s="1"/>
       <c r="F416" s="1"/>
       <c r="G416" s="1"/>
@@ -9799,7 +9881,7 @@
       </c>
       <c r="B417" s="6"/>
       <c r="C417" s="6"/>
-      <c r="D417" s="12"/>
+      <c r="D417" s="9"/>
       <c r="E417" s="1"/>
       <c r="F417" s="1"/>
       <c r="G417" s="1"/>
@@ -9821,7 +9903,7 @@
       </c>
       <c r="B418" s="6"/>
       <c r="C418" s="6"/>
-      <c r="D418" s="12"/>
+      <c r="D418" s="9"/>
       <c r="E418" s="1"/>
       <c r="F418" s="1"/>
       <c r="G418" s="1"/>
@@ -9843,7 +9925,7 @@
       </c>
       <c r="B419" s="6"/>
       <c r="C419" s="6"/>
-      <c r="D419" s="12"/>
+      <c r="D419" s="9"/>
       <c r="E419" s="1"/>
       <c r="F419" s="1"/>
       <c r="G419" s="1"/>
@@ -9865,7 +9947,7 @@
       </c>
       <c r="B420" s="6"/>
       <c r="C420" s="6"/>
-      <c r="D420" s="12"/>
+      <c r="D420" s="9"/>
       <c r="E420" s="1"/>
       <c r="F420" s="1"/>
       <c r="G420" s="1"/>
@@ -9887,7 +9969,7 @@
       </c>
       <c r="B421" s="6"/>
       <c r="C421" s="6"/>
-      <c r="D421" s="12"/>
+      <c r="D421" s="9"/>
       <c r="E421" s="1"/>
       <c r="F421" s="1"/>
       <c r="G421" s="1"/>
@@ -9909,7 +9991,7 @@
       </c>
       <c r="B422" s="6"/>
       <c r="C422" s="6"/>
-      <c r="D422" s="12"/>
+      <c r="D422" s="9"/>
       <c r="E422" s="1"/>
       <c r="F422" s="1"/>
       <c r="G422" s="1"/>
@@ -9931,7 +10013,7 @@
       </c>
       <c r="B423" s="6"/>
       <c r="C423" s="6"/>
-      <c r="D423" s="12"/>
+      <c r="D423" s="9"/>
       <c r="E423" s="1"/>
       <c r="F423" s="1"/>
       <c r="G423" s="1"/>
@@ -9953,7 +10035,7 @@
       </c>
       <c r="B424" s="6"/>
       <c r="C424" s="6"/>
-      <c r="D424" s="12"/>
+      <c r="D424" s="9"/>
       <c r="E424" s="1"/>
       <c r="F424" s="1"/>
       <c r="G424" s="1"/>
@@ -9975,7 +10057,7 @@
       </c>
       <c r="B425" s="6"/>
       <c r="C425" s="6"/>
-      <c r="D425" s="12"/>
+      <c r="D425" s="9"/>
       <c r="E425" s="1"/>
       <c r="F425" s="1"/>
       <c r="G425" s="1"/>
@@ -9997,7 +10079,7 @@
       </c>
       <c r="B426" s="6"/>
       <c r="C426" s="6"/>
-      <c r="D426" s="12"/>
+      <c r="D426" s="9"/>
       <c r="E426" s="1"/>
       <c r="F426" s="1"/>
       <c r="G426" s="1"/>
@@ -10019,7 +10101,7 @@
       </c>
       <c r="B427" s="6"/>
       <c r="C427" s="6"/>
-      <c r="D427" s="12"/>
+      <c r="D427" s="9"/>
       <c r="E427" s="1"/>
       <c r="F427" s="1"/>
       <c r="G427" s="1"/>
@@ -10041,7 +10123,7 @@
       </c>
       <c r="B428" s="6"/>
       <c r="C428" s="6"/>
-      <c r="D428" s="12"/>
+      <c r="D428" s="9"/>
       <c r="E428" s="1"/>
       <c r="F428" s="1"/>
       <c r="G428" s="1"/>
@@ -10063,7 +10145,7 @@
       </c>
       <c r="B429" s="6"/>
       <c r="C429" s="6"/>
-      <c r="D429" s="12"/>
+      <c r="D429" s="9"/>
       <c r="E429" s="1"/>
       <c r="F429" s="1"/>
       <c r="G429" s="1"/>
@@ -10085,7 +10167,7 @@
       </c>
       <c r="B430" s="6"/>
       <c r="C430" s="6"/>
-      <c r="D430" s="12"/>
+      <c r="D430" s="9"/>
       <c r="E430" s="1"/>
       <c r="F430" s="1"/>
       <c r="G430" s="1"/>
@@ -10107,7 +10189,7 @@
       </c>
       <c r="B431" s="6"/>
       <c r="C431" s="6"/>
-      <c r="D431" s="12"/>
+      <c r="D431" s="9"/>
       <c r="E431" s="1"/>
       <c r="F431" s="1"/>
       <c r="G431" s="1"/>
@@ -10129,7 +10211,7 @@
       </c>
       <c r="B432" s="6"/>
       <c r="C432" s="6"/>
-      <c r="D432" s="12"/>
+      <c r="D432" s="9"/>
       <c r="E432" s="1"/>
       <c r="F432" s="1"/>
       <c r="G432" s="1"/>
@@ -10151,7 +10233,7 @@
       </c>
       <c r="B433" s="6"/>
       <c r="C433" s="6"/>
-      <c r="D433" s="12"/>
+      <c r="D433" s="9"/>
       <c r="E433" s="1"/>
       <c r="F433" s="1"/>
       <c r="G433" s="1"/>
@@ -10173,7 +10255,7 @@
       </c>
       <c r="B434" s="6"/>
       <c r="C434" s="6"/>
-      <c r="D434" s="12"/>
+      <c r="D434" s="9"/>
       <c r="E434" s="1"/>
       <c r="F434" s="1"/>
       <c r="G434" s="1"/>
@@ -10195,7 +10277,7 @@
       </c>
       <c r="B435" s="6"/>
       <c r="C435" s="6"/>
-      <c r="D435" s="12"/>
+      <c r="D435" s="9"/>
       <c r="E435" s="1"/>
       <c r="F435" s="1"/>
       <c r="G435" s="1"/>
@@ -10217,7 +10299,7 @@
       </c>
       <c r="B436" s="6"/>
       <c r="C436" s="6"/>
-      <c r="D436" s="12"/>
+      <c r="D436" s="9"/>
       <c r="E436" s="1"/>
       <c r="F436" s="1"/>
       <c r="G436" s="1"/>
@@ -10239,7 +10321,7 @@
       </c>
       <c r="B437" s="6"/>
       <c r="C437" s="6"/>
-      <c r="D437" s="12"/>
+      <c r="D437" s="9"/>
       <c r="E437" s="1"/>
       <c r="F437" s="1"/>
       <c r="G437" s="1"/>
@@ -10261,7 +10343,7 @@
       </c>
       <c r="B438" s="6"/>
       <c r="C438" s="6"/>
-      <c r="D438" s="12"/>
+      <c r="D438" s="9"/>
       <c r="E438" s="1"/>
       <c r="F438" s="1"/>
       <c r="G438" s="1"/>
@@ -10283,7 +10365,7 @@
       </c>
       <c r="B439" s="6"/>
       <c r="C439" s="6"/>
-      <c r="D439" s="12"/>
+      <c r="D439" s="9"/>
       <c r="E439" s="1"/>
       <c r="F439" s="1"/>
       <c r="G439" s="1"/>
@@ -10305,7 +10387,7 @@
       </c>
       <c r="B440" s="6"/>
       <c r="C440" s="6"/>
-      <c r="D440" s="12"/>
+      <c r="D440" s="9"/>
       <c r="E440" s="1"/>
       <c r="F440" s="1"/>
       <c r="G440" s="1"/>
@@ -10327,7 +10409,7 @@
       </c>
       <c r="B441" s="6"/>
       <c r="C441" s="6"/>
-      <c r="D441" s="12"/>
+      <c r="D441" s="9"/>
       <c r="E441" s="1"/>
       <c r="F441" s="1"/>
       <c r="G441" s="1"/>
@@ -10349,7 +10431,7 @@
       </c>
       <c r="B442" s="6"/>
       <c r="C442" s="6"/>
-      <c r="D442" s="12"/>
+      <c r="D442" s="9"/>
       <c r="E442" s="1"/>
       <c r="F442" s="1"/>
       <c r="G442" s="1"/>
@@ -10371,7 +10453,7 @@
       </c>
       <c r="B443" s="6"/>
       <c r="C443" s="6"/>
-      <c r="D443" s="12"/>
+      <c r="D443" s="9"/>
       <c r="E443" s="1"/>
       <c r="F443" s="1"/>
       <c r="G443" s="1"/>
@@ -10393,7 +10475,7 @@
       </c>
       <c r="B444" s="6"/>
       <c r="C444" s="6"/>
-      <c r="D444" s="12"/>
+      <c r="D444" s="9"/>
       <c r="E444" s="1"/>
       <c r="F444" s="1"/>
       <c r="G444" s="1"/>
@@ -10415,7 +10497,7 @@
       </c>
       <c r="B445" s="6"/>
       <c r="C445" s="6"/>
-      <c r="D445" s="12"/>
+      <c r="D445" s="9"/>
       <c r="E445" s="1"/>
       <c r="F445" s="1"/>
       <c r="G445" s="1"/>
@@ -10437,7 +10519,7 @@
       </c>
       <c r="B446" s="6"/>
       <c r="C446" s="6"/>
-      <c r="D446" s="12"/>
+      <c r="D446" s="9"/>
       <c r="E446" s="1"/>
       <c r="F446" s="1"/>
       <c r="G446" s="1"/>
@@ -10459,7 +10541,7 @@
       </c>
       <c r="B447" s="6"/>
       <c r="C447" s="6"/>
-      <c r="D447" s="12"/>
+      <c r="D447" s="9"/>
       <c r="E447" s="1"/>
       <c r="F447" s="1"/>
       <c r="G447" s="1"/>
@@ -10481,7 +10563,7 @@
       </c>
       <c r="B448" s="6"/>
       <c r="C448" s="6"/>
-      <c r="D448" s="12"/>
+      <c r="D448" s="9"/>
       <c r="E448" s="1"/>
       <c r="F448" s="1"/>
       <c r="G448" s="1"/>
@@ -10503,7 +10585,7 @@
       </c>
       <c r="B449" s="6"/>
       <c r="C449" s="6"/>
-      <c r="D449" s="12"/>
+      <c r="D449" s="9"/>
       <c r="E449" s="1"/>
       <c r="F449" s="1"/>
       <c r="G449" s="1"/>
@@ -10525,7 +10607,7 @@
       </c>
       <c r="B450" s="6"/>
       <c r="C450" s="6"/>
-      <c r="D450" s="12"/>
+      <c r="D450" s="9"/>
       <c r="E450" s="1"/>
       <c r="F450" s="1"/>
       <c r="G450" s="1"/>
@@ -10547,7 +10629,7 @@
       </c>
       <c r="B451" s="6"/>
       <c r="C451" s="6"/>
-      <c r="D451" s="12"/>
+      <c r="D451" s="9"/>
       <c r="E451" s="1"/>
       <c r="F451" s="1"/>
       <c r="G451" s="1"/>
@@ -10569,7 +10651,7 @@
       </c>
       <c r="B452" s="6"/>
       <c r="C452" s="6"/>
-      <c r="D452" s="12"/>
+      <c r="D452" s="9"/>
       <c r="E452" s="1"/>
       <c r="F452" s="1"/>
       <c r="G452" s="1"/>
@@ -10591,7 +10673,7 @@
       </c>
       <c r="B453" s="6"/>
       <c r="C453" s="6"/>
-      <c r="D453" s="12"/>
+      <c r="D453" s="9"/>
       <c r="E453" s="1"/>
       <c r="F453" s="1"/>
       <c r="G453" s="1"/>
@@ -10613,7 +10695,7 @@
       </c>
       <c r="B454" s="6"/>
       <c r="C454" s="6"/>
-      <c r="D454" s="12"/>
+      <c r="D454" s="9"/>
       <c r="E454" s="1"/>
       <c r="F454" s="1"/>
       <c r="G454" s="1"/>
@@ -10635,7 +10717,7 @@
       </c>
       <c r="B455" s="6"/>
       <c r="C455" s="6"/>
-      <c r="D455" s="12"/>
+      <c r="D455" s="9"/>
       <c r="E455" s="1"/>
       <c r="F455" s="1"/>
       <c r="G455" s="1"/>
@@ -10657,7 +10739,7 @@
       </c>
       <c r="B456" s="6"/>
       <c r="C456" s="6"/>
-      <c r="D456" s="12"/>
+      <c r="D456" s="9"/>
       <c r="E456" s="1"/>
       <c r="F456" s="1"/>
       <c r="G456" s="1"/>
@@ -10679,7 +10761,7 @@
       </c>
       <c r="B457" s="6"/>
       <c r="C457" s="6"/>
-      <c r="D457" s="12"/>
+      <c r="D457" s="9"/>
       <c r="E457" s="1"/>
       <c r="F457" s="1"/>
       <c r="G457" s="1"/>
@@ -10701,7 +10783,7 @@
       </c>
       <c r="B458" s="6"/>
       <c r="C458" s="6"/>
-      <c r="D458" s="12"/>
+      <c r="D458" s="9"/>
       <c r="E458" s="1"/>
       <c r="F458" s="1"/>
       <c r="G458" s="1"/>
@@ -10723,7 +10805,7 @@
       </c>
       <c r="B459" s="6"/>
       <c r="C459" s="6"/>
-      <c r="D459" s="12"/>
+      <c r="D459" s="9"/>
       <c r="E459" s="1"/>
       <c r="F459" s="1"/>
       <c r="G459" s="1"/>
@@ -10745,7 +10827,7 @@
       </c>
       <c r="B460" s="6"/>
       <c r="C460" s="6"/>
-      <c r="D460" s="12"/>
+      <c r="D460" s="9"/>
       <c r="E460" s="1"/>
       <c r="F460" s="1"/>
       <c r="G460" s="1"/>
@@ -10767,7 +10849,7 @@
       </c>
       <c r="B461" s="6"/>
       <c r="C461" s="6"/>
-      <c r="D461" s="12"/>
+      <c r="D461" s="9"/>
       <c r="E461" s="1"/>
       <c r="F461" s="1"/>
       <c r="G461" s="1"/>
@@ -10789,7 +10871,7 @@
       </c>
       <c r="B462" s="6"/>
       <c r="C462" s="6"/>
-      <c r="D462" s="12"/>
+      <c r="D462" s="9"/>
       <c r="E462" s="1"/>
       <c r="F462" s="1"/>
       <c r="G462" s="1"/>
@@ -10811,7 +10893,7 @@
       </c>
       <c r="B463" s="6"/>
       <c r="C463" s="6"/>
-      <c r="D463" s="12"/>
+      <c r="D463" s="9"/>
       <c r="E463" s="1"/>
       <c r="F463" s="1"/>
       <c r="G463" s="1"/>
@@ -10833,7 +10915,7 @@
       </c>
       <c r="B464" s="6"/>
       <c r="C464" s="6"/>
-      <c r="D464" s="12"/>
+      <c r="D464" s="9"/>
       <c r="E464" s="1"/>
       <c r="F464" s="1"/>
       <c r="G464" s="1"/>
@@ -10855,7 +10937,7 @@
       </c>
       <c r="B465" s="6"/>
       <c r="C465" s="6"/>
-      <c r="D465" s="12"/>
+      <c r="D465" s="9"/>
       <c r="E465" s="1"/>
       <c r="F465" s="1"/>
       <c r="G465" s="1"/>
@@ -10877,7 +10959,7 @@
       </c>
       <c r="B466" s="6"/>
       <c r="C466" s="6"/>
-      <c r="D466" s="12"/>
+      <c r="D466" s="9"/>
       <c r="E466" s="1"/>
       <c r="F466" s="1"/>
       <c r="G466" s="1"/>
@@ -10899,7 +10981,7 @@
       </c>
       <c r="B467" s="6"/>
       <c r="C467" s="6"/>
-      <c r="D467" s="12"/>
+      <c r="D467" s="9"/>
       <c r="E467" s="1"/>
       <c r="F467" s="1"/>
       <c r="G467" s="1"/>
@@ -10921,7 +11003,7 @@
       </c>
       <c r="B468" s="6"/>
       <c r="C468" s="6"/>
-      <c r="D468" s="12"/>
+      <c r="D468" s="9"/>
       <c r="E468" s="1"/>
       <c r="F468" s="1"/>
       <c r="G468" s="1"/>
@@ -10943,7 +11025,7 @@
       </c>
       <c r="B469" s="6"/>
       <c r="C469" s="6"/>
-      <c r="D469" s="12"/>
+      <c r="D469" s="9"/>
       <c r="E469" s="1"/>
       <c r="F469" s="1"/>
       <c r="G469" s="1"/>
@@ -10965,7 +11047,7 @@
       </c>
       <c r="B470" s="6"/>
       <c r="C470" s="6"/>
-      <c r="D470" s="12"/>
+      <c r="D470" s="9"/>
       <c r="E470" s="1"/>
       <c r="F470" s="1"/>
       <c r="G470" s="1"/>
@@ -10987,7 +11069,7 @@
       </c>
       <c r="B471" s="6"/>
       <c r="C471" s="6"/>
-      <c r="D471" s="12"/>
+      <c r="D471" s="9"/>
       <c r="E471" s="1"/>
       <c r="F471" s="1"/>
       <c r="G471" s="1"/>
@@ -11009,7 +11091,7 @@
       </c>
       <c r="B472" s="6"/>
       <c r="C472" s="6"/>
-      <c r="D472" s="12"/>
+      <c r="D472" s="9"/>
       <c r="E472" s="1"/>
       <c r="F472" s="1"/>
       <c r="G472" s="1"/>
@@ -11031,7 +11113,7 @@
       </c>
       <c r="B473" s="6"/>
       <c r="C473" s="6"/>
-      <c r="D473" s="12"/>
+      <c r="D473" s="9"/>
       <c r="E473" s="1"/>
       <c r="F473" s="1"/>
       <c r="G473" s="1"/>
@@ -11053,7 +11135,7 @@
       </c>
       <c r="B474" s="6"/>
       <c r="C474" s="6"/>
-      <c r="D474" s="12"/>
+      <c r="D474" s="9"/>
       <c r="E474" s="1"/>
       <c r="F474" s="1"/>
       <c r="G474" s="1"/>
@@ -11075,7 +11157,7 @@
       </c>
       <c r="B475" s="6"/>
       <c r="C475" s="6"/>
-      <c r="D475" s="12"/>
+      <c r="D475" s="9"/>
       <c r="E475" s="1"/>
       <c r="F475" s="1"/>
       <c r="G475" s="1"/>
@@ -11097,7 +11179,7 @@
       </c>
       <c r="B476" s="6"/>
       <c r="C476" s="6"/>
-      <c r="D476" s="12"/>
+      <c r="D476" s="9"/>
       <c r="E476" s="1"/>
       <c r="F476" s="1"/>
       <c r="G476" s="1"/>
@@ -11119,7 +11201,7 @@
       </c>
       <c r="B477" s="6"/>
       <c r="C477" s="6"/>
-      <c r="D477" s="12"/>
+      <c r="D477" s="9"/>
       <c r="E477" s="1"/>
       <c r="F477" s="1"/>
       <c r="G477" s="1"/>
@@ -11141,7 +11223,7 @@
       </c>
       <c r="B478" s="6"/>
       <c r="C478" s="6"/>
-      <c r="D478" s="12"/>
+      <c r="D478" s="9"/>
       <c r="E478" s="1"/>
       <c r="F478" s="1"/>
       <c r="G478" s="1"/>
@@ -11163,7 +11245,7 @@
       </c>
       <c r="B479" s="6"/>
       <c r="C479" s="6"/>
-      <c r="D479" s="12"/>
+      <c r="D479" s="9"/>
       <c r="E479" s="1"/>
       <c r="F479" s="1"/>
       <c r="G479" s="1"/>
@@ -11185,7 +11267,7 @@
       </c>
       <c r="B480" s="6"/>
       <c r="C480" s="6"/>
-      <c r="D480" s="12"/>
+      <c r="D480" s="9"/>
       <c r="E480" s="1"/>
       <c r="F480" s="1"/>
       <c r="G480" s="1"/>
@@ -11207,7 +11289,7 @@
       </c>
       <c r="B481" s="6"/>
       <c r="C481" s="6"/>
-      <c r="D481" s="12"/>
+      <c r="D481" s="9"/>
       <c r="E481" s="1"/>
       <c r="F481" s="1"/>
       <c r="G481" s="1"/>
@@ -11229,7 +11311,7 @@
       </c>
       <c r="B482" s="6"/>
       <c r="C482" s="6"/>
-      <c r="D482" s="12"/>
+      <c r="D482" s="9"/>
       <c r="E482" s="1"/>
       <c r="F482" s="1"/>
       <c r="G482" s="1"/>
@@ -11251,7 +11333,7 @@
       </c>
       <c r="B483" s="6"/>
       <c r="C483" s="6"/>
-      <c r="D483" s="12"/>
+      <c r="D483" s="9"/>
       <c r="E483" s="1"/>
       <c r="F483" s="1"/>
       <c r="G483" s="1"/>
@@ -11273,7 +11355,7 @@
       </c>
       <c r="B484" s="6"/>
       <c r="C484" s="6"/>
-      <c r="D484" s="12"/>
+      <c r="D484" s="9"/>
       <c r="E484" s="1"/>
       <c r="F484" s="1"/>
       <c r="G484" s="1"/>
@@ -11295,7 +11377,7 @@
       </c>
       <c r="B485" s="6"/>
       <c r="C485" s="6"/>
-      <c r="D485" s="12"/>
+      <c r="D485" s="9"/>
       <c r="E485" s="1"/>
       <c r="F485" s="1"/>
       <c r="G485" s="1"/>
@@ -11317,7 +11399,7 @@
       </c>
       <c r="B486" s="6"/>
       <c r="C486" s="6"/>
-      <c r="D486" s="12"/>
+      <c r="D486" s="9"/>
       <c r="E486" s="1"/>
       <c r="F486" s="1"/>
       <c r="G486" s="1"/>
@@ -11339,7 +11421,7 @@
       </c>
       <c r="B487" s="6"/>
       <c r="C487" s="6"/>
-      <c r="D487" s="12"/>
+      <c r="D487" s="9"/>
       <c r="E487" s="1"/>
       <c r="F487" s="1"/>
       <c r="G487" s="1"/>
@@ -11361,7 +11443,7 @@
       </c>
       <c r="B488" s="6"/>
       <c r="C488" s="6"/>
-      <c r="D488" s="12"/>
+      <c r="D488" s="9"/>
       <c r="E488" s="1"/>
       <c r="F488" s="1"/>
       <c r="G488" s="1"/>
@@ -11383,7 +11465,7 @@
       </c>
       <c r="B489" s="6"/>
       <c r="C489" s="6"/>
-      <c r="D489" s="12"/>
+      <c r="D489" s="9"/>
       <c r="E489" s="1"/>
       <c r="F489" s="1"/>
       <c r="G489" s="1"/>
@@ -11405,7 +11487,7 @@
       </c>
       <c r="B490" s="6"/>
       <c r="C490" s="6"/>
-      <c r="D490" s="12"/>
+      <c r="D490" s="9"/>
       <c r="E490" s="1"/>
       <c r="F490" s="1"/>
       <c r="G490" s="1"/>
@@ -11427,7 +11509,7 @@
       </c>
       <c r="B491" s="6"/>
       <c r="C491" s="6"/>
-      <c r="D491" s="12"/>
+      <c r="D491" s="9"/>
       <c r="E491" s="1"/>
       <c r="F491" s="1"/>
       <c r="G491" s="1"/>
@@ -11449,7 +11531,7 @@
       </c>
       <c r="B492" s="6"/>
       <c r="C492" s="6"/>
-      <c r="D492" s="12"/>
+      <c r="D492" s="9"/>
       <c r="E492" s="1"/>
       <c r="F492" s="1"/>
       <c r="G492" s="1"/>
@@ -11471,7 +11553,7 @@
       </c>
       <c r="B493" s="6"/>
       <c r="C493" s="6"/>
-      <c r="D493" s="12"/>
+      <c r="D493" s="9"/>
       <c r="E493" s="1"/>
       <c r="F493" s="1"/>
       <c r="G493" s="1"/>
@@ -11493,7 +11575,7 @@
       </c>
       <c r="B494" s="6"/>
       <c r="C494" s="6"/>
-      <c r="D494" s="12"/>
+      <c r="D494" s="9"/>
       <c r="E494" s="1"/>
       <c r="F494" s="1"/>
       <c r="G494" s="1"/>
@@ -11515,7 +11597,7 @@
       </c>
       <c r="B495" s="6"/>
       <c r="C495" s="6"/>
-      <c r="D495" s="12"/>
+      <c r="D495" s="9"/>
       <c r="E495" s="1"/>
       <c r="F495" s="1"/>
       <c r="G495" s="1"/>
@@ -11537,7 +11619,7 @@
       </c>
       <c r="B496" s="6"/>
       <c r="C496" s="6"/>
-      <c r="D496" s="12"/>
+      <c r="D496" s="9"/>
       <c r="E496" s="1"/>
       <c r="F496" s="1"/>
       <c r="G496" s="1"/>
@@ -11559,7 +11641,7 @@
       </c>
       <c r="B497" s="6"/>
       <c r="C497" s="6"/>
-      <c r="D497" s="12"/>
+      <c r="D497" s="9"/>
       <c r="E497" s="1"/>
       <c r="F497" s="1"/>
       <c r="G497" s="1"/>
@@ -11581,7 +11663,7 @@
       </c>
       <c r="B498" s="6"/>
       <c r="C498" s="6"/>
-      <c r="D498" s="12"/>
+      <c r="D498" s="9"/>
       <c r="E498" s="1"/>
       <c r="F498" s="1"/>
       <c r="G498" s="1"/>
@@ -11603,7 +11685,7 @@
       </c>
       <c r="B499" s="6"/>
       <c r="C499" s="6"/>
-      <c r="D499" s="12"/>
+      <c r="D499" s="9"/>
       <c r="E499" s="1"/>
       <c r="F499" s="1"/>
       <c r="G499" s="1"/>
@@ -11625,7 +11707,7 @@
       </c>
       <c r="B500" s="6"/>
       <c r="C500" s="6"/>
-      <c r="D500" s="12"/>
+      <c r="D500" s="9"/>
       <c r="E500" s="1"/>
       <c r="F500" s="1"/>
       <c r="G500" s="1"/>
@@ -11647,7 +11729,7 @@
       </c>
       <c r="B501" s="6"/>
       <c r="C501" s="6"/>
-      <c r="D501" s="12"/>
+      <c r="D501" s="9"/>
       <c r="E501" s="1"/>
       <c r="F501" s="1"/>
       <c r="G501" s="1"/>
@@ -11669,7 +11751,7 @@
       </c>
       <c r="B502" s="6"/>
       <c r="C502" s="6"/>
-      <c r="D502" s="12"/>
+      <c r="D502" s="9"/>
       <c r="E502" s="1"/>
       <c r="F502" s="1"/>
       <c r="G502" s="1"/>
@@ -11691,7 +11773,7 @@
       </c>
       <c r="B503" s="6"/>
       <c r="C503" s="6"/>
-      <c r="D503" s="12"/>
+      <c r="D503" s="9"/>
       <c r="E503" s="1"/>
       <c r="F503" s="1"/>
       <c r="G503" s="1"/>
@@ -11713,7 +11795,7 @@
       </c>
       <c r="B504" s="6"/>
       <c r="C504" s="6"/>
-      <c r="D504" s="12"/>
+      <c r="D504" s="9"/>
       <c r="E504" s="1"/>
       <c r="F504" s="1"/>
       <c r="G504" s="1"/>
@@ -11735,7 +11817,7 @@
       </c>
       <c r="B505" s="6"/>
       <c r="C505" s="6"/>
-      <c r="D505" s="12"/>
+      <c r="D505" s="9"/>
       <c r="E505" s="1"/>
       <c r="F505" s="1"/>
       <c r="G505" s="1"/>
@@ -11757,7 +11839,7 @@
       </c>
       <c r="B506" s="6"/>
       <c r="C506" s="6"/>
-      <c r="D506" s="12"/>
+      <c r="D506" s="9"/>
       <c r="E506" s="1"/>
       <c r="F506" s="1"/>
       <c r="G506" s="1"/>
@@ -11779,7 +11861,7 @@
       </c>
       <c r="B507" s="6"/>
       <c r="C507" s="6"/>
-      <c r="D507" s="12"/>
+      <c r="D507" s="9"/>
       <c r="E507" s="1"/>
       <c r="F507" s="1"/>
       <c r="G507" s="1"/>
@@ -11801,7 +11883,7 @@
       </c>
       <c r="B508" s="6"/>
       <c r="C508" s="6"/>
-      <c r="D508" s="12"/>
+      <c r="D508" s="9"/>
       <c r="E508" s="1"/>
       <c r="F508" s="1"/>
       <c r="G508" s="1"/>
@@ -11823,7 +11905,7 @@
       </c>
       <c r="B509" s="6"/>
       <c r="C509" s="6"/>
-      <c r="D509" s="12"/>
+      <c r="D509" s="9"/>
       <c r="E509" s="1"/>
       <c r="F509" s="1"/>
       <c r="G509" s="1"/>
@@ -11845,7 +11927,7 @@
       </c>
       <c r="B510" s="6"/>
       <c r="C510" s="6"/>
-      <c r="D510" s="12"/>
+      <c r="D510" s="9"/>
       <c r="E510" s="1"/>
       <c r="F510" s="1"/>
       <c r="G510" s="1"/>
@@ -11867,7 +11949,7 @@
       </c>
       <c r="B511" s="6"/>
       <c r="C511" s="6"/>
-      <c r="D511" s="12"/>
+      <c r="D511" s="9"/>
       <c r="E511" s="1"/>
       <c r="F511" s="1"/>
       <c r="G511" s="1"/>
@@ -11889,7 +11971,7 @@
       </c>
       <c r="B512" s="6"/>
       <c r="C512" s="6"/>
-      <c r="D512" s="12"/>
+      <c r="D512" s="9"/>
       <c r="E512" s="1"/>
       <c r="F512" s="1"/>
       <c r="G512" s="1"/>
@@ -11911,7 +11993,7 @@
       </c>
       <c r="B513" s="6"/>
       <c r="C513" s="6"/>
-      <c r="D513" s="12"/>
+      <c r="D513" s="9"/>
       <c r="E513" s="1"/>
       <c r="F513" s="1"/>
       <c r="G513" s="1"/>
@@ -11933,7 +12015,7 @@
       </c>
       <c r="B514" s="6"/>
       <c r="C514" s="6"/>
-      <c r="D514" s="12"/>
+      <c r="D514" s="9"/>
       <c r="E514" s="1"/>
       <c r="F514" s="1"/>
       <c r="G514" s="1"/>
@@ -11955,7 +12037,7 @@
       </c>
       <c r="B515" s="6"/>
       <c r="C515" s="6"/>
-      <c r="D515" s="12"/>
+      <c r="D515" s="9"/>
       <c r="E515" s="1"/>
       <c r="F515" s="1"/>
       <c r="G515" s="1"/>
@@ -11977,7 +12059,7 @@
       </c>
       <c r="B516" s="6"/>
       <c r="C516" s="6"/>
-      <c r="D516" s="12"/>
+      <c r="D516" s="9"/>
       <c r="E516" s="1"/>
       <c r="F516" s="1"/>
       <c r="G516" s="1"/>
@@ -11999,7 +12081,7 @@
       </c>
       <c r="B517" s="6"/>
       <c r="C517" s="6"/>
-      <c r="D517" s="12"/>
+      <c r="D517" s="9"/>
       <c r="E517" s="1"/>
       <c r="F517" s="1"/>
       <c r="G517" s="1"/>
@@ -12021,7 +12103,7 @@
       </c>
       <c r="B518" s="6"/>
       <c r="C518" s="6"/>
-      <c r="D518" s="12"/>
+      <c r="D518" s="9"/>
       <c r="E518" s="1"/>
       <c r="F518" s="1"/>
       <c r="G518" s="1"/>
@@ -12043,7 +12125,7 @@
       </c>
       <c r="B519" s="6"/>
       <c r="C519" s="6"/>
-      <c r="D519" s="12"/>
+      <c r="D519" s="9"/>
       <c r="E519" s="1"/>
       <c r="F519" s="1"/>
       <c r="G519" s="1"/>
@@ -12065,7 +12147,7 @@
       </c>
       <c r="B520" s="6"/>
       <c r="C520" s="6"/>
-      <c r="D520" s="12"/>
+      <c r="D520" s="9"/>
       <c r="E520" s="1"/>
       <c r="F520" s="1"/>
       <c r="G520" s="1"/>
@@ -12087,7 +12169,7 @@
       </c>
       <c r="B521" s="6"/>
       <c r="C521" s="6"/>
-      <c r="D521" s="12"/>
+      <c r="D521" s="9"/>
       <c r="E521" s="1"/>
       <c r="F521" s="1"/>
       <c r="G521" s="1"/>
@@ -12109,7 +12191,7 @@
       </c>
       <c r="B522" s="6"/>
       <c r="C522" s="6"/>
-      <c r="D522" s="12"/>
+      <c r="D522" s="9"/>
       <c r="E522" s="1"/>
       <c r="F522" s="1"/>
       <c r="G522" s="1"/>
@@ -12131,7 +12213,7 @@
       </c>
       <c r="B523" s="6"/>
       <c r="C523" s="6"/>
-      <c r="D523" s="12"/>
+      <c r="D523" s="9"/>
       <c r="E523" s="1"/>
       <c r="F523" s="1"/>
       <c r="G523" s="1"/>
@@ -12153,7 +12235,7 @@
       </c>
       <c r="B524" s="6"/>
       <c r="C524" s="6"/>
-      <c r="D524" s="12"/>
+      <c r="D524" s="9"/>
       <c r="E524" s="1"/>
       <c r="F524" s="1"/>
       <c r="G524" s="1"/>
@@ -12175,7 +12257,7 @@
       </c>
       <c r="B525" s="6"/>
       <c r="C525" s="6"/>
-      <c r="D525" s="12"/>
+      <c r="D525" s="9"/>
       <c r="E525" s="1"/>
       <c r="F525" s="1"/>
       <c r="G525" s="1"/>
@@ -12197,7 +12279,7 @@
       </c>
       <c r="B526" s="6"/>
       <c r="C526" s="6"/>
-      <c r="D526" s="12"/>
+      <c r="D526" s="9"/>
       <c r="E526" s="1"/>
       <c r="F526" s="1"/>
       <c r="G526" s="1"/>
@@ -12219,7 +12301,7 @@
       </c>
       <c r="B527" s="6"/>
       <c r="C527" s="6"/>
-      <c r="D527" s="12"/>
+      <c r="D527" s="9"/>
       <c r="E527" s="1"/>
       <c r="F527" s="1"/>
       <c r="G527" s="1"/>
@@ -12241,7 +12323,7 @@
       </c>
       <c r="B528" s="6"/>
       <c r="C528" s="6"/>
-      <c r="D528" s="12"/>
+      <c r="D528" s="9"/>
       <c r="E528" s="1"/>
       <c r="F528" s="1"/>
       <c r="G528" s="1"/>
@@ -12263,7 +12345,7 @@
       </c>
       <c r="B529" s="6"/>
       <c r="C529" s="6"/>
-      <c r="D529" s="12"/>
+      <c r="D529" s="9"/>
       <c r="E529" s="1"/>
       <c r="F529" s="1"/>
       <c r="G529" s="1"/>
@@ -12285,7 +12367,7 @@
       </c>
       <c r="B530" s="6"/>
       <c r="C530" s="6"/>
-      <c r="D530" s="12"/>
+      <c r="D530" s="9"/>
       <c r="E530" s="1"/>
       <c r="F530" s="1"/>
       <c r="G530" s="1"/>
@@ -12307,7 +12389,7 @@
       </c>
       <c r="B531" s="6"/>
       <c r="C531" s="6"/>
-      <c r="D531" s="12"/>
+      <c r="D531" s="9"/>
       <c r="E531" s="1"/>
       <c r="F531" s="1"/>
       <c r="G531" s="1"/>
@@ -12329,7 +12411,7 @@
       </c>
       <c r="B532" s="6"/>
       <c r="C532" s="6"/>
-      <c r="D532" s="12"/>
+      <c r="D532" s="9"/>
       <c r="E532" s="1"/>
       <c r="F532" s="1"/>
       <c r="G532" s="1"/>
@@ -12351,7 +12433,7 @@
       </c>
       <c r="B533" s="6"/>
       <c r="C533" s="6"/>
-      <c r="D533" s="12"/>
+      <c r="D533" s="9"/>
       <c r="E533" s="1"/>
       <c r="F533" s="1"/>
       <c r="G533" s="1"/>
@@ -12373,7 +12455,7 @@
       </c>
       <c r="B534" s="6"/>
       <c r="C534" s="6"/>
-      <c r="D534" s="12"/>
+      <c r="D534" s="9"/>
       <c r="E534" s="1"/>
       <c r="F534" s="1"/>
       <c r="G534" s="1"/>
@@ -12395,7 +12477,7 @@
       </c>
       <c r="B535" s="6"/>
       <c r="C535" s="6"/>
-      <c r="D535" s="12"/>
+      <c r="D535" s="9"/>
       <c r="E535" s="1"/>
       <c r="F535" s="1"/>
       <c r="G535" s="1"/>
@@ -12417,7 +12499,7 @@
       </c>
       <c r="B536" s="6"/>
       <c r="C536" s="6"/>
-      <c r="D536" s="12"/>
+      <c r="D536" s="9"/>
       <c r="E536" s="1"/>
       <c r="F536" s="1"/>
       <c r="G536" s="1"/>
@@ -12439,7 +12521,7 @@
       </c>
       <c r="B537" s="6"/>
       <c r="C537" s="6"/>
-      <c r="D537" s="12"/>
+      <c r="D537" s="9"/>
       <c r="E537" s="1"/>
       <c r="F537" s="1"/>
       <c r="G537" s="1"/>
@@ -12461,7 +12543,7 @@
       </c>
       <c r="B538" s="6"/>
       <c r="C538" s="6"/>
-      <c r="D538" s="12"/>
+      <c r="D538" s="9"/>
       <c r="E538" s="1"/>
       <c r="F538" s="1"/>
       <c r="G538" s="1"/>
@@ -12483,7 +12565,7 @@
       </c>
       <c r="B539" s="6"/>
       <c r="C539" s="6"/>
-      <c r="D539" s="12"/>
+      <c r="D539" s="9"/>
       <c r="E539" s="1"/>
       <c r="F539" s="1"/>
       <c r="G539" s="1"/>
@@ -12505,7 +12587,7 @@
       </c>
       <c r="B540" s="6"/>
       <c r="C540" s="6"/>
-      <c r="D540" s="12"/>
+      <c r="D540" s="9"/>
       <c r="E540" s="1"/>
       <c r="F540" s="1"/>
       <c r="G540" s="1"/>
@@ -12527,7 +12609,7 @@
       </c>
       <c r="B541" s="6"/>
       <c r="C541" s="6"/>
-      <c r="D541" s="12"/>
+      <c r="D541" s="9"/>
       <c r="E541" s="1"/>
       <c r="F541" s="1"/>
       <c r="G541" s="1"/>
@@ -12549,7 +12631,7 @@
       </c>
       <c r="B542" s="6"/>
       <c r="C542" s="6"/>
-      <c r="D542" s="12"/>
+      <c r="D542" s="9"/>
       <c r="E542" s="1"/>
       <c r="F542" s="1"/>
       <c r="G542" s="1"/>
@@ -12571,7 +12653,7 @@
       </c>
       <c r="B543" s="6"/>
       <c r="C543" s="6"/>
-      <c r="D543" s="12"/>
+      <c r="D543" s="9"/>
       <c r="E543" s="1"/>
       <c r="F543" s="1"/>
       <c r="G543" s="1"/>
@@ -12593,7 +12675,7 @@
       </c>
       <c r="B544" s="6"/>
       <c r="C544" s="6"/>
-      <c r="D544" s="12"/>
+      <c r="D544" s="9"/>
       <c r="E544" s="1"/>
       <c r="F544" s="1"/>
       <c r="G544" s="1"/>
@@ -12615,7 +12697,7 @@
       </c>
       <c r="B545" s="6"/>
       <c r="C545" s="6"/>
-      <c r="D545" s="12"/>
+      <c r="D545" s="9"/>
       <c r="E545" s="1"/>
       <c r="F545" s="1"/>
       <c r="G545" s="1"/>
@@ -12637,7 +12719,7 @@
       </c>
       <c r="B546" s="6"/>
       <c r="C546" s="6"/>
-      <c r="D546" s="12"/>
+      <c r="D546" s="9"/>
       <c r="E546" s="1"/>
       <c r="F546" s="1"/>
       <c r="G546" s="1"/>
@@ -12659,7 +12741,7 @@
       </c>
       <c r="B547" s="6"/>
       <c r="C547" s="6"/>
-      <c r="D547" s="12"/>
+      <c r="D547" s="9"/>
       <c r="E547" s="1"/>
       <c r="F547" s="1"/>
       <c r="G547" s="1"/>
@@ -12681,7 +12763,7 @@
       </c>
       <c r="B548" s="6"/>
       <c r="C548" s="6"/>
-      <c r="D548" s="12"/>
+      <c r="D548" s="9"/>
       <c r="E548" s="1"/>
       <c r="F548" s="1"/>
       <c r="G548" s="1"/>
@@ -12703,7 +12785,7 @@
       </c>
       <c r="B549" s="6"/>
       <c r="C549" s="6"/>
-      <c r="D549" s="12"/>
+      <c r="D549" s="9"/>
       <c r="E549" s="1"/>
       <c r="F549" s="1"/>
       <c r="G549" s="1"/>
@@ -12725,7 +12807,7 @@
       </c>
       <c r="B550" s="6"/>
       <c r="C550" s="6"/>
-      <c r="D550" s="12"/>
+      <c r="D550" s="9"/>
       <c r="E550" s="1"/>
       <c r="F550" s="1"/>
       <c r="G550" s="1"/>
@@ -12747,7 +12829,7 @@
       </c>
       <c r="B551" s="6"/>
       <c r="C551" s="6"/>
-      <c r="D551" s="12"/>
+      <c r="D551" s="9"/>
       <c r="E551" s="1"/>
       <c r="F551" s="1"/>
       <c r="G551" s="1"/>
@@ -12769,7 +12851,7 @@
       </c>
       <c r="B552" s="6"/>
       <c r="C552" s="6"/>
-      <c r="D552" s="12"/>
+      <c r="D552" s="9"/>
       <c r="E552" s="1"/>
       <c r="F552" s="1"/>
       <c r="G552" s="1"/>
@@ -12791,7 +12873,7 @@
       </c>
       <c r="B553" s="6"/>
       <c r="C553" s="6"/>
-      <c r="D553" s="12"/>
+      <c r="D553" s="9"/>
       <c r="E553" s="1"/>
       <c r="F553" s="1"/>
       <c r="G553" s="1"/>
@@ -12813,7 +12895,7 @@
       </c>
       <c r="B554" s="6"/>
       <c r="C554" s="6"/>
-      <c r="D554" s="12"/>
+      <c r="D554" s="9"/>
       <c r="E554" s="1"/>
       <c r="F554" s="1"/>
       <c r="G554" s="1"/>
@@ -12835,7 +12917,7 @@
       </c>
       <c r="B555" s="6"/>
       <c r="C555" s="6"/>
-      <c r="D555" s="12"/>
+      <c r="D555" s="9"/>
       <c r="E555" s="1"/>
       <c r="F555" s="1"/>
       <c r="G555" s="1"/>
@@ -12857,7 +12939,7 @@
       </c>
       <c r="B556" s="6"/>
       <c r="C556" s="6"/>
-      <c r="D556" s="12"/>
+      <c r="D556" s="9"/>
       <c r="E556" s="1"/>
       <c r="F556" s="1"/>
       <c r="G556" s="1"/>
@@ -12881,6 +12963,7 @@
   <mergeCells count="1">
     <mergeCell ref="B1:O2"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -12907,14 +12990,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">

--- a/ĐƠN HÀNG.xlsx
+++ b/ĐƠN HÀNG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7D48EA-9E0E-41B8-B995-7462A536C1EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4097FC77-0CC8-4C47-8E33-5CA3CDF6D856}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U556"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -940,7 +940,7 @@
         <v>374550</v>
       </c>
       <c r="K11" s="1">
-        <v>385000</v>
+        <v>820000</v>
       </c>
       <c r="L11" s="2">
         <v>44836</v>

--- a/ĐƠN HÀNG.xlsx
+++ b/ĐƠN HÀNG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C01D71-85FF-403E-B904-69823DAA21EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E693B0D4-207C-4893-B729-EC33F54424AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,15 +56,6 @@
   </si>
   <si>
     <t>giày đế 3p</t>
-  </si>
-  <si>
-    <t>HÀNG ĐỢT THỨ</t>
-  </si>
-  <si>
-    <t>9/2-18/2</t>
-  </si>
-  <si>
-    <t>TỔNG CÔNG ORDER</t>
   </si>
   <si>
     <t>LỢI NHUẬN</t>
@@ -208,9 +199,6 @@
     <t>đc báo lại sau</t>
   </si>
   <si>
-    <t xml:space="preserve">váy hồng </t>
-  </si>
-  <si>
     <t>0858962196</t>
   </si>
   <si>
@@ -242,12 +230,6 @@
   </si>
   <si>
     <t>HÀNG VỀ TẠO LINK SHOPEE</t>
-  </si>
-  <si>
-    <t>giày thể thao</t>
-  </si>
-  <si>
-    <t>túi xách TRẮNG</t>
   </si>
   <si>
     <t>528 phường bình thuận huỳnh tấn phát quận 7 tphcm</t>
@@ -292,25 +274,16 @@
     <t>Thôn 1 trường th nguyễn trãi lộc an bảo lâm lâm đồng</t>
   </si>
   <si>
-    <t xml:space="preserve">16 ví ngắn </t>
-  </si>
-  <si>
     <t>8 nâu, 8 đen</t>
   </si>
   <si>
     <t>size S, màu hồng</t>
   </si>
   <si>
-    <t xml:space="preserve">giày </t>
-  </si>
-  <si>
     <t>lê thị nụ</t>
   </si>
   <si>
     <t>Phước đức phước đông gò dầu tây ninh</t>
-  </si>
-  <si>
-    <t>quần jean cạp cao thụng</t>
   </si>
   <si>
     <t>Chung cư 6A kiệt 81 nguyễn huệ phú nhuận huế</t>
@@ -343,9 +316,6 @@
     <t>0584080117</t>
   </si>
   <si>
-    <t>áo cadigan len</t>
-  </si>
-  <si>
     <t>Lê Mai Hoa</t>
   </si>
   <si>
@@ -361,16 +331,46 @@
     <t>blazer đen tay kẻ</t>
   </si>
   <si>
-    <t>váy ngủ trắng 2 dây nơ</t>
-  </si>
-  <si>
     <t>trả hàng shopee</t>
   </si>
   <si>
-    <t>nâu, 40, ship shopee</t>
+    <t>size S</t>
   </si>
   <si>
-    <t>size S</t>
+    <t>nâu, 40, trả hàng shopee</t>
+  </si>
+  <si>
+    <t>HÀNG ORDER ĐỢT</t>
+  </si>
+  <si>
+    <t>9/2-13/2</t>
+  </si>
+  <si>
+    <t>NHẬP HÀNG</t>
+  </si>
+  <si>
+    <t>váy tím 2 dây hở vai</t>
+  </si>
+  <si>
+    <t>áo cadigan len trơn form rộng</t>
+  </si>
+  <si>
+    <t>quần jean cạp cao</t>
+  </si>
+  <si>
+    <t>váy ngủ dài tay kiểu công chúa</t>
+  </si>
+  <si>
+    <t>Ví nam da cá sấu Cardilo</t>
+  </si>
+  <si>
+    <t>giày da nữ phong cách Anh</t>
+  </si>
+  <si>
+    <t>túi xách hộp nữ của Pháp</t>
+  </si>
+  <si>
+    <t>giày thể thao phong cách</t>
   </si>
 </sst>
 </file>
@@ -520,23 +520,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -554,6 +542,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,10 +667,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D92840C5-9F59-4CFF-AA8F-1DE3C4BFD589}" name="Table1" displayName="Table1" ref="M7:Q69" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="M7:Q69" xr:uid="{3085D904-27ED-4CDB-A283-BD2E4ED85299}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8F59569D-8BD2-48C7-A94C-C24FFD53D274}" name="HÀNG ĐỢT THỨ" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{8F59569D-8BD2-48C7-A94C-C24FFD53D274}" name="HÀNG ORDER ĐỢT" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{F73D6532-4105-4E43-9225-3FB7628FC01C}" name="PHÍ SHIP CẢ LÔ" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{5A071A4E-D553-4D41-A856-7BFE5E1083E4}" name="TỔNG CÔNG ORDER" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{C279D3FC-3E2A-4CCA-B05C-9A2C8FA01033}" name="TỔNG THU" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{5A071A4E-D553-4D41-A856-7BFE5E1083E4}" name="TỔNG THU" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{C279D3FC-3E2A-4CCA-B05C-9A2C8FA01033}" name="NHẬP HÀNG" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{6E1AF0B9-D769-4A33-AB90-05795BF6A00A}" name="LỢI NHUẬN" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -942,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q558"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -962,77 +962,77 @@
     <col min="12" max="12" width="14.6328125" style="8" customWidth="1"/>
     <col min="13" max="13" width="18.6328125" style="8" customWidth="1"/>
     <col min="14" max="14" width="16.08984375" style="8" customWidth="1"/>
-    <col min="15" max="15" width="19.54296875" style="8" customWidth="1"/>
+    <col min="15" max="15" width="13.1796875" style="8" customWidth="1"/>
     <col min="16" max="16" width="10.26953125" style="8" customWidth="1"/>
     <col min="17" max="17" width="12.54296875" style="8" customWidth="1"/>
     <col min="18" max="16384" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
+      <c r="B1" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="19">
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="16">
         <v>1</v>
       </c>
-      <c r="G5" s="19">
-        <v>19</v>
-      </c>
-      <c r="H5" s="19">
+      <c r="G5" s="16">
+        <v>75</v>
+      </c>
+      <c r="H5" s="16">
         <v>15000</v>
       </c>
-      <c r="I5" s="19">
-        <v>15000</v>
-      </c>
-      <c r="J5" s="19">
+      <c r="I5" s="16">
+        <v>30000</v>
+      </c>
+      <c r="J5" s="16">
         <f>F5*G5*3850 +H5+I5</f>
-        <v>103150</v>
+        <v>333750</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
@@ -1058,31 +1058,31 @@
         <v>6</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M7" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q7" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
@@ -1090,13 +1090,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>106</v>
+        <v>12</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>8</v>
@@ -1118,10 +1118,10 @@
         <v>420000</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
@@ -1129,16 +1129,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -1157,7 +1157,7 @@
         <v>450000</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
@@ -1165,16 +1165,16 @@
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F10" s="5">
         <v>1</v>
@@ -1193,7 +1193,7 @@
         <v>175000</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
@@ -1201,16 +1201,16 @@
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F11" s="5">
         <v>1</v>
@@ -1229,7 +1229,7 @@
         <v>85000</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
@@ -1237,16 +1237,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F12" s="5">
         <v>1</v>
@@ -1265,7 +1265,7 @@
         <v>80000</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
@@ -1273,16 +1273,16 @@
         <v>6</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
@@ -1301,7 +1301,7 @@
         <v>820000</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
@@ -1309,16 +1309,16 @@
         <v>7</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
@@ -1335,7 +1335,7 @@
         <v>130000</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
@@ -1343,21 +1343,21 @@
         <v>8</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
       </c>
-      <c r="G15" s="17"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="5">
         <v>189000</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>189000</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
@@ -1377,16 +1377,16 @@
         <v>9</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F16" s="5">
         <v>1</v>
@@ -1403,7 +1403,7 @@
         <v>210000</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -1411,16 +1411,16 @@
         <v>10</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F17" s="5">
         <v>1</v>
@@ -1437,7 +1437,7 @@
         <v>210000</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -1445,16 +1445,16 @@
         <v>11</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F18" s="5">
         <v>1</v>
@@ -1471,7 +1471,7 @@
         <v>167000</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -1479,14 +1479,14 @@
         <v>12</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="27"/>
+        <v>53</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="23"/>
       <c r="E19" s="5" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="F19" s="5">
         <v>1</v>
@@ -1505,7 +1505,7 @@
         <v>225000</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -1513,16 +1513,16 @@
         <v>13</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>61</v>
-      </c>
       <c r="E20" s="5" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="F20" s="5">
         <v>1</v>
@@ -1539,7 +1539,7 @@
         <v>340000</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -1547,16 +1547,16 @@
         <v>14</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F21" s="5">
         <v>1</v>
@@ -1573,7 +1573,7 @@
         <v>355000</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -1581,16 +1581,16 @@
         <v>15</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="F22" s="5">
         <v>1</v>
@@ -1607,7 +1607,7 @@
         <v>155000</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1615,16 +1615,16 @@
         <v>16</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>73</v>
+        <v>65</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="F23" s="5">
         <v>1</v>
@@ -1647,16 +1647,16 @@
         <v>17</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>94</v>
+        <v>78</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>85</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="F24" s="5">
         <v>1</v>
@@ -1672,8 +1672,8 @@
         <f t="shared" si="0"/>
         <v>160000</v>
       </c>
-      <c r="K24" s="26" t="s">
-        <v>112</v>
+      <c r="K24" s="22" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -1681,16 +1681,16 @@
         <v>18</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>74</v>
+        <v>91</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="F25" s="5">
         <v>16</v>
@@ -1707,7 +1707,7 @@
         <v>440000</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
@@ -1715,16 +1715,16 @@
         <v>19</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>86</v>
+        <v>79</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F26" s="5">
         <v>1</v>
@@ -1741,7 +1741,7 @@
         <v>115000</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -1749,18 +1749,18 @@
         <v>20</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>99</v>
+        <v>83</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27" s="22">
+        <v>108</v>
+      </c>
+      <c r="F27" s="18">
         <v>1</v>
       </c>
       <c r="G27" s="5"/>
@@ -1781,16 +1781,16 @@
         <v>21</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>102</v>
+        <v>92</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>93</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F28" s="5">
         <v>1</v>
@@ -1806,8 +1806,8 @@
         <f t="shared" si="0"/>
         <v>145000</v>
       </c>
-      <c r="K28" s="26" t="s">
-        <v>111</v>
+      <c r="K28" s="22" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -1815,14 +1815,14 @@
         <v>22</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="27"/>
+        <v>95</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="23"/>
       <c r="E29" s="5" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F29" s="5">
         <v>3</v>
@@ -1839,7 +1839,7 @@
         <v>310000</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -11400,21 +11400,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="A1" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
@@ -11423,10 +11423,10 @@
         <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">

--- a/ĐƠN HÀNG.xlsx
+++ b/ĐƠN HÀNG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E693B0D4-207C-4893-B729-EC33F54424AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EECE49C-FD09-4A84-B27C-53967798BDC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="DS KH BOM HÀNG" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SALE!$A$7:$K$558</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SALE!$A$7:$K$553</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="96">
   <si>
     <t>STT</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>TỔNG THU</t>
-  </si>
-  <si>
-    <t>giày đế 3p</t>
   </si>
   <si>
     <t>LỢI NHUẬN</t>
@@ -115,9 +112,6 @@
     <t>xanh, size</t>
   </si>
   <si>
-    <t>áo blazer 4 khuy xanh</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
@@ -128,9 +122,6 @@
   </si>
   <si>
     <t>số 10 Ngõ 30/ 32, Phan Đình Giót, Thanh Xuân, Hà Nội</t>
-  </si>
-  <si>
-    <t>Áo khoác mỏng</t>
   </si>
   <si>
     <t>Thủy Tiên</t>
@@ -175,61 +166,16 @@
     <t>size 40</t>
   </si>
   <si>
-    <t>Tạ Lan Phương</t>
-  </si>
-  <si>
-    <t>Trường mầm non xã Tân Tri huyện Bắc Sơn tỉnh Lạng Sơn.</t>
-  </si>
-  <si>
-    <t>giày cao gót đế vuông</t>
-  </si>
-  <si>
-    <t>36, đen</t>
-  </si>
-  <si>
-    <t>order theo link. Size 39</t>
-  </si>
-  <si>
-    <t>LAN ANH</t>
-  </si>
-  <si>
     <t>PHẠM YẾN NHI</t>
   </si>
   <si>
     <t>đc báo lại sau</t>
   </si>
   <si>
-    <t>0858962196</t>
-  </si>
-  <si>
     <t>0973753665</t>
   </si>
   <si>
-    <t xml:space="preserve">Tuyết trương </t>
-  </si>
-  <si>
-    <t xml:space="preserve">bãi giếng 4, cam Đức, cam lâm ，Khánh hoà </t>
-  </si>
-  <si>
-    <t>Quần nhún 355k</t>
-  </si>
-  <si>
-    <t>0355210495</t>
-  </si>
-  <si>
-    <t>áo thun hoạt hình</t>
-  </si>
-  <si>
-    <t>freesize</t>
-  </si>
-  <si>
-    <t>size M</t>
-  </si>
-  <si>
     <t>trần thị diễm kiều</t>
-  </si>
-  <si>
-    <t>HÀNG VỀ TẠO LINK SHOPEE</t>
   </si>
   <si>
     <t>528 phường bình thuận huỳnh tấn phát quận 7 tphcm</t>
@@ -307,15 +253,6 @@
     <t>Nguyễn Văn Tới</t>
   </si>
   <si>
-    <t>Diễm Ny</t>
-  </si>
-  <si>
-    <t>Khánh hội- tri hải - ninh hải - ninh thuận</t>
-  </si>
-  <si>
-    <t>0584080117</t>
-  </si>
-  <si>
     <t>Lê Mai Hoa</t>
   </si>
   <si>
@@ -329,9 +266,6 @@
   </si>
   <si>
     <t>blazer đen tay kẻ</t>
-  </si>
-  <si>
-    <t>trả hàng shopee</t>
   </si>
   <si>
     <t>size S</t>
@@ -352,9 +286,6 @@
     <t>váy tím 2 dây hở vai</t>
   </si>
   <si>
-    <t>áo cadigan len trơn form rộng</t>
-  </si>
-  <si>
     <t>quần jean cạp cao</t>
   </si>
   <si>
@@ -370,7 +301,22 @@
     <t>túi xách hộp nữ của Pháp</t>
   </si>
   <si>
-    <t>giày thể thao phong cách</t>
+    <t>giày sục đế 3p màu nude</t>
+  </si>
+  <si>
+    <t>áo blazer xanh lá 6 khuy</t>
+  </si>
+  <si>
+    <t>Áo khoác phong cách trẻ trung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dép hồng nơ </t>
+  </si>
+  <si>
+    <t>Mai Ngọc Hà</t>
+  </si>
+  <si>
+    <t>Jean cạp cao</t>
   </si>
 </sst>
 </file>
@@ -437,7 +383,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,6 +399,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -554,6 +506,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,8 +617,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D92840C5-9F59-4CFF-AA8F-1DE3C4BFD589}" name="Table1" displayName="Table1" ref="M7:Q69" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="M7:Q69" xr:uid="{3085D904-27ED-4CDB-A283-BD2E4ED85299}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D92840C5-9F59-4CFF-AA8F-1DE3C4BFD589}" name="Table1" displayName="Table1" ref="M7:Q64" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="M7:Q64" xr:uid="{3085D904-27ED-4CDB-A283-BD2E4ED85299}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8F59569D-8BD2-48C7-A94C-C24FFD53D274}" name="HÀNG ORDER ĐỢT" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{F73D6532-4105-4E43-9225-3FB7628FC01C}" name="PHÍ SHIP CẢ LÔ" dataDxfId="3"/>
@@ -940,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q558"/>
+  <dimension ref="A1:Q553"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -970,7 +923,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -996,23 +949,23 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D4" s="27" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E4" s="27"/>
       <c r="F4" s="17" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
@@ -1022,17 +975,17 @@
         <v>1</v>
       </c>
       <c r="G5" s="16">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="H5" s="16">
         <v>15000</v>
       </c>
       <c r="I5" s="16">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="J5" s="16">
         <f>F5*G5*3850 +H5+I5</f>
-        <v>333750</v>
+        <v>278700</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
@@ -1058,48 +1011,48 @@
         <v>6</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+      <c r="A8" s="30">
         <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -1114,31 +1067,31 @@
         <v>0</v>
       </c>
       <c r="J8" s="5">
-        <f>H8:H558-I8:I558</f>
+        <f>H8:H553-I8:I553</f>
         <v>420000</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+      <c r="A9" s="30">
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -1153,28 +1106,28 @@
         <v>0</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" ref="J9:J72" si="0">H9:H559-I9:I559</f>
+        <f>H9:H554-I9:I554</f>
         <v>450000</v>
       </c>
       <c r="K9" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="30">
+        <v>3</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
-        <v>3</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="F10" s="5">
         <v>1</v>
@@ -1189,28 +1142,28 @@
         <v>0</v>
       </c>
       <c r="J10" s="5">
-        <f t="shared" si="0"/>
+        <f>H10:H555-I10:I555</f>
         <v>175000</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+      <c r="A11" s="30">
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="5">
         <v>1</v>
@@ -1225,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="J11" s="5">
-        <f t="shared" si="0"/>
+        <f>H11:H556-I11:I556</f>
         <v>85000</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+      <c r="A12" s="30">
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="5">
         <v>1</v>
@@ -1261,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" si="0"/>
+        <f>H12:H557-I12:I557</f>
         <v>80000</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
+      <c r="A13" s="30">
         <v>6</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
@@ -1297,28 +1250,28 @@
         <v>0</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" si="0"/>
+        <f>H13:H558-I13:I558</f>
         <v>820000</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+      <c r="A14" s="30">
         <v>7</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
@@ -1331,11 +1284,11 @@
         <v>0</v>
       </c>
       <c r="J14" s="5">
-        <f t="shared" si="0"/>
+        <f>H14:H559-I14:I559</f>
         <v>130000</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
@@ -1343,16 +1296,16 @@
         <v>8</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
@@ -1365,11 +1318,11 @@
         <v>0</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" si="0"/>
+        <f>H15:H560-I15:I560</f>
         <v>189000</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
@@ -1377,16 +1330,16 @@
         <v>9</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="F16" s="5">
         <v>1</v>
@@ -1399,11 +1352,11 @@
         <v>0</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" si="0"/>
+        <f>H16:H561-I16:I561</f>
         <v>210000</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -1411,16 +1364,16 @@
         <v>10</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F17" s="5">
         <v>1</v>
@@ -1433,418 +1386,349 @@
         <v>0</v>
       </c>
       <c r="J17" s="5">
-        <f t="shared" si="0"/>
+        <f>H17:H562-I17:I562</f>
         <v>210000</v>
       </c>
       <c r="K17" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="30">
+        <v>13</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
-        <v>11</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>56</v>
-      </c>
       <c r="E18" s="5" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="F18" s="5">
         <v>1</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5">
-        <v>167000</v>
+        <v>440000</v>
       </c>
       <c r="I18" s="5">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" si="0"/>
-        <v>167000</v>
+        <f>H18:H565-I18:I565</f>
+        <v>340000</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
-        <v>12</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="30">
+        <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="23"/>
+        <v>48</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="E19" s="5" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="F19" s="5">
         <v>1</v>
       </c>
-      <c r="G19" s="5">
-        <v>44</v>
-      </c>
+      <c r="G19" s="5"/>
       <c r="H19" s="5">
-        <v>225000</v>
+        <v>332000</v>
       </c>
       <c r="I19" s="5">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" si="0"/>
-        <v>225000</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
-        <v>13</v>
+        <f>H19:H568-I19:I568</f>
+        <v>232000</v>
+      </c>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="30">
+        <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>67</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="F20" s="5">
         <v>1</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5">
-        <v>440000</v>
+        <v>230000</v>
       </c>
       <c r="I20" s="5">
-        <v>100000</v>
+        <v>70000</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" si="0"/>
-        <v>340000</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>101</v>
+        <f>H20:H569-I20:I569</f>
+        <v>160000</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>59</v>
+        <v>73</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>50</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="F21" s="5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5">
-        <v>355000</v>
+        <v>880000</v>
       </c>
       <c r="I21" s="5">
-        <v>0</v>
+        <v>440000</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" si="0"/>
-        <v>355000</v>
+        <f>H21:H570-I21:I570</f>
+        <v>440000</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
-        <v>15</v>
+      <c r="A22" s="30">
+        <v>19</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="11" t="s">
         <v>61</v>
       </c>
+      <c r="C22" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>71</v>
+      </c>
       <c r="E22" s="5" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="F22" s="5">
         <v>1</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5">
-        <v>155000</v>
+        <v>215000</v>
       </c>
       <c r="I22" s="5">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="0"/>
-        <v>155000</v>
+        <f>H22:H571-I22:I571</f>
+        <v>115000</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
-        <v>16</v>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="30">
+        <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>86</v>
+      <c r="C23" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>72</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F23" s="5">
+        <v>85</v>
+      </c>
+      <c r="F23" s="18">
         <v>1</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5">
-        <v>332000</v>
+        <v>205000</v>
       </c>
       <c r="I23" s="5">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" si="0"/>
-        <v>232000</v>
+        <f>H23:H572-I23:I572</f>
+        <v>205000</v>
       </c>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="5">
-        <v>17</v>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="30">
+        <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>87</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="23"/>
       <c r="E24" s="5" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="F24" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5">
-        <v>230000</v>
+        <v>310000</v>
       </c>
       <c r="I24" s="5">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J24" s="5">
-        <f t="shared" si="0"/>
-        <v>160000</v>
-      </c>
-      <c r="K24" s="22" t="s">
-        <v>102</v>
+        <f t="shared" ref="J24:J67" si="0">H24:H574-I24:I574</f>
+        <v>310000</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="5">
-        <v>18</v>
+      <c r="A25" s="30">
+        <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>88</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="11"/>
       <c r="E25" s="5" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F25" s="5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5">
-        <v>880000</v>
+        <v>160000</v>
       </c>
       <c r="I25" s="5">
-        <v>440000</v>
+        <v>0</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" si="0"/>
-        <v>440000</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>81</v>
-      </c>
+        <v>165000</v>
+      </c>
+      <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
-        <v>19</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F26" s="5">
-        <v>1</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="5">
-        <v>215000</v>
-      </c>
-      <c r="I26" s="5">
-        <v>100000</v>
-      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
       <c r="J26" s="5">
         <f t="shared" si="0"/>
-        <v>115000</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
-        <v>20</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F27" s="18">
-        <v>1</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="5">
-        <v>205000</v>
-      </c>
-      <c r="I27" s="5">
-        <v>0</v>
-      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
       <c r="J27" s="5">
         <f t="shared" si="0"/>
-        <v>205000</v>
+        <v>0</v>
       </c>
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
-        <v>21</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F28" s="5">
-        <v>1</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="5">
-        <v>145000</v>
-      </c>
-      <c r="I28" s="5">
-        <v>0</v>
-      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
       <c r="J28" s="5">
         <f t="shared" si="0"/>
-        <v>145000</v>
-      </c>
-      <c r="K28" s="22" t="s">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
-        <v>22</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F29" s="5">
-        <v>3</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="5">
-        <v>310000</v>
-      </c>
-      <c r="I29" s="5">
-        <v>0</v>
-      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
       <c r="J29" s="5">
         <f t="shared" si="0"/>
-        <v>310000</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K29" s="5"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -1862,7 +1746,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1880,7 +1764,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1898,7 +1782,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1916,7 +1800,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1934,7 +1818,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1952,7 +1836,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -1970,7 +1854,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1988,7 +1872,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -2006,7 +1890,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -2024,7 +1908,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -2042,7 +1926,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -2060,7 +1944,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -2078,7 +1962,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -2096,7 +1980,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -2114,7 +1998,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -2132,7 +2016,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -2150,7 +2034,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -2168,7 +2052,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -2186,7 +2070,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -2204,7 +2088,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -2222,7 +2106,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -2240,7 +2124,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -2258,7 +2142,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -2276,7 +2160,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -2294,7 +2178,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -2312,7 +2196,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -2330,7 +2214,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -2348,7 +2232,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -2366,7 +2250,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -2384,7 +2268,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -2402,7 +2286,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -2420,7 +2304,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -2438,7 +2322,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -2456,7 +2340,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -2474,7 +2358,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -2492,7 +2376,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -2510,7 +2394,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -2528,7 +2412,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -2539,14 +2423,14 @@
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J68:J131" si="1">H68:H618-I68:I618</f>
         <v>0</v>
       </c>
       <c r="K68" s="5"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -2557,14 +2441,14 @@
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K69" s="5"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -2575,14 +2459,14 @@
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K70" s="5"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -2593,14 +2477,14 @@
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K71" s="5"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -2611,14 +2495,14 @@
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K72" s="5"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -2629,14 +2513,14 @@
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5">
-        <f t="shared" ref="J73:J136" si="1">H73:H623-I73:I623</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K73" s="5"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -2654,7 +2538,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -2672,7 +2556,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -2690,7 +2574,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -2708,7 +2592,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -2726,7 +2610,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -2744,7 +2628,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -2762,7 +2646,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -2780,7 +2664,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -2798,7 +2682,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -2816,7 +2700,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -2834,7 +2718,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -2852,7 +2736,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -2870,7 +2754,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -2888,7 +2772,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -2906,7 +2790,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -2924,7 +2808,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -2942,7 +2826,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -2960,7 +2844,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -2978,7 +2862,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -2996,7 +2880,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -3014,7 +2898,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -3032,7 +2916,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -3050,7 +2934,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="5">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -3068,7 +2952,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -3086,7 +2970,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -3104,7 +2988,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="5">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -3122,7 +3006,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -3140,7 +3024,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="5">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -3158,7 +3042,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="5">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -3176,7 +3060,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="5">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -3194,7 +3078,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="5">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -3212,7 +3096,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="5">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -3230,7 +3114,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" s="5">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -3248,7 +3132,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" s="5">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
@@ -3266,7 +3150,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" s="5">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -3284,7 +3168,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" s="5">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -3302,7 +3186,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" s="5">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -3320,7 +3204,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" s="5">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -3338,7 +3222,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" s="5">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -3356,7 +3240,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" s="5">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
@@ -3374,7 +3258,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" s="5">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
@@ -3392,7 +3276,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" s="5">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
@@ -3410,7 +3294,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" s="5">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -3428,7 +3312,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" s="5">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
@@ -3446,7 +3330,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" s="5">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -3464,7 +3348,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" s="5">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -3482,7 +3366,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" s="5">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
@@ -3500,7 +3384,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" s="5">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
@@ -3518,7 +3402,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" s="5">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
@@ -3536,7 +3420,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" s="5">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
@@ -3554,7 +3438,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" s="5">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
@@ -3572,7 +3456,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" s="5">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
@@ -3590,7 +3474,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" s="5">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
@@ -3608,7 +3492,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" s="5">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
@@ -3626,7 +3510,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" s="5">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
@@ -3644,7 +3528,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" s="5">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
@@ -3662,7 +3546,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" s="5">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
@@ -3680,7 +3564,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" s="5">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
@@ -3691,14 +3575,14 @@
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
       <c r="J132" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J132:J195" si="2">H132:H682-I132:I682</f>
         <v>0</v>
       </c>
       <c r="K132" s="5"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" s="5">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
@@ -3709,14 +3593,14 @@
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
       <c r="J133" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K133" s="5"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" s="5">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
@@ -3727,14 +3611,14 @@
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
       <c r="J134" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K134" s="5"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" s="5">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
@@ -3745,14 +3629,14 @@
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
       <c r="J135" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K135" s="5"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" s="5">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
@@ -3763,14 +3647,14 @@
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
       <c r="J136" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K136" s="5"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" s="5">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
@@ -3781,14 +3665,14 @@
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
       <c r="J137" s="5">
-        <f t="shared" ref="J137:J200" si="2">H137:H687-I137:I687</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K137" s="5"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" s="5">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
@@ -3806,7 +3690,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" s="5">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
@@ -3824,7 +3708,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" s="5">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
@@ -3842,7 +3726,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" s="5">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
@@ -3860,7 +3744,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" s="5">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
@@ -3878,7 +3762,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" s="5">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
@@ -3896,7 +3780,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" s="5">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
@@ -3914,7 +3798,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" s="5">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
@@ -3932,7 +3816,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" s="5">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
@@ -3950,7 +3834,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" s="5">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
@@ -3968,7 +3852,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" s="5">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
@@ -3986,7 +3870,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" s="5">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
@@ -4004,7 +3888,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" s="5">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
@@ -4022,7 +3906,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" s="5">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
@@ -4040,7 +3924,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" s="5">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
@@ -4058,7 +3942,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" s="5">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
@@ -4076,7 +3960,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" s="5">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
@@ -4094,7 +3978,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" s="5">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
@@ -4112,7 +3996,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" s="5">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
@@ -4130,7 +4014,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" s="5">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
@@ -4148,7 +4032,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" s="5">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
@@ -4166,7 +4050,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" s="5">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
@@ -4184,7 +4068,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" s="5">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
@@ -4202,7 +4086,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A161" s="5">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
@@ -4220,7 +4104,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A162" s="5">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
@@ -4238,7 +4122,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A163" s="5">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
@@ -4256,7 +4140,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A164" s="5">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
@@ -4274,7 +4158,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A165" s="5">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
@@ -4292,7 +4176,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166" s="5">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
@@ -4310,7 +4194,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A167" s="5">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
@@ -4328,7 +4212,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A168" s="5">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
@@ -4346,7 +4230,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A169" s="5">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
@@ -4364,7 +4248,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A170" s="5">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
@@ -4382,7 +4266,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A171" s="5">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
@@ -4400,7 +4284,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A172" s="5">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
@@ -4418,7 +4302,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A173" s="5">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
@@ -4436,7 +4320,7 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A174" s="5">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
@@ -4454,7 +4338,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A175" s="5">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
@@ -4472,7 +4356,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A176" s="5">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
@@ -4490,7 +4374,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A177" s="5">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
@@ -4508,7 +4392,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A178" s="5">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
@@ -4526,7 +4410,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A179" s="5">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
@@ -4544,7 +4428,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A180" s="5">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
@@ -4562,7 +4446,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A181" s="5">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
@@ -4580,7 +4464,7 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A182" s="5">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
@@ -4598,7 +4482,7 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A183" s="5">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
@@ -4616,7 +4500,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A184" s="5">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
@@ -4634,7 +4518,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A185" s="5">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
@@ -4652,7 +4536,7 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A186" s="5">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
@@ -4670,7 +4554,7 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A187" s="5">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
@@ -4688,7 +4572,7 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A188" s="5">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
@@ -4706,7 +4590,7 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A189" s="5">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
@@ -4724,7 +4608,7 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A190" s="5">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
@@ -4742,7 +4626,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A191" s="5">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
@@ -4760,7 +4644,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A192" s="5">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
@@ -4778,7 +4662,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A193" s="5">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
@@ -4796,7 +4680,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A194" s="5">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
@@ -4814,7 +4698,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A195" s="5">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
@@ -4832,7 +4716,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A196" s="5">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
@@ -4843,14 +4727,14 @@
       <c r="H196" s="5"/>
       <c r="I196" s="5"/>
       <c r="J196" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J196:J259" si="3">H196:H746-I196:I746</f>
         <v>0</v>
       </c>
       <c r="K196" s="5"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A197" s="5">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
@@ -4861,14 +4745,14 @@
       <c r="H197" s="5"/>
       <c r="I197" s="5"/>
       <c r="J197" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K197" s="5"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A198" s="5">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
@@ -4879,14 +4763,14 @@
       <c r="H198" s="5"/>
       <c r="I198" s="5"/>
       <c r="J198" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K198" s="5"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A199" s="5">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
@@ -4897,14 +4781,14 @@
       <c r="H199" s="5"/>
       <c r="I199" s="5"/>
       <c r="J199" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K199" s="5"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A200" s="5">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
@@ -4915,14 +4799,14 @@
       <c r="H200" s="5"/>
       <c r="I200" s="5"/>
       <c r="J200" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K200" s="5"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A201" s="5">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
@@ -4933,14 +4817,14 @@
       <c r="H201" s="5"/>
       <c r="I201" s="5"/>
       <c r="J201" s="5">
-        <f t="shared" ref="J201:J264" si="3">H201:H751-I201:I751</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K201" s="5"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A202" s="5">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
@@ -4958,7 +4842,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A203" s="5">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
@@ -4976,7 +4860,7 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A204" s="5">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
@@ -4994,7 +4878,7 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A205" s="5">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
@@ -5012,7 +4896,7 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A206" s="5">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
@@ -5030,7 +4914,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A207" s="5">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
@@ -5048,7 +4932,7 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A208" s="5">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
@@ -5066,7 +4950,7 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A209" s="5">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
@@ -5084,7 +4968,7 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A210" s="5">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
@@ -5102,7 +4986,7 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A211" s="5">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
@@ -5120,7 +5004,7 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A212" s="5">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
@@ -5138,7 +5022,7 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A213" s="5">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
@@ -5156,7 +5040,7 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A214" s="5">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
@@ -5174,7 +5058,7 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A215" s="5">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
@@ -5192,7 +5076,7 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A216" s="5">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
@@ -5210,7 +5094,7 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A217" s="5">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
@@ -5228,7 +5112,7 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A218" s="5">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
@@ -5246,7 +5130,7 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A219" s="5">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
@@ -5264,7 +5148,7 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A220" s="5">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
@@ -5282,7 +5166,7 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A221" s="5">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
@@ -5300,7 +5184,7 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A222" s="5">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
@@ -5318,7 +5202,7 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A223" s="5">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
@@ -5336,7 +5220,7 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A224" s="5">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
@@ -5354,7 +5238,7 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A225" s="5">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
@@ -5372,7 +5256,7 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A226" s="5">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
@@ -5390,7 +5274,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A227" s="5">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
@@ -5408,7 +5292,7 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A228" s="5">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
@@ -5426,7 +5310,7 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A229" s="5">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
@@ -5444,7 +5328,7 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A230" s="5">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
@@ -5462,7 +5346,7 @@
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A231" s="5">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
@@ -5480,7 +5364,7 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A232" s="5">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
@@ -5498,7 +5382,7 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A233" s="5">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
@@ -5516,7 +5400,7 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A234" s="5">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B234" s="6"/>
       <c r="C234" s="6"/>
@@ -5534,7 +5418,7 @@
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A235" s="5">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
@@ -5552,7 +5436,7 @@
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A236" s="5">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
@@ -5570,7 +5454,7 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A237" s="5">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B237" s="6"/>
       <c r="C237" s="6"/>
@@ -5588,7 +5472,7 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A238" s="5">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
@@ -5606,7 +5490,7 @@
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A239" s="5">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B239" s="6"/>
       <c r="C239" s="6"/>
@@ -5624,7 +5508,7 @@
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A240" s="5">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
@@ -5642,7 +5526,7 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A241" s="5">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
@@ -5660,7 +5544,7 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A242" s="5">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B242" s="6"/>
       <c r="C242" s="6"/>
@@ -5678,7 +5562,7 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A243" s="5">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B243" s="6"/>
       <c r="C243" s="6"/>
@@ -5696,7 +5580,7 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A244" s="5">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B244" s="6"/>
       <c r="C244" s="6"/>
@@ -5714,7 +5598,7 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A245" s="5">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B245" s="6"/>
       <c r="C245" s="6"/>
@@ -5732,7 +5616,7 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A246" s="5">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
@@ -5750,7 +5634,7 @@
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A247" s="5">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
@@ -5768,7 +5652,7 @@
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A248" s="5">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B248" s="6"/>
       <c r="C248" s="6"/>
@@ -5786,7 +5670,7 @@
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A249" s="5">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
@@ -5804,7 +5688,7 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A250" s="5">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B250" s="6"/>
       <c r="C250" s="6"/>
@@ -5822,7 +5706,7 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A251" s="5">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B251" s="6"/>
       <c r="C251" s="6"/>
@@ -5840,7 +5724,7 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A252" s="5">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B252" s="6"/>
       <c r="C252" s="6"/>
@@ -5858,7 +5742,7 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A253" s="5">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B253" s="6"/>
       <c r="C253" s="6"/>
@@ -5876,7 +5760,7 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A254" s="5">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B254" s="6"/>
       <c r="C254" s="6"/>
@@ -5894,7 +5778,7 @@
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A255" s="5">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B255" s="6"/>
       <c r="C255" s="6"/>
@@ -5912,7 +5796,7 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A256" s="5">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B256" s="6"/>
       <c r="C256" s="6"/>
@@ -5930,7 +5814,7 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A257" s="5">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B257" s="6"/>
       <c r="C257" s="6"/>
@@ -5948,7 +5832,7 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A258" s="5">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B258" s="6"/>
       <c r="C258" s="6"/>
@@ -5966,7 +5850,7 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A259" s="5">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B259" s="6"/>
       <c r="C259" s="6"/>
@@ -5984,7 +5868,7 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A260" s="5">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B260" s="6"/>
       <c r="C260" s="6"/>
@@ -5995,14 +5879,14 @@
       <c r="H260" s="5"/>
       <c r="I260" s="5"/>
       <c r="J260" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J260:J323" si="4">H260:H810-I260:I810</f>
         <v>0</v>
       </c>
       <c r="K260" s="5"/>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A261" s="5">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B261" s="6"/>
       <c r="C261" s="6"/>
@@ -6013,14 +5897,14 @@
       <c r="H261" s="5"/>
       <c r="I261" s="5"/>
       <c r="J261" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K261" s="5"/>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A262" s="5">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B262" s="6"/>
       <c r="C262" s="6"/>
@@ -6031,14 +5915,14 @@
       <c r="H262" s="5"/>
       <c r="I262" s="5"/>
       <c r="J262" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K262" s="5"/>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A263" s="5">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B263" s="6"/>
       <c r="C263" s="6"/>
@@ -6049,14 +5933,14 @@
       <c r="H263" s="5"/>
       <c r="I263" s="5"/>
       <c r="J263" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K263" s="5"/>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A264" s="5">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B264" s="6"/>
       <c r="C264" s="6"/>
@@ -6067,14 +5951,14 @@
       <c r="H264" s="5"/>
       <c r="I264" s="5"/>
       <c r="J264" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K264" s="5"/>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A265" s="5">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B265" s="6"/>
       <c r="C265" s="6"/>
@@ -6085,14 +5969,14 @@
       <c r="H265" s="5"/>
       <c r="I265" s="5"/>
       <c r="J265" s="5">
-        <f t="shared" ref="J265:J328" si="4">H265:H815-I265:I815</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K265" s="5"/>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A266" s="5">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B266" s="6"/>
       <c r="C266" s="6"/>
@@ -6110,7 +5994,7 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A267" s="5">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B267" s="6"/>
       <c r="C267" s="6"/>
@@ -6128,7 +6012,7 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A268" s="5">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B268" s="6"/>
       <c r="C268" s="6"/>
@@ -6146,7 +6030,7 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A269" s="5">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B269" s="6"/>
       <c r="C269" s="6"/>
@@ -6164,7 +6048,7 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A270" s="5">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B270" s="6"/>
       <c r="C270" s="6"/>
@@ -6182,7 +6066,7 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A271" s="5">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B271" s="6"/>
       <c r="C271" s="6"/>
@@ -6200,7 +6084,7 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A272" s="5">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B272" s="6"/>
       <c r="C272" s="6"/>
@@ -6218,7 +6102,7 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A273" s="5">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B273" s="6"/>
       <c r="C273" s="6"/>
@@ -6236,7 +6120,7 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A274" s="5">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B274" s="6"/>
       <c r="C274" s="6"/>
@@ -6254,7 +6138,7 @@
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A275" s="5">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B275" s="6"/>
       <c r="C275" s="6"/>
@@ -6272,7 +6156,7 @@
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A276" s="5">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B276" s="6"/>
       <c r="C276" s="6"/>
@@ -6290,7 +6174,7 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A277" s="5">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B277" s="6"/>
       <c r="C277" s="6"/>
@@ -6308,7 +6192,7 @@
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A278" s="5">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B278" s="6"/>
       <c r="C278" s="6"/>
@@ -6326,7 +6210,7 @@
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A279" s="5">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B279" s="6"/>
       <c r="C279" s="6"/>
@@ -6344,7 +6228,7 @@
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A280" s="5">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B280" s="6"/>
       <c r="C280" s="6"/>
@@ -6362,7 +6246,7 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A281" s="5">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B281" s="6"/>
       <c r="C281" s="6"/>
@@ -6380,7 +6264,7 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A282" s="5">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B282" s="6"/>
       <c r="C282" s="6"/>
@@ -6398,7 +6282,7 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A283" s="5">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B283" s="6"/>
       <c r="C283" s="6"/>
@@ -6416,7 +6300,7 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A284" s="5">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B284" s="6"/>
       <c r="C284" s="6"/>
@@ -6434,7 +6318,7 @@
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A285" s="5">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B285" s="6"/>
       <c r="C285" s="6"/>
@@ -6452,7 +6336,7 @@
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A286" s="5">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B286" s="6"/>
       <c r="C286" s="6"/>
@@ -6470,7 +6354,7 @@
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A287" s="5">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B287" s="6"/>
       <c r="C287" s="6"/>
@@ -6488,7 +6372,7 @@
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A288" s="5">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B288" s="6"/>
       <c r="C288" s="6"/>
@@ -6506,7 +6390,7 @@
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A289" s="5">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B289" s="6"/>
       <c r="C289" s="6"/>
@@ -6524,7 +6408,7 @@
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A290" s="5">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B290" s="6"/>
       <c r="C290" s="6"/>
@@ -6542,7 +6426,7 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A291" s="5">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B291" s="6"/>
       <c r="C291" s="6"/>
@@ -6560,7 +6444,7 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A292" s="5">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B292" s="6"/>
       <c r="C292" s="6"/>
@@ -6578,7 +6462,7 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A293" s="5">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B293" s="6"/>
       <c r="C293" s="6"/>
@@ -6596,7 +6480,7 @@
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A294" s="5">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B294" s="6"/>
       <c r="C294" s="6"/>
@@ -6614,7 +6498,7 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A295" s="5">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B295" s="6"/>
       <c r="C295" s="6"/>
@@ -6632,7 +6516,7 @@
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A296" s="5">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B296" s="6"/>
       <c r="C296" s="6"/>
@@ -6650,7 +6534,7 @@
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A297" s="5">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B297" s="6"/>
       <c r="C297" s="6"/>
@@ -6668,7 +6552,7 @@
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A298" s="5">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B298" s="6"/>
       <c r="C298" s="6"/>
@@ -6686,7 +6570,7 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A299" s="5">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B299" s="6"/>
       <c r="C299" s="6"/>
@@ -6704,7 +6588,7 @@
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A300" s="5">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B300" s="6"/>
       <c r="C300" s="6"/>
@@ -6722,7 +6606,7 @@
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A301" s="5">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B301" s="6"/>
       <c r="C301" s="6"/>
@@ -6740,7 +6624,7 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A302" s="5">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B302" s="6"/>
       <c r="C302" s="6"/>
@@ -6758,7 +6642,7 @@
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A303" s="5">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B303" s="6"/>
       <c r="C303" s="6"/>
@@ -6776,7 +6660,7 @@
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A304" s="5">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B304" s="6"/>
       <c r="C304" s="6"/>
@@ -6794,7 +6678,7 @@
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A305" s="5">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B305" s="6"/>
       <c r="C305" s="6"/>
@@ -6812,7 +6696,7 @@
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A306" s="5">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B306" s="6"/>
       <c r="C306" s="6"/>
@@ -6830,7 +6714,7 @@
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A307" s="5">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B307" s="6"/>
       <c r="C307" s="6"/>
@@ -6848,7 +6732,7 @@
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A308" s="5">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B308" s="6"/>
       <c r="C308" s="6"/>
@@ -6866,7 +6750,7 @@
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A309" s="5">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B309" s="6"/>
       <c r="C309" s="6"/>
@@ -6884,7 +6768,7 @@
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A310" s="5">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B310" s="6"/>
       <c r="C310" s="6"/>
@@ -6902,7 +6786,7 @@
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A311" s="5">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B311" s="6"/>
       <c r="C311" s="6"/>
@@ -6920,7 +6804,7 @@
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A312" s="5">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B312" s="6"/>
       <c r="C312" s="6"/>
@@ -6938,7 +6822,7 @@
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A313" s="5">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B313" s="6"/>
       <c r="C313" s="6"/>
@@ -6956,7 +6840,7 @@
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A314" s="5">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B314" s="6"/>
       <c r="C314" s="6"/>
@@ -6974,7 +6858,7 @@
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A315" s="5">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B315" s="6"/>
       <c r="C315" s="6"/>
@@ -6992,7 +6876,7 @@
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A316" s="5">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B316" s="6"/>
       <c r="C316" s="6"/>
@@ -7010,7 +6894,7 @@
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A317" s="5">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B317" s="6"/>
       <c r="C317" s="6"/>
@@ -7028,7 +6912,7 @@
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A318" s="5">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B318" s="6"/>
       <c r="C318" s="6"/>
@@ -7046,7 +6930,7 @@
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A319" s="5">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B319" s="6"/>
       <c r="C319" s="6"/>
@@ -7064,7 +6948,7 @@
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A320" s="5">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B320" s="6"/>
       <c r="C320" s="6"/>
@@ -7082,7 +6966,7 @@
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A321" s="5">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B321" s="6"/>
       <c r="C321" s="6"/>
@@ -7100,7 +6984,7 @@
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A322" s="5">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B322" s="6"/>
       <c r="C322" s="6"/>
@@ -7118,7 +7002,7 @@
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A323" s="5">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B323" s="6"/>
       <c r="C323" s="6"/>
@@ -7136,7 +7020,7 @@
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A324" s="5">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B324" s="6"/>
       <c r="C324" s="6"/>
@@ -7147,14 +7031,14 @@
       <c r="H324" s="5"/>
       <c r="I324" s="5"/>
       <c r="J324" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="J324:J387" si="5">H324:H874-I324:I874</f>
         <v>0</v>
       </c>
       <c r="K324" s="5"/>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A325" s="5">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B325" s="6"/>
       <c r="C325" s="6"/>
@@ -7165,14 +7049,14 @@
       <c r="H325" s="5"/>
       <c r="I325" s="5"/>
       <c r="J325" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K325" s="5"/>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A326" s="5">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B326" s="6"/>
       <c r="C326" s="6"/>
@@ -7183,14 +7067,14 @@
       <c r="H326" s="5"/>
       <c r="I326" s="5"/>
       <c r="J326" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K326" s="5"/>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A327" s="5">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B327" s="6"/>
       <c r="C327" s="6"/>
@@ -7201,14 +7085,14 @@
       <c r="H327" s="5"/>
       <c r="I327" s="5"/>
       <c r="J327" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K327" s="5"/>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A328" s="5">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B328" s="6"/>
       <c r="C328" s="6"/>
@@ -7219,14 +7103,14 @@
       <c r="H328" s="5"/>
       <c r="I328" s="5"/>
       <c r="J328" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K328" s="5"/>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A329" s="5">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B329" s="6"/>
       <c r="C329" s="6"/>
@@ -7237,14 +7121,14 @@
       <c r="H329" s="5"/>
       <c r="I329" s="5"/>
       <c r="J329" s="5">
-        <f t="shared" ref="J329:J392" si="5">H329:H879-I329:I879</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K329" s="5"/>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A330" s="5">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B330" s="6"/>
       <c r="C330" s="6"/>
@@ -7262,7 +7146,7 @@
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A331" s="5">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B331" s="6"/>
       <c r="C331" s="6"/>
@@ -7280,7 +7164,7 @@
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A332" s="5">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B332" s="6"/>
       <c r="C332" s="6"/>
@@ -7298,7 +7182,7 @@
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A333" s="5">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B333" s="6"/>
       <c r="C333" s="6"/>
@@ -7316,7 +7200,7 @@
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A334" s="5">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B334" s="6"/>
       <c r="C334" s="6"/>
@@ -7334,7 +7218,7 @@
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A335" s="5">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B335" s="6"/>
       <c r="C335" s="6"/>
@@ -7352,7 +7236,7 @@
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A336" s="5">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B336" s="6"/>
       <c r="C336" s="6"/>
@@ -7370,7 +7254,7 @@
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A337" s="5">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B337" s="6"/>
       <c r="C337" s="6"/>
@@ -7388,7 +7272,7 @@
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A338" s="5">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B338" s="6"/>
       <c r="C338" s="6"/>
@@ -7406,7 +7290,7 @@
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A339" s="5">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B339" s="6"/>
       <c r="C339" s="6"/>
@@ -7424,7 +7308,7 @@
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A340" s="5">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B340" s="6"/>
       <c r="C340" s="6"/>
@@ -7442,7 +7326,7 @@
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A341" s="5">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B341" s="6"/>
       <c r="C341" s="6"/>
@@ -7460,7 +7344,7 @@
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A342" s="5">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B342" s="6"/>
       <c r="C342" s="6"/>
@@ -7478,7 +7362,7 @@
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A343" s="5">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B343" s="6"/>
       <c r="C343" s="6"/>
@@ -7496,7 +7380,7 @@
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A344" s="5">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B344" s="6"/>
       <c r="C344" s="6"/>
@@ -7514,7 +7398,7 @@
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A345" s="5">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B345" s="6"/>
       <c r="C345" s="6"/>
@@ -7532,7 +7416,7 @@
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A346" s="5">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B346" s="6"/>
       <c r="C346" s="6"/>
@@ -7550,7 +7434,7 @@
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A347" s="5">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B347" s="6"/>
       <c r="C347" s="6"/>
@@ -7568,7 +7452,7 @@
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A348" s="5">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B348" s="6"/>
       <c r="C348" s="6"/>
@@ -7586,7 +7470,7 @@
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A349" s="5">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B349" s="6"/>
       <c r="C349" s="6"/>
@@ -7604,7 +7488,7 @@
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A350" s="5">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B350" s="6"/>
       <c r="C350" s="6"/>
@@ -7622,7 +7506,7 @@
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A351" s="5">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B351" s="6"/>
       <c r="C351" s="6"/>
@@ -7640,7 +7524,7 @@
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A352" s="5">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B352" s="6"/>
       <c r="C352" s="6"/>
@@ -7658,7 +7542,7 @@
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A353" s="5">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B353" s="6"/>
       <c r="C353" s="6"/>
@@ -7676,7 +7560,7 @@
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A354" s="5">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B354" s="6"/>
       <c r="C354" s="6"/>
@@ -7694,7 +7578,7 @@
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A355" s="5">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B355" s="6"/>
       <c r="C355" s="6"/>
@@ -7712,7 +7596,7 @@
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A356" s="5">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B356" s="6"/>
       <c r="C356" s="6"/>
@@ -7730,7 +7614,7 @@
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A357" s="5">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B357" s="6"/>
       <c r="C357" s="6"/>
@@ -7748,7 +7632,7 @@
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A358" s="5">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B358" s="6"/>
       <c r="C358" s="6"/>
@@ -7766,7 +7650,7 @@
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A359" s="5">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B359" s="6"/>
       <c r="C359" s="6"/>
@@ -7784,7 +7668,7 @@
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A360" s="5">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B360" s="6"/>
       <c r="C360" s="6"/>
@@ -7802,7 +7686,7 @@
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A361" s="5">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B361" s="6"/>
       <c r="C361" s="6"/>
@@ -7820,7 +7704,7 @@
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A362" s="5">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B362" s="6"/>
       <c r="C362" s="6"/>
@@ -7838,7 +7722,7 @@
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A363" s="5">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B363" s="6"/>
       <c r="C363" s="6"/>
@@ -7856,7 +7740,7 @@
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A364" s="5">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B364" s="6"/>
       <c r="C364" s="6"/>
@@ -7874,7 +7758,7 @@
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A365" s="5">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B365" s="6"/>
       <c r="C365" s="6"/>
@@ -7892,7 +7776,7 @@
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A366" s="5">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B366" s="6"/>
       <c r="C366" s="6"/>
@@ -7910,7 +7794,7 @@
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A367" s="5">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B367" s="6"/>
       <c r="C367" s="6"/>
@@ -7928,7 +7812,7 @@
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A368" s="5">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B368" s="6"/>
       <c r="C368" s="6"/>
@@ -7946,7 +7830,7 @@
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A369" s="5">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B369" s="6"/>
       <c r="C369" s="6"/>
@@ -7964,7 +7848,7 @@
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A370" s="5">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B370" s="6"/>
       <c r="C370" s="6"/>
@@ -7982,7 +7866,7 @@
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A371" s="5">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B371" s="6"/>
       <c r="C371" s="6"/>
@@ -8000,7 +7884,7 @@
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A372" s="5">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B372" s="6"/>
       <c r="C372" s="6"/>
@@ -8018,7 +7902,7 @@
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A373" s="5">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B373" s="6"/>
       <c r="C373" s="6"/>
@@ -8036,7 +7920,7 @@
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A374" s="5">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B374" s="6"/>
       <c r="C374" s="6"/>
@@ -8054,7 +7938,7 @@
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A375" s="5">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B375" s="6"/>
       <c r="C375" s="6"/>
@@ -8072,7 +7956,7 @@
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A376" s="5">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B376" s="6"/>
       <c r="C376" s="6"/>
@@ -8090,7 +7974,7 @@
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A377" s="5">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B377" s="6"/>
       <c r="C377" s="6"/>
@@ -8108,7 +7992,7 @@
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A378" s="5">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B378" s="6"/>
       <c r="C378" s="6"/>
@@ -8126,7 +8010,7 @@
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A379" s="5">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B379" s="6"/>
       <c r="C379" s="6"/>
@@ -8144,7 +8028,7 @@
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A380" s="5">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B380" s="6"/>
       <c r="C380" s="6"/>
@@ -8162,7 +8046,7 @@
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A381" s="5">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B381" s="6"/>
       <c r="C381" s="6"/>
@@ -8180,7 +8064,7 @@
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A382" s="5">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B382" s="6"/>
       <c r="C382" s="6"/>
@@ -8198,7 +8082,7 @@
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A383" s="5">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B383" s="6"/>
       <c r="C383" s="6"/>
@@ -8216,7 +8100,7 @@
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A384" s="5">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B384" s="6"/>
       <c r="C384" s="6"/>
@@ -8234,7 +8118,7 @@
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A385" s="5">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B385" s="6"/>
       <c r="C385" s="6"/>
@@ -8252,7 +8136,7 @@
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A386" s="5">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B386" s="6"/>
       <c r="C386" s="6"/>
@@ -8270,7 +8154,7 @@
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A387" s="5">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B387" s="6"/>
       <c r="C387" s="6"/>
@@ -8288,7 +8172,7 @@
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A388" s="5">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B388" s="6"/>
       <c r="C388" s="6"/>
@@ -8299,14 +8183,14 @@
       <c r="H388" s="5"/>
       <c r="I388" s="5"/>
       <c r="J388" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="J388:J451" si="6">H388:H938-I388:I938</f>
         <v>0</v>
       </c>
       <c r="K388" s="5"/>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A389" s="5">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B389" s="6"/>
       <c r="C389" s="6"/>
@@ -8317,14 +8201,14 @@
       <c r="H389" s="5"/>
       <c r="I389" s="5"/>
       <c r="J389" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K389" s="5"/>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A390" s="5">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B390" s="6"/>
       <c r="C390" s="6"/>
@@ -8335,14 +8219,14 @@
       <c r="H390" s="5"/>
       <c r="I390" s="5"/>
       <c r="J390" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K390" s="5"/>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A391" s="5">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B391" s="6"/>
       <c r="C391" s="6"/>
@@ -8353,14 +8237,14 @@
       <c r="H391" s="5"/>
       <c r="I391" s="5"/>
       <c r="J391" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K391" s="5"/>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A392" s="5">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B392" s="6"/>
       <c r="C392" s="6"/>
@@ -8371,14 +8255,14 @@
       <c r="H392" s="5"/>
       <c r="I392" s="5"/>
       <c r="J392" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K392" s="5"/>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A393" s="5">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B393" s="6"/>
       <c r="C393" s="6"/>
@@ -8389,14 +8273,14 @@
       <c r="H393" s="5"/>
       <c r="I393" s="5"/>
       <c r="J393" s="5">
-        <f t="shared" ref="J393:J456" si="6">H393:H943-I393:I943</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K393" s="5"/>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A394" s="5">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B394" s="6"/>
       <c r="C394" s="6"/>
@@ -8414,7 +8298,7 @@
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A395" s="5">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B395" s="6"/>
       <c r="C395" s="6"/>
@@ -8432,7 +8316,7 @@
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A396" s="5">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B396" s="6"/>
       <c r="C396" s="6"/>
@@ -8450,7 +8334,7 @@
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A397" s="5">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B397" s="6"/>
       <c r="C397" s="6"/>
@@ -8468,7 +8352,7 @@
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A398" s="5">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B398" s="6"/>
       <c r="C398" s="6"/>
@@ -8486,7 +8370,7 @@
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A399" s="5">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B399" s="6"/>
       <c r="C399" s="6"/>
@@ -8504,7 +8388,7 @@
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A400" s="5">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B400" s="6"/>
       <c r="C400" s="6"/>
@@ -8522,7 +8406,7 @@
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A401" s="5">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B401" s="6"/>
       <c r="C401" s="6"/>
@@ -8540,7 +8424,7 @@
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A402" s="5">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B402" s="6"/>
       <c r="C402" s="6"/>
@@ -8558,7 +8442,7 @@
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A403" s="5">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B403" s="6"/>
       <c r="C403" s="6"/>
@@ -8576,7 +8460,7 @@
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A404" s="5">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B404" s="6"/>
       <c r="C404" s="6"/>
@@ -8594,7 +8478,7 @@
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A405" s="5">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B405" s="6"/>
       <c r="C405" s="6"/>
@@ -8612,7 +8496,7 @@
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A406" s="5">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B406" s="6"/>
       <c r="C406" s="6"/>
@@ -8630,7 +8514,7 @@
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A407" s="5">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B407" s="6"/>
       <c r="C407" s="6"/>
@@ -8648,7 +8532,7 @@
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A408" s="5">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B408" s="6"/>
       <c r="C408" s="6"/>
@@ -8666,7 +8550,7 @@
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A409" s="5">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B409" s="6"/>
       <c r="C409" s="6"/>
@@ -8684,7 +8568,7 @@
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A410" s="5">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B410" s="6"/>
       <c r="C410" s="6"/>
@@ -8702,7 +8586,7 @@
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A411" s="5">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B411" s="6"/>
       <c r="C411" s="6"/>
@@ -8720,7 +8604,7 @@
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A412" s="5">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B412" s="6"/>
       <c r="C412" s="6"/>
@@ -8738,7 +8622,7 @@
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A413" s="5">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B413" s="6"/>
       <c r="C413" s="6"/>
@@ -8756,7 +8640,7 @@
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A414" s="5">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B414" s="6"/>
       <c r="C414" s="6"/>
@@ -8774,7 +8658,7 @@
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A415" s="5">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B415" s="6"/>
       <c r="C415" s="6"/>
@@ -8792,7 +8676,7 @@
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A416" s="5">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B416" s="6"/>
       <c r="C416" s="6"/>
@@ -8810,7 +8694,7 @@
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A417" s="5">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B417" s="6"/>
       <c r="C417" s="6"/>
@@ -8828,7 +8712,7 @@
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A418" s="5">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B418" s="6"/>
       <c r="C418" s="6"/>
@@ -8846,7 +8730,7 @@
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A419" s="5">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B419" s="6"/>
       <c r="C419" s="6"/>
@@ -8864,7 +8748,7 @@
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A420" s="5">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B420" s="6"/>
       <c r="C420" s="6"/>
@@ -8882,7 +8766,7 @@
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A421" s="5">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B421" s="6"/>
       <c r="C421" s="6"/>
@@ -8900,7 +8784,7 @@
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A422" s="5">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B422" s="6"/>
       <c r="C422" s="6"/>
@@ -8918,7 +8802,7 @@
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A423" s="5">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B423" s="6"/>
       <c r="C423" s="6"/>
@@ -8936,7 +8820,7 @@
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A424" s="5">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B424" s="6"/>
       <c r="C424" s="6"/>
@@ -8954,7 +8838,7 @@
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A425" s="5">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B425" s="6"/>
       <c r="C425" s="6"/>
@@ -8972,7 +8856,7 @@
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A426" s="5">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B426" s="6"/>
       <c r="C426" s="6"/>
@@ -8990,7 +8874,7 @@
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A427" s="5">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B427" s="6"/>
       <c r="C427" s="6"/>
@@ -9008,7 +8892,7 @@
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A428" s="5">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B428" s="6"/>
       <c r="C428" s="6"/>
@@ -9026,7 +8910,7 @@
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A429" s="5">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B429" s="6"/>
       <c r="C429" s="6"/>
@@ -9044,7 +8928,7 @@
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A430" s="5">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B430" s="6"/>
       <c r="C430" s="6"/>
@@ -9062,7 +8946,7 @@
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A431" s="5">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="B431" s="6"/>
       <c r="C431" s="6"/>
@@ -9080,7 +8964,7 @@
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A432" s="5">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B432" s="6"/>
       <c r="C432" s="6"/>
@@ -9098,7 +8982,7 @@
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A433" s="5">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="B433" s="6"/>
       <c r="C433" s="6"/>
@@ -9116,7 +9000,7 @@
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A434" s="5">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B434" s="6"/>
       <c r="C434" s="6"/>
@@ -9134,7 +9018,7 @@
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A435" s="5">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="B435" s="6"/>
       <c r="C435" s="6"/>
@@ -9152,7 +9036,7 @@
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A436" s="5">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="B436" s="6"/>
       <c r="C436" s="6"/>
@@ -9170,7 +9054,7 @@
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A437" s="5">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="B437" s="6"/>
       <c r="C437" s="6"/>
@@ -9188,7 +9072,7 @@
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A438" s="5">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B438" s="6"/>
       <c r="C438" s="6"/>
@@ -9206,7 +9090,7 @@
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A439" s="5">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B439" s="6"/>
       <c r="C439" s="6"/>
@@ -9224,7 +9108,7 @@
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A440" s="5">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B440" s="6"/>
       <c r="C440" s="6"/>
@@ -9242,7 +9126,7 @@
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A441" s="5">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B441" s="6"/>
       <c r="C441" s="6"/>
@@ -9260,7 +9144,7 @@
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A442" s="5">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B442" s="6"/>
       <c r="C442" s="6"/>
@@ -9278,7 +9162,7 @@
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A443" s="5">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B443" s="6"/>
       <c r="C443" s="6"/>
@@ -9296,7 +9180,7 @@
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A444" s="5">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B444" s="6"/>
       <c r="C444" s="6"/>
@@ -9314,7 +9198,7 @@
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A445" s="5">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B445" s="6"/>
       <c r="C445" s="6"/>
@@ -9332,7 +9216,7 @@
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A446" s="5">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="B446" s="6"/>
       <c r="C446" s="6"/>
@@ -9350,7 +9234,7 @@
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A447" s="5">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B447" s="6"/>
       <c r="C447" s="6"/>
@@ -9368,7 +9252,7 @@
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A448" s="5">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="B448" s="6"/>
       <c r="C448" s="6"/>
@@ -9386,7 +9270,7 @@
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A449" s="5">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B449" s="6"/>
       <c r="C449" s="6"/>
@@ -9404,7 +9288,7 @@
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A450" s="5">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B450" s="6"/>
       <c r="C450" s="6"/>
@@ -9422,7 +9306,7 @@
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A451" s="5">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="B451" s="6"/>
       <c r="C451" s="6"/>
@@ -9440,7 +9324,7 @@
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A452" s="5">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B452" s="6"/>
       <c r="C452" s="6"/>
@@ -9451,14 +9335,14 @@
       <c r="H452" s="5"/>
       <c r="I452" s="5"/>
       <c r="J452" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="J452:J515" si="7">H452:H1002-I452:I1002</f>
         <v>0</v>
       </c>
       <c r="K452" s="5"/>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A453" s="5">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B453" s="6"/>
       <c r="C453" s="6"/>
@@ -9469,14 +9353,14 @@
       <c r="H453" s="5"/>
       <c r="I453" s="5"/>
       <c r="J453" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K453" s="5"/>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A454" s="5">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="B454" s="6"/>
       <c r="C454" s="6"/>
@@ -9487,14 +9371,14 @@
       <c r="H454" s="5"/>
       <c r="I454" s="5"/>
       <c r="J454" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K454" s="5"/>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A455" s="5">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B455" s="6"/>
       <c r="C455" s="6"/>
@@ -9505,14 +9389,14 @@
       <c r="H455" s="5"/>
       <c r="I455" s="5"/>
       <c r="J455" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K455" s="5"/>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A456" s="5">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="B456" s="6"/>
       <c r="C456" s="6"/>
@@ -9523,14 +9407,14 @@
       <c r="H456" s="5"/>
       <c r="I456" s="5"/>
       <c r="J456" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K456" s="5"/>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A457" s="5">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B457" s="6"/>
       <c r="C457" s="6"/>
@@ -9541,14 +9425,14 @@
       <c r="H457" s="5"/>
       <c r="I457" s="5"/>
       <c r="J457" s="5">
-        <f t="shared" ref="J457:J520" si="7">H457:H1007-I457:I1007</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K457" s="5"/>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A458" s="5">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B458" s="6"/>
       <c r="C458" s="6"/>
@@ -9566,7 +9450,7 @@
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A459" s="5">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B459" s="6"/>
       <c r="C459" s="6"/>
@@ -9584,7 +9468,7 @@
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A460" s="5">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B460" s="6"/>
       <c r="C460" s="6"/>
@@ -9602,7 +9486,7 @@
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A461" s="5">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B461" s="6"/>
       <c r="C461" s="6"/>
@@ -9620,7 +9504,7 @@
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A462" s="5">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B462" s="6"/>
       <c r="C462" s="6"/>
@@ -9638,7 +9522,7 @@
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A463" s="5">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B463" s="6"/>
       <c r="C463" s="6"/>
@@ -9656,7 +9540,7 @@
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A464" s="5">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B464" s="6"/>
       <c r="C464" s="6"/>
@@ -9674,7 +9558,7 @@
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A465" s="5">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="B465" s="6"/>
       <c r="C465" s="6"/>
@@ -9692,7 +9576,7 @@
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A466" s="5">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B466" s="6"/>
       <c r="C466" s="6"/>
@@ -9710,7 +9594,7 @@
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A467" s="5">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B467" s="6"/>
       <c r="C467" s="6"/>
@@ -9728,7 +9612,7 @@
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A468" s="5">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B468" s="6"/>
       <c r="C468" s="6"/>
@@ -9746,7 +9630,7 @@
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A469" s="5">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="B469" s="6"/>
       <c r="C469" s="6"/>
@@ -9764,7 +9648,7 @@
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A470" s="5">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B470" s="6"/>
       <c r="C470" s="6"/>
@@ -9782,7 +9666,7 @@
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A471" s="5">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="B471" s="6"/>
       <c r="C471" s="6"/>
@@ -9800,7 +9684,7 @@
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A472" s="5">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B472" s="6"/>
       <c r="C472" s="6"/>
@@ -9818,7 +9702,7 @@
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A473" s="5">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B473" s="6"/>
       <c r="C473" s="6"/>
@@ -9836,7 +9720,7 @@
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A474" s="5">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="B474" s="6"/>
       <c r="C474" s="6"/>
@@ -9854,7 +9738,7 @@
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A475" s="5">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B475" s="6"/>
       <c r="C475" s="6"/>
@@ -9872,7 +9756,7 @@
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A476" s="5">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B476" s="6"/>
       <c r="C476" s="6"/>
@@ -9890,7 +9774,7 @@
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A477" s="5">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="B477" s="6"/>
       <c r="C477" s="6"/>
@@ -9908,7 +9792,7 @@
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A478" s="5">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="B478" s="6"/>
       <c r="C478" s="6"/>
@@ -9926,7 +9810,7 @@
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A479" s="5">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="B479" s="6"/>
       <c r="C479" s="6"/>
@@ -9944,7 +9828,7 @@
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A480" s="5">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B480" s="6"/>
       <c r="C480" s="6"/>
@@ -9962,7 +9846,7 @@
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A481" s="5">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B481" s="6"/>
       <c r="C481" s="6"/>
@@ -9980,7 +9864,7 @@
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A482" s="5">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B482" s="6"/>
       <c r="C482" s="6"/>
@@ -9998,7 +9882,7 @@
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A483" s="5">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="B483" s="6"/>
       <c r="C483" s="6"/>
@@ -10016,7 +9900,7 @@
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A484" s="5">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B484" s="6"/>
       <c r="C484" s="6"/>
@@ -10034,7 +9918,7 @@
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A485" s="5">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B485" s="6"/>
       <c r="C485" s="6"/>
@@ -10052,7 +9936,7 @@
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A486" s="5">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="B486" s="6"/>
       <c r="C486" s="6"/>
@@ -10070,7 +9954,7 @@
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A487" s="5">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B487" s="6"/>
       <c r="C487" s="6"/>
@@ -10088,7 +9972,7 @@
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A488" s="5">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B488" s="6"/>
       <c r="C488" s="6"/>
@@ -10106,7 +9990,7 @@
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A489" s="5">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="B489" s="6"/>
       <c r="C489" s="6"/>
@@ -10124,7 +10008,7 @@
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A490" s="5">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B490" s="6"/>
       <c r="C490" s="6"/>
@@ -10142,7 +10026,7 @@
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A491" s="5">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="B491" s="6"/>
       <c r="C491" s="6"/>
@@ -10160,7 +10044,7 @@
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A492" s="5">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="B492" s="6"/>
       <c r="C492" s="6"/>
@@ -10178,7 +10062,7 @@
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A493" s="5">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="B493" s="6"/>
       <c r="C493" s="6"/>
@@ -10196,7 +10080,7 @@
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A494" s="5">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="B494" s="6"/>
       <c r="C494" s="6"/>
@@ -10214,7 +10098,7 @@
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A495" s="5">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="B495" s="6"/>
       <c r="C495" s="6"/>
@@ -10232,7 +10116,7 @@
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A496" s="5">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="B496" s="6"/>
       <c r="C496" s="6"/>
@@ -10250,7 +10134,7 @@
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A497" s="5">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B497" s="6"/>
       <c r="C497" s="6"/>
@@ -10268,7 +10152,7 @@
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A498" s="5">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B498" s="6"/>
       <c r="C498" s="6"/>
@@ -10286,7 +10170,7 @@
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A499" s="5">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="B499" s="6"/>
       <c r="C499" s="6"/>
@@ -10304,7 +10188,7 @@
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A500" s="5">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B500" s="6"/>
       <c r="C500" s="6"/>
@@ -10322,7 +10206,7 @@
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A501" s="5">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B501" s="6"/>
       <c r="C501" s="6"/>
@@ -10340,7 +10224,7 @@
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A502" s="5">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="B502" s="6"/>
       <c r="C502" s="6"/>
@@ -10358,7 +10242,7 @@
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A503" s="5">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="B503" s="6"/>
       <c r="C503" s="6"/>
@@ -10376,7 +10260,7 @@
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A504" s="5">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="B504" s="6"/>
       <c r="C504" s="6"/>
@@ -10394,7 +10278,7 @@
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A505" s="5">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="B505" s="6"/>
       <c r="C505" s="6"/>
@@ -10412,7 +10296,7 @@
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A506" s="5">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B506" s="6"/>
       <c r="C506" s="6"/>
@@ -10430,7 +10314,7 @@
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A507" s="5">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="B507" s="6"/>
       <c r="C507" s="6"/>
@@ -10448,7 +10332,7 @@
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A508" s="5">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="B508" s="6"/>
       <c r="C508" s="6"/>
@@ -10466,7 +10350,7 @@
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A509" s="5">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B509" s="6"/>
       <c r="C509" s="6"/>
@@ -10484,7 +10368,7 @@
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A510" s="5">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="B510" s="6"/>
       <c r="C510" s="6"/>
@@ -10502,7 +10386,7 @@
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A511" s="5">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="B511" s="6"/>
       <c r="C511" s="6"/>
@@ -10520,7 +10404,7 @@
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A512" s="5">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B512" s="6"/>
       <c r="C512" s="6"/>
@@ -10538,7 +10422,7 @@
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A513" s="5">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B513" s="6"/>
       <c r="C513" s="6"/>
@@ -10556,7 +10440,7 @@
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A514" s="5">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="B514" s="6"/>
       <c r="C514" s="6"/>
@@ -10574,7 +10458,7 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A515" s="5">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="B515" s="6"/>
       <c r="C515" s="6"/>
@@ -10592,7 +10476,7 @@
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A516" s="5">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B516" s="6"/>
       <c r="C516" s="6"/>
@@ -10603,14 +10487,14 @@
       <c r="H516" s="5"/>
       <c r="I516" s="5"/>
       <c r="J516" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="J516:J553" si="8">H516:H1066-I516:I1066</f>
         <v>0</v>
       </c>
       <c r="K516" s="5"/>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A517" s="5">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="B517" s="6"/>
       <c r="C517" s="6"/>
@@ -10621,14 +10505,14 @@
       <c r="H517" s="5"/>
       <c r="I517" s="5"/>
       <c r="J517" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K517" s="5"/>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A518" s="5">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B518" s="6"/>
       <c r="C518" s="6"/>
@@ -10639,14 +10523,14 @@
       <c r="H518" s="5"/>
       <c r="I518" s="5"/>
       <c r="J518" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K518" s="5"/>
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A519" s="5">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="B519" s="6"/>
       <c r="C519" s="6"/>
@@ -10657,14 +10541,14 @@
       <c r="H519" s="5"/>
       <c r="I519" s="5"/>
       <c r="J519" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K519" s="5"/>
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A520" s="5">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="B520" s="6"/>
       <c r="C520" s="6"/>
@@ -10675,14 +10559,14 @@
       <c r="H520" s="5"/>
       <c r="I520" s="5"/>
       <c r="J520" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K520" s="5"/>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A521" s="5">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="B521" s="6"/>
       <c r="C521" s="6"/>
@@ -10693,14 +10577,14 @@
       <c r="H521" s="5"/>
       <c r="I521" s="5"/>
       <c r="J521" s="5">
-        <f t="shared" ref="J521:J558" si="8">H521:H1071-I521:I1071</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K521" s="5"/>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A522" s="5">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="B522" s="6"/>
       <c r="C522" s="6"/>
@@ -10718,7 +10602,7 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A523" s="5">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="B523" s="6"/>
       <c r="C523" s="6"/>
@@ -10736,7 +10620,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A524" s="5">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="B524" s="6"/>
       <c r="C524" s="6"/>
@@ -10754,7 +10638,7 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A525" s="5">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="B525" s="6"/>
       <c r="C525" s="6"/>
@@ -10772,7 +10656,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A526" s="5">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="B526" s="6"/>
       <c r="C526" s="6"/>
@@ -10790,7 +10674,7 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A527" s="5">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="B527" s="6"/>
       <c r="C527" s="6"/>
@@ -10808,7 +10692,7 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A528" s="5">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="B528" s="6"/>
       <c r="C528" s="6"/>
@@ -10826,7 +10710,7 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A529" s="5">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="B529" s="6"/>
       <c r="C529" s="6"/>
@@ -10844,7 +10728,7 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A530" s="5">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="B530" s="6"/>
       <c r="C530" s="6"/>
@@ -10862,7 +10746,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A531" s="5">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="B531" s="6"/>
       <c r="C531" s="6"/>
@@ -10880,7 +10764,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A532" s="5">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="B532" s="6"/>
       <c r="C532" s="6"/>
@@ -10898,7 +10782,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A533" s="5">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="B533" s="6"/>
       <c r="C533" s="6"/>
@@ -10916,7 +10800,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A534" s="5">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="B534" s="6"/>
       <c r="C534" s="6"/>
@@ -10934,7 +10818,7 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A535" s="5">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="B535" s="6"/>
       <c r="C535" s="6"/>
@@ -10952,7 +10836,7 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A536" s="5">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="B536" s="6"/>
       <c r="C536" s="6"/>
@@ -10970,7 +10854,7 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A537" s="5">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B537" s="6"/>
       <c r="C537" s="6"/>
@@ -10988,7 +10872,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A538" s="5">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="B538" s="6"/>
       <c r="C538" s="6"/>
@@ -11006,7 +10890,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A539" s="5">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="B539" s="6"/>
       <c r="C539" s="6"/>
@@ -11024,7 +10908,7 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A540" s="5">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="B540" s="6"/>
       <c r="C540" s="6"/>
@@ -11042,7 +10926,7 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A541" s="5">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="B541" s="6"/>
       <c r="C541" s="6"/>
@@ -11060,7 +10944,7 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A542" s="5">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="B542" s="6"/>
       <c r="C542" s="6"/>
@@ -11078,7 +10962,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A543" s="5">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B543" s="6"/>
       <c r="C543" s="6"/>
@@ -11096,7 +10980,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A544" s="5">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="B544" s="6"/>
       <c r="C544" s="6"/>
@@ -11114,7 +10998,7 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A545" s="5">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="B545" s="6"/>
       <c r="C545" s="6"/>
@@ -11132,7 +11016,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A546" s="5">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B546" s="6"/>
       <c r="C546" s="6"/>
@@ -11150,7 +11034,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A547" s="5">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="B547" s="6"/>
       <c r="C547" s="6"/>
@@ -11168,7 +11052,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A548" s="5">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="B548" s="6"/>
       <c r="C548" s="6"/>
@@ -11186,7 +11070,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A549" s="5">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="B549" s="6"/>
       <c r="C549" s="6"/>
@@ -11204,7 +11088,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A550" s="5">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="B550" s="6"/>
       <c r="C550" s="6"/>
@@ -11222,7 +11106,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A551" s="5">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="B551" s="6"/>
       <c r="C551" s="6"/>
@@ -11240,7 +11124,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A552" s="5">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="B552" s="6"/>
       <c r="C552" s="6"/>
@@ -11258,7 +11142,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A553" s="5">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B553" s="6"/>
       <c r="C553" s="6"/>
@@ -11274,100 +11158,10 @@
       </c>
       <c r="K553" s="5"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A554" s="5">
-        <v>547</v>
-      </c>
-      <c r="B554" s="6"/>
-      <c r="C554" s="6"/>
-      <c r="D554" s="11"/>
-      <c r="E554" s="5"/>
-      <c r="F554" s="5"/>
-      <c r="G554" s="5"/>
-      <c r="H554" s="5"/>
-      <c r="I554" s="5"/>
-      <c r="J554" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K554" s="5"/>
-    </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A555" s="5">
-        <v>548</v>
-      </c>
-      <c r="B555" s="6"/>
-      <c r="C555" s="6"/>
-      <c r="D555" s="11"/>
-      <c r="E555" s="5"/>
-      <c r="F555" s="5"/>
-      <c r="G555" s="5"/>
-      <c r="H555" s="5"/>
-      <c r="I555" s="5"/>
-      <c r="J555" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K555" s="5"/>
-    </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A556" s="5">
-        <v>549</v>
-      </c>
-      <c r="B556" s="6"/>
-      <c r="C556" s="6"/>
-      <c r="D556" s="11"/>
-      <c r="E556" s="5"/>
-      <c r="F556" s="5"/>
-      <c r="G556" s="5"/>
-      <c r="H556" s="5"/>
-      <c r="I556" s="5"/>
-      <c r="J556" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K556" s="5"/>
-    </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A557" s="5">
-        <v>550</v>
-      </c>
-      <c r="B557" s="6"/>
-      <c r="C557" s="6"/>
-      <c r="D557" s="11"/>
-      <c r="E557" s="5"/>
-      <c r="F557" s="5"/>
-      <c r="G557" s="5"/>
-      <c r="H557" s="5"/>
-      <c r="I557" s="5"/>
-      <c r="J557" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K557" s="5"/>
-    </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A558" s="5">
-        <v>551</v>
-      </c>
-      <c r="B558" s="6"/>
-      <c r="C558" s="6"/>
-      <c r="D558" s="11"/>
-      <c r="E558" s="5"/>
-      <c r="F558" s="5"/>
-      <c r="G558" s="5"/>
-      <c r="H558" s="5"/>
-      <c r="I558" s="5"/>
-      <c r="J558" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K558" s="5"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A7:K558" xr:uid="{3A74A576-E2DF-42A6-9EFF-12262C33BC48}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:K558">
-    <sortCondition ref="B8:B558"/>
+  <autoFilter ref="A7:K553" xr:uid="{3A74A576-E2DF-42A6-9EFF-12262C33BC48}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:K553">
+    <sortCondition ref="B8:B553"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="B1:K2"/>
@@ -11401,7 +11195,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -11414,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
@@ -11423,10 +11217,10 @@
         <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">

--- a/ĐƠN HÀNG.xlsx
+++ b/ĐƠN HÀNG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EECE49C-FD09-4A84-B27C-53967798BDC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152D067F-65A7-46D4-B074-1F4561A5F42D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="DS KH BOM HÀNG" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SALE!$A$7:$K$553</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SALE!$A$7:$K$552</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
   <si>
     <t>STT</t>
   </si>
@@ -133,15 +133,6 @@
     <t>0337576841</t>
   </si>
   <si>
-    <t>Thùy Dương</t>
-  </si>
-  <si>
-    <t>ĐÀ NẴNG _ TỰ LẤY</t>
-  </si>
-  <si>
-    <t>0367368988</t>
-  </si>
-  <si>
     <t>Mỹ Linh</t>
   </si>
   <si>
@@ -152,9 +143,6 @@
   </si>
   <si>
     <t>L</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
   <si>
     <t>Size 39</t>
@@ -305,9 +293,6 @@
   </si>
   <si>
     <t>áo blazer xanh lá 6 khuy</t>
-  </si>
-  <si>
-    <t>Áo khoác phong cách trẻ trung</t>
   </si>
   <si>
     <t xml:space="preserve">dép hồng nơ </t>
@@ -494,6 +479,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -506,7 +492,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,8 +602,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D92840C5-9F59-4CFF-AA8F-1DE3C4BFD589}" name="Table1" displayName="Table1" ref="M7:Q64" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="M7:Q64" xr:uid="{3085D904-27ED-4CDB-A283-BD2E4ED85299}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D92840C5-9F59-4CFF-AA8F-1DE3C4BFD589}" name="Table1" displayName="Table1" ref="M7:Q63" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="M7:Q63" xr:uid="{3085D904-27ED-4CDB-A283-BD2E4ED85299}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8F59569D-8BD2-48C7-A94C-C24FFD53D274}" name="HÀNG ORDER ĐỢT" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{F73D6532-4105-4E43-9225-3FB7628FC01C}" name="PHÍ SHIP CẢ LÔ" dataDxfId="3"/>
@@ -893,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q553"/>
+  <dimension ref="A1:Q552"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -922,70 +907,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="28"/>
+      <c r="F4" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>57</v>
-      </c>
       <c r="I4" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="17" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="16">
         <v>1</v>
       </c>
       <c r="G5" s="16">
-        <v>62</v>
+        <v>26.36</v>
       </c>
       <c r="H5" s="16">
         <v>15000</v>
       </c>
       <c r="I5" s="16">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="J5" s="16">
         <f>F5*G5*3850 +H5+I5</f>
-        <v>278700</v>
+        <v>131486</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
@@ -1011,19 +996,19 @@
         <v>6</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>9</v>
@@ -1032,27 +1017,27 @@
         <v>7</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="Q7" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="30">
+      <c r="A8" s="26">
         <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -1067,18 +1052,18 @@
         <v>0</v>
       </c>
       <c r="J8" s="5">
-        <f>H8:H553-I8:I553</f>
+        <f>H8:H552-I8:I552</f>
         <v>420000</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="30">
+      <c r="A9" s="26">
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1106,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="5">
-        <f>H9:H554-I9:I554</f>
+        <f>H9:H553-I9:I553</f>
         <v>450000</v>
       </c>
       <c r="K9" s="5" t="s">
@@ -1114,7 +1099,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="30">
+      <c r="A10" s="26">
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1142,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="5">
-        <f>H10:H555-I10:I555</f>
+        <f>H10:H554-I10:I554</f>
         <v>175000</v>
       </c>
       <c r="K10" s="5" t="s">
@@ -1150,7 +1135,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="30">
+      <c r="A11" s="26">
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -1178,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="5">
-        <f>H11:H556-I11:I556</f>
+        <f>H11:H555-I11:I555</f>
         <v>85000</v>
       </c>
       <c r="K11" s="5" t="s">
@@ -1186,7 +1171,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="30">
+      <c r="A12" s="26">
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1214,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="5">
-        <f>H12:H557-I12:I557</f>
+        <f>H12:H556-I12:I556</f>
         <v>80000</v>
       </c>
       <c r="K12" s="5" t="s">
@@ -1222,7 +1207,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="30">
+      <c r="A13" s="26">
         <v>6</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1235,7 +1220,7 @@
         <v>29</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
@@ -1250,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="5">
-        <f>H13:H558-I13:I558</f>
+        <f>H13:H557-I13:I557</f>
         <v>820000</v>
       </c>
       <c r="K13" s="5" t="s">
@@ -1258,88 +1243,88 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="30">
-        <v>7</v>
+      <c r="A14" s="5">
+        <v>8</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="14"/>
       <c r="H14" s="5">
-        <v>130000</v>
+        <v>189000</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
       </c>
       <c r="J14" s="5">
-        <f>H14:H559-I14:I559</f>
-        <v>130000</v>
+        <f t="shared" ref="J14:J16" si="0">H14:H559-I14:I559</f>
+        <v>189000</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
       </c>
-      <c r="G15" s="14"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="5">
-        <v>189000</v>
+        <v>210000</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
       <c r="J15" s="5">
-        <f>H15:H560-I15:I560</f>
-        <v>189000</v>
+        <f t="shared" si="0"/>
+        <v>210000</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="F16" s="5">
         <v>1</v>
@@ -1352,311 +1337,295 @@
         <v>0</v>
       </c>
       <c r="J16" s="5">
-        <f>H16:H561-I16:I561</f>
+        <f t="shared" si="0"/>
         <v>210000</v>
       </c>
       <c r="K16" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="26">
+        <v>13</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
-        <v>10</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="F17" s="5">
         <v>1</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5">
-        <v>210000</v>
+        <v>440000</v>
       </c>
       <c r="I17" s="5">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="J17" s="5">
-        <f>H17:H562-I17:I562</f>
-        <v>210000</v>
+        <f>H17:H564-I17:I564</f>
+        <v>340000</v>
       </c>
       <c r="K17" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="26">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="30">
-        <v>13</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>46</v>
-      </c>
       <c r="D18" s="12" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F18" s="5">
         <v>1</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5">
-        <v>440000</v>
+        <v>332000</v>
       </c>
       <c r="I18" s="5">
         <v>100000</v>
       </c>
       <c r="J18" s="5">
-        <f>H18:H565-I18:I565</f>
-        <v>340000</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="30">
-        <v>16</v>
+        <f>H18:H567-I18:I567</f>
+        <v>232000</v>
+      </c>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="26">
+        <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F19" s="5">
         <v>1</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5">
-        <v>332000</v>
+        <v>230000</v>
       </c>
       <c r="I19" s="5">
-        <v>100000</v>
+        <v>70000</v>
       </c>
       <c r="J19" s="5">
         <f>H19:H568-I19:I568</f>
-        <v>232000</v>
-      </c>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="30">
-        <v>17</v>
+        <v>160000</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F20" s="5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5">
-        <v>230000</v>
+        <v>880000</v>
       </c>
       <c r="I20" s="5">
-        <v>70000</v>
+        <v>440000</v>
       </c>
       <c r="J20" s="5">
         <f>H20:H569-I20:I569</f>
-        <v>160000</v>
-      </c>
-      <c r="K20" s="22" t="s">
-        <v>80</v>
+        <v>440000</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
-        <v>18</v>
+      <c r="A21" s="26">
+        <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F21" s="5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5">
-        <v>880000</v>
+        <v>215000</v>
       </c>
       <c r="I21" s="5">
-        <v>440000</v>
+        <v>100000</v>
       </c>
       <c r="J21" s="5">
         <f>H21:H570-I21:I570</f>
-        <v>440000</v>
+        <v>115000</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="30">
-        <v>19</v>
+      <c r="A22" s="26">
+        <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>71</v>
+      <c r="D22" s="21" t="s">
+        <v>68</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F22" s="5">
+        <v>81</v>
+      </c>
+      <c r="F22" s="18">
         <v>1</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5">
-        <v>215000</v>
+        <v>205000</v>
       </c>
       <c r="I22" s="5">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J22" s="5">
         <f>H22:H571-I22:I571</f>
-        <v>115000</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>64</v>
-      </c>
+        <v>205000</v>
+      </c>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="30">
-        <v>20</v>
+      <c r="A23" s="26">
+        <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="18">
-        <v>1</v>
+      <c r="F23" s="5">
+        <v>3</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5">
-        <v>205000</v>
+        <v>310000</v>
       </c>
       <c r="I23" s="5">
         <v>0</v>
       </c>
       <c r="J23" s="5">
-        <f>H23:H572-I23:I572</f>
-        <v>205000</v>
-      </c>
-      <c r="K23" s="5"/>
+        <f t="shared" ref="J23:J66" si="1">H23:H573-I23:I573</f>
+        <v>310000</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="30">
-        <v>22</v>
+      <c r="A24" s="26">
+        <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="23"/>
+        <v>71</v>
+      </c>
+      <c r="D24" s="11"/>
       <c r="E24" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F24" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5">
-        <v>310000</v>
+        <v>160000</v>
       </c>
       <c r="I24" s="5">
         <v>0</v>
       </c>
       <c r="J24" s="5">
-        <f t="shared" ref="J24:J67" si="0">H24:H574-I24:I574</f>
-        <v>310000</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>77</v>
-      </c>
+        <v>165000</v>
+      </c>
+      <c r="K24" s="5"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="30">
-        <v>23</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>75</v>
-      </c>
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="5">
-        <v>1</v>
-      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="5">
-        <v>160000</v>
-      </c>
-      <c r="I25" s="5">
-        <v>0</v>
-      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
       <c r="J25" s="5">
-        <v>165000</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1667,14 +1636,14 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1685,14 +1654,14 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1703,14 +1672,14 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1721,14 +1690,14 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K29" s="5"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -1739,14 +1708,14 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K30" s="5"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1757,14 +1726,14 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K31" s="5"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1775,14 +1744,14 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K32" s="5"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1793,14 +1762,14 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K33" s="5"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1811,14 +1780,14 @@
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K34" s="5"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1829,14 +1798,14 @@
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -1847,14 +1816,14 @@
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1865,14 +1834,14 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K37" s="5"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -1883,14 +1852,14 @@
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -1901,14 +1870,14 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K39" s="5"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -1919,14 +1888,14 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K40" s="5"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -1937,14 +1906,14 @@
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K41" s="5"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -1955,14 +1924,14 @@
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K42" s="5"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -1973,14 +1942,14 @@
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -1991,14 +1960,14 @@
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K44" s="5"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -2009,14 +1978,14 @@
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K45" s="5"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -2027,14 +1996,14 @@
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K46" s="5"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -2045,14 +2014,14 @@
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K47" s="5"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -2063,14 +2032,14 @@
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K48" s="5"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -2081,14 +2050,14 @@
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K49" s="5"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -2099,14 +2068,14 @@
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K50" s="5"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -2117,14 +2086,14 @@
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K51" s="5"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -2135,14 +2104,14 @@
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K52" s="5"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -2153,14 +2122,14 @@
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K53" s="5"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -2171,14 +2140,14 @@
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K54" s="5"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -2189,14 +2158,14 @@
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K55" s="5"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -2207,14 +2176,14 @@
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K56" s="5"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -2225,14 +2194,14 @@
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K57" s="5"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -2243,14 +2212,14 @@
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K58" s="5"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -2261,14 +2230,14 @@
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K59" s="5"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -2279,14 +2248,14 @@
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K60" s="5"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -2297,14 +2266,14 @@
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K61" s="5"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -2315,14 +2284,14 @@
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K62" s="5"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -2333,14 +2302,14 @@
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K63" s="5"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -2351,14 +2320,14 @@
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K64" s="5"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -2369,14 +2338,14 @@
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K65" s="5"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -2387,14 +2356,14 @@
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K66" s="5"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -2405,14 +2374,14 @@
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J67:J130" si="2">H67:H617-I67:I617</f>
         <v>0</v>
       </c>
       <c r="K67" s="5"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -2423,14 +2392,14 @@
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5">
-        <f t="shared" ref="J68:J131" si="1">H68:H618-I68:I618</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K68" s="5"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -2441,14 +2410,14 @@
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K69" s="5"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -2459,14 +2428,14 @@
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K70" s="5"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -2477,14 +2446,14 @@
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K71" s="5"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -2495,14 +2464,14 @@
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K72" s="5"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -2513,14 +2482,14 @@
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K73" s="5"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -2531,14 +2500,14 @@
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K74" s="5"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -2549,14 +2518,14 @@
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K75" s="5"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -2567,14 +2536,14 @@
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K76" s="5"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -2585,14 +2554,14 @@
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K77" s="5"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -2603,14 +2572,14 @@
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K78" s="5"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -2621,14 +2590,14 @@
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K79" s="5"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -2639,14 +2608,14 @@
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K80" s="5"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -2657,14 +2626,14 @@
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K81" s="5"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -2675,14 +2644,14 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K82" s="5"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -2693,14 +2662,14 @@
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K83" s="5"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -2711,14 +2680,14 @@
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
       <c r="J84" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K84" s="5"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -2729,14 +2698,14 @@
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K85" s="5"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -2747,14 +2716,14 @@
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K86" s="5"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -2765,14 +2734,14 @@
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
       <c r="J87" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K87" s="5"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -2783,14 +2752,14 @@
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
       <c r="J88" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K88" s="5"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -2801,14 +2770,14 @@
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K89" s="5"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -2819,14 +2788,14 @@
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
       <c r="J90" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K90" s="5"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -2837,14 +2806,14 @@
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K91" s="5"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -2855,14 +2824,14 @@
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K92" s="5"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -2873,14 +2842,14 @@
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K93" s="5"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -2891,14 +2860,14 @@
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K94" s="5"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -2909,14 +2878,14 @@
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
       <c r="J95" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K95" s="5"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -2927,14 +2896,14 @@
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
       <c r="J96" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K96" s="5"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="5">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -2945,14 +2914,14 @@
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
       <c r="J97" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K97" s="5"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -2963,14 +2932,14 @@
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
       <c r="J98" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K98" s="5"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -2981,14 +2950,14 @@
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
       <c r="J99" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K99" s="5"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="5">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -2999,14 +2968,14 @@
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
       <c r="J100" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K100" s="5"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -3017,14 +2986,14 @@
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
       <c r="J101" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K101" s="5"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="5">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -3035,14 +3004,14 @@
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
       <c r="J102" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K102" s="5"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="5">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -3053,14 +3022,14 @@
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
       <c r="J103" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K103" s="5"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="5">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -3071,14 +3040,14 @@
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
       <c r="J104" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K104" s="5"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="5">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -3089,14 +3058,14 @@
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
       <c r="J105" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K105" s="5"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="5">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -3107,14 +3076,14 @@
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
       <c r="J106" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K106" s="5"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" s="5">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -3125,14 +3094,14 @@
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
       <c r="J107" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K107" s="5"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" s="5">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
@@ -3143,14 +3112,14 @@
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
       <c r="J108" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K108" s="5"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" s="5">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -3161,14 +3130,14 @@
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
       <c r="J109" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K109" s="5"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" s="5">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -3179,14 +3148,14 @@
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K110" s="5"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -3197,14 +3166,14 @@
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
       <c r="J111" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K111" s="5"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" s="5">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -3215,14 +3184,14 @@
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
       <c r="J112" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K112" s="5"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" s="5">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -3233,14 +3202,14 @@
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
       <c r="J113" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K113" s="5"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" s="5">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
@@ -3251,14 +3220,14 @@
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
       <c r="J114" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K114" s="5"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" s="5">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
@@ -3269,14 +3238,14 @@
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
       <c r="J115" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K115" s="5"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" s="5">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
@@ -3287,14 +3256,14 @@
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
       <c r="J116" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K116" s="5"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" s="5">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -3305,14 +3274,14 @@
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
       <c r="J117" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K117" s="5"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" s="5">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
@@ -3323,14 +3292,14 @@
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
       <c r="J118" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K118" s="5"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" s="5">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -3341,14 +3310,14 @@
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
       <c r="J119" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K119" s="5"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" s="5">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -3359,14 +3328,14 @@
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
       <c r="J120" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K120" s="5"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" s="5">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
@@ -3377,14 +3346,14 @@
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
       <c r="J121" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K121" s="5"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" s="5">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
@@ -3395,14 +3364,14 @@
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
       <c r="J122" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K122" s="5"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" s="5">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
@@ -3413,14 +3382,14 @@
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
       <c r="J123" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K123" s="5"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" s="5">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
@@ -3431,14 +3400,14 @@
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
       <c r="J124" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K124" s="5"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" s="5">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
@@ -3449,14 +3418,14 @@
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
       <c r="J125" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K125" s="5"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" s="5">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
@@ -3467,14 +3436,14 @@
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
       <c r="J126" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K126" s="5"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" s="5">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
@@ -3485,14 +3454,14 @@
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
       <c r="J127" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K127" s="5"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" s="5">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
@@ -3503,14 +3472,14 @@
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
       <c r="J128" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K128" s="5"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" s="5">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
@@ -3521,14 +3490,14 @@
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
       <c r="J129" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K129" s="5"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" s="5">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
@@ -3539,14 +3508,14 @@
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
       <c r="J130" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K130" s="5"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" s="5">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
@@ -3557,14 +3526,14 @@
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
       <c r="J131" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J131:J194" si="3">H131:H681-I131:I681</f>
         <v>0</v>
       </c>
       <c r="K131" s="5"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" s="5">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
@@ -3575,14 +3544,14 @@
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
       <c r="J132" s="5">
-        <f t="shared" ref="J132:J195" si="2">H132:H682-I132:I682</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K132" s="5"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" s="5">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
@@ -3593,14 +3562,14 @@
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
       <c r="J133" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K133" s="5"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" s="5">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
@@ -3611,14 +3580,14 @@
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
       <c r="J134" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K134" s="5"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" s="5">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
@@ -3629,14 +3598,14 @@
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
       <c r="J135" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K135" s="5"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" s="5">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
@@ -3647,14 +3616,14 @@
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
       <c r="J136" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K136" s="5"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" s="5">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
@@ -3665,14 +3634,14 @@
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
       <c r="J137" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K137" s="5"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" s="5">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
@@ -3683,14 +3652,14 @@
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
       <c r="J138" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K138" s="5"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" s="5">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
@@ -3701,14 +3670,14 @@
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
       <c r="J139" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K139" s="5"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" s="5">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
@@ -3719,14 +3688,14 @@
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
       <c r="J140" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K140" s="5"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" s="5">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
@@ -3737,14 +3706,14 @@
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
       <c r="J141" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K141" s="5"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" s="5">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
@@ -3755,14 +3724,14 @@
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
       <c r="J142" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K142" s="5"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" s="5">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
@@ -3773,14 +3742,14 @@
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
       <c r="J143" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K143" s="5"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" s="5">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
@@ -3791,14 +3760,14 @@
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
       <c r="J144" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K144" s="5"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" s="5">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
@@ -3809,14 +3778,14 @@
       <c r="H145" s="5"/>
       <c r="I145" s="5"/>
       <c r="J145" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K145" s="5"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" s="5">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
@@ -3827,14 +3796,14 @@
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
       <c r="J146" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K146" s="5"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" s="5">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
@@ -3845,14 +3814,14 @@
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
       <c r="J147" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K147" s="5"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" s="5">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
@@ -3863,14 +3832,14 @@
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
       <c r="J148" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K148" s="5"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" s="5">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
@@ -3881,14 +3850,14 @@
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
       <c r="J149" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K149" s="5"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" s="5">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
@@ -3899,14 +3868,14 @@
       <c r="H150" s="5"/>
       <c r="I150" s="5"/>
       <c r="J150" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K150" s="5"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" s="5">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
@@ -3917,14 +3886,14 @@
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
       <c r="J151" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K151" s="5"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" s="5">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
@@ -3935,14 +3904,14 @@
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
       <c r="J152" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K152" s="5"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" s="5">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
@@ -3953,14 +3922,14 @@
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
       <c r="J153" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K153" s="5"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" s="5">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
@@ -3971,14 +3940,14 @@
       <c r="H154" s="5"/>
       <c r="I154" s="5"/>
       <c r="J154" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K154" s="5"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" s="5">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
@@ -3989,14 +3958,14 @@
       <c r="H155" s="5"/>
       <c r="I155" s="5"/>
       <c r="J155" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K155" s="5"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" s="5">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
@@ -4007,14 +3976,14 @@
       <c r="H156" s="5"/>
       <c r="I156" s="5"/>
       <c r="J156" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K156" s="5"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" s="5">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
@@ -4025,14 +3994,14 @@
       <c r="H157" s="5"/>
       <c r="I157" s="5"/>
       <c r="J157" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K157" s="5"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" s="5">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
@@ -4043,14 +4012,14 @@
       <c r="H158" s="5"/>
       <c r="I158" s="5"/>
       <c r="J158" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K158" s="5"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" s="5">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
@@ -4061,14 +4030,14 @@
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
       <c r="J159" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K159" s="5"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" s="5">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
@@ -4079,14 +4048,14 @@
       <c r="H160" s="5"/>
       <c r="I160" s="5"/>
       <c r="J160" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K160" s="5"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A161" s="5">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
@@ -4097,14 +4066,14 @@
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
       <c r="J161" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K161" s="5"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A162" s="5">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
@@ -4115,14 +4084,14 @@
       <c r="H162" s="5"/>
       <c r="I162" s="5"/>
       <c r="J162" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K162" s="5"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A163" s="5">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
@@ -4133,14 +4102,14 @@
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
       <c r="J163" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K163" s="5"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A164" s="5">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
@@ -4151,14 +4120,14 @@
       <c r="H164" s="5"/>
       <c r="I164" s="5"/>
       <c r="J164" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K164" s="5"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A165" s="5">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
@@ -4169,14 +4138,14 @@
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
       <c r="J165" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K165" s="5"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166" s="5">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
@@ -4187,14 +4156,14 @@
       <c r="H166" s="5"/>
       <c r="I166" s="5"/>
       <c r="J166" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K166" s="5"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A167" s="5">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
@@ -4205,14 +4174,14 @@
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
       <c r="J167" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K167" s="5"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A168" s="5">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
@@ -4223,14 +4192,14 @@
       <c r="H168" s="5"/>
       <c r="I168" s="5"/>
       <c r="J168" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K168" s="5"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A169" s="5">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
@@ -4241,14 +4210,14 @@
       <c r="H169" s="5"/>
       <c r="I169" s="5"/>
       <c r="J169" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K169" s="5"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A170" s="5">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
@@ -4259,14 +4228,14 @@
       <c r="H170" s="5"/>
       <c r="I170" s="5"/>
       <c r="J170" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K170" s="5"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A171" s="5">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
@@ -4277,14 +4246,14 @@
       <c r="H171" s="5"/>
       <c r="I171" s="5"/>
       <c r="J171" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K171" s="5"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A172" s="5">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
@@ -4295,14 +4264,14 @@
       <c r="H172" s="5"/>
       <c r="I172" s="5"/>
       <c r="J172" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K172" s="5"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A173" s="5">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
@@ -4313,14 +4282,14 @@
       <c r="H173" s="5"/>
       <c r="I173" s="5"/>
       <c r="J173" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K173" s="5"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A174" s="5">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
@@ -4331,14 +4300,14 @@
       <c r="H174" s="5"/>
       <c r="I174" s="5"/>
       <c r="J174" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K174" s="5"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A175" s="5">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
@@ -4349,14 +4318,14 @@
       <c r="H175" s="5"/>
       <c r="I175" s="5"/>
       <c r="J175" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K175" s="5"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A176" s="5">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
@@ -4367,14 +4336,14 @@
       <c r="H176" s="5"/>
       <c r="I176" s="5"/>
       <c r="J176" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K176" s="5"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A177" s="5">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
@@ -4385,14 +4354,14 @@
       <c r="H177" s="5"/>
       <c r="I177" s="5"/>
       <c r="J177" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K177" s="5"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A178" s="5">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
@@ -4403,14 +4372,14 @@
       <c r="H178" s="5"/>
       <c r="I178" s="5"/>
       <c r="J178" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K178" s="5"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A179" s="5">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
@@ -4421,14 +4390,14 @@
       <c r="H179" s="5"/>
       <c r="I179" s="5"/>
       <c r="J179" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K179" s="5"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A180" s="5">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
@@ -4439,14 +4408,14 @@
       <c r="H180" s="5"/>
       <c r="I180" s="5"/>
       <c r="J180" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K180" s="5"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A181" s="5">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
@@ -4457,14 +4426,14 @@
       <c r="H181" s="5"/>
       <c r="I181" s="5"/>
       <c r="J181" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K181" s="5"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A182" s="5">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
@@ -4475,14 +4444,14 @@
       <c r="H182" s="5"/>
       <c r="I182" s="5"/>
       <c r="J182" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K182" s="5"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A183" s="5">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
@@ -4493,14 +4462,14 @@
       <c r="H183" s="5"/>
       <c r="I183" s="5"/>
       <c r="J183" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K183" s="5"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A184" s="5">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
@@ -4511,14 +4480,14 @@
       <c r="H184" s="5"/>
       <c r="I184" s="5"/>
       <c r="J184" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K184" s="5"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A185" s="5">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
@@ -4529,14 +4498,14 @@
       <c r="H185" s="5"/>
       <c r="I185" s="5"/>
       <c r="J185" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K185" s="5"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A186" s="5">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
@@ -4547,14 +4516,14 @@
       <c r="H186" s="5"/>
       <c r="I186" s="5"/>
       <c r="J186" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K186" s="5"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A187" s="5">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
@@ -4565,14 +4534,14 @@
       <c r="H187" s="5"/>
       <c r="I187" s="5"/>
       <c r="J187" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K187" s="5"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A188" s="5">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
@@ -4583,14 +4552,14 @@
       <c r="H188" s="5"/>
       <c r="I188" s="5"/>
       <c r="J188" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K188" s="5"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A189" s="5">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
@@ -4601,14 +4570,14 @@
       <c r="H189" s="5"/>
       <c r="I189" s="5"/>
       <c r="J189" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K189" s="5"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A190" s="5">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
@@ -4619,14 +4588,14 @@
       <c r="H190" s="5"/>
       <c r="I190" s="5"/>
       <c r="J190" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K190" s="5"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A191" s="5">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
@@ -4637,14 +4606,14 @@
       <c r="H191" s="5"/>
       <c r="I191" s="5"/>
       <c r="J191" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K191" s="5"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A192" s="5">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
@@ -4655,14 +4624,14 @@
       <c r="H192" s="5"/>
       <c r="I192" s="5"/>
       <c r="J192" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K192" s="5"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A193" s="5">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
@@ -4673,14 +4642,14 @@
       <c r="H193" s="5"/>
       <c r="I193" s="5"/>
       <c r="J193" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K193" s="5"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A194" s="5">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
@@ -4691,14 +4660,14 @@
       <c r="H194" s="5"/>
       <c r="I194" s="5"/>
       <c r="J194" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K194" s="5"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A195" s="5">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
@@ -4709,14 +4678,14 @@
       <c r="H195" s="5"/>
       <c r="I195" s="5"/>
       <c r="J195" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J195:J258" si="4">H195:H745-I195:I745</f>
         <v>0</v>
       </c>
       <c r="K195" s="5"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A196" s="5">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
@@ -4727,14 +4696,14 @@
       <c r="H196" s="5"/>
       <c r="I196" s="5"/>
       <c r="J196" s="5">
-        <f t="shared" ref="J196:J259" si="3">H196:H746-I196:I746</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K196" s="5"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A197" s="5">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
@@ -4745,14 +4714,14 @@
       <c r="H197" s="5"/>
       <c r="I197" s="5"/>
       <c r="J197" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K197" s="5"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A198" s="5">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
@@ -4763,14 +4732,14 @@
       <c r="H198" s="5"/>
       <c r="I198" s="5"/>
       <c r="J198" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K198" s="5"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A199" s="5">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
@@ -4781,14 +4750,14 @@
       <c r="H199" s="5"/>
       <c r="I199" s="5"/>
       <c r="J199" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K199" s="5"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A200" s="5">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
@@ -4799,14 +4768,14 @@
       <c r="H200" s="5"/>
       <c r="I200" s="5"/>
       <c r="J200" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K200" s="5"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A201" s="5">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
@@ -4817,14 +4786,14 @@
       <c r="H201" s="5"/>
       <c r="I201" s="5"/>
       <c r="J201" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K201" s="5"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A202" s="5">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
@@ -4835,14 +4804,14 @@
       <c r="H202" s="5"/>
       <c r="I202" s="5"/>
       <c r="J202" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K202" s="5"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A203" s="5">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
@@ -4853,14 +4822,14 @@
       <c r="H203" s="5"/>
       <c r="I203" s="5"/>
       <c r="J203" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K203" s="5"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A204" s="5">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
@@ -4871,14 +4840,14 @@
       <c r="H204" s="5"/>
       <c r="I204" s="5"/>
       <c r="J204" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K204" s="5"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A205" s="5">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
@@ -4889,14 +4858,14 @@
       <c r="H205" s="5"/>
       <c r="I205" s="5"/>
       <c r="J205" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K205" s="5"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A206" s="5">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
@@ -4907,14 +4876,14 @@
       <c r="H206" s="5"/>
       <c r="I206" s="5"/>
       <c r="J206" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K206" s="5"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A207" s="5">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
@@ -4925,14 +4894,14 @@
       <c r="H207" s="5"/>
       <c r="I207" s="5"/>
       <c r="J207" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K207" s="5"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A208" s="5">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
@@ -4943,14 +4912,14 @@
       <c r="H208" s="5"/>
       <c r="I208" s="5"/>
       <c r="J208" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K208" s="5"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A209" s="5">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
@@ -4961,14 +4930,14 @@
       <c r="H209" s="5"/>
       <c r="I209" s="5"/>
       <c r="J209" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K209" s="5"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A210" s="5">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
@@ -4979,14 +4948,14 @@
       <c r="H210" s="5"/>
       <c r="I210" s="5"/>
       <c r="J210" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K210" s="5"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A211" s="5">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
@@ -4997,14 +4966,14 @@
       <c r="H211" s="5"/>
       <c r="I211" s="5"/>
       <c r="J211" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K211" s="5"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A212" s="5">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
@@ -5015,14 +4984,14 @@
       <c r="H212" s="5"/>
       <c r="I212" s="5"/>
       <c r="J212" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K212" s="5"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A213" s="5">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
@@ -5033,14 +5002,14 @@
       <c r="H213" s="5"/>
       <c r="I213" s="5"/>
       <c r="J213" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K213" s="5"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A214" s="5">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
@@ -5051,14 +5020,14 @@
       <c r="H214" s="5"/>
       <c r="I214" s="5"/>
       <c r="J214" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K214" s="5"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A215" s="5">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
@@ -5069,14 +5038,14 @@
       <c r="H215" s="5"/>
       <c r="I215" s="5"/>
       <c r="J215" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K215" s="5"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A216" s="5">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
@@ -5087,14 +5056,14 @@
       <c r="H216" s="5"/>
       <c r="I216" s="5"/>
       <c r="J216" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K216" s="5"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A217" s="5">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
@@ -5105,14 +5074,14 @@
       <c r="H217" s="5"/>
       <c r="I217" s="5"/>
       <c r="J217" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K217" s="5"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A218" s="5">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
@@ -5123,14 +5092,14 @@
       <c r="H218" s="5"/>
       <c r="I218" s="5"/>
       <c r="J218" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K218" s="5"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A219" s="5">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
@@ -5141,14 +5110,14 @@
       <c r="H219" s="5"/>
       <c r="I219" s="5"/>
       <c r="J219" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K219" s="5"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A220" s="5">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
@@ -5159,14 +5128,14 @@
       <c r="H220" s="5"/>
       <c r="I220" s="5"/>
       <c r="J220" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K220" s="5"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A221" s="5">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
@@ -5177,14 +5146,14 @@
       <c r="H221" s="5"/>
       <c r="I221" s="5"/>
       <c r="J221" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K221" s="5"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A222" s="5">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
@@ -5195,14 +5164,14 @@
       <c r="H222" s="5"/>
       <c r="I222" s="5"/>
       <c r="J222" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K222" s="5"/>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A223" s="5">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
@@ -5213,14 +5182,14 @@
       <c r="H223" s="5"/>
       <c r="I223" s="5"/>
       <c r="J223" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K223" s="5"/>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A224" s="5">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
@@ -5231,14 +5200,14 @@
       <c r="H224" s="5"/>
       <c r="I224" s="5"/>
       <c r="J224" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K224" s="5"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A225" s="5">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
@@ -5249,14 +5218,14 @@
       <c r="H225" s="5"/>
       <c r="I225" s="5"/>
       <c r="J225" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K225" s="5"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A226" s="5">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
@@ -5267,14 +5236,14 @@
       <c r="H226" s="5"/>
       <c r="I226" s="5"/>
       <c r="J226" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K226" s="5"/>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A227" s="5">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
@@ -5285,14 +5254,14 @@
       <c r="H227" s="5"/>
       <c r="I227" s="5"/>
       <c r="J227" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K227" s="5"/>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A228" s="5">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
@@ -5303,14 +5272,14 @@
       <c r="H228" s="5"/>
       <c r="I228" s="5"/>
       <c r="J228" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K228" s="5"/>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A229" s="5">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
@@ -5321,14 +5290,14 @@
       <c r="H229" s="5"/>
       <c r="I229" s="5"/>
       <c r="J229" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K229" s="5"/>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A230" s="5">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
@@ -5339,14 +5308,14 @@
       <c r="H230" s="5"/>
       <c r="I230" s="5"/>
       <c r="J230" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K230" s="5"/>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A231" s="5">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
@@ -5357,14 +5326,14 @@
       <c r="H231" s="5"/>
       <c r="I231" s="5"/>
       <c r="J231" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K231" s="5"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A232" s="5">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
@@ -5375,14 +5344,14 @@
       <c r="H232" s="5"/>
       <c r="I232" s="5"/>
       <c r="J232" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K232" s="5"/>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A233" s="5">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
@@ -5393,14 +5362,14 @@
       <c r="H233" s="5"/>
       <c r="I233" s="5"/>
       <c r="J233" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K233" s="5"/>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A234" s="5">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B234" s="6"/>
       <c r="C234" s="6"/>
@@ -5411,14 +5380,14 @@
       <c r="H234" s="5"/>
       <c r="I234" s="5"/>
       <c r="J234" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K234" s="5"/>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A235" s="5">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
@@ -5429,14 +5398,14 @@
       <c r="H235" s="5"/>
       <c r="I235" s="5"/>
       <c r="J235" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K235" s="5"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A236" s="5">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
@@ -5447,14 +5416,14 @@
       <c r="H236" s="5"/>
       <c r="I236" s="5"/>
       <c r="J236" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K236" s="5"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A237" s="5">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B237" s="6"/>
       <c r="C237" s="6"/>
@@ -5465,14 +5434,14 @@
       <c r="H237" s="5"/>
       <c r="I237" s="5"/>
       <c r="J237" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K237" s="5"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A238" s="5">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
@@ -5483,14 +5452,14 @@
       <c r="H238" s="5"/>
       <c r="I238" s="5"/>
       <c r="J238" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K238" s="5"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A239" s="5">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B239" s="6"/>
       <c r="C239" s="6"/>
@@ -5501,14 +5470,14 @@
       <c r="H239" s="5"/>
       <c r="I239" s="5"/>
       <c r="J239" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K239" s="5"/>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A240" s="5">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
@@ -5519,14 +5488,14 @@
       <c r="H240" s="5"/>
       <c r="I240" s="5"/>
       <c r="J240" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K240" s="5"/>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A241" s="5">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
@@ -5537,14 +5506,14 @@
       <c r="H241" s="5"/>
       <c r="I241" s="5"/>
       <c r="J241" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K241" s="5"/>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A242" s="5">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B242" s="6"/>
       <c r="C242" s="6"/>
@@ -5555,14 +5524,14 @@
       <c r="H242" s="5"/>
       <c r="I242" s="5"/>
       <c r="J242" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K242" s="5"/>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A243" s="5">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B243" s="6"/>
       <c r="C243" s="6"/>
@@ -5573,14 +5542,14 @@
       <c r="H243" s="5"/>
       <c r="I243" s="5"/>
       <c r="J243" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K243" s="5"/>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A244" s="5">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B244" s="6"/>
       <c r="C244" s="6"/>
@@ -5591,14 +5560,14 @@
       <c r="H244" s="5"/>
       <c r="I244" s="5"/>
       <c r="J244" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K244" s="5"/>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A245" s="5">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B245" s="6"/>
       <c r="C245" s="6"/>
@@ -5609,14 +5578,14 @@
       <c r="H245" s="5"/>
       <c r="I245" s="5"/>
       <c r="J245" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K245" s="5"/>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A246" s="5">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
@@ -5627,14 +5596,14 @@
       <c r="H246" s="5"/>
       <c r="I246" s="5"/>
       <c r="J246" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K246" s="5"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A247" s="5">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
@@ -5645,14 +5614,14 @@
       <c r="H247" s="5"/>
       <c r="I247" s="5"/>
       <c r="J247" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K247" s="5"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A248" s="5">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B248" s="6"/>
       <c r="C248" s="6"/>
@@ -5663,14 +5632,14 @@
       <c r="H248" s="5"/>
       <c r="I248" s="5"/>
       <c r="J248" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K248" s="5"/>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A249" s="5">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
@@ -5681,14 +5650,14 @@
       <c r="H249" s="5"/>
       <c r="I249" s="5"/>
       <c r="J249" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K249" s="5"/>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A250" s="5">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B250" s="6"/>
       <c r="C250" s="6"/>
@@ -5699,14 +5668,14 @@
       <c r="H250" s="5"/>
       <c r="I250" s="5"/>
       <c r="J250" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K250" s="5"/>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A251" s="5">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B251" s="6"/>
       <c r="C251" s="6"/>
@@ -5717,14 +5686,14 @@
       <c r="H251" s="5"/>
       <c r="I251" s="5"/>
       <c r="J251" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K251" s="5"/>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A252" s="5">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B252" s="6"/>
       <c r="C252" s="6"/>
@@ -5735,14 +5704,14 @@
       <c r="H252" s="5"/>
       <c r="I252" s="5"/>
       <c r="J252" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K252" s="5"/>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A253" s="5">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B253" s="6"/>
       <c r="C253" s="6"/>
@@ -5753,14 +5722,14 @@
       <c r="H253" s="5"/>
       <c r="I253" s="5"/>
       <c r="J253" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K253" s="5"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A254" s="5">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B254" s="6"/>
       <c r="C254" s="6"/>
@@ -5771,14 +5740,14 @@
       <c r="H254" s="5"/>
       <c r="I254" s="5"/>
       <c r="J254" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K254" s="5"/>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A255" s="5">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B255" s="6"/>
       <c r="C255" s="6"/>
@@ -5789,14 +5758,14 @@
       <c r="H255" s="5"/>
       <c r="I255" s="5"/>
       <c r="J255" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K255" s="5"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A256" s="5">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B256" s="6"/>
       <c r="C256" s="6"/>
@@ -5807,14 +5776,14 @@
       <c r="H256" s="5"/>
       <c r="I256" s="5"/>
       <c r="J256" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K256" s="5"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A257" s="5">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B257" s="6"/>
       <c r="C257" s="6"/>
@@ -5825,14 +5794,14 @@
       <c r="H257" s="5"/>
       <c r="I257" s="5"/>
       <c r="J257" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K257" s="5"/>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A258" s="5">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B258" s="6"/>
       <c r="C258" s="6"/>
@@ -5843,14 +5812,14 @@
       <c r="H258" s="5"/>
       <c r="I258" s="5"/>
       <c r="J258" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K258" s="5"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A259" s="5">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B259" s="6"/>
       <c r="C259" s="6"/>
@@ -5861,14 +5830,14 @@
       <c r="H259" s="5"/>
       <c r="I259" s="5"/>
       <c r="J259" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J259:J322" si="5">H259:H809-I259:I809</f>
         <v>0</v>
       </c>
       <c r="K259" s="5"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A260" s="5">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B260" s="6"/>
       <c r="C260" s="6"/>
@@ -5879,14 +5848,14 @@
       <c r="H260" s="5"/>
       <c r="I260" s="5"/>
       <c r="J260" s="5">
-        <f t="shared" ref="J260:J323" si="4">H260:H810-I260:I810</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K260" s="5"/>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A261" s="5">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B261" s="6"/>
       <c r="C261" s="6"/>
@@ -5897,14 +5866,14 @@
       <c r="H261" s="5"/>
       <c r="I261" s="5"/>
       <c r="J261" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K261" s="5"/>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A262" s="5">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B262" s="6"/>
       <c r="C262" s="6"/>
@@ -5915,14 +5884,14 @@
       <c r="H262" s="5"/>
       <c r="I262" s="5"/>
       <c r="J262" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K262" s="5"/>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A263" s="5">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B263" s="6"/>
       <c r="C263" s="6"/>
@@ -5933,14 +5902,14 @@
       <c r="H263" s="5"/>
       <c r="I263" s="5"/>
       <c r="J263" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K263" s="5"/>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A264" s="5">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B264" s="6"/>
       <c r="C264" s="6"/>
@@ -5951,14 +5920,14 @@
       <c r="H264" s="5"/>
       <c r="I264" s="5"/>
       <c r="J264" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K264" s="5"/>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A265" s="5">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B265" s="6"/>
       <c r="C265" s="6"/>
@@ -5969,14 +5938,14 @@
       <c r="H265" s="5"/>
       <c r="I265" s="5"/>
       <c r="J265" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K265" s="5"/>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A266" s="5">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B266" s="6"/>
       <c r="C266" s="6"/>
@@ -5987,14 +5956,14 @@
       <c r="H266" s="5"/>
       <c r="I266" s="5"/>
       <c r="J266" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K266" s="5"/>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A267" s="5">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B267" s="6"/>
       <c r="C267" s="6"/>
@@ -6005,14 +5974,14 @@
       <c r="H267" s="5"/>
       <c r="I267" s="5"/>
       <c r="J267" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K267" s="5"/>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A268" s="5">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B268" s="6"/>
       <c r="C268" s="6"/>
@@ -6023,14 +5992,14 @@
       <c r="H268" s="5"/>
       <c r="I268" s="5"/>
       <c r="J268" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K268" s="5"/>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A269" s="5">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B269" s="6"/>
       <c r="C269" s="6"/>
@@ -6041,14 +6010,14 @@
       <c r="H269" s="5"/>
       <c r="I269" s="5"/>
       <c r="J269" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K269" s="5"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A270" s="5">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B270" s="6"/>
       <c r="C270" s="6"/>
@@ -6059,14 +6028,14 @@
       <c r="H270" s="5"/>
       <c r="I270" s="5"/>
       <c r="J270" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K270" s="5"/>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A271" s="5">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B271" s="6"/>
       <c r="C271" s="6"/>
@@ -6077,14 +6046,14 @@
       <c r="H271" s="5"/>
       <c r="I271" s="5"/>
       <c r="J271" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K271" s="5"/>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A272" s="5">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B272" s="6"/>
       <c r="C272" s="6"/>
@@ -6095,14 +6064,14 @@
       <c r="H272" s="5"/>
       <c r="I272" s="5"/>
       <c r="J272" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K272" s="5"/>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A273" s="5">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B273" s="6"/>
       <c r="C273" s="6"/>
@@ -6113,14 +6082,14 @@
       <c r="H273" s="5"/>
       <c r="I273" s="5"/>
       <c r="J273" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K273" s="5"/>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A274" s="5">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B274" s="6"/>
       <c r="C274" s="6"/>
@@ -6131,14 +6100,14 @@
       <c r="H274" s="5"/>
       <c r="I274" s="5"/>
       <c r="J274" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K274" s="5"/>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A275" s="5">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B275" s="6"/>
       <c r="C275" s="6"/>
@@ -6149,14 +6118,14 @@
       <c r="H275" s="5"/>
       <c r="I275" s="5"/>
       <c r="J275" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K275" s="5"/>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A276" s="5">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B276" s="6"/>
       <c r="C276" s="6"/>
@@ -6167,14 +6136,14 @@
       <c r="H276" s="5"/>
       <c r="I276" s="5"/>
       <c r="J276" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K276" s="5"/>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A277" s="5">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B277" s="6"/>
       <c r="C277" s="6"/>
@@ -6185,14 +6154,14 @@
       <c r="H277" s="5"/>
       <c r="I277" s="5"/>
       <c r="J277" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K277" s="5"/>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A278" s="5">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B278" s="6"/>
       <c r="C278" s="6"/>
@@ -6203,14 +6172,14 @@
       <c r="H278" s="5"/>
       <c r="I278" s="5"/>
       <c r="J278" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K278" s="5"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A279" s="5">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B279" s="6"/>
       <c r="C279" s="6"/>
@@ -6221,14 +6190,14 @@
       <c r="H279" s="5"/>
       <c r="I279" s="5"/>
       <c r="J279" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K279" s="5"/>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A280" s="5">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B280" s="6"/>
       <c r="C280" s="6"/>
@@ -6239,14 +6208,14 @@
       <c r="H280" s="5"/>
       <c r="I280" s="5"/>
       <c r="J280" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K280" s="5"/>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A281" s="5">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B281" s="6"/>
       <c r="C281" s="6"/>
@@ -6257,14 +6226,14 @@
       <c r="H281" s="5"/>
       <c r="I281" s="5"/>
       <c r="J281" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K281" s="5"/>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A282" s="5">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B282" s="6"/>
       <c r="C282" s="6"/>
@@ -6275,14 +6244,14 @@
       <c r="H282" s="5"/>
       <c r="I282" s="5"/>
       <c r="J282" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K282" s="5"/>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A283" s="5">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B283" s="6"/>
       <c r="C283" s="6"/>
@@ -6293,14 +6262,14 @@
       <c r="H283" s="5"/>
       <c r="I283" s="5"/>
       <c r="J283" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K283" s="5"/>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A284" s="5">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B284" s="6"/>
       <c r="C284" s="6"/>
@@ -6311,14 +6280,14 @@
       <c r="H284" s="5"/>
       <c r="I284" s="5"/>
       <c r="J284" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K284" s="5"/>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A285" s="5">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B285" s="6"/>
       <c r="C285" s="6"/>
@@ -6329,14 +6298,14 @@
       <c r="H285" s="5"/>
       <c r="I285" s="5"/>
       <c r="J285" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K285" s="5"/>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A286" s="5">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B286" s="6"/>
       <c r="C286" s="6"/>
@@ -6347,14 +6316,14 @@
       <c r="H286" s="5"/>
       <c r="I286" s="5"/>
       <c r="J286" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K286" s="5"/>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A287" s="5">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B287" s="6"/>
       <c r="C287" s="6"/>
@@ -6365,14 +6334,14 @@
       <c r="H287" s="5"/>
       <c r="I287" s="5"/>
       <c r="J287" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K287" s="5"/>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A288" s="5">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B288" s="6"/>
       <c r="C288" s="6"/>
@@ -6383,14 +6352,14 @@
       <c r="H288" s="5"/>
       <c r="I288" s="5"/>
       <c r="J288" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K288" s="5"/>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A289" s="5">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B289" s="6"/>
       <c r="C289" s="6"/>
@@ -6401,14 +6370,14 @@
       <c r="H289" s="5"/>
       <c r="I289" s="5"/>
       <c r="J289" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K289" s="5"/>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A290" s="5">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B290" s="6"/>
       <c r="C290" s="6"/>
@@ -6419,14 +6388,14 @@
       <c r="H290" s="5"/>
       <c r="I290" s="5"/>
       <c r="J290" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K290" s="5"/>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A291" s="5">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B291" s="6"/>
       <c r="C291" s="6"/>
@@ -6437,14 +6406,14 @@
       <c r="H291" s="5"/>
       <c r="I291" s="5"/>
       <c r="J291" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K291" s="5"/>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A292" s="5">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B292" s="6"/>
       <c r="C292" s="6"/>
@@ -6455,14 +6424,14 @@
       <c r="H292" s="5"/>
       <c r="I292" s="5"/>
       <c r="J292" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K292" s="5"/>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A293" s="5">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B293" s="6"/>
       <c r="C293" s="6"/>
@@ -6473,14 +6442,14 @@
       <c r="H293" s="5"/>
       <c r="I293" s="5"/>
       <c r="J293" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K293" s="5"/>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A294" s="5">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B294" s="6"/>
       <c r="C294" s="6"/>
@@ -6491,14 +6460,14 @@
       <c r="H294" s="5"/>
       <c r="I294" s="5"/>
       <c r="J294" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K294" s="5"/>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A295" s="5">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B295" s="6"/>
       <c r="C295" s="6"/>
@@ -6509,14 +6478,14 @@
       <c r="H295" s="5"/>
       <c r="I295" s="5"/>
       <c r="J295" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K295" s="5"/>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A296" s="5">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B296" s="6"/>
       <c r="C296" s="6"/>
@@ -6527,14 +6496,14 @@
       <c r="H296" s="5"/>
       <c r="I296" s="5"/>
       <c r="J296" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K296" s="5"/>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A297" s="5">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B297" s="6"/>
       <c r="C297" s="6"/>
@@ -6545,14 +6514,14 @@
       <c r="H297" s="5"/>
       <c r="I297" s="5"/>
       <c r="J297" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K297" s="5"/>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A298" s="5">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B298" s="6"/>
       <c r="C298" s="6"/>
@@ -6563,14 +6532,14 @@
       <c r="H298" s="5"/>
       <c r="I298" s="5"/>
       <c r="J298" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K298" s="5"/>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A299" s="5">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B299" s="6"/>
       <c r="C299" s="6"/>
@@ -6581,14 +6550,14 @@
       <c r="H299" s="5"/>
       <c r="I299" s="5"/>
       <c r="J299" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K299" s="5"/>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A300" s="5">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B300" s="6"/>
       <c r="C300" s="6"/>
@@ -6599,14 +6568,14 @@
       <c r="H300" s="5"/>
       <c r="I300" s="5"/>
       <c r="J300" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K300" s="5"/>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A301" s="5">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B301" s="6"/>
       <c r="C301" s="6"/>
@@ -6617,14 +6586,14 @@
       <c r="H301" s="5"/>
       <c r="I301" s="5"/>
       <c r="J301" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K301" s="5"/>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A302" s="5">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B302" s="6"/>
       <c r="C302" s="6"/>
@@ -6635,14 +6604,14 @@
       <c r="H302" s="5"/>
       <c r="I302" s="5"/>
       <c r="J302" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K302" s="5"/>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A303" s="5">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B303" s="6"/>
       <c r="C303" s="6"/>
@@ -6653,14 +6622,14 @@
       <c r="H303" s="5"/>
       <c r="I303" s="5"/>
       <c r="J303" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K303" s="5"/>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A304" s="5">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B304" s="6"/>
       <c r="C304" s="6"/>
@@ -6671,14 +6640,14 @@
       <c r="H304" s="5"/>
       <c r="I304" s="5"/>
       <c r="J304" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K304" s="5"/>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A305" s="5">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B305" s="6"/>
       <c r="C305" s="6"/>
@@ -6689,14 +6658,14 @@
       <c r="H305" s="5"/>
       <c r="I305" s="5"/>
       <c r="J305" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K305" s="5"/>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A306" s="5">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B306" s="6"/>
       <c r="C306" s="6"/>
@@ -6707,14 +6676,14 @@
       <c r="H306" s="5"/>
       <c r="I306" s="5"/>
       <c r="J306" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K306" s="5"/>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A307" s="5">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B307" s="6"/>
       <c r="C307" s="6"/>
@@ -6725,14 +6694,14 @@
       <c r="H307" s="5"/>
       <c r="I307" s="5"/>
       <c r="J307" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K307" s="5"/>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A308" s="5">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B308" s="6"/>
       <c r="C308" s="6"/>
@@ -6743,14 +6712,14 @@
       <c r="H308" s="5"/>
       <c r="I308" s="5"/>
       <c r="J308" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K308" s="5"/>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A309" s="5">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B309" s="6"/>
       <c r="C309" s="6"/>
@@ -6761,14 +6730,14 @@
       <c r="H309" s="5"/>
       <c r="I309" s="5"/>
       <c r="J309" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K309" s="5"/>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A310" s="5">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B310" s="6"/>
       <c r="C310" s="6"/>
@@ -6779,14 +6748,14 @@
       <c r="H310" s="5"/>
       <c r="I310" s="5"/>
       <c r="J310" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K310" s="5"/>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A311" s="5">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B311" s="6"/>
       <c r="C311" s="6"/>
@@ -6797,14 +6766,14 @@
       <c r="H311" s="5"/>
       <c r="I311" s="5"/>
       <c r="J311" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K311" s="5"/>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A312" s="5">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B312" s="6"/>
       <c r="C312" s="6"/>
@@ -6815,14 +6784,14 @@
       <c r="H312" s="5"/>
       <c r="I312" s="5"/>
       <c r="J312" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K312" s="5"/>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A313" s="5">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B313" s="6"/>
       <c r="C313" s="6"/>
@@ -6833,14 +6802,14 @@
       <c r="H313" s="5"/>
       <c r="I313" s="5"/>
       <c r="J313" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K313" s="5"/>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A314" s="5">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B314" s="6"/>
       <c r="C314" s="6"/>
@@ -6851,14 +6820,14 @@
       <c r="H314" s="5"/>
       <c r="I314" s="5"/>
       <c r="J314" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K314" s="5"/>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A315" s="5">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B315" s="6"/>
       <c r="C315" s="6"/>
@@ -6869,14 +6838,14 @@
       <c r="H315" s="5"/>
       <c r="I315" s="5"/>
       <c r="J315" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K315" s="5"/>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A316" s="5">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B316" s="6"/>
       <c r="C316" s="6"/>
@@ -6887,14 +6856,14 @@
       <c r="H316" s="5"/>
       <c r="I316" s="5"/>
       <c r="J316" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K316" s="5"/>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A317" s="5">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B317" s="6"/>
       <c r="C317" s="6"/>
@@ -6905,14 +6874,14 @@
       <c r="H317" s="5"/>
       <c r="I317" s="5"/>
       <c r="J317" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K317" s="5"/>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A318" s="5">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B318" s="6"/>
       <c r="C318" s="6"/>
@@ -6923,14 +6892,14 @@
       <c r="H318" s="5"/>
       <c r="I318" s="5"/>
       <c r="J318" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K318" s="5"/>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A319" s="5">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B319" s="6"/>
       <c r="C319" s="6"/>
@@ -6941,14 +6910,14 @@
       <c r="H319" s="5"/>
       <c r="I319" s="5"/>
       <c r="J319" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K319" s="5"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A320" s="5">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B320" s="6"/>
       <c r="C320" s="6"/>
@@ -6959,14 +6928,14 @@
       <c r="H320" s="5"/>
       <c r="I320" s="5"/>
       <c r="J320" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K320" s="5"/>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A321" s="5">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B321" s="6"/>
       <c r="C321" s="6"/>
@@ -6977,14 +6946,14 @@
       <c r="H321" s="5"/>
       <c r="I321" s="5"/>
       <c r="J321" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K321" s="5"/>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A322" s="5">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B322" s="6"/>
       <c r="C322" s="6"/>
@@ -6995,14 +6964,14 @@
       <c r="H322" s="5"/>
       <c r="I322" s="5"/>
       <c r="J322" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K322" s="5"/>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A323" s="5">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B323" s="6"/>
       <c r="C323" s="6"/>
@@ -7013,14 +6982,14 @@
       <c r="H323" s="5"/>
       <c r="I323" s="5"/>
       <c r="J323" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="J323:J386" si="6">H323:H873-I323:I873</f>
         <v>0</v>
       </c>
       <c r="K323" s="5"/>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A324" s="5">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B324" s="6"/>
       <c r="C324" s="6"/>
@@ -7031,14 +7000,14 @@
       <c r="H324" s="5"/>
       <c r="I324" s="5"/>
       <c r="J324" s="5">
-        <f t="shared" ref="J324:J387" si="5">H324:H874-I324:I874</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K324" s="5"/>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A325" s="5">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B325" s="6"/>
       <c r="C325" s="6"/>
@@ -7049,14 +7018,14 @@
       <c r="H325" s="5"/>
       <c r="I325" s="5"/>
       <c r="J325" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K325" s="5"/>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A326" s="5">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B326" s="6"/>
       <c r="C326" s="6"/>
@@ -7067,14 +7036,14 @@
       <c r="H326" s="5"/>
       <c r="I326" s="5"/>
       <c r="J326" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K326" s="5"/>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A327" s="5">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B327" s="6"/>
       <c r="C327" s="6"/>
@@ -7085,14 +7054,14 @@
       <c r="H327" s="5"/>
       <c r="I327" s="5"/>
       <c r="J327" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K327" s="5"/>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A328" s="5">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B328" s="6"/>
       <c r="C328" s="6"/>
@@ -7103,14 +7072,14 @@
       <c r="H328" s="5"/>
       <c r="I328" s="5"/>
       <c r="J328" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K328" s="5"/>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A329" s="5">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B329" s="6"/>
       <c r="C329" s="6"/>
@@ -7121,14 +7090,14 @@
       <c r="H329" s="5"/>
       <c r="I329" s="5"/>
       <c r="J329" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K329" s="5"/>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A330" s="5">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B330" s="6"/>
       <c r="C330" s="6"/>
@@ -7139,14 +7108,14 @@
       <c r="H330" s="5"/>
       <c r="I330" s="5"/>
       <c r="J330" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K330" s="5"/>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A331" s="5">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B331" s="6"/>
       <c r="C331" s="6"/>
@@ -7157,14 +7126,14 @@
       <c r="H331" s="5"/>
       <c r="I331" s="5"/>
       <c r="J331" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K331" s="5"/>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A332" s="5">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B332" s="6"/>
       <c r="C332" s="6"/>
@@ -7175,14 +7144,14 @@
       <c r="H332" s="5"/>
       <c r="I332" s="5"/>
       <c r="J332" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K332" s="5"/>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A333" s="5">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B333" s="6"/>
       <c r="C333" s="6"/>
@@ -7193,14 +7162,14 @@
       <c r="H333" s="5"/>
       <c r="I333" s="5"/>
       <c r="J333" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K333" s="5"/>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A334" s="5">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B334" s="6"/>
       <c r="C334" s="6"/>
@@ -7211,14 +7180,14 @@
       <c r="H334" s="5"/>
       <c r="I334" s="5"/>
       <c r="J334" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K334" s="5"/>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A335" s="5">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B335" s="6"/>
       <c r="C335" s="6"/>
@@ -7229,14 +7198,14 @@
       <c r="H335" s="5"/>
       <c r="I335" s="5"/>
       <c r="J335" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K335" s="5"/>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A336" s="5">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B336" s="6"/>
       <c r="C336" s="6"/>
@@ -7247,14 +7216,14 @@
       <c r="H336" s="5"/>
       <c r="I336" s="5"/>
       <c r="J336" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K336" s="5"/>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A337" s="5">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B337" s="6"/>
       <c r="C337" s="6"/>
@@ -7265,14 +7234,14 @@
       <c r="H337" s="5"/>
       <c r="I337" s="5"/>
       <c r="J337" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K337" s="5"/>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A338" s="5">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B338" s="6"/>
       <c r="C338" s="6"/>
@@ -7283,14 +7252,14 @@
       <c r="H338" s="5"/>
       <c r="I338" s="5"/>
       <c r="J338" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K338" s="5"/>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A339" s="5">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B339" s="6"/>
       <c r="C339" s="6"/>
@@ -7301,14 +7270,14 @@
       <c r="H339" s="5"/>
       <c r="I339" s="5"/>
       <c r="J339" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K339" s="5"/>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A340" s="5">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B340" s="6"/>
       <c r="C340" s="6"/>
@@ -7319,14 +7288,14 @@
       <c r="H340" s="5"/>
       <c r="I340" s="5"/>
       <c r="J340" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K340" s="5"/>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A341" s="5">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B341" s="6"/>
       <c r="C341" s="6"/>
@@ -7337,14 +7306,14 @@
       <c r="H341" s="5"/>
       <c r="I341" s="5"/>
       <c r="J341" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K341" s="5"/>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A342" s="5">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B342" s="6"/>
       <c r="C342" s="6"/>
@@ -7355,14 +7324,14 @@
       <c r="H342" s="5"/>
       <c r="I342" s="5"/>
       <c r="J342" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K342" s="5"/>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A343" s="5">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B343" s="6"/>
       <c r="C343" s="6"/>
@@ -7373,14 +7342,14 @@
       <c r="H343" s="5"/>
       <c r="I343" s="5"/>
       <c r="J343" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K343" s="5"/>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A344" s="5">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B344" s="6"/>
       <c r="C344" s="6"/>
@@ -7391,14 +7360,14 @@
       <c r="H344" s="5"/>
       <c r="I344" s="5"/>
       <c r="J344" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K344" s="5"/>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A345" s="5">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B345" s="6"/>
       <c r="C345" s="6"/>
@@ -7409,14 +7378,14 @@
       <c r="H345" s="5"/>
       <c r="I345" s="5"/>
       <c r="J345" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K345" s="5"/>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A346" s="5">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B346" s="6"/>
       <c r="C346" s="6"/>
@@ -7427,14 +7396,14 @@
       <c r="H346" s="5"/>
       <c r="I346" s="5"/>
       <c r="J346" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K346" s="5"/>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A347" s="5">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B347" s="6"/>
       <c r="C347" s="6"/>
@@ -7445,14 +7414,14 @@
       <c r="H347" s="5"/>
       <c r="I347" s="5"/>
       <c r="J347" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K347" s="5"/>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A348" s="5">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B348" s="6"/>
       <c r="C348" s="6"/>
@@ -7463,14 +7432,14 @@
       <c r="H348" s="5"/>
       <c r="I348" s="5"/>
       <c r="J348" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K348" s="5"/>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A349" s="5">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B349" s="6"/>
       <c r="C349" s="6"/>
@@ -7481,14 +7450,14 @@
       <c r="H349" s="5"/>
       <c r="I349" s="5"/>
       <c r="J349" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K349" s="5"/>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A350" s="5">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B350" s="6"/>
       <c r="C350" s="6"/>
@@ -7499,14 +7468,14 @@
       <c r="H350" s="5"/>
       <c r="I350" s="5"/>
       <c r="J350" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K350" s="5"/>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A351" s="5">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B351" s="6"/>
       <c r="C351" s="6"/>
@@ -7517,14 +7486,14 @@
       <c r="H351" s="5"/>
       <c r="I351" s="5"/>
       <c r="J351" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K351" s="5"/>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A352" s="5">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B352" s="6"/>
       <c r="C352" s="6"/>
@@ -7535,14 +7504,14 @@
       <c r="H352" s="5"/>
       <c r="I352" s="5"/>
       <c r="J352" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K352" s="5"/>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A353" s="5">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B353" s="6"/>
       <c r="C353" s="6"/>
@@ -7553,14 +7522,14 @@
       <c r="H353" s="5"/>
       <c r="I353" s="5"/>
       <c r="J353" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K353" s="5"/>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A354" s="5">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B354" s="6"/>
       <c r="C354" s="6"/>
@@ -7571,14 +7540,14 @@
       <c r="H354" s="5"/>
       <c r="I354" s="5"/>
       <c r="J354" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K354" s="5"/>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A355" s="5">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B355" s="6"/>
       <c r="C355" s="6"/>
@@ -7589,14 +7558,14 @@
       <c r="H355" s="5"/>
       <c r="I355" s="5"/>
       <c r="J355" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K355" s="5"/>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A356" s="5">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B356" s="6"/>
       <c r="C356" s="6"/>
@@ -7607,14 +7576,14 @@
       <c r="H356" s="5"/>
       <c r="I356" s="5"/>
       <c r="J356" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K356" s="5"/>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A357" s="5">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B357" s="6"/>
       <c r="C357" s="6"/>
@@ -7625,14 +7594,14 @@
       <c r="H357" s="5"/>
       <c r="I357" s="5"/>
       <c r="J357" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K357" s="5"/>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A358" s="5">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B358" s="6"/>
       <c r="C358" s="6"/>
@@ -7643,14 +7612,14 @@
       <c r="H358" s="5"/>
       <c r="I358" s="5"/>
       <c r="J358" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K358" s="5"/>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A359" s="5">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B359" s="6"/>
       <c r="C359" s="6"/>
@@ -7661,14 +7630,14 @@
       <c r="H359" s="5"/>
       <c r="I359" s="5"/>
       <c r="J359" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K359" s="5"/>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A360" s="5">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B360" s="6"/>
       <c r="C360" s="6"/>
@@ -7679,14 +7648,14 @@
       <c r="H360" s="5"/>
       <c r="I360" s="5"/>
       <c r="J360" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K360" s="5"/>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A361" s="5">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B361" s="6"/>
       <c r="C361" s="6"/>
@@ -7697,14 +7666,14 @@
       <c r="H361" s="5"/>
       <c r="I361" s="5"/>
       <c r="J361" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K361" s="5"/>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A362" s="5">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B362" s="6"/>
       <c r="C362" s="6"/>
@@ -7715,14 +7684,14 @@
       <c r="H362" s="5"/>
       <c r="I362" s="5"/>
       <c r="J362" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K362" s="5"/>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A363" s="5">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B363" s="6"/>
       <c r="C363" s="6"/>
@@ -7733,14 +7702,14 @@
       <c r="H363" s="5"/>
       <c r="I363" s="5"/>
       <c r="J363" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K363" s="5"/>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A364" s="5">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B364" s="6"/>
       <c r="C364" s="6"/>
@@ -7751,14 +7720,14 @@
       <c r="H364" s="5"/>
       <c r="I364" s="5"/>
       <c r="J364" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K364" s="5"/>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A365" s="5">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B365" s="6"/>
       <c r="C365" s="6"/>
@@ -7769,14 +7738,14 @@
       <c r="H365" s="5"/>
       <c r="I365" s="5"/>
       <c r="J365" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K365" s="5"/>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A366" s="5">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B366" s="6"/>
       <c r="C366" s="6"/>
@@ -7787,14 +7756,14 @@
       <c r="H366" s="5"/>
       <c r="I366" s="5"/>
       <c r="J366" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K366" s="5"/>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A367" s="5">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B367" s="6"/>
       <c r="C367" s="6"/>
@@ -7805,14 +7774,14 @@
       <c r="H367" s="5"/>
       <c r="I367" s="5"/>
       <c r="J367" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K367" s="5"/>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A368" s="5">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B368" s="6"/>
       <c r="C368" s="6"/>
@@ -7823,14 +7792,14 @@
       <c r="H368" s="5"/>
       <c r="I368" s="5"/>
       <c r="J368" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K368" s="5"/>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A369" s="5">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B369" s="6"/>
       <c r="C369" s="6"/>
@@ -7841,14 +7810,14 @@
       <c r="H369" s="5"/>
       <c r="I369" s="5"/>
       <c r="J369" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K369" s="5"/>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A370" s="5">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B370" s="6"/>
       <c r="C370" s="6"/>
@@ -7859,14 +7828,14 @@
       <c r="H370" s="5"/>
       <c r="I370" s="5"/>
       <c r="J370" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K370" s="5"/>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A371" s="5">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B371" s="6"/>
       <c r="C371" s="6"/>
@@ -7877,14 +7846,14 @@
       <c r="H371" s="5"/>
       <c r="I371" s="5"/>
       <c r="J371" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K371" s="5"/>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A372" s="5">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B372" s="6"/>
       <c r="C372" s="6"/>
@@ -7895,14 +7864,14 @@
       <c r="H372" s="5"/>
       <c r="I372" s="5"/>
       <c r="J372" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K372" s="5"/>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A373" s="5">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B373" s="6"/>
       <c r="C373" s="6"/>
@@ -7913,14 +7882,14 @@
       <c r="H373" s="5"/>
       <c r="I373" s="5"/>
       <c r="J373" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K373" s="5"/>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A374" s="5">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B374" s="6"/>
       <c r="C374" s="6"/>
@@ -7931,14 +7900,14 @@
       <c r="H374" s="5"/>
       <c r="I374" s="5"/>
       <c r="J374" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K374" s="5"/>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A375" s="5">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B375" s="6"/>
       <c r="C375" s="6"/>
@@ -7949,14 +7918,14 @@
       <c r="H375" s="5"/>
       <c r="I375" s="5"/>
       <c r="J375" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K375" s="5"/>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A376" s="5">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B376" s="6"/>
       <c r="C376" s="6"/>
@@ -7967,14 +7936,14 @@
       <c r="H376" s="5"/>
       <c r="I376" s="5"/>
       <c r="J376" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K376" s="5"/>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A377" s="5">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B377" s="6"/>
       <c r="C377" s="6"/>
@@ -7985,14 +7954,14 @@
       <c r="H377" s="5"/>
       <c r="I377" s="5"/>
       <c r="J377" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K377" s="5"/>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A378" s="5">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B378" s="6"/>
       <c r="C378" s="6"/>
@@ -8003,14 +7972,14 @@
       <c r="H378" s="5"/>
       <c r="I378" s="5"/>
       <c r="J378" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K378" s="5"/>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A379" s="5">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B379" s="6"/>
       <c r="C379" s="6"/>
@@ -8021,14 +7990,14 @@
       <c r="H379" s="5"/>
       <c r="I379" s="5"/>
       <c r="J379" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K379" s="5"/>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A380" s="5">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B380" s="6"/>
       <c r="C380" s="6"/>
@@ -8039,14 +8008,14 @@
       <c r="H380" s="5"/>
       <c r="I380" s="5"/>
       <c r="J380" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K380" s="5"/>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A381" s="5">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B381" s="6"/>
       <c r="C381" s="6"/>
@@ -8057,14 +8026,14 @@
       <c r="H381" s="5"/>
       <c r="I381" s="5"/>
       <c r="J381" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K381" s="5"/>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A382" s="5">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B382" s="6"/>
       <c r="C382" s="6"/>
@@ -8075,14 +8044,14 @@
       <c r="H382" s="5"/>
       <c r="I382" s="5"/>
       <c r="J382" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K382" s="5"/>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A383" s="5">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B383" s="6"/>
       <c r="C383" s="6"/>
@@ -8093,14 +8062,14 @@
       <c r="H383" s="5"/>
       <c r="I383" s="5"/>
       <c r="J383" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K383" s="5"/>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A384" s="5">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B384" s="6"/>
       <c r="C384" s="6"/>
@@ -8111,14 +8080,14 @@
       <c r="H384" s="5"/>
       <c r="I384" s="5"/>
       <c r="J384" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K384" s="5"/>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A385" s="5">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B385" s="6"/>
       <c r="C385" s="6"/>
@@ -8129,14 +8098,14 @@
       <c r="H385" s="5"/>
       <c r="I385" s="5"/>
       <c r="J385" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K385" s="5"/>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A386" s="5">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B386" s="6"/>
       <c r="C386" s="6"/>
@@ -8147,14 +8116,14 @@
       <c r="H386" s="5"/>
       <c r="I386" s="5"/>
       <c r="J386" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K386" s="5"/>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A387" s="5">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B387" s="6"/>
       <c r="C387" s="6"/>
@@ -8165,14 +8134,14 @@
       <c r="H387" s="5"/>
       <c r="I387" s="5"/>
       <c r="J387" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="J387:J450" si="7">H387:H937-I387:I937</f>
         <v>0</v>
       </c>
       <c r="K387" s="5"/>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A388" s="5">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B388" s="6"/>
       <c r="C388" s="6"/>
@@ -8183,14 +8152,14 @@
       <c r="H388" s="5"/>
       <c r="I388" s="5"/>
       <c r="J388" s="5">
-        <f t="shared" ref="J388:J451" si="6">H388:H938-I388:I938</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K388" s="5"/>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A389" s="5">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B389" s="6"/>
       <c r="C389" s="6"/>
@@ -8201,14 +8170,14 @@
       <c r="H389" s="5"/>
       <c r="I389" s="5"/>
       <c r="J389" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K389" s="5"/>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A390" s="5">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B390" s="6"/>
       <c r="C390" s="6"/>
@@ -8219,14 +8188,14 @@
       <c r="H390" s="5"/>
       <c r="I390" s="5"/>
       <c r="J390" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K390" s="5"/>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A391" s="5">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B391" s="6"/>
       <c r="C391" s="6"/>
@@ -8237,14 +8206,14 @@
       <c r="H391" s="5"/>
       <c r="I391" s="5"/>
       <c r="J391" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K391" s="5"/>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A392" s="5">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B392" s="6"/>
       <c r="C392" s="6"/>
@@ -8255,14 +8224,14 @@
       <c r="H392" s="5"/>
       <c r="I392" s="5"/>
       <c r="J392" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K392" s="5"/>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A393" s="5">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B393" s="6"/>
       <c r="C393" s="6"/>
@@ -8273,14 +8242,14 @@
       <c r="H393" s="5"/>
       <c r="I393" s="5"/>
       <c r="J393" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K393" s="5"/>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A394" s="5">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B394" s="6"/>
       <c r="C394" s="6"/>
@@ -8291,14 +8260,14 @@
       <c r="H394" s="5"/>
       <c r="I394" s="5"/>
       <c r="J394" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K394" s="5"/>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A395" s="5">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B395" s="6"/>
       <c r="C395" s="6"/>
@@ -8309,14 +8278,14 @@
       <c r="H395" s="5"/>
       <c r="I395" s="5"/>
       <c r="J395" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K395" s="5"/>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A396" s="5">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B396" s="6"/>
       <c r="C396" s="6"/>
@@ -8327,14 +8296,14 @@
       <c r="H396" s="5"/>
       <c r="I396" s="5"/>
       <c r="J396" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K396" s="5"/>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A397" s="5">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B397" s="6"/>
       <c r="C397" s="6"/>
@@ -8345,14 +8314,14 @@
       <c r="H397" s="5"/>
       <c r="I397" s="5"/>
       <c r="J397" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K397" s="5"/>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A398" s="5">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B398" s="6"/>
       <c r="C398" s="6"/>
@@ -8363,14 +8332,14 @@
       <c r="H398" s="5"/>
       <c r="I398" s="5"/>
       <c r="J398" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K398" s="5"/>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A399" s="5">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B399" s="6"/>
       <c r="C399" s="6"/>
@@ -8381,14 +8350,14 @@
       <c r="H399" s="5"/>
       <c r="I399" s="5"/>
       <c r="J399" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K399" s="5"/>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A400" s="5">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B400" s="6"/>
       <c r="C400" s="6"/>
@@ -8399,14 +8368,14 @@
       <c r="H400" s="5"/>
       <c r="I400" s="5"/>
       <c r="J400" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K400" s="5"/>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A401" s="5">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B401" s="6"/>
       <c r="C401" s="6"/>
@@ -8417,14 +8386,14 @@
       <c r="H401" s="5"/>
       <c r="I401" s="5"/>
       <c r="J401" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K401" s="5"/>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A402" s="5">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B402" s="6"/>
       <c r="C402" s="6"/>
@@ -8435,14 +8404,14 @@
       <c r="H402" s="5"/>
       <c r="I402" s="5"/>
       <c r="J402" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K402" s="5"/>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A403" s="5">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B403" s="6"/>
       <c r="C403" s="6"/>
@@ -8453,14 +8422,14 @@
       <c r="H403" s="5"/>
       <c r="I403" s="5"/>
       <c r="J403" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K403" s="5"/>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A404" s="5">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B404" s="6"/>
       <c r="C404" s="6"/>
@@ -8471,14 +8440,14 @@
       <c r="H404" s="5"/>
       <c r="I404" s="5"/>
       <c r="J404" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K404" s="5"/>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A405" s="5">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B405" s="6"/>
       <c r="C405" s="6"/>
@@ -8489,14 +8458,14 @@
       <c r="H405" s="5"/>
       <c r="I405" s="5"/>
       <c r="J405" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K405" s="5"/>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A406" s="5">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B406" s="6"/>
       <c r="C406" s="6"/>
@@ -8507,14 +8476,14 @@
       <c r="H406" s="5"/>
       <c r="I406" s="5"/>
       <c r="J406" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K406" s="5"/>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A407" s="5">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B407" s="6"/>
       <c r="C407" s="6"/>
@@ -8525,14 +8494,14 @@
       <c r="H407" s="5"/>
       <c r="I407" s="5"/>
       <c r="J407" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K407" s="5"/>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A408" s="5">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B408" s="6"/>
       <c r="C408" s="6"/>
@@ -8543,14 +8512,14 @@
       <c r="H408" s="5"/>
       <c r="I408" s="5"/>
       <c r="J408" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K408" s="5"/>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A409" s="5">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B409" s="6"/>
       <c r="C409" s="6"/>
@@ -8561,14 +8530,14 @@
       <c r="H409" s="5"/>
       <c r="I409" s="5"/>
       <c r="J409" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K409" s="5"/>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A410" s="5">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B410" s="6"/>
       <c r="C410" s="6"/>
@@ -8579,14 +8548,14 @@
       <c r="H410" s="5"/>
       <c r="I410" s="5"/>
       <c r="J410" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K410" s="5"/>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A411" s="5">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B411" s="6"/>
       <c r="C411" s="6"/>
@@ -8597,14 +8566,14 @@
       <c r="H411" s="5"/>
       <c r="I411" s="5"/>
       <c r="J411" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K411" s="5"/>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A412" s="5">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B412" s="6"/>
       <c r="C412" s="6"/>
@@ -8615,14 +8584,14 @@
       <c r="H412" s="5"/>
       <c r="I412" s="5"/>
       <c r="J412" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K412" s="5"/>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A413" s="5">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B413" s="6"/>
       <c r="C413" s="6"/>
@@ -8633,14 +8602,14 @@
       <c r="H413" s="5"/>
       <c r="I413" s="5"/>
       <c r="J413" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K413" s="5"/>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A414" s="5">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B414" s="6"/>
       <c r="C414" s="6"/>
@@ -8651,14 +8620,14 @@
       <c r="H414" s="5"/>
       <c r="I414" s="5"/>
       <c r="J414" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K414" s="5"/>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A415" s="5">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B415" s="6"/>
       <c r="C415" s="6"/>
@@ -8669,14 +8638,14 @@
       <c r="H415" s="5"/>
       <c r="I415" s="5"/>
       <c r="J415" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K415" s="5"/>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A416" s="5">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B416" s="6"/>
       <c r="C416" s="6"/>
@@ -8687,14 +8656,14 @@
       <c r="H416" s="5"/>
       <c r="I416" s="5"/>
       <c r="J416" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K416" s="5"/>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A417" s="5">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B417" s="6"/>
       <c r="C417" s="6"/>
@@ -8705,14 +8674,14 @@
       <c r="H417" s="5"/>
       <c r="I417" s="5"/>
       <c r="J417" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K417" s="5"/>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A418" s="5">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B418" s="6"/>
       <c r="C418" s="6"/>
@@ -8723,14 +8692,14 @@
       <c r="H418" s="5"/>
       <c r="I418" s="5"/>
       <c r="J418" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K418" s="5"/>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A419" s="5">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B419" s="6"/>
       <c r="C419" s="6"/>
@@ -8741,14 +8710,14 @@
       <c r="H419" s="5"/>
       <c r="I419" s="5"/>
       <c r="J419" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K419" s="5"/>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A420" s="5">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B420" s="6"/>
       <c r="C420" s="6"/>
@@ -8759,14 +8728,14 @@
       <c r="H420" s="5"/>
       <c r="I420" s="5"/>
       <c r="J420" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K420" s="5"/>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A421" s="5">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B421" s="6"/>
       <c r="C421" s="6"/>
@@ -8777,14 +8746,14 @@
       <c r="H421" s="5"/>
       <c r="I421" s="5"/>
       <c r="J421" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K421" s="5"/>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A422" s="5">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B422" s="6"/>
       <c r="C422" s="6"/>
@@ -8795,14 +8764,14 @@
       <c r="H422" s="5"/>
       <c r="I422" s="5"/>
       <c r="J422" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K422" s="5"/>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A423" s="5">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B423" s="6"/>
       <c r="C423" s="6"/>
@@ -8813,14 +8782,14 @@
       <c r="H423" s="5"/>
       <c r="I423" s="5"/>
       <c r="J423" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K423" s="5"/>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A424" s="5">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B424" s="6"/>
       <c r="C424" s="6"/>
@@ -8831,14 +8800,14 @@
       <c r="H424" s="5"/>
       <c r="I424" s="5"/>
       <c r="J424" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K424" s="5"/>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A425" s="5">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B425" s="6"/>
       <c r="C425" s="6"/>
@@ -8849,14 +8818,14 @@
       <c r="H425" s="5"/>
       <c r="I425" s="5"/>
       <c r="J425" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K425" s="5"/>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A426" s="5">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B426" s="6"/>
       <c r="C426" s="6"/>
@@ -8867,14 +8836,14 @@
       <c r="H426" s="5"/>
       <c r="I426" s="5"/>
       <c r="J426" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K426" s="5"/>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A427" s="5">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B427" s="6"/>
       <c r="C427" s="6"/>
@@ -8885,14 +8854,14 @@
       <c r="H427" s="5"/>
       <c r="I427" s="5"/>
       <c r="J427" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K427" s="5"/>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A428" s="5">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B428" s="6"/>
       <c r="C428" s="6"/>
@@ -8903,14 +8872,14 @@
       <c r="H428" s="5"/>
       <c r="I428" s="5"/>
       <c r="J428" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K428" s="5"/>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A429" s="5">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B429" s="6"/>
       <c r="C429" s="6"/>
@@ -8921,14 +8890,14 @@
       <c r="H429" s="5"/>
       <c r="I429" s="5"/>
       <c r="J429" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K429" s="5"/>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A430" s="5">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B430" s="6"/>
       <c r="C430" s="6"/>
@@ -8939,14 +8908,14 @@
       <c r="H430" s="5"/>
       <c r="I430" s="5"/>
       <c r="J430" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K430" s="5"/>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A431" s="5">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B431" s="6"/>
       <c r="C431" s="6"/>
@@ -8957,14 +8926,14 @@
       <c r="H431" s="5"/>
       <c r="I431" s="5"/>
       <c r="J431" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K431" s="5"/>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A432" s="5">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B432" s="6"/>
       <c r="C432" s="6"/>
@@ -8975,14 +8944,14 @@
       <c r="H432" s="5"/>
       <c r="I432" s="5"/>
       <c r="J432" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K432" s="5"/>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A433" s="5">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B433" s="6"/>
       <c r="C433" s="6"/>
@@ -8993,14 +8962,14 @@
       <c r="H433" s="5"/>
       <c r="I433" s="5"/>
       <c r="J433" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K433" s="5"/>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A434" s="5">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B434" s="6"/>
       <c r="C434" s="6"/>
@@ -9011,14 +8980,14 @@
       <c r="H434" s="5"/>
       <c r="I434" s="5"/>
       <c r="J434" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K434" s="5"/>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A435" s="5">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B435" s="6"/>
       <c r="C435" s="6"/>
@@ -9029,14 +8998,14 @@
       <c r="H435" s="5"/>
       <c r="I435" s="5"/>
       <c r="J435" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K435" s="5"/>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A436" s="5">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B436" s="6"/>
       <c r="C436" s="6"/>
@@ -9047,14 +9016,14 @@
       <c r="H436" s="5"/>
       <c r="I436" s="5"/>
       <c r="J436" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K436" s="5"/>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A437" s="5">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B437" s="6"/>
       <c r="C437" s="6"/>
@@ -9065,14 +9034,14 @@
       <c r="H437" s="5"/>
       <c r="I437" s="5"/>
       <c r="J437" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K437" s="5"/>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A438" s="5">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B438" s="6"/>
       <c r="C438" s="6"/>
@@ -9083,14 +9052,14 @@
       <c r="H438" s="5"/>
       <c r="I438" s="5"/>
       <c r="J438" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K438" s="5"/>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A439" s="5">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B439" s="6"/>
       <c r="C439" s="6"/>
@@ -9101,14 +9070,14 @@
       <c r="H439" s="5"/>
       <c r="I439" s="5"/>
       <c r="J439" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K439" s="5"/>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A440" s="5">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B440" s="6"/>
       <c r="C440" s="6"/>
@@ -9119,14 +9088,14 @@
       <c r="H440" s="5"/>
       <c r="I440" s="5"/>
       <c r="J440" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K440" s="5"/>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A441" s="5">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B441" s="6"/>
       <c r="C441" s="6"/>
@@ -9137,14 +9106,14 @@
       <c r="H441" s="5"/>
       <c r="I441" s="5"/>
       <c r="J441" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K441" s="5"/>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A442" s="5">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B442" s="6"/>
       <c r="C442" s="6"/>
@@ -9155,14 +9124,14 @@
       <c r="H442" s="5"/>
       <c r="I442" s="5"/>
       <c r="J442" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K442" s="5"/>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A443" s="5">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B443" s="6"/>
       <c r="C443" s="6"/>
@@ -9173,14 +9142,14 @@
       <c r="H443" s="5"/>
       <c r="I443" s="5"/>
       <c r="J443" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K443" s="5"/>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A444" s="5">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B444" s="6"/>
       <c r="C444" s="6"/>
@@ -9191,14 +9160,14 @@
       <c r="H444" s="5"/>
       <c r="I444" s="5"/>
       <c r="J444" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K444" s="5"/>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A445" s="5">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B445" s="6"/>
       <c r="C445" s="6"/>
@@ -9209,14 +9178,14 @@
       <c r="H445" s="5"/>
       <c r="I445" s="5"/>
       <c r="J445" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K445" s="5"/>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A446" s="5">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B446" s="6"/>
       <c r="C446" s="6"/>
@@ -9227,14 +9196,14 @@
       <c r="H446" s="5"/>
       <c r="I446" s="5"/>
       <c r="J446" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K446" s="5"/>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A447" s="5">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B447" s="6"/>
       <c r="C447" s="6"/>
@@ -9245,14 +9214,14 @@
       <c r="H447" s="5"/>
       <c r="I447" s="5"/>
       <c r="J447" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K447" s="5"/>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A448" s="5">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B448" s="6"/>
       <c r="C448" s="6"/>
@@ -9263,14 +9232,14 @@
       <c r="H448" s="5"/>
       <c r="I448" s="5"/>
       <c r="J448" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K448" s="5"/>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A449" s="5">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B449" s="6"/>
       <c r="C449" s="6"/>
@@ -9281,14 +9250,14 @@
       <c r="H449" s="5"/>
       <c r="I449" s="5"/>
       <c r="J449" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K449" s="5"/>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A450" s="5">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B450" s="6"/>
       <c r="C450" s="6"/>
@@ -9299,14 +9268,14 @@
       <c r="H450" s="5"/>
       <c r="I450" s="5"/>
       <c r="J450" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K450" s="5"/>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A451" s="5">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B451" s="6"/>
       <c r="C451" s="6"/>
@@ -9317,14 +9286,14 @@
       <c r="H451" s="5"/>
       <c r="I451" s="5"/>
       <c r="J451" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="J451:J514" si="8">H451:H1001-I451:I1001</f>
         <v>0</v>
       </c>
       <c r="K451" s="5"/>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A452" s="5">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B452" s="6"/>
       <c r="C452" s="6"/>
@@ -9335,14 +9304,14 @@
       <c r="H452" s="5"/>
       <c r="I452" s="5"/>
       <c r="J452" s="5">
-        <f t="shared" ref="J452:J515" si="7">H452:H1002-I452:I1002</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K452" s="5"/>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A453" s="5">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B453" s="6"/>
       <c r="C453" s="6"/>
@@ -9353,14 +9322,14 @@
       <c r="H453" s="5"/>
       <c r="I453" s="5"/>
       <c r="J453" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K453" s="5"/>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A454" s="5">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B454" s="6"/>
       <c r="C454" s="6"/>
@@ -9371,14 +9340,14 @@
       <c r="H454" s="5"/>
       <c r="I454" s="5"/>
       <c r="J454" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K454" s="5"/>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A455" s="5">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B455" s="6"/>
       <c r="C455" s="6"/>
@@ -9389,14 +9358,14 @@
       <c r="H455" s="5"/>
       <c r="I455" s="5"/>
       <c r="J455" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K455" s="5"/>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A456" s="5">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B456" s="6"/>
       <c r="C456" s="6"/>
@@ -9407,14 +9376,14 @@
       <c r="H456" s="5"/>
       <c r="I456" s="5"/>
       <c r="J456" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K456" s="5"/>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A457" s="5">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B457" s="6"/>
       <c r="C457" s="6"/>
@@ -9425,14 +9394,14 @@
       <c r="H457" s="5"/>
       <c r="I457" s="5"/>
       <c r="J457" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K457" s="5"/>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A458" s="5">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B458" s="6"/>
       <c r="C458" s="6"/>
@@ -9443,14 +9412,14 @@
       <c r="H458" s="5"/>
       <c r="I458" s="5"/>
       <c r="J458" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K458" s="5"/>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A459" s="5">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B459" s="6"/>
       <c r="C459" s="6"/>
@@ -9461,14 +9430,14 @@
       <c r="H459" s="5"/>
       <c r="I459" s="5"/>
       <c r="J459" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K459" s="5"/>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A460" s="5">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B460" s="6"/>
       <c r="C460" s="6"/>
@@ -9479,14 +9448,14 @@
       <c r="H460" s="5"/>
       <c r="I460" s="5"/>
       <c r="J460" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K460" s="5"/>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A461" s="5">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B461" s="6"/>
       <c r="C461" s="6"/>
@@ -9497,14 +9466,14 @@
       <c r="H461" s="5"/>
       <c r="I461" s="5"/>
       <c r="J461" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K461" s="5"/>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A462" s="5">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B462" s="6"/>
       <c r="C462" s="6"/>
@@ -9515,14 +9484,14 @@
       <c r="H462" s="5"/>
       <c r="I462" s="5"/>
       <c r="J462" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K462" s="5"/>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A463" s="5">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B463" s="6"/>
       <c r="C463" s="6"/>
@@ -9533,14 +9502,14 @@
       <c r="H463" s="5"/>
       <c r="I463" s="5"/>
       <c r="J463" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K463" s="5"/>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A464" s="5">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B464" s="6"/>
       <c r="C464" s="6"/>
@@ -9551,14 +9520,14 @@
       <c r="H464" s="5"/>
       <c r="I464" s="5"/>
       <c r="J464" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K464" s="5"/>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A465" s="5">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B465" s="6"/>
       <c r="C465" s="6"/>
@@ -9569,14 +9538,14 @@
       <c r="H465" s="5"/>
       <c r="I465" s="5"/>
       <c r="J465" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K465" s="5"/>
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A466" s="5">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B466" s="6"/>
       <c r="C466" s="6"/>
@@ -9587,14 +9556,14 @@
       <c r="H466" s="5"/>
       <c r="I466" s="5"/>
       <c r="J466" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K466" s="5"/>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A467" s="5">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B467" s="6"/>
       <c r="C467" s="6"/>
@@ -9605,14 +9574,14 @@
       <c r="H467" s="5"/>
       <c r="I467" s="5"/>
       <c r="J467" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K467" s="5"/>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A468" s="5">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B468" s="6"/>
       <c r="C468" s="6"/>
@@ -9623,14 +9592,14 @@
       <c r="H468" s="5"/>
       <c r="I468" s="5"/>
       <c r="J468" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K468" s="5"/>
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A469" s="5">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B469" s="6"/>
       <c r="C469" s="6"/>
@@ -9641,14 +9610,14 @@
       <c r="H469" s="5"/>
       <c r="I469" s="5"/>
       <c r="J469" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K469" s="5"/>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A470" s="5">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B470" s="6"/>
       <c r="C470" s="6"/>
@@ -9659,14 +9628,14 @@
       <c r="H470" s="5"/>
       <c r="I470" s="5"/>
       <c r="J470" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K470" s="5"/>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A471" s="5">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B471" s="6"/>
       <c r="C471" s="6"/>
@@ -9677,14 +9646,14 @@
       <c r="H471" s="5"/>
       <c r="I471" s="5"/>
       <c r="J471" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K471" s="5"/>
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A472" s="5">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B472" s="6"/>
       <c r="C472" s="6"/>
@@ -9695,14 +9664,14 @@
       <c r="H472" s="5"/>
       <c r="I472" s="5"/>
       <c r="J472" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K472" s="5"/>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A473" s="5">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B473" s="6"/>
       <c r="C473" s="6"/>
@@ -9713,14 +9682,14 @@
       <c r="H473" s="5"/>
       <c r="I473" s="5"/>
       <c r="J473" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K473" s="5"/>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A474" s="5">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B474" s="6"/>
       <c r="C474" s="6"/>
@@ -9731,14 +9700,14 @@
       <c r="H474" s="5"/>
       <c r="I474" s="5"/>
       <c r="J474" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K474" s="5"/>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A475" s="5">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B475" s="6"/>
       <c r="C475" s="6"/>
@@ -9749,14 +9718,14 @@
       <c r="H475" s="5"/>
       <c r="I475" s="5"/>
       <c r="J475" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K475" s="5"/>
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A476" s="5">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B476" s="6"/>
       <c r="C476" s="6"/>
@@ -9767,14 +9736,14 @@
       <c r="H476" s="5"/>
       <c r="I476" s="5"/>
       <c r="J476" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K476" s="5"/>
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A477" s="5">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B477" s="6"/>
       <c r="C477" s="6"/>
@@ -9785,14 +9754,14 @@
       <c r="H477" s="5"/>
       <c r="I477" s="5"/>
       <c r="J477" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K477" s="5"/>
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A478" s="5">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B478" s="6"/>
       <c r="C478" s="6"/>
@@ -9803,14 +9772,14 @@
       <c r="H478" s="5"/>
       <c r="I478" s="5"/>
       <c r="J478" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K478" s="5"/>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A479" s="5">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B479" s="6"/>
       <c r="C479" s="6"/>
@@ -9821,14 +9790,14 @@
       <c r="H479" s="5"/>
       <c r="I479" s="5"/>
       <c r="J479" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K479" s="5"/>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A480" s="5">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B480" s="6"/>
       <c r="C480" s="6"/>
@@ -9839,14 +9808,14 @@
       <c r="H480" s="5"/>
       <c r="I480" s="5"/>
       <c r="J480" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K480" s="5"/>
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A481" s="5">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B481" s="6"/>
       <c r="C481" s="6"/>
@@ -9857,14 +9826,14 @@
       <c r="H481" s="5"/>
       <c r="I481" s="5"/>
       <c r="J481" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K481" s="5"/>
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A482" s="5">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B482" s="6"/>
       <c r="C482" s="6"/>
@@ -9875,14 +9844,14 @@
       <c r="H482" s="5"/>
       <c r="I482" s="5"/>
       <c r="J482" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K482" s="5"/>
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A483" s="5">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B483" s="6"/>
       <c r="C483" s="6"/>
@@ -9893,14 +9862,14 @@
       <c r="H483" s="5"/>
       <c r="I483" s="5"/>
       <c r="J483" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K483" s="5"/>
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A484" s="5">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B484" s="6"/>
       <c r="C484" s="6"/>
@@ -9911,14 +9880,14 @@
       <c r="H484" s="5"/>
       <c r="I484" s="5"/>
       <c r="J484" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K484" s="5"/>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A485" s="5">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B485" s="6"/>
       <c r="C485" s="6"/>
@@ -9929,14 +9898,14 @@
       <c r="H485" s="5"/>
       <c r="I485" s="5"/>
       <c r="J485" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K485" s="5"/>
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A486" s="5">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B486" s="6"/>
       <c r="C486" s="6"/>
@@ -9947,14 +9916,14 @@
       <c r="H486" s="5"/>
       <c r="I486" s="5"/>
       <c r="J486" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K486" s="5"/>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A487" s="5">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B487" s="6"/>
       <c r="C487" s="6"/>
@@ -9965,14 +9934,14 @@
       <c r="H487" s="5"/>
       <c r="I487" s="5"/>
       <c r="J487" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K487" s="5"/>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A488" s="5">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B488" s="6"/>
       <c r="C488" s="6"/>
@@ -9983,14 +9952,14 @@
       <c r="H488" s="5"/>
       <c r="I488" s="5"/>
       <c r="J488" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K488" s="5"/>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A489" s="5">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B489" s="6"/>
       <c r="C489" s="6"/>
@@ -10001,14 +9970,14 @@
       <c r="H489" s="5"/>
       <c r="I489" s="5"/>
       <c r="J489" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K489" s="5"/>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A490" s="5">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B490" s="6"/>
       <c r="C490" s="6"/>
@@ -10019,14 +9988,14 @@
       <c r="H490" s="5"/>
       <c r="I490" s="5"/>
       <c r="J490" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K490" s="5"/>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A491" s="5">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B491" s="6"/>
       <c r="C491" s="6"/>
@@ -10037,14 +10006,14 @@
       <c r="H491" s="5"/>
       <c r="I491" s="5"/>
       <c r="J491" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K491" s="5"/>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A492" s="5">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B492" s="6"/>
       <c r="C492" s="6"/>
@@ -10055,14 +10024,14 @@
       <c r="H492" s="5"/>
       <c r="I492" s="5"/>
       <c r="J492" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K492" s="5"/>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A493" s="5">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B493" s="6"/>
       <c r="C493" s="6"/>
@@ -10073,14 +10042,14 @@
       <c r="H493" s="5"/>
       <c r="I493" s="5"/>
       <c r="J493" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K493" s="5"/>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A494" s="5">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B494" s="6"/>
       <c r="C494" s="6"/>
@@ -10091,14 +10060,14 @@
       <c r="H494" s="5"/>
       <c r="I494" s="5"/>
       <c r="J494" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K494" s="5"/>
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A495" s="5">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B495" s="6"/>
       <c r="C495" s="6"/>
@@ -10109,14 +10078,14 @@
       <c r="H495" s="5"/>
       <c r="I495" s="5"/>
       <c r="J495" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K495" s="5"/>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A496" s="5">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B496" s="6"/>
       <c r="C496" s="6"/>
@@ -10127,14 +10096,14 @@
       <c r="H496" s="5"/>
       <c r="I496" s="5"/>
       <c r="J496" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K496" s="5"/>
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A497" s="5">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B497" s="6"/>
       <c r="C497" s="6"/>
@@ -10145,14 +10114,14 @@
       <c r="H497" s="5"/>
       <c r="I497" s="5"/>
       <c r="J497" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K497" s="5"/>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A498" s="5">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B498" s="6"/>
       <c r="C498" s="6"/>
@@ -10163,14 +10132,14 @@
       <c r="H498" s="5"/>
       <c r="I498" s="5"/>
       <c r="J498" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K498" s="5"/>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A499" s="5">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B499" s="6"/>
       <c r="C499" s="6"/>
@@ -10181,14 +10150,14 @@
       <c r="H499" s="5"/>
       <c r="I499" s="5"/>
       <c r="J499" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K499" s="5"/>
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A500" s="5">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B500" s="6"/>
       <c r="C500" s="6"/>
@@ -10199,14 +10168,14 @@
       <c r="H500" s="5"/>
       <c r="I500" s="5"/>
       <c r="J500" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K500" s="5"/>
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A501" s="5">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B501" s="6"/>
       <c r="C501" s="6"/>
@@ -10217,14 +10186,14 @@
       <c r="H501" s="5"/>
       <c r="I501" s="5"/>
       <c r="J501" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K501" s="5"/>
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A502" s="5">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B502" s="6"/>
       <c r="C502" s="6"/>
@@ -10235,14 +10204,14 @@
       <c r="H502" s="5"/>
       <c r="I502" s="5"/>
       <c r="J502" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K502" s="5"/>
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A503" s="5">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B503" s="6"/>
       <c r="C503" s="6"/>
@@ -10253,14 +10222,14 @@
       <c r="H503" s="5"/>
       <c r="I503" s="5"/>
       <c r="J503" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K503" s="5"/>
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A504" s="5">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B504" s="6"/>
       <c r="C504" s="6"/>
@@ -10271,14 +10240,14 @@
       <c r="H504" s="5"/>
       <c r="I504" s="5"/>
       <c r="J504" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K504" s="5"/>
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A505" s="5">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B505" s="6"/>
       <c r="C505" s="6"/>
@@ -10289,14 +10258,14 @@
       <c r="H505" s="5"/>
       <c r="I505" s="5"/>
       <c r="J505" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K505" s="5"/>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A506" s="5">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B506" s="6"/>
       <c r="C506" s="6"/>
@@ -10307,14 +10276,14 @@
       <c r="H506" s="5"/>
       <c r="I506" s="5"/>
       <c r="J506" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K506" s="5"/>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A507" s="5">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B507" s="6"/>
       <c r="C507" s="6"/>
@@ -10325,14 +10294,14 @@
       <c r="H507" s="5"/>
       <c r="I507" s="5"/>
       <c r="J507" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K507" s="5"/>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A508" s="5">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B508" s="6"/>
       <c r="C508" s="6"/>
@@ -10343,14 +10312,14 @@
       <c r="H508" s="5"/>
       <c r="I508" s="5"/>
       <c r="J508" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K508" s="5"/>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A509" s="5">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B509" s="6"/>
       <c r="C509" s="6"/>
@@ -10361,14 +10330,14 @@
       <c r="H509" s="5"/>
       <c r="I509" s="5"/>
       <c r="J509" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K509" s="5"/>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A510" s="5">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B510" s="6"/>
       <c r="C510" s="6"/>
@@ -10379,14 +10348,14 @@
       <c r="H510" s="5"/>
       <c r="I510" s="5"/>
       <c r="J510" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K510" s="5"/>
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A511" s="5">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B511" s="6"/>
       <c r="C511" s="6"/>
@@ -10397,14 +10366,14 @@
       <c r="H511" s="5"/>
       <c r="I511" s="5"/>
       <c r="J511" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K511" s="5"/>
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A512" s="5">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B512" s="6"/>
       <c r="C512" s="6"/>
@@ -10415,14 +10384,14 @@
       <c r="H512" s="5"/>
       <c r="I512" s="5"/>
       <c r="J512" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K512" s="5"/>
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A513" s="5">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B513" s="6"/>
       <c r="C513" s="6"/>
@@ -10433,14 +10402,14 @@
       <c r="H513" s="5"/>
       <c r="I513" s="5"/>
       <c r="J513" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K513" s="5"/>
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A514" s="5">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B514" s="6"/>
       <c r="C514" s="6"/>
@@ -10451,14 +10420,14 @@
       <c r="H514" s="5"/>
       <c r="I514" s="5"/>
       <c r="J514" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K514" s="5"/>
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A515" s="5">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B515" s="6"/>
       <c r="C515" s="6"/>
@@ -10469,14 +10438,14 @@
       <c r="H515" s="5"/>
       <c r="I515" s="5"/>
       <c r="J515" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="J515:J552" si="9">H515:H1065-I515:I1065</f>
         <v>0</v>
       </c>
       <c r="K515" s="5"/>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A516" s="5">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B516" s="6"/>
       <c r="C516" s="6"/>
@@ -10487,14 +10456,14 @@
       <c r="H516" s="5"/>
       <c r="I516" s="5"/>
       <c r="J516" s="5">
-        <f t="shared" ref="J516:J553" si="8">H516:H1066-I516:I1066</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K516" s="5"/>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A517" s="5">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B517" s="6"/>
       <c r="C517" s="6"/>
@@ -10505,14 +10474,14 @@
       <c r="H517" s="5"/>
       <c r="I517" s="5"/>
       <c r="J517" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K517" s="5"/>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A518" s="5">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B518" s="6"/>
       <c r="C518" s="6"/>
@@ -10523,14 +10492,14 @@
       <c r="H518" s="5"/>
       <c r="I518" s="5"/>
       <c r="J518" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K518" s="5"/>
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A519" s="5">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B519" s="6"/>
       <c r="C519" s="6"/>
@@ -10541,14 +10510,14 @@
       <c r="H519" s="5"/>
       <c r="I519" s="5"/>
       <c r="J519" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K519" s="5"/>
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A520" s="5">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B520" s="6"/>
       <c r="C520" s="6"/>
@@ -10559,14 +10528,14 @@
       <c r="H520" s="5"/>
       <c r="I520" s="5"/>
       <c r="J520" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K520" s="5"/>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A521" s="5">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B521" s="6"/>
       <c r="C521" s="6"/>
@@ -10577,14 +10546,14 @@
       <c r="H521" s="5"/>
       <c r="I521" s="5"/>
       <c r="J521" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K521" s="5"/>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A522" s="5">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B522" s="6"/>
       <c r="C522" s="6"/>
@@ -10595,14 +10564,14 @@
       <c r="H522" s="5"/>
       <c r="I522" s="5"/>
       <c r="J522" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K522" s="5"/>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A523" s="5">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B523" s="6"/>
       <c r="C523" s="6"/>
@@ -10613,14 +10582,14 @@
       <c r="H523" s="5"/>
       <c r="I523" s="5"/>
       <c r="J523" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K523" s="5"/>
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A524" s="5">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B524" s="6"/>
       <c r="C524" s="6"/>
@@ -10631,14 +10600,14 @@
       <c r="H524" s="5"/>
       <c r="I524" s="5"/>
       <c r="J524" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K524" s="5"/>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A525" s="5">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B525" s="6"/>
       <c r="C525" s="6"/>
@@ -10649,14 +10618,14 @@
       <c r="H525" s="5"/>
       <c r="I525" s="5"/>
       <c r="J525" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K525" s="5"/>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A526" s="5">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B526" s="6"/>
       <c r="C526" s="6"/>
@@ -10667,14 +10636,14 @@
       <c r="H526" s="5"/>
       <c r="I526" s="5"/>
       <c r="J526" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K526" s="5"/>
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A527" s="5">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B527" s="6"/>
       <c r="C527" s="6"/>
@@ -10685,14 +10654,14 @@
       <c r="H527" s="5"/>
       <c r="I527" s="5"/>
       <c r="J527" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K527" s="5"/>
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A528" s="5">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B528" s="6"/>
       <c r="C528" s="6"/>
@@ -10703,14 +10672,14 @@
       <c r="H528" s="5"/>
       <c r="I528" s="5"/>
       <c r="J528" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K528" s="5"/>
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A529" s="5">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B529" s="6"/>
       <c r="C529" s="6"/>
@@ -10721,14 +10690,14 @@
       <c r="H529" s="5"/>
       <c r="I529" s="5"/>
       <c r="J529" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K529" s="5"/>
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A530" s="5">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B530" s="6"/>
       <c r="C530" s="6"/>
@@ -10739,14 +10708,14 @@
       <c r="H530" s="5"/>
       <c r="I530" s="5"/>
       <c r="J530" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K530" s="5"/>
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A531" s="5">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B531" s="6"/>
       <c r="C531" s="6"/>
@@ -10757,14 +10726,14 @@
       <c r="H531" s="5"/>
       <c r="I531" s="5"/>
       <c r="J531" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K531" s="5"/>
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A532" s="5">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B532" s="6"/>
       <c r="C532" s="6"/>
@@ -10775,14 +10744,14 @@
       <c r="H532" s="5"/>
       <c r="I532" s="5"/>
       <c r="J532" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K532" s="5"/>
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A533" s="5">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B533" s="6"/>
       <c r="C533" s="6"/>
@@ -10793,14 +10762,14 @@
       <c r="H533" s="5"/>
       <c r="I533" s="5"/>
       <c r="J533" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K533" s="5"/>
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A534" s="5">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B534" s="6"/>
       <c r="C534" s="6"/>
@@ -10811,14 +10780,14 @@
       <c r="H534" s="5"/>
       <c r="I534" s="5"/>
       <c r="J534" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K534" s="5"/>
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A535" s="5">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B535" s="6"/>
       <c r="C535" s="6"/>
@@ -10829,14 +10798,14 @@
       <c r="H535" s="5"/>
       <c r="I535" s="5"/>
       <c r="J535" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K535" s="5"/>
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A536" s="5">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B536" s="6"/>
       <c r="C536" s="6"/>
@@ -10847,14 +10816,14 @@
       <c r="H536" s="5"/>
       <c r="I536" s="5"/>
       <c r="J536" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K536" s="5"/>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A537" s="5">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B537" s="6"/>
       <c r="C537" s="6"/>
@@ -10865,14 +10834,14 @@
       <c r="H537" s="5"/>
       <c r="I537" s="5"/>
       <c r="J537" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K537" s="5"/>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A538" s="5">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B538" s="6"/>
       <c r="C538" s="6"/>
@@ -10883,14 +10852,14 @@
       <c r="H538" s="5"/>
       <c r="I538" s="5"/>
       <c r="J538" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K538" s="5"/>
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A539" s="5">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B539" s="6"/>
       <c r="C539" s="6"/>
@@ -10901,14 +10870,14 @@
       <c r="H539" s="5"/>
       <c r="I539" s="5"/>
       <c r="J539" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K539" s="5"/>
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A540" s="5">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B540" s="6"/>
       <c r="C540" s="6"/>
@@ -10919,14 +10888,14 @@
       <c r="H540" s="5"/>
       <c r="I540" s="5"/>
       <c r="J540" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K540" s="5"/>
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A541" s="5">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B541" s="6"/>
       <c r="C541" s="6"/>
@@ -10937,14 +10906,14 @@
       <c r="H541" s="5"/>
       <c r="I541" s="5"/>
       <c r="J541" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K541" s="5"/>
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A542" s="5">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B542" s="6"/>
       <c r="C542" s="6"/>
@@ -10955,14 +10924,14 @@
       <c r="H542" s="5"/>
       <c r="I542" s="5"/>
       <c r="J542" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K542" s="5"/>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A543" s="5">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B543" s="6"/>
       <c r="C543" s="6"/>
@@ -10973,14 +10942,14 @@
       <c r="H543" s="5"/>
       <c r="I543" s="5"/>
       <c r="J543" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K543" s="5"/>
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A544" s="5">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B544" s="6"/>
       <c r="C544" s="6"/>
@@ -10991,14 +10960,14 @@
       <c r="H544" s="5"/>
       <c r="I544" s="5"/>
       <c r="J544" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K544" s="5"/>
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A545" s="5">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B545" s="6"/>
       <c r="C545" s="6"/>
@@ -11009,14 +10978,14 @@
       <c r="H545" s="5"/>
       <c r="I545" s="5"/>
       <c r="J545" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K545" s="5"/>
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A546" s="5">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B546" s="6"/>
       <c r="C546" s="6"/>
@@ -11027,14 +10996,14 @@
       <c r="H546" s="5"/>
       <c r="I546" s="5"/>
       <c r="J546" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K546" s="5"/>
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A547" s="5">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B547" s="6"/>
       <c r="C547" s="6"/>
@@ -11045,14 +11014,14 @@
       <c r="H547" s="5"/>
       <c r="I547" s="5"/>
       <c r="J547" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K547" s="5"/>
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A548" s="5">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B548" s="6"/>
       <c r="C548" s="6"/>
@@ -11063,14 +11032,14 @@
       <c r="H548" s="5"/>
       <c r="I548" s="5"/>
       <c r="J548" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K548" s="5"/>
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A549" s="5">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B549" s="6"/>
       <c r="C549" s="6"/>
@@ -11081,14 +11050,14 @@
       <c r="H549" s="5"/>
       <c r="I549" s="5"/>
       <c r="J549" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K549" s="5"/>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A550" s="5">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B550" s="6"/>
       <c r="C550" s="6"/>
@@ -11099,14 +11068,14 @@
       <c r="H550" s="5"/>
       <c r="I550" s="5"/>
       <c r="J550" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K550" s="5"/>
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A551" s="5">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B551" s="6"/>
       <c r="C551" s="6"/>
@@ -11117,14 +11086,14 @@
       <c r="H551" s="5"/>
       <c r="I551" s="5"/>
       <c r="J551" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K551" s="5"/>
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A552" s="5">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B552" s="6"/>
       <c r="C552" s="6"/>
@@ -11135,33 +11104,15 @@
       <c r="H552" s="5"/>
       <c r="I552" s="5"/>
       <c r="J552" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K552" s="5"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A553" s="5">
-        <v>551</v>
-      </c>
-      <c r="B553" s="6"/>
-      <c r="C553" s="6"/>
-      <c r="D553" s="11"/>
-      <c r="E553" s="5"/>
-      <c r="F553" s="5"/>
-      <c r="G553" s="5"/>
-      <c r="H553" s="5"/>
-      <c r="I553" s="5"/>
-      <c r="J553" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K553" s="5"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A7:K553" xr:uid="{3A74A576-E2DF-42A6-9EFF-12262C33BC48}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:K553">
-    <sortCondition ref="B8:B553"/>
+  <autoFilter ref="A7:K552" xr:uid="{3A74A576-E2DF-42A6-9EFF-12262C33BC48}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:K552">
+    <sortCondition ref="B8:B552"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="B1:K2"/>
@@ -11194,14 +11145,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">

--- a/ĐƠN HÀNG.xlsx
+++ b/ĐƠN HÀNG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152D067F-65A7-46D4-B074-1F4561A5F42D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0917C4-5C82-4534-8307-AE924B72FD53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>STT</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>Jean cạp cao</t>
+  </si>
+  <si>
+    <t>áo phông nelly</t>
   </si>
 </sst>
 </file>
@@ -880,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q552"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1052,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="5">
-        <f>H8:H552-I8:I552</f>
+        <f t="shared" ref="J8:J13" si="0">H8:H552-I8:I552</f>
         <v>420000</v>
       </c>
       <c r="K8" s="5" t="s">
@@ -1091,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="5">
-        <f>H9:H553-I9:I553</f>
+        <f t="shared" si="0"/>
         <v>450000</v>
       </c>
       <c r="K9" s="5" t="s">
@@ -1127,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="5">
-        <f>H10:H554-I10:I554</f>
+        <f t="shared" si="0"/>
         <v>175000</v>
       </c>
       <c r="K10" s="5" t="s">
@@ -1163,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="5">
-        <f>H11:H555-I11:I555</f>
+        <f t="shared" si="0"/>
         <v>85000</v>
       </c>
       <c r="K11" s="5" t="s">
@@ -1199,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="5">
-        <f>H12:H556-I12:I556</f>
+        <f t="shared" si="0"/>
         <v>80000</v>
       </c>
       <c r="K12" s="5" t="s">
@@ -1235,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="5">
-        <f>H13:H557-I13:I557</f>
+        <f t="shared" si="0"/>
         <v>820000</v>
       </c>
       <c r="K13" s="5" t="s">
@@ -1269,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="5">
-        <f t="shared" ref="J14:J16" si="0">H14:H559-I14:I559</f>
+        <f t="shared" ref="J14:J16" si="1">H14:H559-I14:I559</f>
         <v>189000</v>
       </c>
       <c r="K14" s="5" t="s">
@@ -1303,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>210000</v>
       </c>
       <c r="K15" s="5" t="s">
@@ -1337,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>210000</v>
       </c>
       <c r="K16" s="5" t="s">
@@ -1569,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" ref="J23:J66" si="1">H23:H573-I23:I573</f>
+        <f t="shared" ref="J23:J66" si="2">H23:H573-I23:I573</f>
         <v>310000</v>
       </c>
       <c r="K23" s="5" t="s">
@@ -1612,16 +1615,24 @@
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
       <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="H25" s="5">
+        <v>85000</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="5"/>
+        <f t="shared" si="2"/>
+        <v>85000</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
@@ -1636,7 +1647,7 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K26" s="5"/>
@@ -1654,7 +1665,7 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K27" s="5"/>
@@ -1672,7 +1683,7 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K28" s="5"/>
@@ -1690,7 +1701,7 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K29" s="5"/>
@@ -1708,7 +1719,7 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K30" s="5"/>
@@ -1726,7 +1737,7 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K31" s="5"/>
@@ -1744,7 +1755,7 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K32" s="5"/>
@@ -1762,7 +1773,7 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K33" s="5"/>
@@ -1780,7 +1791,7 @@
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K34" s="5"/>
@@ -1798,7 +1809,7 @@
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K35" s="5"/>
@@ -1816,7 +1827,7 @@
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K36" s="5"/>
@@ -1834,7 +1845,7 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K37" s="5"/>
@@ -1852,7 +1863,7 @@
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K38" s="5"/>
@@ -1870,7 +1881,7 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K39" s="5"/>
@@ -1888,7 +1899,7 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K40" s="5"/>
@@ -1906,7 +1917,7 @@
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K41" s="5"/>
@@ -1924,7 +1935,7 @@
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K42" s="5"/>
@@ -1942,7 +1953,7 @@
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K43" s="5"/>
@@ -1960,7 +1971,7 @@
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K44" s="5"/>
@@ -1978,7 +1989,7 @@
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K45" s="5"/>
@@ -1996,7 +2007,7 @@
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K46" s="5"/>
@@ -2014,7 +2025,7 @@
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K47" s="5"/>
@@ -2032,7 +2043,7 @@
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K48" s="5"/>
@@ -2050,7 +2061,7 @@
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K49" s="5"/>
@@ -2068,7 +2079,7 @@
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K50" s="5"/>
@@ -2086,7 +2097,7 @@
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K51" s="5"/>
@@ -2104,7 +2115,7 @@
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K52" s="5"/>
@@ -2122,7 +2133,7 @@
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K53" s="5"/>
@@ -2140,7 +2151,7 @@
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K54" s="5"/>
@@ -2158,7 +2169,7 @@
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K55" s="5"/>
@@ -2176,7 +2187,7 @@
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K56" s="5"/>
@@ -2194,7 +2205,7 @@
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K57" s="5"/>
@@ -2212,7 +2223,7 @@
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K58" s="5"/>
@@ -2230,7 +2241,7 @@
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K59" s="5"/>
@@ -2248,7 +2259,7 @@
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K60" s="5"/>
@@ -2266,7 +2277,7 @@
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K61" s="5"/>
@@ -2284,7 +2295,7 @@
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K62" s="5"/>
@@ -2302,7 +2313,7 @@
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K63" s="5"/>
@@ -2320,7 +2331,7 @@
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K64" s="5"/>
@@ -2338,7 +2349,7 @@
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K65" s="5"/>
@@ -2356,7 +2367,7 @@
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K66" s="5"/>
@@ -2374,7 +2385,7 @@
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5">
-        <f t="shared" ref="J67:J130" si="2">H67:H617-I67:I617</f>
+        <f t="shared" ref="J67:J130" si="3">H67:H617-I67:I617</f>
         <v>0</v>
       </c>
       <c r="K67" s="5"/>
@@ -2392,7 +2403,7 @@
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K68" s="5"/>
@@ -2410,7 +2421,7 @@
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K69" s="5"/>
@@ -2428,7 +2439,7 @@
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K70" s="5"/>
@@ -2446,7 +2457,7 @@
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K71" s="5"/>
@@ -2464,7 +2475,7 @@
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K72" s="5"/>
@@ -2482,7 +2493,7 @@
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K73" s="5"/>
@@ -2500,7 +2511,7 @@
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K74" s="5"/>
@@ -2518,7 +2529,7 @@
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K75" s="5"/>
@@ -2536,7 +2547,7 @@
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K76" s="5"/>
@@ -2554,7 +2565,7 @@
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K77" s="5"/>
@@ -2572,7 +2583,7 @@
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K78" s="5"/>
@@ -2590,7 +2601,7 @@
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K79" s="5"/>
@@ -2608,7 +2619,7 @@
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K80" s="5"/>
@@ -2626,7 +2637,7 @@
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K81" s="5"/>
@@ -2644,7 +2655,7 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K82" s="5"/>
@@ -2662,7 +2673,7 @@
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K83" s="5"/>
@@ -2680,7 +2691,7 @@
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
       <c r="J84" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K84" s="5"/>
@@ -2698,7 +2709,7 @@
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K85" s="5"/>
@@ -2716,7 +2727,7 @@
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K86" s="5"/>
@@ -2734,7 +2745,7 @@
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
       <c r="J87" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K87" s="5"/>
@@ -2752,7 +2763,7 @@
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
       <c r="J88" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K88" s="5"/>
@@ -2770,7 +2781,7 @@
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K89" s="5"/>
@@ -2788,7 +2799,7 @@
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
       <c r="J90" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K90" s="5"/>
@@ -2806,7 +2817,7 @@
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K91" s="5"/>
@@ -2824,7 +2835,7 @@
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K92" s="5"/>
@@ -2842,7 +2853,7 @@
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K93" s="5"/>
@@ -2860,7 +2871,7 @@
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K94" s="5"/>
@@ -2878,7 +2889,7 @@
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
       <c r="J95" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K95" s="5"/>
@@ -2896,7 +2907,7 @@
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
       <c r="J96" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K96" s="5"/>
@@ -2914,7 +2925,7 @@
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
       <c r="J97" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K97" s="5"/>
@@ -2932,7 +2943,7 @@
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
       <c r="J98" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K98" s="5"/>
@@ -2950,7 +2961,7 @@
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
       <c r="J99" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K99" s="5"/>
@@ -2968,7 +2979,7 @@
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
       <c r="J100" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K100" s="5"/>
@@ -2986,7 +2997,7 @@
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
       <c r="J101" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K101" s="5"/>
@@ -3004,7 +3015,7 @@
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
       <c r="J102" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K102" s="5"/>
@@ -3022,7 +3033,7 @@
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
       <c r="J103" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K103" s="5"/>
@@ -3040,7 +3051,7 @@
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
       <c r="J104" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K104" s="5"/>
@@ -3058,7 +3069,7 @@
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
       <c r="J105" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K105" s="5"/>
@@ -3076,7 +3087,7 @@
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
       <c r="J106" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K106" s="5"/>
@@ -3094,7 +3105,7 @@
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
       <c r="J107" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K107" s="5"/>
@@ -3112,7 +3123,7 @@
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
       <c r="J108" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K108" s="5"/>
@@ -3130,7 +3141,7 @@
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
       <c r="J109" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K109" s="5"/>
@@ -3148,7 +3159,7 @@
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K110" s="5"/>
@@ -3166,7 +3177,7 @@
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
       <c r="J111" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K111" s="5"/>
@@ -3184,7 +3195,7 @@
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
       <c r="J112" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K112" s="5"/>
@@ -3202,7 +3213,7 @@
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
       <c r="J113" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K113" s="5"/>
@@ -3220,7 +3231,7 @@
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
       <c r="J114" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K114" s="5"/>
@@ -3238,7 +3249,7 @@
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
       <c r="J115" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K115" s="5"/>
@@ -3256,7 +3267,7 @@
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
       <c r="J116" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K116" s="5"/>
@@ -3274,7 +3285,7 @@
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
       <c r="J117" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K117" s="5"/>
@@ -3292,7 +3303,7 @@
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
       <c r="J118" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K118" s="5"/>
@@ -3310,7 +3321,7 @@
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
       <c r="J119" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K119" s="5"/>
@@ -3328,7 +3339,7 @@
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
       <c r="J120" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K120" s="5"/>
@@ -3346,7 +3357,7 @@
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
       <c r="J121" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K121" s="5"/>
@@ -3364,7 +3375,7 @@
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
       <c r="J122" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K122" s="5"/>
@@ -3382,7 +3393,7 @@
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
       <c r="J123" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K123" s="5"/>
@@ -3400,7 +3411,7 @@
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
       <c r="J124" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K124" s="5"/>
@@ -3418,7 +3429,7 @@
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
       <c r="J125" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K125" s="5"/>
@@ -3436,7 +3447,7 @@
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
       <c r="J126" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K126" s="5"/>
@@ -3454,7 +3465,7 @@
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
       <c r="J127" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K127" s="5"/>
@@ -3472,7 +3483,7 @@
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
       <c r="J128" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K128" s="5"/>
@@ -3490,7 +3501,7 @@
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
       <c r="J129" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K129" s="5"/>
@@ -3508,7 +3519,7 @@
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
       <c r="J130" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K130" s="5"/>
@@ -3526,7 +3537,7 @@
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
       <c r="J131" s="5">
-        <f t="shared" ref="J131:J194" si="3">H131:H681-I131:I681</f>
+        <f t="shared" ref="J131:J194" si="4">H131:H681-I131:I681</f>
         <v>0</v>
       </c>
       <c r="K131" s="5"/>
@@ -3544,7 +3555,7 @@
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
       <c r="J132" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K132" s="5"/>
@@ -3562,7 +3573,7 @@
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
       <c r="J133" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K133" s="5"/>
@@ -3580,7 +3591,7 @@
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
       <c r="J134" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K134" s="5"/>
@@ -3598,7 +3609,7 @@
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
       <c r="J135" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K135" s="5"/>
@@ -3616,7 +3627,7 @@
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
       <c r="J136" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K136" s="5"/>
@@ -3634,7 +3645,7 @@
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
       <c r="J137" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K137" s="5"/>
@@ -3652,7 +3663,7 @@
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
       <c r="J138" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K138" s="5"/>
@@ -3670,7 +3681,7 @@
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
       <c r="J139" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K139" s="5"/>
@@ -3688,7 +3699,7 @@
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
       <c r="J140" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K140" s="5"/>
@@ -3706,7 +3717,7 @@
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
       <c r="J141" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K141" s="5"/>
@@ -3724,7 +3735,7 @@
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
       <c r="J142" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K142" s="5"/>
@@ -3742,7 +3753,7 @@
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
       <c r="J143" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K143" s="5"/>
@@ -3760,7 +3771,7 @@
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
       <c r="J144" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K144" s="5"/>
@@ -3778,7 +3789,7 @@
       <c r="H145" s="5"/>
       <c r="I145" s="5"/>
       <c r="J145" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K145" s="5"/>
@@ -3796,7 +3807,7 @@
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
       <c r="J146" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K146" s="5"/>
@@ -3814,7 +3825,7 @@
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
       <c r="J147" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K147" s="5"/>
@@ -3832,7 +3843,7 @@
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
       <c r="J148" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K148" s="5"/>
@@ -3850,7 +3861,7 @@
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
       <c r="J149" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K149" s="5"/>
@@ -3868,7 +3879,7 @@
       <c r="H150" s="5"/>
       <c r="I150" s="5"/>
       <c r="J150" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K150" s="5"/>
@@ -3886,7 +3897,7 @@
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
       <c r="J151" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K151" s="5"/>
@@ -3904,7 +3915,7 @@
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
       <c r="J152" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K152" s="5"/>
@@ -3922,7 +3933,7 @@
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
       <c r="J153" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K153" s="5"/>
@@ -3940,7 +3951,7 @@
       <c r="H154" s="5"/>
       <c r="I154" s="5"/>
       <c r="J154" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K154" s="5"/>
@@ -3958,7 +3969,7 @@
       <c r="H155" s="5"/>
       <c r="I155" s="5"/>
       <c r="J155" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K155" s="5"/>
@@ -3976,7 +3987,7 @@
       <c r="H156" s="5"/>
       <c r="I156" s="5"/>
       <c r="J156" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K156" s="5"/>
@@ -3994,7 +4005,7 @@
       <c r="H157" s="5"/>
       <c r="I157" s="5"/>
       <c r="J157" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K157" s="5"/>
@@ -4012,7 +4023,7 @@
       <c r="H158" s="5"/>
       <c r="I158" s="5"/>
       <c r="J158" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K158" s="5"/>
@@ -4030,7 +4041,7 @@
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
       <c r="J159" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K159" s="5"/>
@@ -4048,7 +4059,7 @@
       <c r="H160" s="5"/>
       <c r="I160" s="5"/>
       <c r="J160" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K160" s="5"/>
@@ -4066,7 +4077,7 @@
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
       <c r="J161" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K161" s="5"/>
@@ -4084,7 +4095,7 @@
       <c r="H162" s="5"/>
       <c r="I162" s="5"/>
       <c r="J162" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K162" s="5"/>
@@ -4102,7 +4113,7 @@
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
       <c r="J163" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K163" s="5"/>
@@ -4120,7 +4131,7 @@
       <c r="H164" s="5"/>
       <c r="I164" s="5"/>
       <c r="J164" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K164" s="5"/>
@@ -4138,7 +4149,7 @@
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
       <c r="J165" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K165" s="5"/>
@@ -4156,7 +4167,7 @@
       <c r="H166" s="5"/>
       <c r="I166" s="5"/>
       <c r="J166" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K166" s="5"/>
@@ -4174,7 +4185,7 @@
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
       <c r="J167" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K167" s="5"/>
@@ -4192,7 +4203,7 @@
       <c r="H168" s="5"/>
       <c r="I168" s="5"/>
       <c r="J168" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K168" s="5"/>
@@ -4210,7 +4221,7 @@
       <c r="H169" s="5"/>
       <c r="I169" s="5"/>
       <c r="J169" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K169" s="5"/>
@@ -4228,7 +4239,7 @@
       <c r="H170" s="5"/>
       <c r="I170" s="5"/>
       <c r="J170" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K170" s="5"/>
@@ -4246,7 +4257,7 @@
       <c r="H171" s="5"/>
       <c r="I171" s="5"/>
       <c r="J171" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K171" s="5"/>
@@ -4264,7 +4275,7 @@
       <c r="H172" s="5"/>
       <c r="I172" s="5"/>
       <c r="J172" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K172" s="5"/>
@@ -4282,7 +4293,7 @@
       <c r="H173" s="5"/>
       <c r="I173" s="5"/>
       <c r="J173" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K173" s="5"/>
@@ -4300,7 +4311,7 @@
       <c r="H174" s="5"/>
       <c r="I174" s="5"/>
       <c r="J174" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K174" s="5"/>
@@ -4318,7 +4329,7 @@
       <c r="H175" s="5"/>
       <c r="I175" s="5"/>
       <c r="J175" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K175" s="5"/>
@@ -4336,7 +4347,7 @@
       <c r="H176" s="5"/>
       <c r="I176" s="5"/>
       <c r="J176" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K176" s="5"/>
@@ -4354,7 +4365,7 @@
       <c r="H177" s="5"/>
       <c r="I177" s="5"/>
       <c r="J177" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K177" s="5"/>
@@ -4372,7 +4383,7 @@
       <c r="H178" s="5"/>
       <c r="I178" s="5"/>
       <c r="J178" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K178" s="5"/>
@@ -4390,7 +4401,7 @@
       <c r="H179" s="5"/>
       <c r="I179" s="5"/>
       <c r="J179" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K179" s="5"/>
@@ -4408,7 +4419,7 @@
       <c r="H180" s="5"/>
       <c r="I180" s="5"/>
       <c r="J180" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K180" s="5"/>
@@ -4426,7 +4437,7 @@
       <c r="H181" s="5"/>
       <c r="I181" s="5"/>
       <c r="J181" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K181" s="5"/>
@@ -4444,7 +4455,7 @@
       <c r="H182" s="5"/>
       <c r="I182" s="5"/>
       <c r="J182" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K182" s="5"/>
@@ -4462,7 +4473,7 @@
       <c r="H183" s="5"/>
       <c r="I183" s="5"/>
       <c r="J183" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K183" s="5"/>
@@ -4480,7 +4491,7 @@
       <c r="H184" s="5"/>
       <c r="I184" s="5"/>
       <c r="J184" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K184" s="5"/>
@@ -4498,7 +4509,7 @@
       <c r="H185" s="5"/>
       <c r="I185" s="5"/>
       <c r="J185" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K185" s="5"/>
@@ -4516,7 +4527,7 @@
       <c r="H186" s="5"/>
       <c r="I186" s="5"/>
       <c r="J186" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K186" s="5"/>
@@ -4534,7 +4545,7 @@
       <c r="H187" s="5"/>
       <c r="I187" s="5"/>
       <c r="J187" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K187" s="5"/>
@@ -4552,7 +4563,7 @@
       <c r="H188" s="5"/>
       <c r="I188" s="5"/>
       <c r="J188" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K188" s="5"/>
@@ -4570,7 +4581,7 @@
       <c r="H189" s="5"/>
       <c r="I189" s="5"/>
       <c r="J189" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K189" s="5"/>
@@ -4588,7 +4599,7 @@
       <c r="H190" s="5"/>
       <c r="I190" s="5"/>
       <c r="J190" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K190" s="5"/>
@@ -4606,7 +4617,7 @@
       <c r="H191" s="5"/>
       <c r="I191" s="5"/>
       <c r="J191" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K191" s="5"/>
@@ -4624,7 +4635,7 @@
       <c r="H192" s="5"/>
       <c r="I192" s="5"/>
       <c r="J192" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K192" s="5"/>
@@ -4642,7 +4653,7 @@
       <c r="H193" s="5"/>
       <c r="I193" s="5"/>
       <c r="J193" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K193" s="5"/>
@@ -4660,7 +4671,7 @@
       <c r="H194" s="5"/>
       <c r="I194" s="5"/>
       <c r="J194" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K194" s="5"/>
@@ -4678,7 +4689,7 @@
       <c r="H195" s="5"/>
       <c r="I195" s="5"/>
       <c r="J195" s="5">
-        <f t="shared" ref="J195:J258" si="4">H195:H745-I195:I745</f>
+        <f t="shared" ref="J195:J258" si="5">H195:H745-I195:I745</f>
         <v>0</v>
       </c>
       <c r="K195" s="5"/>
@@ -4696,7 +4707,7 @@
       <c r="H196" s="5"/>
       <c r="I196" s="5"/>
       <c r="J196" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K196" s="5"/>
@@ -4714,7 +4725,7 @@
       <c r="H197" s="5"/>
       <c r="I197" s="5"/>
       <c r="J197" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K197" s="5"/>
@@ -4732,7 +4743,7 @@
       <c r="H198" s="5"/>
       <c r="I198" s="5"/>
       <c r="J198" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K198" s="5"/>
@@ -4750,7 +4761,7 @@
       <c r="H199" s="5"/>
       <c r="I199" s="5"/>
       <c r="J199" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K199" s="5"/>
@@ -4768,7 +4779,7 @@
       <c r="H200" s="5"/>
       <c r="I200" s="5"/>
       <c r="J200" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K200" s="5"/>
@@ -4786,7 +4797,7 @@
       <c r="H201" s="5"/>
       <c r="I201" s="5"/>
       <c r="J201" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K201" s="5"/>
@@ -4804,7 +4815,7 @@
       <c r="H202" s="5"/>
       <c r="I202" s="5"/>
       <c r="J202" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K202" s="5"/>
@@ -4822,7 +4833,7 @@
       <c r="H203" s="5"/>
       <c r="I203" s="5"/>
       <c r="J203" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K203" s="5"/>
@@ -4840,7 +4851,7 @@
       <c r="H204" s="5"/>
       <c r="I204" s="5"/>
       <c r="J204" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K204" s="5"/>
@@ -4858,7 +4869,7 @@
       <c r="H205" s="5"/>
       <c r="I205" s="5"/>
       <c r="J205" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K205" s="5"/>
@@ -4876,7 +4887,7 @@
       <c r="H206" s="5"/>
       <c r="I206" s="5"/>
       <c r="J206" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K206" s="5"/>
@@ -4894,7 +4905,7 @@
       <c r="H207" s="5"/>
       <c r="I207" s="5"/>
       <c r="J207" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K207" s="5"/>
@@ -4912,7 +4923,7 @@
       <c r="H208" s="5"/>
       <c r="I208" s="5"/>
       <c r="J208" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K208" s="5"/>
@@ -4930,7 +4941,7 @@
       <c r="H209" s="5"/>
       <c r="I209" s="5"/>
       <c r="J209" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K209" s="5"/>
@@ -4948,7 +4959,7 @@
       <c r="H210" s="5"/>
       <c r="I210" s="5"/>
       <c r="J210" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K210" s="5"/>
@@ -4966,7 +4977,7 @@
       <c r="H211" s="5"/>
       <c r="I211" s="5"/>
       <c r="J211" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K211" s="5"/>
@@ -4984,7 +4995,7 @@
       <c r="H212" s="5"/>
       <c r="I212" s="5"/>
       <c r="J212" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K212" s="5"/>
@@ -5002,7 +5013,7 @@
       <c r="H213" s="5"/>
       <c r="I213" s="5"/>
       <c r="J213" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K213" s="5"/>
@@ -5020,7 +5031,7 @@
       <c r="H214" s="5"/>
       <c r="I214" s="5"/>
       <c r="J214" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K214" s="5"/>
@@ -5038,7 +5049,7 @@
       <c r="H215" s="5"/>
       <c r="I215" s="5"/>
       <c r="J215" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K215" s="5"/>
@@ -5056,7 +5067,7 @@
       <c r="H216" s="5"/>
       <c r="I216" s="5"/>
       <c r="J216" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K216" s="5"/>
@@ -5074,7 +5085,7 @@
       <c r="H217" s="5"/>
       <c r="I217" s="5"/>
       <c r="J217" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K217" s="5"/>
@@ -5092,7 +5103,7 @@
       <c r="H218" s="5"/>
       <c r="I218" s="5"/>
       <c r="J218" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K218" s="5"/>
@@ -5110,7 +5121,7 @@
       <c r="H219" s="5"/>
       <c r="I219" s="5"/>
       <c r="J219" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K219" s="5"/>
@@ -5128,7 +5139,7 @@
       <c r="H220" s="5"/>
       <c r="I220" s="5"/>
       <c r="J220" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K220" s="5"/>
@@ -5146,7 +5157,7 @@
       <c r="H221" s="5"/>
       <c r="I221" s="5"/>
       <c r="J221" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K221" s="5"/>
@@ -5164,7 +5175,7 @@
       <c r="H222" s="5"/>
       <c r="I222" s="5"/>
       <c r="J222" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K222" s="5"/>
@@ -5182,7 +5193,7 @@
       <c r="H223" s="5"/>
       <c r="I223" s="5"/>
       <c r="J223" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K223" s="5"/>
@@ -5200,7 +5211,7 @@
       <c r="H224" s="5"/>
       <c r="I224" s="5"/>
       <c r="J224" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K224" s="5"/>
@@ -5218,7 +5229,7 @@
       <c r="H225" s="5"/>
       <c r="I225" s="5"/>
       <c r="J225" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K225" s="5"/>
@@ -5236,7 +5247,7 @@
       <c r="H226" s="5"/>
       <c r="I226" s="5"/>
       <c r="J226" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K226" s="5"/>
@@ -5254,7 +5265,7 @@
       <c r="H227" s="5"/>
       <c r="I227" s="5"/>
       <c r="J227" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K227" s="5"/>
@@ -5272,7 +5283,7 @@
       <c r="H228" s="5"/>
       <c r="I228" s="5"/>
       <c r="J228" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K228" s="5"/>
@@ -5290,7 +5301,7 @@
       <c r="H229" s="5"/>
       <c r="I229" s="5"/>
       <c r="J229" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K229" s="5"/>
@@ -5308,7 +5319,7 @@
       <c r="H230" s="5"/>
       <c r="I230" s="5"/>
       <c r="J230" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K230" s="5"/>
@@ -5326,7 +5337,7 @@
       <c r="H231" s="5"/>
       <c r="I231" s="5"/>
       <c r="J231" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K231" s="5"/>
@@ -5344,7 +5355,7 @@
       <c r="H232" s="5"/>
       <c r="I232" s="5"/>
       <c r="J232" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K232" s="5"/>
@@ -5362,7 +5373,7 @@
       <c r="H233" s="5"/>
       <c r="I233" s="5"/>
       <c r="J233" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K233" s="5"/>
@@ -5380,7 +5391,7 @@
       <c r="H234" s="5"/>
       <c r="I234" s="5"/>
       <c r="J234" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K234" s="5"/>
@@ -5398,7 +5409,7 @@
       <c r="H235" s="5"/>
       <c r="I235" s="5"/>
       <c r="J235" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K235" s="5"/>
@@ -5416,7 +5427,7 @@
       <c r="H236" s="5"/>
       <c r="I236" s="5"/>
       <c r="J236" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K236" s="5"/>
@@ -5434,7 +5445,7 @@
       <c r="H237" s="5"/>
       <c r="I237" s="5"/>
       <c r="J237" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K237" s="5"/>
@@ -5452,7 +5463,7 @@
       <c r="H238" s="5"/>
       <c r="I238" s="5"/>
       <c r="J238" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K238" s="5"/>
@@ -5470,7 +5481,7 @@
       <c r="H239" s="5"/>
       <c r="I239" s="5"/>
       <c r="J239" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K239" s="5"/>
@@ -5488,7 +5499,7 @@
       <c r="H240" s="5"/>
       <c r="I240" s="5"/>
       <c r="J240" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K240" s="5"/>
@@ -5506,7 +5517,7 @@
       <c r="H241" s="5"/>
       <c r="I241" s="5"/>
       <c r="J241" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K241" s="5"/>
@@ -5524,7 +5535,7 @@
       <c r="H242" s="5"/>
       <c r="I242" s="5"/>
       <c r="J242" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K242" s="5"/>
@@ -5542,7 +5553,7 @@
       <c r="H243" s="5"/>
       <c r="I243" s="5"/>
       <c r="J243" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K243" s="5"/>
@@ -5560,7 +5571,7 @@
       <c r="H244" s="5"/>
       <c r="I244" s="5"/>
       <c r="J244" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K244" s="5"/>
@@ -5578,7 +5589,7 @@
       <c r="H245" s="5"/>
       <c r="I245" s="5"/>
       <c r="J245" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K245" s="5"/>
@@ -5596,7 +5607,7 @@
       <c r="H246" s="5"/>
       <c r="I246" s="5"/>
       <c r="J246" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K246" s="5"/>
@@ -5614,7 +5625,7 @@
       <c r="H247" s="5"/>
       <c r="I247" s="5"/>
       <c r="J247" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K247" s="5"/>
@@ -5632,7 +5643,7 @@
       <c r="H248" s="5"/>
       <c r="I248" s="5"/>
       <c r="J248" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K248" s="5"/>
@@ -5650,7 +5661,7 @@
       <c r="H249" s="5"/>
       <c r="I249" s="5"/>
       <c r="J249" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K249" s="5"/>
@@ -5668,7 +5679,7 @@
       <c r="H250" s="5"/>
       <c r="I250" s="5"/>
       <c r="J250" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K250" s="5"/>
@@ -5686,7 +5697,7 @@
       <c r="H251" s="5"/>
       <c r="I251" s="5"/>
       <c r="J251" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K251" s="5"/>
@@ -5704,7 +5715,7 @@
       <c r="H252" s="5"/>
       <c r="I252" s="5"/>
       <c r="J252" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K252" s="5"/>
@@ -5722,7 +5733,7 @@
       <c r="H253" s="5"/>
       <c r="I253" s="5"/>
       <c r="J253" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K253" s="5"/>
@@ -5740,7 +5751,7 @@
       <c r="H254" s="5"/>
       <c r="I254" s="5"/>
       <c r="J254" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K254" s="5"/>
@@ -5758,7 +5769,7 @@
       <c r="H255" s="5"/>
       <c r="I255" s="5"/>
       <c r="J255" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K255" s="5"/>
@@ -5776,7 +5787,7 @@
       <c r="H256" s="5"/>
       <c r="I256" s="5"/>
       <c r="J256" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K256" s="5"/>
@@ -5794,7 +5805,7 @@
       <c r="H257" s="5"/>
       <c r="I257" s="5"/>
       <c r="J257" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K257" s="5"/>
@@ -5812,7 +5823,7 @@
       <c r="H258" s="5"/>
       <c r="I258" s="5"/>
       <c r="J258" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K258" s="5"/>
@@ -5830,7 +5841,7 @@
       <c r="H259" s="5"/>
       <c r="I259" s="5"/>
       <c r="J259" s="5">
-        <f t="shared" ref="J259:J322" si="5">H259:H809-I259:I809</f>
+        <f t="shared" ref="J259:J322" si="6">H259:H809-I259:I809</f>
         <v>0</v>
       </c>
       <c r="K259" s="5"/>
@@ -5848,7 +5859,7 @@
       <c r="H260" s="5"/>
       <c r="I260" s="5"/>
       <c r="J260" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K260" s="5"/>
@@ -5866,7 +5877,7 @@
       <c r="H261" s="5"/>
       <c r="I261" s="5"/>
       <c r="J261" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K261" s="5"/>
@@ -5884,7 +5895,7 @@
       <c r="H262" s="5"/>
       <c r="I262" s="5"/>
       <c r="J262" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K262" s="5"/>
@@ -5902,7 +5913,7 @@
       <c r="H263" s="5"/>
       <c r="I263" s="5"/>
       <c r="J263" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K263" s="5"/>
@@ -5920,7 +5931,7 @@
       <c r="H264" s="5"/>
       <c r="I264" s="5"/>
       <c r="J264" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K264" s="5"/>
@@ -5938,7 +5949,7 @@
       <c r="H265" s="5"/>
       <c r="I265" s="5"/>
       <c r="J265" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K265" s="5"/>
@@ -5956,7 +5967,7 @@
       <c r="H266" s="5"/>
       <c r="I266" s="5"/>
       <c r="J266" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K266" s="5"/>
@@ -5974,7 +5985,7 @@
       <c r="H267" s="5"/>
       <c r="I267" s="5"/>
       <c r="J267" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K267" s="5"/>
@@ -5992,7 +6003,7 @@
       <c r="H268" s="5"/>
       <c r="I268" s="5"/>
       <c r="J268" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K268" s="5"/>
@@ -6010,7 +6021,7 @@
       <c r="H269" s="5"/>
       <c r="I269" s="5"/>
       <c r="J269" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K269" s="5"/>
@@ -6028,7 +6039,7 @@
       <c r="H270" s="5"/>
       <c r="I270" s="5"/>
       <c r="J270" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K270" s="5"/>
@@ -6046,7 +6057,7 @@
       <c r="H271" s="5"/>
       <c r="I271" s="5"/>
       <c r="J271" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K271" s="5"/>
@@ -6064,7 +6075,7 @@
       <c r="H272" s="5"/>
       <c r="I272" s="5"/>
       <c r="J272" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K272" s="5"/>
@@ -6082,7 +6093,7 @@
       <c r="H273" s="5"/>
       <c r="I273" s="5"/>
       <c r="J273" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K273" s="5"/>
@@ -6100,7 +6111,7 @@
       <c r="H274" s="5"/>
       <c r="I274" s="5"/>
       <c r="J274" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K274" s="5"/>
@@ -6118,7 +6129,7 @@
       <c r="H275" s="5"/>
       <c r="I275" s="5"/>
       <c r="J275" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K275" s="5"/>
@@ -6136,7 +6147,7 @@
       <c r="H276" s="5"/>
       <c r="I276" s="5"/>
       <c r="J276" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K276" s="5"/>
@@ -6154,7 +6165,7 @@
       <c r="H277" s="5"/>
       <c r="I277" s="5"/>
       <c r="J277" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K277" s="5"/>
@@ -6172,7 +6183,7 @@
       <c r="H278" s="5"/>
       <c r="I278" s="5"/>
       <c r="J278" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K278" s="5"/>
@@ -6190,7 +6201,7 @@
       <c r="H279" s="5"/>
       <c r="I279" s="5"/>
       <c r="J279" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K279" s="5"/>
@@ -6208,7 +6219,7 @@
       <c r="H280" s="5"/>
       <c r="I280" s="5"/>
       <c r="J280" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K280" s="5"/>
@@ -6226,7 +6237,7 @@
       <c r="H281" s="5"/>
       <c r="I281" s="5"/>
       <c r="J281" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K281" s="5"/>
@@ -6244,7 +6255,7 @@
       <c r="H282" s="5"/>
       <c r="I282" s="5"/>
       <c r="J282" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K282" s="5"/>
@@ -6262,7 +6273,7 @@
       <c r="H283" s="5"/>
       <c r="I283" s="5"/>
       <c r="J283" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K283" s="5"/>
@@ -6280,7 +6291,7 @@
       <c r="H284" s="5"/>
       <c r="I284" s="5"/>
       <c r="J284" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K284" s="5"/>
@@ -6298,7 +6309,7 @@
       <c r="H285" s="5"/>
       <c r="I285" s="5"/>
       <c r="J285" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K285" s="5"/>
@@ -6316,7 +6327,7 @@
       <c r="H286" s="5"/>
       <c r="I286" s="5"/>
       <c r="J286" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K286" s="5"/>
@@ -6334,7 +6345,7 @@
       <c r="H287" s="5"/>
       <c r="I287" s="5"/>
       <c r="J287" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K287" s="5"/>
@@ -6352,7 +6363,7 @@
       <c r="H288" s="5"/>
       <c r="I288" s="5"/>
       <c r="J288" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K288" s="5"/>
@@ -6370,7 +6381,7 @@
       <c r="H289" s="5"/>
       <c r="I289" s="5"/>
       <c r="J289" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K289" s="5"/>
@@ -6388,7 +6399,7 @@
       <c r="H290" s="5"/>
       <c r="I290" s="5"/>
       <c r="J290" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K290" s="5"/>
@@ -6406,7 +6417,7 @@
       <c r="H291" s="5"/>
       <c r="I291" s="5"/>
       <c r="J291" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K291" s="5"/>
@@ -6424,7 +6435,7 @@
       <c r="H292" s="5"/>
       <c r="I292" s="5"/>
       <c r="J292" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K292" s="5"/>
@@ -6442,7 +6453,7 @@
       <c r="H293" s="5"/>
       <c r="I293" s="5"/>
       <c r="J293" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K293" s="5"/>
@@ -6460,7 +6471,7 @@
       <c r="H294" s="5"/>
       <c r="I294" s="5"/>
       <c r="J294" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K294" s="5"/>
@@ -6478,7 +6489,7 @@
       <c r="H295" s="5"/>
       <c r="I295" s="5"/>
       <c r="J295" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K295" s="5"/>
@@ -6496,7 +6507,7 @@
       <c r="H296" s="5"/>
       <c r="I296" s="5"/>
       <c r="J296" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K296" s="5"/>
@@ -6514,7 +6525,7 @@
       <c r="H297" s="5"/>
       <c r="I297" s="5"/>
       <c r="J297" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K297" s="5"/>
@@ -6532,7 +6543,7 @@
       <c r="H298" s="5"/>
       <c r="I298" s="5"/>
       <c r="J298" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K298" s="5"/>
@@ -6550,7 +6561,7 @@
       <c r="H299" s="5"/>
       <c r="I299" s="5"/>
       <c r="J299" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K299" s="5"/>
@@ -6568,7 +6579,7 @@
       <c r="H300" s="5"/>
       <c r="I300" s="5"/>
       <c r="J300" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K300" s="5"/>
@@ -6586,7 +6597,7 @@
       <c r="H301" s="5"/>
       <c r="I301" s="5"/>
       <c r="J301" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K301" s="5"/>
@@ -6604,7 +6615,7 @@
       <c r="H302" s="5"/>
       <c r="I302" s="5"/>
       <c r="J302" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K302" s="5"/>
@@ -6622,7 +6633,7 @@
       <c r="H303" s="5"/>
       <c r="I303" s="5"/>
       <c r="J303" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K303" s="5"/>
@@ -6640,7 +6651,7 @@
       <c r="H304" s="5"/>
       <c r="I304" s="5"/>
       <c r="J304" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K304" s="5"/>
@@ -6658,7 +6669,7 @@
       <c r="H305" s="5"/>
       <c r="I305" s="5"/>
       <c r="J305" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K305" s="5"/>
@@ -6676,7 +6687,7 @@
       <c r="H306" s="5"/>
       <c r="I306" s="5"/>
       <c r="J306" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K306" s="5"/>
@@ -6694,7 +6705,7 @@
       <c r="H307" s="5"/>
       <c r="I307" s="5"/>
       <c r="J307" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K307" s="5"/>
@@ -6712,7 +6723,7 @@
       <c r="H308" s="5"/>
       <c r="I308" s="5"/>
       <c r="J308" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K308" s="5"/>
@@ -6730,7 +6741,7 @@
       <c r="H309" s="5"/>
       <c r="I309" s="5"/>
       <c r="J309" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K309" s="5"/>
@@ -6748,7 +6759,7 @@
       <c r="H310" s="5"/>
       <c r="I310" s="5"/>
       <c r="J310" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K310" s="5"/>
@@ -6766,7 +6777,7 @@
       <c r="H311" s="5"/>
       <c r="I311" s="5"/>
       <c r="J311" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K311" s="5"/>
@@ -6784,7 +6795,7 @@
       <c r="H312" s="5"/>
       <c r="I312" s="5"/>
       <c r="J312" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K312" s="5"/>
@@ -6802,7 +6813,7 @@
       <c r="H313" s="5"/>
       <c r="I313" s="5"/>
       <c r="J313" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K313" s="5"/>
@@ -6820,7 +6831,7 @@
       <c r="H314" s="5"/>
       <c r="I314" s="5"/>
       <c r="J314" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K314" s="5"/>
@@ -6838,7 +6849,7 @@
       <c r="H315" s="5"/>
       <c r="I315" s="5"/>
       <c r="J315" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K315" s="5"/>
@@ -6856,7 +6867,7 @@
       <c r="H316" s="5"/>
       <c r="I316" s="5"/>
       <c r="J316" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K316" s="5"/>
@@ -6874,7 +6885,7 @@
       <c r="H317" s="5"/>
       <c r="I317" s="5"/>
       <c r="J317" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K317" s="5"/>
@@ -6892,7 +6903,7 @@
       <c r="H318" s="5"/>
       <c r="I318" s="5"/>
       <c r="J318" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K318" s="5"/>
@@ -6910,7 +6921,7 @@
       <c r="H319" s="5"/>
       <c r="I319" s="5"/>
       <c r="J319" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K319" s="5"/>
@@ -6928,7 +6939,7 @@
       <c r="H320" s="5"/>
       <c r="I320" s="5"/>
       <c r="J320" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K320" s="5"/>
@@ -6946,7 +6957,7 @@
       <c r="H321" s="5"/>
       <c r="I321" s="5"/>
       <c r="J321" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K321" s="5"/>
@@ -6964,7 +6975,7 @@
       <c r="H322" s="5"/>
       <c r="I322" s="5"/>
       <c r="J322" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K322" s="5"/>
@@ -6982,7 +6993,7 @@
       <c r="H323" s="5"/>
       <c r="I323" s="5"/>
       <c r="J323" s="5">
-        <f t="shared" ref="J323:J386" si="6">H323:H873-I323:I873</f>
+        <f t="shared" ref="J323:J386" si="7">H323:H873-I323:I873</f>
         <v>0</v>
       </c>
       <c r="K323" s="5"/>
@@ -7000,7 +7011,7 @@
       <c r="H324" s="5"/>
       <c r="I324" s="5"/>
       <c r="J324" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K324" s="5"/>
@@ -7018,7 +7029,7 @@
       <c r="H325" s="5"/>
       <c r="I325" s="5"/>
       <c r="J325" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K325" s="5"/>
@@ -7036,7 +7047,7 @@
       <c r="H326" s="5"/>
       <c r="I326" s="5"/>
       <c r="J326" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K326" s="5"/>
@@ -7054,7 +7065,7 @@
       <c r="H327" s="5"/>
       <c r="I327" s="5"/>
       <c r="J327" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K327" s="5"/>
@@ -7072,7 +7083,7 @@
       <c r="H328" s="5"/>
       <c r="I328" s="5"/>
       <c r="J328" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K328" s="5"/>
@@ -7090,7 +7101,7 @@
       <c r="H329" s="5"/>
       <c r="I329" s="5"/>
       <c r="J329" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K329" s="5"/>
@@ -7108,7 +7119,7 @@
       <c r="H330" s="5"/>
       <c r="I330" s="5"/>
       <c r="J330" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K330" s="5"/>
@@ -7126,7 +7137,7 @@
       <c r="H331" s="5"/>
       <c r="I331" s="5"/>
       <c r="J331" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K331" s="5"/>
@@ -7144,7 +7155,7 @@
       <c r="H332" s="5"/>
       <c r="I332" s="5"/>
       <c r="J332" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K332" s="5"/>
@@ -7162,7 +7173,7 @@
       <c r="H333" s="5"/>
       <c r="I333" s="5"/>
       <c r="J333" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K333" s="5"/>
@@ -7180,7 +7191,7 @@
       <c r="H334" s="5"/>
       <c r="I334" s="5"/>
       <c r="J334" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K334" s="5"/>
@@ -7198,7 +7209,7 @@
       <c r="H335" s="5"/>
       <c r="I335" s="5"/>
       <c r="J335" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K335" s="5"/>
@@ -7216,7 +7227,7 @@
       <c r="H336" s="5"/>
       <c r="I336" s="5"/>
       <c r="J336" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K336" s="5"/>
@@ -7234,7 +7245,7 @@
       <c r="H337" s="5"/>
       <c r="I337" s="5"/>
       <c r="J337" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K337" s="5"/>
@@ -7252,7 +7263,7 @@
       <c r="H338" s="5"/>
       <c r="I338" s="5"/>
       <c r="J338" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K338" s="5"/>
@@ -7270,7 +7281,7 @@
       <c r="H339" s="5"/>
       <c r="I339" s="5"/>
       <c r="J339" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K339" s="5"/>
@@ -7288,7 +7299,7 @@
       <c r="H340" s="5"/>
       <c r="I340" s="5"/>
       <c r="J340" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K340" s="5"/>
@@ -7306,7 +7317,7 @@
       <c r="H341" s="5"/>
       <c r="I341" s="5"/>
       <c r="J341" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K341" s="5"/>
@@ -7324,7 +7335,7 @@
       <c r="H342" s="5"/>
       <c r="I342" s="5"/>
       <c r="J342" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K342" s="5"/>
@@ -7342,7 +7353,7 @@
       <c r="H343" s="5"/>
       <c r="I343" s="5"/>
       <c r="J343" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K343" s="5"/>
@@ -7360,7 +7371,7 @@
       <c r="H344" s="5"/>
       <c r="I344" s="5"/>
       <c r="J344" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K344" s="5"/>
@@ -7378,7 +7389,7 @@
       <c r="H345" s="5"/>
       <c r="I345" s="5"/>
       <c r="J345" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K345" s="5"/>
@@ -7396,7 +7407,7 @@
       <c r="H346" s="5"/>
       <c r="I346" s="5"/>
       <c r="J346" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K346" s="5"/>
@@ -7414,7 +7425,7 @@
       <c r="H347" s="5"/>
       <c r="I347" s="5"/>
       <c r="J347" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K347" s="5"/>
@@ -7432,7 +7443,7 @@
       <c r="H348" s="5"/>
       <c r="I348" s="5"/>
       <c r="J348" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K348" s="5"/>
@@ -7450,7 +7461,7 @@
       <c r="H349" s="5"/>
       <c r="I349" s="5"/>
       <c r="J349" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K349" s="5"/>
@@ -7468,7 +7479,7 @@
       <c r="H350" s="5"/>
       <c r="I350" s="5"/>
       <c r="J350" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K350" s="5"/>
@@ -7486,7 +7497,7 @@
       <c r="H351" s="5"/>
       <c r="I351" s="5"/>
       <c r="J351" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K351" s="5"/>
@@ -7504,7 +7515,7 @@
       <c r="H352" s="5"/>
       <c r="I352" s="5"/>
       <c r="J352" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K352" s="5"/>
@@ -7522,7 +7533,7 @@
       <c r="H353" s="5"/>
       <c r="I353" s="5"/>
       <c r="J353" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K353" s="5"/>
@@ -7540,7 +7551,7 @@
       <c r="H354" s="5"/>
       <c r="I354" s="5"/>
       <c r="J354" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K354" s="5"/>
@@ -7558,7 +7569,7 @@
       <c r="H355" s="5"/>
       <c r="I355" s="5"/>
       <c r="J355" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K355" s="5"/>
@@ -7576,7 +7587,7 @@
       <c r="H356" s="5"/>
       <c r="I356" s="5"/>
       <c r="J356" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K356" s="5"/>
@@ -7594,7 +7605,7 @@
       <c r="H357" s="5"/>
       <c r="I357" s="5"/>
       <c r="J357" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K357" s="5"/>
@@ -7612,7 +7623,7 @@
       <c r="H358" s="5"/>
       <c r="I358" s="5"/>
       <c r="J358" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K358" s="5"/>
@@ -7630,7 +7641,7 @@
       <c r="H359" s="5"/>
       <c r="I359" s="5"/>
       <c r="J359" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K359" s="5"/>
@@ -7648,7 +7659,7 @@
       <c r="H360" s="5"/>
       <c r="I360" s="5"/>
       <c r="J360" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K360" s="5"/>
@@ -7666,7 +7677,7 @@
       <c r="H361" s="5"/>
       <c r="I361" s="5"/>
       <c r="J361" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K361" s="5"/>
@@ -7684,7 +7695,7 @@
       <c r="H362" s="5"/>
       <c r="I362" s="5"/>
       <c r="J362" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K362" s="5"/>
@@ -7702,7 +7713,7 @@
       <c r="H363" s="5"/>
       <c r="I363" s="5"/>
       <c r="J363" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K363" s="5"/>
@@ -7720,7 +7731,7 @@
       <c r="H364" s="5"/>
       <c r="I364" s="5"/>
       <c r="J364" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K364" s="5"/>
@@ -7738,7 +7749,7 @@
       <c r="H365" s="5"/>
       <c r="I365" s="5"/>
       <c r="J365" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K365" s="5"/>
@@ -7756,7 +7767,7 @@
       <c r="H366" s="5"/>
       <c r="I366" s="5"/>
       <c r="J366" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K366" s="5"/>
@@ -7774,7 +7785,7 @@
       <c r="H367" s="5"/>
       <c r="I367" s="5"/>
       <c r="J367" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K367" s="5"/>
@@ -7792,7 +7803,7 @@
       <c r="H368" s="5"/>
       <c r="I368" s="5"/>
       <c r="J368" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K368" s="5"/>
@@ -7810,7 +7821,7 @@
       <c r="H369" s="5"/>
       <c r="I369" s="5"/>
       <c r="J369" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K369" s="5"/>
@@ -7828,7 +7839,7 @@
       <c r="H370" s="5"/>
       <c r="I370" s="5"/>
       <c r="J370" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K370" s="5"/>
@@ -7846,7 +7857,7 @@
       <c r="H371" s="5"/>
       <c r="I371" s="5"/>
       <c r="J371" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K371" s="5"/>
@@ -7864,7 +7875,7 @@
       <c r="H372" s="5"/>
       <c r="I372" s="5"/>
       <c r="J372" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K372" s="5"/>
@@ -7882,7 +7893,7 @@
       <c r="H373" s="5"/>
       <c r="I373" s="5"/>
       <c r="J373" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K373" s="5"/>
@@ -7900,7 +7911,7 @@
       <c r="H374" s="5"/>
       <c r="I374" s="5"/>
       <c r="J374" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K374" s="5"/>
@@ -7918,7 +7929,7 @@
       <c r="H375" s="5"/>
       <c r="I375" s="5"/>
       <c r="J375" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K375" s="5"/>
@@ -7936,7 +7947,7 @@
       <c r="H376" s="5"/>
       <c r="I376" s="5"/>
       <c r="J376" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K376" s="5"/>
@@ -7954,7 +7965,7 @@
       <c r="H377" s="5"/>
       <c r="I377" s="5"/>
       <c r="J377" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K377" s="5"/>
@@ -7972,7 +7983,7 @@
       <c r="H378" s="5"/>
       <c r="I378" s="5"/>
       <c r="J378" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K378" s="5"/>
@@ -7990,7 +8001,7 @@
       <c r="H379" s="5"/>
       <c r="I379" s="5"/>
       <c r="J379" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K379" s="5"/>
@@ -8008,7 +8019,7 @@
       <c r="H380" s="5"/>
       <c r="I380" s="5"/>
       <c r="J380" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K380" s="5"/>
@@ -8026,7 +8037,7 @@
       <c r="H381" s="5"/>
       <c r="I381" s="5"/>
       <c r="J381" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K381" s="5"/>
@@ -8044,7 +8055,7 @@
       <c r="H382" s="5"/>
       <c r="I382" s="5"/>
       <c r="J382" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K382" s="5"/>
@@ -8062,7 +8073,7 @@
       <c r="H383" s="5"/>
       <c r="I383" s="5"/>
       <c r="J383" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K383" s="5"/>
@@ -8080,7 +8091,7 @@
       <c r="H384" s="5"/>
       <c r="I384" s="5"/>
       <c r="J384" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K384" s="5"/>
@@ -8098,7 +8109,7 @@
       <c r="H385" s="5"/>
       <c r="I385" s="5"/>
       <c r="J385" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K385" s="5"/>
@@ -8116,7 +8127,7 @@
       <c r="H386" s="5"/>
       <c r="I386" s="5"/>
       <c r="J386" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K386" s="5"/>
@@ -8134,7 +8145,7 @@
       <c r="H387" s="5"/>
       <c r="I387" s="5"/>
       <c r="J387" s="5">
-        <f t="shared" ref="J387:J450" si="7">H387:H937-I387:I937</f>
+        <f t="shared" ref="J387:J450" si="8">H387:H937-I387:I937</f>
         <v>0</v>
       </c>
       <c r="K387" s="5"/>
@@ -8152,7 +8163,7 @@
       <c r="H388" s="5"/>
       <c r="I388" s="5"/>
       <c r="J388" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K388" s="5"/>
@@ -8170,7 +8181,7 @@
       <c r="H389" s="5"/>
       <c r="I389" s="5"/>
       <c r="J389" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K389" s="5"/>
@@ -8188,7 +8199,7 @@
       <c r="H390" s="5"/>
       <c r="I390" s="5"/>
       <c r="J390" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K390" s="5"/>
@@ -8206,7 +8217,7 @@
       <c r="H391" s="5"/>
       <c r="I391" s="5"/>
       <c r="J391" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K391" s="5"/>
@@ -8224,7 +8235,7 @@
       <c r="H392" s="5"/>
       <c r="I392" s="5"/>
       <c r="J392" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K392" s="5"/>
@@ -8242,7 +8253,7 @@
       <c r="H393" s="5"/>
       <c r="I393" s="5"/>
       <c r="J393" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K393" s="5"/>
@@ -8260,7 +8271,7 @@
       <c r="H394" s="5"/>
       <c r="I394" s="5"/>
       <c r="J394" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K394" s="5"/>
@@ -8278,7 +8289,7 @@
       <c r="H395" s="5"/>
       <c r="I395" s="5"/>
       <c r="J395" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K395" s="5"/>
@@ -8296,7 +8307,7 @@
       <c r="H396" s="5"/>
       <c r="I396" s="5"/>
       <c r="J396" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K396" s="5"/>
@@ -8314,7 +8325,7 @@
       <c r="H397" s="5"/>
       <c r="I397" s="5"/>
       <c r="J397" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K397" s="5"/>
@@ -8332,7 +8343,7 @@
       <c r="H398" s="5"/>
       <c r="I398" s="5"/>
       <c r="J398" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K398" s="5"/>
@@ -8350,7 +8361,7 @@
       <c r="H399" s="5"/>
       <c r="I399" s="5"/>
       <c r="J399" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K399" s="5"/>
@@ -8368,7 +8379,7 @@
       <c r="H400" s="5"/>
       <c r="I400" s="5"/>
       <c r="J400" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K400" s="5"/>
@@ -8386,7 +8397,7 @@
       <c r="H401" s="5"/>
       <c r="I401" s="5"/>
       <c r="J401" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K401" s="5"/>
@@ -8404,7 +8415,7 @@
       <c r="H402" s="5"/>
       <c r="I402" s="5"/>
       <c r="J402" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K402" s="5"/>
@@ -8422,7 +8433,7 @@
       <c r="H403" s="5"/>
       <c r="I403" s="5"/>
       <c r="J403" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K403" s="5"/>
@@ -8440,7 +8451,7 @@
       <c r="H404" s="5"/>
       <c r="I404" s="5"/>
       <c r="J404" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K404" s="5"/>
@@ -8458,7 +8469,7 @@
       <c r="H405" s="5"/>
       <c r="I405" s="5"/>
       <c r="J405" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K405" s="5"/>
@@ -8476,7 +8487,7 @@
       <c r="H406" s="5"/>
       <c r="I406" s="5"/>
       <c r="J406" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K406" s="5"/>
@@ -8494,7 +8505,7 @@
       <c r="H407" s="5"/>
       <c r="I407" s="5"/>
       <c r="J407" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K407" s="5"/>
@@ -8512,7 +8523,7 @@
       <c r="H408" s="5"/>
       <c r="I408" s="5"/>
       <c r="J408" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K408" s="5"/>
@@ -8530,7 +8541,7 @@
       <c r="H409" s="5"/>
       <c r="I409" s="5"/>
       <c r="J409" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K409" s="5"/>
@@ -8548,7 +8559,7 @@
       <c r="H410" s="5"/>
       <c r="I410" s="5"/>
       <c r="J410" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K410" s="5"/>
@@ -8566,7 +8577,7 @@
       <c r="H411" s="5"/>
       <c r="I411" s="5"/>
       <c r="J411" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K411" s="5"/>
@@ -8584,7 +8595,7 @@
       <c r="H412" s="5"/>
       <c r="I412" s="5"/>
       <c r="J412" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K412" s="5"/>
@@ -8602,7 +8613,7 @@
       <c r="H413" s="5"/>
       <c r="I413" s="5"/>
       <c r="J413" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K413" s="5"/>
@@ -8620,7 +8631,7 @@
       <c r="H414" s="5"/>
       <c r="I414" s="5"/>
       <c r="J414" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K414" s="5"/>
@@ -8638,7 +8649,7 @@
       <c r="H415" s="5"/>
       <c r="I415" s="5"/>
       <c r="J415" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K415" s="5"/>
@@ -8656,7 +8667,7 @@
       <c r="H416" s="5"/>
       <c r="I416" s="5"/>
       <c r="J416" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K416" s="5"/>
@@ -8674,7 +8685,7 @@
       <c r="H417" s="5"/>
       <c r="I417" s="5"/>
       <c r="J417" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K417" s="5"/>
@@ -8692,7 +8703,7 @@
       <c r="H418" s="5"/>
       <c r="I418" s="5"/>
       <c r="J418" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K418" s="5"/>
@@ -8710,7 +8721,7 @@
       <c r="H419" s="5"/>
       <c r="I419" s="5"/>
       <c r="J419" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K419" s="5"/>
@@ -8728,7 +8739,7 @@
       <c r="H420" s="5"/>
       <c r="I420" s="5"/>
       <c r="J420" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K420" s="5"/>
@@ -8746,7 +8757,7 @@
       <c r="H421" s="5"/>
       <c r="I421" s="5"/>
       <c r="J421" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K421" s="5"/>
@@ -8764,7 +8775,7 @@
       <c r="H422" s="5"/>
       <c r="I422" s="5"/>
       <c r="J422" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K422" s="5"/>
@@ -8782,7 +8793,7 @@
       <c r="H423" s="5"/>
       <c r="I423" s="5"/>
       <c r="J423" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K423" s="5"/>
@@ -8800,7 +8811,7 @@
       <c r="H424" s="5"/>
       <c r="I424" s="5"/>
       <c r="J424" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K424" s="5"/>
@@ -8818,7 +8829,7 @@
       <c r="H425" s="5"/>
       <c r="I425" s="5"/>
       <c r="J425" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K425" s="5"/>
@@ -8836,7 +8847,7 @@
       <c r="H426" s="5"/>
       <c r="I426" s="5"/>
       <c r="J426" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K426" s="5"/>
@@ -8854,7 +8865,7 @@
       <c r="H427" s="5"/>
       <c r="I427" s="5"/>
       <c r="J427" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K427" s="5"/>
@@ -8872,7 +8883,7 @@
       <c r="H428" s="5"/>
       <c r="I428" s="5"/>
       <c r="J428" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K428" s="5"/>
@@ -8890,7 +8901,7 @@
       <c r="H429" s="5"/>
       <c r="I429" s="5"/>
       <c r="J429" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K429" s="5"/>
@@ -8908,7 +8919,7 @@
       <c r="H430" s="5"/>
       <c r="I430" s="5"/>
       <c r="J430" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K430" s="5"/>
@@ -8926,7 +8937,7 @@
       <c r="H431" s="5"/>
       <c r="I431" s="5"/>
       <c r="J431" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K431" s="5"/>
@@ -8944,7 +8955,7 @@
       <c r="H432" s="5"/>
       <c r="I432" s="5"/>
       <c r="J432" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K432" s="5"/>
@@ -8962,7 +8973,7 @@
       <c r="H433" s="5"/>
       <c r="I433" s="5"/>
       <c r="J433" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K433" s="5"/>
@@ -8980,7 +8991,7 @@
       <c r="H434" s="5"/>
       <c r="I434" s="5"/>
       <c r="J434" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K434" s="5"/>
@@ -8998,7 +9009,7 @@
       <c r="H435" s="5"/>
       <c r="I435" s="5"/>
       <c r="J435" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K435" s="5"/>
@@ -9016,7 +9027,7 @@
       <c r="H436" s="5"/>
       <c r="I436" s="5"/>
       <c r="J436" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K436" s="5"/>
@@ -9034,7 +9045,7 @@
       <c r="H437" s="5"/>
       <c r="I437" s="5"/>
       <c r="J437" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K437" s="5"/>
@@ -9052,7 +9063,7 @@
       <c r="H438" s="5"/>
       <c r="I438" s="5"/>
       <c r="J438" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K438" s="5"/>
@@ -9070,7 +9081,7 @@
       <c r="H439" s="5"/>
       <c r="I439" s="5"/>
       <c r="J439" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K439" s="5"/>
@@ -9088,7 +9099,7 @@
       <c r="H440" s="5"/>
       <c r="I440" s="5"/>
       <c r="J440" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K440" s="5"/>
@@ -9106,7 +9117,7 @@
       <c r="H441" s="5"/>
       <c r="I441" s="5"/>
       <c r="J441" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K441" s="5"/>
@@ -9124,7 +9135,7 @@
       <c r="H442" s="5"/>
       <c r="I442" s="5"/>
       <c r="J442" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K442" s="5"/>
@@ -9142,7 +9153,7 @@
       <c r="H443" s="5"/>
       <c r="I443" s="5"/>
       <c r="J443" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K443" s="5"/>
@@ -9160,7 +9171,7 @@
       <c r="H444" s="5"/>
       <c r="I444" s="5"/>
       <c r="J444" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K444" s="5"/>
@@ -9178,7 +9189,7 @@
       <c r="H445" s="5"/>
       <c r="I445" s="5"/>
       <c r="J445" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K445" s="5"/>
@@ -9196,7 +9207,7 @@
       <c r="H446" s="5"/>
       <c r="I446" s="5"/>
       <c r="J446" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K446" s="5"/>
@@ -9214,7 +9225,7 @@
       <c r="H447" s="5"/>
       <c r="I447" s="5"/>
       <c r="J447" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K447" s="5"/>
@@ -9232,7 +9243,7 @@
       <c r="H448" s="5"/>
       <c r="I448" s="5"/>
       <c r="J448" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K448" s="5"/>
@@ -9250,7 +9261,7 @@
       <c r="H449" s="5"/>
       <c r="I449" s="5"/>
       <c r="J449" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K449" s="5"/>
@@ -9268,7 +9279,7 @@
       <c r="H450" s="5"/>
       <c r="I450" s="5"/>
       <c r="J450" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K450" s="5"/>
@@ -9286,7 +9297,7 @@
       <c r="H451" s="5"/>
       <c r="I451" s="5"/>
       <c r="J451" s="5">
-        <f t="shared" ref="J451:J514" si="8">H451:H1001-I451:I1001</f>
+        <f t="shared" ref="J451:J514" si="9">H451:H1001-I451:I1001</f>
         <v>0</v>
       </c>
       <c r="K451" s="5"/>
@@ -9304,7 +9315,7 @@
       <c r="H452" s="5"/>
       <c r="I452" s="5"/>
       <c r="J452" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K452" s="5"/>
@@ -9322,7 +9333,7 @@
       <c r="H453" s="5"/>
       <c r="I453" s="5"/>
       <c r="J453" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K453" s="5"/>
@@ -9340,7 +9351,7 @@
       <c r="H454" s="5"/>
       <c r="I454" s="5"/>
       <c r="J454" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K454" s="5"/>
@@ -9358,7 +9369,7 @@
       <c r="H455" s="5"/>
       <c r="I455" s="5"/>
       <c r="J455" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K455" s="5"/>
@@ -9376,7 +9387,7 @@
       <c r="H456" s="5"/>
       <c r="I456" s="5"/>
       <c r="J456" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K456" s="5"/>
@@ -9394,7 +9405,7 @@
       <c r="H457" s="5"/>
       <c r="I457" s="5"/>
       <c r="J457" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K457" s="5"/>
@@ -9412,7 +9423,7 @@
       <c r="H458" s="5"/>
       <c r="I458" s="5"/>
       <c r="J458" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K458" s="5"/>
@@ -9430,7 +9441,7 @@
       <c r="H459" s="5"/>
       <c r="I459" s="5"/>
       <c r="J459" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K459" s="5"/>
@@ -9448,7 +9459,7 @@
       <c r="H460" s="5"/>
       <c r="I460" s="5"/>
       <c r="J460" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K460" s="5"/>
@@ -9466,7 +9477,7 @@
       <c r="H461" s="5"/>
       <c r="I461" s="5"/>
       <c r="J461" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K461" s="5"/>
@@ -9484,7 +9495,7 @@
       <c r="H462" s="5"/>
       <c r="I462" s="5"/>
       <c r="J462" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K462" s="5"/>
@@ -9502,7 +9513,7 @@
       <c r="H463" s="5"/>
       <c r="I463" s="5"/>
       <c r="J463" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K463" s="5"/>
@@ -9520,7 +9531,7 @@
       <c r="H464" s="5"/>
       <c r="I464" s="5"/>
       <c r="J464" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K464" s="5"/>
@@ -9538,7 +9549,7 @@
       <c r="H465" s="5"/>
       <c r="I465" s="5"/>
       <c r="J465" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K465" s="5"/>
@@ -9556,7 +9567,7 @@
       <c r="H466" s="5"/>
       <c r="I466" s="5"/>
       <c r="J466" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K466" s="5"/>
@@ -9574,7 +9585,7 @@
       <c r="H467" s="5"/>
       <c r="I467" s="5"/>
       <c r="J467" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K467" s="5"/>
@@ -9592,7 +9603,7 @@
       <c r="H468" s="5"/>
       <c r="I468" s="5"/>
       <c r="J468" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K468" s="5"/>
@@ -9610,7 +9621,7 @@
       <c r="H469" s="5"/>
       <c r="I469" s="5"/>
       <c r="J469" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K469" s="5"/>
@@ -9628,7 +9639,7 @@
       <c r="H470" s="5"/>
       <c r="I470" s="5"/>
       <c r="J470" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K470" s="5"/>
@@ -9646,7 +9657,7 @@
       <c r="H471" s="5"/>
       <c r="I471" s="5"/>
       <c r="J471" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K471" s="5"/>
@@ -9664,7 +9675,7 @@
       <c r="H472" s="5"/>
       <c r="I472" s="5"/>
       <c r="J472" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K472" s="5"/>
@@ -9682,7 +9693,7 @@
       <c r="H473" s="5"/>
       <c r="I473" s="5"/>
       <c r="J473" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K473" s="5"/>
@@ -9700,7 +9711,7 @@
       <c r="H474" s="5"/>
       <c r="I474" s="5"/>
       <c r="J474" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K474" s="5"/>
@@ -9718,7 +9729,7 @@
       <c r="H475" s="5"/>
       <c r="I475" s="5"/>
       <c r="J475" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K475" s="5"/>
@@ -9736,7 +9747,7 @@
       <c r="H476" s="5"/>
       <c r="I476" s="5"/>
       <c r="J476" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K476" s="5"/>
@@ -9754,7 +9765,7 @@
       <c r="H477" s="5"/>
       <c r="I477" s="5"/>
       <c r="J477" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K477" s="5"/>
@@ -9772,7 +9783,7 @@
       <c r="H478" s="5"/>
       <c r="I478" s="5"/>
       <c r="J478" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K478" s="5"/>
@@ -9790,7 +9801,7 @@
       <c r="H479" s="5"/>
       <c r="I479" s="5"/>
       <c r="J479" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K479" s="5"/>
@@ -9808,7 +9819,7 @@
       <c r="H480" s="5"/>
       <c r="I480" s="5"/>
       <c r="J480" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K480" s="5"/>
@@ -9826,7 +9837,7 @@
       <c r="H481" s="5"/>
       <c r="I481" s="5"/>
       <c r="J481" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K481" s="5"/>
@@ -9844,7 +9855,7 @@
       <c r="H482" s="5"/>
       <c r="I482" s="5"/>
       <c r="J482" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K482" s="5"/>
@@ -9862,7 +9873,7 @@
       <c r="H483" s="5"/>
       <c r="I483" s="5"/>
       <c r="J483" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K483" s="5"/>
@@ -9880,7 +9891,7 @@
       <c r="H484" s="5"/>
       <c r="I484" s="5"/>
       <c r="J484" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K484" s="5"/>
@@ -9898,7 +9909,7 @@
       <c r="H485" s="5"/>
       <c r="I485" s="5"/>
       <c r="J485" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K485" s="5"/>
@@ -9916,7 +9927,7 @@
       <c r="H486" s="5"/>
       <c r="I486" s="5"/>
       <c r="J486" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K486" s="5"/>
@@ -9934,7 +9945,7 @@
       <c r="H487" s="5"/>
       <c r="I487" s="5"/>
       <c r="J487" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K487" s="5"/>
@@ -9952,7 +9963,7 @@
       <c r="H488" s="5"/>
       <c r="I488" s="5"/>
       <c r="J488" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K488" s="5"/>
@@ -9970,7 +9981,7 @@
       <c r="H489" s="5"/>
       <c r="I489" s="5"/>
       <c r="J489" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K489" s="5"/>
@@ -9988,7 +9999,7 @@
       <c r="H490" s="5"/>
       <c r="I490" s="5"/>
       <c r="J490" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K490" s="5"/>
@@ -10006,7 +10017,7 @@
       <c r="H491" s="5"/>
       <c r="I491" s="5"/>
       <c r="J491" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K491" s="5"/>
@@ -10024,7 +10035,7 @@
       <c r="H492" s="5"/>
       <c r="I492" s="5"/>
       <c r="J492" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K492" s="5"/>
@@ -10042,7 +10053,7 @@
       <c r="H493" s="5"/>
       <c r="I493" s="5"/>
       <c r="J493" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K493" s="5"/>
@@ -10060,7 +10071,7 @@
       <c r="H494" s="5"/>
       <c r="I494" s="5"/>
       <c r="J494" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K494" s="5"/>
@@ -10078,7 +10089,7 @@
       <c r="H495" s="5"/>
       <c r="I495" s="5"/>
       <c r="J495" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K495" s="5"/>
@@ -10096,7 +10107,7 @@
       <c r="H496" s="5"/>
       <c r="I496" s="5"/>
       <c r="J496" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K496" s="5"/>
@@ -10114,7 +10125,7 @@
       <c r="H497" s="5"/>
       <c r="I497" s="5"/>
       <c r="J497" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K497" s="5"/>
@@ -10132,7 +10143,7 @@
       <c r="H498" s="5"/>
       <c r="I498" s="5"/>
       <c r="J498" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K498" s="5"/>
@@ -10150,7 +10161,7 @@
       <c r="H499" s="5"/>
       <c r="I499" s="5"/>
       <c r="J499" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K499" s="5"/>
@@ -10168,7 +10179,7 @@
       <c r="H500" s="5"/>
       <c r="I500" s="5"/>
       <c r="J500" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K500" s="5"/>
@@ -10186,7 +10197,7 @@
       <c r="H501" s="5"/>
       <c r="I501" s="5"/>
       <c r="J501" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K501" s="5"/>
@@ -10204,7 +10215,7 @@
       <c r="H502" s="5"/>
       <c r="I502" s="5"/>
       <c r="J502" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K502" s="5"/>
@@ -10222,7 +10233,7 @@
       <c r="H503" s="5"/>
       <c r="I503" s="5"/>
       <c r="J503" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K503" s="5"/>
@@ -10240,7 +10251,7 @@
       <c r="H504" s="5"/>
       <c r="I504" s="5"/>
       <c r="J504" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K504" s="5"/>
@@ -10258,7 +10269,7 @@
       <c r="H505" s="5"/>
       <c r="I505" s="5"/>
       <c r="J505" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K505" s="5"/>
@@ -10276,7 +10287,7 @@
       <c r="H506" s="5"/>
       <c r="I506" s="5"/>
       <c r="J506" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K506" s="5"/>
@@ -10294,7 +10305,7 @@
       <c r="H507" s="5"/>
       <c r="I507" s="5"/>
       <c r="J507" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K507" s="5"/>
@@ -10312,7 +10323,7 @@
       <c r="H508" s="5"/>
       <c r="I508" s="5"/>
       <c r="J508" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K508" s="5"/>
@@ -10330,7 +10341,7 @@
       <c r="H509" s="5"/>
       <c r="I509" s="5"/>
       <c r="J509" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K509" s="5"/>
@@ -10348,7 +10359,7 @@
       <c r="H510" s="5"/>
       <c r="I510" s="5"/>
       <c r="J510" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K510" s="5"/>
@@ -10366,7 +10377,7 @@
       <c r="H511" s="5"/>
       <c r="I511" s="5"/>
       <c r="J511" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K511" s="5"/>
@@ -10384,7 +10395,7 @@
       <c r="H512" s="5"/>
       <c r="I512" s="5"/>
       <c r="J512" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K512" s="5"/>
@@ -10402,7 +10413,7 @@
       <c r="H513" s="5"/>
       <c r="I513" s="5"/>
       <c r="J513" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K513" s="5"/>
@@ -10420,7 +10431,7 @@
       <c r="H514" s="5"/>
       <c r="I514" s="5"/>
       <c r="J514" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K514" s="5"/>
@@ -10438,7 +10449,7 @@
       <c r="H515" s="5"/>
       <c r="I515" s="5"/>
       <c r="J515" s="5">
-        <f t="shared" ref="J515:J552" si="9">H515:H1065-I515:I1065</f>
+        <f t="shared" ref="J515:J552" si="10">H515:H1065-I515:I1065</f>
         <v>0</v>
       </c>
       <c r="K515" s="5"/>
@@ -10456,7 +10467,7 @@
       <c r="H516" s="5"/>
       <c r="I516" s="5"/>
       <c r="J516" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K516" s="5"/>
@@ -10474,7 +10485,7 @@
       <c r="H517" s="5"/>
       <c r="I517" s="5"/>
       <c r="J517" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K517" s="5"/>
@@ -10492,7 +10503,7 @@
       <c r="H518" s="5"/>
       <c r="I518" s="5"/>
       <c r="J518" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K518" s="5"/>
@@ -10510,7 +10521,7 @@
       <c r="H519" s="5"/>
       <c r="I519" s="5"/>
       <c r="J519" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K519" s="5"/>
@@ -10528,7 +10539,7 @@
       <c r="H520" s="5"/>
       <c r="I520" s="5"/>
       <c r="J520" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K520" s="5"/>
@@ -10546,7 +10557,7 @@
       <c r="H521" s="5"/>
       <c r="I521" s="5"/>
       <c r="J521" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K521" s="5"/>
@@ -10564,7 +10575,7 @@
       <c r="H522" s="5"/>
       <c r="I522" s="5"/>
       <c r="J522" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K522" s="5"/>
@@ -10582,7 +10593,7 @@
       <c r="H523" s="5"/>
       <c r="I523" s="5"/>
       <c r="J523" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K523" s="5"/>
@@ -10600,7 +10611,7 @@
       <c r="H524" s="5"/>
       <c r="I524" s="5"/>
       <c r="J524" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K524" s="5"/>
@@ -10618,7 +10629,7 @@
       <c r="H525" s="5"/>
       <c r="I525" s="5"/>
       <c r="J525" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K525" s="5"/>
@@ -10636,7 +10647,7 @@
       <c r="H526" s="5"/>
       <c r="I526" s="5"/>
       <c r="J526" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K526" s="5"/>
@@ -10654,7 +10665,7 @@
       <c r="H527" s="5"/>
       <c r="I527" s="5"/>
       <c r="J527" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K527" s="5"/>
@@ -10672,7 +10683,7 @@
       <c r="H528" s="5"/>
       <c r="I528" s="5"/>
       <c r="J528" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K528" s="5"/>
@@ -10690,7 +10701,7 @@
       <c r="H529" s="5"/>
       <c r="I529" s="5"/>
       <c r="J529" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K529" s="5"/>
@@ -10708,7 +10719,7 @@
       <c r="H530" s="5"/>
       <c r="I530" s="5"/>
       <c r="J530" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K530" s="5"/>
@@ -10726,7 +10737,7 @@
       <c r="H531" s="5"/>
       <c r="I531" s="5"/>
       <c r="J531" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K531" s="5"/>
@@ -10744,7 +10755,7 @@
       <c r="H532" s="5"/>
       <c r="I532" s="5"/>
       <c r="J532" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K532" s="5"/>
@@ -10762,7 +10773,7 @@
       <c r="H533" s="5"/>
       <c r="I533" s="5"/>
       <c r="J533" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K533" s="5"/>
@@ -10780,7 +10791,7 @@
       <c r="H534" s="5"/>
       <c r="I534" s="5"/>
       <c r="J534" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K534" s="5"/>
@@ -10798,7 +10809,7 @@
       <c r="H535" s="5"/>
       <c r="I535" s="5"/>
       <c r="J535" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K535" s="5"/>
@@ -10816,7 +10827,7 @@
       <c r="H536" s="5"/>
       <c r="I536" s="5"/>
       <c r="J536" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K536" s="5"/>
@@ -10834,7 +10845,7 @@
       <c r="H537" s="5"/>
       <c r="I537" s="5"/>
       <c r="J537" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K537" s="5"/>
@@ -10852,7 +10863,7 @@
       <c r="H538" s="5"/>
       <c r="I538" s="5"/>
       <c r="J538" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K538" s="5"/>
@@ -10870,7 +10881,7 @@
       <c r="H539" s="5"/>
       <c r="I539" s="5"/>
       <c r="J539" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K539" s="5"/>
@@ -10888,7 +10899,7 @@
       <c r="H540" s="5"/>
       <c r="I540" s="5"/>
       <c r="J540" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K540" s="5"/>
@@ -10906,7 +10917,7 @@
       <c r="H541" s="5"/>
       <c r="I541" s="5"/>
       <c r="J541" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K541" s="5"/>
@@ -10924,7 +10935,7 @@
       <c r="H542" s="5"/>
       <c r="I542" s="5"/>
       <c r="J542" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K542" s="5"/>
@@ -10942,7 +10953,7 @@
       <c r="H543" s="5"/>
       <c r="I543" s="5"/>
       <c r="J543" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K543" s="5"/>
@@ -10960,7 +10971,7 @@
       <c r="H544" s="5"/>
       <c r="I544" s="5"/>
       <c r="J544" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K544" s="5"/>
@@ -10978,7 +10989,7 @@
       <c r="H545" s="5"/>
       <c r="I545" s="5"/>
       <c r="J545" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K545" s="5"/>
@@ -10996,7 +11007,7 @@
       <c r="H546" s="5"/>
       <c r="I546" s="5"/>
       <c r="J546" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K546" s="5"/>
@@ -11014,7 +11025,7 @@
       <c r="H547" s="5"/>
       <c r="I547" s="5"/>
       <c r="J547" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K547" s="5"/>
@@ -11032,7 +11043,7 @@
       <c r="H548" s="5"/>
       <c r="I548" s="5"/>
       <c r="J548" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K548" s="5"/>
@@ -11050,7 +11061,7 @@
       <c r="H549" s="5"/>
       <c r="I549" s="5"/>
       <c r="J549" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K549" s="5"/>
@@ -11068,7 +11079,7 @@
       <c r="H550" s="5"/>
       <c r="I550" s="5"/>
       <c r="J550" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K550" s="5"/>
@@ -11086,7 +11097,7 @@
       <c r="H551" s="5"/>
       <c r="I551" s="5"/>
       <c r="J551" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K551" s="5"/>
@@ -11104,7 +11115,7 @@
       <c r="H552" s="5"/>
       <c r="I552" s="5"/>
       <c r="J552" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K552" s="5"/>

--- a/ĐƠN HÀNG.xlsx
+++ b/ĐƠN HÀNG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0917C4-5C82-4534-8307-AE924B72FD53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799F01ED-53FD-488C-BDA4-76661F2F0D8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="95">
   <si>
     <t>STT</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>màu xanh</t>
-  </si>
-  <si>
-    <t>size 36, kem</t>
   </si>
   <si>
     <t>Bộ đồ chuối cho chó màu vàng</t>
@@ -211,9 +208,6 @@
     <t>8 nâu, 8 đen</t>
   </si>
   <si>
-    <t>size S, màu hồng</t>
-  </si>
-  <si>
     <t>lê thị nụ</t>
   </si>
   <si>
@@ -306,6 +300,21 @@
   <si>
     <t>áo phông nelly</t>
   </si>
+  <si>
+    <t>size 36, màu nude</t>
+  </si>
+  <si>
+    <t>size S, màu trắng</t>
+  </si>
+  <si>
+    <t>Lan Anh</t>
+  </si>
+  <si>
+    <t>SHIP SHOPEE</t>
+  </si>
+  <si>
+    <t>Giay the thao 2 mau</t>
+  </si>
 </sst>
 </file>
 
@@ -371,7 +380,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,7 +401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -482,7 +497,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -495,6 +509,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -883,13 +901,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q552"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="5.36328125" style="30" customWidth="1"/>
     <col min="2" max="2" width="19" style="9" customWidth="1"/>
     <col min="3" max="3" width="23.54296875" style="9" customWidth="1"/>
     <col min="4" max="4" width="13.08984375" style="13" customWidth="1"/>
@@ -910,74 +928,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="17" t="s">
+      <c r="H4" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>55</v>
+      <c r="K4" s="8">
+        <f>SUM(H8:H26)</f>
+        <v>5741000</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="16">
         <v>1</v>
       </c>
       <c r="G5" s="16">
-        <v>26.36</v>
+        <v>56</v>
       </c>
       <c r="H5" s="16">
         <v>15000</v>
       </c>
       <c r="I5" s="16">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="J5" s="16">
         <f>F5*G5*3850 +H5+I5</f>
-        <v>131486</v>
+        <v>265600</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -999,19 +1021,19 @@
         <v>6</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>9</v>
@@ -1020,27 +1042,27 @@
         <v>7</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="26">
+      <c r="A8" s="33">
         <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -1059,24 +1081,24 @@
         <v>420000</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="26">
+      <c r="A9" s="33">
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>19</v>
@@ -1102,17 +1124,17 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="26">
+      <c r="A10" s="33">
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>21</v>
@@ -1138,20 +1160,20 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="26">
+      <c r="A11" s="33">
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="5">
         <v>1</v>
@@ -1170,24 +1192,24 @@
         <v>85000</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="26">
+      <c r="A12" s="33">
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="5">
         <v>1</v>
@@ -1206,24 +1228,24 @@
         <v>80000</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="26">
+      <c r="A13" s="33">
         <v>6</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
@@ -1242,24 +1264,24 @@
         <v>820000</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+      <c r="A14" s="32">
         <v>8</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="E14" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
@@ -1276,24 +1298,24 @@
         <v>189000</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
+      <c r="A15" s="33">
         <v>9</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="D15" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
@@ -1310,24 +1332,24 @@
         <v>210000</v>
       </c>
       <c r="K15" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" s="33">
+        <v>10</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
-        <v>10</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="F16" s="5">
         <v>1</v>
@@ -1344,24 +1366,24 @@
         <v>210000</v>
       </c>
       <c r="K16" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="33">
+        <v>13</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="26">
-        <v>13</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="D17" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>43</v>
-      </c>
       <c r="E17" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F17" s="5">
         <v>1</v>
@@ -1378,24 +1400,24 @@
         <v>340000</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="26">
+      <c r="A18" s="33">
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>45</v>
-      </c>
       <c r="D18" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F18" s="5">
         <v>1</v>
@@ -1414,20 +1436,20 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="26">
+      <c r="A19" s="33">
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>65</v>
-      </c>
       <c r="E19" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F19" s="5">
         <v>1</v>
@@ -1444,24 +1466,24 @@
         <v>160000</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
+      <c r="A20" s="33">
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F20" s="5">
         <v>16</v>
@@ -1478,24 +1500,24 @@
         <v>440000</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="26">
+      <c r="A21" s="33">
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="24" t="s">
-        <v>58</v>
-      </c>
       <c r="D21" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F21" s="5">
         <v>1</v>
@@ -1512,24 +1534,24 @@
         <v>115000</v>
       </c>
       <c r="K21" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="33">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="26">
-        <v>20</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>62</v>
-      </c>
       <c r="D22" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F22" s="18">
         <v>1</v>
@@ -1548,50 +1570,50 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="26">
+      <c r="A23" s="33">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F23" s="5">
         <v>3</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5">
-        <v>310000</v>
+        <v>330000</v>
       </c>
       <c r="I23" s="5">
         <v>0</v>
       </c>
       <c r="J23" s="5">
         <f t="shared" ref="J23:J66" si="2">H23:H573-I23:I573</f>
-        <v>310000</v>
+        <v>330000</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="26">
+      <c r="A24" s="33">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F24" s="5">
         <v>1</v>
@@ -1609,14 +1631,18 @@
       <c r="K24" s="5"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="5">
+      <c r="A25" s="33">
         <v>24</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="B25" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>69</v>
+      </c>
       <c r="D25" s="11"/>
       <c r="E25" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F25" s="5">
         <v>1</v>
@@ -1625,35 +1651,47 @@
       <c r="H25" s="5">
         <v>85000</v>
       </c>
-      <c r="I25" s="5"/>
+      <c r="I25" s="5">
+        <v>0</v>
+      </c>
       <c r="J25" s="5">
         <f t="shared" si="2"/>
         <v>85000</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="5">
+      <c r="A26" s="33">
         <v>25</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="B26" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="D26" s="11"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
       <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
+      <c r="H26" s="5">
+        <v>225000</v>
+      </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>225000</v>
       </c>
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="5">
+      <c r="A27" s="32">
         <v>26</v>
       </c>
       <c r="B27" s="6"/>
@@ -1671,7 +1709,7 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="5">
+      <c r="A28" s="32">
         <v>27</v>
       </c>
       <c r="B28" s="6"/>
@@ -1689,7 +1727,7 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="5">
+      <c r="A29" s="32">
         <v>28</v>
       </c>
       <c r="B29" s="6"/>
@@ -1707,7 +1745,7 @@
       <c r="K29" s="5"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="5">
+      <c r="A30" s="32">
         <v>29</v>
       </c>
       <c r="B30" s="6"/>
@@ -1725,7 +1763,7 @@
       <c r="K30" s="5"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="5">
+      <c r="A31" s="32">
         <v>30</v>
       </c>
       <c r="B31" s="6"/>
@@ -1743,7 +1781,7 @@
       <c r="K31" s="5"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="5">
+      <c r="A32" s="32">
         <v>31</v>
       </c>
       <c r="B32" s="6"/>
@@ -1761,7 +1799,7 @@
       <c r="K32" s="5"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="5">
+      <c r="A33" s="32">
         <v>32</v>
       </c>
       <c r="B33" s="6"/>
@@ -1779,7 +1817,7 @@
       <c r="K33" s="5"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="5">
+      <c r="A34" s="32">
         <v>33</v>
       </c>
       <c r="B34" s="6"/>
@@ -1797,7 +1835,7 @@
       <c r="K34" s="5"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="5">
+      <c r="A35" s="32">
         <v>34</v>
       </c>
       <c r="B35" s="6"/>
@@ -1815,7 +1853,7 @@
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="5">
+      <c r="A36" s="32">
         <v>35</v>
       </c>
       <c r="B36" s="6"/>
@@ -1833,7 +1871,7 @@
       <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" s="5">
+      <c r="A37" s="32">
         <v>36</v>
       </c>
       <c r="B37" s="6"/>
@@ -1851,7 +1889,7 @@
       <c r="K37" s="5"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" s="5">
+      <c r="A38" s="32">
         <v>37</v>
       </c>
       <c r="B38" s="6"/>
@@ -1869,7 +1907,7 @@
       <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="5">
+      <c r="A39" s="32">
         <v>38</v>
       </c>
       <c r="B39" s="6"/>
@@ -1887,7 +1925,7 @@
       <c r="K39" s="5"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" s="5">
+      <c r="A40" s="32">
         <v>39</v>
       </c>
       <c r="B40" s="6"/>
@@ -1905,7 +1943,7 @@
       <c r="K40" s="5"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="5">
+      <c r="A41" s="32">
         <v>40</v>
       </c>
       <c r="B41" s="6"/>
@@ -1923,7 +1961,7 @@
       <c r="K41" s="5"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" s="5">
+      <c r="A42" s="32">
         <v>41</v>
       </c>
       <c r="B42" s="6"/>
@@ -1941,7 +1979,7 @@
       <c r="K42" s="5"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" s="5">
+      <c r="A43" s="32">
         <v>42</v>
       </c>
       <c r="B43" s="6"/>
@@ -1959,7 +1997,7 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A44" s="5">
+      <c r="A44" s="32">
         <v>43</v>
       </c>
       <c r="B44" s="6"/>
@@ -1977,7 +2015,7 @@
       <c r="K44" s="5"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A45" s="5">
+      <c r="A45" s="32">
         <v>44</v>
       </c>
       <c r="B45" s="6"/>
@@ -1995,7 +2033,7 @@
       <c r="K45" s="5"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A46" s="5">
+      <c r="A46" s="32">
         <v>45</v>
       </c>
       <c r="B46" s="6"/>
@@ -2013,7 +2051,7 @@
       <c r="K46" s="5"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A47" s="5">
+      <c r="A47" s="32">
         <v>46</v>
       </c>
       <c r="B47" s="6"/>
@@ -2031,7 +2069,7 @@
       <c r="K47" s="5"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" s="5">
+      <c r="A48" s="32">
         <v>47</v>
       </c>
       <c r="B48" s="6"/>
@@ -2049,7 +2087,7 @@
       <c r="K48" s="5"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A49" s="5">
+      <c r="A49" s="32">
         <v>48</v>
       </c>
       <c r="B49" s="6"/>
@@ -2067,7 +2105,7 @@
       <c r="K49" s="5"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A50" s="5">
+      <c r="A50" s="32">
         <v>49</v>
       </c>
       <c r="B50" s="6"/>
@@ -2085,7 +2123,7 @@
       <c r="K50" s="5"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51" s="5">
+      <c r="A51" s="32">
         <v>50</v>
       </c>
       <c r="B51" s="6"/>
@@ -2103,7 +2141,7 @@
       <c r="K51" s="5"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A52" s="5">
+      <c r="A52" s="32">
         <v>51</v>
       </c>
       <c r="B52" s="6"/>
@@ -2121,7 +2159,7 @@
       <c r="K52" s="5"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" s="5">
+      <c r="A53" s="32">
         <v>52</v>
       </c>
       <c r="B53" s="6"/>
@@ -2139,7 +2177,7 @@
       <c r="K53" s="5"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A54" s="5">
+      <c r="A54" s="32">
         <v>53</v>
       </c>
       <c r="B54" s="6"/>
@@ -2157,7 +2195,7 @@
       <c r="K54" s="5"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A55" s="5">
+      <c r="A55" s="32">
         <v>54</v>
       </c>
       <c r="B55" s="6"/>
@@ -2175,7 +2213,7 @@
       <c r="K55" s="5"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A56" s="5">
+      <c r="A56" s="32">
         <v>55</v>
       </c>
       <c r="B56" s="6"/>
@@ -2193,7 +2231,7 @@
       <c r="K56" s="5"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A57" s="5">
+      <c r="A57" s="32">
         <v>56</v>
       </c>
       <c r="B57" s="6"/>
@@ -2211,7 +2249,7 @@
       <c r="K57" s="5"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A58" s="5">
+      <c r="A58" s="32">
         <v>57</v>
       </c>
       <c r="B58" s="6"/>
@@ -2229,7 +2267,7 @@
       <c r="K58" s="5"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A59" s="5">
+      <c r="A59" s="32">
         <v>58</v>
       </c>
       <c r="B59" s="6"/>
@@ -2247,7 +2285,7 @@
       <c r="K59" s="5"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A60" s="5">
+      <c r="A60" s="32">
         <v>59</v>
       </c>
       <c r="B60" s="6"/>
@@ -2265,7 +2303,7 @@
       <c r="K60" s="5"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A61" s="5">
+      <c r="A61" s="32">
         <v>60</v>
       </c>
       <c r="B61" s="6"/>
@@ -2283,7 +2321,7 @@
       <c r="K61" s="5"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A62" s="5">
+      <c r="A62" s="32">
         <v>61</v>
       </c>
       <c r="B62" s="6"/>
@@ -2301,7 +2339,7 @@
       <c r="K62" s="5"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A63" s="5">
+      <c r="A63" s="32">
         <v>62</v>
       </c>
       <c r="B63" s="6"/>
@@ -2319,7 +2357,7 @@
       <c r="K63" s="5"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A64" s="5">
+      <c r="A64" s="32">
         <v>63</v>
       </c>
       <c r="B64" s="6"/>
@@ -2337,7 +2375,7 @@
       <c r="K64" s="5"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A65" s="5">
+      <c r="A65" s="32">
         <v>64</v>
       </c>
       <c r="B65" s="6"/>
@@ -2355,7 +2393,7 @@
       <c r="K65" s="5"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A66" s="5">
+      <c r="A66" s="32">
         <v>65</v>
       </c>
       <c r="B66" s="6"/>
@@ -2373,7 +2411,7 @@
       <c r="K66" s="5"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A67" s="5">
+      <c r="A67" s="32">
         <v>66</v>
       </c>
       <c r="B67" s="6"/>
@@ -2391,7 +2429,7 @@
       <c r="K67" s="5"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A68" s="5">
+      <c r="A68" s="32">
         <v>67</v>
       </c>
       <c r="B68" s="6"/>
@@ -2409,7 +2447,7 @@
       <c r="K68" s="5"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A69" s="5">
+      <c r="A69" s="32">
         <v>68</v>
       </c>
       <c r="B69" s="6"/>
@@ -2427,7 +2465,7 @@
       <c r="K69" s="5"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A70" s="5">
+      <c r="A70" s="32">
         <v>69</v>
       </c>
       <c r="B70" s="6"/>
@@ -2445,7 +2483,7 @@
       <c r="K70" s="5"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A71" s="5">
+      <c r="A71" s="32">
         <v>70</v>
       </c>
       <c r="B71" s="6"/>
@@ -2463,7 +2501,7 @@
       <c r="K71" s="5"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A72" s="5">
+      <c r="A72" s="32">
         <v>71</v>
       </c>
       <c r="B72" s="6"/>
@@ -2481,7 +2519,7 @@
       <c r="K72" s="5"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A73" s="5">
+      <c r="A73" s="32">
         <v>72</v>
       </c>
       <c r="B73" s="6"/>
@@ -2499,7 +2537,7 @@
       <c r="K73" s="5"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A74" s="5">
+      <c r="A74" s="32">
         <v>73</v>
       </c>
       <c r="B74" s="6"/>
@@ -2517,7 +2555,7 @@
       <c r="K74" s="5"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A75" s="5">
+      <c r="A75" s="32">
         <v>74</v>
       </c>
       <c r="B75" s="6"/>
@@ -2535,7 +2573,7 @@
       <c r="K75" s="5"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A76" s="5">
+      <c r="A76" s="32">
         <v>75</v>
       </c>
       <c r="B76" s="6"/>
@@ -2553,7 +2591,7 @@
       <c r="K76" s="5"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A77" s="5">
+      <c r="A77" s="32">
         <v>76</v>
       </c>
       <c r="B77" s="6"/>
@@ -2571,7 +2609,7 @@
       <c r="K77" s="5"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A78" s="5">
+      <c r="A78" s="32">
         <v>77</v>
       </c>
       <c r="B78" s="6"/>
@@ -2589,7 +2627,7 @@
       <c r="K78" s="5"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A79" s="5">
+      <c r="A79" s="32">
         <v>78</v>
       </c>
       <c r="B79" s="6"/>
@@ -2607,7 +2645,7 @@
       <c r="K79" s="5"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A80" s="5">
+      <c r="A80" s="32">
         <v>79</v>
       </c>
       <c r="B80" s="6"/>
@@ -2625,7 +2663,7 @@
       <c r="K80" s="5"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A81" s="5">
+      <c r="A81" s="32">
         <v>80</v>
       </c>
       <c r="B81" s="6"/>
@@ -2643,7 +2681,7 @@
       <c r="K81" s="5"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A82" s="5">
+      <c r="A82" s="32">
         <v>81</v>
       </c>
       <c r="B82" s="6"/>
@@ -2661,7 +2699,7 @@
       <c r="K82" s="5"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A83" s="5">
+      <c r="A83" s="32">
         <v>82</v>
       </c>
       <c r="B83" s="6"/>
@@ -2679,7 +2717,7 @@
       <c r="K83" s="5"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A84" s="5">
+      <c r="A84" s="32">
         <v>83</v>
       </c>
       <c r="B84" s="6"/>
@@ -2697,7 +2735,7 @@
       <c r="K84" s="5"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A85" s="5">
+      <c r="A85" s="32">
         <v>84</v>
       </c>
       <c r="B85" s="6"/>
@@ -2715,7 +2753,7 @@
       <c r="K85" s="5"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A86" s="5">
+      <c r="A86" s="32">
         <v>85</v>
       </c>
       <c r="B86" s="6"/>
@@ -2733,7 +2771,7 @@
       <c r="K86" s="5"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A87" s="5">
+      <c r="A87" s="32">
         <v>86</v>
       </c>
       <c r="B87" s="6"/>
@@ -2751,7 +2789,7 @@
       <c r="K87" s="5"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A88" s="5">
+      <c r="A88" s="32">
         <v>87</v>
       </c>
       <c r="B88" s="6"/>
@@ -2769,7 +2807,7 @@
       <c r="K88" s="5"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A89" s="5">
+      <c r="A89" s="32">
         <v>88</v>
       </c>
       <c r="B89" s="6"/>
@@ -2787,7 +2825,7 @@
       <c r="K89" s="5"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A90" s="5">
+      <c r="A90" s="32">
         <v>89</v>
       </c>
       <c r="B90" s="6"/>
@@ -2805,7 +2843,7 @@
       <c r="K90" s="5"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A91" s="5">
+      <c r="A91" s="32">
         <v>90</v>
       </c>
       <c r="B91" s="6"/>
@@ -2823,7 +2861,7 @@
       <c r="K91" s="5"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A92" s="5">
+      <c r="A92" s="32">
         <v>91</v>
       </c>
       <c r="B92" s="6"/>
@@ -2841,7 +2879,7 @@
       <c r="K92" s="5"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A93" s="5">
+      <c r="A93" s="32">
         <v>92</v>
       </c>
       <c r="B93" s="6"/>
@@ -2859,7 +2897,7 @@
       <c r="K93" s="5"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A94" s="5">
+      <c r="A94" s="32">
         <v>93</v>
       </c>
       <c r="B94" s="6"/>
@@ -2877,7 +2915,7 @@
       <c r="K94" s="5"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A95" s="5">
+      <c r="A95" s="32">
         <v>94</v>
       </c>
       <c r="B95" s="6"/>
@@ -2895,7 +2933,7 @@
       <c r="K95" s="5"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A96" s="5">
+      <c r="A96" s="32">
         <v>95</v>
       </c>
       <c r="B96" s="6"/>
@@ -2913,7 +2951,7 @@
       <c r="K96" s="5"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A97" s="5">
+      <c r="A97" s="32">
         <v>96</v>
       </c>
       <c r="B97" s="6"/>
@@ -2931,7 +2969,7 @@
       <c r="K97" s="5"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A98" s="5">
+      <c r="A98" s="32">
         <v>97</v>
       </c>
       <c r="B98" s="6"/>
@@ -2949,7 +2987,7 @@
       <c r="K98" s="5"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A99" s="5">
+      <c r="A99" s="32">
         <v>98</v>
       </c>
       <c r="B99" s="6"/>
@@ -2967,7 +3005,7 @@
       <c r="K99" s="5"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A100" s="5">
+      <c r="A100" s="32">
         <v>99</v>
       </c>
       <c r="B100" s="6"/>
@@ -2985,7 +3023,7 @@
       <c r="K100" s="5"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A101" s="5">
+      <c r="A101" s="32">
         <v>100</v>
       </c>
       <c r="B101" s="6"/>
@@ -3003,7 +3041,7 @@
       <c r="K101" s="5"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A102" s="5">
+      <c r="A102" s="32">
         <v>101</v>
       </c>
       <c r="B102" s="6"/>
@@ -3021,7 +3059,7 @@
       <c r="K102" s="5"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A103" s="5">
+      <c r="A103" s="32">
         <v>102</v>
       </c>
       <c r="B103" s="6"/>
@@ -3039,7 +3077,7 @@
       <c r="K103" s="5"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A104" s="5">
+      <c r="A104" s="32">
         <v>103</v>
       </c>
       <c r="B104" s="6"/>
@@ -3057,7 +3095,7 @@
       <c r="K104" s="5"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A105" s="5">
+      <c r="A105" s="32">
         <v>104</v>
       </c>
       <c r="B105" s="6"/>
@@ -3075,7 +3113,7 @@
       <c r="K105" s="5"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A106" s="5">
+      <c r="A106" s="32">
         <v>105</v>
       </c>
       <c r="B106" s="6"/>
@@ -3093,7 +3131,7 @@
       <c r="K106" s="5"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A107" s="5">
+      <c r="A107" s="32">
         <v>106</v>
       </c>
       <c r="B107" s="6"/>
@@ -3111,7 +3149,7 @@
       <c r="K107" s="5"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A108" s="5">
+      <c r="A108" s="32">
         <v>107</v>
       </c>
       <c r="B108" s="6"/>
@@ -3129,7 +3167,7 @@
       <c r="K108" s="5"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A109" s="5">
+      <c r="A109" s="32">
         <v>108</v>
       </c>
       <c r="B109" s="6"/>
@@ -3147,7 +3185,7 @@
       <c r="K109" s="5"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A110" s="5">
+      <c r="A110" s="32">
         <v>109</v>
       </c>
       <c r="B110" s="6"/>
@@ -3165,7 +3203,7 @@
       <c r="K110" s="5"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A111" s="5">
+      <c r="A111" s="32">
         <v>110</v>
       </c>
       <c r="B111" s="6"/>
@@ -3183,7 +3221,7 @@
       <c r="K111" s="5"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A112" s="5">
+      <c r="A112" s="32">
         <v>111</v>
       </c>
       <c r="B112" s="6"/>
@@ -3201,7 +3239,7 @@
       <c r="K112" s="5"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A113" s="5">
+      <c r="A113" s="32">
         <v>112</v>
       </c>
       <c r="B113" s="6"/>
@@ -3219,7 +3257,7 @@
       <c r="K113" s="5"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A114" s="5">
+      <c r="A114" s="32">
         <v>113</v>
       </c>
       <c r="B114" s="6"/>
@@ -3237,7 +3275,7 @@
       <c r="K114" s="5"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A115" s="5">
+      <c r="A115" s="32">
         <v>114</v>
       </c>
       <c r="B115" s="6"/>
@@ -3255,7 +3293,7 @@
       <c r="K115" s="5"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A116" s="5">
+      <c r="A116" s="32">
         <v>115</v>
       </c>
       <c r="B116" s="6"/>
@@ -3273,7 +3311,7 @@
       <c r="K116" s="5"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A117" s="5">
+      <c r="A117" s="32">
         <v>116</v>
       </c>
       <c r="B117" s="6"/>
@@ -3291,7 +3329,7 @@
       <c r="K117" s="5"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A118" s="5">
+      <c r="A118" s="32">
         <v>117</v>
       </c>
       <c r="B118" s="6"/>
@@ -3309,7 +3347,7 @@
       <c r="K118" s="5"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A119" s="5">
+      <c r="A119" s="32">
         <v>118</v>
       </c>
       <c r="B119" s="6"/>
@@ -3327,7 +3365,7 @@
       <c r="K119" s="5"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A120" s="5">
+      <c r="A120" s="32">
         <v>119</v>
       </c>
       <c r="B120" s="6"/>
@@ -3345,7 +3383,7 @@
       <c r="K120" s="5"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A121" s="5">
+      <c r="A121" s="32">
         <v>120</v>
       </c>
       <c r="B121" s="6"/>
@@ -3363,7 +3401,7 @@
       <c r="K121" s="5"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A122" s="5">
+      <c r="A122" s="32">
         <v>121</v>
       </c>
       <c r="B122" s="6"/>
@@ -3381,7 +3419,7 @@
       <c r="K122" s="5"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A123" s="5">
+      <c r="A123" s="32">
         <v>122</v>
       </c>
       <c r="B123" s="6"/>
@@ -3399,7 +3437,7 @@
       <c r="K123" s="5"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A124" s="5">
+      <c r="A124" s="32">
         <v>123</v>
       </c>
       <c r="B124" s="6"/>
@@ -3417,7 +3455,7 @@
       <c r="K124" s="5"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A125" s="5">
+      <c r="A125" s="32">
         <v>124</v>
       </c>
       <c r="B125" s="6"/>
@@ -3435,7 +3473,7 @@
       <c r="K125" s="5"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A126" s="5">
+      <c r="A126" s="32">
         <v>125</v>
       </c>
       <c r="B126" s="6"/>
@@ -3453,7 +3491,7 @@
       <c r="K126" s="5"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A127" s="5">
+      <c r="A127" s="32">
         <v>126</v>
       </c>
       <c r="B127" s="6"/>
@@ -3471,7 +3509,7 @@
       <c r="K127" s="5"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A128" s="5">
+      <c r="A128" s="32">
         <v>127</v>
       </c>
       <c r="B128" s="6"/>
@@ -3489,7 +3527,7 @@
       <c r="K128" s="5"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A129" s="5">
+      <c r="A129" s="32">
         <v>128</v>
       </c>
       <c r="B129" s="6"/>
@@ -3507,7 +3545,7 @@
       <c r="K129" s="5"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A130" s="5">
+      <c r="A130" s="32">
         <v>129</v>
       </c>
       <c r="B130" s="6"/>
@@ -3525,7 +3563,7 @@
       <c r="K130" s="5"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A131" s="5">
+      <c r="A131" s="32">
         <v>130</v>
       </c>
       <c r="B131" s="6"/>
@@ -3543,7 +3581,7 @@
       <c r="K131" s="5"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A132" s="5">
+      <c r="A132" s="32">
         <v>131</v>
       </c>
       <c r="B132" s="6"/>
@@ -3561,7 +3599,7 @@
       <c r="K132" s="5"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A133" s="5">
+      <c r="A133" s="32">
         <v>132</v>
       </c>
       <c r="B133" s="6"/>
@@ -3579,7 +3617,7 @@
       <c r="K133" s="5"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A134" s="5">
+      <c r="A134" s="32">
         <v>133</v>
       </c>
       <c r="B134" s="6"/>
@@ -3597,7 +3635,7 @@
       <c r="K134" s="5"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A135" s="5">
+      <c r="A135" s="32">
         <v>134</v>
       </c>
       <c r="B135" s="6"/>
@@ -3615,7 +3653,7 @@
       <c r="K135" s="5"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A136" s="5">
+      <c r="A136" s="32">
         <v>135</v>
       </c>
       <c r="B136" s="6"/>
@@ -3633,7 +3671,7 @@
       <c r="K136" s="5"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A137" s="5">
+      <c r="A137" s="32">
         <v>136</v>
       </c>
       <c r="B137" s="6"/>
@@ -3651,7 +3689,7 @@
       <c r="K137" s="5"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A138" s="5">
+      <c r="A138" s="32">
         <v>137</v>
       </c>
       <c r="B138" s="6"/>
@@ -3669,7 +3707,7 @@
       <c r="K138" s="5"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A139" s="5">
+      <c r="A139" s="32">
         <v>138</v>
       </c>
       <c r="B139" s="6"/>
@@ -3687,7 +3725,7 @@
       <c r="K139" s="5"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A140" s="5">
+      <c r="A140" s="32">
         <v>139</v>
       </c>
       <c r="B140" s="6"/>
@@ -3705,7 +3743,7 @@
       <c r="K140" s="5"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A141" s="5">
+      <c r="A141" s="32">
         <v>140</v>
       </c>
       <c r="B141" s="6"/>
@@ -3723,7 +3761,7 @@
       <c r="K141" s="5"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A142" s="5">
+      <c r="A142" s="32">
         <v>141</v>
       </c>
       <c r="B142" s="6"/>
@@ -3741,7 +3779,7 @@
       <c r="K142" s="5"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A143" s="5">
+      <c r="A143" s="32">
         <v>142</v>
       </c>
       <c r="B143" s="6"/>
@@ -3759,7 +3797,7 @@
       <c r="K143" s="5"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A144" s="5">
+      <c r="A144" s="32">
         <v>143</v>
       </c>
       <c r="B144" s="6"/>
@@ -3777,7 +3815,7 @@
       <c r="K144" s="5"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A145" s="5">
+      <c r="A145" s="32">
         <v>144</v>
       </c>
       <c r="B145" s="6"/>
@@ -3795,7 +3833,7 @@
       <c r="K145" s="5"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A146" s="5">
+      <c r="A146" s="32">
         <v>145</v>
       </c>
       <c r="B146" s="6"/>
@@ -3813,7 +3851,7 @@
       <c r="K146" s="5"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A147" s="5">
+      <c r="A147" s="32">
         <v>146</v>
       </c>
       <c r="B147" s="6"/>
@@ -3831,7 +3869,7 @@
       <c r="K147" s="5"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A148" s="5">
+      <c r="A148" s="32">
         <v>147</v>
       </c>
       <c r="B148" s="6"/>
@@ -3849,7 +3887,7 @@
       <c r="K148" s="5"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A149" s="5">
+      <c r="A149" s="32">
         <v>148</v>
       </c>
       <c r="B149" s="6"/>
@@ -3867,7 +3905,7 @@
       <c r="K149" s="5"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A150" s="5">
+      <c r="A150" s="32">
         <v>149</v>
       </c>
       <c r="B150" s="6"/>
@@ -3885,7 +3923,7 @@
       <c r="K150" s="5"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A151" s="5">
+      <c r="A151" s="32">
         <v>150</v>
       </c>
       <c r="B151" s="6"/>
@@ -3903,7 +3941,7 @@
       <c r="K151" s="5"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A152" s="5">
+      <c r="A152" s="32">
         <v>151</v>
       </c>
       <c r="B152" s="6"/>
@@ -3921,7 +3959,7 @@
       <c r="K152" s="5"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A153" s="5">
+      <c r="A153" s="32">
         <v>152</v>
       </c>
       <c r="B153" s="6"/>
@@ -3939,7 +3977,7 @@
       <c r="K153" s="5"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A154" s="5">
+      <c r="A154" s="32">
         <v>153</v>
       </c>
       <c r="B154" s="6"/>
@@ -3957,7 +3995,7 @@
       <c r="K154" s="5"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A155" s="5">
+      <c r="A155" s="32">
         <v>154</v>
       </c>
       <c r="B155" s="6"/>
@@ -3975,7 +4013,7 @@
       <c r="K155" s="5"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A156" s="5">
+      <c r="A156" s="32">
         <v>155</v>
       </c>
       <c r="B156" s="6"/>
@@ -3993,7 +4031,7 @@
       <c r="K156" s="5"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A157" s="5">
+      <c r="A157" s="32">
         <v>156</v>
       </c>
       <c r="B157" s="6"/>
@@ -4011,7 +4049,7 @@
       <c r="K157" s="5"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A158" s="5">
+      <c r="A158" s="32">
         <v>157</v>
       </c>
       <c r="B158" s="6"/>
@@ -4029,7 +4067,7 @@
       <c r="K158" s="5"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A159" s="5">
+      <c r="A159" s="32">
         <v>158</v>
       </c>
       <c r="B159" s="6"/>
@@ -4047,7 +4085,7 @@
       <c r="K159" s="5"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A160" s="5">
+      <c r="A160" s="32">
         <v>159</v>
       </c>
       <c r="B160" s="6"/>
@@ -4065,7 +4103,7 @@
       <c r="K160" s="5"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A161" s="5">
+      <c r="A161" s="32">
         <v>160</v>
       </c>
       <c r="B161" s="6"/>
@@ -4083,7 +4121,7 @@
       <c r="K161" s="5"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A162" s="5">
+      <c r="A162" s="32">
         <v>161</v>
       </c>
       <c r="B162" s="6"/>
@@ -4101,7 +4139,7 @@
       <c r="K162" s="5"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A163" s="5">
+      <c r="A163" s="32">
         <v>162</v>
       </c>
       <c r="B163" s="6"/>
@@ -4119,7 +4157,7 @@
       <c r="K163" s="5"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A164" s="5">
+      <c r="A164" s="32">
         <v>163</v>
       </c>
       <c r="B164" s="6"/>
@@ -4137,7 +4175,7 @@
       <c r="K164" s="5"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A165" s="5">
+      <c r="A165" s="32">
         <v>164</v>
       </c>
       <c r="B165" s="6"/>
@@ -4155,7 +4193,7 @@
       <c r="K165" s="5"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A166" s="5">
+      <c r="A166" s="32">
         <v>165</v>
       </c>
       <c r="B166" s="6"/>
@@ -4173,7 +4211,7 @@
       <c r="K166" s="5"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A167" s="5">
+      <c r="A167" s="32">
         <v>166</v>
       </c>
       <c r="B167" s="6"/>
@@ -4191,7 +4229,7 @@
       <c r="K167" s="5"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A168" s="5">
+      <c r="A168" s="32">
         <v>167</v>
       </c>
       <c r="B168" s="6"/>
@@ -4209,7 +4247,7 @@
       <c r="K168" s="5"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A169" s="5">
+      <c r="A169" s="32">
         <v>168</v>
       </c>
       <c r="B169" s="6"/>
@@ -4227,7 +4265,7 @@
       <c r="K169" s="5"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A170" s="5">
+      <c r="A170" s="32">
         <v>169</v>
       </c>
       <c r="B170" s="6"/>
@@ -4245,7 +4283,7 @@
       <c r="K170" s="5"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A171" s="5">
+      <c r="A171" s="32">
         <v>170</v>
       </c>
       <c r="B171" s="6"/>
@@ -4263,7 +4301,7 @@
       <c r="K171" s="5"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A172" s="5">
+      <c r="A172" s="32">
         <v>171</v>
       </c>
       <c r="B172" s="6"/>
@@ -4281,7 +4319,7 @@
       <c r="K172" s="5"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A173" s="5">
+      <c r="A173" s="32">
         <v>172</v>
       </c>
       <c r="B173" s="6"/>
@@ -4299,7 +4337,7 @@
       <c r="K173" s="5"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A174" s="5">
+      <c r="A174" s="32">
         <v>173</v>
       </c>
       <c r="B174" s="6"/>
@@ -4317,7 +4355,7 @@
       <c r="K174" s="5"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A175" s="5">
+      <c r="A175" s="32">
         <v>174</v>
       </c>
       <c r="B175" s="6"/>
@@ -4335,7 +4373,7 @@
       <c r="K175" s="5"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A176" s="5">
+      <c r="A176" s="32">
         <v>175</v>
       </c>
       <c r="B176" s="6"/>
@@ -4353,7 +4391,7 @@
       <c r="K176" s="5"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A177" s="5">
+      <c r="A177" s="32">
         <v>176</v>
       </c>
       <c r="B177" s="6"/>
@@ -4371,7 +4409,7 @@
       <c r="K177" s="5"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A178" s="5">
+      <c r="A178" s="32">
         <v>177</v>
       </c>
       <c r="B178" s="6"/>
@@ -4389,7 +4427,7 @@
       <c r="K178" s="5"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A179" s="5">
+      <c r="A179" s="32">
         <v>178</v>
       </c>
       <c r="B179" s="6"/>
@@ -4407,7 +4445,7 @@
       <c r="K179" s="5"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A180" s="5">
+      <c r="A180" s="32">
         <v>179</v>
       </c>
       <c r="B180" s="6"/>
@@ -4425,7 +4463,7 @@
       <c r="K180" s="5"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A181" s="5">
+      <c r="A181" s="32">
         <v>180</v>
       </c>
       <c r="B181" s="6"/>
@@ -4443,7 +4481,7 @@
       <c r="K181" s="5"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A182" s="5">
+      <c r="A182" s="32">
         <v>181</v>
       </c>
       <c r="B182" s="6"/>
@@ -4461,7 +4499,7 @@
       <c r="K182" s="5"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A183" s="5">
+      <c r="A183" s="32">
         <v>182</v>
       </c>
       <c r="B183" s="6"/>
@@ -4479,7 +4517,7 @@
       <c r="K183" s="5"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A184" s="5">
+      <c r="A184" s="32">
         <v>183</v>
       </c>
       <c r="B184" s="6"/>
@@ -4497,7 +4535,7 @@
       <c r="K184" s="5"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A185" s="5">
+      <c r="A185" s="32">
         <v>184</v>
       </c>
       <c r="B185" s="6"/>
@@ -4515,7 +4553,7 @@
       <c r="K185" s="5"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A186" s="5">
+      <c r="A186" s="32">
         <v>185</v>
       </c>
       <c r="B186" s="6"/>
@@ -4533,7 +4571,7 @@
       <c r="K186" s="5"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A187" s="5">
+      <c r="A187" s="32">
         <v>186</v>
       </c>
       <c r="B187" s="6"/>
@@ -4551,7 +4589,7 @@
       <c r="K187" s="5"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A188" s="5">
+      <c r="A188" s="32">
         <v>187</v>
       </c>
       <c r="B188" s="6"/>
@@ -4569,7 +4607,7 @@
       <c r="K188" s="5"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A189" s="5">
+      <c r="A189" s="32">
         <v>188</v>
       </c>
       <c r="B189" s="6"/>
@@ -4587,7 +4625,7 @@
       <c r="K189" s="5"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A190" s="5">
+      <c r="A190" s="32">
         <v>189</v>
       </c>
       <c r="B190" s="6"/>
@@ -4605,7 +4643,7 @@
       <c r="K190" s="5"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A191" s="5">
+      <c r="A191" s="32">
         <v>190</v>
       </c>
       <c r="B191" s="6"/>
@@ -4623,7 +4661,7 @@
       <c r="K191" s="5"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A192" s="5">
+      <c r="A192" s="32">
         <v>191</v>
       </c>
       <c r="B192" s="6"/>
@@ -4641,7 +4679,7 @@
       <c r="K192" s="5"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A193" s="5">
+      <c r="A193" s="32">
         <v>192</v>
       </c>
       <c r="B193" s="6"/>
@@ -4659,7 +4697,7 @@
       <c r="K193" s="5"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A194" s="5">
+      <c r="A194" s="32">
         <v>193</v>
       </c>
       <c r="B194" s="6"/>
@@ -4677,7 +4715,7 @@
       <c r="K194" s="5"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A195" s="5">
+      <c r="A195" s="32">
         <v>194</v>
       </c>
       <c r="B195" s="6"/>
@@ -4695,7 +4733,7 @@
       <c r="K195" s="5"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A196" s="5">
+      <c r="A196" s="32">
         <v>195</v>
       </c>
       <c r="B196" s="6"/>
@@ -4713,7 +4751,7 @@
       <c r="K196" s="5"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A197" s="5">
+      <c r="A197" s="32">
         <v>196</v>
       </c>
       <c r="B197" s="6"/>
@@ -4731,7 +4769,7 @@
       <c r="K197" s="5"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A198" s="5">
+      <c r="A198" s="32">
         <v>197</v>
       </c>
       <c r="B198" s="6"/>
@@ -4749,7 +4787,7 @@
       <c r="K198" s="5"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A199" s="5">
+      <c r="A199" s="32">
         <v>198</v>
       </c>
       <c r="B199" s="6"/>
@@ -4767,7 +4805,7 @@
       <c r="K199" s="5"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A200" s="5">
+      <c r="A200" s="32">
         <v>199</v>
       </c>
       <c r="B200" s="6"/>
@@ -4785,7 +4823,7 @@
       <c r="K200" s="5"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A201" s="5">
+      <c r="A201" s="32">
         <v>200</v>
       </c>
       <c r="B201" s="6"/>
@@ -4803,7 +4841,7 @@
       <c r="K201" s="5"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A202" s="5">
+      <c r="A202" s="32">
         <v>201</v>
       </c>
       <c r="B202" s="6"/>
@@ -4821,7 +4859,7 @@
       <c r="K202" s="5"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A203" s="5">
+      <c r="A203" s="32">
         <v>202</v>
       </c>
       <c r="B203" s="6"/>
@@ -4839,7 +4877,7 @@
       <c r="K203" s="5"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A204" s="5">
+      <c r="A204" s="32">
         <v>203</v>
       </c>
       <c r="B204" s="6"/>
@@ -4857,7 +4895,7 @@
       <c r="K204" s="5"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A205" s="5">
+      <c r="A205" s="32">
         <v>204</v>
       </c>
       <c r="B205" s="6"/>
@@ -4875,7 +4913,7 @@
       <c r="K205" s="5"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A206" s="5">
+      <c r="A206" s="32">
         <v>205</v>
       </c>
       <c r="B206" s="6"/>
@@ -4893,7 +4931,7 @@
       <c r="K206" s="5"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A207" s="5">
+      <c r="A207" s="32">
         <v>206</v>
       </c>
       <c r="B207" s="6"/>
@@ -4911,7 +4949,7 @@
       <c r="K207" s="5"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A208" s="5">
+      <c r="A208" s="32">
         <v>207</v>
       </c>
       <c r="B208" s="6"/>
@@ -4929,7 +4967,7 @@
       <c r="K208" s="5"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A209" s="5">
+      <c r="A209" s="32">
         <v>208</v>
       </c>
       <c r="B209" s="6"/>
@@ -4947,7 +4985,7 @@
       <c r="K209" s="5"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A210" s="5">
+      <c r="A210" s="32">
         <v>209</v>
       </c>
       <c r="B210" s="6"/>
@@ -4965,7 +5003,7 @@
       <c r="K210" s="5"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A211" s="5">
+      <c r="A211" s="32">
         <v>210</v>
       </c>
       <c r="B211" s="6"/>
@@ -4983,7 +5021,7 @@
       <c r="K211" s="5"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A212" s="5">
+      <c r="A212" s="32">
         <v>211</v>
       </c>
       <c r="B212" s="6"/>
@@ -5001,7 +5039,7 @@
       <c r="K212" s="5"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A213" s="5">
+      <c r="A213" s="32">
         <v>212</v>
       </c>
       <c r="B213" s="6"/>
@@ -5019,7 +5057,7 @@
       <c r="K213" s="5"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A214" s="5">
+      <c r="A214" s="32">
         <v>213</v>
       </c>
       <c r="B214" s="6"/>
@@ -5037,7 +5075,7 @@
       <c r="K214" s="5"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A215" s="5">
+      <c r="A215" s="32">
         <v>214</v>
       </c>
       <c r="B215" s="6"/>
@@ -5055,7 +5093,7 @@
       <c r="K215" s="5"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A216" s="5">
+      <c r="A216" s="32">
         <v>215</v>
       </c>
       <c r="B216" s="6"/>
@@ -5073,7 +5111,7 @@
       <c r="K216" s="5"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A217" s="5">
+      <c r="A217" s="32">
         <v>216</v>
       </c>
       <c r="B217" s="6"/>
@@ -5091,7 +5129,7 @@
       <c r="K217" s="5"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A218" s="5">
+      <c r="A218" s="32">
         <v>217</v>
       </c>
       <c r="B218" s="6"/>
@@ -5109,7 +5147,7 @@
       <c r="K218" s="5"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A219" s="5">
+      <c r="A219" s="32">
         <v>218</v>
       </c>
       <c r="B219" s="6"/>
@@ -5127,7 +5165,7 @@
       <c r="K219" s="5"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A220" s="5">
+      <c r="A220" s="32">
         <v>219</v>
       </c>
       <c r="B220" s="6"/>
@@ -5145,7 +5183,7 @@
       <c r="K220" s="5"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A221" s="5">
+      <c r="A221" s="32">
         <v>220</v>
       </c>
       <c r="B221" s="6"/>
@@ -5163,7 +5201,7 @@
       <c r="K221" s="5"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A222" s="5">
+      <c r="A222" s="32">
         <v>221</v>
       </c>
       <c r="B222" s="6"/>
@@ -5181,7 +5219,7 @@
       <c r="K222" s="5"/>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A223" s="5">
+      <c r="A223" s="32">
         <v>222</v>
       </c>
       <c r="B223" s="6"/>
@@ -5199,7 +5237,7 @@
       <c r="K223" s="5"/>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A224" s="5">
+      <c r="A224" s="32">
         <v>223</v>
       </c>
       <c r="B224" s="6"/>
@@ -5217,7 +5255,7 @@
       <c r="K224" s="5"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A225" s="5">
+      <c r="A225" s="32">
         <v>224</v>
       </c>
       <c r="B225" s="6"/>
@@ -5235,7 +5273,7 @@
       <c r="K225" s="5"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A226" s="5">
+      <c r="A226" s="32">
         <v>225</v>
       </c>
       <c r="B226" s="6"/>
@@ -5253,7 +5291,7 @@
       <c r="K226" s="5"/>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A227" s="5">
+      <c r="A227" s="32">
         <v>226</v>
       </c>
       <c r="B227" s="6"/>
@@ -5271,7 +5309,7 @@
       <c r="K227" s="5"/>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A228" s="5">
+      <c r="A228" s="32">
         <v>227</v>
       </c>
       <c r="B228" s="6"/>
@@ -5289,7 +5327,7 @@
       <c r="K228" s="5"/>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A229" s="5">
+      <c r="A229" s="32">
         <v>228</v>
       </c>
       <c r="B229" s="6"/>
@@ -5307,7 +5345,7 @@
       <c r="K229" s="5"/>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A230" s="5">
+      <c r="A230" s="32">
         <v>229</v>
       </c>
       <c r="B230" s="6"/>
@@ -5325,7 +5363,7 @@
       <c r="K230" s="5"/>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A231" s="5">
+      <c r="A231" s="32">
         <v>230</v>
       </c>
       <c r="B231" s="6"/>
@@ -5343,7 +5381,7 @@
       <c r="K231" s="5"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A232" s="5">
+      <c r="A232" s="32">
         <v>231</v>
       </c>
       <c r="B232" s="6"/>
@@ -5361,7 +5399,7 @@
       <c r="K232" s="5"/>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A233" s="5">
+      <c r="A233" s="32">
         <v>232</v>
       </c>
       <c r="B233" s="6"/>
@@ -5379,7 +5417,7 @@
       <c r="K233" s="5"/>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A234" s="5">
+      <c r="A234" s="32">
         <v>233</v>
       </c>
       <c r="B234" s="6"/>
@@ -5397,7 +5435,7 @@
       <c r="K234" s="5"/>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A235" s="5">
+      <c r="A235" s="32">
         <v>234</v>
       </c>
       <c r="B235" s="6"/>
@@ -5415,7 +5453,7 @@
       <c r="K235" s="5"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A236" s="5">
+      <c r="A236" s="32">
         <v>235</v>
       </c>
       <c r="B236" s="6"/>
@@ -5433,7 +5471,7 @@
       <c r="K236" s="5"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A237" s="5">
+      <c r="A237" s="32">
         <v>236</v>
       </c>
       <c r="B237" s="6"/>
@@ -5451,7 +5489,7 @@
       <c r="K237" s="5"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A238" s="5">
+      <c r="A238" s="32">
         <v>237</v>
       </c>
       <c r="B238" s="6"/>
@@ -5469,7 +5507,7 @@
       <c r="K238" s="5"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A239" s="5">
+      <c r="A239" s="32">
         <v>238</v>
       </c>
       <c r="B239" s="6"/>
@@ -5487,7 +5525,7 @@
       <c r="K239" s="5"/>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A240" s="5">
+      <c r="A240" s="32">
         <v>239</v>
       </c>
       <c r="B240" s="6"/>
@@ -5505,7 +5543,7 @@
       <c r="K240" s="5"/>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A241" s="5">
+      <c r="A241" s="32">
         <v>240</v>
       </c>
       <c r="B241" s="6"/>
@@ -5523,7 +5561,7 @@
       <c r="K241" s="5"/>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A242" s="5">
+      <c r="A242" s="32">
         <v>241</v>
       </c>
       <c r="B242" s="6"/>
@@ -5541,7 +5579,7 @@
       <c r="K242" s="5"/>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A243" s="5">
+      <c r="A243" s="32">
         <v>242</v>
       </c>
       <c r="B243" s="6"/>
@@ -5559,7 +5597,7 @@
       <c r="K243" s="5"/>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A244" s="5">
+      <c r="A244" s="32">
         <v>243</v>
       </c>
       <c r="B244" s="6"/>
@@ -5577,7 +5615,7 @@
       <c r="K244" s="5"/>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A245" s="5">
+      <c r="A245" s="32">
         <v>244</v>
       </c>
       <c r="B245" s="6"/>
@@ -5595,7 +5633,7 @@
       <c r="K245" s="5"/>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A246" s="5">
+      <c r="A246" s="32">
         <v>245</v>
       </c>
       <c r="B246" s="6"/>
@@ -5613,7 +5651,7 @@
       <c r="K246" s="5"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A247" s="5">
+      <c r="A247" s="32">
         <v>246</v>
       </c>
       <c r="B247" s="6"/>
@@ -5631,7 +5669,7 @@
       <c r="K247" s="5"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A248" s="5">
+      <c r="A248" s="32">
         <v>247</v>
       </c>
       <c r="B248" s="6"/>
@@ -5649,7 +5687,7 @@
       <c r="K248" s="5"/>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A249" s="5">
+      <c r="A249" s="32">
         <v>248</v>
       </c>
       <c r="B249" s="6"/>
@@ -5667,7 +5705,7 @@
       <c r="K249" s="5"/>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A250" s="5">
+      <c r="A250" s="32">
         <v>249</v>
       </c>
       <c r="B250" s="6"/>
@@ -5685,7 +5723,7 @@
       <c r="K250" s="5"/>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A251" s="5">
+      <c r="A251" s="32">
         <v>250</v>
       </c>
       <c r="B251" s="6"/>
@@ -5703,7 +5741,7 @@
       <c r="K251" s="5"/>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A252" s="5">
+      <c r="A252" s="32">
         <v>251</v>
       </c>
       <c r="B252" s="6"/>
@@ -5721,7 +5759,7 @@
       <c r="K252" s="5"/>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A253" s="5">
+      <c r="A253" s="32">
         <v>252</v>
       </c>
       <c r="B253" s="6"/>
@@ -5739,7 +5777,7 @@
       <c r="K253" s="5"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A254" s="5">
+      <c r="A254" s="32">
         <v>253</v>
       </c>
       <c r="B254" s="6"/>
@@ -5757,7 +5795,7 @@
       <c r="K254" s="5"/>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A255" s="5">
+      <c r="A255" s="32">
         <v>254</v>
       </c>
       <c r="B255" s="6"/>
@@ -5775,7 +5813,7 @@
       <c r="K255" s="5"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A256" s="5">
+      <c r="A256" s="32">
         <v>255</v>
       </c>
       <c r="B256" s="6"/>
@@ -5793,7 +5831,7 @@
       <c r="K256" s="5"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A257" s="5">
+      <c r="A257" s="32">
         <v>256</v>
       </c>
       <c r="B257" s="6"/>
@@ -5811,7 +5849,7 @@
       <c r="K257" s="5"/>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A258" s="5">
+      <c r="A258" s="32">
         <v>257</v>
       </c>
       <c r="B258" s="6"/>
@@ -5829,7 +5867,7 @@
       <c r="K258" s="5"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A259" s="5">
+      <c r="A259" s="32">
         <v>258</v>
       </c>
       <c r="B259" s="6"/>
@@ -5847,7 +5885,7 @@
       <c r="K259" s="5"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A260" s="5">
+      <c r="A260" s="32">
         <v>259</v>
       </c>
       <c r="B260" s="6"/>
@@ -5865,7 +5903,7 @@
       <c r="K260" s="5"/>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A261" s="5">
+      <c r="A261" s="32">
         <v>260</v>
       </c>
       <c r="B261" s="6"/>
@@ -5883,7 +5921,7 @@
       <c r="K261" s="5"/>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A262" s="5">
+      <c r="A262" s="32">
         <v>261</v>
       </c>
       <c r="B262" s="6"/>
@@ -5901,7 +5939,7 @@
       <c r="K262" s="5"/>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A263" s="5">
+      <c r="A263" s="32">
         <v>262</v>
       </c>
       <c r="B263" s="6"/>
@@ -5919,7 +5957,7 @@
       <c r="K263" s="5"/>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A264" s="5">
+      <c r="A264" s="32">
         <v>263</v>
       </c>
       <c r="B264" s="6"/>
@@ -5937,7 +5975,7 @@
       <c r="K264" s="5"/>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A265" s="5">
+      <c r="A265" s="32">
         <v>264</v>
       </c>
       <c r="B265" s="6"/>
@@ -5955,7 +5993,7 @@
       <c r="K265" s="5"/>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A266" s="5">
+      <c r="A266" s="32">
         <v>265</v>
       </c>
       <c r="B266" s="6"/>
@@ -5973,7 +6011,7 @@
       <c r="K266" s="5"/>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A267" s="5">
+      <c r="A267" s="32">
         <v>266</v>
       </c>
       <c r="B267" s="6"/>
@@ -5991,7 +6029,7 @@
       <c r="K267" s="5"/>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A268" s="5">
+      <c r="A268" s="32">
         <v>267</v>
       </c>
       <c r="B268" s="6"/>
@@ -6009,7 +6047,7 @@
       <c r="K268" s="5"/>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A269" s="5">
+      <c r="A269" s="32">
         <v>268</v>
       </c>
       <c r="B269" s="6"/>
@@ -6027,7 +6065,7 @@
       <c r="K269" s="5"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A270" s="5">
+      <c r="A270" s="32">
         <v>269</v>
       </c>
       <c r="B270" s="6"/>
@@ -6045,7 +6083,7 @@
       <c r="K270" s="5"/>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A271" s="5">
+      <c r="A271" s="32">
         <v>270</v>
       </c>
       <c r="B271" s="6"/>
@@ -6063,7 +6101,7 @@
       <c r="K271" s="5"/>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A272" s="5">
+      <c r="A272" s="32">
         <v>271</v>
       </c>
       <c r="B272" s="6"/>
@@ -6081,7 +6119,7 @@
       <c r="K272" s="5"/>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A273" s="5">
+      <c r="A273" s="32">
         <v>272</v>
       </c>
       <c r="B273" s="6"/>
@@ -6099,7 +6137,7 @@
       <c r="K273" s="5"/>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A274" s="5">
+      <c r="A274" s="32">
         <v>273</v>
       </c>
       <c r="B274" s="6"/>
@@ -6117,7 +6155,7 @@
       <c r="K274" s="5"/>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A275" s="5">
+      <c r="A275" s="32">
         <v>274</v>
       </c>
       <c r="B275" s="6"/>
@@ -6135,7 +6173,7 @@
       <c r="K275" s="5"/>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A276" s="5">
+      <c r="A276" s="32">
         <v>275</v>
       </c>
       <c r="B276" s="6"/>
@@ -6153,7 +6191,7 @@
       <c r="K276" s="5"/>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A277" s="5">
+      <c r="A277" s="32">
         <v>276</v>
       </c>
       <c r="B277" s="6"/>
@@ -6171,7 +6209,7 @@
       <c r="K277" s="5"/>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A278" s="5">
+      <c r="A278" s="32">
         <v>277</v>
       </c>
       <c r="B278" s="6"/>
@@ -6189,7 +6227,7 @@
       <c r="K278" s="5"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A279" s="5">
+      <c r="A279" s="32">
         <v>278</v>
       </c>
       <c r="B279" s="6"/>
@@ -6207,7 +6245,7 @@
       <c r="K279" s="5"/>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A280" s="5">
+      <c r="A280" s="32">
         <v>279</v>
       </c>
       <c r="B280" s="6"/>
@@ -6225,7 +6263,7 @@
       <c r="K280" s="5"/>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A281" s="5">
+      <c r="A281" s="32">
         <v>280</v>
       </c>
       <c r="B281" s="6"/>
@@ -6243,7 +6281,7 @@
       <c r="K281" s="5"/>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A282" s="5">
+      <c r="A282" s="32">
         <v>281</v>
       </c>
       <c r="B282" s="6"/>
@@ -6261,7 +6299,7 @@
       <c r="K282" s="5"/>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A283" s="5">
+      <c r="A283" s="32">
         <v>282</v>
       </c>
       <c r="B283" s="6"/>
@@ -6279,7 +6317,7 @@
       <c r="K283" s="5"/>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A284" s="5">
+      <c r="A284" s="32">
         <v>283</v>
       </c>
       <c r="B284" s="6"/>
@@ -6297,7 +6335,7 @@
       <c r="K284" s="5"/>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A285" s="5">
+      <c r="A285" s="32">
         <v>284</v>
       </c>
       <c r="B285" s="6"/>
@@ -6315,7 +6353,7 @@
       <c r="K285" s="5"/>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A286" s="5">
+      <c r="A286" s="32">
         <v>285</v>
       </c>
       <c r="B286" s="6"/>
@@ -6333,7 +6371,7 @@
       <c r="K286" s="5"/>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A287" s="5">
+      <c r="A287" s="32">
         <v>286</v>
       </c>
       <c r="B287" s="6"/>
@@ -6351,7 +6389,7 @@
       <c r="K287" s="5"/>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A288" s="5">
+      <c r="A288" s="32">
         <v>287</v>
       </c>
       <c r="B288" s="6"/>
@@ -6369,7 +6407,7 @@
       <c r="K288" s="5"/>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A289" s="5">
+      <c r="A289" s="32">
         <v>288</v>
       </c>
       <c r="B289" s="6"/>
@@ -6387,7 +6425,7 @@
       <c r="K289" s="5"/>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A290" s="5">
+      <c r="A290" s="32">
         <v>289</v>
       </c>
       <c r="B290" s="6"/>
@@ -6405,7 +6443,7 @@
       <c r="K290" s="5"/>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A291" s="5">
+      <c r="A291" s="32">
         <v>290</v>
       </c>
       <c r="B291" s="6"/>
@@ -6423,7 +6461,7 @@
       <c r="K291" s="5"/>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A292" s="5">
+      <c r="A292" s="32">
         <v>291</v>
       </c>
       <c r="B292" s="6"/>
@@ -6441,7 +6479,7 @@
       <c r="K292" s="5"/>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A293" s="5">
+      <c r="A293" s="32">
         <v>292</v>
       </c>
       <c r="B293" s="6"/>
@@ -6459,7 +6497,7 @@
       <c r="K293" s="5"/>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A294" s="5">
+      <c r="A294" s="32">
         <v>293</v>
       </c>
       <c r="B294" s="6"/>
@@ -6477,7 +6515,7 @@
       <c r="K294" s="5"/>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A295" s="5">
+      <c r="A295" s="32">
         <v>294</v>
       </c>
       <c r="B295" s="6"/>
@@ -6495,7 +6533,7 @@
       <c r="K295" s="5"/>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A296" s="5">
+      <c r="A296" s="32">
         <v>295</v>
       </c>
       <c r="B296" s="6"/>
@@ -6513,7 +6551,7 @@
       <c r="K296" s="5"/>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A297" s="5">
+      <c r="A297" s="32">
         <v>296</v>
       </c>
       <c r="B297" s="6"/>
@@ -6531,7 +6569,7 @@
       <c r="K297" s="5"/>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A298" s="5">
+      <c r="A298" s="32">
         <v>297</v>
       </c>
       <c r="B298" s="6"/>
@@ -6549,7 +6587,7 @@
       <c r="K298" s="5"/>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A299" s="5">
+      <c r="A299" s="32">
         <v>298</v>
       </c>
       <c r="B299" s="6"/>
@@ -6567,7 +6605,7 @@
       <c r="K299" s="5"/>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A300" s="5">
+      <c r="A300" s="32">
         <v>299</v>
       </c>
       <c r="B300" s="6"/>
@@ -6585,7 +6623,7 @@
       <c r="K300" s="5"/>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A301" s="5">
+      <c r="A301" s="32">
         <v>300</v>
       </c>
       <c r="B301" s="6"/>
@@ -6603,7 +6641,7 @@
       <c r="K301" s="5"/>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A302" s="5">
+      <c r="A302" s="32">
         <v>301</v>
       </c>
       <c r="B302" s="6"/>
@@ -6621,7 +6659,7 @@
       <c r="K302" s="5"/>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A303" s="5">
+      <c r="A303" s="32">
         <v>302</v>
       </c>
       <c r="B303" s="6"/>
@@ -6639,7 +6677,7 @@
       <c r="K303" s="5"/>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A304" s="5">
+      <c r="A304" s="32">
         <v>303</v>
       </c>
       <c r="B304" s="6"/>
@@ -6657,7 +6695,7 @@
       <c r="K304" s="5"/>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A305" s="5">
+      <c r="A305" s="32">
         <v>304</v>
       </c>
       <c r="B305" s="6"/>
@@ -6675,7 +6713,7 @@
       <c r="K305" s="5"/>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A306" s="5">
+      <c r="A306" s="32">
         <v>305</v>
       </c>
       <c r="B306" s="6"/>
@@ -6693,7 +6731,7 @@
       <c r="K306" s="5"/>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A307" s="5">
+      <c r="A307" s="32">
         <v>306</v>
       </c>
       <c r="B307" s="6"/>
@@ -6711,7 +6749,7 @@
       <c r="K307" s="5"/>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A308" s="5">
+      <c r="A308" s="32">
         <v>307</v>
       </c>
       <c r="B308" s="6"/>
@@ -6729,7 +6767,7 @@
       <c r="K308" s="5"/>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A309" s="5">
+      <c r="A309" s="32">
         <v>308</v>
       </c>
       <c r="B309" s="6"/>
@@ -6747,7 +6785,7 @@
       <c r="K309" s="5"/>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A310" s="5">
+      <c r="A310" s="32">
         <v>309</v>
       </c>
       <c r="B310" s="6"/>
@@ -6765,7 +6803,7 @@
       <c r="K310" s="5"/>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A311" s="5">
+      <c r="A311" s="32">
         <v>310</v>
       </c>
       <c r="B311" s="6"/>
@@ -6783,7 +6821,7 @@
       <c r="K311" s="5"/>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A312" s="5">
+      <c r="A312" s="32">
         <v>311</v>
       </c>
       <c r="B312" s="6"/>
@@ -6801,7 +6839,7 @@
       <c r="K312" s="5"/>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A313" s="5">
+      <c r="A313" s="32">
         <v>312</v>
       </c>
       <c r="B313" s="6"/>
@@ -6819,7 +6857,7 @@
       <c r="K313" s="5"/>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A314" s="5">
+      <c r="A314" s="32">
         <v>313</v>
       </c>
       <c r="B314" s="6"/>
@@ -6837,7 +6875,7 @@
       <c r="K314" s="5"/>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A315" s="5">
+      <c r="A315" s="32">
         <v>314</v>
       </c>
       <c r="B315" s="6"/>
@@ -6855,7 +6893,7 @@
       <c r="K315" s="5"/>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A316" s="5">
+      <c r="A316" s="32">
         <v>315</v>
       </c>
       <c r="B316" s="6"/>
@@ -6873,7 +6911,7 @@
       <c r="K316" s="5"/>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A317" s="5">
+      <c r="A317" s="32">
         <v>316</v>
       </c>
       <c r="B317" s="6"/>
@@ -6891,7 +6929,7 @@
       <c r="K317" s="5"/>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A318" s="5">
+      <c r="A318" s="32">
         <v>317</v>
       </c>
       <c r="B318" s="6"/>
@@ -6909,7 +6947,7 @@
       <c r="K318" s="5"/>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A319" s="5">
+      <c r="A319" s="32">
         <v>318</v>
       </c>
       <c r="B319" s="6"/>
@@ -6927,7 +6965,7 @@
       <c r="K319" s="5"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A320" s="5">
+      <c r="A320" s="32">
         <v>319</v>
       </c>
       <c r="B320" s="6"/>
@@ -6945,7 +6983,7 @@
       <c r="K320" s="5"/>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A321" s="5">
+      <c r="A321" s="32">
         <v>320</v>
       </c>
       <c r="B321" s="6"/>
@@ -6963,7 +7001,7 @@
       <c r="K321" s="5"/>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A322" s="5">
+      <c r="A322" s="32">
         <v>321</v>
       </c>
       <c r="B322" s="6"/>
@@ -6981,7 +7019,7 @@
       <c r="K322" s="5"/>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A323" s="5">
+      <c r="A323" s="32">
         <v>322</v>
       </c>
       <c r="B323" s="6"/>
@@ -6999,7 +7037,7 @@
       <c r="K323" s="5"/>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A324" s="5">
+      <c r="A324" s="32">
         <v>323</v>
       </c>
       <c r="B324" s="6"/>
@@ -7017,7 +7055,7 @@
       <c r="K324" s="5"/>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A325" s="5">
+      <c r="A325" s="32">
         <v>324</v>
       </c>
       <c r="B325" s="6"/>
@@ -7035,7 +7073,7 @@
       <c r="K325" s="5"/>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A326" s="5">
+      <c r="A326" s="32">
         <v>325</v>
       </c>
       <c r="B326" s="6"/>
@@ -7053,7 +7091,7 @@
       <c r="K326" s="5"/>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A327" s="5">
+      <c r="A327" s="32">
         <v>326</v>
       </c>
       <c r="B327" s="6"/>
@@ -7071,7 +7109,7 @@
       <c r="K327" s="5"/>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A328" s="5">
+      <c r="A328" s="32">
         <v>327</v>
       </c>
       <c r="B328" s="6"/>
@@ -7089,7 +7127,7 @@
       <c r="K328" s="5"/>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A329" s="5">
+      <c r="A329" s="32">
         <v>328</v>
       </c>
       <c r="B329" s="6"/>
@@ -7107,7 +7145,7 @@
       <c r="K329" s="5"/>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A330" s="5">
+      <c r="A330" s="32">
         <v>329</v>
       </c>
       <c r="B330" s="6"/>
@@ -7125,7 +7163,7 @@
       <c r="K330" s="5"/>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A331" s="5">
+      <c r="A331" s="32">
         <v>330</v>
       </c>
       <c r="B331" s="6"/>
@@ -7143,7 +7181,7 @@
       <c r="K331" s="5"/>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A332" s="5">
+      <c r="A332" s="32">
         <v>331</v>
       </c>
       <c r="B332" s="6"/>
@@ -7161,7 +7199,7 @@
       <c r="K332" s="5"/>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A333" s="5">
+      <c r="A333" s="32">
         <v>332</v>
       </c>
       <c r="B333" s="6"/>
@@ -7179,7 +7217,7 @@
       <c r="K333" s="5"/>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A334" s="5">
+      <c r="A334" s="32">
         <v>333</v>
       </c>
       <c r="B334" s="6"/>
@@ -7197,7 +7235,7 @@
       <c r="K334" s="5"/>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A335" s="5">
+      <c r="A335" s="32">
         <v>334</v>
       </c>
       <c r="B335" s="6"/>
@@ -7215,7 +7253,7 @@
       <c r="K335" s="5"/>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A336" s="5">
+      <c r="A336" s="32">
         <v>335</v>
       </c>
       <c r="B336" s="6"/>
@@ -7233,7 +7271,7 @@
       <c r="K336" s="5"/>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A337" s="5">
+      <c r="A337" s="32">
         <v>336</v>
       </c>
       <c r="B337" s="6"/>
@@ -7251,7 +7289,7 @@
       <c r="K337" s="5"/>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A338" s="5">
+      <c r="A338" s="32">
         <v>337</v>
       </c>
       <c r="B338" s="6"/>
@@ -7269,7 +7307,7 @@
       <c r="K338" s="5"/>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A339" s="5">
+      <c r="A339" s="32">
         <v>338</v>
       </c>
       <c r="B339" s="6"/>
@@ -7287,7 +7325,7 @@
       <c r="K339" s="5"/>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A340" s="5">
+      <c r="A340" s="32">
         <v>339</v>
       </c>
       <c r="B340" s="6"/>
@@ -7305,7 +7343,7 @@
       <c r="K340" s="5"/>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A341" s="5">
+      <c r="A341" s="32">
         <v>340</v>
       </c>
       <c r="B341" s="6"/>
@@ -7323,7 +7361,7 @@
       <c r="K341" s="5"/>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A342" s="5">
+      <c r="A342" s="32">
         <v>341</v>
       </c>
       <c r="B342" s="6"/>
@@ -7341,7 +7379,7 @@
       <c r="K342" s="5"/>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A343" s="5">
+      <c r="A343" s="32">
         <v>342</v>
       </c>
       <c r="B343" s="6"/>
@@ -7359,7 +7397,7 @@
       <c r="K343" s="5"/>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A344" s="5">
+      <c r="A344" s="32">
         <v>343</v>
       </c>
       <c r="B344" s="6"/>
@@ -7377,7 +7415,7 @@
       <c r="K344" s="5"/>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A345" s="5">
+      <c r="A345" s="32">
         <v>344</v>
       </c>
       <c r="B345" s="6"/>
@@ -7395,7 +7433,7 @@
       <c r="K345" s="5"/>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A346" s="5">
+      <c r="A346" s="32">
         <v>345</v>
       </c>
       <c r="B346" s="6"/>
@@ -7413,7 +7451,7 @@
       <c r="K346" s="5"/>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A347" s="5">
+      <c r="A347" s="32">
         <v>346</v>
       </c>
       <c r="B347" s="6"/>
@@ -7431,7 +7469,7 @@
       <c r="K347" s="5"/>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A348" s="5">
+      <c r="A348" s="32">
         <v>347</v>
       </c>
       <c r="B348" s="6"/>
@@ -7449,7 +7487,7 @@
       <c r="K348" s="5"/>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A349" s="5">
+      <c r="A349" s="32">
         <v>348</v>
       </c>
       <c r="B349" s="6"/>
@@ -7467,7 +7505,7 @@
       <c r="K349" s="5"/>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A350" s="5">
+      <c r="A350" s="32">
         <v>349</v>
       </c>
       <c r="B350" s="6"/>
@@ -7485,7 +7523,7 @@
       <c r="K350" s="5"/>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A351" s="5">
+      <c r="A351" s="32">
         <v>350</v>
       </c>
       <c r="B351" s="6"/>
@@ -7503,7 +7541,7 @@
       <c r="K351" s="5"/>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A352" s="5">
+      <c r="A352" s="32">
         <v>351</v>
       </c>
       <c r="B352" s="6"/>
@@ -7521,7 +7559,7 @@
       <c r="K352" s="5"/>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A353" s="5">
+      <c r="A353" s="32">
         <v>352</v>
       </c>
       <c r="B353" s="6"/>
@@ -7539,7 +7577,7 @@
       <c r="K353" s="5"/>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A354" s="5">
+      <c r="A354" s="32">
         <v>353</v>
       </c>
       <c r="B354" s="6"/>
@@ -7557,7 +7595,7 @@
       <c r="K354" s="5"/>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A355" s="5">
+      <c r="A355" s="32">
         <v>354</v>
       </c>
       <c r="B355" s="6"/>
@@ -7575,7 +7613,7 @@
       <c r="K355" s="5"/>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A356" s="5">
+      <c r="A356" s="32">
         <v>355</v>
       </c>
       <c r="B356" s="6"/>
@@ -7593,7 +7631,7 @@
       <c r="K356" s="5"/>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A357" s="5">
+      <c r="A357" s="32">
         <v>356</v>
       </c>
       <c r="B357" s="6"/>
@@ -7611,7 +7649,7 @@
       <c r="K357" s="5"/>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A358" s="5">
+      <c r="A358" s="32">
         <v>357</v>
       </c>
       <c r="B358" s="6"/>
@@ -7629,7 +7667,7 @@
       <c r="K358" s="5"/>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A359" s="5">
+      <c r="A359" s="32">
         <v>358</v>
       </c>
       <c r="B359" s="6"/>
@@ -7647,7 +7685,7 @@
       <c r="K359" s="5"/>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A360" s="5">
+      <c r="A360" s="32">
         <v>359</v>
       </c>
       <c r="B360" s="6"/>
@@ -7665,7 +7703,7 @@
       <c r="K360" s="5"/>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A361" s="5">
+      <c r="A361" s="32">
         <v>360</v>
       </c>
       <c r="B361" s="6"/>
@@ -7683,7 +7721,7 @@
       <c r="K361" s="5"/>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A362" s="5">
+      <c r="A362" s="32">
         <v>361</v>
       </c>
       <c r="B362" s="6"/>
@@ -7701,7 +7739,7 @@
       <c r="K362" s="5"/>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A363" s="5">
+      <c r="A363" s="32">
         <v>362</v>
       </c>
       <c r="B363" s="6"/>
@@ -7719,7 +7757,7 @@
       <c r="K363" s="5"/>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A364" s="5">
+      <c r="A364" s="32">
         <v>363</v>
       </c>
       <c r="B364" s="6"/>
@@ -7737,7 +7775,7 @@
       <c r="K364" s="5"/>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A365" s="5">
+      <c r="A365" s="32">
         <v>364</v>
       </c>
       <c r="B365" s="6"/>
@@ -7755,7 +7793,7 @@
       <c r="K365" s="5"/>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A366" s="5">
+      <c r="A366" s="32">
         <v>365</v>
       </c>
       <c r="B366" s="6"/>
@@ -7773,7 +7811,7 @@
       <c r="K366" s="5"/>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A367" s="5">
+      <c r="A367" s="32">
         <v>366</v>
       </c>
       <c r="B367" s="6"/>
@@ -7791,7 +7829,7 @@
       <c r="K367" s="5"/>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A368" s="5">
+      <c r="A368" s="32">
         <v>367</v>
       </c>
       <c r="B368" s="6"/>
@@ -7809,7 +7847,7 @@
       <c r="K368" s="5"/>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A369" s="5">
+      <c r="A369" s="32">
         <v>368</v>
       </c>
       <c r="B369" s="6"/>
@@ -7827,7 +7865,7 @@
       <c r="K369" s="5"/>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A370" s="5">
+      <c r="A370" s="32">
         <v>369</v>
       </c>
       <c r="B370" s="6"/>
@@ -7845,7 +7883,7 @@
       <c r="K370" s="5"/>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A371" s="5">
+      <c r="A371" s="32">
         <v>370</v>
       </c>
       <c r="B371" s="6"/>
@@ -7863,7 +7901,7 @@
       <c r="K371" s="5"/>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A372" s="5">
+      <c r="A372" s="32">
         <v>371</v>
       </c>
       <c r="B372" s="6"/>
@@ -7881,7 +7919,7 @@
       <c r="K372" s="5"/>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A373" s="5">
+      <c r="A373" s="32">
         <v>372</v>
       </c>
       <c r="B373" s="6"/>
@@ -7899,7 +7937,7 @@
       <c r="K373" s="5"/>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A374" s="5">
+      <c r="A374" s="32">
         <v>373</v>
       </c>
       <c r="B374" s="6"/>
@@ -7917,7 +7955,7 @@
       <c r="K374" s="5"/>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A375" s="5">
+      <c r="A375" s="32">
         <v>374</v>
       </c>
       <c r="B375" s="6"/>
@@ -7935,7 +7973,7 @@
       <c r="K375" s="5"/>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A376" s="5">
+      <c r="A376" s="32">
         <v>375</v>
       </c>
       <c r="B376" s="6"/>
@@ -7953,7 +7991,7 @@
       <c r="K376" s="5"/>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A377" s="5">
+      <c r="A377" s="32">
         <v>376</v>
       </c>
       <c r="B377" s="6"/>
@@ -7971,7 +8009,7 @@
       <c r="K377" s="5"/>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A378" s="5">
+      <c r="A378" s="32">
         <v>377</v>
       </c>
       <c r="B378" s="6"/>
@@ -7989,7 +8027,7 @@
       <c r="K378" s="5"/>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A379" s="5">
+      <c r="A379" s="32">
         <v>378</v>
       </c>
       <c r="B379" s="6"/>
@@ -8007,7 +8045,7 @@
       <c r="K379" s="5"/>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A380" s="5">
+      <c r="A380" s="32">
         <v>379</v>
       </c>
       <c r="B380" s="6"/>
@@ -8025,7 +8063,7 @@
       <c r="K380" s="5"/>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A381" s="5">
+      <c r="A381" s="32">
         <v>380</v>
       </c>
       <c r="B381" s="6"/>
@@ -8043,7 +8081,7 @@
       <c r="K381" s="5"/>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A382" s="5">
+      <c r="A382" s="32">
         <v>381</v>
       </c>
       <c r="B382" s="6"/>
@@ -8061,7 +8099,7 @@
       <c r="K382" s="5"/>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A383" s="5">
+      <c r="A383" s="32">
         <v>382</v>
       </c>
       <c r="B383" s="6"/>
@@ -8079,7 +8117,7 @@
       <c r="K383" s="5"/>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A384" s="5">
+      <c r="A384" s="32">
         <v>383</v>
       </c>
       <c r="B384" s="6"/>
@@ -8097,7 +8135,7 @@
       <c r="K384" s="5"/>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A385" s="5">
+      <c r="A385" s="32">
         <v>384</v>
       </c>
       <c r="B385" s="6"/>
@@ -8115,7 +8153,7 @@
       <c r="K385" s="5"/>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A386" s="5">
+      <c r="A386" s="32">
         <v>385</v>
       </c>
       <c r="B386" s="6"/>
@@ -8133,7 +8171,7 @@
       <c r="K386" s="5"/>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A387" s="5">
+      <c r="A387" s="32">
         <v>386</v>
       </c>
       <c r="B387" s="6"/>
@@ -8151,7 +8189,7 @@
       <c r="K387" s="5"/>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A388" s="5">
+      <c r="A388" s="32">
         <v>387</v>
       </c>
       <c r="B388" s="6"/>
@@ -8169,7 +8207,7 @@
       <c r="K388" s="5"/>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A389" s="5">
+      <c r="A389" s="32">
         <v>388</v>
       </c>
       <c r="B389" s="6"/>
@@ -8187,7 +8225,7 @@
       <c r="K389" s="5"/>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A390" s="5">
+      <c r="A390" s="32">
         <v>389</v>
       </c>
       <c r="B390" s="6"/>
@@ -8205,7 +8243,7 @@
       <c r="K390" s="5"/>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A391" s="5">
+      <c r="A391" s="32">
         <v>390</v>
       </c>
       <c r="B391" s="6"/>
@@ -8223,7 +8261,7 @@
       <c r="K391" s="5"/>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A392" s="5">
+      <c r="A392" s="32">
         <v>391</v>
       </c>
       <c r="B392" s="6"/>
@@ -8241,7 +8279,7 @@
       <c r="K392" s="5"/>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A393" s="5">
+      <c r="A393" s="32">
         <v>392</v>
       </c>
       <c r="B393" s="6"/>
@@ -8259,7 +8297,7 @@
       <c r="K393" s="5"/>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A394" s="5">
+      <c r="A394" s="32">
         <v>393</v>
       </c>
       <c r="B394" s="6"/>
@@ -8277,7 +8315,7 @@
       <c r="K394" s="5"/>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A395" s="5">
+      <c r="A395" s="32">
         <v>394</v>
       </c>
       <c r="B395" s="6"/>
@@ -8295,7 +8333,7 @@
       <c r="K395" s="5"/>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A396" s="5">
+      <c r="A396" s="32">
         <v>395</v>
       </c>
       <c r="B396" s="6"/>
@@ -8313,7 +8351,7 @@
       <c r="K396" s="5"/>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A397" s="5">
+      <c r="A397" s="32">
         <v>396</v>
       </c>
       <c r="B397" s="6"/>
@@ -8331,7 +8369,7 @@
       <c r="K397" s="5"/>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A398" s="5">
+      <c r="A398" s="32">
         <v>397</v>
       </c>
       <c r="B398" s="6"/>
@@ -8349,7 +8387,7 @@
       <c r="K398" s="5"/>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A399" s="5">
+      <c r="A399" s="32">
         <v>398</v>
       </c>
       <c r="B399" s="6"/>
@@ -8367,7 +8405,7 @@
       <c r="K399" s="5"/>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A400" s="5">
+      <c r="A400" s="32">
         <v>399</v>
       </c>
       <c r="B400" s="6"/>
@@ -8385,7 +8423,7 @@
       <c r="K400" s="5"/>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A401" s="5">
+      <c r="A401" s="32">
         <v>400</v>
       </c>
       <c r="B401" s="6"/>
@@ -8403,7 +8441,7 @@
       <c r="K401" s="5"/>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A402" s="5">
+      <c r="A402" s="32">
         <v>401</v>
       </c>
       <c r="B402" s="6"/>
@@ -8421,7 +8459,7 @@
       <c r="K402" s="5"/>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A403" s="5">
+      <c r="A403" s="32">
         <v>402</v>
       </c>
       <c r="B403" s="6"/>
@@ -8439,7 +8477,7 @@
       <c r="K403" s="5"/>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A404" s="5">
+      <c r="A404" s="32">
         <v>403</v>
       </c>
       <c r="B404" s="6"/>
@@ -8457,7 +8495,7 @@
       <c r="K404" s="5"/>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A405" s="5">
+      <c r="A405" s="32">
         <v>404</v>
       </c>
       <c r="B405" s="6"/>
@@ -8475,7 +8513,7 @@
       <c r="K405" s="5"/>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A406" s="5">
+      <c r="A406" s="32">
         <v>405</v>
       </c>
       <c r="B406" s="6"/>
@@ -8493,7 +8531,7 @@
       <c r="K406" s="5"/>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A407" s="5">
+      <c r="A407" s="32">
         <v>406</v>
       </c>
       <c r="B407" s="6"/>
@@ -8511,7 +8549,7 @@
       <c r="K407" s="5"/>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A408" s="5">
+      <c r="A408" s="32">
         <v>407</v>
       </c>
       <c r="B408" s="6"/>
@@ -8529,7 +8567,7 @@
       <c r="K408" s="5"/>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A409" s="5">
+      <c r="A409" s="32">
         <v>408</v>
       </c>
       <c r="B409" s="6"/>
@@ -8547,7 +8585,7 @@
       <c r="K409" s="5"/>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A410" s="5">
+      <c r="A410" s="32">
         <v>409</v>
       </c>
       <c r="B410" s="6"/>
@@ -8565,7 +8603,7 @@
       <c r="K410" s="5"/>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A411" s="5">
+      <c r="A411" s="32">
         <v>410</v>
       </c>
       <c r="B411" s="6"/>
@@ -8583,7 +8621,7 @@
       <c r="K411" s="5"/>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A412" s="5">
+      <c r="A412" s="32">
         <v>411</v>
       </c>
       <c r="B412" s="6"/>
@@ -8601,7 +8639,7 @@
       <c r="K412" s="5"/>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A413" s="5">
+      <c r="A413" s="32">
         <v>412</v>
       </c>
       <c r="B413" s="6"/>
@@ -8619,7 +8657,7 @@
       <c r="K413" s="5"/>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A414" s="5">
+      <c r="A414" s="32">
         <v>413</v>
       </c>
       <c r="B414" s="6"/>
@@ -8637,7 +8675,7 @@
       <c r="K414" s="5"/>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A415" s="5">
+      <c r="A415" s="32">
         <v>414</v>
       </c>
       <c r="B415" s="6"/>
@@ -8655,7 +8693,7 @@
       <c r="K415" s="5"/>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A416" s="5">
+      <c r="A416" s="32">
         <v>415</v>
       </c>
       <c r="B416" s="6"/>
@@ -8673,7 +8711,7 @@
       <c r="K416" s="5"/>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A417" s="5">
+      <c r="A417" s="32">
         <v>416</v>
       </c>
       <c r="B417" s="6"/>
@@ -8691,7 +8729,7 @@
       <c r="K417" s="5"/>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A418" s="5">
+      <c r="A418" s="32">
         <v>417</v>
       </c>
       <c r="B418" s="6"/>
@@ -8709,7 +8747,7 @@
       <c r="K418" s="5"/>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A419" s="5">
+      <c r="A419" s="32">
         <v>418</v>
       </c>
       <c r="B419" s="6"/>
@@ -8727,7 +8765,7 @@
       <c r="K419" s="5"/>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A420" s="5">
+      <c r="A420" s="32">
         <v>419</v>
       </c>
       <c r="B420" s="6"/>
@@ -8745,7 +8783,7 @@
       <c r="K420" s="5"/>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A421" s="5">
+      <c r="A421" s="32">
         <v>420</v>
       </c>
       <c r="B421" s="6"/>
@@ -8763,7 +8801,7 @@
       <c r="K421" s="5"/>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A422" s="5">
+      <c r="A422" s="32">
         <v>421</v>
       </c>
       <c r="B422" s="6"/>
@@ -8781,7 +8819,7 @@
       <c r="K422" s="5"/>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A423" s="5">
+      <c r="A423" s="32">
         <v>422</v>
       </c>
       <c r="B423" s="6"/>
@@ -8799,7 +8837,7 @@
       <c r="K423" s="5"/>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A424" s="5">
+      <c r="A424" s="32">
         <v>423</v>
       </c>
       <c r="B424" s="6"/>
@@ -8817,7 +8855,7 @@
       <c r="K424" s="5"/>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A425" s="5">
+      <c r="A425" s="32">
         <v>424</v>
       </c>
       <c r="B425" s="6"/>
@@ -8835,7 +8873,7 @@
       <c r="K425" s="5"/>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A426" s="5">
+      <c r="A426" s="32">
         <v>425</v>
       </c>
       <c r="B426" s="6"/>
@@ -8853,7 +8891,7 @@
       <c r="K426" s="5"/>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A427" s="5">
+      <c r="A427" s="32">
         <v>426</v>
       </c>
       <c r="B427" s="6"/>
@@ -8871,7 +8909,7 @@
       <c r="K427" s="5"/>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A428" s="5">
+      <c r="A428" s="32">
         <v>427</v>
       </c>
       <c r="B428" s="6"/>
@@ -8889,7 +8927,7 @@
       <c r="K428" s="5"/>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A429" s="5">
+      <c r="A429" s="32">
         <v>428</v>
       </c>
       <c r="B429" s="6"/>
@@ -8907,7 +8945,7 @@
       <c r="K429" s="5"/>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A430" s="5">
+      <c r="A430" s="32">
         <v>429</v>
       </c>
       <c r="B430" s="6"/>
@@ -8925,7 +8963,7 @@
       <c r="K430" s="5"/>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A431" s="5">
+      <c r="A431" s="32">
         <v>430</v>
       </c>
       <c r="B431" s="6"/>
@@ -8943,7 +8981,7 @@
       <c r="K431" s="5"/>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A432" s="5">
+      <c r="A432" s="32">
         <v>431</v>
       </c>
       <c r="B432" s="6"/>
@@ -8961,7 +8999,7 @@
       <c r="K432" s="5"/>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A433" s="5">
+      <c r="A433" s="32">
         <v>432</v>
       </c>
       <c r="B433" s="6"/>
@@ -8979,7 +9017,7 @@
       <c r="K433" s="5"/>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A434" s="5">
+      <c r="A434" s="32">
         <v>433</v>
       </c>
       <c r="B434" s="6"/>
@@ -8997,7 +9035,7 @@
       <c r="K434" s="5"/>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A435" s="5">
+      <c r="A435" s="32">
         <v>434</v>
       </c>
       <c r="B435" s="6"/>
@@ -9015,7 +9053,7 @@
       <c r="K435" s="5"/>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A436" s="5">
+      <c r="A436" s="32">
         <v>435</v>
       </c>
       <c r="B436" s="6"/>
@@ -9033,7 +9071,7 @@
       <c r="K436" s="5"/>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A437" s="5">
+      <c r="A437" s="32">
         <v>436</v>
       </c>
       <c r="B437" s="6"/>
@@ -9051,7 +9089,7 @@
       <c r="K437" s="5"/>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A438" s="5">
+      <c r="A438" s="32">
         <v>437</v>
       </c>
       <c r="B438" s="6"/>
@@ -9069,7 +9107,7 @@
       <c r="K438" s="5"/>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A439" s="5">
+      <c r="A439" s="32">
         <v>438</v>
       </c>
       <c r="B439" s="6"/>
@@ -9087,7 +9125,7 @@
       <c r="K439" s="5"/>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A440" s="5">
+      <c r="A440" s="32">
         <v>439</v>
       </c>
       <c r="B440" s="6"/>
@@ -9105,7 +9143,7 @@
       <c r="K440" s="5"/>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A441" s="5">
+      <c r="A441" s="32">
         <v>440</v>
       </c>
       <c r="B441" s="6"/>
@@ -9123,7 +9161,7 @@
       <c r="K441" s="5"/>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A442" s="5">
+      <c r="A442" s="32">
         <v>441</v>
       </c>
       <c r="B442" s="6"/>
@@ -9141,7 +9179,7 @@
       <c r="K442" s="5"/>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A443" s="5">
+      <c r="A443" s="32">
         <v>442</v>
       </c>
       <c r="B443" s="6"/>
@@ -9159,7 +9197,7 @@
       <c r="K443" s="5"/>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A444" s="5">
+      <c r="A444" s="32">
         <v>443</v>
       </c>
       <c r="B444" s="6"/>
@@ -9177,7 +9215,7 @@
       <c r="K444" s="5"/>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A445" s="5">
+      <c r="A445" s="32">
         <v>444</v>
       </c>
       <c r="B445" s="6"/>
@@ -9195,7 +9233,7 @@
       <c r="K445" s="5"/>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A446" s="5">
+      <c r="A446" s="32">
         <v>445</v>
       </c>
       <c r="B446" s="6"/>
@@ -9213,7 +9251,7 @@
       <c r="K446" s="5"/>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A447" s="5">
+      <c r="A447" s="32">
         <v>446</v>
       </c>
       <c r="B447" s="6"/>
@@ -9231,7 +9269,7 @@
       <c r="K447" s="5"/>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A448" s="5">
+      <c r="A448" s="32">
         <v>447</v>
       </c>
       <c r="B448" s="6"/>
@@ -9249,7 +9287,7 @@
       <c r="K448" s="5"/>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A449" s="5">
+      <c r="A449" s="32">
         <v>448</v>
       </c>
       <c r="B449" s="6"/>
@@ -9267,7 +9305,7 @@
       <c r="K449" s="5"/>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A450" s="5">
+      <c r="A450" s="32">
         <v>449</v>
       </c>
       <c r="B450" s="6"/>
@@ -9285,7 +9323,7 @@
       <c r="K450" s="5"/>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A451" s="5">
+      <c r="A451" s="32">
         <v>450</v>
       </c>
       <c r="B451" s="6"/>
@@ -9303,7 +9341,7 @@
       <c r="K451" s="5"/>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A452" s="5">
+      <c r="A452" s="32">
         <v>451</v>
       </c>
       <c r="B452" s="6"/>
@@ -9321,7 +9359,7 @@
       <c r="K452" s="5"/>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A453" s="5">
+      <c r="A453" s="32">
         <v>452</v>
       </c>
       <c r="B453" s="6"/>
@@ -9339,7 +9377,7 @@
       <c r="K453" s="5"/>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A454" s="5">
+      <c r="A454" s="32">
         <v>453</v>
       </c>
       <c r="B454" s="6"/>
@@ -9357,7 +9395,7 @@
       <c r="K454" s="5"/>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A455" s="5">
+      <c r="A455" s="32">
         <v>454</v>
       </c>
       <c r="B455" s="6"/>
@@ -9375,7 +9413,7 @@
       <c r="K455" s="5"/>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A456" s="5">
+      <c r="A456" s="32">
         <v>455</v>
       </c>
       <c r="B456" s="6"/>
@@ -9393,7 +9431,7 @@
       <c r="K456" s="5"/>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A457" s="5">
+      <c r="A457" s="32">
         <v>456</v>
       </c>
       <c r="B457" s="6"/>
@@ -9411,7 +9449,7 @@
       <c r="K457" s="5"/>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A458" s="5">
+      <c r="A458" s="32">
         <v>457</v>
       </c>
       <c r="B458" s="6"/>
@@ -9429,7 +9467,7 @@
       <c r="K458" s="5"/>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A459" s="5">
+      <c r="A459" s="32">
         <v>458</v>
       </c>
       <c r="B459" s="6"/>
@@ -9447,7 +9485,7 @@
       <c r="K459" s="5"/>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A460" s="5">
+      <c r="A460" s="32">
         <v>459</v>
       </c>
       <c r="B460" s="6"/>
@@ -9465,7 +9503,7 @@
       <c r="K460" s="5"/>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A461" s="5">
+      <c r="A461" s="32">
         <v>460</v>
       </c>
       <c r="B461" s="6"/>
@@ -9483,7 +9521,7 @@
       <c r="K461" s="5"/>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A462" s="5">
+      <c r="A462" s="32">
         <v>461</v>
       </c>
       <c r="B462" s="6"/>
@@ -9501,7 +9539,7 @@
       <c r="K462" s="5"/>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A463" s="5">
+      <c r="A463" s="32">
         <v>462</v>
       </c>
       <c r="B463" s="6"/>
@@ -9519,7 +9557,7 @@
       <c r="K463" s="5"/>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A464" s="5">
+      <c r="A464" s="32">
         <v>463</v>
       </c>
       <c r="B464" s="6"/>
@@ -9537,7 +9575,7 @@
       <c r="K464" s="5"/>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A465" s="5">
+      <c r="A465" s="32">
         <v>464</v>
       </c>
       <c r="B465" s="6"/>
@@ -9555,7 +9593,7 @@
       <c r="K465" s="5"/>
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A466" s="5">
+      <c r="A466" s="32">
         <v>465</v>
       </c>
       <c r="B466" s="6"/>
@@ -9573,7 +9611,7 @@
       <c r="K466" s="5"/>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A467" s="5">
+      <c r="A467" s="32">
         <v>466</v>
       </c>
       <c r="B467" s="6"/>
@@ -9591,7 +9629,7 @@
       <c r="K467" s="5"/>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A468" s="5">
+      <c r="A468" s="32">
         <v>467</v>
       </c>
       <c r="B468" s="6"/>
@@ -9609,7 +9647,7 @@
       <c r="K468" s="5"/>
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A469" s="5">
+      <c r="A469" s="32">
         <v>468</v>
       </c>
       <c r="B469" s="6"/>
@@ -9627,7 +9665,7 @@
       <c r="K469" s="5"/>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A470" s="5">
+      <c r="A470" s="32">
         <v>469</v>
       </c>
       <c r="B470" s="6"/>
@@ -9645,7 +9683,7 @@
       <c r="K470" s="5"/>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A471" s="5">
+      <c r="A471" s="32">
         <v>470</v>
       </c>
       <c r="B471" s="6"/>
@@ -9663,7 +9701,7 @@
       <c r="K471" s="5"/>
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A472" s="5">
+      <c r="A472" s="32">
         <v>471</v>
       </c>
       <c r="B472" s="6"/>
@@ -9681,7 +9719,7 @@
       <c r="K472" s="5"/>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A473" s="5">
+      <c r="A473" s="32">
         <v>472</v>
       </c>
       <c r="B473" s="6"/>
@@ -9699,7 +9737,7 @@
       <c r="K473" s="5"/>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A474" s="5">
+      <c r="A474" s="32">
         <v>473</v>
       </c>
       <c r="B474" s="6"/>
@@ -9717,7 +9755,7 @@
       <c r="K474" s="5"/>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A475" s="5">
+      <c r="A475" s="32">
         <v>474</v>
       </c>
       <c r="B475" s="6"/>
@@ -9735,7 +9773,7 @@
       <c r="K475" s="5"/>
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A476" s="5">
+      <c r="A476" s="32">
         <v>475</v>
       </c>
       <c r="B476" s="6"/>
@@ -9753,7 +9791,7 @@
       <c r="K476" s="5"/>
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A477" s="5">
+      <c r="A477" s="32">
         <v>476</v>
       </c>
       <c r="B477" s="6"/>
@@ -9771,7 +9809,7 @@
       <c r="K477" s="5"/>
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A478" s="5">
+      <c r="A478" s="32">
         <v>477</v>
       </c>
       <c r="B478" s="6"/>
@@ -9789,7 +9827,7 @@
       <c r="K478" s="5"/>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A479" s="5">
+      <c r="A479" s="32">
         <v>478</v>
       </c>
       <c r="B479" s="6"/>
@@ -9807,7 +9845,7 @@
       <c r="K479" s="5"/>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A480" s="5">
+      <c r="A480" s="32">
         <v>479</v>
       </c>
       <c r="B480" s="6"/>
@@ -9825,7 +9863,7 @@
       <c r="K480" s="5"/>
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A481" s="5">
+      <c r="A481" s="32">
         <v>480</v>
       </c>
       <c r="B481" s="6"/>
@@ -9843,7 +9881,7 @@
       <c r="K481" s="5"/>
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A482" s="5">
+      <c r="A482" s="32">
         <v>481</v>
       </c>
       <c r="B482" s="6"/>
@@ -9861,7 +9899,7 @@
       <c r="K482" s="5"/>
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A483" s="5">
+      <c r="A483" s="32">
         <v>482</v>
       </c>
       <c r="B483" s="6"/>
@@ -9879,7 +9917,7 @@
       <c r="K483" s="5"/>
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A484" s="5">
+      <c r="A484" s="32">
         <v>483</v>
       </c>
       <c r="B484" s="6"/>
@@ -9897,7 +9935,7 @@
       <c r="K484" s="5"/>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A485" s="5">
+      <c r="A485" s="32">
         <v>484</v>
       </c>
       <c r="B485" s="6"/>
@@ -9915,7 +9953,7 @@
       <c r="K485" s="5"/>
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A486" s="5">
+      <c r="A486" s="32">
         <v>485</v>
       </c>
       <c r="B486" s="6"/>
@@ -9933,7 +9971,7 @@
       <c r="K486" s="5"/>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A487" s="5">
+      <c r="A487" s="32">
         <v>486</v>
       </c>
       <c r="B487" s="6"/>
@@ -9951,7 +9989,7 @@
       <c r="K487" s="5"/>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A488" s="5">
+      <c r="A488" s="32">
         <v>487</v>
       </c>
       <c r="B488" s="6"/>
@@ -9969,7 +10007,7 @@
       <c r="K488" s="5"/>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A489" s="5">
+      <c r="A489" s="32">
         <v>488</v>
       </c>
       <c r="B489" s="6"/>
@@ -9987,7 +10025,7 @@
       <c r="K489" s="5"/>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A490" s="5">
+      <c r="A490" s="32">
         <v>489</v>
       </c>
       <c r="B490" s="6"/>
@@ -10005,7 +10043,7 @@
       <c r="K490" s="5"/>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A491" s="5">
+      <c r="A491" s="32">
         <v>490</v>
       </c>
       <c r="B491" s="6"/>
@@ -10023,7 +10061,7 @@
       <c r="K491" s="5"/>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A492" s="5">
+      <c r="A492" s="32">
         <v>491</v>
       </c>
       <c r="B492" s="6"/>
@@ -10041,7 +10079,7 @@
       <c r="K492" s="5"/>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A493" s="5">
+      <c r="A493" s="32">
         <v>492</v>
       </c>
       <c r="B493" s="6"/>
@@ -10059,7 +10097,7 @@
       <c r="K493" s="5"/>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A494" s="5">
+      <c r="A494" s="32">
         <v>493</v>
       </c>
       <c r="B494" s="6"/>
@@ -10077,7 +10115,7 @@
       <c r="K494" s="5"/>
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A495" s="5">
+      <c r="A495" s="32">
         <v>494</v>
       </c>
       <c r="B495" s="6"/>
@@ -10095,7 +10133,7 @@
       <c r="K495" s="5"/>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A496" s="5">
+      <c r="A496" s="32">
         <v>495</v>
       </c>
       <c r="B496" s="6"/>
@@ -10113,7 +10151,7 @@
       <c r="K496" s="5"/>
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A497" s="5">
+      <c r="A497" s="32">
         <v>496</v>
       </c>
       <c r="B497" s="6"/>
@@ -10131,7 +10169,7 @@
       <c r="K497" s="5"/>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A498" s="5">
+      <c r="A498" s="32">
         <v>497</v>
       </c>
       <c r="B498" s="6"/>
@@ -10149,7 +10187,7 @@
       <c r="K498" s="5"/>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A499" s="5">
+      <c r="A499" s="32">
         <v>498</v>
       </c>
       <c r="B499" s="6"/>
@@ -10167,7 +10205,7 @@
       <c r="K499" s="5"/>
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A500" s="5">
+      <c r="A500" s="32">
         <v>499</v>
       </c>
       <c r="B500" s="6"/>
@@ -10185,7 +10223,7 @@
       <c r="K500" s="5"/>
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A501" s="5">
+      <c r="A501" s="32">
         <v>500</v>
       </c>
       <c r="B501" s="6"/>
@@ -10203,7 +10241,7 @@
       <c r="K501" s="5"/>
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A502" s="5">
+      <c r="A502" s="32">
         <v>501</v>
       </c>
       <c r="B502" s="6"/>
@@ -10221,7 +10259,7 @@
       <c r="K502" s="5"/>
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A503" s="5">
+      <c r="A503" s="32">
         <v>502</v>
       </c>
       <c r="B503" s="6"/>
@@ -10239,7 +10277,7 @@
       <c r="K503" s="5"/>
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A504" s="5">
+      <c r="A504" s="32">
         <v>503</v>
       </c>
       <c r="B504" s="6"/>
@@ -10257,7 +10295,7 @@
       <c r="K504" s="5"/>
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A505" s="5">
+      <c r="A505" s="32">
         <v>504</v>
       </c>
       <c r="B505" s="6"/>
@@ -10275,7 +10313,7 @@
       <c r="K505" s="5"/>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A506" s="5">
+      <c r="A506" s="32">
         <v>505</v>
       </c>
       <c r="B506" s="6"/>
@@ -10293,7 +10331,7 @@
       <c r="K506" s="5"/>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A507" s="5">
+      <c r="A507" s="32">
         <v>506</v>
       </c>
       <c r="B507" s="6"/>
@@ -10311,7 +10349,7 @@
       <c r="K507" s="5"/>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A508" s="5">
+      <c r="A508" s="32">
         <v>507</v>
       </c>
       <c r="B508" s="6"/>
@@ -10329,7 +10367,7 @@
       <c r="K508" s="5"/>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A509" s="5">
+      <c r="A509" s="32">
         <v>508</v>
       </c>
       <c r="B509" s="6"/>
@@ -10347,7 +10385,7 @@
       <c r="K509" s="5"/>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A510" s="5">
+      <c r="A510" s="32">
         <v>509</v>
       </c>
       <c r="B510" s="6"/>
@@ -10365,7 +10403,7 @@
       <c r="K510" s="5"/>
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A511" s="5">
+      <c r="A511" s="32">
         <v>510</v>
       </c>
       <c r="B511" s="6"/>
@@ -10383,7 +10421,7 @@
       <c r="K511" s="5"/>
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A512" s="5">
+      <c r="A512" s="32">
         <v>511</v>
       </c>
       <c r="B512" s="6"/>
@@ -10401,7 +10439,7 @@
       <c r="K512" s="5"/>
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A513" s="5">
+      <c r="A513" s="32">
         <v>512</v>
       </c>
       <c r="B513" s="6"/>
@@ -10419,7 +10457,7 @@
       <c r="K513" s="5"/>
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A514" s="5">
+      <c r="A514" s="32">
         <v>513</v>
       </c>
       <c r="B514" s="6"/>
@@ -10437,7 +10475,7 @@
       <c r="K514" s="5"/>
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A515" s="5">
+      <c r="A515" s="32">
         <v>514</v>
       </c>
       <c r="B515" s="6"/>
@@ -10455,7 +10493,7 @@
       <c r="K515" s="5"/>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A516" s="5">
+      <c r="A516" s="32">
         <v>515</v>
       </c>
       <c r="B516" s="6"/>
@@ -10473,7 +10511,7 @@
       <c r="K516" s="5"/>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A517" s="5">
+      <c r="A517" s="32">
         <v>516</v>
       </c>
       <c r="B517" s="6"/>
@@ -10491,7 +10529,7 @@
       <c r="K517" s="5"/>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A518" s="5">
+      <c r="A518" s="32">
         <v>517</v>
       </c>
       <c r="B518" s="6"/>
@@ -10509,7 +10547,7 @@
       <c r="K518" s="5"/>
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A519" s="5">
+      <c r="A519" s="32">
         <v>518</v>
       </c>
       <c r="B519" s="6"/>
@@ -10527,7 +10565,7 @@
       <c r="K519" s="5"/>
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A520" s="5">
+      <c r="A520" s="32">
         <v>519</v>
       </c>
       <c r="B520" s="6"/>
@@ -10545,7 +10583,7 @@
       <c r="K520" s="5"/>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A521" s="5">
+      <c r="A521" s="32">
         <v>520</v>
       </c>
       <c r="B521" s="6"/>
@@ -10563,7 +10601,7 @@
       <c r="K521" s="5"/>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A522" s="5">
+      <c r="A522" s="32">
         <v>521</v>
       </c>
       <c r="B522" s="6"/>
@@ -10581,7 +10619,7 @@
       <c r="K522" s="5"/>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A523" s="5">
+      <c r="A523" s="32">
         <v>522</v>
       </c>
       <c r="B523" s="6"/>
@@ -10599,7 +10637,7 @@
       <c r="K523" s="5"/>
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A524" s="5">
+      <c r="A524" s="32">
         <v>523</v>
       </c>
       <c r="B524" s="6"/>
@@ -10617,7 +10655,7 @@
       <c r="K524" s="5"/>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A525" s="5">
+      <c r="A525" s="32">
         <v>524</v>
       </c>
       <c r="B525" s="6"/>
@@ -10635,7 +10673,7 @@
       <c r="K525" s="5"/>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A526" s="5">
+      <c r="A526" s="32">
         <v>525</v>
       </c>
       <c r="B526" s="6"/>
@@ -10653,7 +10691,7 @@
       <c r="K526" s="5"/>
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A527" s="5">
+      <c r="A527" s="32">
         <v>526</v>
       </c>
       <c r="B527" s="6"/>
@@ -10671,7 +10709,7 @@
       <c r="K527" s="5"/>
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A528" s="5">
+      <c r="A528" s="32">
         <v>527</v>
       </c>
       <c r="B528" s="6"/>
@@ -10689,7 +10727,7 @@
       <c r="K528" s="5"/>
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A529" s="5">
+      <c r="A529" s="32">
         <v>528</v>
       </c>
       <c r="B529" s="6"/>
@@ -10707,7 +10745,7 @@
       <c r="K529" s="5"/>
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A530" s="5">
+      <c r="A530" s="32">
         <v>529</v>
       </c>
       <c r="B530" s="6"/>
@@ -10725,7 +10763,7 @@
       <c r="K530" s="5"/>
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A531" s="5">
+      <c r="A531" s="32">
         <v>530</v>
       </c>
       <c r="B531" s="6"/>
@@ -10743,7 +10781,7 @@
       <c r="K531" s="5"/>
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A532" s="5">
+      <c r="A532" s="32">
         <v>531</v>
       </c>
       <c r="B532" s="6"/>
@@ -10761,7 +10799,7 @@
       <c r="K532" s="5"/>
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A533" s="5">
+      <c r="A533" s="32">
         <v>532</v>
       </c>
       <c r="B533" s="6"/>
@@ -10779,7 +10817,7 @@
       <c r="K533" s="5"/>
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A534" s="5">
+      <c r="A534" s="32">
         <v>533</v>
       </c>
       <c r="B534" s="6"/>
@@ -10797,7 +10835,7 @@
       <c r="K534" s="5"/>
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A535" s="5">
+      <c r="A535" s="32">
         <v>534</v>
       </c>
       <c r="B535" s="6"/>
@@ -10815,7 +10853,7 @@
       <c r="K535" s="5"/>
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A536" s="5">
+      <c r="A536" s="32">
         <v>535</v>
       </c>
       <c r="B536" s="6"/>
@@ -10833,7 +10871,7 @@
       <c r="K536" s="5"/>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A537" s="5">
+      <c r="A537" s="32">
         <v>536</v>
       </c>
       <c r="B537" s="6"/>
@@ -10851,7 +10889,7 @@
       <c r="K537" s="5"/>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A538" s="5">
+      <c r="A538" s="32">
         <v>537</v>
       </c>
       <c r="B538" s="6"/>
@@ -10869,7 +10907,7 @@
       <c r="K538" s="5"/>
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A539" s="5">
+      <c r="A539" s="32">
         <v>538</v>
       </c>
       <c r="B539" s="6"/>
@@ -10887,7 +10925,7 @@
       <c r="K539" s="5"/>
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A540" s="5">
+      <c r="A540" s="32">
         <v>539</v>
       </c>
       <c r="B540" s="6"/>
@@ -10905,7 +10943,7 @@
       <c r="K540" s="5"/>
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A541" s="5">
+      <c r="A541" s="32">
         <v>540</v>
       </c>
       <c r="B541" s="6"/>
@@ -10923,7 +10961,7 @@
       <c r="K541" s="5"/>
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A542" s="5">
+      <c r="A542" s="32">
         <v>541</v>
       </c>
       <c r="B542" s="6"/>
@@ -10941,7 +10979,7 @@
       <c r="K542" s="5"/>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A543" s="5">
+      <c r="A543" s="32">
         <v>542</v>
       </c>
       <c r="B543" s="6"/>
@@ -10959,7 +10997,7 @@
       <c r="K543" s="5"/>
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A544" s="5">
+      <c r="A544" s="32">
         <v>543</v>
       </c>
       <c r="B544" s="6"/>
@@ -10977,7 +11015,7 @@
       <c r="K544" s="5"/>
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A545" s="5">
+      <c r="A545" s="32">
         <v>544</v>
       </c>
       <c r="B545" s="6"/>
@@ -10995,7 +11033,7 @@
       <c r="K545" s="5"/>
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A546" s="5">
+      <c r="A546" s="32">
         <v>545</v>
       </c>
       <c r="B546" s="6"/>
@@ -11013,7 +11051,7 @@
       <c r="K546" s="5"/>
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A547" s="5">
+      <c r="A547" s="32">
         <v>546</v>
       </c>
       <c r="B547" s="6"/>
@@ -11031,7 +11069,7 @@
       <c r="K547" s="5"/>
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A548" s="5">
+      <c r="A548" s="32">
         <v>547</v>
       </c>
       <c r="B548" s="6"/>
@@ -11049,7 +11087,7 @@
       <c r="K548" s="5"/>
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A549" s="5">
+      <c r="A549" s="32">
         <v>548</v>
       </c>
       <c r="B549" s="6"/>
@@ -11067,7 +11105,7 @@
       <c r="K549" s="5"/>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A550" s="5">
+      <c r="A550" s="32">
         <v>549</v>
       </c>
       <c r="B550" s="6"/>
@@ -11085,7 +11123,7 @@
       <c r="K550" s="5"/>
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A551" s="5">
+      <c r="A551" s="32">
         <v>550</v>
       </c>
       <c r="B551" s="6"/>
@@ -11103,7 +11141,7 @@
       <c r="K551" s="5"/>
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A552" s="5">
+      <c r="A552" s="32">
         <v>551</v>
       </c>
       <c r="B552" s="6"/>
@@ -11156,14 +11194,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">

--- a/ĐƠN HÀNG.xlsx
+++ b/ĐƠN HÀNG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799F01ED-53FD-488C-BDA4-76661F2F0D8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998EAEC3-C2B5-4A24-8384-ACB65303D42A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="DS KH BOM HÀNG" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SALE!$A$7:$K$552</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SALE!$A$7:$K$551</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="85">
   <si>
     <t>STT</t>
   </si>
@@ -50,15 +50,6 @@
   </si>
   <si>
     <t>GIÁ TỆ</t>
-  </si>
-  <si>
-    <t>TỔNG THU</t>
-  </si>
-  <si>
-    <t>LỢI NHUẬN</t>
-  </si>
-  <si>
-    <t>PHÍ SHIP CẢ LÔ</t>
   </si>
   <si>
     <t>NOTE (Size, màu)</t>
@@ -119,15 +110,6 @@
   </si>
   <si>
     <t>số 10 Ngõ 30/ 32, Phan Đình Giót, Thanh Xuân, Hà Nội</t>
-  </si>
-  <si>
-    <t>Thủy Tiên</t>
-  </si>
-  <si>
-    <t>Khu phố 1, phường 1, thị xã cai lậy, tiền giang</t>
-  </si>
-  <si>
-    <t>0337576841</t>
   </si>
   <si>
     <t>Mỹ Linh</t>
@@ -247,22 +229,10 @@
     <t>Size XL, theo ảnh</t>
   </si>
   <si>
-    <t>blazer đen tay kẻ</t>
-  </si>
-  <si>
     <t>size S</t>
   </si>
   <si>
     <t>nâu, 40, trả hàng shopee</t>
-  </si>
-  <si>
-    <t>HÀNG ORDER ĐỢT</t>
-  </si>
-  <si>
-    <t>9/2-13/2</t>
-  </si>
-  <si>
-    <t>NHẬP HÀNG</t>
   </si>
   <si>
     <t>váy tím 2 dây hở vai</t>
@@ -412,7 +382,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -435,24 +405,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -475,9 +432,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -497,6 +451,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -509,107 +467,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -620,20 +482,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D92840C5-9F59-4CFF-AA8F-1DE3C4BFD589}" name="Table1" displayName="Table1" ref="M7:Q63" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="M7:Q63" xr:uid="{3085D904-27ED-4CDB-A283-BD2E4ED85299}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8F59569D-8BD2-48C7-A94C-C24FFD53D274}" name="HÀNG ORDER ĐỢT" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{F73D6532-4105-4E43-9225-3FB7628FC01C}" name="PHÍ SHIP CẢ LÔ" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{5A071A4E-D553-4D41-A856-7BFE5E1083E4}" name="TỔNG THU" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{C279D3FC-3E2A-4CCA-B05C-9A2C8FA01033}" name="NHẬP HÀNG" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{6E1AF0B9-D769-4A33-AB90-05795BF6A00A}" name="LỢI NHUẬN" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -899,15 +747,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q552"/>
+  <dimension ref="A1:K551"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" style="30" customWidth="1"/>
+    <col min="1" max="1" width="5.36328125" style="25" customWidth="1"/>
     <col min="2" max="2" width="19" style="9" customWidth="1"/>
     <col min="3" max="3" width="23.54296875" style="9" customWidth="1"/>
     <col min="4" max="4" width="13.08984375" style="13" customWidth="1"/>
@@ -918,88 +766,82 @@
     <col min="9" max="9" width="11.6328125" style="8" customWidth="1"/>
     <col min="10" max="10" width="11" style="8" customWidth="1"/>
     <col min="11" max="11" width="27.54296875" style="8" customWidth="1"/>
-    <col min="12" max="12" width="14.6328125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="18.6328125" style="8" customWidth="1"/>
-    <col min="14" max="14" width="16.08984375" style="8" customWidth="1"/>
-    <col min="15" max="15" width="13.1796875" style="8" customWidth="1"/>
-    <col min="16" max="16" width="10.26953125" style="8" customWidth="1"/>
-    <col min="17" max="17" width="12.54296875" style="8" customWidth="1"/>
-    <col min="18" max="16384" width="8.7265625" style="8"/>
+    <col min="12" max="16384" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D4" s="27" t="s">
+    <row r="1" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D4" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="30"/>
+      <c r="F4" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>54</v>
-      </c>
       <c r="K4" s="8">
-        <f>SUM(H8:H26)</f>
-        <v>5741000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="16">
+        <f>SUM(H8:H25)</f>
+        <v>5552000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="15">
         <v>1</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="15">
         <v>56</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <v>15000</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="15">
         <v>35000</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="15">
         <f>F5*G5*3850 +H5+I5</f>
         <v>265600</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="31" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1021,48 +863,33 @@
         <v>6</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P7" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q7" s="8" t="s">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="28">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="33">
-        <v>1</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>69</v>
+      <c r="C8" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -1077,31 +904,28 @@
         <v>0</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" ref="J8:J13" si="0">H8:H552-I8:I552</f>
+        <f t="shared" ref="J8:J13" si="0">H8:H551-I8:I551</f>
         <v>420000</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="33">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="28">
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -1120,24 +944,24 @@
         <v>450000</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="33">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="28">
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F10" s="5">
         <v>1</v>
@@ -1156,24 +980,24 @@
         <v>175000</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="33">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="28">
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F11" s="5">
         <v>1</v>
@@ -1192,24 +1016,24 @@
         <v>85000</v>
       </c>
       <c r="K11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="28">
+        <v>5</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="33">
-        <v>5</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="F12" s="5">
         <v>1</v>
@@ -1228,24 +1052,24 @@
         <v>80000</v>
       </c>
       <c r="K12" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="28">
+        <v>6</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="33">
-        <v>6</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="E13" s="5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
@@ -1264,58 +1088,58 @@
         <v>820000</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="32">
-        <v>8</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="28">
+        <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
       </c>
-      <c r="G14" s="14"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="5">
-        <v>189000</v>
+        <v>210000</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
       </c>
       <c r="J14" s="5">
-        <f t="shared" ref="J14:J16" si="1">H14:H559-I14:I559</f>
-        <v>189000</v>
+        <f t="shared" ref="J14:J15" si="1">H14:H559-I14:I559</f>
+        <v>210000</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="33">
-        <v>9</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="28">
+        <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>38</v>
+        <v>28</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
@@ -1332,367 +1156,351 @@
         <v>210000</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="33">
-        <v>10</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="28">
+        <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>38</v>
+      <c r="C16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="F16" s="5">
         <v>1</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5">
-        <v>210000</v>
+        <v>440000</v>
       </c>
       <c r="I16" s="5">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" si="1"/>
-        <v>210000</v>
+        <f>H16:H563-I16:I563</f>
+        <v>340000</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="33">
-        <v>13</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="28">
+        <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F17" s="5">
         <v>1</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5">
-        <v>440000</v>
+        <v>332000</v>
       </c>
       <c r="I17" s="5">
         <v>100000</v>
       </c>
       <c r="J17" s="5">
-        <f>H17:H564-I17:I564</f>
-        <v>340000</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="33">
-        <v>16</v>
+        <f>H17:H566-I17:I566</f>
+        <v>232000</v>
+      </c>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="28">
+        <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>55</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F18" s="5">
         <v>1</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5">
-        <v>332000</v>
+        <v>230000</v>
       </c>
       <c r="I18" s="5">
-        <v>100000</v>
+        <v>70000</v>
       </c>
       <c r="J18" s="5">
         <f>H18:H567-I18:I567</f>
-        <v>232000</v>
-      </c>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="33">
-        <v>17</v>
+        <v>160000</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="28">
+        <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="25" t="s">
         <v>61</v>
       </c>
+      <c r="C19" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="D19" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F19" s="5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5">
-        <v>230000</v>
+        <v>880000</v>
       </c>
       <c r="I19" s="5">
-        <v>70000</v>
+        <v>440000</v>
       </c>
       <c r="J19" s="5">
         <f>H19:H568-I19:I568</f>
-        <v>160000</v>
-      </c>
-      <c r="K19" s="22" t="s">
-        <v>74</v>
+        <v>440000</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="33">
-        <v>18</v>
+      <c r="A20" s="28">
+        <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>51</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F20" s="5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5">
-        <v>880000</v>
+        <v>215000</v>
       </c>
       <c r="I20" s="5">
-        <v>440000</v>
+        <v>100000</v>
       </c>
       <c r="J20" s="5">
         <f>H20:H569-I20:I569</f>
-        <v>440000</v>
+        <v>115000</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="33">
-        <v>19</v>
+      <c r="A21" s="28">
+        <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>65</v>
+        <v>53</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>60</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="5">
+        <v>69</v>
+      </c>
+      <c r="F21" s="17">
         <v>1</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5">
-        <v>215000</v>
+        <v>205000</v>
       </c>
       <c r="I21" s="5">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J21" s="5">
         <f>H21:H570-I21:I570</f>
-        <v>115000</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>91</v>
-      </c>
+        <v>205000</v>
+      </c>
+      <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="33">
-        <v>20</v>
+      <c r="A22" s="28">
+        <v>22</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>66</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="22"/>
       <c r="E22" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="18">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="F22" s="5">
+        <v>3</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5">
-        <v>205000</v>
+        <v>330000</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
       <c r="J22" s="5">
-        <f>H22:H571-I22:I571</f>
-        <v>205000</v>
-      </c>
-      <c r="K22" s="5"/>
+        <f t="shared" ref="J22:J65" si="2">H22:H572-I22:I572</f>
+        <v>330000</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="33">
-        <v>22</v>
+      <c r="A23" s="28">
+        <v>23</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="23"/>
+        <v>77</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="11"/>
       <c r="E23" s="5" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F23" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5">
-        <v>330000</v>
+        <v>160000</v>
       </c>
       <c r="I23" s="5">
         <v>0</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" ref="J23:J66" si="2">H23:H573-I23:I573</f>
-        <v>330000</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>71</v>
-      </c>
+        <v>165000</v>
+      </c>
+      <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="33">
-        <v>23</v>
+      <c r="A24" s="28">
+        <v>24</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>69</v>
+        <v>77</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F24" s="5">
         <v>1</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5">
-        <v>160000</v>
+        <v>85000</v>
       </c>
       <c r="I24" s="5">
         <v>0</v>
       </c>
       <c r="J24" s="5">
-        <v>165000</v>
-      </c>
-      <c r="K24" s="5"/>
+        <f t="shared" si="2"/>
+        <v>85000</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="33">
-        <v>24</v>
+      <c r="A25" s="28">
+        <v>25</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>69</v>
+        <v>82</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F25" s="5">
         <v>1</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5">
-        <v>85000</v>
-      </c>
-      <c r="I25" s="5">
-        <v>0</v>
-      </c>
+        <v>225000</v>
+      </c>
+      <c r="I25" s="5"/>
       <c r="J25" s="5">
         <f t="shared" si="2"/>
-        <v>85000</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>36</v>
-      </c>
+        <v>225000</v>
+      </c>
+      <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="33">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>93</v>
-      </c>
+      <c r="A26" s="27">
+        <v>26</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" s="5">
-        <v>1</v>
-      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="5">
-        <v>225000</v>
-      </c>
+      <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5">
         <f t="shared" si="2"/>
-        <v>225000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="32">
-        <v>26</v>
+      <c r="A27" s="27">
+        <v>27</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1709,8 +1517,8 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="32">
-        <v>27</v>
+      <c r="A28" s="27">
+        <v>28</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1727,8 +1535,8 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="32">
-        <v>28</v>
+      <c r="A29" s="27">
+        <v>29</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1745,8 +1553,8 @@
       <c r="K29" s="5"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="32">
-        <v>29</v>
+      <c r="A30" s="27">
+        <v>30</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -1763,8 +1571,8 @@
       <c r="K30" s="5"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="32">
-        <v>30</v>
+      <c r="A31" s="27">
+        <v>31</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1781,8 +1589,8 @@
       <c r="K31" s="5"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="32">
-        <v>31</v>
+      <c r="A32" s="27">
+        <v>32</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1799,8 +1607,8 @@
       <c r="K32" s="5"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="32">
-        <v>32</v>
+      <c r="A33" s="27">
+        <v>33</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1817,8 +1625,8 @@
       <c r="K33" s="5"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="32">
-        <v>33</v>
+      <c r="A34" s="27">
+        <v>34</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1835,8 +1643,8 @@
       <c r="K34" s="5"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="32">
-        <v>34</v>
+      <c r="A35" s="27">
+        <v>35</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1853,8 +1661,8 @@
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="32">
-        <v>35</v>
+      <c r="A36" s="27">
+        <v>36</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -1871,8 +1679,8 @@
       <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" s="32">
-        <v>36</v>
+      <c r="A37" s="27">
+        <v>37</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1889,8 +1697,8 @@
       <c r="K37" s="5"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" s="32">
-        <v>37</v>
+      <c r="A38" s="27">
+        <v>38</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -1907,8 +1715,8 @@
       <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="32">
-        <v>38</v>
+      <c r="A39" s="27">
+        <v>39</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -1925,8 +1733,8 @@
       <c r="K39" s="5"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" s="32">
-        <v>39</v>
+      <c r="A40" s="27">
+        <v>40</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -1943,8 +1751,8 @@
       <c r="K40" s="5"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="32">
-        <v>40</v>
+      <c r="A41" s="27">
+        <v>41</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -1961,8 +1769,8 @@
       <c r="K41" s="5"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" s="32">
-        <v>41</v>
+      <c r="A42" s="27">
+        <v>42</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -1979,8 +1787,8 @@
       <c r="K42" s="5"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" s="32">
-        <v>42</v>
+      <c r="A43" s="27">
+        <v>43</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -1997,8 +1805,8 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A44" s="32">
-        <v>43</v>
+      <c r="A44" s="27">
+        <v>44</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -2015,8 +1823,8 @@
       <c r="K44" s="5"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A45" s="32">
-        <v>44</v>
+      <c r="A45" s="27">
+        <v>45</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -2033,8 +1841,8 @@
       <c r="K45" s="5"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A46" s="32">
-        <v>45</v>
+      <c r="A46" s="27">
+        <v>46</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -2051,8 +1859,8 @@
       <c r="K46" s="5"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A47" s="32">
-        <v>46</v>
+      <c r="A47" s="27">
+        <v>47</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -2069,8 +1877,8 @@
       <c r="K47" s="5"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" s="32">
-        <v>47</v>
+      <c r="A48" s="27">
+        <v>48</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -2087,8 +1895,8 @@
       <c r="K48" s="5"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A49" s="32">
-        <v>48</v>
+      <c r="A49" s="27">
+        <v>49</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -2105,8 +1913,8 @@
       <c r="K49" s="5"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A50" s="32">
-        <v>49</v>
+      <c r="A50" s="27">
+        <v>50</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -2123,8 +1931,8 @@
       <c r="K50" s="5"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51" s="32">
-        <v>50</v>
+      <c r="A51" s="27">
+        <v>51</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -2141,8 +1949,8 @@
       <c r="K51" s="5"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A52" s="32">
-        <v>51</v>
+      <c r="A52" s="27">
+        <v>52</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -2159,8 +1967,8 @@
       <c r="K52" s="5"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" s="32">
-        <v>52</v>
+      <c r="A53" s="27">
+        <v>53</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -2177,8 +1985,8 @@
       <c r="K53" s="5"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A54" s="32">
-        <v>53</v>
+      <c r="A54" s="27">
+        <v>54</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -2195,8 +2003,8 @@
       <c r="K54" s="5"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A55" s="32">
-        <v>54</v>
+      <c r="A55" s="27">
+        <v>55</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -2213,8 +2021,8 @@
       <c r="K55" s="5"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A56" s="32">
-        <v>55</v>
+      <c r="A56" s="27">
+        <v>56</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -2231,8 +2039,8 @@
       <c r="K56" s="5"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A57" s="32">
-        <v>56</v>
+      <c r="A57" s="27">
+        <v>57</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -2249,8 +2057,8 @@
       <c r="K57" s="5"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A58" s="32">
-        <v>57</v>
+      <c r="A58" s="27">
+        <v>58</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -2267,8 +2075,8 @@
       <c r="K58" s="5"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A59" s="32">
-        <v>58</v>
+      <c r="A59" s="27">
+        <v>59</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -2285,8 +2093,8 @@
       <c r="K59" s="5"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A60" s="32">
-        <v>59</v>
+      <c r="A60" s="27">
+        <v>60</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -2303,8 +2111,8 @@
       <c r="K60" s="5"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A61" s="32">
-        <v>60</v>
+      <c r="A61" s="27">
+        <v>61</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -2321,8 +2129,8 @@
       <c r="K61" s="5"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A62" s="32">
-        <v>61</v>
+      <c r="A62" s="27">
+        <v>62</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -2339,8 +2147,8 @@
       <c r="K62" s="5"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A63" s="32">
-        <v>62</v>
+      <c r="A63" s="27">
+        <v>63</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -2357,8 +2165,8 @@
       <c r="K63" s="5"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A64" s="32">
-        <v>63</v>
+      <c r="A64" s="27">
+        <v>64</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -2375,8 +2183,8 @@
       <c r="K64" s="5"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A65" s="32">
-        <v>64</v>
+      <c r="A65" s="27">
+        <v>65</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -2393,8 +2201,8 @@
       <c r="K65" s="5"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A66" s="32">
-        <v>65</v>
+      <c r="A66" s="27">
+        <v>66</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -2405,14 +2213,14 @@
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J66:J129" si="3">H66:H616-I66:I616</f>
         <v>0</v>
       </c>
       <c r="K66" s="5"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A67" s="32">
-        <v>66</v>
+      <c r="A67" s="27">
+        <v>67</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -2423,14 +2231,14 @@
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5">
-        <f t="shared" ref="J67:J130" si="3">H67:H617-I67:I617</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K67" s="5"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A68" s="32">
-        <v>67</v>
+      <c r="A68" s="27">
+        <v>68</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -2447,8 +2255,8 @@
       <c r="K68" s="5"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A69" s="32">
-        <v>68</v>
+      <c r="A69" s="27">
+        <v>69</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -2465,8 +2273,8 @@
       <c r="K69" s="5"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A70" s="32">
-        <v>69</v>
+      <c r="A70" s="27">
+        <v>70</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -2483,8 +2291,8 @@
       <c r="K70" s="5"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A71" s="32">
-        <v>70</v>
+      <c r="A71" s="27">
+        <v>71</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -2501,8 +2309,8 @@
       <c r="K71" s="5"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A72" s="32">
-        <v>71</v>
+      <c r="A72" s="27">
+        <v>72</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -2519,8 +2327,8 @@
       <c r="K72" s="5"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A73" s="32">
-        <v>72</v>
+      <c r="A73" s="27">
+        <v>73</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -2537,8 +2345,8 @@
       <c r="K73" s="5"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A74" s="32">
-        <v>73</v>
+      <c r="A74" s="27">
+        <v>74</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -2555,8 +2363,8 @@
       <c r="K74" s="5"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A75" s="32">
-        <v>74</v>
+      <c r="A75" s="27">
+        <v>75</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -2573,8 +2381,8 @@
       <c r="K75" s="5"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A76" s="32">
-        <v>75</v>
+      <c r="A76" s="27">
+        <v>76</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -2591,8 +2399,8 @@
       <c r="K76" s="5"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A77" s="32">
-        <v>76</v>
+      <c r="A77" s="27">
+        <v>77</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -2609,8 +2417,8 @@
       <c r="K77" s="5"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A78" s="32">
-        <v>77</v>
+      <c r="A78" s="27">
+        <v>78</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -2627,8 +2435,8 @@
       <c r="K78" s="5"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A79" s="32">
-        <v>78</v>
+      <c r="A79" s="27">
+        <v>79</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -2645,8 +2453,8 @@
       <c r="K79" s="5"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A80" s="32">
-        <v>79</v>
+      <c r="A80" s="27">
+        <v>80</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -2663,8 +2471,8 @@
       <c r="K80" s="5"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A81" s="32">
-        <v>80</v>
+      <c r="A81" s="27">
+        <v>81</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -2681,8 +2489,8 @@
       <c r="K81" s="5"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A82" s="32">
-        <v>81</v>
+      <c r="A82" s="27">
+        <v>82</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -2699,8 +2507,8 @@
       <c r="K82" s="5"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A83" s="32">
-        <v>82</v>
+      <c r="A83" s="27">
+        <v>83</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -2717,8 +2525,8 @@
       <c r="K83" s="5"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A84" s="32">
-        <v>83</v>
+      <c r="A84" s="27">
+        <v>84</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -2735,8 +2543,8 @@
       <c r="K84" s="5"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A85" s="32">
-        <v>84</v>
+      <c r="A85" s="27">
+        <v>85</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -2753,8 +2561,8 @@
       <c r="K85" s="5"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A86" s="32">
-        <v>85</v>
+      <c r="A86" s="27">
+        <v>86</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -2771,8 +2579,8 @@
       <c r="K86" s="5"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A87" s="32">
-        <v>86</v>
+      <c r="A87" s="27">
+        <v>87</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -2789,8 +2597,8 @@
       <c r="K87" s="5"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A88" s="32">
-        <v>87</v>
+      <c r="A88" s="27">
+        <v>88</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -2807,8 +2615,8 @@
       <c r="K88" s="5"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A89" s="32">
-        <v>88</v>
+      <c r="A89" s="27">
+        <v>89</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -2825,8 +2633,8 @@
       <c r="K89" s="5"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A90" s="32">
-        <v>89</v>
+      <c r="A90" s="27">
+        <v>90</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -2843,8 +2651,8 @@
       <c r="K90" s="5"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A91" s="32">
-        <v>90</v>
+      <c r="A91" s="27">
+        <v>91</v>
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -2861,8 +2669,8 @@
       <c r="K91" s="5"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A92" s="32">
-        <v>91</v>
+      <c r="A92" s="27">
+        <v>92</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -2879,8 +2687,8 @@
       <c r="K92" s="5"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A93" s="32">
-        <v>92</v>
+      <c r="A93" s="27">
+        <v>93</v>
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -2897,8 +2705,8 @@
       <c r="K93" s="5"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A94" s="32">
-        <v>93</v>
+      <c r="A94" s="27">
+        <v>94</v>
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -2915,8 +2723,8 @@
       <c r="K94" s="5"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A95" s="32">
-        <v>94</v>
+      <c r="A95" s="27">
+        <v>95</v>
       </c>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -2933,8 +2741,8 @@
       <c r="K95" s="5"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A96" s="32">
-        <v>95</v>
+      <c r="A96" s="27">
+        <v>96</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -2951,8 +2759,8 @@
       <c r="K96" s="5"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A97" s="32">
-        <v>96</v>
+      <c r="A97" s="27">
+        <v>97</v>
       </c>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -2969,8 +2777,8 @@
       <c r="K97" s="5"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A98" s="32">
-        <v>97</v>
+      <c r="A98" s="27">
+        <v>98</v>
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -2987,8 +2795,8 @@
       <c r="K98" s="5"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A99" s="32">
-        <v>98</v>
+      <c r="A99" s="27">
+        <v>99</v>
       </c>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -3005,8 +2813,8 @@
       <c r="K99" s="5"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A100" s="32">
-        <v>99</v>
+      <c r="A100" s="27">
+        <v>100</v>
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -3023,8 +2831,8 @@
       <c r="K100" s="5"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A101" s="32">
-        <v>100</v>
+      <c r="A101" s="27">
+        <v>101</v>
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -3041,8 +2849,8 @@
       <c r="K101" s="5"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A102" s="32">
-        <v>101</v>
+      <c r="A102" s="27">
+        <v>102</v>
       </c>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -3059,8 +2867,8 @@
       <c r="K102" s="5"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A103" s="32">
-        <v>102</v>
+      <c r="A103" s="27">
+        <v>103</v>
       </c>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -3077,8 +2885,8 @@
       <c r="K103" s="5"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A104" s="32">
-        <v>103</v>
+      <c r="A104" s="27">
+        <v>104</v>
       </c>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -3095,8 +2903,8 @@
       <c r="K104" s="5"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A105" s="32">
-        <v>104</v>
+      <c r="A105" s="27">
+        <v>105</v>
       </c>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -3113,8 +2921,8 @@
       <c r="K105" s="5"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A106" s="32">
-        <v>105</v>
+      <c r="A106" s="27">
+        <v>106</v>
       </c>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -3131,8 +2939,8 @@
       <c r="K106" s="5"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A107" s="32">
-        <v>106</v>
+      <c r="A107" s="27">
+        <v>107</v>
       </c>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -3149,8 +2957,8 @@
       <c r="K107" s="5"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A108" s="32">
-        <v>107</v>
+      <c r="A108" s="27">
+        <v>108</v>
       </c>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
@@ -3167,8 +2975,8 @@
       <c r="K108" s="5"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A109" s="32">
-        <v>108</v>
+      <c r="A109" s="27">
+        <v>109</v>
       </c>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -3185,8 +2993,8 @@
       <c r="K109" s="5"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A110" s="32">
-        <v>109</v>
+      <c r="A110" s="27">
+        <v>110</v>
       </c>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -3203,8 +3011,8 @@
       <c r="K110" s="5"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A111" s="32">
-        <v>110</v>
+      <c r="A111" s="27">
+        <v>111</v>
       </c>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -3221,8 +3029,8 @@
       <c r="K111" s="5"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A112" s="32">
-        <v>111</v>
+      <c r="A112" s="27">
+        <v>112</v>
       </c>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -3239,8 +3047,8 @@
       <c r="K112" s="5"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A113" s="32">
-        <v>112</v>
+      <c r="A113" s="27">
+        <v>113</v>
       </c>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -3257,8 +3065,8 @@
       <c r="K113" s="5"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A114" s="32">
-        <v>113</v>
+      <c r="A114" s="27">
+        <v>114</v>
       </c>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
@@ -3275,8 +3083,8 @@
       <c r="K114" s="5"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A115" s="32">
-        <v>114</v>
+      <c r="A115" s="27">
+        <v>115</v>
       </c>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
@@ -3293,8 +3101,8 @@
       <c r="K115" s="5"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A116" s="32">
-        <v>115</v>
+      <c r="A116" s="27">
+        <v>116</v>
       </c>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
@@ -3311,8 +3119,8 @@
       <c r="K116" s="5"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A117" s="32">
-        <v>116</v>
+      <c r="A117" s="27">
+        <v>117</v>
       </c>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -3329,8 +3137,8 @@
       <c r="K117" s="5"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A118" s="32">
-        <v>117</v>
+      <c r="A118" s="27">
+        <v>118</v>
       </c>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
@@ -3347,8 +3155,8 @@
       <c r="K118" s="5"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A119" s="32">
-        <v>118</v>
+      <c r="A119" s="27">
+        <v>119</v>
       </c>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -3365,8 +3173,8 @@
       <c r="K119" s="5"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A120" s="32">
-        <v>119</v>
+      <c r="A120" s="27">
+        <v>120</v>
       </c>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -3383,8 +3191,8 @@
       <c r="K120" s="5"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A121" s="32">
-        <v>120</v>
+      <c r="A121" s="27">
+        <v>121</v>
       </c>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
@@ -3401,8 +3209,8 @@
       <c r="K121" s="5"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A122" s="32">
-        <v>121</v>
+      <c r="A122" s="27">
+        <v>122</v>
       </c>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
@@ -3419,8 +3227,8 @@
       <c r="K122" s="5"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A123" s="32">
-        <v>122</v>
+      <c r="A123" s="27">
+        <v>123</v>
       </c>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
@@ -3437,8 +3245,8 @@
       <c r="K123" s="5"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A124" s="32">
-        <v>123</v>
+      <c r="A124" s="27">
+        <v>124</v>
       </c>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
@@ -3455,8 +3263,8 @@
       <c r="K124" s="5"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A125" s="32">
-        <v>124</v>
+      <c r="A125" s="27">
+        <v>125</v>
       </c>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
@@ -3473,8 +3281,8 @@
       <c r="K125" s="5"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A126" s="32">
-        <v>125</v>
+      <c r="A126" s="27">
+        <v>126</v>
       </c>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
@@ -3491,8 +3299,8 @@
       <c r="K126" s="5"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A127" s="32">
-        <v>126</v>
+      <c r="A127" s="27">
+        <v>127</v>
       </c>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
@@ -3509,8 +3317,8 @@
       <c r="K127" s="5"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A128" s="32">
-        <v>127</v>
+      <c r="A128" s="27">
+        <v>128</v>
       </c>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
@@ -3527,8 +3335,8 @@
       <c r="K128" s="5"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A129" s="32">
-        <v>128</v>
+      <c r="A129" s="27">
+        <v>129</v>
       </c>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
@@ -3545,8 +3353,8 @@
       <c r="K129" s="5"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A130" s="32">
-        <v>129</v>
+      <c r="A130" s="27">
+        <v>130</v>
       </c>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
@@ -3557,14 +3365,14 @@
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
       <c r="J130" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J130:J193" si="4">H130:H680-I130:I680</f>
         <v>0</v>
       </c>
       <c r="K130" s="5"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A131" s="32">
-        <v>130</v>
+      <c r="A131" s="27">
+        <v>131</v>
       </c>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
@@ -3575,14 +3383,14 @@
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
       <c r="J131" s="5">
-        <f t="shared" ref="J131:J194" si="4">H131:H681-I131:I681</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K131" s="5"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A132" s="32">
-        <v>131</v>
+      <c r="A132" s="27">
+        <v>132</v>
       </c>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
@@ -3599,8 +3407,8 @@
       <c r="K132" s="5"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A133" s="32">
-        <v>132</v>
+      <c r="A133" s="27">
+        <v>133</v>
       </c>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
@@ -3617,8 +3425,8 @@
       <c r="K133" s="5"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A134" s="32">
-        <v>133</v>
+      <c r="A134" s="27">
+        <v>134</v>
       </c>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
@@ -3635,8 +3443,8 @@
       <c r="K134" s="5"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A135" s="32">
-        <v>134</v>
+      <c r="A135" s="27">
+        <v>135</v>
       </c>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
@@ -3653,8 +3461,8 @@
       <c r="K135" s="5"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A136" s="32">
-        <v>135</v>
+      <c r="A136" s="27">
+        <v>136</v>
       </c>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
@@ -3671,8 +3479,8 @@
       <c r="K136" s="5"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A137" s="32">
-        <v>136</v>
+      <c r="A137" s="27">
+        <v>137</v>
       </c>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
@@ -3689,8 +3497,8 @@
       <c r="K137" s="5"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A138" s="32">
-        <v>137</v>
+      <c r="A138" s="27">
+        <v>138</v>
       </c>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
@@ -3707,8 +3515,8 @@
       <c r="K138" s="5"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A139" s="32">
-        <v>138</v>
+      <c r="A139" s="27">
+        <v>139</v>
       </c>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
@@ -3725,8 +3533,8 @@
       <c r="K139" s="5"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A140" s="32">
-        <v>139</v>
+      <c r="A140" s="27">
+        <v>140</v>
       </c>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
@@ -3743,8 +3551,8 @@
       <c r="K140" s="5"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A141" s="32">
-        <v>140</v>
+      <c r="A141" s="27">
+        <v>141</v>
       </c>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
@@ -3761,8 +3569,8 @@
       <c r="K141" s="5"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A142" s="32">
-        <v>141</v>
+      <c r="A142" s="27">
+        <v>142</v>
       </c>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
@@ -3779,8 +3587,8 @@
       <c r="K142" s="5"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A143" s="32">
-        <v>142</v>
+      <c r="A143" s="27">
+        <v>143</v>
       </c>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
@@ -3797,8 +3605,8 @@
       <c r="K143" s="5"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A144" s="32">
-        <v>143</v>
+      <c r="A144" s="27">
+        <v>144</v>
       </c>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
@@ -3815,8 +3623,8 @@
       <c r="K144" s="5"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A145" s="32">
-        <v>144</v>
+      <c r="A145" s="27">
+        <v>145</v>
       </c>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
@@ -3833,8 +3641,8 @@
       <c r="K145" s="5"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A146" s="32">
-        <v>145</v>
+      <c r="A146" s="27">
+        <v>146</v>
       </c>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
@@ -3851,8 +3659,8 @@
       <c r="K146" s="5"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A147" s="32">
-        <v>146</v>
+      <c r="A147" s="27">
+        <v>147</v>
       </c>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
@@ -3869,8 +3677,8 @@
       <c r="K147" s="5"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A148" s="32">
-        <v>147</v>
+      <c r="A148" s="27">
+        <v>148</v>
       </c>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
@@ -3887,8 +3695,8 @@
       <c r="K148" s="5"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A149" s="32">
-        <v>148</v>
+      <c r="A149" s="27">
+        <v>149</v>
       </c>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
@@ -3905,8 +3713,8 @@
       <c r="K149" s="5"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A150" s="32">
-        <v>149</v>
+      <c r="A150" s="27">
+        <v>150</v>
       </c>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
@@ -3923,8 +3731,8 @@
       <c r="K150" s="5"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A151" s="32">
-        <v>150</v>
+      <c r="A151" s="27">
+        <v>151</v>
       </c>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
@@ -3941,8 +3749,8 @@
       <c r="K151" s="5"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A152" s="32">
-        <v>151</v>
+      <c r="A152" s="27">
+        <v>152</v>
       </c>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
@@ -3959,8 +3767,8 @@
       <c r="K152" s="5"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A153" s="32">
-        <v>152</v>
+      <c r="A153" s="27">
+        <v>153</v>
       </c>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
@@ -3977,8 +3785,8 @@
       <c r="K153" s="5"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A154" s="32">
-        <v>153</v>
+      <c r="A154" s="27">
+        <v>154</v>
       </c>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
@@ -3995,8 +3803,8 @@
       <c r="K154" s="5"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A155" s="32">
-        <v>154</v>
+      <c r="A155" s="27">
+        <v>155</v>
       </c>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
@@ -4013,8 +3821,8 @@
       <c r="K155" s="5"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A156" s="32">
-        <v>155</v>
+      <c r="A156" s="27">
+        <v>156</v>
       </c>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
@@ -4031,8 +3839,8 @@
       <c r="K156" s="5"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A157" s="32">
-        <v>156</v>
+      <c r="A157" s="27">
+        <v>157</v>
       </c>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
@@ -4049,8 +3857,8 @@
       <c r="K157" s="5"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A158" s="32">
-        <v>157</v>
+      <c r="A158" s="27">
+        <v>158</v>
       </c>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
@@ -4067,8 +3875,8 @@
       <c r="K158" s="5"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A159" s="32">
-        <v>158</v>
+      <c r="A159" s="27">
+        <v>159</v>
       </c>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
@@ -4085,8 +3893,8 @@
       <c r="K159" s="5"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A160" s="32">
-        <v>159</v>
+      <c r="A160" s="27">
+        <v>160</v>
       </c>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
@@ -4103,8 +3911,8 @@
       <c r="K160" s="5"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A161" s="32">
-        <v>160</v>
+      <c r="A161" s="27">
+        <v>161</v>
       </c>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
@@ -4121,8 +3929,8 @@
       <c r="K161" s="5"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A162" s="32">
-        <v>161</v>
+      <c r="A162" s="27">
+        <v>162</v>
       </c>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
@@ -4139,8 +3947,8 @@
       <c r="K162" s="5"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A163" s="32">
-        <v>162</v>
+      <c r="A163" s="27">
+        <v>163</v>
       </c>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
@@ -4157,8 +3965,8 @@
       <c r="K163" s="5"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A164" s="32">
-        <v>163</v>
+      <c r="A164" s="27">
+        <v>164</v>
       </c>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
@@ -4175,8 +3983,8 @@
       <c r="K164" s="5"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A165" s="32">
-        <v>164</v>
+      <c r="A165" s="27">
+        <v>165</v>
       </c>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
@@ -4193,8 +4001,8 @@
       <c r="K165" s="5"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A166" s="32">
-        <v>165</v>
+      <c r="A166" s="27">
+        <v>166</v>
       </c>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
@@ -4211,8 +4019,8 @@
       <c r="K166" s="5"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A167" s="32">
-        <v>166</v>
+      <c r="A167" s="27">
+        <v>167</v>
       </c>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
@@ -4229,8 +4037,8 @@
       <c r="K167" s="5"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A168" s="32">
-        <v>167</v>
+      <c r="A168" s="27">
+        <v>168</v>
       </c>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
@@ -4247,8 +4055,8 @@
       <c r="K168" s="5"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A169" s="32">
-        <v>168</v>
+      <c r="A169" s="27">
+        <v>169</v>
       </c>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
@@ -4265,8 +4073,8 @@
       <c r="K169" s="5"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A170" s="32">
-        <v>169</v>
+      <c r="A170" s="27">
+        <v>170</v>
       </c>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
@@ -4283,8 +4091,8 @@
       <c r="K170" s="5"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A171" s="32">
-        <v>170</v>
+      <c r="A171" s="27">
+        <v>171</v>
       </c>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
@@ -4301,8 +4109,8 @@
       <c r="K171" s="5"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A172" s="32">
-        <v>171</v>
+      <c r="A172" s="27">
+        <v>172</v>
       </c>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
@@ -4319,8 +4127,8 @@
       <c r="K172" s="5"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A173" s="32">
-        <v>172</v>
+      <c r="A173" s="27">
+        <v>173</v>
       </c>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
@@ -4337,8 +4145,8 @@
       <c r="K173" s="5"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A174" s="32">
-        <v>173</v>
+      <c r="A174" s="27">
+        <v>174</v>
       </c>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
@@ -4355,8 +4163,8 @@
       <c r="K174" s="5"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A175" s="32">
-        <v>174</v>
+      <c r="A175" s="27">
+        <v>175</v>
       </c>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
@@ -4373,8 +4181,8 @@
       <c r="K175" s="5"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A176" s="32">
-        <v>175</v>
+      <c r="A176" s="27">
+        <v>176</v>
       </c>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
@@ -4391,8 +4199,8 @@
       <c r="K176" s="5"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A177" s="32">
-        <v>176</v>
+      <c r="A177" s="27">
+        <v>177</v>
       </c>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
@@ -4409,8 +4217,8 @@
       <c r="K177" s="5"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A178" s="32">
-        <v>177</v>
+      <c r="A178" s="27">
+        <v>178</v>
       </c>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
@@ -4427,8 +4235,8 @@
       <c r="K178" s="5"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A179" s="32">
-        <v>178</v>
+      <c r="A179" s="27">
+        <v>179</v>
       </c>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
@@ -4445,8 +4253,8 @@
       <c r="K179" s="5"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A180" s="32">
-        <v>179</v>
+      <c r="A180" s="27">
+        <v>180</v>
       </c>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
@@ -4463,8 +4271,8 @@
       <c r="K180" s="5"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A181" s="32">
-        <v>180</v>
+      <c r="A181" s="27">
+        <v>181</v>
       </c>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
@@ -4481,8 +4289,8 @@
       <c r="K181" s="5"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A182" s="32">
-        <v>181</v>
+      <c r="A182" s="27">
+        <v>182</v>
       </c>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
@@ -4499,8 +4307,8 @@
       <c r="K182" s="5"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A183" s="32">
-        <v>182</v>
+      <c r="A183" s="27">
+        <v>183</v>
       </c>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
@@ -4517,8 +4325,8 @@
       <c r="K183" s="5"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A184" s="32">
-        <v>183</v>
+      <c r="A184" s="27">
+        <v>184</v>
       </c>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
@@ -4535,8 +4343,8 @@
       <c r="K184" s="5"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A185" s="32">
-        <v>184</v>
+      <c r="A185" s="27">
+        <v>185</v>
       </c>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
@@ -4553,8 +4361,8 @@
       <c r="K185" s="5"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A186" s="32">
-        <v>185</v>
+      <c r="A186" s="27">
+        <v>186</v>
       </c>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
@@ -4571,8 +4379,8 @@
       <c r="K186" s="5"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A187" s="32">
-        <v>186</v>
+      <c r="A187" s="27">
+        <v>187</v>
       </c>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
@@ -4589,8 +4397,8 @@
       <c r="K187" s="5"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A188" s="32">
-        <v>187</v>
+      <c r="A188" s="27">
+        <v>188</v>
       </c>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
@@ -4607,8 +4415,8 @@
       <c r="K188" s="5"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A189" s="32">
-        <v>188</v>
+      <c r="A189" s="27">
+        <v>189</v>
       </c>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
@@ -4625,8 +4433,8 @@
       <c r="K189" s="5"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A190" s="32">
-        <v>189</v>
+      <c r="A190" s="27">
+        <v>190</v>
       </c>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
@@ -4643,8 +4451,8 @@
       <c r="K190" s="5"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A191" s="32">
-        <v>190</v>
+      <c r="A191" s="27">
+        <v>191</v>
       </c>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
@@ -4661,8 +4469,8 @@
       <c r="K191" s="5"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A192" s="32">
-        <v>191</v>
+      <c r="A192" s="27">
+        <v>192</v>
       </c>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
@@ -4679,8 +4487,8 @@
       <c r="K192" s="5"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A193" s="32">
-        <v>192</v>
+      <c r="A193" s="27">
+        <v>193</v>
       </c>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
@@ -4697,8 +4505,8 @@
       <c r="K193" s="5"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A194" s="32">
-        <v>193</v>
+      <c r="A194" s="27">
+        <v>194</v>
       </c>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
@@ -4709,14 +4517,14 @@
       <c r="H194" s="5"/>
       <c r="I194" s="5"/>
       <c r="J194" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="J194:J257" si="5">H194:H744-I194:I744</f>
         <v>0</v>
       </c>
       <c r="K194" s="5"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A195" s="32">
-        <v>194</v>
+      <c r="A195" s="27">
+        <v>195</v>
       </c>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
@@ -4727,14 +4535,14 @@
       <c r="H195" s="5"/>
       <c r="I195" s="5"/>
       <c r="J195" s="5">
-        <f t="shared" ref="J195:J258" si="5">H195:H745-I195:I745</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K195" s="5"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A196" s="32">
-        <v>195</v>
+      <c r="A196" s="27">
+        <v>196</v>
       </c>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
@@ -4751,8 +4559,8 @@
       <c r="K196" s="5"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A197" s="32">
-        <v>196</v>
+      <c r="A197" s="27">
+        <v>197</v>
       </c>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
@@ -4769,8 +4577,8 @@
       <c r="K197" s="5"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A198" s="32">
-        <v>197</v>
+      <c r="A198" s="27">
+        <v>198</v>
       </c>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
@@ -4787,8 +4595,8 @@
       <c r="K198" s="5"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A199" s="32">
-        <v>198</v>
+      <c r="A199" s="27">
+        <v>199</v>
       </c>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
@@ -4805,8 +4613,8 @@
       <c r="K199" s="5"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A200" s="32">
-        <v>199</v>
+      <c r="A200" s="27">
+        <v>200</v>
       </c>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
@@ -4823,8 +4631,8 @@
       <c r="K200" s="5"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A201" s="32">
-        <v>200</v>
+      <c r="A201" s="27">
+        <v>201</v>
       </c>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
@@ -4841,8 +4649,8 @@
       <c r="K201" s="5"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A202" s="32">
-        <v>201</v>
+      <c r="A202" s="27">
+        <v>202</v>
       </c>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
@@ -4859,8 +4667,8 @@
       <c r="K202" s="5"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A203" s="32">
-        <v>202</v>
+      <c r="A203" s="27">
+        <v>203</v>
       </c>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
@@ -4877,8 +4685,8 @@
       <c r="K203" s="5"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A204" s="32">
-        <v>203</v>
+      <c r="A204" s="27">
+        <v>204</v>
       </c>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
@@ -4895,8 +4703,8 @@
       <c r="K204" s="5"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A205" s="32">
-        <v>204</v>
+      <c r="A205" s="27">
+        <v>205</v>
       </c>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
@@ -4913,8 +4721,8 @@
       <c r="K205" s="5"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A206" s="32">
-        <v>205</v>
+      <c r="A206" s="27">
+        <v>206</v>
       </c>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
@@ -4931,8 +4739,8 @@
       <c r="K206" s="5"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A207" s="32">
-        <v>206</v>
+      <c r="A207" s="27">
+        <v>207</v>
       </c>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
@@ -4949,8 +4757,8 @@
       <c r="K207" s="5"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A208" s="32">
-        <v>207</v>
+      <c r="A208" s="27">
+        <v>208</v>
       </c>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
@@ -4967,8 +4775,8 @@
       <c r="K208" s="5"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A209" s="32">
-        <v>208</v>
+      <c r="A209" s="27">
+        <v>209</v>
       </c>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
@@ -4985,8 +4793,8 @@
       <c r="K209" s="5"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A210" s="32">
-        <v>209</v>
+      <c r="A210" s="27">
+        <v>210</v>
       </c>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
@@ -5003,8 +4811,8 @@
       <c r="K210" s="5"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A211" s="32">
-        <v>210</v>
+      <c r="A211" s="27">
+        <v>211</v>
       </c>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
@@ -5021,8 +4829,8 @@
       <c r="K211" s="5"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A212" s="32">
-        <v>211</v>
+      <c r="A212" s="27">
+        <v>212</v>
       </c>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
@@ -5039,8 +4847,8 @@
       <c r="K212" s="5"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A213" s="32">
-        <v>212</v>
+      <c r="A213" s="27">
+        <v>213</v>
       </c>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
@@ -5057,8 +4865,8 @@
       <c r="K213" s="5"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A214" s="32">
-        <v>213</v>
+      <c r="A214" s="27">
+        <v>214</v>
       </c>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
@@ -5075,8 +4883,8 @@
       <c r="K214" s="5"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A215" s="32">
-        <v>214</v>
+      <c r="A215" s="27">
+        <v>215</v>
       </c>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
@@ -5093,8 +4901,8 @@
       <c r="K215" s="5"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A216" s="32">
-        <v>215</v>
+      <c r="A216" s="27">
+        <v>216</v>
       </c>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
@@ -5111,8 +4919,8 @@
       <c r="K216" s="5"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A217" s="32">
-        <v>216</v>
+      <c r="A217" s="27">
+        <v>217</v>
       </c>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
@@ -5129,8 +4937,8 @@
       <c r="K217" s="5"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A218" s="32">
-        <v>217</v>
+      <c r="A218" s="27">
+        <v>218</v>
       </c>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
@@ -5147,8 +4955,8 @@
       <c r="K218" s="5"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A219" s="32">
-        <v>218</v>
+      <c r="A219" s="27">
+        <v>219</v>
       </c>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
@@ -5165,8 +4973,8 @@
       <c r="K219" s="5"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A220" s="32">
-        <v>219</v>
+      <c r="A220" s="27">
+        <v>220</v>
       </c>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
@@ -5183,8 +4991,8 @@
       <c r="K220" s="5"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A221" s="32">
-        <v>220</v>
+      <c r="A221" s="27">
+        <v>221</v>
       </c>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
@@ -5201,8 +5009,8 @@
       <c r="K221" s="5"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A222" s="32">
-        <v>221</v>
+      <c r="A222" s="27">
+        <v>222</v>
       </c>
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
@@ -5219,8 +5027,8 @@
       <c r="K222" s="5"/>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A223" s="32">
-        <v>222</v>
+      <c r="A223" s="27">
+        <v>223</v>
       </c>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
@@ -5237,8 +5045,8 @@
       <c r="K223" s="5"/>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A224" s="32">
-        <v>223</v>
+      <c r="A224" s="27">
+        <v>224</v>
       </c>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
@@ -5255,8 +5063,8 @@
       <c r="K224" s="5"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A225" s="32">
-        <v>224</v>
+      <c r="A225" s="27">
+        <v>225</v>
       </c>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
@@ -5273,8 +5081,8 @@
       <c r="K225" s="5"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A226" s="32">
-        <v>225</v>
+      <c r="A226" s="27">
+        <v>226</v>
       </c>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
@@ -5291,8 +5099,8 @@
       <c r="K226" s="5"/>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A227" s="32">
-        <v>226</v>
+      <c r="A227" s="27">
+        <v>227</v>
       </c>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
@@ -5309,8 +5117,8 @@
       <c r="K227" s="5"/>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A228" s="32">
-        <v>227</v>
+      <c r="A228" s="27">
+        <v>228</v>
       </c>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
@@ -5327,8 +5135,8 @@
       <c r="K228" s="5"/>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A229" s="32">
-        <v>228</v>
+      <c r="A229" s="27">
+        <v>229</v>
       </c>
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
@@ -5345,8 +5153,8 @@
       <c r="K229" s="5"/>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A230" s="32">
-        <v>229</v>
+      <c r="A230" s="27">
+        <v>230</v>
       </c>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
@@ -5363,8 +5171,8 @@
       <c r="K230" s="5"/>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A231" s="32">
-        <v>230</v>
+      <c r="A231" s="27">
+        <v>231</v>
       </c>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
@@ -5381,8 +5189,8 @@
       <c r="K231" s="5"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A232" s="32">
-        <v>231</v>
+      <c r="A232" s="27">
+        <v>232</v>
       </c>
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
@@ -5399,8 +5207,8 @@
       <c r="K232" s="5"/>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A233" s="32">
-        <v>232</v>
+      <c r="A233" s="27">
+        <v>233</v>
       </c>
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
@@ -5417,8 +5225,8 @@
       <c r="K233" s="5"/>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A234" s="32">
-        <v>233</v>
+      <c r="A234" s="27">
+        <v>234</v>
       </c>
       <c r="B234" s="6"/>
       <c r="C234" s="6"/>
@@ -5435,8 +5243,8 @@
       <c r="K234" s="5"/>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A235" s="32">
-        <v>234</v>
+      <c r="A235" s="27">
+        <v>235</v>
       </c>
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
@@ -5453,8 +5261,8 @@
       <c r="K235" s="5"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A236" s="32">
-        <v>235</v>
+      <c r="A236" s="27">
+        <v>236</v>
       </c>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
@@ -5471,8 +5279,8 @@
       <c r="K236" s="5"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A237" s="32">
-        <v>236</v>
+      <c r="A237" s="27">
+        <v>237</v>
       </c>
       <c r="B237" s="6"/>
       <c r="C237" s="6"/>
@@ -5489,8 +5297,8 @@
       <c r="K237" s="5"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A238" s="32">
-        <v>237</v>
+      <c r="A238" s="27">
+        <v>238</v>
       </c>
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
@@ -5507,8 +5315,8 @@
       <c r="K238" s="5"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A239" s="32">
-        <v>238</v>
+      <c r="A239" s="27">
+        <v>239</v>
       </c>
       <c r="B239" s="6"/>
       <c r="C239" s="6"/>
@@ -5525,8 +5333,8 @@
       <c r="K239" s="5"/>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A240" s="32">
-        <v>239</v>
+      <c r="A240" s="27">
+        <v>240</v>
       </c>
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
@@ -5543,8 +5351,8 @@
       <c r="K240" s="5"/>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A241" s="32">
-        <v>240</v>
+      <c r="A241" s="27">
+        <v>241</v>
       </c>
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
@@ -5561,8 +5369,8 @@
       <c r="K241" s="5"/>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A242" s="32">
-        <v>241</v>
+      <c r="A242" s="27">
+        <v>242</v>
       </c>
       <c r="B242" s="6"/>
       <c r="C242" s="6"/>
@@ -5579,8 +5387,8 @@
       <c r="K242" s="5"/>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A243" s="32">
-        <v>242</v>
+      <c r="A243" s="27">
+        <v>243</v>
       </c>
       <c r="B243" s="6"/>
       <c r="C243" s="6"/>
@@ -5597,8 +5405,8 @@
       <c r="K243" s="5"/>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A244" s="32">
-        <v>243</v>
+      <c r="A244" s="27">
+        <v>244</v>
       </c>
       <c r="B244" s="6"/>
       <c r="C244" s="6"/>
@@ -5615,8 +5423,8 @@
       <c r="K244" s="5"/>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A245" s="32">
-        <v>244</v>
+      <c r="A245" s="27">
+        <v>245</v>
       </c>
       <c r="B245" s="6"/>
       <c r="C245" s="6"/>
@@ -5633,8 +5441,8 @@
       <c r="K245" s="5"/>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A246" s="32">
-        <v>245</v>
+      <c r="A246" s="27">
+        <v>246</v>
       </c>
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
@@ -5651,8 +5459,8 @@
       <c r="K246" s="5"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A247" s="32">
-        <v>246</v>
+      <c r="A247" s="27">
+        <v>247</v>
       </c>
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
@@ -5669,8 +5477,8 @@
       <c r="K247" s="5"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A248" s="32">
-        <v>247</v>
+      <c r="A248" s="27">
+        <v>248</v>
       </c>
       <c r="B248" s="6"/>
       <c r="C248" s="6"/>
@@ -5687,8 +5495,8 @@
       <c r="K248" s="5"/>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A249" s="32">
-        <v>248</v>
+      <c r="A249" s="27">
+        <v>249</v>
       </c>
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
@@ -5705,8 +5513,8 @@
       <c r="K249" s="5"/>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A250" s="32">
-        <v>249</v>
+      <c r="A250" s="27">
+        <v>250</v>
       </c>
       <c r="B250" s="6"/>
       <c r="C250" s="6"/>
@@ -5723,8 +5531,8 @@
       <c r="K250" s="5"/>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A251" s="32">
-        <v>250</v>
+      <c r="A251" s="27">
+        <v>251</v>
       </c>
       <c r="B251" s="6"/>
       <c r="C251" s="6"/>
@@ -5741,8 +5549,8 @@
       <c r="K251" s="5"/>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A252" s="32">
-        <v>251</v>
+      <c r="A252" s="27">
+        <v>252</v>
       </c>
       <c r="B252" s="6"/>
       <c r="C252" s="6"/>
@@ -5759,8 +5567,8 @@
       <c r="K252" s="5"/>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A253" s="32">
-        <v>252</v>
+      <c r="A253" s="27">
+        <v>253</v>
       </c>
       <c r="B253" s="6"/>
       <c r="C253" s="6"/>
@@ -5777,8 +5585,8 @@
       <c r="K253" s="5"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A254" s="32">
-        <v>253</v>
+      <c r="A254" s="27">
+        <v>254</v>
       </c>
       <c r="B254" s="6"/>
       <c r="C254" s="6"/>
@@ -5795,8 +5603,8 @@
       <c r="K254" s="5"/>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A255" s="32">
-        <v>254</v>
+      <c r="A255" s="27">
+        <v>255</v>
       </c>
       <c r="B255" s="6"/>
       <c r="C255" s="6"/>
@@ -5813,8 +5621,8 @@
       <c r="K255" s="5"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A256" s="32">
-        <v>255</v>
+      <c r="A256" s="27">
+        <v>256</v>
       </c>
       <c r="B256" s="6"/>
       <c r="C256" s="6"/>
@@ -5831,8 +5639,8 @@
       <c r="K256" s="5"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A257" s="32">
-        <v>256</v>
+      <c r="A257" s="27">
+        <v>257</v>
       </c>
       <c r="B257" s="6"/>
       <c r="C257" s="6"/>
@@ -5849,8 +5657,8 @@
       <c r="K257" s="5"/>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A258" s="32">
-        <v>257</v>
+      <c r="A258" s="27">
+        <v>258</v>
       </c>
       <c r="B258" s="6"/>
       <c r="C258" s="6"/>
@@ -5861,14 +5669,14 @@
       <c r="H258" s="5"/>
       <c r="I258" s="5"/>
       <c r="J258" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="J258:J321" si="6">H258:H808-I258:I808</f>
         <v>0</v>
       </c>
       <c r="K258" s="5"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A259" s="32">
-        <v>258</v>
+      <c r="A259" s="27">
+        <v>259</v>
       </c>
       <c r="B259" s="6"/>
       <c r="C259" s="6"/>
@@ -5879,14 +5687,14 @@
       <c r="H259" s="5"/>
       <c r="I259" s="5"/>
       <c r="J259" s="5">
-        <f t="shared" ref="J259:J322" si="6">H259:H809-I259:I809</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K259" s="5"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A260" s="32">
-        <v>259</v>
+      <c r="A260" s="27">
+        <v>260</v>
       </c>
       <c r="B260" s="6"/>
       <c r="C260" s="6"/>
@@ -5903,8 +5711,8 @@
       <c r="K260" s="5"/>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A261" s="32">
-        <v>260</v>
+      <c r="A261" s="27">
+        <v>261</v>
       </c>
       <c r="B261" s="6"/>
       <c r="C261" s="6"/>
@@ -5921,8 +5729,8 @@
       <c r="K261" s="5"/>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A262" s="32">
-        <v>261</v>
+      <c r="A262" s="27">
+        <v>262</v>
       </c>
       <c r="B262" s="6"/>
       <c r="C262" s="6"/>
@@ -5939,8 +5747,8 @@
       <c r="K262" s="5"/>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A263" s="32">
-        <v>262</v>
+      <c r="A263" s="27">
+        <v>263</v>
       </c>
       <c r="B263" s="6"/>
       <c r="C263" s="6"/>
@@ -5957,8 +5765,8 @@
       <c r="K263" s="5"/>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A264" s="32">
-        <v>263</v>
+      <c r="A264" s="27">
+        <v>264</v>
       </c>
       <c r="B264" s="6"/>
       <c r="C264" s="6"/>
@@ -5975,8 +5783,8 @@
       <c r="K264" s="5"/>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A265" s="32">
-        <v>264</v>
+      <c r="A265" s="27">
+        <v>265</v>
       </c>
       <c r="B265" s="6"/>
       <c r="C265" s="6"/>
@@ -5993,8 +5801,8 @@
       <c r="K265" s="5"/>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A266" s="32">
-        <v>265</v>
+      <c r="A266" s="27">
+        <v>266</v>
       </c>
       <c r="B266" s="6"/>
       <c r="C266" s="6"/>
@@ -6011,8 +5819,8 @@
       <c r="K266" s="5"/>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A267" s="32">
-        <v>266</v>
+      <c r="A267" s="27">
+        <v>267</v>
       </c>
       <c r="B267" s="6"/>
       <c r="C267" s="6"/>
@@ -6029,8 +5837,8 @@
       <c r="K267" s="5"/>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A268" s="32">
-        <v>267</v>
+      <c r="A268" s="27">
+        <v>268</v>
       </c>
       <c r="B268" s="6"/>
       <c r="C268" s="6"/>
@@ -6047,8 +5855,8 @@
       <c r="K268" s="5"/>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A269" s="32">
-        <v>268</v>
+      <c r="A269" s="27">
+        <v>269</v>
       </c>
       <c r="B269" s="6"/>
       <c r="C269" s="6"/>
@@ -6065,8 +5873,8 @@
       <c r="K269" s="5"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A270" s="32">
-        <v>269</v>
+      <c r="A270" s="27">
+        <v>270</v>
       </c>
       <c r="B270" s="6"/>
       <c r="C270" s="6"/>
@@ -6083,8 +5891,8 @@
       <c r="K270" s="5"/>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A271" s="32">
-        <v>270</v>
+      <c r="A271" s="27">
+        <v>271</v>
       </c>
       <c r="B271" s="6"/>
       <c r="C271" s="6"/>
@@ -6101,8 +5909,8 @@
       <c r="K271" s="5"/>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A272" s="32">
-        <v>271</v>
+      <c r="A272" s="27">
+        <v>272</v>
       </c>
       <c r="B272" s="6"/>
       <c r="C272" s="6"/>
@@ -6119,8 +5927,8 @@
       <c r="K272" s="5"/>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A273" s="32">
-        <v>272</v>
+      <c r="A273" s="27">
+        <v>273</v>
       </c>
       <c r="B273" s="6"/>
       <c r="C273" s="6"/>
@@ -6137,8 +5945,8 @@
       <c r="K273" s="5"/>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A274" s="32">
-        <v>273</v>
+      <c r="A274" s="27">
+        <v>274</v>
       </c>
       <c r="B274" s="6"/>
       <c r="C274" s="6"/>
@@ -6155,8 +5963,8 @@
       <c r="K274" s="5"/>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A275" s="32">
-        <v>274</v>
+      <c r="A275" s="27">
+        <v>275</v>
       </c>
       <c r="B275" s="6"/>
       <c r="C275" s="6"/>
@@ -6173,8 +5981,8 @@
       <c r="K275" s="5"/>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A276" s="32">
-        <v>275</v>
+      <c r="A276" s="27">
+        <v>276</v>
       </c>
       <c r="B276" s="6"/>
       <c r="C276" s="6"/>
@@ -6191,8 +5999,8 @@
       <c r="K276" s="5"/>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A277" s="32">
-        <v>276</v>
+      <c r="A277" s="27">
+        <v>277</v>
       </c>
       <c r="B277" s="6"/>
       <c r="C277" s="6"/>
@@ -6209,8 +6017,8 @@
       <c r="K277" s="5"/>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A278" s="32">
-        <v>277</v>
+      <c r="A278" s="27">
+        <v>278</v>
       </c>
       <c r="B278" s="6"/>
       <c r="C278" s="6"/>
@@ -6227,8 +6035,8 @@
       <c r="K278" s="5"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A279" s="32">
-        <v>278</v>
+      <c r="A279" s="27">
+        <v>279</v>
       </c>
       <c r="B279" s="6"/>
       <c r="C279" s="6"/>
@@ -6245,8 +6053,8 @@
       <c r="K279" s="5"/>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A280" s="32">
-        <v>279</v>
+      <c r="A280" s="27">
+        <v>280</v>
       </c>
       <c r="B280" s="6"/>
       <c r="C280" s="6"/>
@@ -6263,8 +6071,8 @@
       <c r="K280" s="5"/>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A281" s="32">
-        <v>280</v>
+      <c r="A281" s="27">
+        <v>281</v>
       </c>
       <c r="B281" s="6"/>
       <c r="C281" s="6"/>
@@ -6281,8 +6089,8 @@
       <c r="K281" s="5"/>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A282" s="32">
-        <v>281</v>
+      <c r="A282" s="27">
+        <v>282</v>
       </c>
       <c r="B282" s="6"/>
       <c r="C282" s="6"/>
@@ -6299,8 +6107,8 @@
       <c r="K282" s="5"/>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A283" s="32">
-        <v>282</v>
+      <c r="A283" s="27">
+        <v>283</v>
       </c>
       <c r="B283" s="6"/>
       <c r="C283" s="6"/>
@@ -6317,8 +6125,8 @@
       <c r="K283" s="5"/>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A284" s="32">
-        <v>283</v>
+      <c r="A284" s="27">
+        <v>284</v>
       </c>
       <c r="B284" s="6"/>
       <c r="C284" s="6"/>
@@ -6335,8 +6143,8 @@
       <c r="K284" s="5"/>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A285" s="32">
-        <v>284</v>
+      <c r="A285" s="27">
+        <v>285</v>
       </c>
       <c r="B285" s="6"/>
       <c r="C285" s="6"/>
@@ -6353,8 +6161,8 @@
       <c r="K285" s="5"/>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A286" s="32">
-        <v>285</v>
+      <c r="A286" s="27">
+        <v>286</v>
       </c>
       <c r="B286" s="6"/>
       <c r="C286" s="6"/>
@@ -6371,8 +6179,8 @@
       <c r="K286" s="5"/>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A287" s="32">
-        <v>286</v>
+      <c r="A287" s="27">
+        <v>287</v>
       </c>
       <c r="B287" s="6"/>
       <c r="C287" s="6"/>
@@ -6389,8 +6197,8 @@
       <c r="K287" s="5"/>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A288" s="32">
-        <v>287</v>
+      <c r="A288" s="27">
+        <v>288</v>
       </c>
       <c r="B288" s="6"/>
       <c r="C288" s="6"/>
@@ -6407,8 +6215,8 @@
       <c r="K288" s="5"/>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A289" s="32">
-        <v>288</v>
+      <c r="A289" s="27">
+        <v>289</v>
       </c>
       <c r="B289" s="6"/>
       <c r="C289" s="6"/>
@@ -6425,8 +6233,8 @@
       <c r="K289" s="5"/>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A290" s="32">
-        <v>289</v>
+      <c r="A290" s="27">
+        <v>290</v>
       </c>
       <c r="B290" s="6"/>
       <c r="C290" s="6"/>
@@ -6443,8 +6251,8 @@
       <c r="K290" s="5"/>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A291" s="32">
-        <v>290</v>
+      <c r="A291" s="27">
+        <v>291</v>
       </c>
       <c r="B291" s="6"/>
       <c r="C291" s="6"/>
@@ -6461,8 +6269,8 @@
       <c r="K291" s="5"/>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A292" s="32">
-        <v>291</v>
+      <c r="A292" s="27">
+        <v>292</v>
       </c>
       <c r="B292" s="6"/>
       <c r="C292" s="6"/>
@@ -6479,8 +6287,8 @@
       <c r="K292" s="5"/>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A293" s="32">
-        <v>292</v>
+      <c r="A293" s="27">
+        <v>293</v>
       </c>
       <c r="B293" s="6"/>
       <c r="C293" s="6"/>
@@ -6497,8 +6305,8 @@
       <c r="K293" s="5"/>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A294" s="32">
-        <v>293</v>
+      <c r="A294" s="27">
+        <v>294</v>
       </c>
       <c r="B294" s="6"/>
       <c r="C294" s="6"/>
@@ -6515,8 +6323,8 @@
       <c r="K294" s="5"/>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A295" s="32">
-        <v>294</v>
+      <c r="A295" s="27">
+        <v>295</v>
       </c>
       <c r="B295" s="6"/>
       <c r="C295" s="6"/>
@@ -6533,8 +6341,8 @@
       <c r="K295" s="5"/>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A296" s="32">
-        <v>295</v>
+      <c r="A296" s="27">
+        <v>296</v>
       </c>
       <c r="B296" s="6"/>
       <c r="C296" s="6"/>
@@ -6551,8 +6359,8 @@
       <c r="K296" s="5"/>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A297" s="32">
-        <v>296</v>
+      <c r="A297" s="27">
+        <v>297</v>
       </c>
       <c r="B297" s="6"/>
       <c r="C297" s="6"/>
@@ -6569,8 +6377,8 @@
       <c r="K297" s="5"/>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A298" s="32">
-        <v>297</v>
+      <c r="A298" s="27">
+        <v>298</v>
       </c>
       <c r="B298" s="6"/>
       <c r="C298" s="6"/>
@@ -6587,8 +6395,8 @@
       <c r="K298" s="5"/>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A299" s="32">
-        <v>298</v>
+      <c r="A299" s="27">
+        <v>299</v>
       </c>
       <c r="B299" s="6"/>
       <c r="C299" s="6"/>
@@ -6605,8 +6413,8 @@
       <c r="K299" s="5"/>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A300" s="32">
-        <v>299</v>
+      <c r="A300" s="27">
+        <v>300</v>
       </c>
       <c r="B300" s="6"/>
       <c r="C300" s="6"/>
@@ -6623,8 +6431,8 @@
       <c r="K300" s="5"/>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A301" s="32">
-        <v>300</v>
+      <c r="A301" s="27">
+        <v>301</v>
       </c>
       <c r="B301" s="6"/>
       <c r="C301" s="6"/>
@@ -6641,8 +6449,8 @@
       <c r="K301" s="5"/>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A302" s="32">
-        <v>301</v>
+      <c r="A302" s="27">
+        <v>302</v>
       </c>
       <c r="B302" s="6"/>
       <c r="C302" s="6"/>
@@ -6659,8 +6467,8 @@
       <c r="K302" s="5"/>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A303" s="32">
-        <v>302</v>
+      <c r="A303" s="27">
+        <v>303</v>
       </c>
       <c r="B303" s="6"/>
       <c r="C303" s="6"/>
@@ -6677,8 +6485,8 @@
       <c r="K303" s="5"/>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A304" s="32">
-        <v>303</v>
+      <c r="A304" s="27">
+        <v>304</v>
       </c>
       <c r="B304" s="6"/>
       <c r="C304" s="6"/>
@@ -6695,8 +6503,8 @@
       <c r="K304" s="5"/>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A305" s="32">
-        <v>304</v>
+      <c r="A305" s="27">
+        <v>305</v>
       </c>
       <c r="B305" s="6"/>
       <c r="C305" s="6"/>
@@ -6713,8 +6521,8 @@
       <c r="K305" s="5"/>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A306" s="32">
-        <v>305</v>
+      <c r="A306" s="27">
+        <v>306</v>
       </c>
       <c r="B306" s="6"/>
       <c r="C306" s="6"/>
@@ -6731,8 +6539,8 @@
       <c r="K306" s="5"/>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A307" s="32">
-        <v>306</v>
+      <c r="A307" s="27">
+        <v>307</v>
       </c>
       <c r="B307" s="6"/>
       <c r="C307" s="6"/>
@@ -6749,8 +6557,8 @@
       <c r="K307" s="5"/>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A308" s="32">
-        <v>307</v>
+      <c r="A308" s="27">
+        <v>308</v>
       </c>
       <c r="B308" s="6"/>
       <c r="C308" s="6"/>
@@ -6767,8 +6575,8 @@
       <c r="K308" s="5"/>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A309" s="32">
-        <v>308</v>
+      <c r="A309" s="27">
+        <v>309</v>
       </c>
       <c r="B309" s="6"/>
       <c r="C309" s="6"/>
@@ -6785,8 +6593,8 @@
       <c r="K309" s="5"/>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A310" s="32">
-        <v>309</v>
+      <c r="A310" s="27">
+        <v>310</v>
       </c>
       <c r="B310" s="6"/>
       <c r="C310" s="6"/>
@@ -6803,8 +6611,8 @@
       <c r="K310" s="5"/>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A311" s="32">
-        <v>310</v>
+      <c r="A311" s="27">
+        <v>311</v>
       </c>
       <c r="B311" s="6"/>
       <c r="C311" s="6"/>
@@ -6821,8 +6629,8 @@
       <c r="K311" s="5"/>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A312" s="32">
-        <v>311</v>
+      <c r="A312" s="27">
+        <v>312</v>
       </c>
       <c r="B312" s="6"/>
       <c r="C312" s="6"/>
@@ -6839,8 +6647,8 @@
       <c r="K312" s="5"/>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A313" s="32">
-        <v>312</v>
+      <c r="A313" s="27">
+        <v>313</v>
       </c>
       <c r="B313" s="6"/>
       <c r="C313" s="6"/>
@@ -6857,8 +6665,8 @@
       <c r="K313" s="5"/>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A314" s="32">
-        <v>313</v>
+      <c r="A314" s="27">
+        <v>314</v>
       </c>
       <c r="B314" s="6"/>
       <c r="C314" s="6"/>
@@ -6875,8 +6683,8 @@
       <c r="K314" s="5"/>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A315" s="32">
-        <v>314</v>
+      <c r="A315" s="27">
+        <v>315</v>
       </c>
       <c r="B315" s="6"/>
       <c r="C315" s="6"/>
@@ -6893,8 +6701,8 @@
       <c r="K315" s="5"/>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A316" s="32">
-        <v>315</v>
+      <c r="A316" s="27">
+        <v>316</v>
       </c>
       <c r="B316" s="6"/>
       <c r="C316" s="6"/>
@@ -6911,8 +6719,8 @@
       <c r="K316" s="5"/>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A317" s="32">
-        <v>316</v>
+      <c r="A317" s="27">
+        <v>317</v>
       </c>
       <c r="B317" s="6"/>
       <c r="C317" s="6"/>
@@ -6929,8 +6737,8 @@
       <c r="K317" s="5"/>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A318" s="32">
-        <v>317</v>
+      <c r="A318" s="27">
+        <v>318</v>
       </c>
       <c r="B318" s="6"/>
       <c r="C318" s="6"/>
@@ -6947,8 +6755,8 @@
       <c r="K318" s="5"/>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A319" s="32">
-        <v>318</v>
+      <c r="A319" s="27">
+        <v>319</v>
       </c>
       <c r="B319" s="6"/>
       <c r="C319" s="6"/>
@@ -6965,8 +6773,8 @@
       <c r="K319" s="5"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A320" s="32">
-        <v>319</v>
+      <c r="A320" s="27">
+        <v>320</v>
       </c>
       <c r="B320" s="6"/>
       <c r="C320" s="6"/>
@@ -6983,8 +6791,8 @@
       <c r="K320" s="5"/>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A321" s="32">
-        <v>320</v>
+      <c r="A321" s="27">
+        <v>321</v>
       </c>
       <c r="B321" s="6"/>
       <c r="C321" s="6"/>
@@ -7001,8 +6809,8 @@
       <c r="K321" s="5"/>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A322" s="32">
-        <v>321</v>
+      <c r="A322" s="27">
+        <v>322</v>
       </c>
       <c r="B322" s="6"/>
       <c r="C322" s="6"/>
@@ -7013,14 +6821,14 @@
       <c r="H322" s="5"/>
       <c r="I322" s="5"/>
       <c r="J322" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="J322:J385" si="7">H322:H872-I322:I872</f>
         <v>0</v>
       </c>
       <c r="K322" s="5"/>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A323" s="32">
-        <v>322</v>
+      <c r="A323" s="27">
+        <v>323</v>
       </c>
       <c r="B323" s="6"/>
       <c r="C323" s="6"/>
@@ -7031,14 +6839,14 @@
       <c r="H323" s="5"/>
       <c r="I323" s="5"/>
       <c r="J323" s="5">
-        <f t="shared" ref="J323:J386" si="7">H323:H873-I323:I873</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K323" s="5"/>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A324" s="32">
-        <v>323</v>
+      <c r="A324" s="27">
+        <v>324</v>
       </c>
       <c r="B324" s="6"/>
       <c r="C324" s="6"/>
@@ -7055,8 +6863,8 @@
       <c r="K324" s="5"/>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A325" s="32">
-        <v>324</v>
+      <c r="A325" s="27">
+        <v>325</v>
       </c>
       <c r="B325" s="6"/>
       <c r="C325" s="6"/>
@@ -7073,8 +6881,8 @@
       <c r="K325" s="5"/>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A326" s="32">
-        <v>325</v>
+      <c r="A326" s="27">
+        <v>326</v>
       </c>
       <c r="B326" s="6"/>
       <c r="C326" s="6"/>
@@ -7091,8 +6899,8 @@
       <c r="K326" s="5"/>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A327" s="32">
-        <v>326</v>
+      <c r="A327" s="27">
+        <v>327</v>
       </c>
       <c r="B327" s="6"/>
       <c r="C327" s="6"/>
@@ -7109,8 +6917,8 @@
       <c r="K327" s="5"/>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A328" s="32">
-        <v>327</v>
+      <c r="A328" s="27">
+        <v>328</v>
       </c>
       <c r="B328" s="6"/>
       <c r="C328" s="6"/>
@@ -7127,8 +6935,8 @@
       <c r="K328" s="5"/>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A329" s="32">
-        <v>328</v>
+      <c r="A329" s="27">
+        <v>329</v>
       </c>
       <c r="B329" s="6"/>
       <c r="C329" s="6"/>
@@ -7145,8 +6953,8 @@
       <c r="K329" s="5"/>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A330" s="32">
-        <v>329</v>
+      <c r="A330" s="27">
+        <v>330</v>
       </c>
       <c r="B330" s="6"/>
       <c r="C330" s="6"/>
@@ -7163,8 +6971,8 @@
       <c r="K330" s="5"/>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A331" s="32">
-        <v>330</v>
+      <c r="A331" s="27">
+        <v>331</v>
       </c>
       <c r="B331" s="6"/>
       <c r="C331" s="6"/>
@@ -7181,8 +6989,8 @@
       <c r="K331" s="5"/>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A332" s="32">
-        <v>331</v>
+      <c r="A332" s="27">
+        <v>332</v>
       </c>
       <c r="B332" s="6"/>
       <c r="C332" s="6"/>
@@ -7199,8 +7007,8 @@
       <c r="K332" s="5"/>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A333" s="32">
-        <v>332</v>
+      <c r="A333" s="27">
+        <v>333</v>
       </c>
       <c r="B333" s="6"/>
       <c r="C333" s="6"/>
@@ -7217,8 +7025,8 @@
       <c r="K333" s="5"/>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A334" s="32">
-        <v>333</v>
+      <c r="A334" s="27">
+        <v>334</v>
       </c>
       <c r="B334" s="6"/>
       <c r="C334" s="6"/>
@@ -7235,8 +7043,8 @@
       <c r="K334" s="5"/>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A335" s="32">
-        <v>334</v>
+      <c r="A335" s="27">
+        <v>335</v>
       </c>
       <c r="B335" s="6"/>
       <c r="C335" s="6"/>
@@ -7253,8 +7061,8 @@
       <c r="K335" s="5"/>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A336" s="32">
-        <v>335</v>
+      <c r="A336" s="27">
+        <v>336</v>
       </c>
       <c r="B336" s="6"/>
       <c r="C336" s="6"/>
@@ -7271,8 +7079,8 @@
       <c r="K336" s="5"/>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A337" s="32">
-        <v>336</v>
+      <c r="A337" s="27">
+        <v>337</v>
       </c>
       <c r="B337" s="6"/>
       <c r="C337" s="6"/>
@@ -7289,8 +7097,8 @@
       <c r="K337" s="5"/>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A338" s="32">
-        <v>337</v>
+      <c r="A338" s="27">
+        <v>338</v>
       </c>
       <c r="B338" s="6"/>
       <c r="C338" s="6"/>
@@ -7307,8 +7115,8 @@
       <c r="K338" s="5"/>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A339" s="32">
-        <v>338</v>
+      <c r="A339" s="27">
+        <v>339</v>
       </c>
       <c r="B339" s="6"/>
       <c r="C339" s="6"/>
@@ -7325,8 +7133,8 @@
       <c r="K339" s="5"/>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A340" s="32">
-        <v>339</v>
+      <c r="A340" s="27">
+        <v>340</v>
       </c>
       <c r="B340" s="6"/>
       <c r="C340" s="6"/>
@@ -7343,8 +7151,8 @@
       <c r="K340" s="5"/>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A341" s="32">
-        <v>340</v>
+      <c r="A341" s="27">
+        <v>341</v>
       </c>
       <c r="B341" s="6"/>
       <c r="C341" s="6"/>
@@ -7361,8 +7169,8 @@
       <c r="K341" s="5"/>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A342" s="32">
-        <v>341</v>
+      <c r="A342" s="27">
+        <v>342</v>
       </c>
       <c r="B342" s="6"/>
       <c r="C342" s="6"/>
@@ -7379,8 +7187,8 @@
       <c r="K342" s="5"/>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A343" s="32">
-        <v>342</v>
+      <c r="A343" s="27">
+        <v>343</v>
       </c>
       <c r="B343" s="6"/>
       <c r="C343" s="6"/>
@@ -7397,8 +7205,8 @@
       <c r="K343" s="5"/>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A344" s="32">
-        <v>343</v>
+      <c r="A344" s="27">
+        <v>344</v>
       </c>
       <c r="B344" s="6"/>
       <c r="C344" s="6"/>
@@ -7415,8 +7223,8 @@
       <c r="K344" s="5"/>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A345" s="32">
-        <v>344</v>
+      <c r="A345" s="27">
+        <v>345</v>
       </c>
       <c r="B345" s="6"/>
       <c r="C345" s="6"/>
@@ -7433,8 +7241,8 @@
       <c r="K345" s="5"/>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A346" s="32">
-        <v>345</v>
+      <c r="A346" s="27">
+        <v>346</v>
       </c>
       <c r="B346" s="6"/>
       <c r="C346" s="6"/>
@@ -7451,8 +7259,8 @@
       <c r="K346" s="5"/>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A347" s="32">
-        <v>346</v>
+      <c r="A347" s="27">
+        <v>347</v>
       </c>
       <c r="B347" s="6"/>
       <c r="C347" s="6"/>
@@ -7469,8 +7277,8 @@
       <c r="K347" s="5"/>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A348" s="32">
-        <v>347</v>
+      <c r="A348" s="27">
+        <v>348</v>
       </c>
       <c r="B348" s="6"/>
       <c r="C348" s="6"/>
@@ -7487,8 +7295,8 @@
       <c r="K348" s="5"/>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A349" s="32">
-        <v>348</v>
+      <c r="A349" s="27">
+        <v>349</v>
       </c>
       <c r="B349" s="6"/>
       <c r="C349" s="6"/>
@@ -7505,8 +7313,8 @@
       <c r="K349" s="5"/>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A350" s="32">
-        <v>349</v>
+      <c r="A350" s="27">
+        <v>350</v>
       </c>
       <c r="B350" s="6"/>
       <c r="C350" s="6"/>
@@ -7523,8 +7331,8 @@
       <c r="K350" s="5"/>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A351" s="32">
-        <v>350</v>
+      <c r="A351" s="27">
+        <v>351</v>
       </c>
       <c r="B351" s="6"/>
       <c r="C351" s="6"/>
@@ -7541,8 +7349,8 @@
       <c r="K351" s="5"/>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A352" s="32">
-        <v>351</v>
+      <c r="A352" s="27">
+        <v>352</v>
       </c>
       <c r="B352" s="6"/>
       <c r="C352" s="6"/>
@@ -7559,8 +7367,8 @@
       <c r="K352" s="5"/>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A353" s="32">
-        <v>352</v>
+      <c r="A353" s="27">
+        <v>353</v>
       </c>
       <c r="B353" s="6"/>
       <c r="C353" s="6"/>
@@ -7577,8 +7385,8 @@
       <c r="K353" s="5"/>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A354" s="32">
-        <v>353</v>
+      <c r="A354" s="27">
+        <v>354</v>
       </c>
       <c r="B354" s="6"/>
       <c r="C354" s="6"/>
@@ -7595,8 +7403,8 @@
       <c r="K354" s="5"/>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A355" s="32">
-        <v>354</v>
+      <c r="A355" s="27">
+        <v>355</v>
       </c>
       <c r="B355" s="6"/>
       <c r="C355" s="6"/>
@@ -7613,8 +7421,8 @@
       <c r="K355" s="5"/>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A356" s="32">
-        <v>355</v>
+      <c r="A356" s="27">
+        <v>356</v>
       </c>
       <c r="B356" s="6"/>
       <c r="C356" s="6"/>
@@ -7631,8 +7439,8 @@
       <c r="K356" s="5"/>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A357" s="32">
-        <v>356</v>
+      <c r="A357" s="27">
+        <v>357</v>
       </c>
       <c r="B357" s="6"/>
       <c r="C357" s="6"/>
@@ -7649,8 +7457,8 @@
       <c r="K357" s="5"/>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A358" s="32">
-        <v>357</v>
+      <c r="A358" s="27">
+        <v>358</v>
       </c>
       <c r="B358" s="6"/>
       <c r="C358" s="6"/>
@@ -7667,8 +7475,8 @@
       <c r="K358" s="5"/>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A359" s="32">
-        <v>358</v>
+      <c r="A359" s="27">
+        <v>359</v>
       </c>
       <c r="B359" s="6"/>
       <c r="C359" s="6"/>
@@ -7685,8 +7493,8 @@
       <c r="K359" s="5"/>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A360" s="32">
-        <v>359</v>
+      <c r="A360" s="27">
+        <v>360</v>
       </c>
       <c r="B360" s="6"/>
       <c r="C360" s="6"/>
@@ -7703,8 +7511,8 @@
       <c r="K360" s="5"/>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A361" s="32">
-        <v>360</v>
+      <c r="A361" s="27">
+        <v>361</v>
       </c>
       <c r="B361" s="6"/>
       <c r="C361" s="6"/>
@@ -7721,8 +7529,8 @@
       <c r="K361" s="5"/>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A362" s="32">
-        <v>361</v>
+      <c r="A362" s="27">
+        <v>362</v>
       </c>
       <c r="B362" s="6"/>
       <c r="C362" s="6"/>
@@ -7739,8 +7547,8 @@
       <c r="K362" s="5"/>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A363" s="32">
-        <v>362</v>
+      <c r="A363" s="27">
+        <v>363</v>
       </c>
       <c r="B363" s="6"/>
       <c r="C363" s="6"/>
@@ -7757,8 +7565,8 @@
       <c r="K363" s="5"/>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A364" s="32">
-        <v>363</v>
+      <c r="A364" s="27">
+        <v>364</v>
       </c>
       <c r="B364" s="6"/>
       <c r="C364" s="6"/>
@@ -7775,8 +7583,8 @@
       <c r="K364" s="5"/>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A365" s="32">
-        <v>364</v>
+      <c r="A365" s="27">
+        <v>365</v>
       </c>
       <c r="B365" s="6"/>
       <c r="C365" s="6"/>
@@ -7793,8 +7601,8 @@
       <c r="K365" s="5"/>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A366" s="32">
-        <v>365</v>
+      <c r="A366" s="27">
+        <v>366</v>
       </c>
       <c r="B366" s="6"/>
       <c r="C366" s="6"/>
@@ -7811,8 +7619,8 @@
       <c r="K366" s="5"/>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A367" s="32">
-        <v>366</v>
+      <c r="A367" s="27">
+        <v>367</v>
       </c>
       <c r="B367" s="6"/>
       <c r="C367" s="6"/>
@@ -7829,8 +7637,8 @@
       <c r="K367" s="5"/>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A368" s="32">
-        <v>367</v>
+      <c r="A368" s="27">
+        <v>368</v>
       </c>
       <c r="B368" s="6"/>
       <c r="C368" s="6"/>
@@ -7847,8 +7655,8 @@
       <c r="K368" s="5"/>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A369" s="32">
-        <v>368</v>
+      <c r="A369" s="27">
+        <v>369</v>
       </c>
       <c r="B369" s="6"/>
       <c r="C369" s="6"/>
@@ -7865,8 +7673,8 @@
       <c r="K369" s="5"/>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A370" s="32">
-        <v>369</v>
+      <c r="A370" s="27">
+        <v>370</v>
       </c>
       <c r="B370" s="6"/>
       <c r="C370" s="6"/>
@@ -7883,8 +7691,8 @@
       <c r="K370" s="5"/>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A371" s="32">
-        <v>370</v>
+      <c r="A371" s="27">
+        <v>371</v>
       </c>
       <c r="B371" s="6"/>
       <c r="C371" s="6"/>
@@ -7901,8 +7709,8 @@
       <c r="K371" s="5"/>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A372" s="32">
-        <v>371</v>
+      <c r="A372" s="27">
+        <v>372</v>
       </c>
       <c r="B372" s="6"/>
       <c r="C372" s="6"/>
@@ -7919,8 +7727,8 @@
       <c r="K372" s="5"/>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A373" s="32">
-        <v>372</v>
+      <c r="A373" s="27">
+        <v>373</v>
       </c>
       <c r="B373" s="6"/>
       <c r="C373" s="6"/>
@@ -7937,8 +7745,8 @@
       <c r="K373" s="5"/>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A374" s="32">
-        <v>373</v>
+      <c r="A374" s="27">
+        <v>374</v>
       </c>
       <c r="B374" s="6"/>
       <c r="C374" s="6"/>
@@ -7955,8 +7763,8 @@
       <c r="K374" s="5"/>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A375" s="32">
-        <v>374</v>
+      <c r="A375" s="27">
+        <v>375</v>
       </c>
       <c r="B375" s="6"/>
       <c r="C375" s="6"/>
@@ -7973,8 +7781,8 @@
       <c r="K375" s="5"/>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A376" s="32">
-        <v>375</v>
+      <c r="A376" s="27">
+        <v>376</v>
       </c>
       <c r="B376" s="6"/>
       <c r="C376" s="6"/>
@@ -7991,8 +7799,8 @@
       <c r="K376" s="5"/>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A377" s="32">
-        <v>376</v>
+      <c r="A377" s="27">
+        <v>377</v>
       </c>
       <c r="B377" s="6"/>
       <c r="C377" s="6"/>
@@ -8009,8 +7817,8 @@
       <c r="K377" s="5"/>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A378" s="32">
-        <v>377</v>
+      <c r="A378" s="27">
+        <v>378</v>
       </c>
       <c r="B378" s="6"/>
       <c r="C378" s="6"/>
@@ -8027,8 +7835,8 @@
       <c r="K378" s="5"/>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A379" s="32">
-        <v>378</v>
+      <c r="A379" s="27">
+        <v>379</v>
       </c>
       <c r="B379" s="6"/>
       <c r="C379" s="6"/>
@@ -8045,8 +7853,8 @@
       <c r="K379" s="5"/>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A380" s="32">
-        <v>379</v>
+      <c r="A380" s="27">
+        <v>380</v>
       </c>
       <c r="B380" s="6"/>
       <c r="C380" s="6"/>
@@ -8063,8 +7871,8 @@
       <c r="K380" s="5"/>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A381" s="32">
-        <v>380</v>
+      <c r="A381" s="27">
+        <v>381</v>
       </c>
       <c r="B381" s="6"/>
       <c r="C381" s="6"/>
@@ -8081,8 +7889,8 @@
       <c r="K381" s="5"/>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A382" s="32">
-        <v>381</v>
+      <c r="A382" s="27">
+        <v>382</v>
       </c>
       <c r="B382" s="6"/>
       <c r="C382" s="6"/>
@@ -8099,8 +7907,8 @@
       <c r="K382" s="5"/>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A383" s="32">
-        <v>382</v>
+      <c r="A383" s="27">
+        <v>383</v>
       </c>
       <c r="B383" s="6"/>
       <c r="C383" s="6"/>
@@ -8117,8 +7925,8 @@
       <c r="K383" s="5"/>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A384" s="32">
-        <v>383</v>
+      <c r="A384" s="27">
+        <v>384</v>
       </c>
       <c r="B384" s="6"/>
       <c r="C384" s="6"/>
@@ -8135,8 +7943,8 @@
       <c r="K384" s="5"/>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A385" s="32">
-        <v>384</v>
+      <c r="A385" s="27">
+        <v>385</v>
       </c>
       <c r="B385" s="6"/>
       <c r="C385" s="6"/>
@@ -8153,8 +7961,8 @@
       <c r="K385" s="5"/>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A386" s="32">
-        <v>385</v>
+      <c r="A386" s="27">
+        <v>386</v>
       </c>
       <c r="B386" s="6"/>
       <c r="C386" s="6"/>
@@ -8165,14 +7973,14 @@
       <c r="H386" s="5"/>
       <c r="I386" s="5"/>
       <c r="J386" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="J386:J449" si="8">H386:H936-I386:I936</f>
         <v>0</v>
       </c>
       <c r="K386" s="5"/>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A387" s="32">
-        <v>386</v>
+      <c r="A387" s="27">
+        <v>387</v>
       </c>
       <c r="B387" s="6"/>
       <c r="C387" s="6"/>
@@ -8183,14 +7991,14 @@
       <c r="H387" s="5"/>
       <c r="I387" s="5"/>
       <c r="J387" s="5">
-        <f t="shared" ref="J387:J450" si="8">H387:H937-I387:I937</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K387" s="5"/>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A388" s="32">
-        <v>387</v>
+      <c r="A388" s="27">
+        <v>388</v>
       </c>
       <c r="B388" s="6"/>
       <c r="C388" s="6"/>
@@ -8207,8 +8015,8 @@
       <c r="K388" s="5"/>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A389" s="32">
-        <v>388</v>
+      <c r="A389" s="27">
+        <v>389</v>
       </c>
       <c r="B389" s="6"/>
       <c r="C389" s="6"/>
@@ -8225,8 +8033,8 @@
       <c r="K389" s="5"/>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A390" s="32">
-        <v>389</v>
+      <c r="A390" s="27">
+        <v>390</v>
       </c>
       <c r="B390" s="6"/>
       <c r="C390" s="6"/>
@@ -8243,8 +8051,8 @@
       <c r="K390" s="5"/>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A391" s="32">
-        <v>390</v>
+      <c r="A391" s="27">
+        <v>391</v>
       </c>
       <c r="B391" s="6"/>
       <c r="C391" s="6"/>
@@ -8261,8 +8069,8 @@
       <c r="K391" s="5"/>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A392" s="32">
-        <v>391</v>
+      <c r="A392" s="27">
+        <v>392</v>
       </c>
       <c r="B392" s="6"/>
       <c r="C392" s="6"/>
@@ -8279,8 +8087,8 @@
       <c r="K392" s="5"/>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A393" s="32">
-        <v>392</v>
+      <c r="A393" s="27">
+        <v>393</v>
       </c>
       <c r="B393" s="6"/>
       <c r="C393" s="6"/>
@@ -8297,8 +8105,8 @@
       <c r="K393" s="5"/>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A394" s="32">
-        <v>393</v>
+      <c r="A394" s="27">
+        <v>394</v>
       </c>
       <c r="B394" s="6"/>
       <c r="C394" s="6"/>
@@ -8315,8 +8123,8 @@
       <c r="K394" s="5"/>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A395" s="32">
-        <v>394</v>
+      <c r="A395" s="27">
+        <v>395</v>
       </c>
       <c r="B395" s="6"/>
       <c r="C395" s="6"/>
@@ -8333,8 +8141,8 @@
       <c r="K395" s="5"/>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A396" s="32">
-        <v>395</v>
+      <c r="A396" s="27">
+        <v>396</v>
       </c>
       <c r="B396" s="6"/>
       <c r="C396" s="6"/>
@@ -8351,8 +8159,8 @@
       <c r="K396" s="5"/>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A397" s="32">
-        <v>396</v>
+      <c r="A397" s="27">
+        <v>397</v>
       </c>
       <c r="B397" s="6"/>
       <c r="C397" s="6"/>
@@ -8369,8 +8177,8 @@
       <c r="K397" s="5"/>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A398" s="32">
-        <v>397</v>
+      <c r="A398" s="27">
+        <v>398</v>
       </c>
       <c r="B398" s="6"/>
       <c r="C398" s="6"/>
@@ -8387,8 +8195,8 @@
       <c r="K398" s="5"/>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A399" s="32">
-        <v>398</v>
+      <c r="A399" s="27">
+        <v>399</v>
       </c>
       <c r="B399" s="6"/>
       <c r="C399" s="6"/>
@@ -8405,8 +8213,8 @@
       <c r="K399" s="5"/>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A400" s="32">
-        <v>399</v>
+      <c r="A400" s="27">
+        <v>400</v>
       </c>
       <c r="B400" s="6"/>
       <c r="C400" s="6"/>
@@ -8423,8 +8231,8 @@
       <c r="K400" s="5"/>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A401" s="32">
-        <v>400</v>
+      <c r="A401" s="27">
+        <v>401</v>
       </c>
       <c r="B401" s="6"/>
       <c r="C401" s="6"/>
@@ -8441,8 +8249,8 @@
       <c r="K401" s="5"/>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A402" s="32">
-        <v>401</v>
+      <c r="A402" s="27">
+        <v>402</v>
       </c>
       <c r="B402" s="6"/>
       <c r="C402" s="6"/>
@@ -8459,8 +8267,8 @@
       <c r="K402" s="5"/>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A403" s="32">
-        <v>402</v>
+      <c r="A403" s="27">
+        <v>403</v>
       </c>
       <c r="B403" s="6"/>
       <c r="C403" s="6"/>
@@ -8477,8 +8285,8 @@
       <c r="K403" s="5"/>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A404" s="32">
-        <v>403</v>
+      <c r="A404" s="27">
+        <v>404</v>
       </c>
       <c r="B404" s="6"/>
       <c r="C404" s="6"/>
@@ -8495,8 +8303,8 @@
       <c r="K404" s="5"/>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A405" s="32">
-        <v>404</v>
+      <c r="A405" s="27">
+        <v>405</v>
       </c>
       <c r="B405" s="6"/>
       <c r="C405" s="6"/>
@@ -8513,8 +8321,8 @@
       <c r="K405" s="5"/>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A406" s="32">
-        <v>405</v>
+      <c r="A406" s="27">
+        <v>406</v>
       </c>
       <c r="B406" s="6"/>
       <c r="C406" s="6"/>
@@ -8531,8 +8339,8 @@
       <c r="K406" s="5"/>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A407" s="32">
-        <v>406</v>
+      <c r="A407" s="27">
+        <v>407</v>
       </c>
       <c r="B407" s="6"/>
       <c r="C407" s="6"/>
@@ -8549,8 +8357,8 @@
       <c r="K407" s="5"/>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A408" s="32">
-        <v>407</v>
+      <c r="A408" s="27">
+        <v>408</v>
       </c>
       <c r="B408" s="6"/>
       <c r="C408" s="6"/>
@@ -8567,8 +8375,8 @@
       <c r="K408" s="5"/>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A409" s="32">
-        <v>408</v>
+      <c r="A409" s="27">
+        <v>409</v>
       </c>
       <c r="B409" s="6"/>
       <c r="C409" s="6"/>
@@ -8585,8 +8393,8 @@
       <c r="K409" s="5"/>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A410" s="32">
-        <v>409</v>
+      <c r="A410" s="27">
+        <v>410</v>
       </c>
       <c r="B410" s="6"/>
       <c r="C410" s="6"/>
@@ -8603,8 +8411,8 @@
       <c r="K410" s="5"/>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A411" s="32">
-        <v>410</v>
+      <c r="A411" s="27">
+        <v>411</v>
       </c>
       <c r="B411" s="6"/>
       <c r="C411" s="6"/>
@@ -8621,8 +8429,8 @@
       <c r="K411" s="5"/>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A412" s="32">
-        <v>411</v>
+      <c r="A412" s="27">
+        <v>412</v>
       </c>
       <c r="B412" s="6"/>
       <c r="C412" s="6"/>
@@ -8639,8 +8447,8 @@
       <c r="K412" s="5"/>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A413" s="32">
-        <v>412</v>
+      <c r="A413" s="27">
+        <v>413</v>
       </c>
       <c r="B413" s="6"/>
       <c r="C413" s="6"/>
@@ -8657,8 +8465,8 @@
       <c r="K413" s="5"/>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A414" s="32">
-        <v>413</v>
+      <c r="A414" s="27">
+        <v>414</v>
       </c>
       <c r="B414" s="6"/>
       <c r="C414" s="6"/>
@@ -8675,8 +8483,8 @@
       <c r="K414" s="5"/>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A415" s="32">
-        <v>414</v>
+      <c r="A415" s="27">
+        <v>415</v>
       </c>
       <c r="B415" s="6"/>
       <c r="C415" s="6"/>
@@ -8693,8 +8501,8 @@
       <c r="K415" s="5"/>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A416" s="32">
-        <v>415</v>
+      <c r="A416" s="27">
+        <v>416</v>
       </c>
       <c r="B416" s="6"/>
       <c r="C416" s="6"/>
@@ -8711,8 +8519,8 @@
       <c r="K416" s="5"/>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A417" s="32">
-        <v>416</v>
+      <c r="A417" s="27">
+        <v>417</v>
       </c>
       <c r="B417" s="6"/>
       <c r="C417" s="6"/>
@@ -8729,8 +8537,8 @@
       <c r="K417" s="5"/>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A418" s="32">
-        <v>417</v>
+      <c r="A418" s="27">
+        <v>418</v>
       </c>
       <c r="B418" s="6"/>
       <c r="C418" s="6"/>
@@ -8747,8 +8555,8 @@
       <c r="K418" s="5"/>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A419" s="32">
-        <v>418</v>
+      <c r="A419" s="27">
+        <v>419</v>
       </c>
       <c r="B419" s="6"/>
       <c r="C419" s="6"/>
@@ -8765,8 +8573,8 @@
       <c r="K419" s="5"/>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A420" s="32">
-        <v>419</v>
+      <c r="A420" s="27">
+        <v>420</v>
       </c>
       <c r="B420" s="6"/>
       <c r="C420" s="6"/>
@@ -8783,8 +8591,8 @@
       <c r="K420" s="5"/>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A421" s="32">
-        <v>420</v>
+      <c r="A421" s="27">
+        <v>421</v>
       </c>
       <c r="B421" s="6"/>
       <c r="C421" s="6"/>
@@ -8801,8 +8609,8 @@
       <c r="K421" s="5"/>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A422" s="32">
-        <v>421</v>
+      <c r="A422" s="27">
+        <v>422</v>
       </c>
       <c r="B422" s="6"/>
       <c r="C422" s="6"/>
@@ -8819,8 +8627,8 @@
       <c r="K422" s="5"/>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A423" s="32">
-        <v>422</v>
+      <c r="A423" s="27">
+        <v>423</v>
       </c>
       <c r="B423" s="6"/>
       <c r="C423" s="6"/>
@@ -8837,8 +8645,8 @@
       <c r="K423" s="5"/>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A424" s="32">
-        <v>423</v>
+      <c r="A424" s="27">
+        <v>424</v>
       </c>
       <c r="B424" s="6"/>
       <c r="C424" s="6"/>
@@ -8855,8 +8663,8 @@
       <c r="K424" s="5"/>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A425" s="32">
-        <v>424</v>
+      <c r="A425" s="27">
+        <v>425</v>
       </c>
       <c r="B425" s="6"/>
       <c r="C425" s="6"/>
@@ -8873,8 +8681,8 @@
       <c r="K425" s="5"/>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A426" s="32">
-        <v>425</v>
+      <c r="A426" s="27">
+        <v>426</v>
       </c>
       <c r="B426" s="6"/>
       <c r="C426" s="6"/>
@@ -8891,8 +8699,8 @@
       <c r="K426" s="5"/>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A427" s="32">
-        <v>426</v>
+      <c r="A427" s="27">
+        <v>427</v>
       </c>
       <c r="B427" s="6"/>
       <c r="C427" s="6"/>
@@ -8909,8 +8717,8 @@
       <c r="K427" s="5"/>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A428" s="32">
-        <v>427</v>
+      <c r="A428" s="27">
+        <v>428</v>
       </c>
       <c r="B428" s="6"/>
       <c r="C428" s="6"/>
@@ -8927,8 +8735,8 @@
       <c r="K428" s="5"/>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A429" s="32">
-        <v>428</v>
+      <c r="A429" s="27">
+        <v>429</v>
       </c>
       <c r="B429" s="6"/>
       <c r="C429" s="6"/>
@@ -8945,8 +8753,8 @@
       <c r="K429" s="5"/>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A430" s="32">
-        <v>429</v>
+      <c r="A430" s="27">
+        <v>430</v>
       </c>
       <c r="B430" s="6"/>
       <c r="C430" s="6"/>
@@ -8963,8 +8771,8 @@
       <c r="K430" s="5"/>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A431" s="32">
-        <v>430</v>
+      <c r="A431" s="27">
+        <v>431</v>
       </c>
       <c r="B431" s="6"/>
       <c r="C431" s="6"/>
@@ -8981,8 +8789,8 @@
       <c r="K431" s="5"/>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A432" s="32">
-        <v>431</v>
+      <c r="A432" s="27">
+        <v>432</v>
       </c>
       <c r="B432" s="6"/>
       <c r="C432" s="6"/>
@@ -8999,8 +8807,8 @@
       <c r="K432" s="5"/>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A433" s="32">
-        <v>432</v>
+      <c r="A433" s="27">
+        <v>433</v>
       </c>
       <c r="B433" s="6"/>
       <c r="C433" s="6"/>
@@ -9017,8 +8825,8 @@
       <c r="K433" s="5"/>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A434" s="32">
-        <v>433</v>
+      <c r="A434" s="27">
+        <v>434</v>
       </c>
       <c r="B434" s="6"/>
       <c r="C434" s="6"/>
@@ -9035,8 +8843,8 @@
       <c r="K434" s="5"/>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A435" s="32">
-        <v>434</v>
+      <c r="A435" s="27">
+        <v>435</v>
       </c>
       <c r="B435" s="6"/>
       <c r="C435" s="6"/>
@@ -9053,8 +8861,8 @@
       <c r="K435" s="5"/>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A436" s="32">
-        <v>435</v>
+      <c r="A436" s="27">
+        <v>436</v>
       </c>
       <c r="B436" s="6"/>
       <c r="C436" s="6"/>
@@ -9071,8 +8879,8 @@
       <c r="K436" s="5"/>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A437" s="32">
-        <v>436</v>
+      <c r="A437" s="27">
+        <v>437</v>
       </c>
       <c r="B437" s="6"/>
       <c r="C437" s="6"/>
@@ -9089,8 +8897,8 @@
       <c r="K437" s="5"/>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A438" s="32">
-        <v>437</v>
+      <c r="A438" s="27">
+        <v>438</v>
       </c>
       <c r="B438" s="6"/>
       <c r="C438" s="6"/>
@@ -9107,8 +8915,8 @@
       <c r="K438" s="5"/>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A439" s="32">
-        <v>438</v>
+      <c r="A439" s="27">
+        <v>439</v>
       </c>
       <c r="B439" s="6"/>
       <c r="C439" s="6"/>
@@ -9125,8 +8933,8 @@
       <c r="K439" s="5"/>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A440" s="32">
-        <v>439</v>
+      <c r="A440" s="27">
+        <v>440</v>
       </c>
       <c r="B440" s="6"/>
       <c r="C440" s="6"/>
@@ -9143,8 +8951,8 @@
       <c r="K440" s="5"/>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A441" s="32">
-        <v>440</v>
+      <c r="A441" s="27">
+        <v>441</v>
       </c>
       <c r="B441" s="6"/>
       <c r="C441" s="6"/>
@@ -9161,8 +8969,8 @@
       <c r="K441" s="5"/>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A442" s="32">
-        <v>441</v>
+      <c r="A442" s="27">
+        <v>442</v>
       </c>
       <c r="B442" s="6"/>
       <c r="C442" s="6"/>
@@ -9179,8 +8987,8 @@
       <c r="K442" s="5"/>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A443" s="32">
-        <v>442</v>
+      <c r="A443" s="27">
+        <v>443</v>
       </c>
       <c r="B443" s="6"/>
       <c r="C443" s="6"/>
@@ -9197,8 +9005,8 @@
       <c r="K443" s="5"/>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A444" s="32">
-        <v>443</v>
+      <c r="A444" s="27">
+        <v>444</v>
       </c>
       <c r="B444" s="6"/>
       <c r="C444" s="6"/>
@@ -9215,8 +9023,8 @@
       <c r="K444" s="5"/>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A445" s="32">
-        <v>444</v>
+      <c r="A445" s="27">
+        <v>445</v>
       </c>
       <c r="B445" s="6"/>
       <c r="C445" s="6"/>
@@ -9233,8 +9041,8 @@
       <c r="K445" s="5"/>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A446" s="32">
-        <v>445</v>
+      <c r="A446" s="27">
+        <v>446</v>
       </c>
       <c r="B446" s="6"/>
       <c r="C446" s="6"/>
@@ -9251,8 +9059,8 @@
       <c r="K446" s="5"/>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A447" s="32">
-        <v>446</v>
+      <c r="A447" s="27">
+        <v>447</v>
       </c>
       <c r="B447" s="6"/>
       <c r="C447" s="6"/>
@@ -9269,8 +9077,8 @@
       <c r="K447" s="5"/>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A448" s="32">
-        <v>447</v>
+      <c r="A448" s="27">
+        <v>448</v>
       </c>
       <c r="B448" s="6"/>
       <c r="C448" s="6"/>
@@ -9287,8 +9095,8 @@
       <c r="K448" s="5"/>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A449" s="32">
-        <v>448</v>
+      <c r="A449" s="27">
+        <v>449</v>
       </c>
       <c r="B449" s="6"/>
       <c r="C449" s="6"/>
@@ -9305,8 +9113,8 @@
       <c r="K449" s="5"/>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A450" s="32">
-        <v>449</v>
+      <c r="A450" s="27">
+        <v>450</v>
       </c>
       <c r="B450" s="6"/>
       <c r="C450" s="6"/>
@@ -9317,14 +9125,14 @@
       <c r="H450" s="5"/>
       <c r="I450" s="5"/>
       <c r="J450" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="J450:J513" si="9">H450:H1000-I450:I1000</f>
         <v>0</v>
       </c>
       <c r="K450" s="5"/>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A451" s="32">
-        <v>450</v>
+      <c r="A451" s="27">
+        <v>451</v>
       </c>
       <c r="B451" s="6"/>
       <c r="C451" s="6"/>
@@ -9335,14 +9143,14 @@
       <c r="H451" s="5"/>
       <c r="I451" s="5"/>
       <c r="J451" s="5">
-        <f t="shared" ref="J451:J514" si="9">H451:H1001-I451:I1001</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K451" s="5"/>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A452" s="32">
-        <v>451</v>
+      <c r="A452" s="27">
+        <v>452</v>
       </c>
       <c r="B452" s="6"/>
       <c r="C452" s="6"/>
@@ -9359,8 +9167,8 @@
       <c r="K452" s="5"/>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A453" s="32">
-        <v>452</v>
+      <c r="A453" s="27">
+        <v>453</v>
       </c>
       <c r="B453" s="6"/>
       <c r="C453" s="6"/>
@@ -9377,8 +9185,8 @@
       <c r="K453" s="5"/>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A454" s="32">
-        <v>453</v>
+      <c r="A454" s="27">
+        <v>454</v>
       </c>
       <c r="B454" s="6"/>
       <c r="C454" s="6"/>
@@ -9395,8 +9203,8 @@
       <c r="K454" s="5"/>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A455" s="32">
-        <v>454</v>
+      <c r="A455" s="27">
+        <v>455</v>
       </c>
       <c r="B455" s="6"/>
       <c r="C455" s="6"/>
@@ -9413,8 +9221,8 @@
       <c r="K455" s="5"/>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A456" s="32">
-        <v>455</v>
+      <c r="A456" s="27">
+        <v>456</v>
       </c>
       <c r="B456" s="6"/>
       <c r="C456" s="6"/>
@@ -9431,8 +9239,8 @@
       <c r="K456" s="5"/>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A457" s="32">
-        <v>456</v>
+      <c r="A457" s="27">
+        <v>457</v>
       </c>
       <c r="B457" s="6"/>
       <c r="C457" s="6"/>
@@ -9449,8 +9257,8 @@
       <c r="K457" s="5"/>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A458" s="32">
-        <v>457</v>
+      <c r="A458" s="27">
+        <v>458</v>
       </c>
       <c r="B458" s="6"/>
       <c r="C458" s="6"/>
@@ -9467,8 +9275,8 @@
       <c r="K458" s="5"/>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A459" s="32">
-        <v>458</v>
+      <c r="A459" s="27">
+        <v>459</v>
       </c>
       <c r="B459" s="6"/>
       <c r="C459" s="6"/>
@@ -9485,8 +9293,8 @@
       <c r="K459" s="5"/>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A460" s="32">
-        <v>459</v>
+      <c r="A460" s="27">
+        <v>460</v>
       </c>
       <c r="B460" s="6"/>
       <c r="C460" s="6"/>
@@ -9503,8 +9311,8 @@
       <c r="K460" s="5"/>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A461" s="32">
-        <v>460</v>
+      <c r="A461" s="27">
+        <v>461</v>
       </c>
       <c r="B461" s="6"/>
       <c r="C461" s="6"/>
@@ -9521,8 +9329,8 @@
       <c r="K461" s="5"/>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A462" s="32">
-        <v>461</v>
+      <c r="A462" s="27">
+        <v>462</v>
       </c>
       <c r="B462" s="6"/>
       <c r="C462" s="6"/>
@@ -9539,8 +9347,8 @@
       <c r="K462" s="5"/>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A463" s="32">
-        <v>462</v>
+      <c r="A463" s="27">
+        <v>463</v>
       </c>
       <c r="B463" s="6"/>
       <c r="C463" s="6"/>
@@ -9557,8 +9365,8 @@
       <c r="K463" s="5"/>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A464" s="32">
-        <v>463</v>
+      <c r="A464" s="27">
+        <v>464</v>
       </c>
       <c r="B464" s="6"/>
       <c r="C464" s="6"/>
@@ -9575,8 +9383,8 @@
       <c r="K464" s="5"/>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A465" s="32">
-        <v>464</v>
+      <c r="A465" s="27">
+        <v>465</v>
       </c>
       <c r="B465" s="6"/>
       <c r="C465" s="6"/>
@@ -9593,8 +9401,8 @@
       <c r="K465" s="5"/>
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A466" s="32">
-        <v>465</v>
+      <c r="A466" s="27">
+        <v>466</v>
       </c>
       <c r="B466" s="6"/>
       <c r="C466" s="6"/>
@@ -9611,8 +9419,8 @@
       <c r="K466" s="5"/>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A467" s="32">
-        <v>466</v>
+      <c r="A467" s="27">
+        <v>467</v>
       </c>
       <c r="B467" s="6"/>
       <c r="C467" s="6"/>
@@ -9629,8 +9437,8 @@
       <c r="K467" s="5"/>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A468" s="32">
-        <v>467</v>
+      <c r="A468" s="27">
+        <v>468</v>
       </c>
       <c r="B468" s="6"/>
       <c r="C468" s="6"/>
@@ -9647,8 +9455,8 @@
       <c r="K468" s="5"/>
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A469" s="32">
-        <v>468</v>
+      <c r="A469" s="27">
+        <v>469</v>
       </c>
       <c r="B469" s="6"/>
       <c r="C469" s="6"/>
@@ -9665,8 +9473,8 @@
       <c r="K469" s="5"/>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A470" s="32">
-        <v>469</v>
+      <c r="A470" s="27">
+        <v>470</v>
       </c>
       <c r="B470" s="6"/>
       <c r="C470" s="6"/>
@@ -9683,8 +9491,8 @@
       <c r="K470" s="5"/>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A471" s="32">
-        <v>470</v>
+      <c r="A471" s="27">
+        <v>471</v>
       </c>
       <c r="B471" s="6"/>
       <c r="C471" s="6"/>
@@ -9701,8 +9509,8 @@
       <c r="K471" s="5"/>
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A472" s="32">
-        <v>471</v>
+      <c r="A472" s="27">
+        <v>472</v>
       </c>
       <c r="B472" s="6"/>
       <c r="C472" s="6"/>
@@ -9719,8 +9527,8 @@
       <c r="K472" s="5"/>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A473" s="32">
-        <v>472</v>
+      <c r="A473" s="27">
+        <v>473</v>
       </c>
       <c r="B473" s="6"/>
       <c r="C473" s="6"/>
@@ -9737,8 +9545,8 @@
       <c r="K473" s="5"/>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A474" s="32">
-        <v>473</v>
+      <c r="A474" s="27">
+        <v>474</v>
       </c>
       <c r="B474" s="6"/>
       <c r="C474" s="6"/>
@@ -9755,8 +9563,8 @@
       <c r="K474" s="5"/>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A475" s="32">
-        <v>474</v>
+      <c r="A475" s="27">
+        <v>475</v>
       </c>
       <c r="B475" s="6"/>
       <c r="C475" s="6"/>
@@ -9773,8 +9581,8 @@
       <c r="K475" s="5"/>
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A476" s="32">
-        <v>475</v>
+      <c r="A476" s="27">
+        <v>476</v>
       </c>
       <c r="B476" s="6"/>
       <c r="C476" s="6"/>
@@ -9791,8 +9599,8 @@
       <c r="K476" s="5"/>
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A477" s="32">
-        <v>476</v>
+      <c r="A477" s="27">
+        <v>477</v>
       </c>
       <c r="B477" s="6"/>
       <c r="C477" s="6"/>
@@ -9809,8 +9617,8 @@
       <c r="K477" s="5"/>
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A478" s="32">
-        <v>477</v>
+      <c r="A478" s="27">
+        <v>478</v>
       </c>
       <c r="B478" s="6"/>
       <c r="C478" s="6"/>
@@ -9827,8 +9635,8 @@
       <c r="K478" s="5"/>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A479" s="32">
-        <v>478</v>
+      <c r="A479" s="27">
+        <v>479</v>
       </c>
       <c r="B479" s="6"/>
       <c r="C479" s="6"/>
@@ -9845,8 +9653,8 @@
       <c r="K479" s="5"/>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A480" s="32">
-        <v>479</v>
+      <c r="A480" s="27">
+        <v>480</v>
       </c>
       <c r="B480" s="6"/>
       <c r="C480" s="6"/>
@@ -9863,8 +9671,8 @@
       <c r="K480" s="5"/>
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A481" s="32">
-        <v>480</v>
+      <c r="A481" s="27">
+        <v>481</v>
       </c>
       <c r="B481" s="6"/>
       <c r="C481" s="6"/>
@@ -9881,8 +9689,8 @@
       <c r="K481" s="5"/>
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A482" s="32">
-        <v>481</v>
+      <c r="A482" s="27">
+        <v>482</v>
       </c>
       <c r="B482" s="6"/>
       <c r="C482" s="6"/>
@@ -9899,8 +9707,8 @@
       <c r="K482" s="5"/>
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A483" s="32">
-        <v>482</v>
+      <c r="A483" s="27">
+        <v>483</v>
       </c>
       <c r="B483" s="6"/>
       <c r="C483" s="6"/>
@@ -9917,8 +9725,8 @@
       <c r="K483" s="5"/>
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A484" s="32">
-        <v>483</v>
+      <c r="A484" s="27">
+        <v>484</v>
       </c>
       <c r="B484" s="6"/>
       <c r="C484" s="6"/>
@@ -9935,8 +9743,8 @@
       <c r="K484" s="5"/>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A485" s="32">
-        <v>484</v>
+      <c r="A485" s="27">
+        <v>485</v>
       </c>
       <c r="B485" s="6"/>
       <c r="C485" s="6"/>
@@ -9953,8 +9761,8 @@
       <c r="K485" s="5"/>
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A486" s="32">
-        <v>485</v>
+      <c r="A486" s="27">
+        <v>486</v>
       </c>
       <c r="B486" s="6"/>
       <c r="C486" s="6"/>
@@ -9971,8 +9779,8 @@
       <c r="K486" s="5"/>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A487" s="32">
-        <v>486</v>
+      <c r="A487" s="27">
+        <v>487</v>
       </c>
       <c r="B487" s="6"/>
       <c r="C487" s="6"/>
@@ -9989,8 +9797,8 @@
       <c r="K487" s="5"/>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A488" s="32">
-        <v>487</v>
+      <c r="A488" s="27">
+        <v>488</v>
       </c>
       <c r="B488" s="6"/>
       <c r="C488" s="6"/>
@@ -10007,8 +9815,8 @@
       <c r="K488" s="5"/>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A489" s="32">
-        <v>488</v>
+      <c r="A489" s="27">
+        <v>489</v>
       </c>
       <c r="B489" s="6"/>
       <c r="C489" s="6"/>
@@ -10025,8 +9833,8 @@
       <c r="K489" s="5"/>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A490" s="32">
-        <v>489</v>
+      <c r="A490" s="27">
+        <v>490</v>
       </c>
       <c r="B490" s="6"/>
       <c r="C490" s="6"/>
@@ -10043,8 +9851,8 @@
       <c r="K490" s="5"/>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A491" s="32">
-        <v>490</v>
+      <c r="A491" s="27">
+        <v>491</v>
       </c>
       <c r="B491" s="6"/>
       <c r="C491" s="6"/>
@@ -10061,8 +9869,8 @@
       <c r="K491" s="5"/>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A492" s="32">
-        <v>491</v>
+      <c r="A492" s="27">
+        <v>492</v>
       </c>
       <c r="B492" s="6"/>
       <c r="C492" s="6"/>
@@ -10079,8 +9887,8 @@
       <c r="K492" s="5"/>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A493" s="32">
-        <v>492</v>
+      <c r="A493" s="27">
+        <v>493</v>
       </c>
       <c r="B493" s="6"/>
       <c r="C493" s="6"/>
@@ -10097,8 +9905,8 @@
       <c r="K493" s="5"/>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A494" s="32">
-        <v>493</v>
+      <c r="A494" s="27">
+        <v>494</v>
       </c>
       <c r="B494" s="6"/>
       <c r="C494" s="6"/>
@@ -10115,8 +9923,8 @@
       <c r="K494" s="5"/>
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A495" s="32">
-        <v>494</v>
+      <c r="A495" s="27">
+        <v>495</v>
       </c>
       <c r="B495" s="6"/>
       <c r="C495" s="6"/>
@@ -10133,8 +9941,8 @@
       <c r="K495" s="5"/>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A496" s="32">
-        <v>495</v>
+      <c r="A496" s="27">
+        <v>496</v>
       </c>
       <c r="B496" s="6"/>
       <c r="C496" s="6"/>
@@ -10151,8 +9959,8 @@
       <c r="K496" s="5"/>
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A497" s="32">
-        <v>496</v>
+      <c r="A497" s="27">
+        <v>497</v>
       </c>
       <c r="B497" s="6"/>
       <c r="C497" s="6"/>
@@ -10169,8 +9977,8 @@
       <c r="K497" s="5"/>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A498" s="32">
-        <v>497</v>
+      <c r="A498" s="27">
+        <v>498</v>
       </c>
       <c r="B498" s="6"/>
       <c r="C498" s="6"/>
@@ -10187,8 +9995,8 @@
       <c r="K498" s="5"/>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A499" s="32">
-        <v>498</v>
+      <c r="A499" s="27">
+        <v>499</v>
       </c>
       <c r="B499" s="6"/>
       <c r="C499" s="6"/>
@@ -10205,8 +10013,8 @@
       <c r="K499" s="5"/>
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A500" s="32">
-        <v>499</v>
+      <c r="A500" s="27">
+        <v>500</v>
       </c>
       <c r="B500" s="6"/>
       <c r="C500" s="6"/>
@@ -10223,8 +10031,8 @@
       <c r="K500" s="5"/>
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A501" s="32">
-        <v>500</v>
+      <c r="A501" s="27">
+        <v>501</v>
       </c>
       <c r="B501" s="6"/>
       <c r="C501" s="6"/>
@@ -10241,8 +10049,8 @@
       <c r="K501" s="5"/>
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A502" s="32">
-        <v>501</v>
+      <c r="A502" s="27">
+        <v>502</v>
       </c>
       <c r="B502" s="6"/>
       <c r="C502" s="6"/>
@@ -10259,8 +10067,8 @@
       <c r="K502" s="5"/>
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A503" s="32">
-        <v>502</v>
+      <c r="A503" s="27">
+        <v>503</v>
       </c>
       <c r="B503" s="6"/>
       <c r="C503" s="6"/>
@@ -10277,8 +10085,8 @@
       <c r="K503" s="5"/>
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A504" s="32">
-        <v>503</v>
+      <c r="A504" s="27">
+        <v>504</v>
       </c>
       <c r="B504" s="6"/>
       <c r="C504" s="6"/>
@@ -10295,8 +10103,8 @@
       <c r="K504" s="5"/>
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A505" s="32">
-        <v>504</v>
+      <c r="A505" s="27">
+        <v>505</v>
       </c>
       <c r="B505" s="6"/>
       <c r="C505" s="6"/>
@@ -10313,8 +10121,8 @@
       <c r="K505" s="5"/>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A506" s="32">
-        <v>505</v>
+      <c r="A506" s="27">
+        <v>506</v>
       </c>
       <c r="B506" s="6"/>
       <c r="C506" s="6"/>
@@ -10331,8 +10139,8 @@
       <c r="K506" s="5"/>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A507" s="32">
-        <v>506</v>
+      <c r="A507" s="27">
+        <v>507</v>
       </c>
       <c r="B507" s="6"/>
       <c r="C507" s="6"/>
@@ -10349,8 +10157,8 @@
       <c r="K507" s="5"/>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A508" s="32">
-        <v>507</v>
+      <c r="A508" s="27">
+        <v>508</v>
       </c>
       <c r="B508" s="6"/>
       <c r="C508" s="6"/>
@@ -10367,8 +10175,8 @@
       <c r="K508" s="5"/>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A509" s="32">
-        <v>508</v>
+      <c r="A509" s="27">
+        <v>509</v>
       </c>
       <c r="B509" s="6"/>
       <c r="C509" s="6"/>
@@ -10385,8 +10193,8 @@
       <c r="K509" s="5"/>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A510" s="32">
-        <v>509</v>
+      <c r="A510" s="27">
+        <v>510</v>
       </c>
       <c r="B510" s="6"/>
       <c r="C510" s="6"/>
@@ -10403,8 +10211,8 @@
       <c r="K510" s="5"/>
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A511" s="32">
-        <v>510</v>
+      <c r="A511" s="27">
+        <v>511</v>
       </c>
       <c r="B511" s="6"/>
       <c r="C511" s="6"/>
@@ -10421,8 +10229,8 @@
       <c r="K511" s="5"/>
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A512" s="32">
-        <v>511</v>
+      <c r="A512" s="27">
+        <v>512</v>
       </c>
       <c r="B512" s="6"/>
       <c r="C512" s="6"/>
@@ -10439,8 +10247,8 @@
       <c r="K512" s="5"/>
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A513" s="32">
-        <v>512</v>
+      <c r="A513" s="27">
+        <v>513</v>
       </c>
       <c r="B513" s="6"/>
       <c r="C513" s="6"/>
@@ -10457,8 +10265,8 @@
       <c r="K513" s="5"/>
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A514" s="32">
-        <v>513</v>
+      <c r="A514" s="27">
+        <v>514</v>
       </c>
       <c r="B514" s="6"/>
       <c r="C514" s="6"/>
@@ -10469,14 +10277,14 @@
       <c r="H514" s="5"/>
       <c r="I514" s="5"/>
       <c r="J514" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="J514:J551" si="10">H514:H1064-I514:I1064</f>
         <v>0</v>
       </c>
       <c r="K514" s="5"/>
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A515" s="32">
-        <v>514</v>
+      <c r="A515" s="27">
+        <v>515</v>
       </c>
       <c r="B515" s="6"/>
       <c r="C515" s="6"/>
@@ -10487,14 +10295,14 @@
       <c r="H515" s="5"/>
       <c r="I515" s="5"/>
       <c r="J515" s="5">
-        <f t="shared" ref="J515:J552" si="10">H515:H1065-I515:I1065</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K515" s="5"/>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A516" s="32">
-        <v>515</v>
+      <c r="A516" s="27">
+        <v>516</v>
       </c>
       <c r="B516" s="6"/>
       <c r="C516" s="6"/>
@@ -10511,8 +10319,8 @@
       <c r="K516" s="5"/>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A517" s="32">
-        <v>516</v>
+      <c r="A517" s="27">
+        <v>517</v>
       </c>
       <c r="B517" s="6"/>
       <c r="C517" s="6"/>
@@ -10529,8 +10337,8 @@
       <c r="K517" s="5"/>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A518" s="32">
-        <v>517</v>
+      <c r="A518" s="27">
+        <v>518</v>
       </c>
       <c r="B518" s="6"/>
       <c r="C518" s="6"/>
@@ -10547,8 +10355,8 @@
       <c r="K518" s="5"/>
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A519" s="32">
-        <v>518</v>
+      <c r="A519" s="27">
+        <v>519</v>
       </c>
       <c r="B519" s="6"/>
       <c r="C519" s="6"/>
@@ -10565,8 +10373,8 @@
       <c r="K519" s="5"/>
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A520" s="32">
-        <v>519</v>
+      <c r="A520" s="27">
+        <v>520</v>
       </c>
       <c r="B520" s="6"/>
       <c r="C520" s="6"/>
@@ -10583,8 +10391,8 @@
       <c r="K520" s="5"/>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A521" s="32">
-        <v>520</v>
+      <c r="A521" s="27">
+        <v>521</v>
       </c>
       <c r="B521" s="6"/>
       <c r="C521" s="6"/>
@@ -10601,8 +10409,8 @@
       <c r="K521" s="5"/>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A522" s="32">
-        <v>521</v>
+      <c r="A522" s="27">
+        <v>522</v>
       </c>
       <c r="B522" s="6"/>
       <c r="C522" s="6"/>
@@ -10619,8 +10427,8 @@
       <c r="K522" s="5"/>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A523" s="32">
-        <v>522</v>
+      <c r="A523" s="27">
+        <v>523</v>
       </c>
       <c r="B523" s="6"/>
       <c r="C523" s="6"/>
@@ -10637,8 +10445,8 @@
       <c r="K523" s="5"/>
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A524" s="32">
-        <v>523</v>
+      <c r="A524" s="27">
+        <v>524</v>
       </c>
       <c r="B524" s="6"/>
       <c r="C524" s="6"/>
@@ -10655,8 +10463,8 @@
       <c r="K524" s="5"/>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A525" s="32">
-        <v>524</v>
+      <c r="A525" s="27">
+        <v>525</v>
       </c>
       <c r="B525" s="6"/>
       <c r="C525" s="6"/>
@@ -10673,8 +10481,8 @@
       <c r="K525" s="5"/>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A526" s="32">
-        <v>525</v>
+      <c r="A526" s="27">
+        <v>526</v>
       </c>
       <c r="B526" s="6"/>
       <c r="C526" s="6"/>
@@ -10691,8 +10499,8 @@
       <c r="K526" s="5"/>
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A527" s="32">
-        <v>526</v>
+      <c r="A527" s="27">
+        <v>527</v>
       </c>
       <c r="B527" s="6"/>
       <c r="C527" s="6"/>
@@ -10709,8 +10517,8 @@
       <c r="K527" s="5"/>
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A528" s="32">
-        <v>527</v>
+      <c r="A528" s="27">
+        <v>528</v>
       </c>
       <c r="B528" s="6"/>
       <c r="C528" s="6"/>
@@ -10727,8 +10535,8 @@
       <c r="K528" s="5"/>
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A529" s="32">
-        <v>528</v>
+      <c r="A529" s="27">
+        <v>529</v>
       </c>
       <c r="B529" s="6"/>
       <c r="C529" s="6"/>
@@ -10745,8 +10553,8 @@
       <c r="K529" s="5"/>
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A530" s="32">
-        <v>529</v>
+      <c r="A530" s="27">
+        <v>530</v>
       </c>
       <c r="B530" s="6"/>
       <c r="C530" s="6"/>
@@ -10763,8 +10571,8 @@
       <c r="K530" s="5"/>
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A531" s="32">
-        <v>530</v>
+      <c r="A531" s="27">
+        <v>531</v>
       </c>
       <c r="B531" s="6"/>
       <c r="C531" s="6"/>
@@ -10781,8 +10589,8 @@
       <c r="K531" s="5"/>
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A532" s="32">
-        <v>531</v>
+      <c r="A532" s="27">
+        <v>532</v>
       </c>
       <c r="B532" s="6"/>
       <c r="C532" s="6"/>
@@ -10799,8 +10607,8 @@
       <c r="K532" s="5"/>
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A533" s="32">
-        <v>532</v>
+      <c r="A533" s="27">
+        <v>533</v>
       </c>
       <c r="B533" s="6"/>
       <c r="C533" s="6"/>
@@ -10817,8 +10625,8 @@
       <c r="K533" s="5"/>
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A534" s="32">
-        <v>533</v>
+      <c r="A534" s="27">
+        <v>534</v>
       </c>
       <c r="B534" s="6"/>
       <c r="C534" s="6"/>
@@ -10835,8 +10643,8 @@
       <c r="K534" s="5"/>
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A535" s="32">
-        <v>534</v>
+      <c r="A535" s="27">
+        <v>535</v>
       </c>
       <c r="B535" s="6"/>
       <c r="C535" s="6"/>
@@ -10853,8 +10661,8 @@
       <c r="K535" s="5"/>
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A536" s="32">
-        <v>535</v>
+      <c r="A536" s="27">
+        <v>536</v>
       </c>
       <c r="B536" s="6"/>
       <c r="C536" s="6"/>
@@ -10871,8 +10679,8 @@
       <c r="K536" s="5"/>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A537" s="32">
-        <v>536</v>
+      <c r="A537" s="27">
+        <v>537</v>
       </c>
       <c r="B537" s="6"/>
       <c r="C537" s="6"/>
@@ -10889,8 +10697,8 @@
       <c r="K537" s="5"/>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A538" s="32">
-        <v>537</v>
+      <c r="A538" s="27">
+        <v>538</v>
       </c>
       <c r="B538" s="6"/>
       <c r="C538" s="6"/>
@@ -10907,8 +10715,8 @@
       <c r="K538" s="5"/>
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A539" s="32">
-        <v>538</v>
+      <c r="A539" s="27">
+        <v>539</v>
       </c>
       <c r="B539" s="6"/>
       <c r="C539" s="6"/>
@@ -10925,8 +10733,8 @@
       <c r="K539" s="5"/>
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A540" s="32">
-        <v>539</v>
+      <c r="A540" s="27">
+        <v>540</v>
       </c>
       <c r="B540" s="6"/>
       <c r="C540" s="6"/>
@@ -10943,8 +10751,8 @@
       <c r="K540" s="5"/>
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A541" s="32">
-        <v>540</v>
+      <c r="A541" s="27">
+        <v>541</v>
       </c>
       <c r="B541" s="6"/>
       <c r="C541" s="6"/>
@@ -10961,8 +10769,8 @@
       <c r="K541" s="5"/>
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A542" s="32">
-        <v>541</v>
+      <c r="A542" s="27">
+        <v>542</v>
       </c>
       <c r="B542" s="6"/>
       <c r="C542" s="6"/>
@@ -10979,8 +10787,8 @@
       <c r="K542" s="5"/>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A543" s="32">
-        <v>542</v>
+      <c r="A543" s="27">
+        <v>543</v>
       </c>
       <c r="B543" s="6"/>
       <c r="C543" s="6"/>
@@ -10997,8 +10805,8 @@
       <c r="K543" s="5"/>
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A544" s="32">
-        <v>543</v>
+      <c r="A544" s="27">
+        <v>544</v>
       </c>
       <c r="B544" s="6"/>
       <c r="C544" s="6"/>
@@ -11015,8 +10823,8 @@
       <c r="K544" s="5"/>
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A545" s="32">
-        <v>544</v>
+      <c r="A545" s="27">
+        <v>545</v>
       </c>
       <c r="B545" s="6"/>
       <c r="C545" s="6"/>
@@ -11033,8 +10841,8 @@
       <c r="K545" s="5"/>
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A546" s="32">
-        <v>545</v>
+      <c r="A546" s="27">
+        <v>546</v>
       </c>
       <c r="B546" s="6"/>
       <c r="C546" s="6"/>
@@ -11051,8 +10859,8 @@
       <c r="K546" s="5"/>
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A547" s="32">
-        <v>546</v>
+      <c r="A547" s="27">
+        <v>547</v>
       </c>
       <c r="B547" s="6"/>
       <c r="C547" s="6"/>
@@ -11069,8 +10877,8 @@
       <c r="K547" s="5"/>
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A548" s="32">
-        <v>547</v>
+      <c r="A548" s="27">
+        <v>548</v>
       </c>
       <c r="B548" s="6"/>
       <c r="C548" s="6"/>
@@ -11087,8 +10895,8 @@
       <c r="K548" s="5"/>
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A549" s="32">
-        <v>548</v>
+      <c r="A549" s="27">
+        <v>549</v>
       </c>
       <c r="B549" s="6"/>
       <c r="C549" s="6"/>
@@ -11105,8 +10913,8 @@
       <c r="K549" s="5"/>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A550" s="32">
-        <v>549</v>
+      <c r="A550" s="27">
+        <v>550</v>
       </c>
       <c r="B550" s="6"/>
       <c r="C550" s="6"/>
@@ -11123,8 +10931,8 @@
       <c r="K550" s="5"/>
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A551" s="32">
-        <v>550</v>
+      <c r="A551" s="27">
+        <v>551</v>
       </c>
       <c r="B551" s="6"/>
       <c r="C551" s="6"/>
@@ -11140,28 +10948,10 @@
       </c>
       <c r="K551" s="5"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A552" s="32">
-        <v>551</v>
-      </c>
-      <c r="B552" s="6"/>
-      <c r="C552" s="6"/>
-      <c r="D552" s="11"/>
-      <c r="E552" s="5"/>
-      <c r="F552" s="5"/>
-      <c r="G552" s="5"/>
-      <c r="H552" s="5"/>
-      <c r="I552" s="5"/>
-      <c r="J552" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K552" s="5"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A7:K552" xr:uid="{3A74A576-E2DF-42A6-9EFF-12262C33BC48}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:K552">
-    <sortCondition ref="B8:B552"/>
+  <autoFilter ref="A7:K551" xr:uid="{3A74A576-E2DF-42A6-9EFF-12262C33BC48}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:K551">
+    <sortCondition ref="B8:B551"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="B1:K2"/>
@@ -11170,9 +10960,6 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -11194,21 +10981,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="A1" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
@@ -11217,10 +11004,10 @@
         <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">

--- a/ĐƠN HÀNG.xlsx
+++ b/ĐƠN HÀNG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998EAEC3-C2B5-4A24-8384-ACB65303D42A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01F8312-42C5-4AFE-9C8B-B9D013666522}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -827,17 +827,17 @@
         <v>1</v>
       </c>
       <c r="G5" s="15">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="H5" s="15">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="I5" s="15">
         <v>35000</v>
       </c>
       <c r="J5" s="15">
         <f>F5*G5*3850 +H5+I5</f>
-        <v>265600</v>
+        <v>555500</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">

--- a/ĐƠN HÀNG.xlsx
+++ b/ĐƠN HÀNG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01F8312-42C5-4AFE-9C8B-B9D013666522}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84998D9F-60BD-496D-AF90-C1E09712A409}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -750,7 +750,7 @@
   <dimension ref="A1:K551"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/ĐƠN HÀNG.xlsx
+++ b/ĐƠN HÀNG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84998D9F-60BD-496D-AF90-C1E09712A409}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9883F85-0864-4185-B152-22BC2185ACC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K551"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -817,7 +817,7 @@
       </c>
       <c r="K4" s="8">
         <f>SUM(H8:H25)</f>
-        <v>5552000</v>
+        <v>5517000</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -1378,14 +1378,14 @@
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5">
-        <v>330000</v>
+        <v>300000</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
       <c r="J22" s="5">
         <f t="shared" ref="J22:J65" si="2">H22:H572-I22:I572</f>
-        <v>330000</v>
+        <v>300000</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>65</v>
@@ -1439,14 +1439,14 @@
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5">
-        <v>85000</v>
+        <v>80000</v>
       </c>
       <c r="I24" s="5">
         <v>0</v>
       </c>
       <c r="J24" s="5">
         <f t="shared" si="2"/>
-        <v>85000</v>
+        <v>80000</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>30</v>

--- a/ĐƠN HÀNG.xlsx
+++ b/ĐƠN HÀNG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9883F85-0864-4185-B152-22BC2185ACC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14F0D44-C7E7-465F-9EE9-C904979D5512}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="87">
   <si>
     <t>STT</t>
   </si>
@@ -285,6 +285,12 @@
   <si>
     <t>Giay the thao 2 mau</t>
   </si>
+  <si>
+    <t>giá</t>
+  </si>
+  <si>
+    <t>ship</t>
+  </si>
 </sst>
 </file>
 
@@ -350,7 +356,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,6 +384,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -435,22 +447,9 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -467,6 +466,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,13 +769,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" style="25" customWidth="1"/>
+    <col min="1" max="1" width="5.36328125" style="18" customWidth="1"/>
     <col min="2" max="2" width="19" style="9" customWidth="1"/>
     <col min="3" max="3" width="23.54296875" style="9" customWidth="1"/>
     <col min="4" max="4" width="13.08984375" style="13" customWidth="1"/>
@@ -770,36 +790,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="16" t="s">
         <v>47</v>
       </c>
@@ -821,13 +841,13 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="15">
         <v>1</v>
       </c>
       <c r="G5" s="15">
-        <v>130</v>
+        <v>179000</v>
       </c>
       <c r="H5" s="15">
         <v>20000</v>
@@ -837,11 +857,11 @@
       </c>
       <c r="J5" s="15">
         <f>F5*G5*3850 +H5+I5</f>
-        <v>555500</v>
+        <v>689205000</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -875,44 +895,44 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="28">
+    <row r="8" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="26">
         <v>1</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="26">
         <v>1</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="26">
         <v>92</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="26">
         <v>420000</v>
       </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
+      <c r="I8" s="26">
+        <v>0</v>
+      </c>
+      <c r="J8" s="26">
         <f t="shared" ref="J8:J13" si="0">H8:H551-I8:I551</f>
         <v>420000</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="26" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="28">
+      <c r="A9" s="21">
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -948,7 +968,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="28">
+      <c r="A10" s="21">
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -984,7 +1004,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="28">
+      <c r="A11" s="21">
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -1020,7 +1040,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="28">
+      <c r="A12" s="21">
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1056,7 +1076,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="28">
+      <c r="A13" s="21">
         <v>6</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1092,7 +1112,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="28">
+      <c r="A14" s="21">
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -1126,7 +1146,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="28">
+      <c r="A15" s="21">
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -1159,208 +1179,208 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="28">
+    <row r="16" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="26">
         <v>13</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="26">
         <v>1</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5">
+      <c r="G16" s="26"/>
+      <c r="H16" s="26">
         <v>440000</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="26">
         <v>100000</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="26">
         <f>H16:H563-I16:I563</f>
         <v>340000</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="26" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="28">
+    <row r="17" spans="1:11" s="29" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="26">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="26">
         <v>1</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5">
+      <c r="G17" s="26"/>
+      <c r="H17" s="26">
         <v>332000</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="26">
         <v>100000</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="26">
         <f>H17:H566-I17:I566</f>
         <v>232000</v>
       </c>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="28">
+      <c r="K17" s="26"/>
+    </row>
+    <row r="18" spans="1:11" s="29" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="26">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="26">
         <v>1</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5">
+      <c r="G18" s="26"/>
+      <c r="H18" s="26">
         <v>230000</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="26">
         <v>70000</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="26">
         <f>H18:H567-I18:I567</f>
         <v>160000</v>
       </c>
-      <c r="K18" s="21" t="s">
+      <c r="K18" s="26" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="28">
+    <row r="19" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="26">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="26">
         <v>16</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5">
+      <c r="G19" s="26"/>
+      <c r="H19" s="26">
         <v>880000</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="26">
         <v>440000</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="26">
         <f>H19:H568-I19:I568</f>
         <v>440000</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="26" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="28">
+    <row r="20" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="26">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="26">
         <v>1</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5">
+      <c r="G20" s="26"/>
+      <c r="H20" s="26">
         <v>215000</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="26">
         <v>100000</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="26">
         <f>H20:H569-I20:I569</f>
         <v>115000</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K20" s="26" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="28">
+    <row r="21" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="26">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="32">
         <v>1</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5">
+      <c r="G21" s="26"/>
+      <c r="H21" s="26">
         <v>205000</v>
       </c>
-      <c r="I21" s="5">
-        <v>0</v>
-      </c>
-      <c r="J21" s="5">
+      <c r="I21" s="26">
+        <v>0</v>
+      </c>
+      <c r="J21" s="26">
         <f>H21:H570-I21:I570</f>
         <v>205000</v>
       </c>
-      <c r="K21" s="5"/>
+      <c r="K21" s="26"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="28">
+      <c r="A22" s="21">
         <v>22</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -1369,7 +1389,7 @@
       <c r="C22" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="22"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="5" t="s">
         <v>64</v>
       </c>
@@ -1392,7 +1412,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="28">
+      <c r="A23" s="21">
         <v>23</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -1421,7 +1441,7 @@
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="28">
+      <c r="A24" s="21">
         <v>24</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -1452,36 +1472,36 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="28">
+    <row r="25" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="26">
         <v>25</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="5" t="s">
+      <c r="D25" s="28"/>
+      <c r="E25" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="26">
         <v>1</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5">
+      <c r="G25" s="26"/>
+      <c r="H25" s="26">
         <v>225000</v>
       </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5">
+      <c r="I25" s="26"/>
+      <c r="J25" s="26">
         <f t="shared" si="2"/>
         <v>225000</v>
       </c>
-      <c r="K25" s="5"/>
+      <c r="K25" s="26"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="27">
+      <c r="A26" s="20">
         <v>26</v>
       </c>
       <c r="B26" s="6"/>
@@ -1499,7 +1519,7 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="27">
+      <c r="A27" s="20">
         <v>27</v>
       </c>
       <c r="B27" s="6"/>
@@ -1517,7 +1537,7 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="27">
+      <c r="A28" s="20">
         <v>28</v>
       </c>
       <c r="B28" s="6"/>
@@ -1535,14 +1555,18 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="27">
+      <c r="A29" s="20">
         <v>29</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -1553,15 +1577,22 @@
       <c r="K29" s="5"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="27">
+      <c r="A30" s="20">
         <v>30</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
+      <c r="E30" s="5">
+        <v>179000</v>
+      </c>
+      <c r="F30" s="5">
+        <v>29000</v>
+      </c>
+      <c r="G30" s="5">
+        <f>(E30+F30)</f>
+        <v>208000</v>
+      </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5">
@@ -1571,7 +1602,7 @@
       <c r="K30" s="5"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="27">
+      <c r="A31" s="20">
         <v>31</v>
       </c>
       <c r="B31" s="6"/>
@@ -1589,7 +1620,7 @@
       <c r="K31" s="5"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="27">
+      <c r="A32" s="20">
         <v>32</v>
       </c>
       <c r="B32" s="6"/>
@@ -1607,7 +1638,7 @@
       <c r="K32" s="5"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="27">
+      <c r="A33" s="20">
         <v>33</v>
       </c>
       <c r="B33" s="6"/>
@@ -1625,7 +1656,7 @@
       <c r="K33" s="5"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="27">
+      <c r="A34" s="20">
         <v>34</v>
       </c>
       <c r="B34" s="6"/>
@@ -1643,7 +1674,7 @@
       <c r="K34" s="5"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="27">
+      <c r="A35" s="20">
         <v>35</v>
       </c>
       <c r="B35" s="6"/>
@@ -1661,7 +1692,7 @@
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="27">
+      <c r="A36" s="20">
         <v>36</v>
       </c>
       <c r="B36" s="6"/>
@@ -1679,7 +1710,7 @@
       <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" s="27">
+      <c r="A37" s="20">
         <v>37</v>
       </c>
       <c r="B37" s="6"/>
@@ -1697,7 +1728,7 @@
       <c r="K37" s="5"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" s="27">
+      <c r="A38" s="20">
         <v>38</v>
       </c>
       <c r="B38" s="6"/>
@@ -1715,7 +1746,7 @@
       <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="27">
+      <c r="A39" s="20">
         <v>39</v>
       </c>
       <c r="B39" s="6"/>
@@ -1733,7 +1764,7 @@
       <c r="K39" s="5"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" s="27">
+      <c r="A40" s="20">
         <v>40</v>
       </c>
       <c r="B40" s="6"/>
@@ -1751,7 +1782,7 @@
       <c r="K40" s="5"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="27">
+      <c r="A41" s="20">
         <v>41</v>
       </c>
       <c r="B41" s="6"/>
@@ -1769,7 +1800,7 @@
       <c r="K41" s="5"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" s="27">
+      <c r="A42" s="20">
         <v>42</v>
       </c>
       <c r="B42" s="6"/>
@@ -1787,7 +1818,7 @@
       <c r="K42" s="5"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" s="27">
+      <c r="A43" s="20">
         <v>43</v>
       </c>
       <c r="B43" s="6"/>
@@ -1805,7 +1836,7 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A44" s="27">
+      <c r="A44" s="20">
         <v>44</v>
       </c>
       <c r="B44" s="6"/>
@@ -1823,7 +1854,7 @@
       <c r="K44" s="5"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A45" s="27">
+      <c r="A45" s="20">
         <v>45</v>
       </c>
       <c r="B45" s="6"/>
@@ -1841,7 +1872,7 @@
       <c r="K45" s="5"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A46" s="27">
+      <c r="A46" s="20">
         <v>46</v>
       </c>
       <c r="B46" s="6"/>
@@ -1859,7 +1890,7 @@
       <c r="K46" s="5"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A47" s="27">
+      <c r="A47" s="20">
         <v>47</v>
       </c>
       <c r="B47" s="6"/>
@@ -1877,7 +1908,7 @@
       <c r="K47" s="5"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" s="27">
+      <c r="A48" s="20">
         <v>48</v>
       </c>
       <c r="B48" s="6"/>
@@ -1895,7 +1926,7 @@
       <c r="K48" s="5"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A49" s="27">
+      <c r="A49" s="20">
         <v>49</v>
       </c>
       <c r="B49" s="6"/>
@@ -1913,7 +1944,7 @@
       <c r="K49" s="5"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A50" s="27">
+      <c r="A50" s="20">
         <v>50</v>
       </c>
       <c r="B50" s="6"/>
@@ -1931,7 +1962,7 @@
       <c r="K50" s="5"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51" s="27">
+      <c r="A51" s="20">
         <v>51</v>
       </c>
       <c r="B51" s="6"/>
@@ -1949,7 +1980,7 @@
       <c r="K51" s="5"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A52" s="27">
+      <c r="A52" s="20">
         <v>52</v>
       </c>
       <c r="B52" s="6"/>
@@ -1967,7 +1998,7 @@
       <c r="K52" s="5"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" s="27">
+      <c r="A53" s="20">
         <v>53</v>
       </c>
       <c r="B53" s="6"/>
@@ -1985,7 +2016,7 @@
       <c r="K53" s="5"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A54" s="27">
+      <c r="A54" s="20">
         <v>54</v>
       </c>
       <c r="B54" s="6"/>
@@ -2003,7 +2034,7 @@
       <c r="K54" s="5"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A55" s="27">
+      <c r="A55" s="20">
         <v>55</v>
       </c>
       <c r="B55" s="6"/>
@@ -2021,7 +2052,7 @@
       <c r="K55" s="5"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A56" s="27">
+      <c r="A56" s="20">
         <v>56</v>
       </c>
       <c r="B56" s="6"/>
@@ -2039,7 +2070,7 @@
       <c r="K56" s="5"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A57" s="27">
+      <c r="A57" s="20">
         <v>57</v>
       </c>
       <c r="B57" s="6"/>
@@ -2057,7 +2088,7 @@
       <c r="K57" s="5"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A58" s="27">
+      <c r="A58" s="20">
         <v>58</v>
       </c>
       <c r="B58" s="6"/>
@@ -2075,7 +2106,7 @@
       <c r="K58" s="5"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A59" s="27">
+      <c r="A59" s="20">
         <v>59</v>
       </c>
       <c r="B59" s="6"/>
@@ -2093,7 +2124,7 @@
       <c r="K59" s="5"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A60" s="27">
+      <c r="A60" s="20">
         <v>60</v>
       </c>
       <c r="B60" s="6"/>
@@ -2111,7 +2142,7 @@
       <c r="K60" s="5"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A61" s="27">
+      <c r="A61" s="20">
         <v>61</v>
       </c>
       <c r="B61" s="6"/>
@@ -2129,7 +2160,7 @@
       <c r="K61" s="5"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A62" s="27">
+      <c r="A62" s="20">
         <v>62</v>
       </c>
       <c r="B62" s="6"/>
@@ -2147,7 +2178,7 @@
       <c r="K62" s="5"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A63" s="27">
+      <c r="A63" s="20">
         <v>63</v>
       </c>
       <c r="B63" s="6"/>
@@ -2165,7 +2196,7 @@
       <c r="K63" s="5"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A64" s="27">
+      <c r="A64" s="20">
         <v>64</v>
       </c>
       <c r="B64" s="6"/>
@@ -2183,7 +2214,7 @@
       <c r="K64" s="5"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A65" s="27">
+      <c r="A65" s="20">
         <v>65</v>
       </c>
       <c r="B65" s="6"/>
@@ -2201,7 +2232,7 @@
       <c r="K65" s="5"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A66" s="27">
+      <c r="A66" s="20">
         <v>66</v>
       </c>
       <c r="B66" s="6"/>
@@ -2219,7 +2250,7 @@
       <c r="K66" s="5"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A67" s="27">
+      <c r="A67" s="20">
         <v>67</v>
       </c>
       <c r="B67" s="6"/>
@@ -2237,7 +2268,7 @@
       <c r="K67" s="5"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A68" s="27">
+      <c r="A68" s="20">
         <v>68</v>
       </c>
       <c r="B68" s="6"/>
@@ -2255,7 +2286,7 @@
       <c r="K68" s="5"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A69" s="27">
+      <c r="A69" s="20">
         <v>69</v>
       </c>
       <c r="B69" s="6"/>
@@ -2273,7 +2304,7 @@
       <c r="K69" s="5"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A70" s="27">
+      <c r="A70" s="20">
         <v>70</v>
       </c>
       <c r="B70" s="6"/>
@@ -2291,7 +2322,7 @@
       <c r="K70" s="5"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A71" s="27">
+      <c r="A71" s="20">
         <v>71</v>
       </c>
       <c r="B71" s="6"/>
@@ -2309,7 +2340,7 @@
       <c r="K71" s="5"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A72" s="27">
+      <c r="A72" s="20">
         <v>72</v>
       </c>
       <c r="B72" s="6"/>
@@ -2327,7 +2358,7 @@
       <c r="K72" s="5"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A73" s="27">
+      <c r="A73" s="20">
         <v>73</v>
       </c>
       <c r="B73" s="6"/>
@@ -2345,7 +2376,7 @@
       <c r="K73" s="5"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A74" s="27">
+      <c r="A74" s="20">
         <v>74</v>
       </c>
       <c r="B74" s="6"/>
@@ -2363,7 +2394,7 @@
       <c r="K74" s="5"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A75" s="27">
+      <c r="A75" s="20">
         <v>75</v>
       </c>
       <c r="B75" s="6"/>
@@ -2381,7 +2412,7 @@
       <c r="K75" s="5"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A76" s="27">
+      <c r="A76" s="20">
         <v>76</v>
       </c>
       <c r="B76" s="6"/>
@@ -2399,7 +2430,7 @@
       <c r="K76" s="5"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A77" s="27">
+      <c r="A77" s="20">
         <v>77</v>
       </c>
       <c r="B77" s="6"/>
@@ -2417,7 +2448,7 @@
       <c r="K77" s="5"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A78" s="27">
+      <c r="A78" s="20">
         <v>78</v>
       </c>
       <c r="B78" s="6"/>
@@ -2435,7 +2466,7 @@
       <c r="K78" s="5"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A79" s="27">
+      <c r="A79" s="20">
         <v>79</v>
       </c>
       <c r="B79" s="6"/>
@@ -2453,7 +2484,7 @@
       <c r="K79" s="5"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A80" s="27">
+      <c r="A80" s="20">
         <v>80</v>
       </c>
       <c r="B80" s="6"/>
@@ -2471,7 +2502,7 @@
       <c r="K80" s="5"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A81" s="27">
+      <c r="A81" s="20">
         <v>81</v>
       </c>
       <c r="B81" s="6"/>
@@ -2489,7 +2520,7 @@
       <c r="K81" s="5"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A82" s="27">
+      <c r="A82" s="20">
         <v>82</v>
       </c>
       <c r="B82" s="6"/>
@@ -2507,7 +2538,7 @@
       <c r="K82" s="5"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A83" s="27">
+      <c r="A83" s="20">
         <v>83</v>
       </c>
       <c r="B83" s="6"/>
@@ -2525,7 +2556,7 @@
       <c r="K83" s="5"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A84" s="27">
+      <c r="A84" s="20">
         <v>84</v>
       </c>
       <c r="B84" s="6"/>
@@ -2543,7 +2574,7 @@
       <c r="K84" s="5"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A85" s="27">
+      <c r="A85" s="20">
         <v>85</v>
       </c>
       <c r="B85" s="6"/>
@@ -2561,7 +2592,7 @@
       <c r="K85" s="5"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A86" s="27">
+      <c r="A86" s="20">
         <v>86</v>
       </c>
       <c r="B86" s="6"/>
@@ -2579,7 +2610,7 @@
       <c r="K86" s="5"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A87" s="27">
+      <c r="A87" s="20">
         <v>87</v>
       </c>
       <c r="B87" s="6"/>
@@ -2597,7 +2628,7 @@
       <c r="K87" s="5"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A88" s="27">
+      <c r="A88" s="20">
         <v>88</v>
       </c>
       <c r="B88" s="6"/>
@@ -2615,7 +2646,7 @@
       <c r="K88" s="5"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A89" s="27">
+      <c r="A89" s="20">
         <v>89</v>
       </c>
       <c r="B89" s="6"/>
@@ -2633,7 +2664,7 @@
       <c r="K89" s="5"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A90" s="27">
+      <c r="A90" s="20">
         <v>90</v>
       </c>
       <c r="B90" s="6"/>
@@ -2651,7 +2682,7 @@
       <c r="K90" s="5"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A91" s="27">
+      <c r="A91" s="20">
         <v>91</v>
       </c>
       <c r="B91" s="6"/>
@@ -2669,7 +2700,7 @@
       <c r="K91" s="5"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A92" s="27">
+      <c r="A92" s="20">
         <v>92</v>
       </c>
       <c r="B92" s="6"/>
@@ -2687,7 +2718,7 @@
       <c r="K92" s="5"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A93" s="27">
+      <c r="A93" s="20">
         <v>93</v>
       </c>
       <c r="B93" s="6"/>
@@ -2705,7 +2736,7 @@
       <c r="K93" s="5"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A94" s="27">
+      <c r="A94" s="20">
         <v>94</v>
       </c>
       <c r="B94" s="6"/>
@@ -2723,7 +2754,7 @@
       <c r="K94" s="5"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A95" s="27">
+      <c r="A95" s="20">
         <v>95</v>
       </c>
       <c r="B95" s="6"/>
@@ -2741,7 +2772,7 @@
       <c r="K95" s="5"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A96" s="27">
+      <c r="A96" s="20">
         <v>96</v>
       </c>
       <c r="B96" s="6"/>
@@ -2759,7 +2790,7 @@
       <c r="K96" s="5"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A97" s="27">
+      <c r="A97" s="20">
         <v>97</v>
       </c>
       <c r="B97" s="6"/>
@@ -2777,7 +2808,7 @@
       <c r="K97" s="5"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A98" s="27">
+      <c r="A98" s="20">
         <v>98</v>
       </c>
       <c r="B98" s="6"/>
@@ -2795,7 +2826,7 @@
       <c r="K98" s="5"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A99" s="27">
+      <c r="A99" s="20">
         <v>99</v>
       </c>
       <c r="B99" s="6"/>
@@ -2813,7 +2844,7 @@
       <c r="K99" s="5"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A100" s="27">
+      <c r="A100" s="20">
         <v>100</v>
       </c>
       <c r="B100" s="6"/>
@@ -2831,7 +2862,7 @@
       <c r="K100" s="5"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A101" s="27">
+      <c r="A101" s="20">
         <v>101</v>
       </c>
       <c r="B101" s="6"/>
@@ -2849,7 +2880,7 @@
       <c r="K101" s="5"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A102" s="27">
+      <c r="A102" s="20">
         <v>102</v>
       </c>
       <c r="B102" s="6"/>
@@ -2867,7 +2898,7 @@
       <c r="K102" s="5"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A103" s="27">
+      <c r="A103" s="20">
         <v>103</v>
       </c>
       <c r="B103" s="6"/>
@@ -2885,7 +2916,7 @@
       <c r="K103" s="5"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A104" s="27">
+      <c r="A104" s="20">
         <v>104</v>
       </c>
       <c r="B104" s="6"/>
@@ -2903,7 +2934,7 @@
       <c r="K104" s="5"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A105" s="27">
+      <c r="A105" s="20">
         <v>105</v>
       </c>
       <c r="B105" s="6"/>
@@ -2921,7 +2952,7 @@
       <c r="K105" s="5"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A106" s="27">
+      <c r="A106" s="20">
         <v>106</v>
       </c>
       <c r="B106" s="6"/>
@@ -2939,7 +2970,7 @@
       <c r="K106" s="5"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A107" s="27">
+      <c r="A107" s="20">
         <v>107</v>
       </c>
       <c r="B107" s="6"/>
@@ -2957,7 +2988,7 @@
       <c r="K107" s="5"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A108" s="27">
+      <c r="A108" s="20">
         <v>108</v>
       </c>
       <c r="B108" s="6"/>
@@ -2975,7 +3006,7 @@
       <c r="K108" s="5"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A109" s="27">
+      <c r="A109" s="20">
         <v>109</v>
       </c>
       <c r="B109" s="6"/>
@@ -2993,7 +3024,7 @@
       <c r="K109" s="5"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A110" s="27">
+      <c r="A110" s="20">
         <v>110</v>
       </c>
       <c r="B110" s="6"/>
@@ -3011,7 +3042,7 @@
       <c r="K110" s="5"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A111" s="27">
+      <c r="A111" s="20">
         <v>111</v>
       </c>
       <c r="B111" s="6"/>
@@ -3029,7 +3060,7 @@
       <c r="K111" s="5"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A112" s="27">
+      <c r="A112" s="20">
         <v>112</v>
       </c>
       <c r="B112" s="6"/>
@@ -3047,7 +3078,7 @@
       <c r="K112" s="5"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A113" s="27">
+      <c r="A113" s="20">
         <v>113</v>
       </c>
       <c r="B113" s="6"/>
@@ -3065,7 +3096,7 @@
       <c r="K113" s="5"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A114" s="27">
+      <c r="A114" s="20">
         <v>114</v>
       </c>
       <c r="B114" s="6"/>
@@ -3083,7 +3114,7 @@
       <c r="K114" s="5"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A115" s="27">
+      <c r="A115" s="20">
         <v>115</v>
       </c>
       <c r="B115" s="6"/>
@@ -3101,7 +3132,7 @@
       <c r="K115" s="5"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A116" s="27">
+      <c r="A116" s="20">
         <v>116</v>
       </c>
       <c r="B116" s="6"/>
@@ -3119,7 +3150,7 @@
       <c r="K116" s="5"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A117" s="27">
+      <c r="A117" s="20">
         <v>117</v>
       </c>
       <c r="B117" s="6"/>
@@ -3137,7 +3168,7 @@
       <c r="K117" s="5"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A118" s="27">
+      <c r="A118" s="20">
         <v>118</v>
       </c>
       <c r="B118" s="6"/>
@@ -3155,7 +3186,7 @@
       <c r="K118" s="5"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A119" s="27">
+      <c r="A119" s="20">
         <v>119</v>
       </c>
       <c r="B119" s="6"/>
@@ -3173,7 +3204,7 @@
       <c r="K119" s="5"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A120" s="27">
+      <c r="A120" s="20">
         <v>120</v>
       </c>
       <c r="B120" s="6"/>
@@ -3191,7 +3222,7 @@
       <c r="K120" s="5"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A121" s="27">
+      <c r="A121" s="20">
         <v>121</v>
       </c>
       <c r="B121" s="6"/>
@@ -3209,7 +3240,7 @@
       <c r="K121" s="5"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A122" s="27">
+      <c r="A122" s="20">
         <v>122</v>
       </c>
       <c r="B122" s="6"/>
@@ -3227,7 +3258,7 @@
       <c r="K122" s="5"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A123" s="27">
+      <c r="A123" s="20">
         <v>123</v>
       </c>
       <c r="B123" s="6"/>
@@ -3245,7 +3276,7 @@
       <c r="K123" s="5"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A124" s="27">
+      <c r="A124" s="20">
         <v>124</v>
       </c>
       <c r="B124" s="6"/>
@@ -3263,7 +3294,7 @@
       <c r="K124" s="5"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A125" s="27">
+      <c r="A125" s="20">
         <v>125</v>
       </c>
       <c r="B125" s="6"/>
@@ -3281,7 +3312,7 @@
       <c r="K125" s="5"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A126" s="27">
+      <c r="A126" s="20">
         <v>126</v>
       </c>
       <c r="B126" s="6"/>
@@ -3299,7 +3330,7 @@
       <c r="K126" s="5"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A127" s="27">
+      <c r="A127" s="20">
         <v>127</v>
       </c>
       <c r="B127" s="6"/>
@@ -3317,7 +3348,7 @@
       <c r="K127" s="5"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A128" s="27">
+      <c r="A128" s="20">
         <v>128</v>
       </c>
       <c r="B128" s="6"/>
@@ -3335,7 +3366,7 @@
       <c r="K128" s="5"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A129" s="27">
+      <c r="A129" s="20">
         <v>129</v>
       </c>
       <c r="B129" s="6"/>
@@ -3353,7 +3384,7 @@
       <c r="K129" s="5"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A130" s="27">
+      <c r="A130" s="20">
         <v>130</v>
       </c>
       <c r="B130" s="6"/>
@@ -3371,7 +3402,7 @@
       <c r="K130" s="5"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A131" s="27">
+      <c r="A131" s="20">
         <v>131</v>
       </c>
       <c r="B131" s="6"/>
@@ -3389,7 +3420,7 @@
       <c r="K131" s="5"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A132" s="27">
+      <c r="A132" s="20">
         <v>132</v>
       </c>
       <c r="B132" s="6"/>
@@ -3407,7 +3438,7 @@
       <c r="K132" s="5"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A133" s="27">
+      <c r="A133" s="20">
         <v>133</v>
       </c>
       <c r="B133" s="6"/>
@@ -3425,7 +3456,7 @@
       <c r="K133" s="5"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A134" s="27">
+      <c r="A134" s="20">
         <v>134</v>
       </c>
       <c r="B134" s="6"/>
@@ -3443,7 +3474,7 @@
       <c r="K134" s="5"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A135" s="27">
+      <c r="A135" s="20">
         <v>135</v>
       </c>
       <c r="B135" s="6"/>
@@ -3461,7 +3492,7 @@
       <c r="K135" s="5"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A136" s="27">
+      <c r="A136" s="20">
         <v>136</v>
       </c>
       <c r="B136" s="6"/>
@@ -3479,7 +3510,7 @@
       <c r="K136" s="5"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A137" s="27">
+      <c r="A137" s="20">
         <v>137</v>
       </c>
       <c r="B137" s="6"/>
@@ -3497,7 +3528,7 @@
       <c r="K137" s="5"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A138" s="27">
+      <c r="A138" s="20">
         <v>138</v>
       </c>
       <c r="B138" s="6"/>
@@ -3515,7 +3546,7 @@
       <c r="K138" s="5"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A139" s="27">
+      <c r="A139" s="20">
         <v>139</v>
       </c>
       <c r="B139" s="6"/>
@@ -3533,7 +3564,7 @@
       <c r="K139" s="5"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A140" s="27">
+      <c r="A140" s="20">
         <v>140</v>
       </c>
       <c r="B140" s="6"/>
@@ -3551,7 +3582,7 @@
       <c r="K140" s="5"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A141" s="27">
+      <c r="A141" s="20">
         <v>141</v>
       </c>
       <c r="B141" s="6"/>
@@ -3569,7 +3600,7 @@
       <c r="K141" s="5"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A142" s="27">
+      <c r="A142" s="20">
         <v>142</v>
       </c>
       <c r="B142" s="6"/>
@@ -3587,7 +3618,7 @@
       <c r="K142" s="5"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A143" s="27">
+      <c r="A143" s="20">
         <v>143</v>
       </c>
       <c r="B143" s="6"/>
@@ -3605,7 +3636,7 @@
       <c r="K143" s="5"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A144" s="27">
+      <c r="A144" s="20">
         <v>144</v>
       </c>
       <c r="B144" s="6"/>
@@ -3623,7 +3654,7 @@
       <c r="K144" s="5"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A145" s="27">
+      <c r="A145" s="20">
         <v>145</v>
       </c>
       <c r="B145" s="6"/>
@@ -3641,7 +3672,7 @@
       <c r="K145" s="5"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A146" s="27">
+      <c r="A146" s="20">
         <v>146</v>
       </c>
       <c r="B146" s="6"/>
@@ -3659,7 +3690,7 @@
       <c r="K146" s="5"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A147" s="27">
+      <c r="A147" s="20">
         <v>147</v>
       </c>
       <c r="B147" s="6"/>
@@ -3677,7 +3708,7 @@
       <c r="K147" s="5"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A148" s="27">
+      <c r="A148" s="20">
         <v>148</v>
       </c>
       <c r="B148" s="6"/>
@@ -3695,7 +3726,7 @@
       <c r="K148" s="5"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A149" s="27">
+      <c r="A149" s="20">
         <v>149</v>
       </c>
       <c r="B149" s="6"/>
@@ -3713,7 +3744,7 @@
       <c r="K149" s="5"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A150" s="27">
+      <c r="A150" s="20">
         <v>150</v>
       </c>
       <c r="B150" s="6"/>
@@ -3731,7 +3762,7 @@
       <c r="K150" s="5"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A151" s="27">
+      <c r="A151" s="20">
         <v>151</v>
       </c>
       <c r="B151" s="6"/>
@@ -3749,7 +3780,7 @@
       <c r="K151" s="5"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A152" s="27">
+      <c r="A152" s="20">
         <v>152</v>
       </c>
       <c r="B152" s="6"/>
@@ -3767,7 +3798,7 @@
       <c r="K152" s="5"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A153" s="27">
+      <c r="A153" s="20">
         <v>153</v>
       </c>
       <c r="B153" s="6"/>
@@ -3785,7 +3816,7 @@
       <c r="K153" s="5"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A154" s="27">
+      <c r="A154" s="20">
         <v>154</v>
       </c>
       <c r="B154" s="6"/>
@@ -3803,7 +3834,7 @@
       <c r="K154" s="5"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A155" s="27">
+      <c r="A155" s="20">
         <v>155</v>
       </c>
       <c r="B155" s="6"/>
@@ -3821,7 +3852,7 @@
       <c r="K155" s="5"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A156" s="27">
+      <c r="A156" s="20">
         <v>156</v>
       </c>
       <c r="B156" s="6"/>
@@ -3839,7 +3870,7 @@
       <c r="K156" s="5"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A157" s="27">
+      <c r="A157" s="20">
         <v>157</v>
       </c>
       <c r="B157" s="6"/>
@@ -3857,7 +3888,7 @@
       <c r="K157" s="5"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A158" s="27">
+      <c r="A158" s="20">
         <v>158</v>
       </c>
       <c r="B158" s="6"/>
@@ -3875,7 +3906,7 @@
       <c r="K158" s="5"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A159" s="27">
+      <c r="A159" s="20">
         <v>159</v>
       </c>
       <c r="B159" s="6"/>
@@ -3893,7 +3924,7 @@
       <c r="K159" s="5"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A160" s="27">
+      <c r="A160" s="20">
         <v>160</v>
       </c>
       <c r="B160" s="6"/>
@@ -3911,7 +3942,7 @@
       <c r="K160" s="5"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A161" s="27">
+      <c r="A161" s="20">
         <v>161</v>
       </c>
       <c r="B161" s="6"/>
@@ -3929,7 +3960,7 @@
       <c r="K161" s="5"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A162" s="27">
+      <c r="A162" s="20">
         <v>162</v>
       </c>
       <c r="B162" s="6"/>
@@ -3947,7 +3978,7 @@
       <c r="K162" s="5"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A163" s="27">
+      <c r="A163" s="20">
         <v>163</v>
       </c>
       <c r="B163" s="6"/>
@@ -3965,7 +3996,7 @@
       <c r="K163" s="5"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A164" s="27">
+      <c r="A164" s="20">
         <v>164</v>
       </c>
       <c r="B164" s="6"/>
@@ -3983,7 +4014,7 @@
       <c r="K164" s="5"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A165" s="27">
+      <c r="A165" s="20">
         <v>165</v>
       </c>
       <c r="B165" s="6"/>
@@ -4001,7 +4032,7 @@
       <c r="K165" s="5"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A166" s="27">
+      <c r="A166" s="20">
         <v>166</v>
       </c>
       <c r="B166" s="6"/>
@@ -4019,7 +4050,7 @@
       <c r="K166" s="5"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A167" s="27">
+      <c r="A167" s="20">
         <v>167</v>
       </c>
       <c r="B167" s="6"/>
@@ -4037,7 +4068,7 @@
       <c r="K167" s="5"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A168" s="27">
+      <c r="A168" s="20">
         <v>168</v>
       </c>
       <c r="B168" s="6"/>
@@ -4055,7 +4086,7 @@
       <c r="K168" s="5"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A169" s="27">
+      <c r="A169" s="20">
         <v>169</v>
       </c>
       <c r="B169" s="6"/>
@@ -4073,7 +4104,7 @@
       <c r="K169" s="5"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A170" s="27">
+      <c r="A170" s="20">
         <v>170</v>
       </c>
       <c r="B170" s="6"/>
@@ -4091,7 +4122,7 @@
       <c r="K170" s="5"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A171" s="27">
+      <c r="A171" s="20">
         <v>171</v>
       </c>
       <c r="B171" s="6"/>
@@ -4109,7 +4140,7 @@
       <c r="K171" s="5"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A172" s="27">
+      <c r="A172" s="20">
         <v>172</v>
       </c>
       <c r="B172" s="6"/>
@@ -4127,7 +4158,7 @@
       <c r="K172" s="5"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A173" s="27">
+      <c r="A173" s="20">
         <v>173</v>
       </c>
       <c r="B173" s="6"/>
@@ -4145,7 +4176,7 @@
       <c r="K173" s="5"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A174" s="27">
+      <c r="A174" s="20">
         <v>174</v>
       </c>
       <c r="B174" s="6"/>
@@ -4163,7 +4194,7 @@
       <c r="K174" s="5"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A175" s="27">
+      <c r="A175" s="20">
         <v>175</v>
       </c>
       <c r="B175" s="6"/>
@@ -4181,7 +4212,7 @@
       <c r="K175" s="5"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A176" s="27">
+      <c r="A176" s="20">
         <v>176</v>
       </c>
       <c r="B176" s="6"/>
@@ -4199,7 +4230,7 @@
       <c r="K176" s="5"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A177" s="27">
+      <c r="A177" s="20">
         <v>177</v>
       </c>
       <c r="B177" s="6"/>
@@ -4217,7 +4248,7 @@
       <c r="K177" s="5"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A178" s="27">
+      <c r="A178" s="20">
         <v>178</v>
       </c>
       <c r="B178" s="6"/>
@@ -4235,7 +4266,7 @@
       <c r="K178" s="5"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A179" s="27">
+      <c r="A179" s="20">
         <v>179</v>
       </c>
       <c r="B179" s="6"/>
@@ -4253,7 +4284,7 @@
       <c r="K179" s="5"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A180" s="27">
+      <c r="A180" s="20">
         <v>180</v>
       </c>
       <c r="B180" s="6"/>
@@ -4271,7 +4302,7 @@
       <c r="K180" s="5"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A181" s="27">
+      <c r="A181" s="20">
         <v>181</v>
       </c>
       <c r="B181" s="6"/>
@@ -4289,7 +4320,7 @@
       <c r="K181" s="5"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A182" s="27">
+      <c r="A182" s="20">
         <v>182</v>
       </c>
       <c r="B182" s="6"/>
@@ -4307,7 +4338,7 @@
       <c r="K182" s="5"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A183" s="27">
+      <c r="A183" s="20">
         <v>183</v>
       </c>
       <c r="B183" s="6"/>
@@ -4325,7 +4356,7 @@
       <c r="K183" s="5"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A184" s="27">
+      <c r="A184" s="20">
         <v>184</v>
       </c>
       <c r="B184" s="6"/>
@@ -4343,7 +4374,7 @@
       <c r="K184" s="5"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A185" s="27">
+      <c r="A185" s="20">
         <v>185</v>
       </c>
       <c r="B185" s="6"/>
@@ -4361,7 +4392,7 @@
       <c r="K185" s="5"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A186" s="27">
+      <c r="A186" s="20">
         <v>186</v>
       </c>
       <c r="B186" s="6"/>
@@ -4379,7 +4410,7 @@
       <c r="K186" s="5"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A187" s="27">
+      <c r="A187" s="20">
         <v>187</v>
       </c>
       <c r="B187" s="6"/>
@@ -4397,7 +4428,7 @@
       <c r="K187" s="5"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A188" s="27">
+      <c r="A188" s="20">
         <v>188</v>
       </c>
       <c r="B188" s="6"/>
@@ -4415,7 +4446,7 @@
       <c r="K188" s="5"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A189" s="27">
+      <c r="A189" s="20">
         <v>189</v>
       </c>
       <c r="B189" s="6"/>
@@ -4433,7 +4464,7 @@
       <c r="K189" s="5"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A190" s="27">
+      <c r="A190" s="20">
         <v>190</v>
       </c>
       <c r="B190" s="6"/>
@@ -4451,7 +4482,7 @@
       <c r="K190" s="5"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A191" s="27">
+      <c r="A191" s="20">
         <v>191</v>
       </c>
       <c r="B191" s="6"/>
@@ -4469,7 +4500,7 @@
       <c r="K191" s="5"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A192" s="27">
+      <c r="A192" s="20">
         <v>192</v>
       </c>
       <c r="B192" s="6"/>
@@ -4487,7 +4518,7 @@
       <c r="K192" s="5"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A193" s="27">
+      <c r="A193" s="20">
         <v>193</v>
       </c>
       <c r="B193" s="6"/>
@@ -4505,7 +4536,7 @@
       <c r="K193" s="5"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A194" s="27">
+      <c r="A194" s="20">
         <v>194</v>
       </c>
       <c r="B194" s="6"/>
@@ -4523,7 +4554,7 @@
       <c r="K194" s="5"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A195" s="27">
+      <c r="A195" s="20">
         <v>195</v>
       </c>
       <c r="B195" s="6"/>
@@ -4541,7 +4572,7 @@
       <c r="K195" s="5"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A196" s="27">
+      <c r="A196" s="20">
         <v>196</v>
       </c>
       <c r="B196" s="6"/>
@@ -4559,7 +4590,7 @@
       <c r="K196" s="5"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A197" s="27">
+      <c r="A197" s="20">
         <v>197</v>
       </c>
       <c r="B197" s="6"/>
@@ -4577,7 +4608,7 @@
       <c r="K197" s="5"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A198" s="27">
+      <c r="A198" s="20">
         <v>198</v>
       </c>
       <c r="B198" s="6"/>
@@ -4595,7 +4626,7 @@
       <c r="K198" s="5"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A199" s="27">
+      <c r="A199" s="20">
         <v>199</v>
       </c>
       <c r="B199" s="6"/>
@@ -4613,7 +4644,7 @@
       <c r="K199" s="5"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A200" s="27">
+      <c r="A200" s="20">
         <v>200</v>
       </c>
       <c r="B200" s="6"/>
@@ -4631,7 +4662,7 @@
       <c r="K200" s="5"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A201" s="27">
+      <c r="A201" s="20">
         <v>201</v>
       </c>
       <c r="B201" s="6"/>
@@ -4649,7 +4680,7 @@
       <c r="K201" s="5"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A202" s="27">
+      <c r="A202" s="20">
         <v>202</v>
       </c>
       <c r="B202" s="6"/>
@@ -4667,7 +4698,7 @@
       <c r="K202" s="5"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A203" s="27">
+      <c r="A203" s="20">
         <v>203</v>
       </c>
       <c r="B203" s="6"/>
@@ -4685,7 +4716,7 @@
       <c r="K203" s="5"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A204" s="27">
+      <c r="A204" s="20">
         <v>204</v>
       </c>
       <c r="B204" s="6"/>
@@ -4703,7 +4734,7 @@
       <c r="K204" s="5"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A205" s="27">
+      <c r="A205" s="20">
         <v>205</v>
       </c>
       <c r="B205" s="6"/>
@@ -4721,7 +4752,7 @@
       <c r="K205" s="5"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A206" s="27">
+      <c r="A206" s="20">
         <v>206</v>
       </c>
       <c r="B206" s="6"/>
@@ -4739,7 +4770,7 @@
       <c r="K206" s="5"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A207" s="27">
+      <c r="A207" s="20">
         <v>207</v>
       </c>
       <c r="B207" s="6"/>
@@ -4757,7 +4788,7 @@
       <c r="K207" s="5"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A208" s="27">
+      <c r="A208" s="20">
         <v>208</v>
       </c>
       <c r="B208" s="6"/>
@@ -4775,7 +4806,7 @@
       <c r="K208" s="5"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A209" s="27">
+      <c r="A209" s="20">
         <v>209</v>
       </c>
       <c r="B209" s="6"/>
@@ -4793,7 +4824,7 @@
       <c r="K209" s="5"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A210" s="27">
+      <c r="A210" s="20">
         <v>210</v>
       </c>
       <c r="B210" s="6"/>
@@ -4811,7 +4842,7 @@
       <c r="K210" s="5"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A211" s="27">
+      <c r="A211" s="20">
         <v>211</v>
       </c>
       <c r="B211" s="6"/>
@@ -4829,7 +4860,7 @@
       <c r="K211" s="5"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A212" s="27">
+      <c r="A212" s="20">
         <v>212</v>
       </c>
       <c r="B212" s="6"/>
@@ -4847,7 +4878,7 @@
       <c r="K212" s="5"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A213" s="27">
+      <c r="A213" s="20">
         <v>213</v>
       </c>
       <c r="B213" s="6"/>
@@ -4865,7 +4896,7 @@
       <c r="K213" s="5"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A214" s="27">
+      <c r="A214" s="20">
         <v>214</v>
       </c>
       <c r="B214" s="6"/>
@@ -4883,7 +4914,7 @@
       <c r="K214" s="5"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A215" s="27">
+      <c r="A215" s="20">
         <v>215</v>
       </c>
       <c r="B215" s="6"/>
@@ -4901,7 +4932,7 @@
       <c r="K215" s="5"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A216" s="27">
+      <c r="A216" s="20">
         <v>216</v>
       </c>
       <c r="B216" s="6"/>
@@ -4919,7 +4950,7 @@
       <c r="K216" s="5"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A217" s="27">
+      <c r="A217" s="20">
         <v>217</v>
       </c>
       <c r="B217" s="6"/>
@@ -4937,7 +4968,7 @@
       <c r="K217" s="5"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A218" s="27">
+      <c r="A218" s="20">
         <v>218</v>
       </c>
       <c r="B218" s="6"/>
@@ -4955,7 +4986,7 @@
       <c r="K218" s="5"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A219" s="27">
+      <c r="A219" s="20">
         <v>219</v>
       </c>
       <c r="B219" s="6"/>
@@ -4973,7 +5004,7 @@
       <c r="K219" s="5"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A220" s="27">
+      <c r="A220" s="20">
         <v>220</v>
       </c>
       <c r="B220" s="6"/>
@@ -4991,7 +5022,7 @@
       <c r="K220" s="5"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A221" s="27">
+      <c r="A221" s="20">
         <v>221</v>
       </c>
       <c r="B221" s="6"/>
@@ -5009,7 +5040,7 @@
       <c r="K221" s="5"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A222" s="27">
+      <c r="A222" s="20">
         <v>222</v>
       </c>
       <c r="B222" s="6"/>
@@ -5027,7 +5058,7 @@
       <c r="K222" s="5"/>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A223" s="27">
+      <c r="A223" s="20">
         <v>223</v>
       </c>
       <c r="B223" s="6"/>
@@ -5045,7 +5076,7 @@
       <c r="K223" s="5"/>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A224" s="27">
+      <c r="A224" s="20">
         <v>224</v>
       </c>
       <c r="B224" s="6"/>
@@ -5063,7 +5094,7 @@
       <c r="K224" s="5"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A225" s="27">
+      <c r="A225" s="20">
         <v>225</v>
       </c>
       <c r="B225" s="6"/>
@@ -5081,7 +5112,7 @@
       <c r="K225" s="5"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A226" s="27">
+      <c r="A226" s="20">
         <v>226</v>
       </c>
       <c r="B226" s="6"/>
@@ -5099,7 +5130,7 @@
       <c r="K226" s="5"/>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A227" s="27">
+      <c r="A227" s="20">
         <v>227</v>
       </c>
       <c r="B227" s="6"/>
@@ -5117,7 +5148,7 @@
       <c r="K227" s="5"/>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A228" s="27">
+      <c r="A228" s="20">
         <v>228</v>
       </c>
       <c r="B228" s="6"/>
@@ -5135,7 +5166,7 @@
       <c r="K228" s="5"/>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A229" s="27">
+      <c r="A229" s="20">
         <v>229</v>
       </c>
       <c r="B229" s="6"/>
@@ -5153,7 +5184,7 @@
       <c r="K229" s="5"/>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A230" s="27">
+      <c r="A230" s="20">
         <v>230</v>
       </c>
       <c r="B230" s="6"/>
@@ -5171,7 +5202,7 @@
       <c r="K230" s="5"/>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A231" s="27">
+      <c r="A231" s="20">
         <v>231</v>
       </c>
       <c r="B231" s="6"/>
@@ -5189,7 +5220,7 @@
       <c r="K231" s="5"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A232" s="27">
+      <c r="A232" s="20">
         <v>232</v>
       </c>
       <c r="B232" s="6"/>
@@ -5207,7 +5238,7 @@
       <c r="K232" s="5"/>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A233" s="27">
+      <c r="A233" s="20">
         <v>233</v>
       </c>
       <c r="B233" s="6"/>
@@ -5225,7 +5256,7 @@
       <c r="K233" s="5"/>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A234" s="27">
+      <c r="A234" s="20">
         <v>234</v>
       </c>
       <c r="B234" s="6"/>
@@ -5243,7 +5274,7 @@
       <c r="K234" s="5"/>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A235" s="27">
+      <c r="A235" s="20">
         <v>235</v>
       </c>
       <c r="B235" s="6"/>
@@ -5261,7 +5292,7 @@
       <c r="K235" s="5"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A236" s="27">
+      <c r="A236" s="20">
         <v>236</v>
       </c>
       <c r="B236" s="6"/>
@@ -5279,7 +5310,7 @@
       <c r="K236" s="5"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A237" s="27">
+      <c r="A237" s="20">
         <v>237</v>
       </c>
       <c r="B237" s="6"/>
@@ -5297,7 +5328,7 @@
       <c r="K237" s="5"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A238" s="27">
+      <c r="A238" s="20">
         <v>238</v>
       </c>
       <c r="B238" s="6"/>
@@ -5315,7 +5346,7 @@
       <c r="K238" s="5"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A239" s="27">
+      <c r="A239" s="20">
         <v>239</v>
       </c>
       <c r="B239" s="6"/>
@@ -5333,7 +5364,7 @@
       <c r="K239" s="5"/>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A240" s="27">
+      <c r="A240" s="20">
         <v>240</v>
       </c>
       <c r="B240" s="6"/>
@@ -5351,7 +5382,7 @@
       <c r="K240" s="5"/>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A241" s="27">
+      <c r="A241" s="20">
         <v>241</v>
       </c>
       <c r="B241" s="6"/>
@@ -5369,7 +5400,7 @@
       <c r="K241" s="5"/>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A242" s="27">
+      <c r="A242" s="20">
         <v>242</v>
       </c>
       <c r="B242" s="6"/>
@@ -5387,7 +5418,7 @@
       <c r="K242" s="5"/>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A243" s="27">
+      <c r="A243" s="20">
         <v>243</v>
       </c>
       <c r="B243" s="6"/>
@@ -5405,7 +5436,7 @@
       <c r="K243" s="5"/>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A244" s="27">
+      <c r="A244" s="20">
         <v>244</v>
       </c>
       <c r="B244" s="6"/>
@@ -5423,7 +5454,7 @@
       <c r="K244" s="5"/>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A245" s="27">
+      <c r="A245" s="20">
         <v>245</v>
       </c>
       <c r="B245" s="6"/>
@@ -5441,7 +5472,7 @@
       <c r="K245" s="5"/>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A246" s="27">
+      <c r="A246" s="20">
         <v>246</v>
       </c>
       <c r="B246" s="6"/>
@@ -5459,7 +5490,7 @@
       <c r="K246" s="5"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A247" s="27">
+      <c r="A247" s="20">
         <v>247</v>
       </c>
       <c r="B247" s="6"/>
@@ -5477,7 +5508,7 @@
       <c r="K247" s="5"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A248" s="27">
+      <c r="A248" s="20">
         <v>248</v>
       </c>
       <c r="B248" s="6"/>
@@ -5495,7 +5526,7 @@
       <c r="K248" s="5"/>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A249" s="27">
+      <c r="A249" s="20">
         <v>249</v>
       </c>
       <c r="B249" s="6"/>
@@ -5513,7 +5544,7 @@
       <c r="K249" s="5"/>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A250" s="27">
+      <c r="A250" s="20">
         <v>250</v>
       </c>
       <c r="B250" s="6"/>
@@ -5531,7 +5562,7 @@
       <c r="K250" s="5"/>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A251" s="27">
+      <c r="A251" s="20">
         <v>251</v>
       </c>
       <c r="B251" s="6"/>
@@ -5549,7 +5580,7 @@
       <c r="K251" s="5"/>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A252" s="27">
+      <c r="A252" s="20">
         <v>252</v>
       </c>
       <c r="B252" s="6"/>
@@ -5567,7 +5598,7 @@
       <c r="K252" s="5"/>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A253" s="27">
+      <c r="A253" s="20">
         <v>253</v>
       </c>
       <c r="B253" s="6"/>
@@ -5585,7 +5616,7 @@
       <c r="K253" s="5"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A254" s="27">
+      <c r="A254" s="20">
         <v>254</v>
       </c>
       <c r="B254" s="6"/>
@@ -5603,7 +5634,7 @@
       <c r="K254" s="5"/>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A255" s="27">
+      <c r="A255" s="20">
         <v>255</v>
       </c>
       <c r="B255" s="6"/>
@@ -5621,7 +5652,7 @@
       <c r="K255" s="5"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A256" s="27">
+      <c r="A256" s="20">
         <v>256</v>
       </c>
       <c r="B256" s="6"/>
@@ -5639,7 +5670,7 @@
       <c r="K256" s="5"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A257" s="27">
+      <c r="A257" s="20">
         <v>257</v>
       </c>
       <c r="B257" s="6"/>
@@ -5657,7 +5688,7 @@
       <c r="K257" s="5"/>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A258" s="27">
+      <c r="A258" s="20">
         <v>258</v>
       </c>
       <c r="B258" s="6"/>
@@ -5675,7 +5706,7 @@
       <c r="K258" s="5"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A259" s="27">
+      <c r="A259" s="20">
         <v>259</v>
       </c>
       <c r="B259" s="6"/>
@@ -5693,7 +5724,7 @@
       <c r="K259" s="5"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A260" s="27">
+      <c r="A260" s="20">
         <v>260</v>
       </c>
       <c r="B260" s="6"/>
@@ -5711,7 +5742,7 @@
       <c r="K260" s="5"/>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A261" s="27">
+      <c r="A261" s="20">
         <v>261</v>
       </c>
       <c r="B261" s="6"/>
@@ -5729,7 +5760,7 @@
       <c r="K261" s="5"/>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A262" s="27">
+      <c r="A262" s="20">
         <v>262</v>
       </c>
       <c r="B262" s="6"/>
@@ -5747,7 +5778,7 @@
       <c r="K262" s="5"/>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A263" s="27">
+      <c r="A263" s="20">
         <v>263</v>
       </c>
       <c r="B263" s="6"/>
@@ -5765,7 +5796,7 @@
       <c r="K263" s="5"/>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A264" s="27">
+      <c r="A264" s="20">
         <v>264</v>
       </c>
       <c r="B264" s="6"/>
@@ -5783,7 +5814,7 @@
       <c r="K264" s="5"/>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A265" s="27">
+      <c r="A265" s="20">
         <v>265</v>
       </c>
       <c r="B265" s="6"/>
@@ -5801,7 +5832,7 @@
       <c r="K265" s="5"/>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A266" s="27">
+      <c r="A266" s="20">
         <v>266</v>
       </c>
       <c r="B266" s="6"/>
@@ -5819,7 +5850,7 @@
       <c r="K266" s="5"/>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A267" s="27">
+      <c r="A267" s="20">
         <v>267</v>
       </c>
       <c r="B267" s="6"/>
@@ -5837,7 +5868,7 @@
       <c r="K267" s="5"/>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A268" s="27">
+      <c r="A268" s="20">
         <v>268</v>
       </c>
       <c r="B268" s="6"/>
@@ -5855,7 +5886,7 @@
       <c r="K268" s="5"/>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A269" s="27">
+      <c r="A269" s="20">
         <v>269</v>
       </c>
       <c r="B269" s="6"/>
@@ -5873,7 +5904,7 @@
       <c r="K269" s="5"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A270" s="27">
+      <c r="A270" s="20">
         <v>270</v>
       </c>
       <c r="B270" s="6"/>
@@ -5891,7 +5922,7 @@
       <c r="K270" s="5"/>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A271" s="27">
+      <c r="A271" s="20">
         <v>271</v>
       </c>
       <c r="B271" s="6"/>
@@ -5909,7 +5940,7 @@
       <c r="K271" s="5"/>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A272" s="27">
+      <c r="A272" s="20">
         <v>272</v>
       </c>
       <c r="B272" s="6"/>
@@ -5927,7 +5958,7 @@
       <c r="K272" s="5"/>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A273" s="27">
+      <c r="A273" s="20">
         <v>273</v>
       </c>
       <c r="B273" s="6"/>
@@ -5945,7 +5976,7 @@
       <c r="K273" s="5"/>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A274" s="27">
+      <c r="A274" s="20">
         <v>274</v>
       </c>
       <c r="B274" s="6"/>
@@ -5963,7 +5994,7 @@
       <c r="K274" s="5"/>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A275" s="27">
+      <c r="A275" s="20">
         <v>275</v>
       </c>
       <c r="B275" s="6"/>
@@ -5981,7 +6012,7 @@
       <c r="K275" s="5"/>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A276" s="27">
+      <c r="A276" s="20">
         <v>276</v>
       </c>
       <c r="B276" s="6"/>
@@ -5999,7 +6030,7 @@
       <c r="K276" s="5"/>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A277" s="27">
+      <c r="A277" s="20">
         <v>277</v>
       </c>
       <c r="B277" s="6"/>
@@ -6017,7 +6048,7 @@
       <c r="K277" s="5"/>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A278" s="27">
+      <c r="A278" s="20">
         <v>278</v>
       </c>
       <c r="B278" s="6"/>
@@ -6035,7 +6066,7 @@
       <c r="K278" s="5"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A279" s="27">
+      <c r="A279" s="20">
         <v>279</v>
       </c>
       <c r="B279" s="6"/>
@@ -6053,7 +6084,7 @@
       <c r="K279" s="5"/>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A280" s="27">
+      <c r="A280" s="20">
         <v>280</v>
       </c>
       <c r="B280" s="6"/>
@@ -6071,7 +6102,7 @@
       <c r="K280" s="5"/>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A281" s="27">
+      <c r="A281" s="20">
         <v>281</v>
       </c>
       <c r="B281" s="6"/>
@@ -6089,7 +6120,7 @@
       <c r="K281" s="5"/>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A282" s="27">
+      <c r="A282" s="20">
         <v>282</v>
       </c>
       <c r="B282" s="6"/>
@@ -6107,7 +6138,7 @@
       <c r="K282" s="5"/>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A283" s="27">
+      <c r="A283" s="20">
         <v>283</v>
       </c>
       <c r="B283" s="6"/>
@@ -6125,7 +6156,7 @@
       <c r="K283" s="5"/>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A284" s="27">
+      <c r="A284" s="20">
         <v>284</v>
       </c>
       <c r="B284" s="6"/>
@@ -6143,7 +6174,7 @@
       <c r="K284" s="5"/>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A285" s="27">
+      <c r="A285" s="20">
         <v>285</v>
       </c>
       <c r="B285" s="6"/>
@@ -6161,7 +6192,7 @@
       <c r="K285" s="5"/>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A286" s="27">
+      <c r="A286" s="20">
         <v>286</v>
       </c>
       <c r="B286" s="6"/>
@@ -6179,7 +6210,7 @@
       <c r="K286" s="5"/>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A287" s="27">
+      <c r="A287" s="20">
         <v>287</v>
       </c>
       <c r="B287" s="6"/>
@@ -6197,7 +6228,7 @@
       <c r="K287" s="5"/>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A288" s="27">
+      <c r="A288" s="20">
         <v>288</v>
       </c>
       <c r="B288" s="6"/>
@@ -6215,7 +6246,7 @@
       <c r="K288" s="5"/>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A289" s="27">
+      <c r="A289" s="20">
         <v>289</v>
       </c>
       <c r="B289" s="6"/>
@@ -6233,7 +6264,7 @@
       <c r="K289" s="5"/>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A290" s="27">
+      <c r="A290" s="20">
         <v>290</v>
       </c>
       <c r="B290" s="6"/>
@@ -6251,7 +6282,7 @@
       <c r="K290" s="5"/>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A291" s="27">
+      <c r="A291" s="20">
         <v>291</v>
       </c>
       <c r="B291" s="6"/>
@@ -6269,7 +6300,7 @@
       <c r="K291" s="5"/>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A292" s="27">
+      <c r="A292" s="20">
         <v>292</v>
       </c>
       <c r="B292" s="6"/>
@@ -6287,7 +6318,7 @@
       <c r="K292" s="5"/>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A293" s="27">
+      <c r="A293" s="20">
         <v>293</v>
       </c>
       <c r="B293" s="6"/>
@@ -6305,7 +6336,7 @@
       <c r="K293" s="5"/>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A294" s="27">
+      <c r="A294" s="20">
         <v>294</v>
       </c>
       <c r="B294" s="6"/>
@@ -6323,7 +6354,7 @@
       <c r="K294" s="5"/>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A295" s="27">
+      <c r="A295" s="20">
         <v>295</v>
       </c>
       <c r="B295" s="6"/>
@@ -6341,7 +6372,7 @@
       <c r="K295" s="5"/>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A296" s="27">
+      <c r="A296" s="20">
         <v>296</v>
       </c>
       <c r="B296" s="6"/>
@@ -6359,7 +6390,7 @@
       <c r="K296" s="5"/>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A297" s="27">
+      <c r="A297" s="20">
         <v>297</v>
       </c>
       <c r="B297" s="6"/>
@@ -6377,7 +6408,7 @@
       <c r="K297" s="5"/>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A298" s="27">
+      <c r="A298" s="20">
         <v>298</v>
       </c>
       <c r="B298" s="6"/>
@@ -6395,7 +6426,7 @@
       <c r="K298" s="5"/>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A299" s="27">
+      <c r="A299" s="20">
         <v>299</v>
       </c>
       <c r="B299" s="6"/>
@@ -6413,7 +6444,7 @@
       <c r="K299" s="5"/>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A300" s="27">
+      <c r="A300" s="20">
         <v>300</v>
       </c>
       <c r="B300" s="6"/>
@@ -6431,7 +6462,7 @@
       <c r="K300" s="5"/>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A301" s="27">
+      <c r="A301" s="20">
         <v>301</v>
       </c>
       <c r="B301" s="6"/>
@@ -6449,7 +6480,7 @@
       <c r="K301" s="5"/>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A302" s="27">
+      <c r="A302" s="20">
         <v>302</v>
       </c>
       <c r="B302" s="6"/>
@@ -6467,7 +6498,7 @@
       <c r="K302" s="5"/>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A303" s="27">
+      <c r="A303" s="20">
         <v>303</v>
       </c>
       <c r="B303" s="6"/>
@@ -6485,7 +6516,7 @@
       <c r="K303" s="5"/>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A304" s="27">
+      <c r="A304" s="20">
         <v>304</v>
       </c>
       <c r="B304" s="6"/>
@@ -6503,7 +6534,7 @@
       <c r="K304" s="5"/>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A305" s="27">
+      <c r="A305" s="20">
         <v>305</v>
       </c>
       <c r="B305" s="6"/>
@@ -6521,7 +6552,7 @@
       <c r="K305" s="5"/>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A306" s="27">
+      <c r="A306" s="20">
         <v>306</v>
       </c>
       <c r="B306" s="6"/>
@@ -6539,7 +6570,7 @@
       <c r="K306" s="5"/>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A307" s="27">
+      <c r="A307" s="20">
         <v>307</v>
       </c>
       <c r="B307" s="6"/>
@@ -6557,7 +6588,7 @@
       <c r="K307" s="5"/>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A308" s="27">
+      <c r="A308" s="20">
         <v>308</v>
       </c>
       <c r="B308" s="6"/>
@@ -6575,7 +6606,7 @@
       <c r="K308" s="5"/>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A309" s="27">
+      <c r="A309" s="20">
         <v>309</v>
       </c>
       <c r="B309" s="6"/>
@@ -6593,7 +6624,7 @@
       <c r="K309" s="5"/>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A310" s="27">
+      <c r="A310" s="20">
         <v>310</v>
       </c>
       <c r="B310" s="6"/>
@@ -6611,7 +6642,7 @@
       <c r="K310" s="5"/>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A311" s="27">
+      <c r="A311" s="20">
         <v>311</v>
       </c>
       <c r="B311" s="6"/>
@@ -6629,7 +6660,7 @@
       <c r="K311" s="5"/>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A312" s="27">
+      <c r="A312" s="20">
         <v>312</v>
       </c>
       <c r="B312" s="6"/>
@@ -6647,7 +6678,7 @@
       <c r="K312" s="5"/>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A313" s="27">
+      <c r="A313" s="20">
         <v>313</v>
       </c>
       <c r="B313" s="6"/>
@@ -6665,7 +6696,7 @@
       <c r="K313" s="5"/>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A314" s="27">
+      <c r="A314" s="20">
         <v>314</v>
       </c>
       <c r="B314" s="6"/>
@@ -6683,7 +6714,7 @@
       <c r="K314" s="5"/>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A315" s="27">
+      <c r="A315" s="20">
         <v>315</v>
       </c>
       <c r="B315" s="6"/>
@@ -6701,7 +6732,7 @@
       <c r="K315" s="5"/>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A316" s="27">
+      <c r="A316" s="20">
         <v>316</v>
       </c>
       <c r="B316" s="6"/>
@@ -6719,7 +6750,7 @@
       <c r="K316" s="5"/>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A317" s="27">
+      <c r="A317" s="20">
         <v>317</v>
       </c>
       <c r="B317" s="6"/>
@@ -6737,7 +6768,7 @@
       <c r="K317" s="5"/>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A318" s="27">
+      <c r="A318" s="20">
         <v>318</v>
       </c>
       <c r="B318" s="6"/>
@@ -6755,7 +6786,7 @@
       <c r="K318" s="5"/>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A319" s="27">
+      <c r="A319" s="20">
         <v>319</v>
       </c>
       <c r="B319" s="6"/>
@@ -6773,7 +6804,7 @@
       <c r="K319" s="5"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A320" s="27">
+      <c r="A320" s="20">
         <v>320</v>
       </c>
       <c r="B320" s="6"/>
@@ -6791,7 +6822,7 @@
       <c r="K320" s="5"/>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A321" s="27">
+      <c r="A321" s="20">
         <v>321</v>
       </c>
       <c r="B321" s="6"/>
@@ -6809,7 +6840,7 @@
       <c r="K321" s="5"/>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A322" s="27">
+      <c r="A322" s="20">
         <v>322</v>
       </c>
       <c r="B322" s="6"/>
@@ -6827,7 +6858,7 @@
       <c r="K322" s="5"/>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A323" s="27">
+      <c r="A323" s="20">
         <v>323</v>
       </c>
       <c r="B323" s="6"/>
@@ -6845,7 +6876,7 @@
       <c r="K323" s="5"/>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A324" s="27">
+      <c r="A324" s="20">
         <v>324</v>
       </c>
       <c r="B324" s="6"/>
@@ -6863,7 +6894,7 @@
       <c r="K324" s="5"/>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A325" s="27">
+      <c r="A325" s="20">
         <v>325</v>
       </c>
       <c r="B325" s="6"/>
@@ -6881,7 +6912,7 @@
       <c r="K325" s="5"/>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A326" s="27">
+      <c r="A326" s="20">
         <v>326</v>
       </c>
       <c r="B326" s="6"/>
@@ -6899,7 +6930,7 @@
       <c r="K326" s="5"/>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A327" s="27">
+      <c r="A327" s="20">
         <v>327</v>
       </c>
       <c r="B327" s="6"/>
@@ -6917,7 +6948,7 @@
       <c r="K327" s="5"/>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A328" s="27">
+      <c r="A328" s="20">
         <v>328</v>
       </c>
       <c r="B328" s="6"/>
@@ -6935,7 +6966,7 @@
       <c r="K328" s="5"/>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A329" s="27">
+      <c r="A329" s="20">
         <v>329</v>
       </c>
       <c r="B329" s="6"/>
@@ -6953,7 +6984,7 @@
       <c r="K329" s="5"/>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A330" s="27">
+      <c r="A330" s="20">
         <v>330</v>
       </c>
       <c r="B330" s="6"/>
@@ -6971,7 +7002,7 @@
       <c r="K330" s="5"/>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A331" s="27">
+      <c r="A331" s="20">
         <v>331</v>
       </c>
       <c r="B331" s="6"/>
@@ -6989,7 +7020,7 @@
       <c r="K331" s="5"/>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A332" s="27">
+      <c r="A332" s="20">
         <v>332</v>
       </c>
       <c r="B332" s="6"/>
@@ -7007,7 +7038,7 @@
       <c r="K332" s="5"/>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A333" s="27">
+      <c r="A333" s="20">
         <v>333</v>
       </c>
       <c r="B333" s="6"/>
@@ -7025,7 +7056,7 @@
       <c r="K333" s="5"/>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A334" s="27">
+      <c r="A334" s="20">
         <v>334</v>
       </c>
       <c r="B334" s="6"/>
@@ -7043,7 +7074,7 @@
       <c r="K334" s="5"/>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A335" s="27">
+      <c r="A335" s="20">
         <v>335</v>
       </c>
       <c r="B335" s="6"/>
@@ -7061,7 +7092,7 @@
       <c r="K335" s="5"/>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A336" s="27">
+      <c r="A336" s="20">
         <v>336</v>
       </c>
       <c r="B336" s="6"/>
@@ -7079,7 +7110,7 @@
       <c r="K336" s="5"/>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A337" s="27">
+      <c r="A337" s="20">
         <v>337</v>
       </c>
       <c r="B337" s="6"/>
@@ -7097,7 +7128,7 @@
       <c r="K337" s="5"/>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A338" s="27">
+      <c r="A338" s="20">
         <v>338</v>
       </c>
       <c r="B338" s="6"/>
@@ -7115,7 +7146,7 @@
       <c r="K338" s="5"/>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A339" s="27">
+      <c r="A339" s="20">
         <v>339</v>
       </c>
       <c r="B339" s="6"/>
@@ -7133,7 +7164,7 @@
       <c r="K339" s="5"/>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A340" s="27">
+      <c r="A340" s="20">
         <v>340</v>
       </c>
       <c r="B340" s="6"/>
@@ -7151,7 +7182,7 @@
       <c r="K340" s="5"/>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A341" s="27">
+      <c r="A341" s="20">
         <v>341</v>
       </c>
       <c r="B341" s="6"/>
@@ -7169,7 +7200,7 @@
       <c r="K341" s="5"/>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A342" s="27">
+      <c r="A342" s="20">
         <v>342</v>
       </c>
       <c r="B342" s="6"/>
@@ -7187,7 +7218,7 @@
       <c r="K342" s="5"/>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A343" s="27">
+      <c r="A343" s="20">
         <v>343</v>
       </c>
       <c r="B343" s="6"/>
@@ -7205,7 +7236,7 @@
       <c r="K343" s="5"/>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A344" s="27">
+      <c r="A344" s="20">
         <v>344</v>
       </c>
       <c r="B344" s="6"/>
@@ -7223,7 +7254,7 @@
       <c r="K344" s="5"/>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A345" s="27">
+      <c r="A345" s="20">
         <v>345</v>
       </c>
       <c r="B345" s="6"/>
@@ -7241,7 +7272,7 @@
       <c r="K345" s="5"/>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A346" s="27">
+      <c r="A346" s="20">
         <v>346</v>
       </c>
       <c r="B346" s="6"/>
@@ -7259,7 +7290,7 @@
       <c r="K346" s="5"/>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A347" s="27">
+      <c r="A347" s="20">
         <v>347</v>
       </c>
       <c r="B347" s="6"/>
@@ -7277,7 +7308,7 @@
       <c r="K347" s="5"/>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A348" s="27">
+      <c r="A348" s="20">
         <v>348</v>
       </c>
       <c r="B348" s="6"/>
@@ -7295,7 +7326,7 @@
       <c r="K348" s="5"/>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A349" s="27">
+      <c r="A349" s="20">
         <v>349</v>
       </c>
       <c r="B349" s="6"/>
@@ -7313,7 +7344,7 @@
       <c r="K349" s="5"/>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A350" s="27">
+      <c r="A350" s="20">
         <v>350</v>
       </c>
       <c r="B350" s="6"/>
@@ -7331,7 +7362,7 @@
       <c r="K350" s="5"/>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A351" s="27">
+      <c r="A351" s="20">
         <v>351</v>
       </c>
       <c r="B351" s="6"/>
@@ -7349,7 +7380,7 @@
       <c r="K351" s="5"/>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A352" s="27">
+      <c r="A352" s="20">
         <v>352</v>
       </c>
       <c r="B352" s="6"/>
@@ -7367,7 +7398,7 @@
       <c r="K352" s="5"/>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A353" s="27">
+      <c r="A353" s="20">
         <v>353</v>
       </c>
       <c r="B353" s="6"/>
@@ -7385,7 +7416,7 @@
       <c r="K353" s="5"/>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A354" s="27">
+      <c r="A354" s="20">
         <v>354</v>
       </c>
       <c r="B354" s="6"/>
@@ -7403,7 +7434,7 @@
       <c r="K354" s="5"/>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A355" s="27">
+      <c r="A355" s="20">
         <v>355</v>
       </c>
       <c r="B355" s="6"/>
@@ -7421,7 +7452,7 @@
       <c r="K355" s="5"/>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A356" s="27">
+      <c r="A356" s="20">
         <v>356</v>
       </c>
       <c r="B356" s="6"/>
@@ -7439,7 +7470,7 @@
       <c r="K356" s="5"/>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A357" s="27">
+      <c r="A357" s="20">
         <v>357</v>
       </c>
       <c r="B357" s="6"/>
@@ -7457,7 +7488,7 @@
       <c r="K357" s="5"/>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A358" s="27">
+      <c r="A358" s="20">
         <v>358</v>
       </c>
       <c r="B358" s="6"/>
@@ -7475,7 +7506,7 @@
       <c r="K358" s="5"/>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A359" s="27">
+      <c r="A359" s="20">
         <v>359</v>
       </c>
       <c r="B359" s="6"/>
@@ -7493,7 +7524,7 @@
       <c r="K359" s="5"/>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A360" s="27">
+      <c r="A360" s="20">
         <v>360</v>
       </c>
       <c r="B360" s="6"/>
@@ -7511,7 +7542,7 @@
       <c r="K360" s="5"/>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A361" s="27">
+      <c r="A361" s="20">
         <v>361</v>
       </c>
       <c r="B361" s="6"/>
@@ -7529,7 +7560,7 @@
       <c r="K361" s="5"/>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A362" s="27">
+      <c r="A362" s="20">
         <v>362</v>
       </c>
       <c r="B362" s="6"/>
@@ -7547,7 +7578,7 @@
       <c r="K362" s="5"/>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A363" s="27">
+      <c r="A363" s="20">
         <v>363</v>
       </c>
       <c r="B363" s="6"/>
@@ -7565,7 +7596,7 @@
       <c r="K363" s="5"/>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A364" s="27">
+      <c r="A364" s="20">
         <v>364</v>
       </c>
       <c r="B364" s="6"/>
@@ -7583,7 +7614,7 @@
       <c r="K364" s="5"/>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A365" s="27">
+      <c r="A365" s="20">
         <v>365</v>
       </c>
       <c r="B365" s="6"/>
@@ -7601,7 +7632,7 @@
       <c r="K365" s="5"/>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A366" s="27">
+      <c r="A366" s="20">
         <v>366</v>
       </c>
       <c r="B366" s="6"/>
@@ -7619,7 +7650,7 @@
       <c r="K366" s="5"/>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A367" s="27">
+      <c r="A367" s="20">
         <v>367</v>
       </c>
       <c r="B367" s="6"/>
@@ -7637,7 +7668,7 @@
       <c r="K367" s="5"/>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A368" s="27">
+      <c r="A368" s="20">
         <v>368</v>
       </c>
       <c r="B368" s="6"/>
@@ -7655,7 +7686,7 @@
       <c r="K368" s="5"/>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A369" s="27">
+      <c r="A369" s="20">
         <v>369</v>
       </c>
       <c r="B369" s="6"/>
@@ -7673,7 +7704,7 @@
       <c r="K369" s="5"/>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A370" s="27">
+      <c r="A370" s="20">
         <v>370</v>
       </c>
       <c r="B370" s="6"/>
@@ -7691,7 +7722,7 @@
       <c r="K370" s="5"/>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A371" s="27">
+      <c r="A371" s="20">
         <v>371</v>
       </c>
       <c r="B371" s="6"/>
@@ -7709,7 +7740,7 @@
       <c r="K371" s="5"/>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A372" s="27">
+      <c r="A372" s="20">
         <v>372</v>
       </c>
       <c r="B372" s="6"/>
@@ -7727,7 +7758,7 @@
       <c r="K372" s="5"/>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A373" s="27">
+      <c r="A373" s="20">
         <v>373</v>
       </c>
       <c r="B373" s="6"/>
@@ -7745,7 +7776,7 @@
       <c r="K373" s="5"/>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A374" s="27">
+      <c r="A374" s="20">
         <v>374</v>
       </c>
       <c r="B374" s="6"/>
@@ -7763,7 +7794,7 @@
       <c r="K374" s="5"/>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A375" s="27">
+      <c r="A375" s="20">
         <v>375</v>
       </c>
       <c r="B375" s="6"/>
@@ -7781,7 +7812,7 @@
       <c r="K375" s="5"/>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A376" s="27">
+      <c r="A376" s="20">
         <v>376</v>
       </c>
       <c r="B376" s="6"/>
@@ -7799,7 +7830,7 @@
       <c r="K376" s="5"/>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A377" s="27">
+      <c r="A377" s="20">
         <v>377</v>
       </c>
       <c r="B377" s="6"/>
@@ -7817,7 +7848,7 @@
       <c r="K377" s="5"/>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A378" s="27">
+      <c r="A378" s="20">
         <v>378</v>
       </c>
       <c r="B378" s="6"/>
@@ -7835,7 +7866,7 @@
       <c r="K378" s="5"/>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A379" s="27">
+      <c r="A379" s="20">
         <v>379</v>
       </c>
       <c r="B379" s="6"/>
@@ -7853,7 +7884,7 @@
       <c r="K379" s="5"/>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A380" s="27">
+      <c r="A380" s="20">
         <v>380</v>
       </c>
       <c r="B380" s="6"/>
@@ -7871,7 +7902,7 @@
       <c r="K380" s="5"/>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A381" s="27">
+      <c r="A381" s="20">
         <v>381</v>
       </c>
       <c r="B381" s="6"/>
@@ -7889,7 +7920,7 @@
       <c r="K381" s="5"/>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A382" s="27">
+      <c r="A382" s="20">
         <v>382</v>
       </c>
       <c r="B382" s="6"/>
@@ -7907,7 +7938,7 @@
       <c r="K382" s="5"/>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A383" s="27">
+      <c r="A383" s="20">
         <v>383</v>
       </c>
       <c r="B383" s="6"/>
@@ -7925,7 +7956,7 @@
       <c r="K383" s="5"/>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A384" s="27">
+      <c r="A384" s="20">
         <v>384</v>
       </c>
       <c r="B384" s="6"/>
@@ -7943,7 +7974,7 @@
       <c r="K384" s="5"/>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A385" s="27">
+      <c r="A385" s="20">
         <v>385</v>
       </c>
       <c r="B385" s="6"/>
@@ -7961,7 +7992,7 @@
       <c r="K385" s="5"/>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A386" s="27">
+      <c r="A386" s="20">
         <v>386</v>
       </c>
       <c r="B386" s="6"/>
@@ -7979,7 +8010,7 @@
       <c r="K386" s="5"/>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A387" s="27">
+      <c r="A387" s="20">
         <v>387</v>
       </c>
       <c r="B387" s="6"/>
@@ -7997,7 +8028,7 @@
       <c r="K387" s="5"/>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A388" s="27">
+      <c r="A388" s="20">
         <v>388</v>
       </c>
       <c r="B388" s="6"/>
@@ -8015,7 +8046,7 @@
       <c r="K388" s="5"/>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A389" s="27">
+      <c r="A389" s="20">
         <v>389</v>
       </c>
       <c r="B389" s="6"/>
@@ -8033,7 +8064,7 @@
       <c r="K389" s="5"/>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A390" s="27">
+      <c r="A390" s="20">
         <v>390</v>
       </c>
       <c r="B390" s="6"/>
@@ -8051,7 +8082,7 @@
       <c r="K390" s="5"/>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A391" s="27">
+      <c r="A391" s="20">
         <v>391</v>
       </c>
       <c r="B391" s="6"/>
@@ -8069,7 +8100,7 @@
       <c r="K391" s="5"/>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A392" s="27">
+      <c r="A392" s="20">
         <v>392</v>
       </c>
       <c r="B392" s="6"/>
@@ -8087,7 +8118,7 @@
       <c r="K392" s="5"/>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A393" s="27">
+      <c r="A393" s="20">
         <v>393</v>
       </c>
       <c r="B393" s="6"/>
@@ -8105,7 +8136,7 @@
       <c r="K393" s="5"/>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A394" s="27">
+      <c r="A394" s="20">
         <v>394</v>
       </c>
       <c r="B394" s="6"/>
@@ -8123,7 +8154,7 @@
       <c r="K394" s="5"/>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A395" s="27">
+      <c r="A395" s="20">
         <v>395</v>
       </c>
       <c r="B395" s="6"/>
@@ -8141,7 +8172,7 @@
       <c r="K395" s="5"/>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A396" s="27">
+      <c r="A396" s="20">
         <v>396</v>
       </c>
       <c r="B396" s="6"/>
@@ -8159,7 +8190,7 @@
       <c r="K396" s="5"/>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A397" s="27">
+      <c r="A397" s="20">
         <v>397</v>
       </c>
       <c r="B397" s="6"/>
@@ -8177,7 +8208,7 @@
       <c r="K397" s="5"/>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A398" s="27">
+      <c r="A398" s="20">
         <v>398</v>
       </c>
       <c r="B398" s="6"/>
@@ -8195,7 +8226,7 @@
       <c r="K398" s="5"/>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A399" s="27">
+      <c r="A399" s="20">
         <v>399</v>
       </c>
       <c r="B399" s="6"/>
@@ -8213,7 +8244,7 @@
       <c r="K399" s="5"/>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A400" s="27">
+      <c r="A400" s="20">
         <v>400</v>
       </c>
       <c r="B400" s="6"/>
@@ -8231,7 +8262,7 @@
       <c r="K400" s="5"/>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A401" s="27">
+      <c r="A401" s="20">
         <v>401</v>
       </c>
       <c r="B401" s="6"/>
@@ -8249,7 +8280,7 @@
       <c r="K401" s="5"/>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A402" s="27">
+      <c r="A402" s="20">
         <v>402</v>
       </c>
       <c r="B402" s="6"/>
@@ -8267,7 +8298,7 @@
       <c r="K402" s="5"/>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A403" s="27">
+      <c r="A403" s="20">
         <v>403</v>
       </c>
       <c r="B403" s="6"/>
@@ -8285,7 +8316,7 @@
       <c r="K403" s="5"/>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A404" s="27">
+      <c r="A404" s="20">
         <v>404</v>
       </c>
       <c r="B404" s="6"/>
@@ -8303,7 +8334,7 @@
       <c r="K404" s="5"/>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A405" s="27">
+      <c r="A405" s="20">
         <v>405</v>
       </c>
       <c r="B405" s="6"/>
@@ -8321,7 +8352,7 @@
       <c r="K405" s="5"/>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A406" s="27">
+      <c r="A406" s="20">
         <v>406</v>
       </c>
       <c r="B406" s="6"/>
@@ -8339,7 +8370,7 @@
       <c r="K406" s="5"/>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A407" s="27">
+      <c r="A407" s="20">
         <v>407</v>
       </c>
       <c r="B407" s="6"/>
@@ -8357,7 +8388,7 @@
       <c r="K407" s="5"/>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A408" s="27">
+      <c r="A408" s="20">
         <v>408</v>
       </c>
       <c r="B408" s="6"/>
@@ -8375,7 +8406,7 @@
       <c r="K408" s="5"/>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A409" s="27">
+      <c r="A409" s="20">
         <v>409</v>
       </c>
       <c r="B409" s="6"/>
@@ -8393,7 +8424,7 @@
       <c r="K409" s="5"/>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A410" s="27">
+      <c r="A410" s="20">
         <v>410</v>
       </c>
       <c r="B410" s="6"/>
@@ -8411,7 +8442,7 @@
       <c r="K410" s="5"/>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A411" s="27">
+      <c r="A411" s="20">
         <v>411</v>
       </c>
       <c r="B411" s="6"/>
@@ -8429,7 +8460,7 @@
       <c r="K411" s="5"/>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A412" s="27">
+      <c r="A412" s="20">
         <v>412</v>
       </c>
       <c r="B412" s="6"/>
@@ -8447,7 +8478,7 @@
       <c r="K412" s="5"/>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A413" s="27">
+      <c r="A413" s="20">
         <v>413</v>
       </c>
       <c r="B413" s="6"/>
@@ -8465,7 +8496,7 @@
       <c r="K413" s="5"/>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A414" s="27">
+      <c r="A414" s="20">
         <v>414</v>
       </c>
       <c r="B414" s="6"/>
@@ -8483,7 +8514,7 @@
       <c r="K414" s="5"/>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A415" s="27">
+      <c r="A415" s="20">
         <v>415</v>
       </c>
       <c r="B415" s="6"/>
@@ -8501,7 +8532,7 @@
       <c r="K415" s="5"/>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A416" s="27">
+      <c r="A416" s="20">
         <v>416</v>
       </c>
       <c r="B416" s="6"/>
@@ -8519,7 +8550,7 @@
       <c r="K416" s="5"/>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A417" s="27">
+      <c r="A417" s="20">
         <v>417</v>
       </c>
       <c r="B417" s="6"/>
@@ -8537,7 +8568,7 @@
       <c r="K417" s="5"/>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A418" s="27">
+      <c r="A418" s="20">
         <v>418</v>
       </c>
       <c r="B418" s="6"/>
@@ -8555,7 +8586,7 @@
       <c r="K418" s="5"/>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A419" s="27">
+      <c r="A419" s="20">
         <v>419</v>
       </c>
       <c r="B419" s="6"/>
@@ -8573,7 +8604,7 @@
       <c r="K419" s="5"/>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A420" s="27">
+      <c r="A420" s="20">
         <v>420</v>
       </c>
       <c r="B420" s="6"/>
@@ -8591,7 +8622,7 @@
       <c r="K420" s="5"/>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A421" s="27">
+      <c r="A421" s="20">
         <v>421</v>
       </c>
       <c r="B421" s="6"/>
@@ -8609,7 +8640,7 @@
       <c r="K421" s="5"/>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A422" s="27">
+      <c r="A422" s="20">
         <v>422</v>
       </c>
       <c r="B422" s="6"/>
@@ -8627,7 +8658,7 @@
       <c r="K422" s="5"/>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A423" s="27">
+      <c r="A423" s="20">
         <v>423</v>
       </c>
       <c r="B423" s="6"/>
@@ -8645,7 +8676,7 @@
       <c r="K423" s="5"/>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A424" s="27">
+      <c r="A424" s="20">
         <v>424</v>
       </c>
       <c r="B424" s="6"/>
@@ -8663,7 +8694,7 @@
       <c r="K424" s="5"/>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A425" s="27">
+      <c r="A425" s="20">
         <v>425</v>
       </c>
       <c r="B425" s="6"/>
@@ -8681,7 +8712,7 @@
       <c r="K425" s="5"/>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A426" s="27">
+      <c r="A426" s="20">
         <v>426</v>
       </c>
       <c r="B426" s="6"/>
@@ -8699,7 +8730,7 @@
       <c r="K426" s="5"/>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A427" s="27">
+      <c r="A427" s="20">
         <v>427</v>
       </c>
       <c r="B427" s="6"/>
@@ -8717,7 +8748,7 @@
       <c r="K427" s="5"/>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A428" s="27">
+      <c r="A428" s="20">
         <v>428</v>
       </c>
       <c r="B428" s="6"/>
@@ -8735,7 +8766,7 @@
       <c r="K428" s="5"/>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A429" s="27">
+      <c r="A429" s="20">
         <v>429</v>
       </c>
       <c r="B429" s="6"/>
@@ -8753,7 +8784,7 @@
       <c r="K429" s="5"/>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A430" s="27">
+      <c r="A430" s="20">
         <v>430</v>
       </c>
       <c r="B430" s="6"/>
@@ -8771,7 +8802,7 @@
       <c r="K430" s="5"/>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A431" s="27">
+      <c r="A431" s="20">
         <v>431</v>
       </c>
       <c r="B431" s="6"/>
@@ -8789,7 +8820,7 @@
       <c r="K431" s="5"/>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A432" s="27">
+      <c r="A432" s="20">
         <v>432</v>
       </c>
       <c r="B432" s="6"/>
@@ -8807,7 +8838,7 @@
       <c r="K432" s="5"/>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A433" s="27">
+      <c r="A433" s="20">
         <v>433</v>
       </c>
       <c r="B433" s="6"/>
@@ -8825,7 +8856,7 @@
       <c r="K433" s="5"/>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A434" s="27">
+      <c r="A434" s="20">
         <v>434</v>
       </c>
       <c r="B434" s="6"/>
@@ -8843,7 +8874,7 @@
       <c r="K434" s="5"/>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A435" s="27">
+      <c r="A435" s="20">
         <v>435</v>
       </c>
       <c r="B435" s="6"/>
@@ -8861,7 +8892,7 @@
       <c r="K435" s="5"/>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A436" s="27">
+      <c r="A436" s="20">
         <v>436</v>
       </c>
       <c r="B436" s="6"/>
@@ -8879,7 +8910,7 @@
       <c r="K436" s="5"/>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A437" s="27">
+      <c r="A437" s="20">
         <v>437</v>
       </c>
       <c r="B437" s="6"/>
@@ -8897,7 +8928,7 @@
       <c r="K437" s="5"/>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A438" s="27">
+      <c r="A438" s="20">
         <v>438</v>
       </c>
       <c r="B438" s="6"/>
@@ -8915,7 +8946,7 @@
       <c r="K438" s="5"/>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A439" s="27">
+      <c r="A439" s="20">
         <v>439</v>
       </c>
       <c r="B439" s="6"/>
@@ -8933,7 +8964,7 @@
       <c r="K439" s="5"/>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A440" s="27">
+      <c r="A440" s="20">
         <v>440</v>
       </c>
       <c r="B440" s="6"/>
@@ -8951,7 +8982,7 @@
       <c r="K440" s="5"/>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A441" s="27">
+      <c r="A441" s="20">
         <v>441</v>
       </c>
       <c r="B441" s="6"/>
@@ -8969,7 +9000,7 @@
       <c r="K441" s="5"/>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A442" s="27">
+      <c r="A442" s="20">
         <v>442</v>
       </c>
       <c r="B442" s="6"/>
@@ -8987,7 +9018,7 @@
       <c r="K442" s="5"/>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A443" s="27">
+      <c r="A443" s="20">
         <v>443</v>
       </c>
       <c r="B443" s="6"/>
@@ -9005,7 +9036,7 @@
       <c r="K443" s="5"/>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A444" s="27">
+      <c r="A444" s="20">
         <v>444</v>
       </c>
       <c r="B444" s="6"/>
@@ -9023,7 +9054,7 @@
       <c r="K444" s="5"/>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A445" s="27">
+      <c r="A445" s="20">
         <v>445</v>
       </c>
       <c r="B445" s="6"/>
@@ -9041,7 +9072,7 @@
       <c r="K445" s="5"/>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A446" s="27">
+      <c r="A446" s="20">
         <v>446</v>
       </c>
       <c r="B446" s="6"/>
@@ -9059,7 +9090,7 @@
       <c r="K446" s="5"/>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A447" s="27">
+      <c r="A447" s="20">
         <v>447</v>
       </c>
       <c r="B447" s="6"/>
@@ -9077,7 +9108,7 @@
       <c r="K447" s="5"/>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A448" s="27">
+      <c r="A448" s="20">
         <v>448</v>
       </c>
       <c r="B448" s="6"/>
@@ -9095,7 +9126,7 @@
       <c r="K448" s="5"/>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A449" s="27">
+      <c r="A449" s="20">
         <v>449</v>
       </c>
       <c r="B449" s="6"/>
@@ -9113,7 +9144,7 @@
       <c r="K449" s="5"/>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A450" s="27">
+      <c r="A450" s="20">
         <v>450</v>
       </c>
       <c r="B450" s="6"/>
@@ -9131,7 +9162,7 @@
       <c r="K450" s="5"/>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A451" s="27">
+      <c r="A451" s="20">
         <v>451</v>
       </c>
       <c r="B451" s="6"/>
@@ -9149,7 +9180,7 @@
       <c r="K451" s="5"/>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A452" s="27">
+      <c r="A452" s="20">
         <v>452</v>
       </c>
       <c r="B452" s="6"/>
@@ -9167,7 +9198,7 @@
       <c r="K452" s="5"/>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A453" s="27">
+      <c r="A453" s="20">
         <v>453</v>
       </c>
       <c r="B453" s="6"/>
@@ -9185,7 +9216,7 @@
       <c r="K453" s="5"/>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A454" s="27">
+      <c r="A454" s="20">
         <v>454</v>
       </c>
       <c r="B454" s="6"/>
@@ -9203,7 +9234,7 @@
       <c r="K454" s="5"/>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A455" s="27">
+      <c r="A455" s="20">
         <v>455</v>
       </c>
       <c r="B455" s="6"/>
@@ -9221,7 +9252,7 @@
       <c r="K455" s="5"/>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A456" s="27">
+      <c r="A456" s="20">
         <v>456</v>
       </c>
       <c r="B456" s="6"/>
@@ -9239,7 +9270,7 @@
       <c r="K456" s="5"/>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A457" s="27">
+      <c r="A457" s="20">
         <v>457</v>
       </c>
       <c r="B457" s="6"/>
@@ -9257,7 +9288,7 @@
       <c r="K457" s="5"/>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A458" s="27">
+      <c r="A458" s="20">
         <v>458</v>
       </c>
       <c r="B458" s="6"/>
@@ -9275,7 +9306,7 @@
       <c r="K458" s="5"/>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A459" s="27">
+      <c r="A459" s="20">
         <v>459</v>
       </c>
       <c r="B459" s="6"/>
@@ -9293,7 +9324,7 @@
       <c r="K459" s="5"/>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A460" s="27">
+      <c r="A460" s="20">
         <v>460</v>
       </c>
       <c r="B460" s="6"/>
@@ -9311,7 +9342,7 @@
       <c r="K460" s="5"/>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A461" s="27">
+      <c r="A461" s="20">
         <v>461</v>
       </c>
       <c r="B461" s="6"/>
@@ -9329,7 +9360,7 @@
       <c r="K461" s="5"/>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A462" s="27">
+      <c r="A462" s="20">
         <v>462</v>
       </c>
       <c r="B462" s="6"/>
@@ -9347,7 +9378,7 @@
       <c r="K462" s="5"/>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A463" s="27">
+      <c r="A463" s="20">
         <v>463</v>
       </c>
       <c r="B463" s="6"/>
@@ -9365,7 +9396,7 @@
       <c r="K463" s="5"/>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A464" s="27">
+      <c r="A464" s="20">
         <v>464</v>
       </c>
       <c r="B464" s="6"/>
@@ -9383,7 +9414,7 @@
       <c r="K464" s="5"/>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A465" s="27">
+      <c r="A465" s="20">
         <v>465</v>
       </c>
       <c r="B465" s="6"/>
@@ -9401,7 +9432,7 @@
       <c r="K465" s="5"/>
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A466" s="27">
+      <c r="A466" s="20">
         <v>466</v>
       </c>
       <c r="B466" s="6"/>
@@ -9419,7 +9450,7 @@
       <c r="K466" s="5"/>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A467" s="27">
+      <c r="A467" s="20">
         <v>467</v>
       </c>
       <c r="B467" s="6"/>
@@ -9437,7 +9468,7 @@
       <c r="K467" s="5"/>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A468" s="27">
+      <c r="A468" s="20">
         <v>468</v>
       </c>
       <c r="B468" s="6"/>
@@ -9455,7 +9486,7 @@
       <c r="K468" s="5"/>
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A469" s="27">
+      <c r="A469" s="20">
         <v>469</v>
       </c>
       <c r="B469" s="6"/>
@@ -9473,7 +9504,7 @@
       <c r="K469" s="5"/>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A470" s="27">
+      <c r="A470" s="20">
         <v>470</v>
       </c>
       <c r="B470" s="6"/>
@@ -9491,7 +9522,7 @@
       <c r="K470" s="5"/>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A471" s="27">
+      <c r="A471" s="20">
         <v>471</v>
       </c>
       <c r="B471" s="6"/>
@@ -9509,7 +9540,7 @@
       <c r="K471" s="5"/>
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A472" s="27">
+      <c r="A472" s="20">
         <v>472</v>
       </c>
       <c r="B472" s="6"/>
@@ -9527,7 +9558,7 @@
       <c r="K472" s="5"/>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A473" s="27">
+      <c r="A473" s="20">
         <v>473</v>
       </c>
       <c r="B473" s="6"/>
@@ -9545,7 +9576,7 @@
       <c r="K473" s="5"/>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A474" s="27">
+      <c r="A474" s="20">
         <v>474</v>
       </c>
       <c r="B474" s="6"/>
@@ -9563,7 +9594,7 @@
       <c r="K474" s="5"/>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A475" s="27">
+      <c r="A475" s="20">
         <v>475</v>
       </c>
       <c r="B475" s="6"/>
@@ -9581,7 +9612,7 @@
       <c r="K475" s="5"/>
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A476" s="27">
+      <c r="A476" s="20">
         <v>476</v>
       </c>
       <c r="B476" s="6"/>
@@ -9599,7 +9630,7 @@
       <c r="K476" s="5"/>
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A477" s="27">
+      <c r="A477" s="20">
         <v>477</v>
       </c>
       <c r="B477" s="6"/>
@@ -9617,7 +9648,7 @@
       <c r="K477" s="5"/>
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A478" s="27">
+      <c r="A478" s="20">
         <v>478</v>
       </c>
       <c r="B478" s="6"/>
@@ -9635,7 +9666,7 @@
       <c r="K478" s="5"/>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A479" s="27">
+      <c r="A479" s="20">
         <v>479</v>
       </c>
       <c r="B479" s="6"/>
@@ -9653,7 +9684,7 @@
       <c r="K479" s="5"/>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A480" s="27">
+      <c r="A480" s="20">
         <v>480</v>
       </c>
       <c r="B480" s="6"/>
@@ -9671,7 +9702,7 @@
       <c r="K480" s="5"/>
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A481" s="27">
+      <c r="A481" s="20">
         <v>481</v>
       </c>
       <c r="B481" s="6"/>
@@ -9689,7 +9720,7 @@
       <c r="K481" s="5"/>
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A482" s="27">
+      <c r="A482" s="20">
         <v>482</v>
       </c>
       <c r="B482" s="6"/>
@@ -9707,7 +9738,7 @@
       <c r="K482" s="5"/>
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A483" s="27">
+      <c r="A483" s="20">
         <v>483</v>
       </c>
       <c r="B483" s="6"/>
@@ -9725,7 +9756,7 @@
       <c r="K483" s="5"/>
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A484" s="27">
+      <c r="A484" s="20">
         <v>484</v>
       </c>
       <c r="B484" s="6"/>
@@ -9743,7 +9774,7 @@
       <c r="K484" s="5"/>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A485" s="27">
+      <c r="A485" s="20">
         <v>485</v>
       </c>
       <c r="B485" s="6"/>
@@ -9761,7 +9792,7 @@
       <c r="K485" s="5"/>
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A486" s="27">
+      <c r="A486" s="20">
         <v>486</v>
       </c>
       <c r="B486" s="6"/>
@@ -9779,7 +9810,7 @@
       <c r="K486" s="5"/>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A487" s="27">
+      <c r="A487" s="20">
         <v>487</v>
       </c>
       <c r="B487" s="6"/>
@@ -9797,7 +9828,7 @@
       <c r="K487" s="5"/>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A488" s="27">
+      <c r="A488" s="20">
         <v>488</v>
       </c>
       <c r="B488" s="6"/>
@@ -9815,7 +9846,7 @@
       <c r="K488" s="5"/>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A489" s="27">
+      <c r="A489" s="20">
         <v>489</v>
       </c>
       <c r="B489" s="6"/>
@@ -9833,7 +9864,7 @@
       <c r="K489" s="5"/>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A490" s="27">
+      <c r="A490" s="20">
         <v>490</v>
       </c>
       <c r="B490" s="6"/>
@@ -9851,7 +9882,7 @@
       <c r="K490" s="5"/>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A491" s="27">
+      <c r="A491" s="20">
         <v>491</v>
       </c>
       <c r="B491" s="6"/>
@@ -9869,7 +9900,7 @@
       <c r="K491" s="5"/>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A492" s="27">
+      <c r="A492" s="20">
         <v>492</v>
       </c>
       <c r="B492" s="6"/>
@@ -9887,7 +9918,7 @@
       <c r="K492" s="5"/>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A493" s="27">
+      <c r="A493" s="20">
         <v>493</v>
       </c>
       <c r="B493" s="6"/>
@@ -9905,7 +9936,7 @@
       <c r="K493" s="5"/>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A494" s="27">
+      <c r="A494" s="20">
         <v>494</v>
       </c>
       <c r="B494" s="6"/>
@@ -9923,7 +9954,7 @@
       <c r="K494" s="5"/>
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A495" s="27">
+      <c r="A495" s="20">
         <v>495</v>
       </c>
       <c r="B495" s="6"/>
@@ -9941,7 +9972,7 @@
       <c r="K495" s="5"/>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A496" s="27">
+      <c r="A496" s="20">
         <v>496</v>
       </c>
       <c r="B496" s="6"/>
@@ -9959,7 +9990,7 @@
       <c r="K496" s="5"/>
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A497" s="27">
+      <c r="A497" s="20">
         <v>497</v>
       </c>
       <c r="B497" s="6"/>
@@ -9977,7 +10008,7 @@
       <c r="K497" s="5"/>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A498" s="27">
+      <c r="A498" s="20">
         <v>498</v>
       </c>
       <c r="B498" s="6"/>
@@ -9995,7 +10026,7 @@
       <c r="K498" s="5"/>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A499" s="27">
+      <c r="A499" s="20">
         <v>499</v>
       </c>
       <c r="B499" s="6"/>
@@ -10013,7 +10044,7 @@
       <c r="K499" s="5"/>
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A500" s="27">
+      <c r="A500" s="20">
         <v>500</v>
       </c>
       <c r="B500" s="6"/>
@@ -10031,7 +10062,7 @@
       <c r="K500" s="5"/>
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A501" s="27">
+      <c r="A501" s="20">
         <v>501</v>
       </c>
       <c r="B501" s="6"/>
@@ -10049,7 +10080,7 @@
       <c r="K501" s="5"/>
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A502" s="27">
+      <c r="A502" s="20">
         <v>502</v>
       </c>
       <c r="B502" s="6"/>
@@ -10067,7 +10098,7 @@
       <c r="K502" s="5"/>
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A503" s="27">
+      <c r="A503" s="20">
         <v>503</v>
       </c>
       <c r="B503" s="6"/>
@@ -10085,7 +10116,7 @@
       <c r="K503" s="5"/>
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A504" s="27">
+      <c r="A504" s="20">
         <v>504</v>
       </c>
       <c r="B504" s="6"/>
@@ -10103,7 +10134,7 @@
       <c r="K504" s="5"/>
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A505" s="27">
+      <c r="A505" s="20">
         <v>505</v>
       </c>
       <c r="B505" s="6"/>
@@ -10121,7 +10152,7 @@
       <c r="K505" s="5"/>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A506" s="27">
+      <c r="A506" s="20">
         <v>506</v>
       </c>
       <c r="B506" s="6"/>
@@ -10139,7 +10170,7 @@
       <c r="K506" s="5"/>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A507" s="27">
+      <c r="A507" s="20">
         <v>507</v>
       </c>
       <c r="B507" s="6"/>
@@ -10157,7 +10188,7 @@
       <c r="K507" s="5"/>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A508" s="27">
+      <c r="A508" s="20">
         <v>508</v>
       </c>
       <c r="B508" s="6"/>
@@ -10175,7 +10206,7 @@
       <c r="K508" s="5"/>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A509" s="27">
+      <c r="A509" s="20">
         <v>509</v>
       </c>
       <c r="B509" s="6"/>
@@ -10193,7 +10224,7 @@
       <c r="K509" s="5"/>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A510" s="27">
+      <c r="A510" s="20">
         <v>510</v>
       </c>
       <c r="B510" s="6"/>
@@ -10211,7 +10242,7 @@
       <c r="K510" s="5"/>
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A511" s="27">
+      <c r="A511" s="20">
         <v>511</v>
       </c>
       <c r="B511" s="6"/>
@@ -10229,7 +10260,7 @@
       <c r="K511" s="5"/>
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A512" s="27">
+      <c r="A512" s="20">
         <v>512</v>
       </c>
       <c r="B512" s="6"/>
@@ -10247,7 +10278,7 @@
       <c r="K512" s="5"/>
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A513" s="27">
+      <c r="A513" s="20">
         <v>513</v>
       </c>
       <c r="B513" s="6"/>
@@ -10265,7 +10296,7 @@
       <c r="K513" s="5"/>
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A514" s="27">
+      <c r="A514" s="20">
         <v>514</v>
       </c>
       <c r="B514" s="6"/>
@@ -10283,7 +10314,7 @@
       <c r="K514" s="5"/>
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A515" s="27">
+      <c r="A515" s="20">
         <v>515</v>
       </c>
       <c r="B515" s="6"/>
@@ -10301,7 +10332,7 @@
       <c r="K515" s="5"/>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A516" s="27">
+      <c r="A516" s="20">
         <v>516</v>
       </c>
       <c r="B516" s="6"/>
@@ -10319,7 +10350,7 @@
       <c r="K516" s="5"/>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A517" s="27">
+      <c r="A517" s="20">
         <v>517</v>
       </c>
       <c r="B517" s="6"/>
@@ -10337,7 +10368,7 @@
       <c r="K517" s="5"/>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A518" s="27">
+      <c r="A518" s="20">
         <v>518</v>
       </c>
       <c r="B518" s="6"/>
@@ -10355,7 +10386,7 @@
       <c r="K518" s="5"/>
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A519" s="27">
+      <c r="A519" s="20">
         <v>519</v>
       </c>
       <c r="B519" s="6"/>
@@ -10373,7 +10404,7 @@
       <c r="K519" s="5"/>
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A520" s="27">
+      <c r="A520" s="20">
         <v>520</v>
       </c>
       <c r="B520" s="6"/>
@@ -10391,7 +10422,7 @@
       <c r="K520" s="5"/>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A521" s="27">
+      <c r="A521" s="20">
         <v>521</v>
       </c>
       <c r="B521" s="6"/>
@@ -10409,7 +10440,7 @@
       <c r="K521" s="5"/>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A522" s="27">
+      <c r="A522" s="20">
         <v>522</v>
       </c>
       <c r="B522" s="6"/>
@@ -10427,7 +10458,7 @@
       <c r="K522" s="5"/>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A523" s="27">
+      <c r="A523" s="20">
         <v>523</v>
       </c>
       <c r="B523" s="6"/>
@@ -10445,7 +10476,7 @@
       <c r="K523" s="5"/>
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A524" s="27">
+      <c r="A524" s="20">
         <v>524</v>
       </c>
       <c r="B524" s="6"/>
@@ -10463,7 +10494,7 @@
       <c r="K524" s="5"/>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A525" s="27">
+      <c r="A525" s="20">
         <v>525</v>
       </c>
       <c r="B525" s="6"/>
@@ -10481,7 +10512,7 @@
       <c r="K525" s="5"/>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A526" s="27">
+      <c r="A526" s="20">
         <v>526</v>
       </c>
       <c r="B526" s="6"/>
@@ -10499,7 +10530,7 @@
       <c r="K526" s="5"/>
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A527" s="27">
+      <c r="A527" s="20">
         <v>527</v>
       </c>
       <c r="B527" s="6"/>
@@ -10517,7 +10548,7 @@
       <c r="K527" s="5"/>
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A528" s="27">
+      <c r="A528" s="20">
         <v>528</v>
       </c>
       <c r="B528" s="6"/>
@@ -10535,7 +10566,7 @@
       <c r="K528" s="5"/>
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A529" s="27">
+      <c r="A529" s="20">
         <v>529</v>
       </c>
       <c r="B529" s="6"/>
@@ -10553,7 +10584,7 @@
       <c r="K529" s="5"/>
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A530" s="27">
+      <c r="A530" s="20">
         <v>530</v>
       </c>
       <c r="B530" s="6"/>
@@ -10571,7 +10602,7 @@
       <c r="K530" s="5"/>
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A531" s="27">
+      <c r="A531" s="20">
         <v>531</v>
       </c>
       <c r="B531" s="6"/>
@@ -10589,7 +10620,7 @@
       <c r="K531" s="5"/>
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A532" s="27">
+      <c r="A532" s="20">
         <v>532</v>
       </c>
       <c r="B532" s="6"/>
@@ -10607,7 +10638,7 @@
       <c r="K532" s="5"/>
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A533" s="27">
+      <c r="A533" s="20">
         <v>533</v>
       </c>
       <c r="B533" s="6"/>
@@ -10625,7 +10656,7 @@
       <c r="K533" s="5"/>
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A534" s="27">
+      <c r="A534" s="20">
         <v>534</v>
       </c>
       <c r="B534" s="6"/>
@@ -10643,7 +10674,7 @@
       <c r="K534" s="5"/>
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A535" s="27">
+      <c r="A535" s="20">
         <v>535</v>
       </c>
       <c r="B535" s="6"/>
@@ -10661,7 +10692,7 @@
       <c r="K535" s="5"/>
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A536" s="27">
+      <c r="A536" s="20">
         <v>536</v>
       </c>
       <c r="B536" s="6"/>
@@ -10679,7 +10710,7 @@
       <c r="K536" s="5"/>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A537" s="27">
+      <c r="A537" s="20">
         <v>537</v>
       </c>
       <c r="B537" s="6"/>
@@ -10697,7 +10728,7 @@
       <c r="K537" s="5"/>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A538" s="27">
+      <c r="A538" s="20">
         <v>538</v>
       </c>
       <c r="B538" s="6"/>
@@ -10715,7 +10746,7 @@
       <c r="K538" s="5"/>
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A539" s="27">
+      <c r="A539" s="20">
         <v>539</v>
       </c>
       <c r="B539" s="6"/>
@@ -10733,7 +10764,7 @@
       <c r="K539" s="5"/>
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A540" s="27">
+      <c r="A540" s="20">
         <v>540</v>
       </c>
       <c r="B540" s="6"/>
@@ -10751,7 +10782,7 @@
       <c r="K540" s="5"/>
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A541" s="27">
+      <c r="A541" s="20">
         <v>541</v>
       </c>
       <c r="B541" s="6"/>
@@ -10769,7 +10800,7 @@
       <c r="K541" s="5"/>
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A542" s="27">
+      <c r="A542" s="20">
         <v>542</v>
       </c>
       <c r="B542" s="6"/>
@@ -10787,7 +10818,7 @@
       <c r="K542" s="5"/>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A543" s="27">
+      <c r="A543" s="20">
         <v>543</v>
       </c>
       <c r="B543" s="6"/>
@@ -10805,7 +10836,7 @@
       <c r="K543" s="5"/>
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A544" s="27">
+      <c r="A544" s="20">
         <v>544</v>
       </c>
       <c r="B544" s="6"/>
@@ -10823,7 +10854,7 @@
       <c r="K544" s="5"/>
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A545" s="27">
+      <c r="A545" s="20">
         <v>545</v>
       </c>
       <c r="B545" s="6"/>
@@ -10841,7 +10872,7 @@
       <c r="K545" s="5"/>
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A546" s="27">
+      <c r="A546" s="20">
         <v>546</v>
       </c>
       <c r="B546" s="6"/>
@@ -10859,7 +10890,7 @@
       <c r="K546" s="5"/>
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A547" s="27">
+      <c r="A547" s="20">
         <v>547</v>
       </c>
       <c r="B547" s="6"/>
@@ -10877,7 +10908,7 @@
       <c r="K547" s="5"/>
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A548" s="27">
+      <c r="A548" s="20">
         <v>548</v>
       </c>
       <c r="B548" s="6"/>
@@ -10895,7 +10926,7 @@
       <c r="K548" s="5"/>
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A549" s="27">
+      <c r="A549" s="20">
         <v>549</v>
       </c>
       <c r="B549" s="6"/>
@@ -10913,7 +10944,7 @@
       <c r="K549" s="5"/>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A550" s="27">
+      <c r="A550" s="20">
         <v>550</v>
       </c>
       <c r="B550" s="6"/>
@@ -10931,7 +10962,7 @@
       <c r="K550" s="5"/>
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A551" s="27">
+      <c r="A551" s="20">
         <v>551</v>
       </c>
       <c r="B551" s="6"/>
@@ -10981,14 +11012,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">

--- a/ĐƠN HÀNG.xlsx
+++ b/ĐƠN HÀNG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14F0D44-C7E7-465F-9EE9-C904979D5512}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7471F6-D7F9-4E49-A5FD-D69E46F79330}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -454,18 +454,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -487,6 +475,25 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -769,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -790,36 +797,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="23"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="16" t="s">
         <v>47</v>
       </c>
@@ -841,8 +848,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="15">
         <v>1</v>
       </c>
@@ -895,219 +902,219 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="26">
+    <row r="8" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="22">
         <v>1</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="22">
         <v>1</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="22">
         <v>92</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="22">
         <v>420000</v>
       </c>
-      <c r="I8" s="26">
-        <v>0</v>
-      </c>
-      <c r="J8" s="26">
+      <c r="I8" s="22">
+        <v>0</v>
+      </c>
+      <c r="J8" s="22">
         <f t="shared" ref="J8:J13" si="0">H8:H551-I8:I551</f>
         <v>420000</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="21">
+    <row r="9" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="22">
         <v>2</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="22">
         <v>1</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="22">
         <v>98.8</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="22">
         <v>450000</v>
       </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
+      <c r="I9" s="22">
+        <v>0</v>
+      </c>
+      <c r="J9" s="22">
         <f t="shared" si="0"/>
         <v>450000</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="21">
+    <row r="10" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="37">
         <v>3</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="37">
         <v>1</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="37">
         <v>33.799999999999997</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="37">
         <v>175000</v>
       </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
+      <c r="I10" s="37">
+        <v>0</v>
+      </c>
+      <c r="J10" s="37">
         <f t="shared" si="0"/>
         <v>175000</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="37" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="21">
+    <row r="11" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="22">
         <v>4</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="22">
         <v>1</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="22">
         <v>10.9</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="22">
         <v>85000</v>
       </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
+      <c r="I11" s="22">
+        <v>0</v>
+      </c>
+      <c r="J11" s="22">
         <f t="shared" si="0"/>
         <v>85000</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="21">
+    <row r="12" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="22">
         <v>5</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="22">
         <v>1</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="22">
         <v>9.9</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="22">
         <v>80000</v>
       </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
+      <c r="I12" s="22">
+        <v>0</v>
+      </c>
+      <c r="J12" s="22">
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="21">
+    <row r="13" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="22">
         <v>6</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="22">
         <v>1</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="22">
         <v>83</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="22">
         <v>820000</v>
       </c>
-      <c r="I13" s="5">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5">
+      <c r="I13" s="22">
+        <v>0</v>
+      </c>
+      <c r="J13" s="22">
         <f t="shared" si="0"/>
         <v>820000</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="22" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1179,205 +1186,205 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="26">
+    <row r="16" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="22">
         <v>13</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="22">
         <v>1</v>
       </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26">
+      <c r="G16" s="22"/>
+      <c r="H16" s="22">
         <v>440000</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="22">
         <v>100000</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="22">
         <f>H16:H563-I16:I563</f>
         <v>340000</v>
       </c>
-      <c r="K16" s="26" t="s">
+      <c r="K16" s="22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="29" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="26">
+    <row r="17" spans="1:11" s="25" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="22">
         <v>16</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="22">
         <v>1</v>
       </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26">
+      <c r="G17" s="22"/>
+      <c r="H17" s="22">
         <v>332000</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="22">
         <v>100000</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="22">
         <f>H17:H566-I17:I566</f>
         <v>232000</v>
       </c>
-      <c r="K17" s="26"/>
-    </row>
-    <row r="18" spans="1:11" s="29" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="26">
+      <c r="K17" s="22"/>
+    </row>
+    <row r="18" spans="1:11" s="25" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="22">
         <v>17</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="22">
         <v>1</v>
       </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26">
+      <c r="G18" s="22"/>
+      <c r="H18" s="22">
         <v>230000</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="22">
         <v>70000</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J18" s="22">
         <f>H18:H567-I18:I567</f>
         <v>160000</v>
       </c>
-      <c r="K18" s="26" t="s">
+      <c r="K18" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="26">
+    <row r="19" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="22">
         <v>18</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="22">
         <v>16</v>
       </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26">
+      <c r="G19" s="22"/>
+      <c r="H19" s="22">
         <v>880000</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="22">
         <v>440000</v>
       </c>
-      <c r="J19" s="26">
+      <c r="J19" s="22">
         <f>H19:H568-I19:I568</f>
         <v>440000</v>
       </c>
-      <c r="K19" s="26" t="s">
+      <c r="K19" s="22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="26">
+    <row r="20" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="22">
         <v>19</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="22">
         <v>1</v>
       </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26">
+      <c r="G20" s="22"/>
+      <c r="H20" s="22">
         <v>215000</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="22">
         <v>100000</v>
       </c>
-      <c r="J20" s="26">
+      <c r="J20" s="22">
         <f>H20:H569-I20:I569</f>
         <v>115000</v>
       </c>
-      <c r="K20" s="26" t="s">
+      <c r="K20" s="22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="26">
+    <row r="21" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="22">
         <v>20</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="28">
         <v>1</v>
       </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26">
+      <c r="G21" s="22"/>
+      <c r="H21" s="22">
         <v>205000</v>
       </c>
-      <c r="I21" s="26">
-        <v>0</v>
-      </c>
-      <c r="J21" s="26">
+      <c r="I21" s="22">
+        <v>0</v>
+      </c>
+      <c r="J21" s="22">
         <f>H21:H570-I21:I570</f>
         <v>205000</v>
       </c>
-      <c r="K21" s="26"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="21">
@@ -1411,34 +1418,34 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="21">
+    <row r="23" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="22">
         <v>23</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="5" t="s">
+      <c r="D23" s="24"/>
+      <c r="E23" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="22">
         <v>1</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5">
+      <c r="G23" s="22"/>
+      <c r="H23" s="22">
         <v>160000</v>
       </c>
-      <c r="I23" s="5">
-        <v>0</v>
-      </c>
-      <c r="J23" s="5">
+      <c r="I23" s="22">
+        <v>0</v>
+      </c>
+      <c r="J23" s="22">
         <v>165000</v>
       </c>
-      <c r="K23" s="5"/>
+      <c r="K23" s="22"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="21">
@@ -1472,33 +1479,33 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="26">
+    <row r="25" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="22">
         <v>25</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="26" t="s">
+      <c r="D25" s="24"/>
+      <c r="E25" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="22">
         <v>1</v>
       </c>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26">
+      <c r="G25" s="22"/>
+      <c r="H25" s="22">
         <v>225000</v>
       </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26">
+      <c r="I25" s="22"/>
+      <c r="J25" s="22">
         <f t="shared" si="2"/>
         <v>225000</v>
       </c>
-      <c r="K25" s="26"/>
+      <c r="K25" s="22"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="20">
@@ -11012,14 +11019,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">

--- a/ĐƠN HÀNG.xlsx
+++ b/ĐƠN HÀNG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07674D8F-26A6-48E2-829E-92AD5E1AE97F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCE0170-C2F0-4014-A9F3-74AC793BD20C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,7 +344,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,12 +366,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -428,37 +422,32 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -754,12 +743,12 @@
   <dimension ref="A1:K549"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="5.36328125" style="14" customWidth="1"/>
     <col min="2" max="2" width="19" style="8" customWidth="1"/>
     <col min="3" max="3" width="23.54296875" style="8" customWidth="1"/>
     <col min="4" max="4" width="13.08984375" style="11" customWidth="1"/>
@@ -774,49 +763,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="29"/>
+      <c r="F4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="13" t="s">
         <v>46</v>
       </c>
       <c r="K4" s="7">
@@ -825,27 +814,27 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="13">
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="12">
         <v>1</v>
       </c>
-      <c r="G5" s="13">
-        <v>179000</v>
-      </c>
-      <c r="H5" s="13">
-        <v>20000</v>
-      </c>
-      <c r="I5" s="13">
-        <v>35000</v>
-      </c>
-      <c r="J5" s="13">
+      <c r="G5" s="12">
+        <v>89</v>
+      </c>
+      <c r="H5" s="12">
+        <v>25000</v>
+      </c>
+      <c r="I5" s="12">
+        <v>45000</v>
+      </c>
+      <c r="J5" s="12">
         <f>F5*G5*3850 +H5+I5</f>
-        <v>689205000</v>
+        <v>412650</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -879,547 +868,547 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="20">
+    <row r="8" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="17">
         <v>1</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="17">
         <v>1</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="17">
         <v>92</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="17">
         <v>420000</v>
       </c>
-      <c r="I8" s="20">
-        <v>0</v>
-      </c>
-      <c r="J8" s="20">
-        <f>H8:H549-I8:I549</f>
+      <c r="I8" s="17">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17">
+        <f t="shared" ref="J8:J13" si="0">H8:H549-I8:I549</f>
         <v>420000</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="20">
+    <row r="9" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="17">
         <v>2</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="17">
         <v>1</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="17">
         <v>98.8</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="17">
         <v>450000</v>
       </c>
-      <c r="I9" s="20">
-        <v>0</v>
-      </c>
-      <c r="J9" s="20">
-        <f>H9:H550-I9:I550</f>
+      <c r="I9" s="17">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17">
+        <f t="shared" si="0"/>
         <v>450000</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="20">
+    <row r="10" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="17">
         <v>3</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="17">
         <v>1</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="17">
         <v>33.799999999999997</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="17">
         <v>175000</v>
       </c>
-      <c r="I10" s="20">
-        <v>0</v>
-      </c>
-      <c r="J10" s="20">
-        <f>H10:H551-I10:I551</f>
+      <c r="I10" s="17">
+        <v>0</v>
+      </c>
+      <c r="J10" s="17">
+        <f t="shared" si="0"/>
         <v>175000</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="20">
+    <row r="11" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="17">
         <v>4</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="17">
         <v>1</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="17">
         <v>10.9</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="17">
         <v>85000</v>
       </c>
-      <c r="I11" s="20">
-        <v>0</v>
-      </c>
-      <c r="J11" s="20">
-        <f>H11:H552-I11:I552</f>
+      <c r="I11" s="17">
+        <v>0</v>
+      </c>
+      <c r="J11" s="17">
+        <f t="shared" si="0"/>
         <v>85000</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="20">
+    <row r="12" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="17">
         <v>5</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="17">
         <v>1</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="17">
         <v>9.9</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="17">
         <v>80000</v>
       </c>
-      <c r="I12" s="20">
-        <v>0</v>
-      </c>
-      <c r="J12" s="20">
-        <f>H12:H553-I12:I553</f>
+      <c r="I12" s="17">
+        <v>0</v>
+      </c>
+      <c r="J12" s="17">
+        <f t="shared" si="0"/>
         <v>80000</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="K12" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="20">
+    <row r="13" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="17">
         <v>6</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="17">
         <v>1</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="17">
         <v>83</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="17">
         <v>820000</v>
       </c>
-      <c r="I13" s="20">
-        <v>0</v>
-      </c>
-      <c r="J13" s="20">
-        <f>H13:H554-I13:I554</f>
+      <c r="I13" s="17">
+        <v>0</v>
+      </c>
+      <c r="J13" s="17">
+        <f t="shared" si="0"/>
         <v>820000</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="20">
+    <row r="14" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="17">
         <v>10</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="17">
         <v>1</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20">
+      <c r="G14" s="17"/>
+      <c r="H14" s="17">
         <v>210000</v>
       </c>
-      <c r="I14" s="20">
-        <v>0</v>
-      </c>
-      <c r="J14" s="20">
+      <c r="I14" s="17">
+        <v>0</v>
+      </c>
+      <c r="J14" s="17">
         <f>H14:H558-I14:I558</f>
         <v>210000</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K14" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="20">
+    <row r="15" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="17">
         <v>13</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="17">
         <v>1</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20">
+      <c r="G15" s="17"/>
+      <c r="H15" s="17">
         <v>440000</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="17">
         <v>100000</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15" s="17">
         <f>H15:H561-I15:I561</f>
         <v>340000</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="K15" s="17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="23" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="20">
+    <row r="16" spans="1:11" s="20" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="17">
         <v>16</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="17">
         <v>1</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20">
+      <c r="G16" s="17"/>
+      <c r="H16" s="17">
         <v>332000</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="17">
         <v>100000</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="17">
         <f>H16:H564-I16:I564</f>
         <v>232000</v>
       </c>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" spans="1:11" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="20">
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="1:11" s="20" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="17">
         <v>17</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="17">
         <v>1</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20">
+      <c r="G17" s="17"/>
+      <c r="H17" s="17">
         <v>230000</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="17">
         <v>70000</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17" s="17">
         <f>H17:H565-I17:I565</f>
         <v>160000</v>
       </c>
-      <c r="K17" s="20" t="s">
+      <c r="K17" s="17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="20">
+    <row r="18" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="17">
         <v>18</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="17">
         <v>16</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20">
+      <c r="G18" s="17"/>
+      <c r="H18" s="17">
         <v>880000</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="17">
         <v>440000</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J18" s="17">
         <f>H18:H566-I18:I566</f>
         <v>440000</v>
       </c>
-      <c r="K18" s="20" t="s">
+      <c r="K18" s="17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="20">
+    <row r="19" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="17">
         <v>19</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="17">
         <v>1</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20">
+      <c r="G19" s="17"/>
+      <c r="H19" s="17">
         <v>215000</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19" s="17">
         <v>100000</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19" s="17">
         <f>H19:H567-I19:I567</f>
         <v>115000</v>
       </c>
-      <c r="K19" s="20" t="s">
+      <c r="K19" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="20">
+    <row r="20" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="17">
         <v>20</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="23">
         <v>1</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20">
+      <c r="G20" s="17"/>
+      <c r="H20" s="17">
         <v>205000</v>
       </c>
-      <c r="I20" s="20">
-        <v>0</v>
-      </c>
-      <c r="J20" s="20">
+      <c r="I20" s="17">
+        <v>0</v>
+      </c>
+      <c r="J20" s="17">
         <f>H20:H568-I20:I568</f>
         <v>205000</v>
       </c>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="19">
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="17">
         <v>22</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="5" t="s">
+      <c r="D21" s="19"/>
+      <c r="E21" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="17">
         <v>2</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5">
+      <c r="G21" s="17"/>
+      <c r="H21" s="17">
         <v>220000</v>
       </c>
-      <c r="I21" s="5">
-        <v>0</v>
-      </c>
-      <c r="J21" s="5">
+      <c r="I21" s="17">
+        <v>0</v>
+      </c>
+      <c r="J21" s="17">
         <f>H21:H570-I21:I570</f>
         <v>220000</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="20">
+    <row r="22" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="17">
         <v>23</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="20" t="s">
+      <c r="D22" s="19"/>
+      <c r="E22" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="17">
         <v>1</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20">
+      <c r="G22" s="17"/>
+      <c r="H22" s="17">
         <v>160000</v>
       </c>
-      <c r="I22" s="20">
-        <v>0</v>
-      </c>
-      <c r="J22" s="20">
+      <c r="I22" s="17">
+        <v>0</v>
+      </c>
+      <c r="J22" s="17">
         <v>165000</v>
       </c>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="20">
+      <c r="K22" s="17"/>
+    </row>
+    <row r="23" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="17">
         <v>25</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="20" t="s">
+      <c r="D23" s="19"/>
+      <c r="E23" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="17">
         <v>1</v>
       </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20">
+      <c r="G23" s="17"/>
+      <c r="H23" s="17">
         <v>225000</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20">
-        <f t="shared" ref="J23:J63" si="0">H23:H573-I23:I573</f>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17">
+        <f t="shared" ref="J23:J63" si="1">H23:H573-I23:I573</f>
         <v>225000</v>
       </c>
-      <c r="K23" s="20"/>
+      <c r="K23" s="17"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="18">
+      <c r="A24" s="16">
         <v>26</v>
       </c>
       <c r="B24" s="6"/>
@@ -1431,13 +1420,13 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K24" s="5"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="18">
+      <c r="A25" s="16">
         <v>27</v>
       </c>
       <c r="B25" s="6"/>
@@ -1449,13 +1438,13 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="18">
+      <c r="A26" s="16">
         <v>28</v>
       </c>
       <c r="B26" s="6"/>
@@ -1467,13 +1456,13 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="18">
+      <c r="A27" s="16">
         <v>29</v>
       </c>
       <c r="B27" s="6"/>
@@ -1489,13 +1478,13 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="18">
+      <c r="A28" s="16">
         <v>30</v>
       </c>
       <c r="B28" s="6"/>
@@ -1514,13 +1503,13 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="18">
+      <c r="A29" s="16">
         <v>31</v>
       </c>
       <c r="B29" s="6"/>
@@ -1532,13 +1521,13 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K29" s="5"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="18">
+      <c r="A30" s="16">
         <v>32</v>
       </c>
       <c r="B30" s="6"/>
@@ -1550,13 +1539,13 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K30" s="5"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="18">
+      <c r="A31" s="16">
         <v>33</v>
       </c>
       <c r="B31" s="6"/>
@@ -1568,13 +1557,13 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K31" s="5"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="18">
+      <c r="A32" s="16">
         <v>34</v>
       </c>
       <c r="B32" s="6"/>
@@ -1586,13 +1575,13 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K32" s="5"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="18">
+      <c r="A33" s="16">
         <v>35</v>
       </c>
       <c r="B33" s="6"/>
@@ -1604,13 +1593,13 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K33" s="5"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="18">
+      <c r="A34" s="16">
         <v>36</v>
       </c>
       <c r="B34" s="6"/>
@@ -1622,13 +1611,13 @@
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K34" s="5"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="18">
+      <c r="A35" s="16">
         <v>37</v>
       </c>
       <c r="B35" s="6"/>
@@ -1640,13 +1629,13 @@
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="18">
+      <c r="A36" s="16">
         <v>38</v>
       </c>
       <c r="B36" s="6"/>
@@ -1658,13 +1647,13 @@
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" s="18">
+      <c r="A37" s="16">
         <v>39</v>
       </c>
       <c r="B37" s="6"/>
@@ -1676,13 +1665,13 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K37" s="5"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" s="18">
+      <c r="A38" s="16">
         <v>40</v>
       </c>
       <c r="B38" s="6"/>
@@ -1694,13 +1683,13 @@
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="18">
+      <c r="A39" s="16">
         <v>41</v>
       </c>
       <c r="B39" s="6"/>
@@ -1712,13 +1701,13 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K39" s="5"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" s="18">
+      <c r="A40" s="16">
         <v>42</v>
       </c>
       <c r="B40" s="6"/>
@@ -1730,13 +1719,13 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K40" s="5"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="18">
+      <c r="A41" s="16">
         <v>43</v>
       </c>
       <c r="B41" s="6"/>
@@ -1748,13 +1737,13 @@
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K41" s="5"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" s="18">
+      <c r="A42" s="16">
         <v>44</v>
       </c>
       <c r="B42" s="6"/>
@@ -1766,13 +1755,13 @@
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K42" s="5"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" s="18">
+      <c r="A43" s="16">
         <v>45</v>
       </c>
       <c r="B43" s="6"/>
@@ -1784,13 +1773,13 @@
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A44" s="18">
+      <c r="A44" s="16">
         <v>46</v>
       </c>
       <c r="B44" s="6"/>
@@ -1802,13 +1791,13 @@
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K44" s="5"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A45" s="18">
+      <c r="A45" s="16">
         <v>47</v>
       </c>
       <c r="B45" s="6"/>
@@ -1820,13 +1809,13 @@
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K45" s="5"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A46" s="18">
+      <c r="A46" s="16">
         <v>48</v>
       </c>
       <c r="B46" s="6"/>
@@ -1838,13 +1827,13 @@
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K46" s="5"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A47" s="18">
+      <c r="A47" s="16">
         <v>49</v>
       </c>
       <c r="B47" s="6"/>
@@ -1856,13 +1845,13 @@
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K47" s="5"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" s="18">
+      <c r="A48" s="16">
         <v>50</v>
       </c>
       <c r="B48" s="6"/>
@@ -1874,13 +1863,13 @@
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K48" s="5"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A49" s="18">
+      <c r="A49" s="16">
         <v>51</v>
       </c>
       <c r="B49" s="6"/>
@@ -1892,13 +1881,13 @@
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K49" s="5"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A50" s="18">
+      <c r="A50" s="16">
         <v>52</v>
       </c>
       <c r="B50" s="6"/>
@@ -1910,13 +1899,13 @@
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K50" s="5"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51" s="18">
+      <c r="A51" s="16">
         <v>53</v>
       </c>
       <c r="B51" s="6"/>
@@ -1928,13 +1917,13 @@
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K51" s="5"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A52" s="18">
+      <c r="A52" s="16">
         <v>54</v>
       </c>
       <c r="B52" s="6"/>
@@ -1946,13 +1935,13 @@
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K52" s="5"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" s="18">
+      <c r="A53" s="16">
         <v>55</v>
       </c>
       <c r="B53" s="6"/>
@@ -1964,13 +1953,13 @@
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K53" s="5"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A54" s="18">
+      <c r="A54" s="16">
         <v>56</v>
       </c>
       <c r="B54" s="6"/>
@@ -1982,13 +1971,13 @@
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K54" s="5"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A55" s="18">
+      <c r="A55" s="16">
         <v>57</v>
       </c>
       <c r="B55" s="6"/>
@@ -2000,13 +1989,13 @@
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K55" s="5"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A56" s="18">
+      <c r="A56" s="16">
         <v>58</v>
       </c>
       <c r="B56" s="6"/>
@@ -2018,13 +2007,13 @@
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K56" s="5"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A57" s="18">
+      <c r="A57" s="16">
         <v>59</v>
       </c>
       <c r="B57" s="6"/>
@@ -2036,13 +2025,13 @@
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K57" s="5"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A58" s="18">
+      <c r="A58" s="16">
         <v>60</v>
       </c>
       <c r="B58" s="6"/>
@@ -2054,13 +2043,13 @@
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K58" s="5"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A59" s="18">
+      <c r="A59" s="16">
         <v>61</v>
       </c>
       <c r="B59" s="6"/>
@@ -2072,13 +2061,13 @@
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K59" s="5"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A60" s="18">
+      <c r="A60" s="16">
         <v>62</v>
       </c>
       <c r="B60" s="6"/>
@@ -2090,13 +2079,13 @@
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K60" s="5"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A61" s="18">
+      <c r="A61" s="16">
         <v>63</v>
       </c>
       <c r="B61" s="6"/>
@@ -2108,13 +2097,13 @@
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K61" s="5"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A62" s="18">
+      <c r="A62" s="16">
         <v>64</v>
       </c>
       <c r="B62" s="6"/>
@@ -2126,13 +2115,13 @@
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K62" s="5"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A63" s="18">
+      <c r="A63" s="16">
         <v>65</v>
       </c>
       <c r="B63" s="6"/>
@@ -2144,13 +2133,13 @@
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K63" s="5"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A64" s="18">
+      <c r="A64" s="16">
         <v>66</v>
       </c>
       <c r="B64" s="6"/>
@@ -2162,13 +2151,13 @@
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5">
-        <f t="shared" ref="J64:J127" si="1">H64:H614-I64:I614</f>
+        <f t="shared" ref="J64:J127" si="2">H64:H614-I64:I614</f>
         <v>0</v>
       </c>
       <c r="K64" s="5"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A65" s="18">
+      <c r="A65" s="16">
         <v>67</v>
       </c>
       <c r="B65" s="6"/>
@@ -2180,13 +2169,13 @@
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K65" s="5"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A66" s="18">
+      <c r="A66" s="16">
         <v>68</v>
       </c>
       <c r="B66" s="6"/>
@@ -2198,13 +2187,13 @@
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K66" s="5"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A67" s="18">
+      <c r="A67" s="16">
         <v>69</v>
       </c>
       <c r="B67" s="6"/>
@@ -2216,13 +2205,13 @@
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K67" s="5"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A68" s="18">
+      <c r="A68" s="16">
         <v>70</v>
       </c>
       <c r="B68" s="6"/>
@@ -2234,13 +2223,13 @@
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K68" s="5"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A69" s="18">
+      <c r="A69" s="16">
         <v>71</v>
       </c>
       <c r="B69" s="6"/>
@@ -2252,13 +2241,13 @@
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K69" s="5"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A70" s="18">
+      <c r="A70" s="16">
         <v>72</v>
       </c>
       <c r="B70" s="6"/>
@@ -2270,13 +2259,13 @@
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K70" s="5"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A71" s="18">
+      <c r="A71" s="16">
         <v>73</v>
       </c>
       <c r="B71" s="6"/>
@@ -2288,13 +2277,13 @@
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K71" s="5"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A72" s="18">
+      <c r="A72" s="16">
         <v>74</v>
       </c>
       <c r="B72" s="6"/>
@@ -2306,13 +2295,13 @@
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K72" s="5"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A73" s="18">
+      <c r="A73" s="16">
         <v>75</v>
       </c>
       <c r="B73" s="6"/>
@@ -2324,13 +2313,13 @@
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K73" s="5"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A74" s="18">
+      <c r="A74" s="16">
         <v>76</v>
       </c>
       <c r="B74" s="6"/>
@@ -2342,13 +2331,13 @@
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K74" s="5"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A75" s="18">
+      <c r="A75" s="16">
         <v>77</v>
       </c>
       <c r="B75" s="6"/>
@@ -2360,13 +2349,13 @@
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K75" s="5"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A76" s="18">
+      <c r="A76" s="16">
         <v>78</v>
       </c>
       <c r="B76" s="6"/>
@@ -2378,13 +2367,13 @@
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K76" s="5"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A77" s="18">
+      <c r="A77" s="16">
         <v>79</v>
       </c>
       <c r="B77" s="6"/>
@@ -2396,13 +2385,13 @@
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K77" s="5"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A78" s="18">
+      <c r="A78" s="16">
         <v>80</v>
       </c>
       <c r="B78" s="6"/>
@@ -2414,13 +2403,13 @@
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K78" s="5"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A79" s="18">
+      <c r="A79" s="16">
         <v>81</v>
       </c>
       <c r="B79" s="6"/>
@@ -2432,13 +2421,13 @@
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K79" s="5"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A80" s="18">
+      <c r="A80" s="16">
         <v>82</v>
       </c>
       <c r="B80" s="6"/>
@@ -2450,13 +2439,13 @@
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K80" s="5"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A81" s="18">
+      <c r="A81" s="16">
         <v>83</v>
       </c>
       <c r="B81" s="6"/>
@@ -2468,13 +2457,13 @@
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K81" s="5"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A82" s="18">
+      <c r="A82" s="16">
         <v>84</v>
       </c>
       <c r="B82" s="6"/>
@@ -2486,13 +2475,13 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K82" s="5"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A83" s="18">
+      <c r="A83" s="16">
         <v>85</v>
       </c>
       <c r="B83" s="6"/>
@@ -2504,13 +2493,13 @@
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K83" s="5"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A84" s="18">
+      <c r="A84" s="16">
         <v>86</v>
       </c>
       <c r="B84" s="6"/>
@@ -2522,13 +2511,13 @@
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
       <c r="J84" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K84" s="5"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A85" s="18">
+      <c r="A85" s="16">
         <v>87</v>
       </c>
       <c r="B85" s="6"/>
@@ -2540,13 +2529,13 @@
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K85" s="5"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A86" s="18">
+      <c r="A86" s="16">
         <v>88</v>
       </c>
       <c r="B86" s="6"/>
@@ -2558,13 +2547,13 @@
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K86" s="5"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A87" s="18">
+      <c r="A87" s="16">
         <v>89</v>
       </c>
       <c r="B87" s="6"/>
@@ -2576,13 +2565,13 @@
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
       <c r="J87" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K87" s="5"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A88" s="18">
+      <c r="A88" s="16">
         <v>90</v>
       </c>
       <c r="B88" s="6"/>
@@ -2594,13 +2583,13 @@
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
       <c r="J88" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K88" s="5"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A89" s="18">
+      <c r="A89" s="16">
         <v>91</v>
       </c>
       <c r="B89" s="6"/>
@@ -2612,13 +2601,13 @@
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K89" s="5"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A90" s="18">
+      <c r="A90" s="16">
         <v>92</v>
       </c>
       <c r="B90" s="6"/>
@@ -2630,13 +2619,13 @@
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
       <c r="J90" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K90" s="5"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A91" s="18">
+      <c r="A91" s="16">
         <v>93</v>
       </c>
       <c r="B91" s="6"/>
@@ -2648,13 +2637,13 @@
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K91" s="5"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A92" s="18">
+      <c r="A92" s="16">
         <v>94</v>
       </c>
       <c r="B92" s="6"/>
@@ -2666,13 +2655,13 @@
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K92" s="5"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A93" s="18">
+      <c r="A93" s="16">
         <v>95</v>
       </c>
       <c r="B93" s="6"/>
@@ -2684,13 +2673,13 @@
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K93" s="5"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A94" s="18">
+      <c r="A94" s="16">
         <v>96</v>
       </c>
       <c r="B94" s="6"/>
@@ -2702,13 +2691,13 @@
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K94" s="5"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A95" s="18">
+      <c r="A95" s="16">
         <v>97</v>
       </c>
       <c r="B95" s="6"/>
@@ -2720,13 +2709,13 @@
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
       <c r="J95" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K95" s="5"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A96" s="18">
+      <c r="A96" s="16">
         <v>98</v>
       </c>
       <c r="B96" s="6"/>
@@ -2738,13 +2727,13 @@
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
       <c r="J96" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K96" s="5"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A97" s="18">
+      <c r="A97" s="16">
         <v>99</v>
       </c>
       <c r="B97" s="6"/>
@@ -2756,13 +2745,13 @@
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
       <c r="J97" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K97" s="5"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A98" s="18">
+      <c r="A98" s="16">
         <v>100</v>
       </c>
       <c r="B98" s="6"/>
@@ -2774,13 +2763,13 @@
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
       <c r="J98" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K98" s="5"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A99" s="18">
+      <c r="A99" s="16">
         <v>101</v>
       </c>
       <c r="B99" s="6"/>
@@ -2792,13 +2781,13 @@
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
       <c r="J99" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K99" s="5"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A100" s="18">
+      <c r="A100" s="16">
         <v>102</v>
       </c>
       <c r="B100" s="6"/>
@@ -2810,13 +2799,13 @@
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
       <c r="J100" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K100" s="5"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A101" s="18">
+      <c r="A101" s="16">
         <v>103</v>
       </c>
       <c r="B101" s="6"/>
@@ -2828,13 +2817,13 @@
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
       <c r="J101" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K101" s="5"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A102" s="18">
+      <c r="A102" s="16">
         <v>104</v>
       </c>
       <c r="B102" s="6"/>
@@ -2846,13 +2835,13 @@
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
       <c r="J102" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K102" s="5"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A103" s="18">
+      <c r="A103" s="16">
         <v>105</v>
       </c>
       <c r="B103" s="6"/>
@@ -2864,13 +2853,13 @@
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
       <c r="J103" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K103" s="5"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A104" s="18">
+      <c r="A104" s="16">
         <v>106</v>
       </c>
       <c r="B104" s="6"/>
@@ -2882,13 +2871,13 @@
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
       <c r="J104" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K104" s="5"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A105" s="18">
+      <c r="A105" s="16">
         <v>107</v>
       </c>
       <c r="B105" s="6"/>
@@ -2900,13 +2889,13 @@
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
       <c r="J105" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K105" s="5"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A106" s="18">
+      <c r="A106" s="16">
         <v>108</v>
       </c>
       <c r="B106" s="6"/>
@@ -2918,13 +2907,13 @@
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
       <c r="J106" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K106" s="5"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A107" s="18">
+      <c r="A107" s="16">
         <v>109</v>
       </c>
       <c r="B107" s="6"/>
@@ -2936,13 +2925,13 @@
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
       <c r="J107" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K107" s="5"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A108" s="18">
+      <c r="A108" s="16">
         <v>110</v>
       </c>
       <c r="B108" s="6"/>
@@ -2954,13 +2943,13 @@
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
       <c r="J108" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K108" s="5"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A109" s="18">
+      <c r="A109" s="16">
         <v>111</v>
       </c>
       <c r="B109" s="6"/>
@@ -2972,13 +2961,13 @@
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
       <c r="J109" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K109" s="5"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A110" s="18">
+      <c r="A110" s="16">
         <v>112</v>
       </c>
       <c r="B110" s="6"/>
@@ -2990,13 +2979,13 @@
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K110" s="5"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A111" s="18">
+      <c r="A111" s="16">
         <v>113</v>
       </c>
       <c r="B111" s="6"/>
@@ -3008,13 +2997,13 @@
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
       <c r="J111" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K111" s="5"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A112" s="18">
+      <c r="A112" s="16">
         <v>114</v>
       </c>
       <c r="B112" s="6"/>
@@ -3026,13 +3015,13 @@
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
       <c r="J112" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K112" s="5"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A113" s="18">
+      <c r="A113" s="16">
         <v>115</v>
       </c>
       <c r="B113" s="6"/>
@@ -3044,13 +3033,13 @@
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
       <c r="J113" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K113" s="5"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A114" s="18">
+      <c r="A114" s="16">
         <v>116</v>
       </c>
       <c r="B114" s="6"/>
@@ -3062,13 +3051,13 @@
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
       <c r="J114" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K114" s="5"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A115" s="18">
+      <c r="A115" s="16">
         <v>117</v>
       </c>
       <c r="B115" s="6"/>
@@ -3080,13 +3069,13 @@
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
       <c r="J115" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K115" s="5"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A116" s="18">
+      <c r="A116" s="16">
         <v>118</v>
       </c>
       <c r="B116" s="6"/>
@@ -3098,13 +3087,13 @@
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
       <c r="J116" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K116" s="5"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A117" s="18">
+      <c r="A117" s="16">
         <v>119</v>
       </c>
       <c r="B117" s="6"/>
@@ -3116,13 +3105,13 @@
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
       <c r="J117" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K117" s="5"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A118" s="18">
+      <c r="A118" s="16">
         <v>120</v>
       </c>
       <c r="B118" s="6"/>
@@ -3134,13 +3123,13 @@
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
       <c r="J118" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K118" s="5"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A119" s="18">
+      <c r="A119" s="16">
         <v>121</v>
       </c>
       <c r="B119" s="6"/>
@@ -3152,13 +3141,13 @@
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
       <c r="J119" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K119" s="5"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A120" s="18">
+      <c r="A120" s="16">
         <v>122</v>
       </c>
       <c r="B120" s="6"/>
@@ -3170,13 +3159,13 @@
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
       <c r="J120" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K120" s="5"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A121" s="18">
+      <c r="A121" s="16">
         <v>123</v>
       </c>
       <c r="B121" s="6"/>
@@ -3188,13 +3177,13 @@
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
       <c r="J121" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K121" s="5"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A122" s="18">
+      <c r="A122" s="16">
         <v>124</v>
       </c>
       <c r="B122" s="6"/>
@@ -3206,13 +3195,13 @@
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
       <c r="J122" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K122" s="5"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A123" s="18">
+      <c r="A123" s="16">
         <v>125</v>
       </c>
       <c r="B123" s="6"/>
@@ -3224,13 +3213,13 @@
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
       <c r="J123" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K123" s="5"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A124" s="18">
+      <c r="A124" s="16">
         <v>126</v>
       </c>
       <c r="B124" s="6"/>
@@ -3242,13 +3231,13 @@
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
       <c r="J124" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K124" s="5"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A125" s="18">
+      <c r="A125" s="16">
         <v>127</v>
       </c>
       <c r="B125" s="6"/>
@@ -3260,13 +3249,13 @@
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
       <c r="J125" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K125" s="5"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A126" s="18">
+      <c r="A126" s="16">
         <v>128</v>
       </c>
       <c r="B126" s="6"/>
@@ -3278,13 +3267,13 @@
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
       <c r="J126" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K126" s="5"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A127" s="18">
+      <c r="A127" s="16">
         <v>129</v>
       </c>
       <c r="B127" s="6"/>
@@ -3296,13 +3285,13 @@
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
       <c r="J127" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K127" s="5"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A128" s="18">
+      <c r="A128" s="16">
         <v>130</v>
       </c>
       <c r="B128" s="6"/>
@@ -3314,13 +3303,13 @@
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
       <c r="J128" s="5">
-        <f t="shared" ref="J128:J191" si="2">H128:H678-I128:I678</f>
+        <f t="shared" ref="J128:J191" si="3">H128:H678-I128:I678</f>
         <v>0</v>
       </c>
       <c r="K128" s="5"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A129" s="18">
+      <c r="A129" s="16">
         <v>131</v>
       </c>
       <c r="B129" s="6"/>
@@ -3332,13 +3321,13 @@
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
       <c r="J129" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K129" s="5"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A130" s="18">
+      <c r="A130" s="16">
         <v>132</v>
       </c>
       <c r="B130" s="6"/>
@@ -3350,13 +3339,13 @@
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
       <c r="J130" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K130" s="5"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A131" s="18">
+      <c r="A131" s="16">
         <v>133</v>
       </c>
       <c r="B131" s="6"/>
@@ -3368,13 +3357,13 @@
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
       <c r="J131" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K131" s="5"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A132" s="18">
+      <c r="A132" s="16">
         <v>134</v>
       </c>
       <c r="B132" s="6"/>
@@ -3386,13 +3375,13 @@
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
       <c r="J132" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K132" s="5"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A133" s="18">
+      <c r="A133" s="16">
         <v>135</v>
       </c>
       <c r="B133" s="6"/>
@@ -3404,13 +3393,13 @@
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
       <c r="J133" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K133" s="5"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A134" s="18">
+      <c r="A134" s="16">
         <v>136</v>
       </c>
       <c r="B134" s="6"/>
@@ -3422,13 +3411,13 @@
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
       <c r="J134" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K134" s="5"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A135" s="18">
+      <c r="A135" s="16">
         <v>137</v>
       </c>
       <c r="B135" s="6"/>
@@ -3440,13 +3429,13 @@
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
       <c r="J135" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K135" s="5"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A136" s="18">
+      <c r="A136" s="16">
         <v>138</v>
       </c>
       <c r="B136" s="6"/>
@@ -3458,13 +3447,13 @@
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
       <c r="J136" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K136" s="5"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A137" s="18">
+      <c r="A137" s="16">
         <v>139</v>
       </c>
       <c r="B137" s="6"/>
@@ -3476,13 +3465,13 @@
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
       <c r="J137" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K137" s="5"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A138" s="18">
+      <c r="A138" s="16">
         <v>140</v>
       </c>
       <c r="B138" s="6"/>
@@ -3494,13 +3483,13 @@
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
       <c r="J138" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K138" s="5"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A139" s="18">
+      <c r="A139" s="16">
         <v>141</v>
       </c>
       <c r="B139" s="6"/>
@@ -3512,13 +3501,13 @@
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
       <c r="J139" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K139" s="5"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A140" s="18">
+      <c r="A140" s="16">
         <v>142</v>
       </c>
       <c r="B140" s="6"/>
@@ -3530,13 +3519,13 @@
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
       <c r="J140" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K140" s="5"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A141" s="18">
+      <c r="A141" s="16">
         <v>143</v>
       </c>
       <c r="B141" s="6"/>
@@ -3548,13 +3537,13 @@
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
       <c r="J141" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K141" s="5"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A142" s="18">
+      <c r="A142" s="16">
         <v>144</v>
       </c>
       <c r="B142" s="6"/>
@@ -3566,13 +3555,13 @@
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
       <c r="J142" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K142" s="5"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A143" s="18">
+      <c r="A143" s="16">
         <v>145</v>
       </c>
       <c r="B143" s="6"/>
@@ -3584,13 +3573,13 @@
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
       <c r="J143" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K143" s="5"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A144" s="18">
+      <c r="A144" s="16">
         <v>146</v>
       </c>
       <c r="B144" s="6"/>
@@ -3602,13 +3591,13 @@
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
       <c r="J144" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K144" s="5"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A145" s="18">
+      <c r="A145" s="16">
         <v>147</v>
       </c>
       <c r="B145" s="6"/>
@@ -3620,13 +3609,13 @@
       <c r="H145" s="5"/>
       <c r="I145" s="5"/>
       <c r="J145" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K145" s="5"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A146" s="18">
+      <c r="A146" s="16">
         <v>148</v>
       </c>
       <c r="B146" s="6"/>
@@ -3638,13 +3627,13 @@
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
       <c r="J146" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K146" s="5"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A147" s="18">
+      <c r="A147" s="16">
         <v>149</v>
       </c>
       <c r="B147" s="6"/>
@@ -3656,13 +3645,13 @@
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
       <c r="J147" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K147" s="5"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A148" s="18">
+      <c r="A148" s="16">
         <v>150</v>
       </c>
       <c r="B148" s="6"/>
@@ -3674,13 +3663,13 @@
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
       <c r="J148" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K148" s="5"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A149" s="18">
+      <c r="A149" s="16">
         <v>151</v>
       </c>
       <c r="B149" s="6"/>
@@ -3692,13 +3681,13 @@
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
       <c r="J149" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K149" s="5"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A150" s="18">
+      <c r="A150" s="16">
         <v>152</v>
       </c>
       <c r="B150" s="6"/>
@@ -3710,13 +3699,13 @@
       <c r="H150" s="5"/>
       <c r="I150" s="5"/>
       <c r="J150" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K150" s="5"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A151" s="18">
+      <c r="A151" s="16">
         <v>153</v>
       </c>
       <c r="B151" s="6"/>
@@ -3728,13 +3717,13 @@
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
       <c r="J151" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K151" s="5"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A152" s="18">
+      <c r="A152" s="16">
         <v>154</v>
       </c>
       <c r="B152" s="6"/>
@@ -3746,13 +3735,13 @@
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
       <c r="J152" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K152" s="5"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A153" s="18">
+      <c r="A153" s="16">
         <v>155</v>
       </c>
       <c r="B153" s="6"/>
@@ -3764,13 +3753,13 @@
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
       <c r="J153" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K153" s="5"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A154" s="18">
+      <c r="A154" s="16">
         <v>156</v>
       </c>
       <c r="B154" s="6"/>
@@ -3782,13 +3771,13 @@
       <c r="H154" s="5"/>
       <c r="I154" s="5"/>
       <c r="J154" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K154" s="5"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A155" s="18">
+      <c r="A155" s="16">
         <v>157</v>
       </c>
       <c r="B155" s="6"/>
@@ -3800,13 +3789,13 @@
       <c r="H155" s="5"/>
       <c r="I155" s="5"/>
       <c r="J155" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K155" s="5"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A156" s="18">
+      <c r="A156" s="16">
         <v>158</v>
       </c>
       <c r="B156" s="6"/>
@@ -3818,13 +3807,13 @@
       <c r="H156" s="5"/>
       <c r="I156" s="5"/>
       <c r="J156" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K156" s="5"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A157" s="18">
+      <c r="A157" s="16">
         <v>159</v>
       </c>
       <c r="B157" s="6"/>
@@ -3836,13 +3825,13 @@
       <c r="H157" s="5"/>
       <c r="I157" s="5"/>
       <c r="J157" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K157" s="5"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A158" s="18">
+      <c r="A158" s="16">
         <v>160</v>
       </c>
       <c r="B158" s="6"/>
@@ -3854,13 +3843,13 @@
       <c r="H158" s="5"/>
       <c r="I158" s="5"/>
       <c r="J158" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K158" s="5"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A159" s="18">
+      <c r="A159" s="16">
         <v>161</v>
       </c>
       <c r="B159" s="6"/>
@@ -3872,13 +3861,13 @@
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
       <c r="J159" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K159" s="5"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A160" s="18">
+      <c r="A160" s="16">
         <v>162</v>
       </c>
       <c r="B160" s="6"/>
@@ -3890,13 +3879,13 @@
       <c r="H160" s="5"/>
       <c r="I160" s="5"/>
       <c r="J160" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K160" s="5"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A161" s="18">
+      <c r="A161" s="16">
         <v>163</v>
       </c>
       <c r="B161" s="6"/>
@@ -3908,13 +3897,13 @@
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
       <c r="J161" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K161" s="5"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A162" s="18">
+      <c r="A162" s="16">
         <v>164</v>
       </c>
       <c r="B162" s="6"/>
@@ -3926,13 +3915,13 @@
       <c r="H162" s="5"/>
       <c r="I162" s="5"/>
       <c r="J162" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K162" s="5"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A163" s="18">
+      <c r="A163" s="16">
         <v>165</v>
       </c>
       <c r="B163" s="6"/>
@@ -3944,13 +3933,13 @@
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
       <c r="J163" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K163" s="5"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A164" s="18">
+      <c r="A164" s="16">
         <v>166</v>
       </c>
       <c r="B164" s="6"/>
@@ -3962,13 +3951,13 @@
       <c r="H164" s="5"/>
       <c r="I164" s="5"/>
       <c r="J164" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K164" s="5"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A165" s="18">
+      <c r="A165" s="16">
         <v>167</v>
       </c>
       <c r="B165" s="6"/>
@@ -3980,13 +3969,13 @@
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
       <c r="J165" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K165" s="5"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A166" s="18">
+      <c r="A166" s="16">
         <v>168</v>
       </c>
       <c r="B166" s="6"/>
@@ -3998,13 +3987,13 @@
       <c r="H166" s="5"/>
       <c r="I166" s="5"/>
       <c r="J166" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K166" s="5"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A167" s="18">
+      <c r="A167" s="16">
         <v>169</v>
       </c>
       <c r="B167" s="6"/>
@@ -4016,13 +4005,13 @@
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
       <c r="J167" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K167" s="5"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A168" s="18">
+      <c r="A168" s="16">
         <v>170</v>
       </c>
       <c r="B168" s="6"/>
@@ -4034,13 +4023,13 @@
       <c r="H168" s="5"/>
       <c r="I168" s="5"/>
       <c r="J168" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K168" s="5"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A169" s="18">
+      <c r="A169" s="16">
         <v>171</v>
       </c>
       <c r="B169" s="6"/>
@@ -4052,13 +4041,13 @@
       <c r="H169" s="5"/>
       <c r="I169" s="5"/>
       <c r="J169" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K169" s="5"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A170" s="18">
+      <c r="A170" s="16">
         <v>172</v>
       </c>
       <c r="B170" s="6"/>
@@ -4070,13 +4059,13 @@
       <c r="H170" s="5"/>
       <c r="I170" s="5"/>
       <c r="J170" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K170" s="5"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A171" s="18">
+      <c r="A171" s="16">
         <v>173</v>
       </c>
       <c r="B171" s="6"/>
@@ -4088,13 +4077,13 @@
       <c r="H171" s="5"/>
       <c r="I171" s="5"/>
       <c r="J171" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K171" s="5"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A172" s="18">
+      <c r="A172" s="16">
         <v>174</v>
       </c>
       <c r="B172" s="6"/>
@@ -4106,13 +4095,13 @@
       <c r="H172" s="5"/>
       <c r="I172" s="5"/>
       <c r="J172" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K172" s="5"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A173" s="18">
+      <c r="A173" s="16">
         <v>175</v>
       </c>
       <c r="B173" s="6"/>
@@ -4124,13 +4113,13 @@
       <c r="H173" s="5"/>
       <c r="I173" s="5"/>
       <c r="J173" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K173" s="5"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A174" s="18">
+      <c r="A174" s="16">
         <v>176</v>
       </c>
       <c r="B174" s="6"/>
@@ -4142,13 +4131,13 @@
       <c r="H174" s="5"/>
       <c r="I174" s="5"/>
       <c r="J174" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K174" s="5"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A175" s="18">
+      <c r="A175" s="16">
         <v>177</v>
       </c>
       <c r="B175" s="6"/>
@@ -4160,13 +4149,13 @@
       <c r="H175" s="5"/>
       <c r="I175" s="5"/>
       <c r="J175" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K175" s="5"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A176" s="18">
+      <c r="A176" s="16">
         <v>178</v>
       </c>
       <c r="B176" s="6"/>
@@ -4178,13 +4167,13 @@
       <c r="H176" s="5"/>
       <c r="I176" s="5"/>
       <c r="J176" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K176" s="5"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A177" s="18">
+      <c r="A177" s="16">
         <v>179</v>
       </c>
       <c r="B177" s="6"/>
@@ -4196,13 +4185,13 @@
       <c r="H177" s="5"/>
       <c r="I177" s="5"/>
       <c r="J177" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K177" s="5"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A178" s="18">
+      <c r="A178" s="16">
         <v>180</v>
       </c>
       <c r="B178" s="6"/>
@@ -4214,13 +4203,13 @@
       <c r="H178" s="5"/>
       <c r="I178" s="5"/>
       <c r="J178" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K178" s="5"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A179" s="18">
+      <c r="A179" s="16">
         <v>181</v>
       </c>
       <c r="B179" s="6"/>
@@ -4232,13 +4221,13 @@
       <c r="H179" s="5"/>
       <c r="I179" s="5"/>
       <c r="J179" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K179" s="5"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A180" s="18">
+      <c r="A180" s="16">
         <v>182</v>
       </c>
       <c r="B180" s="6"/>
@@ -4250,13 +4239,13 @@
       <c r="H180" s="5"/>
       <c r="I180" s="5"/>
       <c r="J180" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K180" s="5"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A181" s="18">
+      <c r="A181" s="16">
         <v>183</v>
       </c>
       <c r="B181" s="6"/>
@@ -4268,13 +4257,13 @@
       <c r="H181" s="5"/>
       <c r="I181" s="5"/>
       <c r="J181" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K181" s="5"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A182" s="18">
+      <c r="A182" s="16">
         <v>184</v>
       </c>
       <c r="B182" s="6"/>
@@ -4286,13 +4275,13 @@
       <c r="H182" s="5"/>
       <c r="I182" s="5"/>
       <c r="J182" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K182" s="5"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A183" s="18">
+      <c r="A183" s="16">
         <v>185</v>
       </c>
       <c r="B183" s="6"/>
@@ -4304,13 +4293,13 @@
       <c r="H183" s="5"/>
       <c r="I183" s="5"/>
       <c r="J183" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K183" s="5"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A184" s="18">
+      <c r="A184" s="16">
         <v>186</v>
       </c>
       <c r="B184" s="6"/>
@@ -4322,13 +4311,13 @@
       <c r="H184" s="5"/>
       <c r="I184" s="5"/>
       <c r="J184" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K184" s="5"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A185" s="18">
+      <c r="A185" s="16">
         <v>187</v>
       </c>
       <c r="B185" s="6"/>
@@ -4340,13 +4329,13 @@
       <c r="H185" s="5"/>
       <c r="I185" s="5"/>
       <c r="J185" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K185" s="5"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A186" s="18">
+      <c r="A186" s="16">
         <v>188</v>
       </c>
       <c r="B186" s="6"/>
@@ -4358,13 +4347,13 @@
       <c r="H186" s="5"/>
       <c r="I186" s="5"/>
       <c r="J186" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K186" s="5"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A187" s="18">
+      <c r="A187" s="16">
         <v>189</v>
       </c>
       <c r="B187" s="6"/>
@@ -4376,13 +4365,13 @@
       <c r="H187" s="5"/>
       <c r="I187" s="5"/>
       <c r="J187" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K187" s="5"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A188" s="18">
+      <c r="A188" s="16">
         <v>190</v>
       </c>
       <c r="B188" s="6"/>
@@ -4394,13 +4383,13 @@
       <c r="H188" s="5"/>
       <c r="I188" s="5"/>
       <c r="J188" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K188" s="5"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A189" s="18">
+      <c r="A189" s="16">
         <v>191</v>
       </c>
       <c r="B189" s="6"/>
@@ -4412,13 +4401,13 @@
       <c r="H189" s="5"/>
       <c r="I189" s="5"/>
       <c r="J189" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K189" s="5"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A190" s="18">
+      <c r="A190" s="16">
         <v>192</v>
       </c>
       <c r="B190" s="6"/>
@@ -4430,13 +4419,13 @@
       <c r="H190" s="5"/>
       <c r="I190" s="5"/>
       <c r="J190" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K190" s="5"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A191" s="18">
+      <c r="A191" s="16">
         <v>193</v>
       </c>
       <c r="B191" s="6"/>
@@ -4448,13 +4437,13 @@
       <c r="H191" s="5"/>
       <c r="I191" s="5"/>
       <c r="J191" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K191" s="5"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A192" s="18">
+      <c r="A192" s="16">
         <v>194</v>
       </c>
       <c r="B192" s="6"/>
@@ -4466,13 +4455,13 @@
       <c r="H192" s="5"/>
       <c r="I192" s="5"/>
       <c r="J192" s="5">
-        <f t="shared" ref="J192:J255" si="3">H192:H742-I192:I742</f>
+        <f t="shared" ref="J192:J255" si="4">H192:H742-I192:I742</f>
         <v>0</v>
       </c>
       <c r="K192" s="5"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A193" s="18">
+      <c r="A193" s="16">
         <v>195</v>
       </c>
       <c r="B193" s="6"/>
@@ -4484,13 +4473,13 @@
       <c r="H193" s="5"/>
       <c r="I193" s="5"/>
       <c r="J193" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K193" s="5"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A194" s="18">
+      <c r="A194" s="16">
         <v>196</v>
       </c>
       <c r="B194" s="6"/>
@@ -4502,13 +4491,13 @@
       <c r="H194" s="5"/>
       <c r="I194" s="5"/>
       <c r="J194" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K194" s="5"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A195" s="18">
+      <c r="A195" s="16">
         <v>197</v>
       </c>
       <c r="B195" s="6"/>
@@ -4520,13 +4509,13 @@
       <c r="H195" s="5"/>
       <c r="I195" s="5"/>
       <c r="J195" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K195" s="5"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A196" s="18">
+      <c r="A196" s="16">
         <v>198</v>
       </c>
       <c r="B196" s="6"/>
@@ -4538,13 +4527,13 @@
       <c r="H196" s="5"/>
       <c r="I196" s="5"/>
       <c r="J196" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K196" s="5"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A197" s="18">
+      <c r="A197" s="16">
         <v>199</v>
       </c>
       <c r="B197" s="6"/>
@@ -4556,13 +4545,13 @@
       <c r="H197" s="5"/>
       <c r="I197" s="5"/>
       <c r="J197" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K197" s="5"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A198" s="18">
+      <c r="A198" s="16">
         <v>200</v>
       </c>
       <c r="B198" s="6"/>
@@ -4574,13 +4563,13 @@
       <c r="H198" s="5"/>
       <c r="I198" s="5"/>
       <c r="J198" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K198" s="5"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A199" s="18">
+      <c r="A199" s="16">
         <v>201</v>
       </c>
       <c r="B199" s="6"/>
@@ -4592,13 +4581,13 @@
       <c r="H199" s="5"/>
       <c r="I199" s="5"/>
       <c r="J199" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K199" s="5"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A200" s="18">
+      <c r="A200" s="16">
         <v>202</v>
       </c>
       <c r="B200" s="6"/>
@@ -4610,13 +4599,13 @@
       <c r="H200" s="5"/>
       <c r="I200" s="5"/>
       <c r="J200" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K200" s="5"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A201" s="18">
+      <c r="A201" s="16">
         <v>203</v>
       </c>
       <c r="B201" s="6"/>
@@ -4628,13 +4617,13 @@
       <c r="H201" s="5"/>
       <c r="I201" s="5"/>
       <c r="J201" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K201" s="5"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A202" s="18">
+      <c r="A202" s="16">
         <v>204</v>
       </c>
       <c r="B202" s="6"/>
@@ -4646,13 +4635,13 @@
       <c r="H202" s="5"/>
       <c r="I202" s="5"/>
       <c r="J202" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K202" s="5"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A203" s="18">
+      <c r="A203" s="16">
         <v>205</v>
       </c>
       <c r="B203" s="6"/>
@@ -4664,13 +4653,13 @@
       <c r="H203" s="5"/>
       <c r="I203" s="5"/>
       <c r="J203" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K203" s="5"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A204" s="18">
+      <c r="A204" s="16">
         <v>206</v>
       </c>
       <c r="B204" s="6"/>
@@ -4682,13 +4671,13 @@
       <c r="H204" s="5"/>
       <c r="I204" s="5"/>
       <c r="J204" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K204" s="5"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A205" s="18">
+      <c r="A205" s="16">
         <v>207</v>
       </c>
       <c r="B205" s="6"/>
@@ -4700,13 +4689,13 @@
       <c r="H205" s="5"/>
       <c r="I205" s="5"/>
       <c r="J205" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K205" s="5"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A206" s="18">
+      <c r="A206" s="16">
         <v>208</v>
       </c>
       <c r="B206" s="6"/>
@@ -4718,13 +4707,13 @@
       <c r="H206" s="5"/>
       <c r="I206" s="5"/>
       <c r="J206" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K206" s="5"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A207" s="18">
+      <c r="A207" s="16">
         <v>209</v>
       </c>
       <c r="B207" s="6"/>
@@ -4736,13 +4725,13 @@
       <c r="H207" s="5"/>
       <c r="I207" s="5"/>
       <c r="J207" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K207" s="5"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A208" s="18">
+      <c r="A208" s="16">
         <v>210</v>
       </c>
       <c r="B208" s="6"/>
@@ -4754,13 +4743,13 @@
       <c r="H208" s="5"/>
       <c r="I208" s="5"/>
       <c r="J208" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K208" s="5"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A209" s="18">
+      <c r="A209" s="16">
         <v>211</v>
       </c>
       <c r="B209" s="6"/>
@@ -4772,13 +4761,13 @@
       <c r="H209" s="5"/>
       <c r="I209" s="5"/>
       <c r="J209" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K209" s="5"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A210" s="18">
+      <c r="A210" s="16">
         <v>212</v>
       </c>
       <c r="B210" s="6"/>
@@ -4790,13 +4779,13 @@
       <c r="H210" s="5"/>
       <c r="I210" s="5"/>
       <c r="J210" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K210" s="5"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A211" s="18">
+      <c r="A211" s="16">
         <v>213</v>
       </c>
       <c r="B211" s="6"/>
@@ -4808,13 +4797,13 @@
       <c r="H211" s="5"/>
       <c r="I211" s="5"/>
       <c r="J211" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K211" s="5"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A212" s="18">
+      <c r="A212" s="16">
         <v>214</v>
       </c>
       <c r="B212" s="6"/>
@@ -4826,13 +4815,13 @@
       <c r="H212" s="5"/>
       <c r="I212" s="5"/>
       <c r="J212" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K212" s="5"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A213" s="18">
+      <c r="A213" s="16">
         <v>215</v>
       </c>
       <c r="B213" s="6"/>
@@ -4844,13 +4833,13 @@
       <c r="H213" s="5"/>
       <c r="I213" s="5"/>
       <c r="J213" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K213" s="5"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A214" s="18">
+      <c r="A214" s="16">
         <v>216</v>
       </c>
       <c r="B214" s="6"/>
@@ -4862,13 +4851,13 @@
       <c r="H214" s="5"/>
       <c r="I214" s="5"/>
       <c r="J214" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K214" s="5"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A215" s="18">
+      <c r="A215" s="16">
         <v>217</v>
       </c>
       <c r="B215" s="6"/>
@@ -4880,13 +4869,13 @@
       <c r="H215" s="5"/>
       <c r="I215" s="5"/>
       <c r="J215" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K215" s="5"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A216" s="18">
+      <c r="A216" s="16">
         <v>218</v>
       </c>
       <c r="B216" s="6"/>
@@ -4898,13 +4887,13 @@
       <c r="H216" s="5"/>
       <c r="I216" s="5"/>
       <c r="J216" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K216" s="5"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A217" s="18">
+      <c r="A217" s="16">
         <v>219</v>
       </c>
       <c r="B217" s="6"/>
@@ -4916,13 +4905,13 @@
       <c r="H217" s="5"/>
       <c r="I217" s="5"/>
       <c r="J217" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K217" s="5"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A218" s="18">
+      <c r="A218" s="16">
         <v>220</v>
       </c>
       <c r="B218" s="6"/>
@@ -4934,13 +4923,13 @@
       <c r="H218" s="5"/>
       <c r="I218" s="5"/>
       <c r="J218" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K218" s="5"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A219" s="18">
+      <c r="A219" s="16">
         <v>221</v>
       </c>
       <c r="B219" s="6"/>
@@ -4952,13 +4941,13 @@
       <c r="H219" s="5"/>
       <c r="I219" s="5"/>
       <c r="J219" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K219" s="5"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A220" s="18">
+      <c r="A220" s="16">
         <v>222</v>
       </c>
       <c r="B220" s="6"/>
@@ -4970,13 +4959,13 @@
       <c r="H220" s="5"/>
       <c r="I220" s="5"/>
       <c r="J220" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K220" s="5"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A221" s="18">
+      <c r="A221" s="16">
         <v>223</v>
       </c>
       <c r="B221" s="6"/>
@@ -4988,13 +4977,13 @@
       <c r="H221" s="5"/>
       <c r="I221" s="5"/>
       <c r="J221" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K221" s="5"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A222" s="18">
+      <c r="A222" s="16">
         <v>224</v>
       </c>
       <c r="B222" s="6"/>
@@ -5006,13 +4995,13 @@
       <c r="H222" s="5"/>
       <c r="I222" s="5"/>
       <c r="J222" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K222" s="5"/>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A223" s="18">
+      <c r="A223" s="16">
         <v>225</v>
       </c>
       <c r="B223" s="6"/>
@@ -5024,13 +5013,13 @@
       <c r="H223" s="5"/>
       <c r="I223" s="5"/>
       <c r="J223" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K223" s="5"/>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A224" s="18">
+      <c r="A224" s="16">
         <v>226</v>
       </c>
       <c r="B224" s="6"/>
@@ -5042,13 +5031,13 @@
       <c r="H224" s="5"/>
       <c r="I224" s="5"/>
       <c r="J224" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K224" s="5"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A225" s="18">
+      <c r="A225" s="16">
         <v>227</v>
       </c>
       <c r="B225" s="6"/>
@@ -5060,13 +5049,13 @@
       <c r="H225" s="5"/>
       <c r="I225" s="5"/>
       <c r="J225" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K225" s="5"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A226" s="18">
+      <c r="A226" s="16">
         <v>228</v>
       </c>
       <c r="B226" s="6"/>
@@ -5078,13 +5067,13 @@
       <c r="H226" s="5"/>
       <c r="I226" s="5"/>
       <c r="J226" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K226" s="5"/>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A227" s="18">
+      <c r="A227" s="16">
         <v>229</v>
       </c>
       <c r="B227" s="6"/>
@@ -5096,13 +5085,13 @@
       <c r="H227" s="5"/>
       <c r="I227" s="5"/>
       <c r="J227" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K227" s="5"/>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A228" s="18">
+      <c r="A228" s="16">
         <v>230</v>
       </c>
       <c r="B228" s="6"/>
@@ -5114,13 +5103,13 @@
       <c r="H228" s="5"/>
       <c r="I228" s="5"/>
       <c r="J228" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K228" s="5"/>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A229" s="18">
+      <c r="A229" s="16">
         <v>231</v>
       </c>
       <c r="B229" s="6"/>
@@ -5132,13 +5121,13 @@
       <c r="H229" s="5"/>
       <c r="I229" s="5"/>
       <c r="J229" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K229" s="5"/>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A230" s="18">
+      <c r="A230" s="16">
         <v>232</v>
       </c>
       <c r="B230" s="6"/>
@@ -5150,13 +5139,13 @@
       <c r="H230" s="5"/>
       <c r="I230" s="5"/>
       <c r="J230" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K230" s="5"/>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A231" s="18">
+      <c r="A231" s="16">
         <v>233</v>
       </c>
       <c r="B231" s="6"/>
@@ -5168,13 +5157,13 @@
       <c r="H231" s="5"/>
       <c r="I231" s="5"/>
       <c r="J231" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K231" s="5"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A232" s="18">
+      <c r="A232" s="16">
         <v>234</v>
       </c>
       <c r="B232" s="6"/>
@@ -5186,13 +5175,13 @@
       <c r="H232" s="5"/>
       <c r="I232" s="5"/>
       <c r="J232" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K232" s="5"/>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A233" s="18">
+      <c r="A233" s="16">
         <v>235</v>
       </c>
       <c r="B233" s="6"/>
@@ -5204,13 +5193,13 @@
       <c r="H233" s="5"/>
       <c r="I233" s="5"/>
       <c r="J233" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K233" s="5"/>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A234" s="18">
+      <c r="A234" s="16">
         <v>236</v>
       </c>
       <c r="B234" s="6"/>
@@ -5222,13 +5211,13 @@
       <c r="H234" s="5"/>
       <c r="I234" s="5"/>
       <c r="J234" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K234" s="5"/>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A235" s="18">
+      <c r="A235" s="16">
         <v>237</v>
       </c>
       <c r="B235" s="6"/>
@@ -5240,13 +5229,13 @@
       <c r="H235" s="5"/>
       <c r="I235" s="5"/>
       <c r="J235" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K235" s="5"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A236" s="18">
+      <c r="A236" s="16">
         <v>238</v>
       </c>
       <c r="B236" s="6"/>
@@ -5258,13 +5247,13 @@
       <c r="H236" s="5"/>
       <c r="I236" s="5"/>
       <c r="J236" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K236" s="5"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A237" s="18">
+      <c r="A237" s="16">
         <v>239</v>
       </c>
       <c r="B237" s="6"/>
@@ -5276,13 +5265,13 @@
       <c r="H237" s="5"/>
       <c r="I237" s="5"/>
       <c r="J237" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K237" s="5"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A238" s="18">
+      <c r="A238" s="16">
         <v>240</v>
       </c>
       <c r="B238" s="6"/>
@@ -5294,13 +5283,13 @@
       <c r="H238" s="5"/>
       <c r="I238" s="5"/>
       <c r="J238" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K238" s="5"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A239" s="18">
+      <c r="A239" s="16">
         <v>241</v>
       </c>
       <c r="B239" s="6"/>
@@ -5312,13 +5301,13 @@
       <c r="H239" s="5"/>
       <c r="I239" s="5"/>
       <c r="J239" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K239" s="5"/>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A240" s="18">
+      <c r="A240" s="16">
         <v>242</v>
       </c>
       <c r="B240" s="6"/>
@@ -5330,13 +5319,13 @@
       <c r="H240" s="5"/>
       <c r="I240" s="5"/>
       <c r="J240" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K240" s="5"/>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A241" s="18">
+      <c r="A241" s="16">
         <v>243</v>
       </c>
       <c r="B241" s="6"/>
@@ -5348,13 +5337,13 @@
       <c r="H241" s="5"/>
       <c r="I241" s="5"/>
       <c r="J241" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K241" s="5"/>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A242" s="18">
+      <c r="A242" s="16">
         <v>244</v>
       </c>
       <c r="B242" s="6"/>
@@ -5366,13 +5355,13 @@
       <c r="H242" s="5"/>
       <c r="I242" s="5"/>
       <c r="J242" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K242" s="5"/>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A243" s="18">
+      <c r="A243" s="16">
         <v>245</v>
       </c>
       <c r="B243" s="6"/>
@@ -5384,13 +5373,13 @@
       <c r="H243" s="5"/>
       <c r="I243" s="5"/>
       <c r="J243" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K243" s="5"/>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A244" s="18">
+      <c r="A244" s="16">
         <v>246</v>
       </c>
       <c r="B244" s="6"/>
@@ -5402,13 +5391,13 @@
       <c r="H244" s="5"/>
       <c r="I244" s="5"/>
       <c r="J244" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K244" s="5"/>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A245" s="18">
+      <c r="A245" s="16">
         <v>247</v>
       </c>
       <c r="B245" s="6"/>
@@ -5420,13 +5409,13 @@
       <c r="H245" s="5"/>
       <c r="I245" s="5"/>
       <c r="J245" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K245" s="5"/>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A246" s="18">
+      <c r="A246" s="16">
         <v>248</v>
       </c>
       <c r="B246" s="6"/>
@@ -5438,13 +5427,13 @@
       <c r="H246" s="5"/>
       <c r="I246" s="5"/>
       <c r="J246" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K246" s="5"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A247" s="18">
+      <c r="A247" s="16">
         <v>249</v>
       </c>
       <c r="B247" s="6"/>
@@ -5456,13 +5445,13 @@
       <c r="H247" s="5"/>
       <c r="I247" s="5"/>
       <c r="J247" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K247" s="5"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A248" s="18">
+      <c r="A248" s="16">
         <v>250</v>
       </c>
       <c r="B248" s="6"/>
@@ -5474,13 +5463,13 @@
       <c r="H248" s="5"/>
       <c r="I248" s="5"/>
       <c r="J248" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K248" s="5"/>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A249" s="18">
+      <c r="A249" s="16">
         <v>251</v>
       </c>
       <c r="B249" s="6"/>
@@ -5492,13 +5481,13 @@
       <c r="H249" s="5"/>
       <c r="I249" s="5"/>
       <c r="J249" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K249" s="5"/>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A250" s="18">
+      <c r="A250" s="16">
         <v>252</v>
       </c>
       <c r="B250" s="6"/>
@@ -5510,13 +5499,13 @@
       <c r="H250" s="5"/>
       <c r="I250" s="5"/>
       <c r="J250" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K250" s="5"/>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A251" s="18">
+      <c r="A251" s="16">
         <v>253</v>
       </c>
       <c r="B251" s="6"/>
@@ -5528,13 +5517,13 @@
       <c r="H251" s="5"/>
       <c r="I251" s="5"/>
       <c r="J251" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K251" s="5"/>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A252" s="18">
+      <c r="A252" s="16">
         <v>254</v>
       </c>
       <c r="B252" s="6"/>
@@ -5546,13 +5535,13 @@
       <c r="H252" s="5"/>
       <c r="I252" s="5"/>
       <c r="J252" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K252" s="5"/>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A253" s="18">
+      <c r="A253" s="16">
         <v>255</v>
       </c>
       <c r="B253" s="6"/>
@@ -5564,13 +5553,13 @@
       <c r="H253" s="5"/>
       <c r="I253" s="5"/>
       <c r="J253" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K253" s="5"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A254" s="18">
+      <c r="A254" s="16">
         <v>256</v>
       </c>
       <c r="B254" s="6"/>
@@ -5582,13 +5571,13 @@
       <c r="H254" s="5"/>
       <c r="I254" s="5"/>
       <c r="J254" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K254" s="5"/>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A255" s="18">
+      <c r="A255" s="16">
         <v>257</v>
       </c>
       <c r="B255" s="6"/>
@@ -5600,13 +5589,13 @@
       <c r="H255" s="5"/>
       <c r="I255" s="5"/>
       <c r="J255" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K255" s="5"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A256" s="18">
+      <c r="A256" s="16">
         <v>258</v>
       </c>
       <c r="B256" s="6"/>
@@ -5618,13 +5607,13 @@
       <c r="H256" s="5"/>
       <c r="I256" s="5"/>
       <c r="J256" s="5">
-        <f t="shared" ref="J256:J319" si="4">H256:H806-I256:I806</f>
+        <f t="shared" ref="J256:J319" si="5">H256:H806-I256:I806</f>
         <v>0</v>
       </c>
       <c r="K256" s="5"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A257" s="18">
+      <c r="A257" s="16">
         <v>259</v>
       </c>
       <c r="B257" s="6"/>
@@ -5636,13 +5625,13 @@
       <c r="H257" s="5"/>
       <c r="I257" s="5"/>
       <c r="J257" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K257" s="5"/>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A258" s="18">
+      <c r="A258" s="16">
         <v>260</v>
       </c>
       <c r="B258" s="6"/>
@@ -5654,13 +5643,13 @@
       <c r="H258" s="5"/>
       <c r="I258" s="5"/>
       <c r="J258" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K258" s="5"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A259" s="18">
+      <c r="A259" s="16">
         <v>261</v>
       </c>
       <c r="B259" s="6"/>
@@ -5672,13 +5661,13 @@
       <c r="H259" s="5"/>
       <c r="I259" s="5"/>
       <c r="J259" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K259" s="5"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A260" s="18">
+      <c r="A260" s="16">
         <v>262</v>
       </c>
       <c r="B260" s="6"/>
@@ -5690,13 +5679,13 @@
       <c r="H260" s="5"/>
       <c r="I260" s="5"/>
       <c r="J260" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K260" s="5"/>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A261" s="18">
+      <c r="A261" s="16">
         <v>263</v>
       </c>
       <c r="B261" s="6"/>
@@ -5708,13 +5697,13 @@
       <c r="H261" s="5"/>
       <c r="I261" s="5"/>
       <c r="J261" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K261" s="5"/>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A262" s="18">
+      <c r="A262" s="16">
         <v>264</v>
       </c>
       <c r="B262" s="6"/>
@@ -5726,13 +5715,13 @@
       <c r="H262" s="5"/>
       <c r="I262" s="5"/>
       <c r="J262" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K262" s="5"/>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A263" s="18">
+      <c r="A263" s="16">
         <v>265</v>
       </c>
       <c r="B263" s="6"/>
@@ -5744,13 +5733,13 @@
       <c r="H263" s="5"/>
       <c r="I263" s="5"/>
       <c r="J263" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K263" s="5"/>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A264" s="18">
+      <c r="A264" s="16">
         <v>266</v>
       </c>
       <c r="B264" s="6"/>
@@ -5762,13 +5751,13 @@
       <c r="H264" s="5"/>
       <c r="I264" s="5"/>
       <c r="J264" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K264" s="5"/>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A265" s="18">
+      <c r="A265" s="16">
         <v>267</v>
       </c>
       <c r="B265" s="6"/>
@@ -5780,13 +5769,13 @@
       <c r="H265" s="5"/>
       <c r="I265" s="5"/>
       <c r="J265" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K265" s="5"/>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A266" s="18">
+      <c r="A266" s="16">
         <v>268</v>
       </c>
       <c r="B266" s="6"/>
@@ -5798,13 +5787,13 @@
       <c r="H266" s="5"/>
       <c r="I266" s="5"/>
       <c r="J266" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K266" s="5"/>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A267" s="18">
+      <c r="A267" s="16">
         <v>269</v>
       </c>
       <c r="B267" s="6"/>
@@ -5816,13 +5805,13 @@
       <c r="H267" s="5"/>
       <c r="I267" s="5"/>
       <c r="J267" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K267" s="5"/>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A268" s="18">
+      <c r="A268" s="16">
         <v>270</v>
       </c>
       <c r="B268" s="6"/>
@@ -5834,13 +5823,13 @@
       <c r="H268" s="5"/>
       <c r="I268" s="5"/>
       <c r="J268" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K268" s="5"/>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A269" s="18">
+      <c r="A269" s="16">
         <v>271</v>
       </c>
       <c r="B269" s="6"/>
@@ -5852,13 +5841,13 @@
       <c r="H269" s="5"/>
       <c r="I269" s="5"/>
       <c r="J269" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K269" s="5"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A270" s="18">
+      <c r="A270" s="16">
         <v>272</v>
       </c>
       <c r="B270" s="6"/>
@@ -5870,13 +5859,13 @@
       <c r="H270" s="5"/>
       <c r="I270" s="5"/>
       <c r="J270" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K270" s="5"/>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A271" s="18">
+      <c r="A271" s="16">
         <v>273</v>
       </c>
       <c r="B271" s="6"/>
@@ -5888,13 +5877,13 @@
       <c r="H271" s="5"/>
       <c r="I271" s="5"/>
       <c r="J271" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K271" s="5"/>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A272" s="18">
+      <c r="A272" s="16">
         <v>274</v>
       </c>
       <c r="B272" s="6"/>
@@ -5906,13 +5895,13 @@
       <c r="H272" s="5"/>
       <c r="I272" s="5"/>
       <c r="J272" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K272" s="5"/>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A273" s="18">
+      <c r="A273" s="16">
         <v>275</v>
       </c>
       <c r="B273" s="6"/>
@@ -5924,13 +5913,13 @@
       <c r="H273" s="5"/>
       <c r="I273" s="5"/>
       <c r="J273" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K273" s="5"/>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A274" s="18">
+      <c r="A274" s="16">
         <v>276</v>
       </c>
       <c r="B274" s="6"/>
@@ -5942,13 +5931,13 @@
       <c r="H274" s="5"/>
       <c r="I274" s="5"/>
       <c r="J274" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K274" s="5"/>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A275" s="18">
+      <c r="A275" s="16">
         <v>277</v>
       </c>
       <c r="B275" s="6"/>
@@ -5960,13 +5949,13 @@
       <c r="H275" s="5"/>
       <c r="I275" s="5"/>
       <c r="J275" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K275" s="5"/>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A276" s="18">
+      <c r="A276" s="16">
         <v>278</v>
       </c>
       <c r="B276" s="6"/>
@@ -5978,13 +5967,13 @@
       <c r="H276" s="5"/>
       <c r="I276" s="5"/>
       <c r="J276" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K276" s="5"/>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A277" s="18">
+      <c r="A277" s="16">
         <v>279</v>
       </c>
       <c r="B277" s="6"/>
@@ -5996,13 +5985,13 @@
       <c r="H277" s="5"/>
       <c r="I277" s="5"/>
       <c r="J277" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K277" s="5"/>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A278" s="18">
+      <c r="A278" s="16">
         <v>280</v>
       </c>
       <c r="B278" s="6"/>
@@ -6014,13 +6003,13 @@
       <c r="H278" s="5"/>
       <c r="I278" s="5"/>
       <c r="J278" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K278" s="5"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A279" s="18">
+      <c r="A279" s="16">
         <v>281</v>
       </c>
       <c r="B279" s="6"/>
@@ -6032,13 +6021,13 @@
       <c r="H279" s="5"/>
       <c r="I279" s="5"/>
       <c r="J279" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K279" s="5"/>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A280" s="18">
+      <c r="A280" s="16">
         <v>282</v>
       </c>
       <c r="B280" s="6"/>
@@ -6050,13 +6039,13 @@
       <c r="H280" s="5"/>
       <c r="I280" s="5"/>
       <c r="J280" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K280" s="5"/>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A281" s="18">
+      <c r="A281" s="16">
         <v>283</v>
       </c>
       <c r="B281" s="6"/>
@@ -6068,13 +6057,13 @@
       <c r="H281" s="5"/>
       <c r="I281" s="5"/>
       <c r="J281" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K281" s="5"/>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A282" s="18">
+      <c r="A282" s="16">
         <v>284</v>
       </c>
       <c r="B282" s="6"/>
@@ -6086,13 +6075,13 @@
       <c r="H282" s="5"/>
       <c r="I282" s="5"/>
       <c r="J282" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K282" s="5"/>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A283" s="18">
+      <c r="A283" s="16">
         <v>285</v>
       </c>
       <c r="B283" s="6"/>
@@ -6104,13 +6093,13 @@
       <c r="H283" s="5"/>
       <c r="I283" s="5"/>
       <c r="J283" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K283" s="5"/>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A284" s="18">
+      <c r="A284" s="16">
         <v>286</v>
       </c>
       <c r="B284" s="6"/>
@@ -6122,13 +6111,13 @@
       <c r="H284" s="5"/>
       <c r="I284" s="5"/>
       <c r="J284" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K284" s="5"/>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A285" s="18">
+      <c r="A285" s="16">
         <v>287</v>
       </c>
       <c r="B285" s="6"/>
@@ -6140,13 +6129,13 @@
       <c r="H285" s="5"/>
       <c r="I285" s="5"/>
       <c r="J285" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K285" s="5"/>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A286" s="18">
+      <c r="A286" s="16">
         <v>288</v>
       </c>
       <c r="B286" s="6"/>
@@ -6158,13 +6147,13 @@
       <c r="H286" s="5"/>
       <c r="I286" s="5"/>
       <c r="J286" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K286" s="5"/>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A287" s="18">
+      <c r="A287" s="16">
         <v>289</v>
       </c>
       <c r="B287" s="6"/>
@@ -6176,13 +6165,13 @@
       <c r="H287" s="5"/>
       <c r="I287" s="5"/>
       <c r="J287" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K287" s="5"/>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A288" s="18">
+      <c r="A288" s="16">
         <v>290</v>
       </c>
       <c r="B288" s="6"/>
@@ -6194,13 +6183,13 @@
       <c r="H288" s="5"/>
       <c r="I288" s="5"/>
       <c r="J288" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K288" s="5"/>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A289" s="18">
+      <c r="A289" s="16">
         <v>291</v>
       </c>
       <c r="B289" s="6"/>
@@ -6212,13 +6201,13 @@
       <c r="H289" s="5"/>
       <c r="I289" s="5"/>
       <c r="J289" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K289" s="5"/>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A290" s="18">
+      <c r="A290" s="16">
         <v>292</v>
       </c>
       <c r="B290" s="6"/>
@@ -6230,13 +6219,13 @@
       <c r="H290" s="5"/>
       <c r="I290" s="5"/>
       <c r="J290" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K290" s="5"/>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A291" s="18">
+      <c r="A291" s="16">
         <v>293</v>
       </c>
       <c r="B291" s="6"/>
@@ -6248,13 +6237,13 @@
       <c r="H291" s="5"/>
       <c r="I291" s="5"/>
       <c r="J291" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K291" s="5"/>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A292" s="18">
+      <c r="A292" s="16">
         <v>294</v>
       </c>
       <c r="B292" s="6"/>
@@ -6266,13 +6255,13 @@
       <c r="H292" s="5"/>
       <c r="I292" s="5"/>
       <c r="J292" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K292" s="5"/>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A293" s="18">
+      <c r="A293" s="16">
         <v>295</v>
       </c>
       <c r="B293" s="6"/>
@@ -6284,13 +6273,13 @@
       <c r="H293" s="5"/>
       <c r="I293" s="5"/>
       <c r="J293" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K293" s="5"/>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A294" s="18">
+      <c r="A294" s="16">
         <v>296</v>
       </c>
       <c r="B294" s="6"/>
@@ -6302,13 +6291,13 @@
       <c r="H294" s="5"/>
       <c r="I294" s="5"/>
       <c r="J294" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K294" s="5"/>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A295" s="18">
+      <c r="A295" s="16">
         <v>297</v>
       </c>
       <c r="B295" s="6"/>
@@ -6320,13 +6309,13 @@
       <c r="H295" s="5"/>
       <c r="I295" s="5"/>
       <c r="J295" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K295" s="5"/>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A296" s="18">
+      <c r="A296" s="16">
         <v>298</v>
       </c>
       <c r="B296" s="6"/>
@@ -6338,13 +6327,13 @@
       <c r="H296" s="5"/>
       <c r="I296" s="5"/>
       <c r="J296" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K296" s="5"/>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A297" s="18">
+      <c r="A297" s="16">
         <v>299</v>
       </c>
       <c r="B297" s="6"/>
@@ -6356,13 +6345,13 @@
       <c r="H297" s="5"/>
       <c r="I297" s="5"/>
       <c r="J297" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K297" s="5"/>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A298" s="18">
+      <c r="A298" s="16">
         <v>300</v>
       </c>
       <c r="B298" s="6"/>
@@ -6374,13 +6363,13 @@
       <c r="H298" s="5"/>
       <c r="I298" s="5"/>
       <c r="J298" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K298" s="5"/>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A299" s="18">
+      <c r="A299" s="16">
         <v>301</v>
       </c>
       <c r="B299" s="6"/>
@@ -6392,13 +6381,13 @@
       <c r="H299" s="5"/>
       <c r="I299" s="5"/>
       <c r="J299" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K299" s="5"/>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A300" s="18">
+      <c r="A300" s="16">
         <v>302</v>
       </c>
       <c r="B300" s="6"/>
@@ -6410,13 +6399,13 @@
       <c r="H300" s="5"/>
       <c r="I300" s="5"/>
       <c r="J300" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K300" s="5"/>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A301" s="18">
+      <c r="A301" s="16">
         <v>303</v>
       </c>
       <c r="B301" s="6"/>
@@ -6428,13 +6417,13 @@
       <c r="H301" s="5"/>
       <c r="I301" s="5"/>
       <c r="J301" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K301" s="5"/>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A302" s="18">
+      <c r="A302" s="16">
         <v>304</v>
       </c>
       <c r="B302" s="6"/>
@@ -6446,13 +6435,13 @@
       <c r="H302" s="5"/>
       <c r="I302" s="5"/>
       <c r="J302" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K302" s="5"/>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A303" s="18">
+      <c r="A303" s="16">
         <v>305</v>
       </c>
       <c r="B303" s="6"/>
@@ -6464,13 +6453,13 @@
       <c r="H303" s="5"/>
       <c r="I303" s="5"/>
       <c r="J303" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K303" s="5"/>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A304" s="18">
+      <c r="A304" s="16">
         <v>306</v>
       </c>
       <c r="B304" s="6"/>
@@ -6482,13 +6471,13 @@
       <c r="H304" s="5"/>
       <c r="I304" s="5"/>
       <c r="J304" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K304" s="5"/>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A305" s="18">
+      <c r="A305" s="16">
         <v>307</v>
       </c>
       <c r="B305" s="6"/>
@@ -6500,13 +6489,13 @@
       <c r="H305" s="5"/>
       <c r="I305" s="5"/>
       <c r="J305" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K305" s="5"/>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A306" s="18">
+      <c r="A306" s="16">
         <v>308</v>
       </c>
       <c r="B306" s="6"/>
@@ -6518,13 +6507,13 @@
       <c r="H306" s="5"/>
       <c r="I306" s="5"/>
       <c r="J306" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K306" s="5"/>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A307" s="18">
+      <c r="A307" s="16">
         <v>309</v>
       </c>
       <c r="B307" s="6"/>
@@ -6536,13 +6525,13 @@
       <c r="H307" s="5"/>
       <c r="I307" s="5"/>
       <c r="J307" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K307" s="5"/>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A308" s="18">
+      <c r="A308" s="16">
         <v>310</v>
       </c>
       <c r="B308" s="6"/>
@@ -6554,13 +6543,13 @@
       <c r="H308" s="5"/>
       <c r="I308" s="5"/>
       <c r="J308" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K308" s="5"/>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A309" s="18">
+      <c r="A309" s="16">
         <v>311</v>
       </c>
       <c r="B309" s="6"/>
@@ -6572,13 +6561,13 @@
       <c r="H309" s="5"/>
       <c r="I309" s="5"/>
       <c r="J309" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K309" s="5"/>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A310" s="18">
+      <c r="A310" s="16">
         <v>312</v>
       </c>
       <c r="B310" s="6"/>
@@ -6590,13 +6579,13 @@
       <c r="H310" s="5"/>
       <c r="I310" s="5"/>
       <c r="J310" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K310" s="5"/>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A311" s="18">
+      <c r="A311" s="16">
         <v>313</v>
       </c>
       <c r="B311" s="6"/>
@@ -6608,13 +6597,13 @@
       <c r="H311" s="5"/>
       <c r="I311" s="5"/>
       <c r="J311" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K311" s="5"/>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A312" s="18">
+      <c r="A312" s="16">
         <v>314</v>
       </c>
       <c r="B312" s="6"/>
@@ -6626,13 +6615,13 @@
       <c r="H312" s="5"/>
       <c r="I312" s="5"/>
       <c r="J312" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K312" s="5"/>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A313" s="18">
+      <c r="A313" s="16">
         <v>315</v>
       </c>
       <c r="B313" s="6"/>
@@ -6644,13 +6633,13 @@
       <c r="H313" s="5"/>
       <c r="I313" s="5"/>
       <c r="J313" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K313" s="5"/>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A314" s="18">
+      <c r="A314" s="16">
         <v>316</v>
       </c>
       <c r="B314" s="6"/>
@@ -6662,13 +6651,13 @@
       <c r="H314" s="5"/>
       <c r="I314" s="5"/>
       <c r="J314" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K314" s="5"/>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A315" s="18">
+      <c r="A315" s="16">
         <v>317</v>
       </c>
       <c r="B315" s="6"/>
@@ -6680,13 +6669,13 @@
       <c r="H315" s="5"/>
       <c r="I315" s="5"/>
       <c r="J315" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K315" s="5"/>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A316" s="18">
+      <c r="A316" s="16">
         <v>318</v>
       </c>
       <c r="B316" s="6"/>
@@ -6698,13 +6687,13 @@
       <c r="H316" s="5"/>
       <c r="I316" s="5"/>
       <c r="J316" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K316" s="5"/>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A317" s="18">
+      <c r="A317" s="16">
         <v>319</v>
       </c>
       <c r="B317" s="6"/>
@@ -6716,13 +6705,13 @@
       <c r="H317" s="5"/>
       <c r="I317" s="5"/>
       <c r="J317" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K317" s="5"/>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A318" s="18">
+      <c r="A318" s="16">
         <v>320</v>
       </c>
       <c r="B318" s="6"/>
@@ -6734,13 +6723,13 @@
       <c r="H318" s="5"/>
       <c r="I318" s="5"/>
       <c r="J318" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K318" s="5"/>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A319" s="18">
+      <c r="A319" s="16">
         <v>321</v>
       </c>
       <c r="B319" s="6"/>
@@ -6752,13 +6741,13 @@
       <c r="H319" s="5"/>
       <c r="I319" s="5"/>
       <c r="J319" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K319" s="5"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A320" s="18">
+      <c r="A320" s="16">
         <v>322</v>
       </c>
       <c r="B320" s="6"/>
@@ -6770,13 +6759,13 @@
       <c r="H320" s="5"/>
       <c r="I320" s="5"/>
       <c r="J320" s="5">
-        <f t="shared" ref="J320:J383" si="5">H320:H870-I320:I870</f>
+        <f t="shared" ref="J320:J383" si="6">H320:H870-I320:I870</f>
         <v>0</v>
       </c>
       <c r="K320" s="5"/>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A321" s="18">
+      <c r="A321" s="16">
         <v>323</v>
       </c>
       <c r="B321" s="6"/>
@@ -6788,13 +6777,13 @@
       <c r="H321" s="5"/>
       <c r="I321" s="5"/>
       <c r="J321" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K321" s="5"/>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A322" s="18">
+      <c r="A322" s="16">
         <v>324</v>
       </c>
       <c r="B322" s="6"/>
@@ -6806,13 +6795,13 @@
       <c r="H322" s="5"/>
       <c r="I322" s="5"/>
       <c r="J322" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K322" s="5"/>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A323" s="18">
+      <c r="A323" s="16">
         <v>325</v>
       </c>
       <c r="B323" s="6"/>
@@ -6824,13 +6813,13 @@
       <c r="H323" s="5"/>
       <c r="I323" s="5"/>
       <c r="J323" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K323" s="5"/>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A324" s="18">
+      <c r="A324" s="16">
         <v>326</v>
       </c>
       <c r="B324" s="6"/>
@@ -6842,13 +6831,13 @@
       <c r="H324" s="5"/>
       <c r="I324" s="5"/>
       <c r="J324" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K324" s="5"/>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A325" s="18">
+      <c r="A325" s="16">
         <v>327</v>
       </c>
       <c r="B325" s="6"/>
@@ -6860,13 +6849,13 @@
       <c r="H325" s="5"/>
       <c r="I325" s="5"/>
       <c r="J325" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K325" s="5"/>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A326" s="18">
+      <c r="A326" s="16">
         <v>328</v>
       </c>
       <c r="B326" s="6"/>
@@ -6878,13 +6867,13 @@
       <c r="H326" s="5"/>
       <c r="I326" s="5"/>
       <c r="J326" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K326" s="5"/>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A327" s="18">
+      <c r="A327" s="16">
         <v>329</v>
       </c>
       <c r="B327" s="6"/>
@@ -6896,13 +6885,13 @@
       <c r="H327" s="5"/>
       <c r="I327" s="5"/>
       <c r="J327" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K327" s="5"/>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A328" s="18">
+      <c r="A328" s="16">
         <v>330</v>
       </c>
       <c r="B328" s="6"/>
@@ -6914,13 +6903,13 @@
       <c r="H328" s="5"/>
       <c r="I328" s="5"/>
       <c r="J328" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K328" s="5"/>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A329" s="18">
+      <c r="A329" s="16">
         <v>331</v>
       </c>
       <c r="B329" s="6"/>
@@ -6932,13 +6921,13 @@
       <c r="H329" s="5"/>
       <c r="I329" s="5"/>
       <c r="J329" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K329" s="5"/>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A330" s="18">
+      <c r="A330" s="16">
         <v>332</v>
       </c>
       <c r="B330" s="6"/>
@@ -6950,13 +6939,13 @@
       <c r="H330" s="5"/>
       <c r="I330" s="5"/>
       <c r="J330" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K330" s="5"/>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A331" s="18">
+      <c r="A331" s="16">
         <v>333</v>
       </c>
       <c r="B331" s="6"/>
@@ -6968,13 +6957,13 @@
       <c r="H331" s="5"/>
       <c r="I331" s="5"/>
       <c r="J331" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K331" s="5"/>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A332" s="18">
+      <c r="A332" s="16">
         <v>334</v>
       </c>
       <c r="B332" s="6"/>
@@ -6986,13 +6975,13 @@
       <c r="H332" s="5"/>
       <c r="I332" s="5"/>
       <c r="J332" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K332" s="5"/>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A333" s="18">
+      <c r="A333" s="16">
         <v>335</v>
       </c>
       <c r="B333" s="6"/>
@@ -7004,13 +6993,13 @@
       <c r="H333" s="5"/>
       <c r="I333" s="5"/>
       <c r="J333" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K333" s="5"/>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A334" s="18">
+      <c r="A334" s="16">
         <v>336</v>
       </c>
       <c r="B334" s="6"/>
@@ -7022,13 +7011,13 @@
       <c r="H334" s="5"/>
       <c r="I334" s="5"/>
       <c r="J334" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K334" s="5"/>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A335" s="18">
+      <c r="A335" s="16">
         <v>337</v>
       </c>
       <c r="B335" s="6"/>
@@ -7040,13 +7029,13 @@
       <c r="H335" s="5"/>
       <c r="I335" s="5"/>
       <c r="J335" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K335" s="5"/>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A336" s="18">
+      <c r="A336" s="16">
         <v>338</v>
       </c>
       <c r="B336" s="6"/>
@@ -7058,13 +7047,13 @@
       <c r="H336" s="5"/>
       <c r="I336" s="5"/>
       <c r="J336" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K336" s="5"/>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A337" s="18">
+      <c r="A337" s="16">
         <v>339</v>
       </c>
       <c r="B337" s="6"/>
@@ -7076,13 +7065,13 @@
       <c r="H337" s="5"/>
       <c r="I337" s="5"/>
       <c r="J337" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K337" s="5"/>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A338" s="18">
+      <c r="A338" s="16">
         <v>340</v>
       </c>
       <c r="B338" s="6"/>
@@ -7094,13 +7083,13 @@
       <c r="H338" s="5"/>
       <c r="I338" s="5"/>
       <c r="J338" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K338" s="5"/>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A339" s="18">
+      <c r="A339" s="16">
         <v>341</v>
       </c>
       <c r="B339" s="6"/>
@@ -7112,13 +7101,13 @@
       <c r="H339" s="5"/>
       <c r="I339" s="5"/>
       <c r="J339" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K339" s="5"/>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A340" s="18">
+      <c r="A340" s="16">
         <v>342</v>
       </c>
       <c r="B340" s="6"/>
@@ -7130,13 +7119,13 @@
       <c r="H340" s="5"/>
       <c r="I340" s="5"/>
       <c r="J340" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K340" s="5"/>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A341" s="18">
+      <c r="A341" s="16">
         <v>343</v>
       </c>
       <c r="B341" s="6"/>
@@ -7148,13 +7137,13 @@
       <c r="H341" s="5"/>
       <c r="I341" s="5"/>
       <c r="J341" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K341" s="5"/>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A342" s="18">
+      <c r="A342" s="16">
         <v>344</v>
       </c>
       <c r="B342" s="6"/>
@@ -7166,13 +7155,13 @@
       <c r="H342" s="5"/>
       <c r="I342" s="5"/>
       <c r="J342" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K342" s="5"/>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A343" s="18">
+      <c r="A343" s="16">
         <v>345</v>
       </c>
       <c r="B343" s="6"/>
@@ -7184,13 +7173,13 @@
       <c r="H343" s="5"/>
       <c r="I343" s="5"/>
       <c r="J343" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K343" s="5"/>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A344" s="18">
+      <c r="A344" s="16">
         <v>346</v>
       </c>
       <c r="B344" s="6"/>
@@ -7202,13 +7191,13 @@
       <c r="H344" s="5"/>
       <c r="I344" s="5"/>
       <c r="J344" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K344" s="5"/>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A345" s="18">
+      <c r="A345" s="16">
         <v>347</v>
       </c>
       <c r="B345" s="6"/>
@@ -7220,13 +7209,13 @@
       <c r="H345" s="5"/>
       <c r="I345" s="5"/>
       <c r="J345" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K345" s="5"/>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A346" s="18">
+      <c r="A346" s="16">
         <v>348</v>
       </c>
       <c r="B346" s="6"/>
@@ -7238,13 +7227,13 @@
       <c r="H346" s="5"/>
       <c r="I346" s="5"/>
       <c r="J346" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K346" s="5"/>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A347" s="18">
+      <c r="A347" s="16">
         <v>349</v>
       </c>
       <c r="B347" s="6"/>
@@ -7256,13 +7245,13 @@
       <c r="H347" s="5"/>
       <c r="I347" s="5"/>
       <c r="J347" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K347" s="5"/>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A348" s="18">
+      <c r="A348" s="16">
         <v>350</v>
       </c>
       <c r="B348" s="6"/>
@@ -7274,13 +7263,13 @@
       <c r="H348" s="5"/>
       <c r="I348" s="5"/>
       <c r="J348" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K348" s="5"/>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A349" s="18">
+      <c r="A349" s="16">
         <v>351</v>
       </c>
       <c r="B349" s="6"/>
@@ -7292,13 +7281,13 @@
       <c r="H349" s="5"/>
       <c r="I349" s="5"/>
       <c r="J349" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K349" s="5"/>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A350" s="18">
+      <c r="A350" s="16">
         <v>352</v>
       </c>
       <c r="B350" s="6"/>
@@ -7310,13 +7299,13 @@
       <c r="H350" s="5"/>
       <c r="I350" s="5"/>
       <c r="J350" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K350" s="5"/>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A351" s="18">
+      <c r="A351" s="16">
         <v>353</v>
       </c>
       <c r="B351" s="6"/>
@@ -7328,13 +7317,13 @@
       <c r="H351" s="5"/>
       <c r="I351" s="5"/>
       <c r="J351" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K351" s="5"/>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A352" s="18">
+      <c r="A352" s="16">
         <v>354</v>
       </c>
       <c r="B352" s="6"/>
@@ -7346,13 +7335,13 @@
       <c r="H352" s="5"/>
       <c r="I352" s="5"/>
       <c r="J352" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K352" s="5"/>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A353" s="18">
+      <c r="A353" s="16">
         <v>355</v>
       </c>
       <c r="B353" s="6"/>
@@ -7364,13 +7353,13 @@
       <c r="H353" s="5"/>
       <c r="I353" s="5"/>
       <c r="J353" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K353" s="5"/>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A354" s="18">
+      <c r="A354" s="16">
         <v>356</v>
       </c>
       <c r="B354" s="6"/>
@@ -7382,13 +7371,13 @@
       <c r="H354" s="5"/>
       <c r="I354" s="5"/>
       <c r="J354" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K354" s="5"/>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A355" s="18">
+      <c r="A355" s="16">
         <v>357</v>
       </c>
       <c r="B355" s="6"/>
@@ -7400,13 +7389,13 @@
       <c r="H355" s="5"/>
       <c r="I355" s="5"/>
       <c r="J355" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K355" s="5"/>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A356" s="18">
+      <c r="A356" s="16">
         <v>358</v>
       </c>
       <c r="B356" s="6"/>
@@ -7418,13 +7407,13 @@
       <c r="H356" s="5"/>
       <c r="I356" s="5"/>
       <c r="J356" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K356" s="5"/>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A357" s="18">
+      <c r="A357" s="16">
         <v>359</v>
       </c>
       <c r="B357" s="6"/>
@@ -7436,13 +7425,13 @@
       <c r="H357" s="5"/>
       <c r="I357" s="5"/>
       <c r="J357" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K357" s="5"/>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A358" s="18">
+      <c r="A358" s="16">
         <v>360</v>
       </c>
       <c r="B358" s="6"/>
@@ -7454,13 +7443,13 @@
       <c r="H358" s="5"/>
       <c r="I358" s="5"/>
       <c r="J358" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K358" s="5"/>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A359" s="18">
+      <c r="A359" s="16">
         <v>361</v>
       </c>
       <c r="B359" s="6"/>
@@ -7472,13 +7461,13 @@
       <c r="H359" s="5"/>
       <c r="I359" s="5"/>
       <c r="J359" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K359" s="5"/>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A360" s="18">
+      <c r="A360" s="16">
         <v>362</v>
       </c>
       <c r="B360" s="6"/>
@@ -7490,13 +7479,13 @@
       <c r="H360" s="5"/>
       <c r="I360" s="5"/>
       <c r="J360" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K360" s="5"/>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A361" s="18">
+      <c r="A361" s="16">
         <v>363</v>
       </c>
       <c r="B361" s="6"/>
@@ -7508,13 +7497,13 @@
       <c r="H361" s="5"/>
       <c r="I361" s="5"/>
       <c r="J361" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K361" s="5"/>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A362" s="18">
+      <c r="A362" s="16">
         <v>364</v>
       </c>
       <c r="B362" s="6"/>
@@ -7526,13 +7515,13 @@
       <c r="H362" s="5"/>
       <c r="I362" s="5"/>
       <c r="J362" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K362" s="5"/>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A363" s="18">
+      <c r="A363" s="16">
         <v>365</v>
       </c>
       <c r="B363" s="6"/>
@@ -7544,13 +7533,13 @@
       <c r="H363" s="5"/>
       <c r="I363" s="5"/>
       <c r="J363" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K363" s="5"/>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A364" s="18">
+      <c r="A364" s="16">
         <v>366</v>
       </c>
       <c r="B364" s="6"/>
@@ -7562,13 +7551,13 @@
       <c r="H364" s="5"/>
       <c r="I364" s="5"/>
       <c r="J364" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K364" s="5"/>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A365" s="18">
+      <c r="A365" s="16">
         <v>367</v>
       </c>
       <c r="B365" s="6"/>
@@ -7580,13 +7569,13 @@
       <c r="H365" s="5"/>
       <c r="I365" s="5"/>
       <c r="J365" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K365" s="5"/>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A366" s="18">
+      <c r="A366" s="16">
         <v>368</v>
       </c>
       <c r="B366" s="6"/>
@@ -7598,13 +7587,13 @@
       <c r="H366" s="5"/>
       <c r="I366" s="5"/>
       <c r="J366" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K366" s="5"/>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A367" s="18">
+      <c r="A367" s="16">
         <v>369</v>
       </c>
       <c r="B367" s="6"/>
@@ -7616,13 +7605,13 @@
       <c r="H367" s="5"/>
       <c r="I367" s="5"/>
       <c r="J367" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K367" s="5"/>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A368" s="18">
+      <c r="A368" s="16">
         <v>370</v>
       </c>
       <c r="B368" s="6"/>
@@ -7634,13 +7623,13 @@
       <c r="H368" s="5"/>
       <c r="I368" s="5"/>
       <c r="J368" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K368" s="5"/>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A369" s="18">
+      <c r="A369" s="16">
         <v>371</v>
       </c>
       <c r="B369" s="6"/>
@@ -7652,13 +7641,13 @@
       <c r="H369" s="5"/>
       <c r="I369" s="5"/>
       <c r="J369" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K369" s="5"/>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A370" s="18">
+      <c r="A370" s="16">
         <v>372</v>
       </c>
       <c r="B370" s="6"/>
@@ -7670,13 +7659,13 @@
       <c r="H370" s="5"/>
       <c r="I370" s="5"/>
       <c r="J370" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K370" s="5"/>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A371" s="18">
+      <c r="A371" s="16">
         <v>373</v>
       </c>
       <c r="B371" s="6"/>
@@ -7688,13 +7677,13 @@
       <c r="H371" s="5"/>
       <c r="I371" s="5"/>
       <c r="J371" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K371" s="5"/>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A372" s="18">
+      <c r="A372" s="16">
         <v>374</v>
       </c>
       <c r="B372" s="6"/>
@@ -7706,13 +7695,13 @@
       <c r="H372" s="5"/>
       <c r="I372" s="5"/>
       <c r="J372" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K372" s="5"/>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A373" s="18">
+      <c r="A373" s="16">
         <v>375</v>
       </c>
       <c r="B373" s="6"/>
@@ -7724,13 +7713,13 @@
       <c r="H373" s="5"/>
       <c r="I373" s="5"/>
       <c r="J373" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K373" s="5"/>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A374" s="18">
+      <c r="A374" s="16">
         <v>376</v>
       </c>
       <c r="B374" s="6"/>
@@ -7742,13 +7731,13 @@
       <c r="H374" s="5"/>
       <c r="I374" s="5"/>
       <c r="J374" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K374" s="5"/>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A375" s="18">
+      <c r="A375" s="16">
         <v>377</v>
       </c>
       <c r="B375" s="6"/>
@@ -7760,13 +7749,13 @@
       <c r="H375" s="5"/>
       <c r="I375" s="5"/>
       <c r="J375" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K375" s="5"/>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A376" s="18">
+      <c r="A376" s="16">
         <v>378</v>
       </c>
       <c r="B376" s="6"/>
@@ -7778,13 +7767,13 @@
       <c r="H376" s="5"/>
       <c r="I376" s="5"/>
       <c r="J376" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K376" s="5"/>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A377" s="18">
+      <c r="A377" s="16">
         <v>379</v>
       </c>
       <c r="B377" s="6"/>
@@ -7796,13 +7785,13 @@
       <c r="H377" s="5"/>
       <c r="I377" s="5"/>
       <c r="J377" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K377" s="5"/>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A378" s="18">
+      <c r="A378" s="16">
         <v>380</v>
       </c>
       <c r="B378" s="6"/>
@@ -7814,13 +7803,13 @@
       <c r="H378" s="5"/>
       <c r="I378" s="5"/>
       <c r="J378" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K378" s="5"/>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A379" s="18">
+      <c r="A379" s="16">
         <v>381</v>
       </c>
       <c r="B379" s="6"/>
@@ -7832,13 +7821,13 @@
       <c r="H379" s="5"/>
       <c r="I379" s="5"/>
       <c r="J379" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K379" s="5"/>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A380" s="18">
+      <c r="A380" s="16">
         <v>382</v>
       </c>
       <c r="B380" s="6"/>
@@ -7850,13 +7839,13 @@
       <c r="H380" s="5"/>
       <c r="I380" s="5"/>
       <c r="J380" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K380" s="5"/>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A381" s="18">
+      <c r="A381" s="16">
         <v>383</v>
       </c>
       <c r="B381" s="6"/>
@@ -7868,13 +7857,13 @@
       <c r="H381" s="5"/>
       <c r="I381" s="5"/>
       <c r="J381" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K381" s="5"/>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A382" s="18">
+      <c r="A382" s="16">
         <v>384</v>
       </c>
       <c r="B382" s="6"/>
@@ -7886,13 +7875,13 @@
       <c r="H382" s="5"/>
       <c r="I382" s="5"/>
       <c r="J382" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K382" s="5"/>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A383" s="18">
+      <c r="A383" s="16">
         <v>385</v>
       </c>
       <c r="B383" s="6"/>
@@ -7904,13 +7893,13 @@
       <c r="H383" s="5"/>
       <c r="I383" s="5"/>
       <c r="J383" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K383" s="5"/>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A384" s="18">
+      <c r="A384" s="16">
         <v>386</v>
       </c>
       <c r="B384" s="6"/>
@@ -7922,13 +7911,13 @@
       <c r="H384" s="5"/>
       <c r="I384" s="5"/>
       <c r="J384" s="5">
-        <f t="shared" ref="J384:J447" si="6">H384:H934-I384:I934</f>
+        <f t="shared" ref="J384:J447" si="7">H384:H934-I384:I934</f>
         <v>0</v>
       </c>
       <c r="K384" s="5"/>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A385" s="18">
+      <c r="A385" s="16">
         <v>387</v>
       </c>
       <c r="B385" s="6"/>
@@ -7940,13 +7929,13 @@
       <c r="H385" s="5"/>
       <c r="I385" s="5"/>
       <c r="J385" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K385" s="5"/>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A386" s="18">
+      <c r="A386" s="16">
         <v>388</v>
       </c>
       <c r="B386" s="6"/>
@@ -7958,13 +7947,13 @@
       <c r="H386" s="5"/>
       <c r="I386" s="5"/>
       <c r="J386" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K386" s="5"/>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A387" s="18">
+      <c r="A387" s="16">
         <v>389</v>
       </c>
       <c r="B387" s="6"/>
@@ -7976,13 +7965,13 @@
       <c r="H387" s="5"/>
       <c r="I387" s="5"/>
       <c r="J387" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K387" s="5"/>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A388" s="18">
+      <c r="A388" s="16">
         <v>390</v>
       </c>
       <c r="B388" s="6"/>
@@ -7994,13 +7983,13 @@
       <c r="H388" s="5"/>
       <c r="I388" s="5"/>
       <c r="J388" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K388" s="5"/>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A389" s="18">
+      <c r="A389" s="16">
         <v>391</v>
       </c>
       <c r="B389" s="6"/>
@@ -8012,13 +8001,13 @@
       <c r="H389" s="5"/>
       <c r="I389" s="5"/>
       <c r="J389" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K389" s="5"/>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A390" s="18">
+      <c r="A390" s="16">
         <v>392</v>
       </c>
       <c r="B390" s="6"/>
@@ -8030,13 +8019,13 @@
       <c r="H390" s="5"/>
       <c r="I390" s="5"/>
       <c r="J390" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K390" s="5"/>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A391" s="18">
+      <c r="A391" s="16">
         <v>393</v>
       </c>
       <c r="B391" s="6"/>
@@ -8048,13 +8037,13 @@
       <c r="H391" s="5"/>
       <c r="I391" s="5"/>
       <c r="J391" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K391" s="5"/>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A392" s="18">
+      <c r="A392" s="16">
         <v>394</v>
       </c>
       <c r="B392" s="6"/>
@@ -8066,13 +8055,13 @@
       <c r="H392" s="5"/>
       <c r="I392" s="5"/>
       <c r="J392" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K392" s="5"/>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A393" s="18">
+      <c r="A393" s="16">
         <v>395</v>
       </c>
       <c r="B393" s="6"/>
@@ -8084,13 +8073,13 @@
       <c r="H393" s="5"/>
       <c r="I393" s="5"/>
       <c r="J393" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K393" s="5"/>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A394" s="18">
+      <c r="A394" s="16">
         <v>396</v>
       </c>
       <c r="B394" s="6"/>
@@ -8102,13 +8091,13 @@
       <c r="H394" s="5"/>
       <c r="I394" s="5"/>
       <c r="J394" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K394" s="5"/>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A395" s="18">
+      <c r="A395" s="16">
         <v>397</v>
       </c>
       <c r="B395" s="6"/>
@@ -8120,13 +8109,13 @@
       <c r="H395" s="5"/>
       <c r="I395" s="5"/>
       <c r="J395" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K395" s="5"/>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A396" s="18">
+      <c r="A396" s="16">
         <v>398</v>
       </c>
       <c r="B396" s="6"/>
@@ -8138,13 +8127,13 @@
       <c r="H396" s="5"/>
       <c r="I396" s="5"/>
       <c r="J396" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K396" s="5"/>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A397" s="18">
+      <c r="A397" s="16">
         <v>399</v>
       </c>
       <c r="B397" s="6"/>
@@ -8156,13 +8145,13 @@
       <c r="H397" s="5"/>
       <c r="I397" s="5"/>
       <c r="J397" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K397" s="5"/>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A398" s="18">
+      <c r="A398" s="16">
         <v>400</v>
       </c>
       <c r="B398" s="6"/>
@@ -8174,13 +8163,13 @@
       <c r="H398" s="5"/>
       <c r="I398" s="5"/>
       <c r="J398" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K398" s="5"/>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A399" s="18">
+      <c r="A399" s="16">
         <v>401</v>
       </c>
       <c r="B399" s="6"/>
@@ -8192,13 +8181,13 @@
       <c r="H399" s="5"/>
       <c r="I399" s="5"/>
       <c r="J399" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K399" s="5"/>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A400" s="18">
+      <c r="A400" s="16">
         <v>402</v>
       </c>
       <c r="B400" s="6"/>
@@ -8210,13 +8199,13 @@
       <c r="H400" s="5"/>
       <c r="I400" s="5"/>
       <c r="J400" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K400" s="5"/>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A401" s="18">
+      <c r="A401" s="16">
         <v>403</v>
       </c>
       <c r="B401" s="6"/>
@@ -8228,13 +8217,13 @@
       <c r="H401" s="5"/>
       <c r="I401" s="5"/>
       <c r="J401" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K401" s="5"/>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A402" s="18">
+      <c r="A402" s="16">
         <v>404</v>
       </c>
       <c r="B402" s="6"/>
@@ -8246,13 +8235,13 @@
       <c r="H402" s="5"/>
       <c r="I402" s="5"/>
       <c r="J402" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K402" s="5"/>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A403" s="18">
+      <c r="A403" s="16">
         <v>405</v>
       </c>
       <c r="B403" s="6"/>
@@ -8264,13 +8253,13 @@
       <c r="H403" s="5"/>
       <c r="I403" s="5"/>
       <c r="J403" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K403" s="5"/>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A404" s="18">
+      <c r="A404" s="16">
         <v>406</v>
       </c>
       <c r="B404" s="6"/>
@@ -8282,13 +8271,13 @@
       <c r="H404" s="5"/>
       <c r="I404" s="5"/>
       <c r="J404" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K404" s="5"/>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A405" s="18">
+      <c r="A405" s="16">
         <v>407</v>
       </c>
       <c r="B405" s="6"/>
@@ -8300,13 +8289,13 @@
       <c r="H405" s="5"/>
       <c r="I405" s="5"/>
       <c r="J405" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K405" s="5"/>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A406" s="18">
+      <c r="A406" s="16">
         <v>408</v>
       </c>
       <c r="B406" s="6"/>
@@ -8318,13 +8307,13 @@
       <c r="H406" s="5"/>
       <c r="I406" s="5"/>
       <c r="J406" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K406" s="5"/>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A407" s="18">
+      <c r="A407" s="16">
         <v>409</v>
       </c>
       <c r="B407" s="6"/>
@@ -8336,13 +8325,13 @@
       <c r="H407" s="5"/>
       <c r="I407" s="5"/>
       <c r="J407" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K407" s="5"/>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A408" s="18">
+      <c r="A408" s="16">
         <v>410</v>
       </c>
       <c r="B408" s="6"/>
@@ -8354,13 +8343,13 @@
       <c r="H408" s="5"/>
       <c r="I408" s="5"/>
       <c r="J408" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K408" s="5"/>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A409" s="18">
+      <c r="A409" s="16">
         <v>411</v>
       </c>
       <c r="B409" s="6"/>
@@ -8372,13 +8361,13 @@
       <c r="H409" s="5"/>
       <c r="I409" s="5"/>
       <c r="J409" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K409" s="5"/>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A410" s="18">
+      <c r="A410" s="16">
         <v>412</v>
       </c>
       <c r="B410" s="6"/>
@@ -8390,13 +8379,13 @@
       <c r="H410" s="5"/>
       <c r="I410" s="5"/>
       <c r="J410" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K410" s="5"/>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A411" s="18">
+      <c r="A411" s="16">
         <v>413</v>
       </c>
       <c r="B411" s="6"/>
@@ -8408,13 +8397,13 @@
       <c r="H411" s="5"/>
       <c r="I411" s="5"/>
       <c r="J411" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K411" s="5"/>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A412" s="18">
+      <c r="A412" s="16">
         <v>414</v>
       </c>
       <c r="B412" s="6"/>
@@ -8426,13 +8415,13 @@
       <c r="H412" s="5"/>
       <c r="I412" s="5"/>
       <c r="J412" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K412" s="5"/>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A413" s="18">
+      <c r="A413" s="16">
         <v>415</v>
       </c>
       <c r="B413" s="6"/>
@@ -8444,13 +8433,13 @@
       <c r="H413" s="5"/>
       <c r="I413" s="5"/>
       <c r="J413" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K413" s="5"/>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A414" s="18">
+      <c r="A414" s="16">
         <v>416</v>
       </c>
       <c r="B414" s="6"/>
@@ -8462,13 +8451,13 @@
       <c r="H414" s="5"/>
       <c r="I414" s="5"/>
       <c r="J414" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K414" s="5"/>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A415" s="18">
+      <c r="A415" s="16">
         <v>417</v>
       </c>
       <c r="B415" s="6"/>
@@ -8480,13 +8469,13 @@
       <c r="H415" s="5"/>
       <c r="I415" s="5"/>
       <c r="J415" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K415" s="5"/>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A416" s="18">
+      <c r="A416" s="16">
         <v>418</v>
       </c>
       <c r="B416" s="6"/>
@@ -8498,13 +8487,13 @@
       <c r="H416" s="5"/>
       <c r="I416" s="5"/>
       <c r="J416" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K416" s="5"/>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A417" s="18">
+      <c r="A417" s="16">
         <v>419</v>
       </c>
       <c r="B417" s="6"/>
@@ -8516,13 +8505,13 @@
       <c r="H417" s="5"/>
       <c r="I417" s="5"/>
       <c r="J417" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K417" s="5"/>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A418" s="18">
+      <c r="A418" s="16">
         <v>420</v>
       </c>
       <c r="B418" s="6"/>
@@ -8534,13 +8523,13 @@
       <c r="H418" s="5"/>
       <c r="I418" s="5"/>
       <c r="J418" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K418" s="5"/>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A419" s="18">
+      <c r="A419" s="16">
         <v>421</v>
       </c>
       <c r="B419" s="6"/>
@@ -8552,13 +8541,13 @@
       <c r="H419" s="5"/>
       <c r="I419" s="5"/>
       <c r="J419" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K419" s="5"/>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A420" s="18">
+      <c r="A420" s="16">
         <v>422</v>
       </c>
       <c r="B420" s="6"/>
@@ -8570,13 +8559,13 @@
       <c r="H420" s="5"/>
       <c r="I420" s="5"/>
       <c r="J420" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K420" s="5"/>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A421" s="18">
+      <c r="A421" s="16">
         <v>423</v>
       </c>
       <c r="B421" s="6"/>
@@ -8588,13 +8577,13 @@
       <c r="H421" s="5"/>
       <c r="I421" s="5"/>
       <c r="J421" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K421" s="5"/>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A422" s="18">
+      <c r="A422" s="16">
         <v>424</v>
       </c>
       <c r="B422" s="6"/>
@@ -8606,13 +8595,13 @@
       <c r="H422" s="5"/>
       <c r="I422" s="5"/>
       <c r="J422" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K422" s="5"/>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A423" s="18">
+      <c r="A423" s="16">
         <v>425</v>
       </c>
       <c r="B423" s="6"/>
@@ -8624,13 +8613,13 @@
       <c r="H423" s="5"/>
       <c r="I423" s="5"/>
       <c r="J423" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K423" s="5"/>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A424" s="18">
+      <c r="A424" s="16">
         <v>426</v>
       </c>
       <c r="B424" s="6"/>
@@ -8642,13 +8631,13 @@
       <c r="H424" s="5"/>
       <c r="I424" s="5"/>
       <c r="J424" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K424" s="5"/>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A425" s="18">
+      <c r="A425" s="16">
         <v>427</v>
       </c>
       <c r="B425" s="6"/>
@@ -8660,13 +8649,13 @@
       <c r="H425" s="5"/>
       <c r="I425" s="5"/>
       <c r="J425" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K425" s="5"/>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A426" s="18">
+      <c r="A426" s="16">
         <v>428</v>
       </c>
       <c r="B426" s="6"/>
@@ -8678,13 +8667,13 @@
       <c r="H426" s="5"/>
       <c r="I426" s="5"/>
       <c r="J426" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K426" s="5"/>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A427" s="18">
+      <c r="A427" s="16">
         <v>429</v>
       </c>
       <c r="B427" s="6"/>
@@ -8696,13 +8685,13 @@
       <c r="H427" s="5"/>
       <c r="I427" s="5"/>
       <c r="J427" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K427" s="5"/>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A428" s="18">
+      <c r="A428" s="16">
         <v>430</v>
       </c>
       <c r="B428" s="6"/>
@@ -8714,13 +8703,13 @@
       <c r="H428" s="5"/>
       <c r="I428" s="5"/>
       <c r="J428" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K428" s="5"/>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A429" s="18">
+      <c r="A429" s="16">
         <v>431</v>
       </c>
       <c r="B429" s="6"/>
@@ -8732,13 +8721,13 @@
       <c r="H429" s="5"/>
       <c r="I429" s="5"/>
       <c r="J429" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K429" s="5"/>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A430" s="18">
+      <c r="A430" s="16">
         <v>432</v>
       </c>
       <c r="B430" s="6"/>
@@ -8750,13 +8739,13 @@
       <c r="H430" s="5"/>
       <c r="I430" s="5"/>
       <c r="J430" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K430" s="5"/>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A431" s="18">
+      <c r="A431" s="16">
         <v>433</v>
       </c>
       <c r="B431" s="6"/>
@@ -8768,13 +8757,13 @@
       <c r="H431" s="5"/>
       <c r="I431" s="5"/>
       <c r="J431" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K431" s="5"/>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A432" s="18">
+      <c r="A432" s="16">
         <v>434</v>
       </c>
       <c r="B432" s="6"/>
@@ -8786,13 +8775,13 @@
       <c r="H432" s="5"/>
       <c r="I432" s="5"/>
       <c r="J432" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K432" s="5"/>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A433" s="18">
+      <c r="A433" s="16">
         <v>435</v>
       </c>
       <c r="B433" s="6"/>
@@ -8804,13 +8793,13 @@
       <c r="H433" s="5"/>
       <c r="I433" s="5"/>
       <c r="J433" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K433" s="5"/>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A434" s="18">
+      <c r="A434" s="16">
         <v>436</v>
       </c>
       <c r="B434" s="6"/>
@@ -8822,13 +8811,13 @@
       <c r="H434" s="5"/>
       <c r="I434" s="5"/>
       <c r="J434" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K434" s="5"/>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A435" s="18">
+      <c r="A435" s="16">
         <v>437</v>
       </c>
       <c r="B435" s="6"/>
@@ -8840,13 +8829,13 @@
       <c r="H435" s="5"/>
       <c r="I435" s="5"/>
       <c r="J435" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K435" s="5"/>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A436" s="18">
+      <c r="A436" s="16">
         <v>438</v>
       </c>
       <c r="B436" s="6"/>
@@ -8858,13 +8847,13 @@
       <c r="H436" s="5"/>
       <c r="I436" s="5"/>
       <c r="J436" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K436" s="5"/>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A437" s="18">
+      <c r="A437" s="16">
         <v>439</v>
       </c>
       <c r="B437" s="6"/>
@@ -8876,13 +8865,13 @@
       <c r="H437" s="5"/>
       <c r="I437" s="5"/>
       <c r="J437" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K437" s="5"/>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A438" s="18">
+      <c r="A438" s="16">
         <v>440</v>
       </c>
       <c r="B438" s="6"/>
@@ -8894,13 +8883,13 @@
       <c r="H438" s="5"/>
       <c r="I438" s="5"/>
       <c r="J438" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K438" s="5"/>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A439" s="18">
+      <c r="A439" s="16">
         <v>441</v>
       </c>
       <c r="B439" s="6"/>
@@ -8912,13 +8901,13 @@
       <c r="H439" s="5"/>
       <c r="I439" s="5"/>
       <c r="J439" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K439" s="5"/>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A440" s="18">
+      <c r="A440" s="16">
         <v>442</v>
       </c>
       <c r="B440" s="6"/>
@@ -8930,13 +8919,13 @@
       <c r="H440" s="5"/>
       <c r="I440" s="5"/>
       <c r="J440" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K440" s="5"/>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A441" s="18">
+      <c r="A441" s="16">
         <v>443</v>
       </c>
       <c r="B441" s="6"/>
@@ -8948,13 +8937,13 @@
       <c r="H441" s="5"/>
       <c r="I441" s="5"/>
       <c r="J441" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K441" s="5"/>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A442" s="18">
+      <c r="A442" s="16">
         <v>444</v>
       </c>
       <c r="B442" s="6"/>
@@ -8966,13 +8955,13 @@
       <c r="H442" s="5"/>
       <c r="I442" s="5"/>
       <c r="J442" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K442" s="5"/>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A443" s="18">
+      <c r="A443" s="16">
         <v>445</v>
       </c>
       <c r="B443" s="6"/>
@@ -8984,13 +8973,13 @@
       <c r="H443" s="5"/>
       <c r="I443" s="5"/>
       <c r="J443" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K443" s="5"/>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A444" s="18">
+      <c r="A444" s="16">
         <v>446</v>
       </c>
       <c r="B444" s="6"/>
@@ -9002,13 +8991,13 @@
       <c r="H444" s="5"/>
       <c r="I444" s="5"/>
       <c r="J444" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K444" s="5"/>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A445" s="18">
+      <c r="A445" s="16">
         <v>447</v>
       </c>
       <c r="B445" s="6"/>
@@ -9020,13 +9009,13 @@
       <c r="H445" s="5"/>
       <c r="I445" s="5"/>
       <c r="J445" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K445" s="5"/>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A446" s="18">
+      <c r="A446" s="16">
         <v>448</v>
       </c>
       <c r="B446" s="6"/>
@@ -9038,13 +9027,13 @@
       <c r="H446" s="5"/>
       <c r="I446" s="5"/>
       <c r="J446" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K446" s="5"/>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A447" s="18">
+      <c r="A447" s="16">
         <v>449</v>
       </c>
       <c r="B447" s="6"/>
@@ -9056,13 +9045,13 @@
       <c r="H447" s="5"/>
       <c r="I447" s="5"/>
       <c r="J447" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K447" s="5"/>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A448" s="18">
+      <c r="A448" s="16">
         <v>450</v>
       </c>
       <c r="B448" s="6"/>
@@ -9074,13 +9063,13 @@
       <c r="H448" s="5"/>
       <c r="I448" s="5"/>
       <c r="J448" s="5">
-        <f t="shared" ref="J448:J511" si="7">H448:H998-I448:I998</f>
+        <f t="shared" ref="J448:J511" si="8">H448:H998-I448:I998</f>
         <v>0</v>
       </c>
       <c r="K448" s="5"/>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A449" s="18">
+      <c r="A449" s="16">
         <v>451</v>
       </c>
       <c r="B449" s="6"/>
@@ -9092,13 +9081,13 @@
       <c r="H449" s="5"/>
       <c r="I449" s="5"/>
       <c r="J449" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K449" s="5"/>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A450" s="18">
+      <c r="A450" s="16">
         <v>452</v>
       </c>
       <c r="B450" s="6"/>
@@ -9110,13 +9099,13 @@
       <c r="H450" s="5"/>
       <c r="I450" s="5"/>
       <c r="J450" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K450" s="5"/>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A451" s="18">
+      <c r="A451" s="16">
         <v>453</v>
       </c>
       <c r="B451" s="6"/>
@@ -9128,13 +9117,13 @@
       <c r="H451" s="5"/>
       <c r="I451" s="5"/>
       <c r="J451" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K451" s="5"/>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A452" s="18">
+      <c r="A452" s="16">
         <v>454</v>
       </c>
       <c r="B452" s="6"/>
@@ -9146,13 +9135,13 @@
       <c r="H452" s="5"/>
       <c r="I452" s="5"/>
       <c r="J452" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K452" s="5"/>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A453" s="18">
+      <c r="A453" s="16">
         <v>455</v>
       </c>
       <c r="B453" s="6"/>
@@ -9164,13 +9153,13 @@
       <c r="H453" s="5"/>
       <c r="I453" s="5"/>
       <c r="J453" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K453" s="5"/>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A454" s="18">
+      <c r="A454" s="16">
         <v>456</v>
       </c>
       <c r="B454" s="6"/>
@@ -9182,13 +9171,13 @@
       <c r="H454" s="5"/>
       <c r="I454" s="5"/>
       <c r="J454" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K454" s="5"/>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A455" s="18">
+      <c r="A455" s="16">
         <v>457</v>
       </c>
       <c r="B455" s="6"/>
@@ -9200,13 +9189,13 @@
       <c r="H455" s="5"/>
       <c r="I455" s="5"/>
       <c r="J455" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K455" s="5"/>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A456" s="18">
+      <c r="A456" s="16">
         <v>458</v>
       </c>
       <c r="B456" s="6"/>
@@ -9218,13 +9207,13 @@
       <c r="H456" s="5"/>
       <c r="I456" s="5"/>
       <c r="J456" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K456" s="5"/>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A457" s="18">
+      <c r="A457" s="16">
         <v>459</v>
       </c>
       <c r="B457" s="6"/>
@@ -9236,13 +9225,13 @@
       <c r="H457" s="5"/>
       <c r="I457" s="5"/>
       <c r="J457" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K457" s="5"/>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A458" s="18">
+      <c r="A458" s="16">
         <v>460</v>
       </c>
       <c r="B458" s="6"/>
@@ -9254,13 +9243,13 @@
       <c r="H458" s="5"/>
       <c r="I458" s="5"/>
       <c r="J458" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K458" s="5"/>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A459" s="18">
+      <c r="A459" s="16">
         <v>461</v>
       </c>
       <c r="B459" s="6"/>
@@ -9272,13 +9261,13 @@
       <c r="H459" s="5"/>
       <c r="I459" s="5"/>
       <c r="J459" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K459" s="5"/>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A460" s="18">
+      <c r="A460" s="16">
         <v>462</v>
       </c>
       <c r="B460" s="6"/>
@@ -9290,13 +9279,13 @@
       <c r="H460" s="5"/>
       <c r="I460" s="5"/>
       <c r="J460" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K460" s="5"/>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A461" s="18">
+      <c r="A461" s="16">
         <v>463</v>
       </c>
       <c r="B461" s="6"/>
@@ -9308,13 +9297,13 @@
       <c r="H461" s="5"/>
       <c r="I461" s="5"/>
       <c r="J461" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K461" s="5"/>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A462" s="18">
+      <c r="A462" s="16">
         <v>464</v>
       </c>
       <c r="B462" s="6"/>
@@ -9326,13 +9315,13 @@
       <c r="H462" s="5"/>
       <c r="I462" s="5"/>
       <c r="J462" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K462" s="5"/>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A463" s="18">
+      <c r="A463" s="16">
         <v>465</v>
       </c>
       <c r="B463" s="6"/>
@@ -9344,13 +9333,13 @@
       <c r="H463" s="5"/>
       <c r="I463" s="5"/>
       <c r="J463" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K463" s="5"/>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A464" s="18">
+      <c r="A464" s="16">
         <v>466</v>
       </c>
       <c r="B464" s="6"/>
@@ -9362,13 +9351,13 @@
       <c r="H464" s="5"/>
       <c r="I464" s="5"/>
       <c r="J464" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K464" s="5"/>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A465" s="18">
+      <c r="A465" s="16">
         <v>467</v>
       </c>
       <c r="B465" s="6"/>
@@ -9380,13 +9369,13 @@
       <c r="H465" s="5"/>
       <c r="I465" s="5"/>
       <c r="J465" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K465" s="5"/>
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A466" s="18">
+      <c r="A466" s="16">
         <v>468</v>
       </c>
       <c r="B466" s="6"/>
@@ -9398,13 +9387,13 @@
       <c r="H466" s="5"/>
       <c r="I466" s="5"/>
       <c r="J466" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K466" s="5"/>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A467" s="18">
+      <c r="A467" s="16">
         <v>469</v>
       </c>
       <c r="B467" s="6"/>
@@ -9416,13 +9405,13 @@
       <c r="H467" s="5"/>
       <c r="I467" s="5"/>
       <c r="J467" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K467" s="5"/>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A468" s="18">
+      <c r="A468" s="16">
         <v>470</v>
       </c>
       <c r="B468" s="6"/>
@@ -9434,13 +9423,13 @@
       <c r="H468" s="5"/>
       <c r="I468" s="5"/>
       <c r="J468" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K468" s="5"/>
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A469" s="18">
+      <c r="A469" s="16">
         <v>471</v>
       </c>
       <c r="B469" s="6"/>
@@ -9452,13 +9441,13 @@
       <c r="H469" s="5"/>
       <c r="I469" s="5"/>
       <c r="J469" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K469" s="5"/>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A470" s="18">
+      <c r="A470" s="16">
         <v>472</v>
       </c>
       <c r="B470" s="6"/>
@@ -9470,13 +9459,13 @@
       <c r="H470" s="5"/>
       <c r="I470" s="5"/>
       <c r="J470" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K470" s="5"/>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A471" s="18">
+      <c r="A471" s="16">
         <v>473</v>
       </c>
       <c r="B471" s="6"/>
@@ -9488,13 +9477,13 @@
       <c r="H471" s="5"/>
       <c r="I471" s="5"/>
       <c r="J471" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K471" s="5"/>
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A472" s="18">
+      <c r="A472" s="16">
         <v>474</v>
       </c>
       <c r="B472" s="6"/>
@@ -9506,13 +9495,13 @@
       <c r="H472" s="5"/>
       <c r="I472" s="5"/>
       <c r="J472" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K472" s="5"/>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A473" s="18">
+      <c r="A473" s="16">
         <v>475</v>
       </c>
       <c r="B473" s="6"/>
@@ -9524,13 +9513,13 @@
       <c r="H473" s="5"/>
       <c r="I473" s="5"/>
       <c r="J473" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K473" s="5"/>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A474" s="18">
+      <c r="A474" s="16">
         <v>476</v>
       </c>
       <c r="B474" s="6"/>
@@ -9542,13 +9531,13 @@
       <c r="H474" s="5"/>
       <c r="I474" s="5"/>
       <c r="J474" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K474" s="5"/>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A475" s="18">
+      <c r="A475" s="16">
         <v>477</v>
       </c>
       <c r="B475" s="6"/>
@@ -9560,13 +9549,13 @@
       <c r="H475" s="5"/>
       <c r="I475" s="5"/>
       <c r="J475" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K475" s="5"/>
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A476" s="18">
+      <c r="A476" s="16">
         <v>478</v>
       </c>
       <c r="B476" s="6"/>
@@ -9578,13 +9567,13 @@
       <c r="H476" s="5"/>
       <c r="I476" s="5"/>
       <c r="J476" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K476" s="5"/>
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A477" s="18">
+      <c r="A477" s="16">
         <v>479</v>
       </c>
       <c r="B477" s="6"/>
@@ -9596,13 +9585,13 @@
       <c r="H477" s="5"/>
       <c r="I477" s="5"/>
       <c r="J477" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K477" s="5"/>
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A478" s="18">
+      <c r="A478" s="16">
         <v>480</v>
       </c>
       <c r="B478" s="6"/>
@@ -9614,13 +9603,13 @@
       <c r="H478" s="5"/>
       <c r="I478" s="5"/>
       <c r="J478" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K478" s="5"/>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A479" s="18">
+      <c r="A479" s="16">
         <v>481</v>
       </c>
       <c r="B479" s="6"/>
@@ -9632,13 +9621,13 @@
       <c r="H479" s="5"/>
       <c r="I479" s="5"/>
       <c r="J479" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K479" s="5"/>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A480" s="18">
+      <c r="A480" s="16">
         <v>482</v>
       </c>
       <c r="B480" s="6"/>
@@ -9650,13 +9639,13 @@
       <c r="H480" s="5"/>
       <c r="I480" s="5"/>
       <c r="J480" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K480" s="5"/>
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A481" s="18">
+      <c r="A481" s="16">
         <v>483</v>
       </c>
       <c r="B481" s="6"/>
@@ -9668,13 +9657,13 @@
       <c r="H481" s="5"/>
       <c r="I481" s="5"/>
       <c r="J481" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K481" s="5"/>
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A482" s="18">
+      <c r="A482" s="16">
         <v>484</v>
       </c>
       <c r="B482" s="6"/>
@@ -9686,13 +9675,13 @@
       <c r="H482" s="5"/>
       <c r="I482" s="5"/>
       <c r="J482" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K482" s="5"/>
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A483" s="18">
+      <c r="A483" s="16">
         <v>485</v>
       </c>
       <c r="B483" s="6"/>
@@ -9704,13 +9693,13 @@
       <c r="H483" s="5"/>
       <c r="I483" s="5"/>
       <c r="J483" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K483" s="5"/>
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A484" s="18">
+      <c r="A484" s="16">
         <v>486</v>
       </c>
       <c r="B484" s="6"/>
@@ -9722,13 +9711,13 @@
       <c r="H484" s="5"/>
       <c r="I484" s="5"/>
       <c r="J484" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K484" s="5"/>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A485" s="18">
+      <c r="A485" s="16">
         <v>487</v>
       </c>
       <c r="B485" s="6"/>
@@ -9740,13 +9729,13 @@
       <c r="H485" s="5"/>
       <c r="I485" s="5"/>
       <c r="J485" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K485" s="5"/>
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A486" s="18">
+      <c r="A486" s="16">
         <v>488</v>
       </c>
       <c r="B486" s="6"/>
@@ -9758,13 +9747,13 @@
       <c r="H486" s="5"/>
       <c r="I486" s="5"/>
       <c r="J486" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K486" s="5"/>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A487" s="18">
+      <c r="A487" s="16">
         <v>489</v>
       </c>
       <c r="B487" s="6"/>
@@ -9776,13 +9765,13 @@
       <c r="H487" s="5"/>
       <c r="I487" s="5"/>
       <c r="J487" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K487" s="5"/>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A488" s="18">
+      <c r="A488" s="16">
         <v>490</v>
       </c>
       <c r="B488" s="6"/>
@@ -9794,13 +9783,13 @@
       <c r="H488" s="5"/>
       <c r="I488" s="5"/>
       <c r="J488" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K488" s="5"/>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A489" s="18">
+      <c r="A489" s="16">
         <v>491</v>
       </c>
       <c r="B489" s="6"/>
@@ -9812,13 +9801,13 @@
       <c r="H489" s="5"/>
       <c r="I489" s="5"/>
       <c r="J489" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K489" s="5"/>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A490" s="18">
+      <c r="A490" s="16">
         <v>492</v>
       </c>
       <c r="B490" s="6"/>
@@ -9830,13 +9819,13 @@
       <c r="H490" s="5"/>
       <c r="I490" s="5"/>
       <c r="J490" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K490" s="5"/>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A491" s="18">
+      <c r="A491" s="16">
         <v>493</v>
       </c>
       <c r="B491" s="6"/>
@@ -9848,13 +9837,13 @@
       <c r="H491" s="5"/>
       <c r="I491" s="5"/>
       <c r="J491" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K491" s="5"/>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A492" s="18">
+      <c r="A492" s="16">
         <v>494</v>
       </c>
       <c r="B492" s="6"/>
@@ -9866,13 +9855,13 @@
       <c r="H492" s="5"/>
       <c r="I492" s="5"/>
       <c r="J492" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K492" s="5"/>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A493" s="18">
+      <c r="A493" s="16">
         <v>495</v>
       </c>
       <c r="B493" s="6"/>
@@ -9884,13 +9873,13 @@
       <c r="H493" s="5"/>
       <c r="I493" s="5"/>
       <c r="J493" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K493" s="5"/>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A494" s="18">
+      <c r="A494" s="16">
         <v>496</v>
       </c>
       <c r="B494" s="6"/>
@@ -9902,13 +9891,13 @@
       <c r="H494" s="5"/>
       <c r="I494" s="5"/>
       <c r="J494" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K494" s="5"/>
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A495" s="18">
+      <c r="A495" s="16">
         <v>497</v>
       </c>
       <c r="B495" s="6"/>
@@ -9920,13 +9909,13 @@
       <c r="H495" s="5"/>
       <c r="I495" s="5"/>
       <c r="J495" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K495" s="5"/>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A496" s="18">
+      <c r="A496" s="16">
         <v>498</v>
       </c>
       <c r="B496" s="6"/>
@@ -9938,13 +9927,13 @@
       <c r="H496" s="5"/>
       <c r="I496" s="5"/>
       <c r="J496" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K496" s="5"/>
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A497" s="18">
+      <c r="A497" s="16">
         <v>499</v>
       </c>
       <c r="B497" s="6"/>
@@ -9956,13 +9945,13 @@
       <c r="H497" s="5"/>
       <c r="I497" s="5"/>
       <c r="J497" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K497" s="5"/>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A498" s="18">
+      <c r="A498" s="16">
         <v>500</v>
       </c>
       <c r="B498" s="6"/>
@@ -9974,13 +9963,13 @@
       <c r="H498" s="5"/>
       <c r="I498" s="5"/>
       <c r="J498" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K498" s="5"/>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A499" s="18">
+      <c r="A499" s="16">
         <v>501</v>
       </c>
       <c r="B499" s="6"/>
@@ -9992,13 +9981,13 @@
       <c r="H499" s="5"/>
       <c r="I499" s="5"/>
       <c r="J499" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K499" s="5"/>
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A500" s="18">
+      <c r="A500" s="16">
         <v>502</v>
       </c>
       <c r="B500" s="6"/>
@@ -10010,13 +9999,13 @@
       <c r="H500" s="5"/>
       <c r="I500" s="5"/>
       <c r="J500" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K500" s="5"/>
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A501" s="18">
+      <c r="A501" s="16">
         <v>503</v>
       </c>
       <c r="B501" s="6"/>
@@ -10028,13 +10017,13 @@
       <c r="H501" s="5"/>
       <c r="I501" s="5"/>
       <c r="J501" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K501" s="5"/>
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A502" s="18">
+      <c r="A502" s="16">
         <v>504</v>
       </c>
       <c r="B502" s="6"/>
@@ -10046,13 +10035,13 @@
       <c r="H502" s="5"/>
       <c r="I502" s="5"/>
       <c r="J502" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K502" s="5"/>
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A503" s="18">
+      <c r="A503" s="16">
         <v>505</v>
       </c>
       <c r="B503" s="6"/>
@@ -10064,13 +10053,13 @@
       <c r="H503" s="5"/>
       <c r="I503" s="5"/>
       <c r="J503" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K503" s="5"/>
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A504" s="18">
+      <c r="A504" s="16">
         <v>506</v>
       </c>
       <c r="B504" s="6"/>
@@ -10082,13 +10071,13 @@
       <c r="H504" s="5"/>
       <c r="I504" s="5"/>
       <c r="J504" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K504" s="5"/>
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A505" s="18">
+      <c r="A505" s="16">
         <v>507</v>
       </c>
       <c r="B505" s="6"/>
@@ -10100,13 +10089,13 @@
       <c r="H505" s="5"/>
       <c r="I505" s="5"/>
       <c r="J505" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K505" s="5"/>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A506" s="18">
+      <c r="A506" s="16">
         <v>508</v>
       </c>
       <c r="B506" s="6"/>
@@ -10118,13 +10107,13 @@
       <c r="H506" s="5"/>
       <c r="I506" s="5"/>
       <c r="J506" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K506" s="5"/>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A507" s="18">
+      <c r="A507" s="16">
         <v>509</v>
       </c>
       <c r="B507" s="6"/>
@@ -10136,13 +10125,13 @@
       <c r="H507" s="5"/>
       <c r="I507" s="5"/>
       <c r="J507" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K507" s="5"/>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A508" s="18">
+      <c r="A508" s="16">
         <v>510</v>
       </c>
       <c r="B508" s="6"/>
@@ -10154,13 +10143,13 @@
       <c r="H508" s="5"/>
       <c r="I508" s="5"/>
       <c r="J508" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K508" s="5"/>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A509" s="18">
+      <c r="A509" s="16">
         <v>511</v>
       </c>
       <c r="B509" s="6"/>
@@ -10172,13 +10161,13 @@
       <c r="H509" s="5"/>
       <c r="I509" s="5"/>
       <c r="J509" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K509" s="5"/>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A510" s="18">
+      <c r="A510" s="16">
         <v>512</v>
       </c>
       <c r="B510" s="6"/>
@@ -10190,13 +10179,13 @@
       <c r="H510" s="5"/>
       <c r="I510" s="5"/>
       <c r="J510" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K510" s="5"/>
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A511" s="18">
+      <c r="A511" s="16">
         <v>513</v>
       </c>
       <c r="B511" s="6"/>
@@ -10208,13 +10197,13 @@
       <c r="H511" s="5"/>
       <c r="I511" s="5"/>
       <c r="J511" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K511" s="5"/>
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A512" s="18">
+      <c r="A512" s="16">
         <v>514</v>
       </c>
       <c r="B512" s="6"/>
@@ -10226,13 +10215,13 @@
       <c r="H512" s="5"/>
       <c r="I512" s="5"/>
       <c r="J512" s="5">
-        <f t="shared" ref="J512:J549" si="8">H512:H1062-I512:I1062</f>
+        <f t="shared" ref="J512:J549" si="9">H512:H1062-I512:I1062</f>
         <v>0</v>
       </c>
       <c r="K512" s="5"/>
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A513" s="18">
+      <c r="A513" s="16">
         <v>515</v>
       </c>
       <c r="B513" s="6"/>
@@ -10244,13 +10233,13 @@
       <c r="H513" s="5"/>
       <c r="I513" s="5"/>
       <c r="J513" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K513" s="5"/>
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A514" s="18">
+      <c r="A514" s="16">
         <v>516</v>
       </c>
       <c r="B514" s="6"/>
@@ -10262,13 +10251,13 @@
       <c r="H514" s="5"/>
       <c r="I514" s="5"/>
       <c r="J514" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K514" s="5"/>
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A515" s="18">
+      <c r="A515" s="16">
         <v>517</v>
       </c>
       <c r="B515" s="6"/>
@@ -10280,13 +10269,13 @@
       <c r="H515" s="5"/>
       <c r="I515" s="5"/>
       <c r="J515" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K515" s="5"/>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A516" s="18">
+      <c r="A516" s="16">
         <v>518</v>
       </c>
       <c r="B516" s="6"/>
@@ -10298,13 +10287,13 @@
       <c r="H516" s="5"/>
       <c r="I516" s="5"/>
       <c r="J516" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K516" s="5"/>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A517" s="18">
+      <c r="A517" s="16">
         <v>519</v>
       </c>
       <c r="B517" s="6"/>
@@ -10316,13 +10305,13 @@
       <c r="H517" s="5"/>
       <c r="I517" s="5"/>
       <c r="J517" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K517" s="5"/>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A518" s="18">
+      <c r="A518" s="16">
         <v>520</v>
       </c>
       <c r="B518" s="6"/>
@@ -10334,13 +10323,13 @@
       <c r="H518" s="5"/>
       <c r="I518" s="5"/>
       <c r="J518" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K518" s="5"/>
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A519" s="18">
+      <c r="A519" s="16">
         <v>521</v>
       </c>
       <c r="B519" s="6"/>
@@ -10352,13 +10341,13 @@
       <c r="H519" s="5"/>
       <c r="I519" s="5"/>
       <c r="J519" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K519" s="5"/>
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A520" s="18">
+      <c r="A520" s="16">
         <v>522</v>
       </c>
       <c r="B520" s="6"/>
@@ -10370,13 +10359,13 @@
       <c r="H520" s="5"/>
       <c r="I520" s="5"/>
       <c r="J520" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K520" s="5"/>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A521" s="18">
+      <c r="A521" s="16">
         <v>523</v>
       </c>
       <c r="B521" s="6"/>
@@ -10388,13 +10377,13 @@
       <c r="H521" s="5"/>
       <c r="I521" s="5"/>
       <c r="J521" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K521" s="5"/>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A522" s="18">
+      <c r="A522" s="16">
         <v>524</v>
       </c>
       <c r="B522" s="6"/>
@@ -10406,13 +10395,13 @@
       <c r="H522" s="5"/>
       <c r="I522" s="5"/>
       <c r="J522" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K522" s="5"/>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A523" s="18">
+      <c r="A523" s="16">
         <v>525</v>
       </c>
       <c r="B523" s="6"/>
@@ -10424,13 +10413,13 @@
       <c r="H523" s="5"/>
       <c r="I523" s="5"/>
       <c r="J523" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K523" s="5"/>
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A524" s="18">
+      <c r="A524" s="16">
         <v>526</v>
       </c>
       <c r="B524" s="6"/>
@@ -10442,13 +10431,13 @@
       <c r="H524" s="5"/>
       <c r="I524" s="5"/>
       <c r="J524" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K524" s="5"/>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A525" s="18">
+      <c r="A525" s="16">
         <v>527</v>
       </c>
       <c r="B525" s="6"/>
@@ -10460,13 +10449,13 @@
       <c r="H525" s="5"/>
       <c r="I525" s="5"/>
       <c r="J525" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K525" s="5"/>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A526" s="18">
+      <c r="A526" s="16">
         <v>528</v>
       </c>
       <c r="B526" s="6"/>
@@ -10478,13 +10467,13 @@
       <c r="H526" s="5"/>
       <c r="I526" s="5"/>
       <c r="J526" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K526" s="5"/>
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A527" s="18">
+      <c r="A527" s="16">
         <v>529</v>
       </c>
       <c r="B527" s="6"/>
@@ -10496,13 +10485,13 @@
       <c r="H527" s="5"/>
       <c r="I527" s="5"/>
       <c r="J527" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K527" s="5"/>
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A528" s="18">
+      <c r="A528" s="16">
         <v>530</v>
       </c>
       <c r="B528" s="6"/>
@@ -10514,13 +10503,13 @@
       <c r="H528" s="5"/>
       <c r="I528" s="5"/>
       <c r="J528" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K528" s="5"/>
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A529" s="18">
+      <c r="A529" s="16">
         <v>531</v>
       </c>
       <c r="B529" s="6"/>
@@ -10532,13 +10521,13 @@
       <c r="H529" s="5"/>
       <c r="I529" s="5"/>
       <c r="J529" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K529" s="5"/>
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A530" s="18">
+      <c r="A530" s="16">
         <v>532</v>
       </c>
       <c r="B530" s="6"/>
@@ -10550,13 +10539,13 @@
       <c r="H530" s="5"/>
       <c r="I530" s="5"/>
       <c r="J530" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K530" s="5"/>
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A531" s="18">
+      <c r="A531" s="16">
         <v>533</v>
       </c>
       <c r="B531" s="6"/>
@@ -10568,13 +10557,13 @@
       <c r="H531" s="5"/>
       <c r="I531" s="5"/>
       <c r="J531" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K531" s="5"/>
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A532" s="18">
+      <c r="A532" s="16">
         <v>534</v>
       </c>
       <c r="B532" s="6"/>
@@ -10586,13 +10575,13 @@
       <c r="H532" s="5"/>
       <c r="I532" s="5"/>
       <c r="J532" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K532" s="5"/>
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A533" s="18">
+      <c r="A533" s="16">
         <v>535</v>
       </c>
       <c r="B533" s="6"/>
@@ -10604,13 +10593,13 @@
       <c r="H533" s="5"/>
       <c r="I533" s="5"/>
       <c r="J533" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K533" s="5"/>
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A534" s="18">
+      <c r="A534" s="16">
         <v>536</v>
       </c>
       <c r="B534" s="6"/>
@@ -10622,13 +10611,13 @@
       <c r="H534" s="5"/>
       <c r="I534" s="5"/>
       <c r="J534" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K534" s="5"/>
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A535" s="18">
+      <c r="A535" s="16">
         <v>537</v>
       </c>
       <c r="B535" s="6"/>
@@ -10640,13 +10629,13 @@
       <c r="H535" s="5"/>
       <c r="I535" s="5"/>
       <c r="J535" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K535" s="5"/>
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A536" s="18">
+      <c r="A536" s="16">
         <v>538</v>
       </c>
       <c r="B536" s="6"/>
@@ -10658,13 +10647,13 @@
       <c r="H536" s="5"/>
       <c r="I536" s="5"/>
       <c r="J536" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K536" s="5"/>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A537" s="18">
+      <c r="A537" s="16">
         <v>539</v>
       </c>
       <c r="B537" s="6"/>
@@ -10676,13 +10665,13 @@
       <c r="H537" s="5"/>
       <c r="I537" s="5"/>
       <c r="J537" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K537" s="5"/>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A538" s="18">
+      <c r="A538" s="16">
         <v>540</v>
       </c>
       <c r="B538" s="6"/>
@@ -10694,13 +10683,13 @@
       <c r="H538" s="5"/>
       <c r="I538" s="5"/>
       <c r="J538" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K538" s="5"/>
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A539" s="18">
+      <c r="A539" s="16">
         <v>541</v>
       </c>
       <c r="B539" s="6"/>
@@ -10712,13 +10701,13 @@
       <c r="H539" s="5"/>
       <c r="I539" s="5"/>
       <c r="J539" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K539" s="5"/>
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A540" s="18">
+      <c r="A540" s="16">
         <v>542</v>
       </c>
       <c r="B540" s="6"/>
@@ -10730,13 +10719,13 @@
       <c r="H540" s="5"/>
       <c r="I540" s="5"/>
       <c r="J540" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K540" s="5"/>
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A541" s="18">
+      <c r="A541" s="16">
         <v>543</v>
       </c>
       <c r="B541" s="6"/>
@@ -10748,13 +10737,13 @@
       <c r="H541" s="5"/>
       <c r="I541" s="5"/>
       <c r="J541" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K541" s="5"/>
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A542" s="18">
+      <c r="A542" s="16">
         <v>544</v>
       </c>
       <c r="B542" s="6"/>
@@ -10766,13 +10755,13 @@
       <c r="H542" s="5"/>
       <c r="I542" s="5"/>
       <c r="J542" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K542" s="5"/>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A543" s="18">
+      <c r="A543" s="16">
         <v>545</v>
       </c>
       <c r="B543" s="6"/>
@@ -10784,13 +10773,13 @@
       <c r="H543" s="5"/>
       <c r="I543" s="5"/>
       <c r="J543" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K543" s="5"/>
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A544" s="18">
+      <c r="A544" s="16">
         <v>546</v>
       </c>
       <c r="B544" s="6"/>
@@ -10802,13 +10791,13 @@
       <c r="H544" s="5"/>
       <c r="I544" s="5"/>
       <c r="J544" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K544" s="5"/>
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A545" s="18">
+      <c r="A545" s="16">
         <v>547</v>
       </c>
       <c r="B545" s="6"/>
@@ -10820,13 +10809,13 @@
       <c r="H545" s="5"/>
       <c r="I545" s="5"/>
       <c r="J545" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K545" s="5"/>
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A546" s="18">
+      <c r="A546" s="16">
         <v>548</v>
       </c>
       <c r="B546" s="6"/>
@@ -10838,13 +10827,13 @@
       <c r="H546" s="5"/>
       <c r="I546" s="5"/>
       <c r="J546" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K546" s="5"/>
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A547" s="18">
+      <c r="A547" s="16">
         <v>549</v>
       </c>
       <c r="B547" s="6"/>
@@ -10856,13 +10845,13 @@
       <c r="H547" s="5"/>
       <c r="I547" s="5"/>
       <c r="J547" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K547" s="5"/>
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A548" s="18">
+      <c r="A548" s="16">
         <v>550</v>
       </c>
       <c r="B548" s="6"/>
@@ -10874,13 +10863,13 @@
       <c r="H548" s="5"/>
       <c r="I548" s="5"/>
       <c r="J548" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K548" s="5"/>
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A549" s="18">
+      <c r="A549" s="16">
         <v>551</v>
       </c>
       <c r="B549" s="6"/>
@@ -10892,7 +10881,7 @@
       <c r="H549" s="5"/>
       <c r="I549" s="5"/>
       <c r="J549" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K549" s="5"/>
@@ -10930,14 +10919,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
